--- a/Excel/Clase del 6 de Junio 2021.xlsx
+++ b/Excel/Clase del 6 de Junio 2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Luis\Documents\GitProjects\Clases-octave\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terra\Documents\proyectosdegit\Clases-octave\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12B0D2FF-A74A-472B-BB77-AA1245661715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6600D267-83D1-48CD-9D9C-D3A34A96B3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{16CBA18E-EC08-4D74-81F4-A2DC17C4380D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{16CBA18E-EC08-4D74-81F4-A2DC17C4380D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -84,7 +84,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,8 +117,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>154860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
@@ -137,7 +137,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Entrada de lápiz 1">
@@ -182,8 +182,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Entrada de lápiz 4">
@@ -202,7 +202,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Entrada de lápiz 4">
@@ -247,8 +247,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>183540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Entrada de lápiz 19">
@@ -267,7 +267,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Entrada de lápiz 19">
@@ -312,8 +312,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Entrada de lápiz 29">
@@ -332,7 +332,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Entrada de lápiz 29">
@@ -377,8 +377,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>52680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="Entrada de lápiz 32">
@@ -397,7 +397,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="Entrada de lápiz 32">
@@ -442,8 +442,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>46740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="46" name="Entrada de lápiz 45">
@@ -462,7 +462,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="46" name="Entrada de lápiz 45">
@@ -507,8 +507,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>66540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="54" name="Entrada de lápiz 53">
@@ -527,7 +527,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="54" name="Entrada de lápiz 53">
@@ -572,8 +572,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="55" name="Entrada de lápiz 54">
@@ -592,7 +592,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="55" name="Entrada de lápiz 54">
@@ -637,8 +637,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>85800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="114" name="Entrada de lápiz 113">
@@ -657,7 +657,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="114" name="Entrada de lápiz 113">
@@ -702,8 +702,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>133260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="115" name="Entrada de lápiz 114">
@@ -722,7 +722,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="115" name="Entrada de lápiz 114">
@@ -767,8 +767,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>49740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="116" name="Entrada de lápiz 115">
@@ -787,7 +787,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="116" name="Entrada de lápiz 115">
@@ -832,8 +832,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>49740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="117" name="Entrada de lápiz 116">
@@ -852,7 +852,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="117" name="Entrada de lápiz 116">
@@ -897,8 +897,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>52860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="124" name="Entrada de lápiz 123">
@@ -917,7 +917,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="124" name="Entrada de lápiz 123">
@@ -962,8 +962,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>66900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="131" name="Entrada de lápiz 130">
@@ -982,7 +982,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="131" name="Entrada de lápiz 130">
@@ -1071,8 +1071,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>9480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="133" name="Entrada de lápiz 132">
@@ -1091,7 +1091,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="133" name="Entrada de lápiz 132">
@@ -1136,8 +1136,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>101400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="136" name="Entrada de lápiz 135">
@@ -1156,7 +1156,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="136" name="Entrada de lápiz 135">
@@ -1201,8 +1201,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>55980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="145" name="Entrada de lápiz 144">
@@ -1221,7 +1221,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="145" name="Entrada de lápiz 144">
@@ -1266,8 +1266,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>28680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="151" name="Entrada de lápiz 150">
@@ -1286,7 +1286,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="151" name="Entrada de lápiz 150">
@@ -1331,8 +1331,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>137400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="152" name="Entrada de lápiz 151">
@@ -1351,7 +1351,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="152" name="Entrada de lápiz 151">
@@ -1396,8 +1396,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>165420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="153" name="Entrada de lápiz 152">
@@ -1416,7 +1416,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="153" name="Entrada de lápiz 152">
@@ -1461,8 +1461,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>182760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="160" name="Entrada de lápiz 159">
@@ -1481,7 +1481,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="160" name="Entrada de lápiz 159">
@@ -1526,8 +1526,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>161940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="161" name="Entrada de lápiz 160">
@@ -1546,7 +1546,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="161" name="Entrada de lápiz 160">
@@ -1591,8 +1591,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>92700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="166" name="Entrada de lápiz 165">
@@ -1611,7 +1611,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="166" name="Entrada de lápiz 165">
@@ -1656,8 +1656,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>105240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="181" name="Entrada de lápiz 180">
@@ -1676,7 +1676,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="181" name="Entrada de lápiz 180">
@@ -1721,8 +1721,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>100260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="188" name="Entrada de lápiz 187">
@@ -1741,7 +1741,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="188" name="Entrada de lápiz 187">
@@ -1786,8 +1786,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>177300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="193" name="Entrada de lápiz 192">
@@ -1806,7 +1806,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="193" name="Entrada de lápiz 192">
@@ -1851,8 +1851,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>65580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="256" name="Entrada de lápiz 255">
@@ -1871,7 +1871,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="256" name="Entrada de lápiz 255">
@@ -1916,8 +1916,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>120360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="259" name="Entrada de lápiz 258">
@@ -1936,7 +1936,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="259" name="Entrada de lápiz 258">
@@ -1981,8 +1981,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="260" name="Entrada de lápiz 259">
@@ -2001,7 +2001,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="260" name="Entrada de lápiz 259">
@@ -2046,8 +2046,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="263" name="Entrada de lápiz 262">
@@ -2066,7 +2066,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="263" name="Entrada de lápiz 262">
@@ -2111,8 +2111,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>16860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="266" name="Entrada de lápiz 265">
@@ -2131,7 +2131,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="266" name="Entrada de lápiz 265">
@@ -2176,8 +2176,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>104940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="269" name="Entrada de lápiz 268">
@@ -2196,7 +2196,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="269" name="Entrada de lápiz 268">
@@ -2241,8 +2241,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>112620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="275" name="Entrada de lápiz 274">
@@ -2261,7 +2261,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="275" name="Entrada de lápiz 274">
@@ -2306,8 +2306,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>28740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="276" name="Entrada de lápiz 275">
@@ -2326,7 +2326,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="276" name="Entrada de lápiz 275">
@@ -2371,8 +2371,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>180840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="281" name="Entrada de lápiz 280">
@@ -2391,7 +2391,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="281" name="Entrada de lápiz 280">
@@ -2436,8 +2436,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>48780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="282" name="Entrada de lápiz 281">
@@ -2456,7 +2456,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="282" name="Entrada de lápiz 281">
@@ -2501,8 +2501,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>138480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="284" name="Entrada de lápiz 283">
@@ -2521,7 +2521,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="284" name="Entrada de lápiz 283">
@@ -2566,8 +2566,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>141660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId74">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="285" name="Entrada de lápiz 284">
@@ -2586,7 +2586,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="285" name="Entrada de lápiz 284">
@@ -2631,8 +2631,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId76">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="286" name="Entrada de lápiz 285">
@@ -2651,7 +2651,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="286" name="Entrada de lápiz 285">
@@ -2789,8 +2789,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>162120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
@@ -2809,7 +2809,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Entrada de lápiz 2">
@@ -2854,8 +2854,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Entrada de lápiz 7">
@@ -2874,7 +2874,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Entrada de lápiz 7">
@@ -2919,8 +2919,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Entrada de lápiz 10">
@@ -2939,7 +2939,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Entrada de lápiz 10">
@@ -2984,8 +2984,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>30900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Entrada de lápiz 20">
@@ -3004,7 +3004,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Entrada de lápiz 20">
@@ -3049,8 +3049,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="Entrada de lápiz 33">
@@ -3069,7 +3069,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="34" name="Entrada de lápiz 33">
@@ -3114,8 +3114,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>9480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Entrada de lápiz 34">
@@ -3134,7 +3134,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Entrada de lápiz 34">
@@ -3179,8 +3179,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>44400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="36" name="Entrada de lápiz 35">
@@ -3199,7 +3199,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="36" name="Entrada de lápiz 35">
@@ -3244,8 +3244,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>28140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="Entrada de lápiz 46">
@@ -3264,7 +3264,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="47" name="Entrada de lápiz 46">
@@ -3309,8 +3309,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>66660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="57" name="Entrada de lápiz 56">
@@ -3329,7 +3329,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="57" name="Entrada de lápiz 56">
@@ -3374,8 +3374,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>162120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="58" name="Entrada de lápiz 57">
@@ -3394,7 +3394,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="58" name="Entrada de lápiz 57">
@@ -3439,8 +3439,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>79620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="64" name="Entrada de lápiz 63">
@@ -3459,7 +3459,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="64" name="Entrada de lápiz 63">
@@ -3504,8 +3504,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>86160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="65" name="Entrada de lápiz 64">
@@ -3524,7 +3524,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="65" name="Entrada de lápiz 64">
@@ -3569,8 +3569,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>86820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Entrada de lápiz 70">
@@ -3589,7 +3589,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Entrada de lápiz 70">
@@ -3634,8 +3634,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>8880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="78" name="Entrada de lápiz 77">
@@ -3654,7 +3654,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="78" name="Entrada de lápiz 77">
@@ -3699,8 +3699,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>61440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="88" name="Entrada de lápiz 87">
@@ -3719,7 +3719,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="88" name="Entrada de lápiz 87">
@@ -3764,8 +3764,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>66720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="104" name="Entrada de lápiz 103">
@@ -3784,7 +3784,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="104" name="Entrada de lápiz 103">
@@ -3829,8 +3829,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>81480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="144" name="Entrada de lápiz 143">
@@ -3849,7 +3849,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="144" name="Entrada de lápiz 143">
@@ -3894,8 +3894,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>129660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="147" name="Entrada de lápiz 146">
@@ -3914,7 +3914,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="147" name="Entrada de lápiz 146">
@@ -3959,8 +3959,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="148" name="Entrada de lápiz 147">
@@ -3979,7 +3979,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="148" name="Entrada de lápiz 147">
@@ -4024,8 +4024,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="157" name="Entrada de lápiz 156">
@@ -4044,7 +4044,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="157" name="Entrada de lápiz 156">
@@ -4089,8 +4089,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>143220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="166" name="Entrada de lápiz 165">
@@ -4109,7 +4109,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="166" name="Entrada de lápiz 165">
@@ -4154,8 +4154,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="182" name="Entrada de lápiz 181">
@@ -4174,7 +4174,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="182" name="Entrada de lápiz 181">
@@ -4219,8 +4219,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>9600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="195" name="Entrada de lápiz 194">
@@ -4239,7 +4239,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="195" name="Entrada de lápiz 194">
@@ -4284,8 +4284,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>161880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="196" name="Entrada de lápiz 195">
@@ -4304,7 +4304,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="196" name="Entrada de lápiz 195">
@@ -4349,8 +4349,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="199" name="Entrada de lápiz 198">
@@ -4369,7 +4369,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="199" name="Entrada de lápiz 198">
@@ -4414,8 +4414,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="207" name="Entrada de lápiz 206">
@@ -4434,7 +4434,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="207" name="Entrada de lápiz 206">
@@ -4479,8 +4479,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>155580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="214" name="Entrada de lápiz 213">
@@ -4499,7 +4499,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="214" name="Entrada de lápiz 213">
@@ -4544,8 +4544,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>183000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="217" name="Entrada de lápiz 216">
@@ -4564,7 +4564,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="217" name="Entrada de lápiz 216">
@@ -4609,8 +4609,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>60540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="222" name="Entrada de lápiz 221">
@@ -4629,7 +4629,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="222" name="Entrada de lápiz 221">
@@ -4674,8 +4674,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>86460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="231" name="Entrada de lápiz 230">
@@ -4694,7 +4694,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="231" name="Entrada de lápiz 230">
@@ -4739,8 +4739,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="232" name="Entrada de lápiz 231">
@@ -4759,7 +4759,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="232" name="Entrada de lápiz 231">
@@ -4804,8 +4804,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>2340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="239" name="Entrada de lápiz 238">
@@ -4824,7 +4824,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="239" name="Entrada de lápiz 238">
@@ -4869,8 +4869,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>147180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="255" name="Entrada de lápiz 254">
@@ -4889,7 +4889,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="255" name="Entrada de lápiz 254">
@@ -4934,8 +4934,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>57300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="256" name="Entrada de lápiz 255">
@@ -4954,7 +4954,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="256" name="Entrada de lápiz 255">
@@ -4999,8 +4999,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="257" name="Entrada de lápiz 256">
@@ -5019,7 +5019,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="257" name="Entrada de lápiz 256">
@@ -5064,8 +5064,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>95460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="258" name="Entrada de lápiz 257">
@@ -5084,7 +5084,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="258" name="Entrada de lápiz 257">
@@ -5129,8 +5129,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId74">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="261" name="Entrada de lápiz 260">
@@ -5149,7 +5149,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="261" name="Entrada de lápiz 260">
@@ -5194,8 +5194,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId76">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="266" name="Entrada de lápiz 265">
@@ -5214,7 +5214,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="266" name="Entrada de lápiz 265">
@@ -5259,8 +5259,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId78">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="274" name="Entrada de lápiz 273">
@@ -5279,7 +5279,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="274" name="Entrada de lápiz 273">
@@ -5324,8 +5324,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>173700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId80">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="275" name="Entrada de lápiz 274">
@@ -5344,7 +5344,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="275" name="Entrada de lápiz 274">
@@ -5389,8 +5389,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>189180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId82">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="284" name="Entrada de lápiz 283">
@@ -5409,7 +5409,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="284" name="Entrada de lápiz 283">
@@ -5454,8 +5454,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>152880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="286" name="Entrada de lápiz 285">
@@ -5474,7 +5474,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="286" name="Entrada de lápiz 285">
@@ -5519,8 +5519,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>19860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId86">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="308" name="Entrada de lápiz 307">
@@ -5539,7 +5539,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="308" name="Entrada de lápiz 307">
@@ -5584,8 +5584,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>152520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="309" name="Entrada de lápiz 308">
@@ -5604,7 +5604,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="309" name="Entrada de lápiz 308">
@@ -5649,8 +5649,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="310" name="Entrada de lápiz 309">
@@ -5669,7 +5669,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="310" name="Entrada de lápiz 309">
@@ -5714,8 +5714,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="311" name="Entrada de lápiz 310">
@@ -5734,7 +5734,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="311" name="Entrada de lápiz 310">
@@ -5779,8 +5779,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId94">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="319" name="Entrada de lápiz 318">
@@ -5799,7 +5799,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="319" name="Entrada de lápiz 318">
@@ -5844,8 +5844,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>136680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId96">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="326" name="Entrada de lápiz 325">
@@ -5864,7 +5864,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="326" name="Entrada de lápiz 325">
@@ -5909,8 +5909,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>180900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId98">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="335" name="Entrada de lápiz 334">
@@ -5929,7 +5929,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="335" name="Entrada de lápiz 334">
@@ -5974,8 +5974,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId100">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="357" name="Entrada de lápiz 356">
@@ -5994,7 +5994,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="357" name="Entrada de lápiz 356">
@@ -6039,8 +6039,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>67740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId102">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="369" name="Entrada de lápiz 368">
@@ -6059,7 +6059,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="369" name="Entrada de lápiz 368">
@@ -6104,8 +6104,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>47640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId104">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="372" name="Entrada de lápiz 371">
@@ -6124,7 +6124,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="372" name="Entrada de lápiz 371">
@@ -6169,8 +6169,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>180120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId106">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="379" name="Entrada de lápiz 378">
@@ -6189,7 +6189,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="379" name="Entrada de lápiz 378">
@@ -6234,8 +6234,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>174360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId108">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="384" name="Entrada de lápiz 383">
@@ -6254,7 +6254,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="384" name="Entrada de lápiz 383">
@@ -6299,8 +6299,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>132360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="401" name="Entrada de lápiz 400">
@@ -6319,7 +6319,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="401" name="Entrada de lápiz 400">
@@ -6364,8 +6364,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId112">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="402" name="Entrada de lápiz 401">
@@ -6384,7 +6384,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="402" name="Entrada de lápiz 401">
@@ -6429,8 +6429,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>85620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="403" name="Entrada de lápiz 402">
@@ -6449,7 +6449,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="403" name="Entrada de lápiz 402">
@@ -6494,8 +6494,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId116">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="418" name="Entrada de lápiz 417">
@@ -6514,7 +6514,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="418" name="Entrada de lápiz 417">
@@ -6559,8 +6559,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId118">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="438" name="Entrada de lápiz 437">
@@ -6579,7 +6579,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="438" name="Entrada de lápiz 437">
@@ -6624,8 +6624,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>104880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId120">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="441" name="Entrada de lápiz 440">
@@ -6644,7 +6644,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="441" name="Entrada de lápiz 440">
@@ -6689,8 +6689,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>186660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId122">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="455" name="Entrada de lápiz 454">
@@ -6709,7 +6709,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="455" name="Entrada de lápiz 454">
@@ -6754,8 +6754,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>87420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId124">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="465" name="Entrada de lápiz 464">
@@ -6774,7 +6774,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="465" name="Entrada de lápiz 464">
@@ -6819,8 +6819,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>46620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId126">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="479" name="Entrada de lápiz 478">
@@ -6839,7 +6839,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="479" name="Entrada de lápiz 478">
@@ -6884,8 +6884,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>152520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId128">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="494" name="Entrada de lápiz 493">
@@ -6904,7 +6904,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="494" name="Entrada de lápiz 493">
@@ -6949,8 +6949,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId130">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="497" name="Entrada de lápiz 496">
@@ -6969,7 +6969,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="497" name="Entrada de lápiz 496">
@@ -7014,8 +7014,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>28560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId132">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="506" name="Entrada de lápiz 505">
@@ -7034,7 +7034,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="506" name="Entrada de lápiz 505">
@@ -7079,8 +7079,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>9420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId134">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="507" name="Entrada de lápiz 506">
@@ -7099,7 +7099,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="507" name="Entrada de lápiz 506">
@@ -7144,8 +7144,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId136">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="508" name="Entrada de lápiz 507">
@@ -7164,7 +7164,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="508" name="Entrada de lápiz 507">
@@ -7209,8 +7209,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>164100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId138">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="540" name="Entrada de lápiz 539">
@@ -7229,7 +7229,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="540" name="Entrada de lápiz 539">
@@ -7274,8 +7274,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>18780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId140">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="541" name="Entrada de lápiz 540">
@@ -7294,7 +7294,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="541" name="Entrada de lápiz 540">
@@ -7339,8 +7339,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>152340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId142">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="542" name="Entrada de lápiz 541">
@@ -7359,7 +7359,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="542" name="Entrada de lápiz 541">
@@ -7404,8 +7404,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>24600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId144">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="543" name="Entrada de lápiz 542">
@@ -7424,7 +7424,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="543" name="Entrada de lápiz 542">
@@ -7469,8 +7469,8 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>187320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId146">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="556" name="Entrada de lápiz 555">
@@ -7489,7 +7489,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="556" name="Entrada de lápiz 555">
@@ -7534,8 +7534,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>133260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId148">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="557" name="Entrada de lápiz 556">
@@ -7554,7 +7554,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="557" name="Entrada de lápiz 556">
@@ -7599,8 +7599,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>144600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId150">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="574" name="Entrada de lápiz 573">
@@ -7619,7 +7619,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="574" name="Entrada de lápiz 573">
@@ -7664,8 +7664,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>13920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId152">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="597" name="Entrada de lápiz 596">
@@ -7684,7 +7684,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="597" name="Entrada de lápiz 596">
@@ -7729,8 +7729,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>132420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId154">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="604" name="Entrada de lápiz 603">
@@ -7749,7 +7749,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="604" name="Entrada de lápiz 603">
@@ -7794,8 +7794,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId156">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="611" name="Entrada de lápiz 610">
@@ -7814,7 +7814,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="611" name="Entrada de lápiz 610">
@@ -7859,8 +7859,8 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>142740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId158">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="645" name="Entrada de lápiz 644">
@@ -7879,7 +7879,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="645" name="Entrada de lápiz 644">
@@ -7924,8 +7924,8 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>48360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId160">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="686" name="Entrada de lápiz 685">
@@ -7944,7 +7944,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="686" name="Entrada de lápiz 685">
@@ -7989,8 +7989,8 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>150960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId162">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="695" name="Entrada de lápiz 694">
@@ -8009,7 +8009,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="695" name="Entrada de lápiz 694">
@@ -8054,8 +8054,8 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>133260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId164">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="703" name="Entrada de lápiz 702">
@@ -8074,7 +8074,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="703" name="Entrada de lápiz 702">
@@ -8119,8 +8119,8 @@
       <xdr:row>72</xdr:row>
       <xdr:rowOff>95640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId166">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="730" name="Entrada de lápiz 729">
@@ -8139,7 +8139,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="730" name="Entrada de lápiz 729">
@@ -8184,8 +8184,8 @@
       <xdr:row>72</xdr:row>
       <xdr:rowOff>104160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId168">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="733" name="Entrada de lápiz 732">
@@ -8204,7 +8204,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="733" name="Entrada de lápiz 732">
@@ -8249,8 +8249,8 @@
       <xdr:row>72</xdr:row>
       <xdr:rowOff>38280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId170">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="734" name="Entrada de lápiz 733">
@@ -8269,7 +8269,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="734" name="Entrada de lápiz 733">
@@ -8314,8 +8314,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId172">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="747" name="Entrada de lápiz 746">
@@ -8334,7 +8334,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="747" name="Entrada de lápiz 746">
@@ -8379,8 +8379,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId174">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="748" name="Entrada de lápiz 747">
@@ -8399,7 +8399,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="748" name="Entrada de lápiz 747">
@@ -8444,8 +8444,8 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>66780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId175">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="749" name="Entrada de lápiz 748">
@@ -8464,7 +8464,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="749" name="Entrada de lápiz 748">
@@ -8509,8 +8509,8 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>16980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId177">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="753" name="Entrada de lápiz 752">
@@ -8529,7 +8529,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="753" name="Entrada de lápiz 752">
@@ -8574,8 +8574,8 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>9780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId179">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="759" name="Entrada de lápiz 758">
@@ -8594,7 +8594,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="759" name="Entrada de lápiz 758">
@@ -8639,8 +8639,8 @@
       <xdr:row>79</xdr:row>
       <xdr:rowOff>126480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId181">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="760" name="Entrada de lápiz 759">
@@ -8659,7 +8659,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="760" name="Entrada de lápiz 759">
@@ -8704,8 +8704,8 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>73860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId183">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="771" name="Entrada de lápiz 770">
@@ -8724,7 +8724,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="771" name="Entrada de lápiz 770">
@@ -8769,8 +8769,8 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>59280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId185">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="775" name="Entrada de lápiz 774">
@@ -8789,7 +8789,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="775" name="Entrada de lápiz 774">
@@ -8834,8 +8834,8 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>88080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId187">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="792" name="Entrada de lápiz 791">
@@ -8854,7 +8854,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="792" name="Entrada de lápiz 791">
@@ -8899,8 +8899,8 @@
       <xdr:row>84</xdr:row>
       <xdr:rowOff>39000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId189">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="793" name="Entrada de lápiz 792">
@@ -8919,7 +8919,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="793" name="Entrada de lápiz 792">
@@ -8964,8 +8964,8 @@
       <xdr:row>87</xdr:row>
       <xdr:rowOff>124140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId191">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="794" name="Entrada de lápiz 793">
@@ -8984,7 +8984,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="794" name="Entrada de lápiz 793">
@@ -9029,8 +9029,8 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>80100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId193">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="802" name="Entrada de lápiz 801">
@@ -9049,7 +9049,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="802" name="Entrada de lápiz 801">
@@ -9094,8 +9094,8 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>54660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId195">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="809" name="Entrada de lápiz 808">
@@ -9114,7 +9114,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="809" name="Entrada de lápiz 808">
@@ -9159,8 +9159,8 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>29100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId197">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="822" name="Entrada de lápiz 821">
@@ -9179,7 +9179,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="822" name="Entrada de lápiz 821">
@@ -9224,8 +9224,8 @@
       <xdr:row>93</xdr:row>
       <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId199">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="841" name="Entrada de lápiz 840">
@@ -9244,7 +9244,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="841" name="Entrada de lápiz 840">
@@ -9289,8 +9289,8 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>21780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId201">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="851" name="Entrada de lápiz 850">
@@ -9309,7 +9309,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="851" name="Entrada de lápiz 850">
@@ -9354,8 +9354,8 @@
       <xdr:row>93</xdr:row>
       <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId203">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="852" name="Entrada de lápiz 851">
@@ -9374,7 +9374,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="852" name="Entrada de lápiz 851">
@@ -9419,8 +9419,8 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>9660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId205">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="860" name="Entrada de lápiz 859">
@@ -9439,7 +9439,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="860" name="Entrada de lápiz 859">
@@ -9484,8 +9484,8 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>117660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId207">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="863" name="Entrada de lápiz 862">
@@ -9504,7 +9504,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="863" name="Entrada de lápiz 862">
@@ -9549,8 +9549,8 @@
       <xdr:row>105</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId209">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="864" name="Entrada de lápiz 863">
@@ -9569,7 +9569,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="864" name="Entrada de lápiz 863">
@@ -9658,8 +9658,8 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>99120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId211">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="866" name="Entrada de lápiz 865">
@@ -9678,7 +9678,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="866" name="Entrada de lápiz 865">
@@ -9723,8 +9723,8 @@
       <xdr:row>86</xdr:row>
       <xdr:rowOff>124680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId213">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="877" name="Entrada de lápiz 876">
@@ -9743,7 +9743,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="877" name="Entrada de lápiz 876">
@@ -9788,8 +9788,8 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>130500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId215">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="888" name="Entrada de lápiz 887">
@@ -9808,7 +9808,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="888" name="Entrada de lápiz 887">
@@ -9853,8 +9853,8 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>79380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId217">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="893" name="Entrada de lápiz 892">
@@ -9873,7 +9873,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="893" name="Entrada de lápiz 892">
@@ -9918,8 +9918,8 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>44820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId219">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="905" name="Entrada de lápiz 904">
@@ -9938,7 +9938,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="905" name="Entrada de lápiz 904">
@@ -9983,8 +9983,8 @@
       <xdr:row>89</xdr:row>
       <xdr:rowOff>57540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId221">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="906" name="Entrada de lápiz 905">
@@ -10003,7 +10003,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="906" name="Entrada de lápiz 905">
@@ -10048,8 +10048,8 @@
       <xdr:row>90</xdr:row>
       <xdr:rowOff>9600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId223">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="907" name="Entrada de lápiz 906">
@@ -10068,7 +10068,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="907" name="Entrada de lápiz 906">
@@ -10113,8 +10113,8 @@
       <xdr:row>89</xdr:row>
       <xdr:rowOff>123780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId225">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="908" name="Entrada de lápiz 907">
@@ -10133,7 +10133,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="908" name="Entrada de lápiz 907">
@@ -10178,8 +10178,8 @@
       <xdr:row>90</xdr:row>
       <xdr:rowOff>107880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId227">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="915" name="Entrada de lápiz 914">
@@ -10198,7 +10198,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="915" name="Entrada de lápiz 914">
@@ -10292,8 +10292,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="103" name="Entrada de lápiz 102">
@@ -10312,7 +10312,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="103" name="Entrada de lápiz 102">
@@ -10357,8 +10357,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="104" name="Entrada de lápiz 103">
@@ -10377,7 +10377,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="104" name="Entrada de lápiz 103">
@@ -10422,8 +10422,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>120120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="132" name="Entrada de lápiz 131">
@@ -10442,7 +10442,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="132" name="Entrada de lápiz 131">
@@ -10487,8 +10487,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>138060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="136" name="Entrada de lápiz 135">
@@ -10507,7 +10507,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="136" name="Entrada de lápiz 135">
@@ -10552,8 +10552,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>181380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="137" name="Entrada de lápiz 136">
@@ -10572,7 +10572,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="137" name="Entrada de lápiz 136">
@@ -10617,8 +10617,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>173460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="165" name="Entrada de lápiz 164">
@@ -10637,7 +10637,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="165" name="Entrada de lápiz 164">
@@ -10682,8 +10682,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>127140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="167" name="Entrada de lápiz 166">
@@ -10702,7 +10702,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="167" name="Entrada de lápiz 166">
@@ -10747,8 +10747,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>40200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="181" name="Entrada de lápiz 180">
@@ -10767,7 +10767,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="181" name="Entrada de lápiz 180">
@@ -10812,8 +10812,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>54420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="182" name="Entrada de lápiz 181">
@@ -10832,7 +10832,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="182" name="Entrada de lápiz 181">
@@ -10877,8 +10877,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>133320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="189" name="Entrada de lápiz 188">
@@ -10897,7 +10897,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="189" name="Entrada de lápiz 188">
@@ -10942,8 +10942,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>29940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="193" name="Entrada de lápiz 192">
@@ -10962,7 +10962,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="193" name="Entrada de lápiz 192">
@@ -11007,8 +11007,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>95340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="200" name="Entrada de lápiz 199">
@@ -11027,7 +11027,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="200" name="Entrada de lápiz 199">
@@ -11072,8 +11072,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="204" name="Entrada de lápiz 203">
@@ -11092,7 +11092,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="204" name="Entrada de lápiz 203">
@@ -11137,8 +11137,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="205" name="Entrada de lápiz 204">
@@ -11157,7 +11157,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="205" name="Entrada de lápiz 204">
@@ -11202,8 +11202,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="206" name="Entrada de lápiz 205">
@@ -11222,7 +11222,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="206" name="Entrada de lápiz 205">
@@ -11267,8 +11267,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>164160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="209" name="Entrada de lápiz 208">
@@ -11287,7 +11287,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="209" name="Entrada de lápiz 208">
@@ -11332,8 +11332,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="210" name="Entrada de lápiz 209">
@@ -11352,7 +11352,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="210" name="Entrada de lápiz 209">
@@ -11397,8 +11397,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="223" name="Entrada de lápiz 222">
@@ -11417,7 +11417,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="223" name="Entrada de lápiz 222">
@@ -11462,8 +11462,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="224" name="Entrada de lápiz 223">
@@ -11482,7 +11482,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="224" name="Entrada de lápiz 223">
@@ -11527,8 +11527,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>30420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="244" name="Entrada de lápiz 243">
@@ -11547,7 +11547,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="244" name="Entrada de lápiz 243">
@@ -11592,8 +11592,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>143460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="253" name="Entrada de lápiz 252">
@@ -11612,7 +11612,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="253" name="Entrada de lápiz 252">
@@ -11657,8 +11657,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="258" name="Entrada de lápiz 257">
@@ -11677,7 +11677,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="258" name="Entrada de lápiz 257">
@@ -11722,8 +11722,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="261" name="Entrada de lápiz 260">
@@ -11742,7 +11742,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="261" name="Entrada de lápiz 260">
@@ -11787,8 +11787,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>180960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="262" name="Entrada de lápiz 261">
@@ -11807,7 +11807,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="262" name="Entrada de lápiz 261">
@@ -11852,8 +11852,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>50520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="273" name="Entrada de lápiz 272">
@@ -11872,7 +11872,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="273" name="Entrada de lápiz 272">
@@ -11917,8 +11917,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>11220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="339" name="Entrada de lápiz 338">
@@ -11937,7 +11937,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="339" name="Entrada de lápiz 338">
@@ -11982,8 +11982,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>148440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="348" name="Entrada de lápiz 347">
@@ -12002,7 +12002,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="348" name="Entrada de lápiz 347">
@@ -12047,8 +12047,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="358" name="Entrada de lápiz 357">
@@ -12067,7 +12067,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="358" name="Entrada de lápiz 357">
@@ -12112,8 +12112,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>104880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="359" name="Entrada de lápiz 358">
@@ -12132,7 +12132,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="359" name="Entrada de lápiz 358">
@@ -12177,8 +12177,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>9960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="360" name="Entrada de lápiz 359">
@@ -12197,7 +12197,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="360" name="Entrada de lápiz 359">
@@ -12242,8 +12242,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>10140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="367" name="Entrada de lápiz 366">
@@ -12262,7 +12262,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="367" name="Entrada de lápiz 366">
@@ -12307,8 +12307,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>32100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="368" name="Entrada de lápiz 367">
@@ -12327,7 +12327,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="368" name="Entrada de lápiz 367">
@@ -12372,8 +12372,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>179520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="371" name="Entrada de lápiz 370">
@@ -12392,7 +12392,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="371" name="Entrada de lápiz 370">
@@ -12437,8 +12437,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>129480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="372" name="Entrada de lápiz 371">
@@ -12457,7 +12457,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="372" name="Entrada de lápiz 371">
@@ -12502,8 +12502,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>21480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="385" name="Entrada de lápiz 384">
@@ -12522,7 +12522,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="385" name="Entrada de lápiz 384">
@@ -12567,8 +12567,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="399" name="Entrada de lápiz 398">
@@ -12587,7 +12587,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="399" name="Entrada de lápiz 398">
@@ -12632,8 +12632,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>132540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId74">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="414" name="Entrada de lápiz 413">
@@ -12652,7 +12652,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="414" name="Entrada de lápiz 413">
@@ -12697,8 +12697,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId76">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="415" name="Entrada de lápiz 414">
@@ -12717,7 +12717,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="415" name="Entrada de lápiz 414">
@@ -12762,8 +12762,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>143880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId78">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="419" name="Entrada de lápiz 418">
@@ -12782,7 +12782,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="419" name="Entrada de lápiz 418">
@@ -12827,8 +12827,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>57300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId80">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="420" name="Entrada de lápiz 419">
@@ -12847,7 +12847,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="420" name="Entrada de lápiz 419">
@@ -12892,8 +12892,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId82">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="421" name="Entrada de lápiz 420">
@@ -12912,7 +12912,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="421" name="Entrada de lápiz 420">
@@ -12957,8 +12957,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>110580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="422" name="Entrada de lápiz 421">
@@ -12977,7 +12977,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="422" name="Entrada de lápiz 421">
@@ -13022,8 +13022,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>190140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId86">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="423" name="Entrada de lápiz 422">
@@ -13042,7 +13042,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="423" name="Entrada de lápiz 422">
@@ -13087,8 +13087,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="431" name="Entrada de lápiz 430">
@@ -13107,7 +13107,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="431" name="Entrada de lápiz 430">
@@ -13152,8 +13152,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>118980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="458" name="Entrada de lápiz 457">
@@ -13172,7 +13172,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="458" name="Entrada de lápiz 457">
@@ -13217,8 +13217,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="497" name="Entrada de lápiz 496">
@@ -13237,7 +13237,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="497" name="Entrada de lápiz 496">
@@ -13282,8 +13282,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>21780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId94">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="508" name="Entrada de lápiz 507">
@@ -13302,7 +13302,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="508" name="Entrada de lápiz 507">
@@ -13347,8 +13347,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId96">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="512" name="Entrada de lápiz 511">
@@ -13367,7 +13367,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="512" name="Entrada de lápiz 511">
@@ -13412,8 +13412,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>114600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId98">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="513" name="Entrada de lápiz 512">
@@ -13432,7 +13432,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="513" name="Entrada de lápiz 512">
@@ -13477,8 +13477,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>79980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId100">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="514" name="Entrada de lápiz 513">
@@ -13497,7 +13497,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="514" name="Entrada de lápiz 513">
@@ -13542,8 +13542,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>77100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId102">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="524" name="Entrada de lápiz 523">
@@ -13562,7 +13562,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="524" name="Entrada de lápiz 523">
@@ -13607,8 +13607,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId104">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="525" name="Entrada de lápiz 524">
@@ -13627,7 +13627,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="525" name="Entrada de lápiz 524">
@@ -13672,8 +13672,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>163200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId106">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="526" name="Entrada de lápiz 525">
@@ -13692,7 +13692,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="526" name="Entrada de lápiz 525">
@@ -13737,8 +13737,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>113880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId108">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="527" name="Entrada de lápiz 526">
@@ -13757,7 +13757,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="527" name="Entrada de lápiz 526">
@@ -13802,8 +13802,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>185160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="543" name="Entrada de lápiz 542">
@@ -13822,7 +13822,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="543" name="Entrada de lápiz 542">
@@ -13867,8 +13867,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>115680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId112">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="544" name="Entrada de lápiz 543">
@@ -13887,7 +13887,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="544" name="Entrada de lápiz 543">
@@ -13932,8 +13932,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>110580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="555" name="Entrada de lápiz 554">
@@ -13952,7 +13952,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="555" name="Entrada de lápiz 554">
@@ -13997,8 +13997,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>66780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId116">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="556" name="Entrada de lápiz 555">
@@ -14017,7 +14017,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="556" name="Entrada de lápiz 555">
@@ -14062,8 +14062,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>133320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId118">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="557" name="Entrada de lápiz 556">
@@ -14082,7 +14082,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="557" name="Entrada de lápiz 556">
@@ -14127,8 +14127,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>134400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId120">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="560" name="Entrada de lápiz 559">
@@ -14147,7 +14147,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="560" name="Entrada de lápiz 559">
@@ -14192,8 +14192,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId122">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="561" name="Entrada de lápiz 560">
@@ -14212,7 +14212,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="561" name="Entrada de lápiz 560">
@@ -14257,8 +14257,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId124">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="582" name="Entrada de lápiz 581">
@@ -14277,7 +14277,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="582" name="Entrada de lápiz 581">
@@ -14322,8 +14322,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>57300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId126">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="585" name="Entrada de lápiz 584">
@@ -14342,7 +14342,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="585" name="Entrada de lápiz 584">
@@ -14387,8 +14387,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>38220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId128">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="586" name="Entrada de lápiz 585">
@@ -14407,7 +14407,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="586" name="Entrada de lápiz 585">
@@ -14452,8 +14452,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>152940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId130">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="591" name="Entrada de lápiz 590">
@@ -14472,7 +14472,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="591" name="Entrada de lápiz 590">
@@ -14517,8 +14517,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>151140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId132">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="598" name="Entrada de lápiz 597">
@@ -14537,7 +14537,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="598" name="Entrada de lápiz 597">
@@ -14582,8 +14582,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>168060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId134">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="601" name="Entrada de lápiz 600">
@@ -14602,7 +14602,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="601" name="Entrada de lápiz 600">
@@ -14652,8 +14652,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>159300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Entrada de lápiz 12">
@@ -14672,7 +14672,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Entrada de lápiz 12">
@@ -14717,8 +14717,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Entrada de lápiz 13">
@@ -14737,7 +14737,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Entrada de lápiz 13">
@@ -14782,8 +14782,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>39360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Entrada de lápiz 22">
@@ -14802,7 +14802,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Entrada de lápiz 22">
@@ -14847,8 +14847,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>1860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Entrada de lápiz 26">
@@ -14867,7 +14867,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Entrada de lápiz 26">
@@ -14912,8 +14912,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>9600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Entrada de lápiz 27">
@@ -14932,7 +14932,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Entrada de lápiz 27">
@@ -14977,8 +14977,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>161880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Entrada de lápiz 31">
@@ -14997,7 +14997,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Entrada de lápiz 31">
@@ -15042,8 +15042,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>125100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="Entrada de lápiz 32">
@@ -15062,7 +15062,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="Entrada de lápiz 32">
@@ -15107,8 +15107,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>1260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="Entrada de lápiz 33">
@@ -15127,7 +15127,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="34" name="Entrada de lápiz 33">
@@ -15172,8 +15172,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>35160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Entrada de lápiz 34">
@@ -15192,7 +15192,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Entrada de lápiz 34">
@@ -15237,8 +15237,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>126660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="Entrada de lápiz 46">
@@ -15257,7 +15257,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="47" name="Entrada de lápiz 46">
@@ -15302,8 +15302,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>2340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="59" name="Entrada de lápiz 58">
@@ -15322,7 +15322,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="59" name="Entrada de lápiz 58">
@@ -15367,8 +15367,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>171480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="60" name="Entrada de lápiz 59">
@@ -15387,7 +15387,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="60" name="Entrada de lápiz 59">
@@ -15432,8 +15432,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>44520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="61" name="Entrada de lápiz 60">
@@ -15452,7 +15452,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="61" name="Entrada de lápiz 60">
@@ -15497,8 +15497,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="65" name="Entrada de lápiz 64">
@@ -15517,7 +15517,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="65" name="Entrada de lápiz 64">
@@ -15562,8 +15562,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>164100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="69" name="Entrada de lápiz 68">
@@ -15582,7 +15582,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="69" name="Entrada de lápiz 68">
@@ -15627,8 +15627,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>57300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="70" name="Entrada de lápiz 69">
@@ -15647,7 +15647,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="70" name="Entrada de lápiz 69">
@@ -15692,8 +15692,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>20400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="75" name="Entrada de lápiz 74">
@@ -15712,7 +15712,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="75" name="Entrada de lápiz 74">
@@ -15757,8 +15757,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="80" name="Entrada de lápiz 79">
@@ -15777,7 +15777,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="80" name="Entrada de lápiz 79">
@@ -15827,8 +15827,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Entrada de lápiz 5">
@@ -15847,7 +15847,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Entrada de lápiz 5">
@@ -15892,8 +15892,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>122520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Entrada de lápiz 13">
@@ -15912,7 +15912,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Entrada de lápiz 13">
@@ -15957,8 +15957,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>171420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Entrada de lápiz 14">
@@ -15977,7 +15977,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Entrada de lápiz 14">
@@ -16022,8 +16022,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>117300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Entrada de lápiz 26">
@@ -16042,7 +16042,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Entrada de lápiz 26">
@@ -16087,8 +16087,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>171660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Entrada de lápiz 27">
@@ -16107,7 +16107,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Entrada de lápiz 27">
@@ -16152,8 +16152,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>166920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Entrada de lápiz 28">
@@ -16172,7 +16172,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Entrada de lápiz 28">
@@ -16217,8 +16217,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>122940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="Entrada de lápiz 33">
@@ -16237,7 +16237,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="34" name="Entrada de lápiz 33">
@@ -16282,8 +16282,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>167340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="Entrada de lápiz 36">
@@ -16302,7 +16302,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="37" name="Entrada de lápiz 36">
@@ -16347,8 +16347,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>111780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Entrada de lápiz 40">
@@ -16367,7 +16367,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="41" name="Entrada de lápiz 40">
@@ -16412,8 +16412,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>46620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Entrada de lápiz 44">
@@ -16432,7 +16432,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Entrada de lápiz 44">
@@ -16477,8 +16477,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>5460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="64" name="Entrada de lápiz 63">
@@ -16497,7 +16497,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="64" name="Entrada de lápiz 63">
@@ -16542,8 +16542,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>144240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="70" name="Entrada de lápiz 69">
@@ -16562,7 +16562,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="70" name="Entrada de lápiz 69">
@@ -16607,8 +16607,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="74" name="Entrada de lápiz 73">
@@ -16627,7 +16627,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="74" name="Entrada de lápiz 73">
@@ -16672,8 +16672,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>40800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="82" name="Entrada de lápiz 81">
@@ -16692,7 +16692,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="82" name="Entrada de lápiz 81">
@@ -16737,8 +16737,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>160260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="93" name="Entrada de lápiz 92">
@@ -16757,7 +16757,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="93" name="Entrada de lápiz 92">
@@ -16802,8 +16802,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>93840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="94" name="Entrada de lápiz 93">
@@ -16822,7 +16822,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="94" name="Entrada de lápiz 93">
@@ -16867,8 +16867,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>179580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="95" name="Entrada de lápiz 94">
@@ -16887,7 +16887,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="95" name="Entrada de lápiz 94">
@@ -16932,8 +16932,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="100" name="Entrada de lápiz 99">
@@ -16952,7 +16952,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="100" name="Entrada de lápiz 99">
@@ -16997,8 +16997,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="101" name="Entrada de lápiz 100">
@@ -17017,7 +17017,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="101" name="Entrada de lápiz 100">
@@ -17062,8 +17062,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>152580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="102" name="Entrada de lápiz 101">
@@ -17082,7 +17082,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="102" name="Entrada de lápiz 101">
@@ -17127,8 +17127,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>180960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="103" name="Entrada de lápiz 102">
@@ -17147,7 +17147,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="103" name="Entrada de lápiz 102">
@@ -17192,8 +17192,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="108" name="Entrada de lápiz 107">
@@ -17212,7 +17212,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="108" name="Entrada de lápiz 107">
@@ -17257,8 +17257,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>18600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="116" name="Entrada de lápiz 115">
@@ -17277,7 +17277,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="116" name="Entrada de lápiz 115">
@@ -17307,6 +17307,205 @@
         </xdr:pic>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDB1570-A252-4EC2-8B82-10161433D99C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486900" y="2240280"/>
+          <a:ext cx="7543800" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB30E5A5-377E-4316-99C9-EC957739B718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="6894"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12801600"/>
+          <a:ext cx="7543800" cy="9364980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A346F63F-FEA9-4C30-A66C-CA51DE0F5C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9509760" y="12801600"/>
+          <a:ext cx="7543800" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagen 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686C609B-B99F-465E-B612-86CE5213F48C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18227040" y="12801600"/>
+          <a:ext cx="7772400" cy="5829300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -17335,7 +17534,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">886 0,'0'2028,"-5"-1926,-18 104,9-98,-41 246,35-241,7-4,2 178,7-95,0-96,-27 153,-16 63,-3 12,-23 139,35-210,-22 264,55-382,-6 0,-38 181,-44 294,65-376,-64 470,20 336,62-640,-3 455,-15-470,1-15,27-327,-4 93,-1-93</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">971 0,'0'1947,"-6"-1849,-19 100,10-95,-45 237,38-231,7-5,3 172,8-92,0-92,-30 148,-18 59,-3 12,-25 134,39-202,-25 253,60-366,-6-1,-41 174,-49 283,71-361,-70 451,22 322,68-614,-3 437,-17-451,2-15,29-314,-5 90,0-90</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17389,13 +17588,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">186 1349,'0'26,"1"10,-1-1,-2 0,-2 0,-1 0,-10 38,-7-4,-44 93,66-160,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0-1,-4 1,4-2,-1-1,1 0,-1 0,1 1,0-1,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,0-3,-8-78,6-124,20-86,-12 215,4 1,3 0,3 1,4 0,3 2,3 0,3 2,4 1,67-107,-73 134,-12 19,1 1,0 1,2 0,30-30,-40 48,-1 1,2 0,-1 0,0 1,1 0,0 1,0-1,0 2,0-1,1 1,-1 1,1 0,13 0,0 1,0 1,0 0,-1 2,36 9,-51-10,1 1,-1-1,1 2,-1-1,0 1,0 0,-1 0,1 1,-1 0,0 0,0 1,-1-1,1 1,-1 1,-1-1,9 14,-1 4,-2 1,0 0,11 44,-21-69,9 33</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="661.01">1 1058,'0'5,"4"6,25 5,24 0,36-2,33-4,33-4,25-2,1-3,-13 0,-31-2,-29 1,-33-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1365.78">2170 0,'-1'23,"-1"0,-1-1,-1 1,-1-1,-11 32,-50 104,43-106,-27 67,4 1,7 3,4 1,6 2,6 1,5 0,-2 255,19-326,4 0,1-1,18 84,-18-122,1-1,0 0,1 0,1-1,0 0,1 0,1 0,0-1,1-1,1 1,0-2,0 1,2-2,-1 1,1-2,15 10,-10-10,0-2,0 0,0-1,1-1,33 7,-30-8,1 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2875.26">2726 582,'-6'0,"0"1,0-1,0 1,0 0,0 0,0 0,0 1,0 0,1 0,-1 1,1 0,0 0,-1 0,2 0,-8 6,5-1,0-1,1 1,0 0,1 0,-1 0,1 1,1 0,-6 16,-4 15,3 0,1 0,2 1,-4 57,5 169,7-206,-1-3,4 130,-2-185,-1 0,1 0,0 0,-1 0,1 0,1 0,-1 0,0-1,1 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0-1,-1 1,5 0,8 3,0 0,0-2,26 4,-8-1,25 10,-39-10,1-1,0 0,-1-2,30 2,-44-4,0-2,1 1,-1 0,0-1,0 0,-1 0,1-1,0 1,0-1,-1 0,1 0,0-1,-1 1,0-1,0 0,0 0,0-1,0 1,-1-1,0 0,1 0,3-6,12-26,-1-1,-2 0,20-70,-11 30,7-11,-2 7,-2-1,27-147,-54 223,2-9,-2 0,0-1,-1-24,0 36,0 1,-1 0,1-1,-1 1,0 0,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 1,0-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,-3-2,-13-4,-1 1,0 1,-29-6,-34-10,28 0,26 10,-1 1,0 1,-55-10,83 19,-1 1,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 1,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 3,6 24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3761.49">4075 503,'0'-4,"0"2,0 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4173.49">3388 1746,'4'0,"15"0,14-9,9-12,21-20,13-17,30-35,-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5401.3">4393 397,'-17'0,"0"1,0 0,1 1,-1 0,0 2,1 0,-28 10,39-11,-1 0,1 0,0 0,0 0,0 1,0 0,1 0,-1 0,1 1,0-1,0 1,1 0,0 0,0 0,0 1,0-1,1 1,0 0,0-1,0 1,1 0,0 0,0 0,0 8,1-11,-1 6,0-1,1 1,1 0,-1 0,3 9,-2-16,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1-1,1 1,0-1,0 0,0 1,0-1,1 0,-1-1,0 1,4 1,28 3,1-1,-1-1,0-2,60-7,-41 3,57 3,-105 0,0 1,0-1,1 1,-1 0,0 0,0 0,0 1,0 0,0 0,-1 0,1 1,0-1,-1 1,0 0,0 0,0 1,0-1,0 1,3 4,-3 0,0 0,0 0,0 0,-1 0,-1 1,1 0,-1-1,-1 1,0 0,1 12,2 47,-2 1,-11 109,8-173,-1 1,1-1,-1 1,0-1,0 0,0 0,-1 0,0 0,0-1,0 1,-1-1,1 0,-1 0,0 0,0 0,-1 0,1-1,-1 0,1 0,-1 0,0-1,0 1,-1-1,1 0,0-1,-10 2,-10 2,-1-1,0-1,0-1,-33-2,29-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">193 1298,'0'25,"1"10,-1-1,-2-1,-2 1,-2 0,-9 36,-8-4,-45 90,68-154,-1-1,1 1,-1-1,1 1,-1-1,1 1,-2-1,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 0,-1 1,1 0,0-1,-4 1,4-2,-1-1,0 1,0-1,1 1,0-1,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,1-1,-1 1,1 1,0-2,0-3,-8-75,6-119,20-83,-11 207,3 1,3 0,4 1,4-1,3 3,3 0,3 2,4 1,69-104,-75 130,-12 18,0 1,1 1,2 0,30-29,-40 46,-2 1,2 0,0 0,-1 2,1-1,1 1,-1-1,0 2,1-1,0 1,-1 1,2 0,12 0,1 1,0 1,0 0,-1 2,37 9,-53-10,1 1,0-1,0 1,-1 0,0 1,1 0,-2 0,1 1,-1-1,1 1,-1 1,-1-1,1 1,-1 0,0 0,8 13,-1 4,-1 2,-1-1,12 42,-22-66,9 32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="661.01">1 1018,'0'5,"4"6,26 4,25 1,37-3,35-3,33-5,27-1,0-3,-12 0,-33-2,-31 1,-33-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1365.78">2249 0,'-1'22,"-1"0,-2-1,0 2,-1-2,-12 31,-51 100,44-102,-28 64,5 2,6 2,5 2,6 1,6 1,6 0,-3 246,20-314,4 0,1-1,19 81,-19-118,1-1,0 1,2-1,0 0,0-1,1 0,2 1,-1-2,1 0,2 0,-1-1,1 0,1-1,-1 1,2-3,15 10,-10-9,-1-2,1-1,0 0,0-1,35 6,-31-7,1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2875.26">2825 560,'-6'0,"-1"1,1-1,0 1,0 0,-1 0,1 0,0 1,0 0,1 0,-2 1,2 0,0-1,-1 1,2 0,-9 6,6-1,0-2,1 2,-1 0,2-1,-1 1,1 1,1-1,-7 16,-3 15,2-1,2 1,2 0,-5 56,6 162,7-199,-1-2,4 125,-2-178,-1 0,1 0,0 0,-1 0,1 0,1-1,-1 1,0-1,1 1,-1-1,2 1,-1-1,0 1,0-1,0 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 1,4 0,8 3,1 0,-1-2,28 3,-9 0,26 9,-40-9,1-1,-1 0,0-2,31 2,-46-5,0 0,1 0,0 0,-1-1,0 0,-1 0,1-1,0 1,1-1,-2 0,1 0,0-1,-1 1,0-1,1 0,-1 1,0-2,0 1,-1-1,0 0,1 0,4-5,11-26,0-1,-2 1,20-68,-11 29,7-11,-2 7,-2-1,28-141,-56 214,2-9,-2 1,0-1,-1-24,0 35,0 1,-1 0,1 0,-1 0,0 0,0-1,0 1,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 1,0-1,-2 1,2-1,-1 1,1 0,-1 0,0 0,-3-1,-14-5,-1 1,1 1,-31-5,-35-10,29-1,27 11,-1 0,0 2,-57-11,85 20,0 0,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 1,-1-1,1 1,0 0,-1-1,1 1,-1 0,1 0,1-1,-1 1,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 4,7 23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3761.49">4223 484,'0'-4,"0"2,0 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4173.49">3511 1680,'4'0,"16"0,14-8,9-12,23-20,12-16,32-33,-4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5401.3">4552 382,'-17'0,"-1"1,0 0,2 1,-2 0,1 2,0 0,-29 9,41-10,-1 0,1 0,0 0,-1-1,1 2,0 0,1 0,-1 0,1 1,-1-1,1 0,1 1,0 0,0 0,0 1,0-2,1 2,0 0,0-1,-1 1,2-1,0 1,0 0,0 7,1-10,-1 6,0-1,1 0,1 1,-1 0,3 8,-2-15,-1 0,1 1,0-1,1-1,-1 1,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1-1,1 1,0-1,0 0,0 1,0-2,2 1,-2-1,0 1,4 1,29 3,1-1,0-1,-1-2,62-7,-42 3,59 3,-109 0,1 1,-1-1,1 1,-1 0,0 0,0 0,1 1,-1 0,0 0,-1 0,1 1,1-2,-2 2,0 0,0 0,0 1,0-1,0 1,4 3,-4 1,0 0,0 0,0-1,-1 1,-1 1,2-1,-2 0,-1 1,0-1,1 12,2 46,-2 0,-11 106,8-168,-1 2,0-1,0 1,0-1,0-1,0 1,-1 0,0 0,0-1,0 1,-1-2,1 1,-2 0,1 0,0 0,-1 0,1-1,-1-1,0 1,0 0,0-1,0 1,-1-1,0 0,1-1,-10 2,-11 2,-1-2,0 0,0-1,-34-2,30-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17428,8 +17627,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">53 1429,'4'0,"11"0,8-4,3-2,12 1,17 0,17 2,10 1,4 1,-3 0,-11 1,-14 0,-16 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="7732.31">1 1455,'16'0,"1"0,-1 1,1 1,-1 0,0 1,31 10,-20-4,1-1,0-1,1-2,56 3,124-9,-84-3,22 4,-125 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">58 1429,'5'0,"11"0,10-4,2-2,14 1,19 0,18 2,11 1,5 1,-4 0,-11 1,-16 0,-18 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="7732.31">1 1455,'18'0,"0"0,0 1,1 1,-2 0,1 1,34 10,-23-4,2-1,0-1,1-2,62 3,136-9,-92-3,24 4,-138 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17456,13 +17655,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">406 661,'-6'2,"0"-1,0 1,1 0,-1 0,1 0,-1 1,1 0,0 0,0 0,1 0,-1 1,0 0,-3 4,-5 3,-122 112,41-34,86-82,0 0,1 0,0 1,0 0,1 0,0 1,1-1,0 2,0-1,-3 10,4-5,1-1,0 1,1 0,1 0,0 0,2 25,-1-27,1 0,1 0,0 0,0 0,1-1,1 1,0-1,0 0,1 0,1 0,11 17,-12-22,1 1,-1-1,1 0,0-1,1 0,0 0,-1 0,2-1,-1 0,0 0,1-1,0 0,-1 0,1-1,0 0,1 0,-1-1,8 1,119 4,-116-7,0 0,1 0,-1-2,36-10,-50 11,-1 0,0-1,0 1,0-1,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 0,-1 0,1 0,-1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,1-5,2-15,0-1,1-41,-5 49,0 2,0 0,-2 0,1 1,-2-1,0 1,-1-1,-1 1,0 1,-14-28,5 17,-1 1,-1 0,-1 1,-31-32,23 29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="442.99">856 1243,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1680.95">1014 741,'0'-4,"1"0,0-1,0 1,0 0,0-1,1 1,0 0,0 0,0 0,0 0,1 1,-1-1,1 1,0-1,0 1,1 0,-1 0,0 0,1 1,5-4,10-6,1 1,36-14,-38 18,17-8,46-13,-69 24,1 1,0 1,0 0,0 1,0 0,0 1,20 2,-26 0,0 0,0 0,0 1,0 0,-1 0,0 0,1 1,-1 0,0 0,-1 1,1 0,-1 0,0 0,0 0,-1 1,1 0,-1 0,-1 0,1 1,-1-1,3 9,1 3,0 1,-1 0,-1 0,-1 1,-1 0,1 31,-3-24,-2 1,0 0,-2 0,-1-1,-2 0,-12 38,14-52,-1-1,0 0,0-1,-2 1,1-1,-2 0,1-1,-2 0,1 0,-1 0,0-1,-1-1,0 0,-1 0,-20 11,20-13,-79 34,84-38,0 1,-1-1,1-1,-1 1,1-1,-1 0,1-1,-1 0,0 0,1 0,-13-3,18 3,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1-1,0 1,1 0,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,0-1,2-2,-1 1,1-1,0 1,0 0,1 0,-1 0,1 0,-1 0,1 1,0 0,8-4,-3 3,0 0,1 0,0 1,-1 0,1 0,0 1,0 1,0 0,0 0,-1 1,1 0,0 1,0 0,17 6,-10-1,0 2,-1 0,0 0,-1 2,0 0,-1 0,14 15,-17-16,1 1,0-2,20 13,-27-19,0-1,0 1,0-1,0 0,1-1,-1 1,1-1,-1 0,1 0,-1-1,1 1,9-2,16-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3073.95">2443 582,'-36'0,"0"1,1 2,-60 13,78-12,0 1,1 1,0 1,0 1,0 0,1 1,0 0,1 1,-20 18,14-10,1 0,1 2,-25 33,40-49,-1 1,1-1,0 1,1 0,-1 0,1 0,0 0,0 0,1 1,-1-1,1 1,0-1,1 1,-1-1,1 1,0-1,1 1,-1-1,1 1,0-1,1 1,-1-1,1 0,2 6,-2-8,1 0,-1-1,0 1,1 0,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,0 0,1 0,-1 0,1-1,0 1,-1-1,1 0,-1 0,1 0,-1-1,6-1,13-2,0-1,-1-1,28-11,-5 2,-2 4,50-7,-76 15,1 2,-1 0,1 1,-1 0,0 2,19 3,-30-3,-1 0,1 0,-1 0,0 0,1 1,-2 0,1 0,0 0,0 0,-1 1,0-1,0 1,0 0,0 0,0 0,-1 0,0 1,0-1,0 1,2 5,3 13,0 0,6 41,-11-52,2 11,0-2,0-1,-2 1,1 25,-3-42,0-1,0 1,0 0,-1 0,1-1,-1 1,0 0,0-1,0 1,0-1,-1 1,0-1,0 0,1 0,-2 1,1-1,0 0,-1-1,1 1,-1 0,0-1,0 0,0 1,-4 1,-7 2,0-2,0 0,0-1,0 0,0-1,-25 0,-94-5,75 0,9 2,-60-4,97 4,0-1,0-1,0 1,0-2,1 0,-18-8,14 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4061.95">2364 0,'9'0,"32"0,40 6,-67-5,0 2,0 0,-1 1,0 0,1 1,19 11,-13-4,-1 2,0 0,-2 1,1 1,-2 0,0 1,-1 1,-1 1,0 0,-2 1,0 0,15 37,4 20,-4 0,22 99,-13-30,-6 1,-7 1,8 274,-33-397,-1 0,0 0,-2-1,-1 1,-1-1,-1-1,-1 1,-1-1,-19 31,1-7,-3-2,-1-1,-47 48,6-23,40-43</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4841.95">3396 873,'4'0,"7"0,5 0,9-4,5-2,6 0,2 1,-6-3,-4 0,-2 2,-1 1,0-3,0 0,0 1,-4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5649.95">3316 1217,'13'0,"10"-4,4-2,3 0,1 1,-1 2,-1 1,4 1,1 0,3 1,1 0,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">424 634,'-6'2,"0"-1,0 1,0 0,0 0,1 0,-1 1,0 0,1 0,0-1,1 1,-2 1,1 0,-3 4,-6 2,-127 108,43-32,90-80,-1 1,2 0,0 1,-1-1,2 1,0 1,0-2,1 3,0-2,-3 11,3-6,2 0,0 0,1 1,1-1,0 0,2 25,-1-27,1 1,1-1,0 1,0-1,1 0,2 0,-1 0,0 0,1-1,2 1,10 16,-11-22,0 2,-1-1,1 0,1-2,0 1,0 0,-1 0,3-1,-2-1,0 1,2-1,-1 0,0 0,0-1,0 0,2 0,-2-1,9 1,124 3,-121-6,0 0,1 0,-2-1,39-11,-53 11,-1 0,0-1,1 1,-1 0,-1-1,1 0,-1 0,1-1,0 1,-1-1,0 1,-1-1,1 0,-1 0,0 0,0-1,0 2,0-2,0 1,-1-1,1-4,2-15,0-1,1-40,-5 48,0 2,0-1,-2 1,1 1,-2-2,0 2,-1-2,-1 2,-1 1,-14-28,6 17,-2 1,-1 0,0 1,-34-31,25 28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="442.98">895 1193,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1680.95">1060 711,'0'-4,"1"1,0-2,0 1,0 0,0-1,1 1,0 1,1-1,-1 0,0 0,1 1,-1-1,1 1,0 0,0 0,2 0,-2 0,0 0,1 1,5-4,11-5,1 0,38-13,-40 18,17-9,49-12,-73 24,2 0,0 1,-1 0,1 1,-1 0,1 1,20 2,-26 0,-1 0,0 0,1 0,-1 1,-1 0,1 0,0 1,-1 0,0 0,0 0,0 1,-1 0,0 0,1 0,-2 0,1 1,-1 0,-1 0,1 0,0 0,2 8,1 4,1 0,-2 0,-1 0,-1 2,-1-1,2 30,-4-23,-2 1,-1-1,-1 1,-1-1,-2 0,-13 37,15-51,-1 0,-1-1,1 0,-2 0,1 0,-3-1,2 0,-2-1,0 1,0 0,-1-2,0 0,-1 0,0-1,-21 12,20-14,-82 34,88-37,-1 1,0-2,1 0,-2 1,2-1,-1 0,1-1,-2 0,1 0,1 0,-14-3,19 3,0 0,0 0,0 0,-1 0,1-1,-1 1,1 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1-1,0 1,1 0,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,0-1,2-2,-1 1,1 0,0 0,0 0,2 0,-2 0,1 0,-1 0,1 1,0 0,9-3,-4 2,1 0,0 0,1 1,-2 0,2 0,-1 1,1 1,-1 0,0 0,0 1,0 0,1 1,-1 0,18 6,-10-2,0 3,-1 0,-1-1,0 3,0-1,-2 1,16 14,-19-15,2 0,-1-1,22 12,-29-18,0-1,0 1,1-2,-1 1,1-1,-1 1,2-1,-2 0,1 0,-1-1,2 1,8-2,18-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3073.95">2554 559,'-38'0,"1"1,0 1,-62 14,81-12,0 0,2 2,-1 1,0 1,0-1,2 2,-1 0,1 0,-20 18,14-10,1 1,1 1,-26 32,42-48,-1 2,1-1,0 1,1 0,-2-1,2 1,0 0,0 0,1 1,-1-2,1 2,0-1,1 1,-1-1,1 0,0 0,1 1,-1-1,1 0,0 0,1 1,-1-1,1 0,2 5,-1-7,0 0,-1-1,0 1,1 0,-1-1,1 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,1-1,-1 0,1 0,0 0,-1 0,1-1,0 1,-1-1,2 0,-2 0,1 0,-1-1,6-1,14-2,0-1,-1-1,30-10,-6 2,-2 3,52-6,-80 14,2 2,-1 0,1 1,-2 0,1 2,20 3,-32-3,-1 0,1-1,0 1,-1 0,1 1,-2 0,1 0,1 0,-1 0,-1 1,0-2,0 2,0 0,0 0,1 0,-2 0,0 0,0 0,0 1,2 5,3 12,1 0,5 39,-11-49,3 10,-1-2,0-1,-2 1,1 24,-3-40,0-1,0 1,0 0,-1 0,1-1,-1 0,0 1,0-1,0 1,0-1,-1 1,0-1,0-1,1 1,-3 1,2-1,0 0,-1-1,1 1,-1 0,0-1,0-1,-1 2,-3 1,-7 2,-1-2,0 0,1-2,-1 1,0-1,-25 0,-99-5,78 0,10 2,-63-3,101 3,1-1,-1-1,1 1,-1-2,1 0,-18-7,14 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4061.95">2471 0,'10'0,"33"0,41 6,-69-5,0 2,-1-1,0 2,-1 0,2 1,20 10,-15-3,0 1,0 1,-2 0,1 1,-2 1,-1 0,0 1,-1 2,-1-1,-1 1,-1 0,17 36,3 19,-4 0,23 95,-13-29,-7 1,-7 1,9 263,-35-381,-1 0,-1 0,-1-1,-1 1,-1-1,-2-1,0 1,-2-1,-19 30,1-7,-4-2,0 0,-50 45,7-22,42-41</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4841.95">3550 838,'4'0,"8"0,5 0,9-4,5-2,7 1,2 0,-7-3,-4 0,-2 3,0 0,-1-3,0 0,0 2,-4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5649.95">3467 1168,'13'0,"11"-4,5-2,2 1,1 0,0 2,-2 1,4 1,2 0,3 1,0 0,-7 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17489,14 +17688,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 2390,'0'-29,"-2"-79,5-1,35-211,5 141,8 3,118-272,40-65,-191 470,2 1,44-68,-50 91,0 0,1 1,1 1,1 1,0 0,1 1,27-17,3 3,1 2,61-24,-82 40,0 1,1 2,0 0,0 2,53-4,-79 10,0 0,0 0,-1-1,1 2,0-1,0 0,-1 0,1 1,0 0,-1-1,1 1,0 0,-1 0,1 1,-1-1,0 0,1 1,-1 0,0-1,0 1,0 0,0 0,2 3,-1 0,-1 1,0-1,0 1,-1-1,0 1,0 0,0 0,-1 0,0-1,0 9,-3 100,1-77</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="642.99">293 1279,'9'0,"12"0,16 0,19 5,15 1,12-1,-3 0,-6-2,-12-1,-6-1,-9 0,-13-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1519">2278 194,'-3'1,"0"0,0 1,0-1,0 0,0 1,0 0,1-1,-1 1,1 0,-1 0,1 1,0-1,0 0,-3 5,0-2,-86 103,-94 148,123-167,-130 212,165-250,1 3,4 0,1 1,-14 61,14-20,3 1,5 1,5 0,3 0,10 110,-4-190,1-1,1 1,1-1,0 0,2 0,9 23,-10-31,0 0,1 1,0-2,0 1,1-1,0 0,1 0,0-1,0 0,0-1,16 10,9 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2623.8">2728 882,'-8'2,"0"0,1 0,-1 1,1 0,0 0,0 1,0 0,0 0,1 0,-7 7,2-4,-21 17,1 1,1 2,2 1,0 1,2 2,1 0,2 2,1 0,1 2,3 0,0 1,2 1,2 0,2 2,1-1,2 1,-8 76,16-102,1 0,0 0,0 1,2-1,0 0,0 0,1 0,9 23,-9-31,0 1,0-1,0 1,1-1,0 0,0 0,0-1,1 1,-1-1,1 0,0 0,0 0,1-1,-1 0,1 0,-1 0,1-1,0 0,0 0,7 1,30 4,1-2,-1-3,1-1,81-9,-115 7,-1 0,0-1,1 0,-1 0,0-1,0 0,0-1,-1 0,1-1,-1 1,0-2,-1 1,1-1,9-9,-8 4,0 1,-1-2,0 1,-1-1,0 0,-1-1,0 1,7-26,-3-6,-1 1,-3-1,-1-1,-3 1,-2-49,-7-261,8 346,-2 1,1-1,-1 0,0 1,-1-1,1 1,-6-14,5 18,0-1,0 1,0-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 1,0 0,-1-1,1 1,-1 0,1 0,-7-2,-12-2,1 0,-1 1,0 1,0 1,-22 0,-115 4,145 0,-17 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3162.89">3495 1622,'4'5,"2"1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4187.11">3998 644,'12'-5,"1"0,0 1,0 0,0 1,1 0,25-1,89 3,-70 2,-34-1,-4-1,-1 1,0 1,0 0,0 2,22 5,-37-7,0 1,1-1,-1 1,0 0,-1 0,1 0,0 0,-1 1,1 0,-1 0,0 0,1 0,-1 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 0,-1 1,1 6,-2 23,-2 0,-1 0,-1-1,-12 39,1 3,-4 50,-15 72,29-173,-1 0,-1 0,-1-1,-1-1,-25 41,26-50,-1-1,-1 0,1 0,-22 17,25-23,0-1,-1 0,1 0,-1 0,0-1,0-1,-1 1,1-1,-16 3,23-6,-1 0,0 0,0 0,1-1,-1 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,1 1,-1-1,1 0,0 0,-1 1,1-4,-2-12,0 0,0-29,2 33,0-3,-2-18,8-66,-6 92,2 0,-1 0,1 0,0 1,0-1,1 1,0-1,0 1,1 0,0 0,0 1,1-1,0 1,9-9,-12 13,1-1,0 1,1 0,-1 0,0 1,0-1,1 1,-1 0,1-1,-1 2,1-1,0 0,-1 1,1-1,0 1,-1 0,1 0,6 2,-3-1,1 2,-1-1,0 1,0 0,0 0,0 1,-1 0,10 7,5 7,0 1,-2 0,33 42,21 40,-41-54,2-2,42 43,-39-54</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5374.63">5400 564,'-12'1,"0"1,0 0,0 1,1 0,-1 0,1 2,0-1,0 1,1 1,-1 0,1 0,0 1,1 0,0 1,0 0,0 1,-11 14,5-4,0 0,2 1,0 0,2 1,0 1,1 0,-13 43,7 18,16-78,-1 0,1 0,0 0,0 1,0-1,1 0,0 0,0 0,0 0,0 0,1 0,0-1,5 10,-5-12,-1-1,1 1,0 0,1-1,-1 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1-1,0 0,-1 0,5 0,52-6,-42 3,55-10,-41 7,0 1,1 1,62 1,-86 4,1 0,0 0,-1 1,1 0,-1 0,0 1,1 0,-1 1,-1-1,1 2,0-1,-1 1,0 0,0 1,-1-1,1 1,-1 1,10 13,-2 2,0 1,-2 1,-1 0,-1 0,-1 1,-1 1,9 50,-6 0,2 112,-13-172,2 2,-2 0,0 0,-1-1,-1 1,-5 24,5-36,0-1,-1 1,0 0,1-1,-2 0,1 0,-1 0,1 0,-1 0,-1-1,1 1,-1-1,1 0,-1-1,0 1,-1-1,1 0,0 0,-11 3,-14 4,-1-2,0-1,-1-2,1 0,-1-3,-48-1,26 1,27-1,-28 1,0-1,-91-12,131 8,-1 0,1-1,0 0,-1-1,2-1,-1 0,1-1,0-1,0 0,1-1,0 0,1-1,-22-23,5-2,2-1,1-1,2-2,2-1,1 0,3-1,1-2,-13-48,22 56</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6150.91">5479 114,'10'1,"0"0,-1 1,1 0,0 0,0 1,-1 0,18 9,62 39,-74-42,30 21,-2 1,-1 2,-1 3,-2 0,-2 3,-1 1,-2 2,-2 1,-2 1,-2 2,-2 1,-2 1,-2 1,22 73,3 34,50 304,-93-432,-1-1,-2 1,-1-1,-1 1,-1 0,-2-1,-1 0,0 0,-2 0,-2 0,-20 45,-83 155,94-195,-2 0,-2-1,0-1,-48 48,52-63</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 2306,'0'-28,"-2"-76,5-1,37-204,4 136,9 3,123-262,41-63,-198 454,2 0,45-65,-51 88,0-1,0 2,2 1,1 0,-1 1,2 0,28-16,3 3,1 2,63-23,-85 38,0 2,1 1,0 0,1 3,54-5,-82 10,0 0,0 0,-1-1,1 2,1-1,-1 0,-1 0,1 1,0 0,-1-1,1 1,0 0,-1 0,2 1,-2-1,0 0,1 1,-1 0,0-2,0 2,0 0,0 0,2 3,-1 0,0 1,-1-1,0 0,-1 0,0 1,0 0,0 0,-1-1,0 0,0 9,-3 96,1-75</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="642.99">305 1234,'9'0,"13"0,16 0,21 5,14 1,14-1,-4-1,-6-1,-13-1,-5-1,-11 0,-12-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1519">2369 187,'-3'1,"-1"0,1 1,0-1,0 0,0 1,0 0,1-1,-1 1,1 0,-2 0,2 0,0 0,0 0,-3 5,0-2,-90 99,-97 143,127-161,-134 204,171-240,1 2,4 0,1 1,-14 59,14-20,3 2,5 1,6-1,3 1,10 105,-4-182,1-2,1 2,2-2,-1 0,2 1,10 21,-11-29,0 0,1 0,0-1,1 1,0-2,0 1,2 0,-1-1,0-1,0 0,17 10,10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2623.8">2837 851,'-9'2,"1"0,1 0,-2 1,2 0,0-1,0 2,-1 0,1 0,1 0,-8 7,3-5,-22 17,0 2,2 1,2 1,0 1,2 2,1-1,2 3,1 0,1 2,3 0,1 0,1 2,3 0,1 1,2 0,1 1,-7 73,16-99,1 1,0-1,0 2,2-2,0 1,0-1,1 1,9 22,-8-30,-1 0,0 0,0 1,1-1,0 0,0-1,1 0,0 1,-1-1,1 0,0 0,0 0,2-2,-2 1,1 0,-1 0,2-1,-1 0,0 0,8 1,30 4,2-3,-1-2,1-1,84-8,-120 6,-1 0,1-1,0 0,-1 0,1-1,-1 0,0-1,0 0,0 0,-1 0,1-2,-2 1,1-1,10-8,-9 3,1 2,-2-3,0 1,0 0,-1-1,-1 0,0 0,8-25,-4-5,0 0,-4 0,-1-1,-3 0,-2-47,-7-251,8 333,-2 1,1 0,-1-1,0 1,-1-1,1 2,-7-15,6 19,0-2,0 1,0-1,-1 1,1 0,-1 0,0 0,0 0,-1 1,1 0,0 0,-1-1,1 1,-1 0,1 0,-8-2,-12-2,2 1,-2 0,0 1,0 1,-23 0,-119 4,150 0,-17 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3162.89">3634 1565,'4'5,"3"1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4187.11">4157 621,'13'-4,"0"-1,1 1,-1 0,1 1,0 0,27-1,92 3,-73 2,-35-1,-4-1,-1 1,0 1,-1 0,1 2,23 5,-39-7,0 1,1-1,-1 1,1 0,-2 0,1 0,0-1,-1 2,1 0,-1 0,0 0,2 0,-2 0,-1 0,1 1,-1-2,1 2,-1 0,0 0,0 0,-1 0,1 0,0-1,-1 2,0-1,0 0,-1 1,1 5,-2 23,-2 0,-2 0,0-1,-13 37,2 4,-5 47,-15 70,29-167,0 1,-1-1,-2-1,0-1,-26 40,26-49,0 0,-2 0,2-1,-23 17,26-22,-1-1,0 0,1-1,-2 1,1-1,0-1,-2 1,2-1,-17 3,24-6,-1 0,0 0,0 0,1-1,-1 1,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 1,1 0,-1-1,1 1,-2-1,2 0,0 0,-1 1,1-4,-2-11,0-1,0-27,2 31,0-2,-2-18,8-63,-6 88,2 0,-1 0,2 1,-1 0,0-1,1 1,0 0,0 0,1 0,0 0,1 2,0-2,0 1,10-8,-13 12,1-1,0 1,1 0,-1 0,0 1,0-1,2 1,-2 0,1-1,-1 2,1-1,0 0,-1 1,2-1,-1 1,-1 0,1 0,6 2,-2-1,0 2,-1-1,0 1,1 0,-1 0,0 1,0 0,9 6,6 8,0 0,-2 0,34 41,22 38,-43-51,2-3,44 42,-40-52</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5374.63">5615 544,'-12'1,"-1"1,1 0,-1 1,2 0,-2 0,2 2,-1-2,1 2,0 1,0 0,1 0,-1 0,2 1,0 1,-1 0,1 0,-12 14,5-3,1-1,1 1,1 1,1 0,1 1,1 0,-14 42,7 17,17-75,-1 0,1 0,0-1,0 2,0-1,1 0,0 0,0 0,0-1,0 1,1 0,0-1,6 9,-6-11,-1-1,1 1,0 0,1-1,-1 1,0-1,0 0,1 0,-1 0,0 0,2 0,-2 0,1-1,-1 1,1-1,0 0,-1 0,5 0,55-6,-45 3,58-9,-42 6,-1 1,1 1,65 1,-90 4,2 0,-1 0,-1 1,2 0,-2 0,0 1,2 0,-2 0,-1 0,1 2,1-1,-2 1,0 0,1 1,-2-2,1 2,-1 1,11 12,-2 2,-1 2,-1 0,-2 0,-1 0,0 1,-2 1,10 49,-7-1,3 108,-14-165,2 1,-2 1,0-1,-1-1,-1 2,-6 22,6-34,0-1,-1 1,0-1,1 0,-2 0,1 0,-1 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-2-1,1 0,-1 0,1 0,-1 0,-10 3,-15 4,-2-3,1 0,-1-2,1 0,-2-3,-49-1,27 1,28-2,-29 2,0-1,-95-11,136 7,0 0,0-1,0 0,0-1,1 0,0-1,0-1,0-1,1 1,0-2,1 0,0 0,-22-23,5-2,2-1,1 0,2-3,2-1,1 1,3-2,2-1,-14-47,22 54</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6150.91">5697 110,'11'1,"-1"0,-1 1,2 0,-1 0,1 1,-2 0,19 8,64 38,-76-40,31 20,-2 1,-2 2,0 2,-3 1,-1 3,-2 0,-1 3,-3 0,-2 2,-2 1,-2 2,-2 0,-2 1,23 71,3 32,52 294,-97-417,-1-1,-2 1,-1-1,-1 1,-1 0,-2-1,-2 1,1-1,-2 0,-2 0,-22 43,-85 150,97-188,-1 0,-3-1,0-1,-50 46,54-61</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17551,12 +17750,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 742,'0'-24,"1"-1,9-42,-8 58,0 0,0-1,1 1,1 1,-1-1,1 0,1 1,0 0,11-15,-16 23,1-1,-1 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,0-1,-1 1,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,0 1,0 0,1-1,-1 2,11 44,-6 21,-3 95,-3-94,10 103,0-131,2-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="330.99">478 1112,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1060.98">1060 213,'0'18,"0"24,0 23,0 13,0 17,0 5,0-5,0-6,0-12,0-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2190.19">1748 239,'-4'1,"1"-1,0 1,0 0,0 0,0 0,0 0,1 1,-1-1,0 1,0 0,1-1,-1 1,1 1,0-1,-4 4,-33 44,33-41,-35 51,2 1,-54 117,82-152,1 0,0 1,2 0,2 0,0 1,2-1,0 1,3 1,0-1,4 38,-2-62,-1 1,1-1,1 1,-1-1,1 1,-1-1,1 0,1 1,-1-1,0 0,1 0,0-1,0 1,0-1,0 1,1-1,-1 0,1 0,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,-1-1,1 1,0-1,7 1,4-2,-1 1,0-2,0 0,1 0,-1-2,-1 0,1 0,-1-2,16-7,3-5,0-1,-2-1,-1-2,0-1,-2-2,0 0,-2-2,-1-1,-1-1,-2-1,29-50,-42 65,-1-2,0 1,-1-1,-1 0,-1 0,0 0,-1-1,-1 0,-1 0,0 0,-2-31,0 11,-5-75,4 103,-1 1,0-1,0 1,-1 0,0-1,0 1,-1 1,0-1,-7-9,8 15,0-1,0 1,0 1,0-1,-1 0,0 1,1 0,-1 0,0 0,0 0,0 0,0 1,0 0,-1 0,1 0,-8-1,-9 1,0 0,-27 3,16 0,-260 6,280-8,9 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,-5 3,6 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3310.96">2383 1,'207'0,"237"1,-434-1,91 7,-92-6,0 1,-1 0,1 0,-1 1,0 0,0 1,0-1,0 2,7 4,-14-9,0 1,0-1,-1 1,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,-1 2,1-2,-1 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,0 0,-1 0,-2 2,-9 3,0 0,0 0,-18 4,21-7,-27 8,25-8,0 0,1 1,-1 0,1 0,0 2,0-1,-16 12,26-16,0 1,0-1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 1,-1-1,1 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,0 1,20 36,-16-31,38 61,55 122,-84-158,-2 1,-1 1,-2 0,-1 0,-2 1,2 44,-7-67,0 0,-1 0,-1 0,0 0,-1 0,-5 20,5-28,0 0,0 0,-1 0,0-1,0 1,0-1,-1 0,0 0,1 0,-1 0,-1-1,1 1,0-1,-1 0,0 0,0-1,1 0,-10 4,-14 3,0-1,-1 0,0-3,0 0,-37 1,-156-7,126-2,51 3,7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5609.35">4050 1,'-69'0,"-75"1,140 0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 1,-1 0,1-1,0 1,0 0,0 1,0-1,0 0,0 1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,1 1,-1-1,1 1,0-1,0 1,0-1,0 1,0 4,-2 13,0 1,2 0,1 0,2 22,-1-23,-1-12,0-1,1 1,0-1,0 1,1-1,5 16,-5-21,-1-1,1 1,0 0,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,0-1,-1 0,1 0,1 0,-1 0,6 0,13 1,0-1,1-1,39-4,-43 1,1 2,0 0,-1 1,1 1,33 6,-43-4,0 1,0 1,-1 0,1 0,-1 1,0 0,-1 0,0 1,0 0,0 1,-1 0,0 0,0 0,-1 1,0 0,6 14,0 0,-2-1,0 2,-2-1,0 1,8 50,-13-58,-1 1,-1-1,0 1,-2 0,0-1,0 1,-1 0,-2-1,-4 17,5-25,0-1,0 0,-1 1,0-1,-1-1,1 1,-1-1,0 0,-1 0,0 0,0-1,0 0,0 0,-1 0,0-1,0 0,0 0,0-1,-1 0,-12 4,-16 0,-1-1,1-2,-1-1,0-2,0-1,-43-7,65 5,1-1,-1 0,1-1,0 0,1-1,-14-7,-8-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 715,'0'-23,"1"-2,9-39,-7 55,-1 1,0-2,1 1,1 2,-1-2,1 0,1 2,1-1,10-14,-16 22,1-1,-1 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,1-1,-2 1,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,0 1,0 0,1-1,-1 2,12 42,-7 20,-3 92,-3-90,10 99,1-127,1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="330.98">497 1071,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1060.98">1102 205,'0'18,"0"22,0 23,0 12,0 16,0 6,0-6,0-5,0-12,0-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2190.19">1817 230,'-4'1,"0"-1,1 1,0 0,0 0,0 0,0 0,1 1,-1-1,0 1,-1 0,2-1,-1 1,1 1,0-2,-4 5,-35 42,35-39,-37 49,3 1,-57 112,86-146,0 0,1 1,2 0,1 0,1 1,2-1,0 1,3 1,0-1,4 37,-2-61,-1 2,1-1,1 1,-1-1,1 1,-1-2,1 1,1 1,0-1,-1 0,1 0,0-1,0 0,0 0,0 1,1-1,0 0,0 0,0-1,0 1,0-1,0-1,0 1,2 0,-2 0,1-1,-1 1,1-1,0-1,0 1,0-1,7 1,5-2,-1 1,-1-2,1 0,0 0,0-2,-1 1,0-1,0-2,16-7,3-4,0-1,-1-2,-2-1,0-1,-2-2,0 0,-2-2,-1-1,-1-1,-2-1,30-48,-44 63,0-3,-1 2,-1-1,0-1,-2 1,0-1,-1 0,-1 0,-1-1,0 1,-2-30,0 10,-5-72,4 100,-1 0,0 0,0 0,-1 0,0 0,0 0,-2 1,1 0,-7-10,8 15,0-1,-1 2,1 0,0-1,-1 0,0 1,1 0,-1 0,-1 0,1 0,0 0,0 1,0 0,-1 0,1 0,-9 0,-9 0,0 0,-28 3,17-1,-270 7,290-8,10 0,1 0,-1 0,0 0,0 0,0 1,-1-1,1 1,1 0,-1 0,0 0,0 0,1 0,-5 3,6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3310.96">2477 1,'215'0,"246"1,-450-1,94 7,-96-6,0 1,0 0,0-1,-1 2,1 0,-1 1,0-1,1 2,6 3,-14-8,0 1,0-1,-1 1,1 0,0-1,0 1,1 0,-2 0,1-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,-1 2,1-3,-1 2,0-1,0 1,0-1,0 1,0-1,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 0,-2 2,-10 3,1-1,-1 1,-18 4,22-7,-29 7,27-7,-1 0,2 1,-1 0,0 0,1 1,-1 0,-16 12,27-17,0 2,0-1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 1,-1-1,1 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 1,0-2,0 2,0-1,1 1,-1-1,1 1,0 1,21 35,-17-31,40 60,56 117,-86-152,-3 0,0 2,-3 0,0-1,-3 2,2 42,-7-64,0-1,-1 1,-1-1,0 1,-1-1,-5 20,5-27,0 0,0-1,-2 1,1-1,0 1,0-1,-1 0,0 0,1-1,-2 1,0-1,1 1,0-1,-1 0,0 0,-1-1,2-1,-10 5,-15 3,-1-1,0-1,0-2,0 0,-39 1,-161-7,130-2,53 3,8-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5609.35">4209 1,'-71'0,"-79"1,146 0,0-1,0 1,0 0,0 0,1 0,-1 0,1 1,-1 0,1-1,-1 0,1 1,0 1,0-1,0 0,0 1,1 0,-1 0,1 0,-2 0,2-1,0 1,0 0,1 1,-1-1,1 1,0-1,0 1,0-2,0 2,0 4,-2 12,0 1,2 1,1-1,2 21,-1-22,-1-11,0-1,1 0,0 0,0 1,1-1,5 15,-5-20,-1-2,1 2,0 0,0-1,1 1,-1-1,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0-2,1 2,-1-1,-1 0,1 0,1 0,-1 0,6 0,14 1,0-1,1-1,41-4,-46 1,2 2,0 0,-1 1,0 1,36 6,-46-4,0 1,1 1,-2-1,1 1,0 1,-1 0,-1 0,1 0,-1 1,0 1,0 0,-1-1,0 1,-1 1,1-1,5 14,1 1,-3-2,0 2,-1-1,-1 1,9 48,-14-55,-1 0,-1 0,0 0,-2 0,0 0,0 0,-1 1,-2-2,-5 17,6-25,0 0,0 0,-1 1,0-2,-2 0,2 1,-1-1,0-1,-1 1,-1 0,1-1,0 0,0-1,-2 1,1-1,0 0,0 0,-1-1,0 0,-13 3,-16 1,-2-1,2-2,-2-1,1-2,0-1,-46-7,69 5,0-1,0 0,0-1,1 0,0 0,-14-8,-8-4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17637,24 +17836,24 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">531 407,'-41'-1,"22"0,0 1,0 0,-37 6,52-5,0 0,-1 0,1 0,0 1,0-1,0 1,0 0,1 1,-1-1,0 0,1 1,-1 0,1 0,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,0 0,-2 5,0 3,0 1,1 0,0-1,1 1,1 0,0 0,1 0,0 0,1 0,0 0,1 0,4 13,-5-21,1 0,0 1,0-1,0 0,1 0,0 0,-1-1,2 1,-1 0,0-1,1 0,0 0,0 0,0 0,1-1,-1 0,1 0,0 0,0 0,0-1,0 0,0 0,0 0,1 0,-1-1,1 0,-1 0,1-1,9 1,-12-1,-1-1,1 1,0 0,-1-1,1 0,-1 0,1 1,-1-1,1-1,-1 1,1 0,-1-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1-1,1 1,-1 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 1,-1-1,0-2,2-14,0 1,-2-1,-3-34,1 24,5-39,2 35</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="378.25">822 698</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2149.64">1218 301,'0'0,"0"-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0-1,0 0,-1 1,1-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,0-1,-1 1,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,-1 2,-1 9,0-1,0 1,2-1,-1 1,1-1,1 1,0 0,1 0,0-1,5 19,-6-30,0 1,0 0,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,0-1,0 1,1-1,-1 1,1 0,-1-1,0 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,0 0,14-13,5-30,-8 5,-9 25,1 0,0 1,1-1,1 1,-1 0,2 1,13-20,-19 30,-1 0,1 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,1-1,-1 1,0 0,0 1,0-1,1 0,-1 0,1 1,0 0,0 1,0-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 0,-1 0,1 0,1 3,2 10,0 0,-1 0,1 20,-2 92,-3-86,7 70,-2-89,2 1,8 24,7 25,-14-47,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3360.64">1536 248,'0'-1,"1"0,-1-1,1 1,-1-1,1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 1,-1-1,2 1,43-14,-36 12,14-5,-11 2,1 1,0 1,0 0,0 1,0 0,16 1,-26 1,-1 1,0-1,1 1,-1 0,0 0,0 0,0 0,1 1,-1-1,-1 1,1 0,0 0,0 0,-1 0,1 0,-1 1,0-1,1 1,-1 0,0-1,-1 1,1 0,0 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 1,-1 4,5 32,-2-1,-2 1,-1 0,-9 60,6-82,-2 1,0 0,-1-1,0 0,-2 0,0-1,-1 0,-1 0,0-1,-18 21,27-36,-1 1,0 0,0 0,0-1,0 1,0-1,0 0,0 1,0-1,0 0,-1 0,1 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,-4-3,5 2,1 0,-1 0,0 0,1 0,-1-1,1 1,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,2-2,-1 1,0 1,0 0,0-1,0 1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 1,-1-1,4 2,4 1,1 0,-1 1,1 0,-1 0,0 1,17 12,-5 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5016.16">2594 275,'-17'0,"0"1,1 0,-27 5,36-4,0 1,0-1,0 1,1 0,-1 1,0-1,1 1,0 1,0-1,-6 7,2-2,1 1,0 0,1 0,0 1,0 0,1 1,1 0,0 0,0 0,1 0,1 1,0 0,1 0,0 0,1 0,1 1,0-1,1 26,0-36,1 0,-1-1,0 1,1 0,0-1,-1 1,1 0,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,5 2,-1-1,0 0,1-1,-1 0,1 0,-1 0,10 0,34 12,-47-13,-1 0,0 0,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,-1 0,0 0,1 1,-1-1,0 0,0 0,0 1,1 4,-1-3,1 1,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1-1,-1 1,-1-1,1 1,0-1,-1 0,0 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,0 0,0 0,-1-1,1 1,-1-1,1 0,-1 0,0 0,1-1,-1 0,0 1,0-2,0 1,-6-1,-28 4,-55-4,83 0,-20-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5970.42">3176 407,'681'21,"-309"11,-290-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13964.81">4764 354,'1'-6,"0"0,1 0,0 0,0 0,1 0,-1 1,1-1,0 1,1-1,0 1,0 0,0 0,8-6,7-13,17-32,-29 43,1 0,0 0,1 0,1 1,16-16,-26 27,1 0,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,2 1,-1 0,-1 1,1-1,0 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0-1,1 4,2 8,-1 1,0-1,2 20,-5-33,11 158,6 41,-9-143,-4-17,2-1,1 1,2-1,23 60,-15-67</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14326.34">5372 751,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15534.31">6166 63,'-6'0,"0"0,0 0,0 1,0-1,0 1,0 0,0 1,1 0,-1 0,1 0,-1 0,1 1,0 0,0 0,0 0,0 1,0-1,1 1,0 1,-7 7,-3 4,1 0,0 0,2 2,0-1,1 1,1 1,0 0,2 0,0 1,1 0,1 0,1 0,0 0,2 1,1 0,1 34,0-10,0-13,0-1,2 1,2-1,7 33,-10-58,1 1,0 0,1 0,-1-1,1 1,1-1,-1 0,1 0,0 0,0 0,1-1,0 0,0 0,0 0,0 0,1-1,0 0,0 0,0 0,0-1,0 0,1 0,9 2,9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17986.69">5796 142,'9'-4,"7"-6,10-7,15-3,3-4,5-3,-2 5,-5 4,-9 21,-10 35,-10 25,-6 7,-4 0,-4-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19334.28">6828 89,'-13'14,"2"1,0 0,1 0,-11 22,-2 4,-222 381,238-408,0 1,1-1,1 1,0 0,1 1,1-1,0 1,1-1,0 28,2-38,1 0,-1-1,1 1,0 0,0 0,0-1,0 1,1 0,0-1,0 0,0 1,1-1,-1 0,1 0,0 0,0 0,0-1,1 1,-1-1,1 0,0 0,0 0,0-1,0 1,1-1,-1 0,1 0,-1-1,1 1,-1-1,1 0,0 0,0 0,9-1,1 0,0 0,0-1,0-1,0-1,0 0,-1 0,1-2,-1 0,15-7,-3-1,-1 0,-1-2,42-33,-54 37,0-2,0 0,-1 0,-1-1,0 0,-2-1,1 0,-2-1,0 1,0-1,-2-1,0 1,4-26,1-17,-3-1,0-86,-7 139,0-5,0-1,0 1,-1 0,-4-15,5 24,-1 0,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,0 0,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,-1 0,0 0,1 0,-5-1,-13-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20481.26">7489 169,'0'-6,"-1"4,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,1 1,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0 0,-1 1,4-1,22-6,1 1,-1 2,43-1,93 5,-120 0,-24 1,7-2,-1 2,1 1,43 9,-64-10,-1 0,1 0,-1 0,0 0,1 1,-1 0,0 0,0 0,0 0,0 1,-1 0,1 0,-1-1,0 2,1-1,-1 0,-1 1,1 0,0-1,-1 1,0 0,0 0,0 0,0 1,-1-1,0 0,1 1,-1 4,-1 3,0-1,-1 1,-1 0,0 0,0-1,-1 1,-1-1,0 0,-1 0,0 0,0 0,-1-1,0 0,-1 0,0-1,-1 0,0 0,0-1,-1 0,0 0,0-1,-1 0,-14 8,13-10,7-3,0 0,0 0,0 1,1-1,-1 1,1 0,-5 4,8-7,0 1,-1-1,1 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 1,1 0,19 13,-10-10,-1 1,1 0,-1 1,-1 0,1 0,-1 1,0 0,0 0,-1 1,0 0,-1 0,1 1,-2 0,1 0,-1 0,-1 1,1 0,-2-1,1 2,-1-1,-1 0,2 12,-3-16,3 13,-1 0,0-1,-1 2,-1 23,-1-39,-1 1,1-1,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,-1-1,1 1,-1-1,1 0,-1 0,-5 3,-13 1,-1-1,1-1,-1-1,0-1,0-1,1-1,-26-4,10 3,-2 0,1-2,-1-2,1-1,0-2,0-2,-47-18,18-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21999.15">8918 116,'-25'0,"6"0,0 0,0 0,0 2,-33 7,47-7,-1 0,0 0,0 1,1 0,-1 0,1 0,0 1,0 0,0 0,1 0,-1 0,1 1,0-1,0 1,0 0,1 1,0-1,-5 11,2 2,0 1,1 0,1 0,1 1,1-1,0 1,2-1,0 1,3 21,-2-37,-1-1,1 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,0 1,0-1,0 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1-1,0 0,0 1,0-1,0 0,0 0,5 0,9 1,-1 0,1-1,-1-1,29-4,4 2,-41 1,0 2,-1-1,1 1,0 0,-1 1,1 0,-1 0,0 1,0-1,0 2,0-1,0 1,0 0,-1 0,0 1,0 0,0 0,-1 0,1 1,-1 0,8 12,-9-10,0 0,-1 1,1-1,-1 1,-1 0,0 0,0 0,-1 0,0 0,-1 0,1 0,-2 0,1 1,-2-1,1 0,-1 0,-6 17,4-15,0 0,-1 0,-1 0,0-1,0 0,-1 0,0 0,-15 14,17-19,-1 1,-1-1,1 0,-1-1,0 1,0-1,0-1,0 1,-1-2,0 1,1-1,-1 0,0 0,-9 0,-282 0,169-6,62 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23341.18">1 1121,'65'-2,"1"-4,67-15,-17 3,959-66,7 79,-775 7,2115 1,-1719 16,827 127,-741-39,205 31,-976-135,226 43,-186-27,-39-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24760.09">3785 1306,'-12'2,"0"0,1 0,0 1,0 0,0 1,0 0,0 1,1 0,-1 0,2 2,-1-1,0 1,1 0,1 1,-1 0,1 0,1 1,-1 0,1 1,1-1,0 1,0 1,-3 10,2 2,2-1,0 1,2 1,-1 40,11 94,-7-152,1 0,0-1,0 1,0 0,1-1,0 1,0-1,0 1,1-1,-1 0,1 0,1 0,-1 0,1-1,-1 1,1-1,1 0,-1 0,0-1,1 1,0-1,0 0,0 0,0 0,1-1,-1 0,1 0,-1 0,7 0,16 3,1-1,-1-2,1-1,51-4,-25 0,-43 4,0-1,0-1,0-1,0 1,0-2,17-5,-25 7,-1-1,0 0,1 0,-1 0,0 0,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 1,0-1,0 0,-1 1,1-1,-1-4,2-8,0 1,-2-1,0 0,0 0,-1 1,-1-1,-1 0,0 1,-1 0,-1 0,0 0,-1 0,-1 1,0 0,-11-16,-11-8,3 6,-35-59,57 83,0 1,-1 1,0-1,-1 1,1 0,-1 0,0 0,-1 1,-8-6,-4 0,-1 0,-22-8,23 11,-11-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25196.6">4420 1730,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26313.98">4579 1412,'34'-18,"0"2,2 1,0 2,1 1,0 2,0 2,1 1,73-4,-107 11,0 0,0 1,0-1,0 1,-1 0,1 0,0 0,0 0,0 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,3 4,-1-1,0 1,-1 0,1-1,-1 2,-1-1,1 0,-1 1,3 8,1 8,-1-1,-1 1,-1 1,1 33,-3-37,-1-1,-1 1,-1 0,-1-1,-7 33,5-41,1-1,-2 1,1-1,-2 0,1 0,-1 0,-1-1,1 0,-2 0,1 0,-12 9,13-13,-56 46,58-48,0 0,-1 0,1-1,-1 1,0-1,0 0,0-1,0 1,0-1,0 0,0 0,-8 0,10-1,1-1,0 0,-1 0,1 1,0-2,0 1,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,1-1,0 1,0-1,-1-2,0-6,1 0,-1 1,2-1,-1 0,4-15,-3 22,0 0,0 0,0 0,1 0,0 0,0 1,0-1,0 0,0 1,1 0,-1-1,1 1,0 0,0 0,0 1,0-1,8-4,-5 4,0 0,0 1,1 0,0 0,-1 0,1 1,0 0,0 0,-1 1,10 0,-2 0,-1 2,1 0,-1 0,0 1,0 1,0 0,-1 1,1 0,-1 1,22 14,-11-2,2-1,49 25,-40-27</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27931.23">5928 1492,'-1'-1,"1"0,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,0-1,0 1,-1 0,1-1,-2 1,-41-5,39 5,-23-2,13-1,-1 2,0 0,1 1,-1 0,1 1,-1 1,-28 7,41-6,0-1,0 1,0-1,0 1,0 0,1 0,-1 0,1 1,0-1,0 0,0 1,0 0,1-1,-1 1,1 0,0 0,0 0,1-1,-1 1,1 7,-2 4,2-1,0 1,0-1,5 21,-5-32,1 0,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0-1,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,0-1,0 1,0-1,6 3,5 0,2 0,-1-1,30 3,3 0,10 4,-41-9,-1 1,1 1,-1 1,0 0,0 1,0 1,15 8,-25-10,-1 1,1 0,-1 0,-1 0,1 1,-1 0,0 0,0 0,0 0,-1 0,0 1,0 0,-1-1,2 11,3 11,-1 0,1 31,-7-59,2 19,1-6,-2 1,0 0,-1-1,0 1,-3 16,3-27,-1 0,0 0,1 0,-1-1,-1 1,1 0,0-1,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,0 0,0 0,1-1,-6 1,-9 0,0-1,1-1,-1 0,1-1,0-1,-1 0,1-1,1-1,-27-11,-10-9,-68-43,89 50,-6-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">549 391,'-43'-1,"24"0,-1 1,1 0,-39 6,54-5,-1 0,0 0,1 0,0 1,0-1,0 0,0 1,0 1,0-1,0 0,1 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,1-1,0 1,0 0,-2 4,0 4,0 0,1 1,0-2,0 2,2-1,0 1,1-1,0 1,1-1,0 1,2-1,3 13,-5-20,1 0,0 1,0-2,0 1,1 0,0 0,-1-1,2 0,0 1,-1-1,1 0,0 0,0 0,0-1,1 0,0 0,0 0,0 0,0 0,0-1,0 0,1 0,-1 0,1-1,-1 0,1 0,-1 0,2-1,8 1,-12-1,-1-1,1 1,1 0,-2-1,1 0,-1 0,1 1,-1 0,1-2,-1 1,1 0,-1-1,0 1,0-1,0 1,1-1,-1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 1,-1 0,0-3,2-14,0 2,-2-1,-3-33,1 23,5-37,2 33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="378.25">850 671</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2149.64">1259 289,'0'0,"0"-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0-1,0 0,-1 1,1 0,0 0,0-1,-1 1,1 0,0-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-2 0,2 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,0-1,-1 1,1-1,-1 1,0 0,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,-2 2,0 8,0 0,0 1,2-2,-1 2,1-2,1 2,0-1,1 1,0-2,5 19,-6-29,0 1,0 0,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,0-1,0 1,1-1,-1 1,1 0,-1-1,0 0,1 1,-1-1,1 1,-1-1,2 1,-2-1,1 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,0 0,14-13,6-28,-9 4,-9 25,2-1,-1 2,1-2,1 2,-1-1,2 2,14-20,-20 29,-1 0,1 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,1-1,-1 1,0 0,0 1,0-1,1 0,-1 0,1 1,0 0,0 1,0-1,-1 1,2 0,-2-1,1 1,-1 0,0 0,1 0,-1 0,0 0,-1-1,1 1,1 3,2 10,0-1,-1 0,1 20,-2 88,-3-83,8 68,-3-86,2 1,8 23,8 25,-15-46,1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3360.64">1588 238,'0'-1,"1"0,-1-1,1 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 1,-1-1,3 1,43-13,-37 11,15-5,-11 2,0 1,1 2,-1-1,1 1,-1 0,17 1,-27 1,-1 1,0-1,2 1,-2 0,0 0,0 0,0 0,1 1,-1-1,-1 0,1 1,0 0,1 0,-2 0,1 0,-1 1,0-1,1 1,-1 0,0-1,-1 0,1 1,0 0,-1 0,0 0,0 0,0 1,0-1,0-1,0 2,-1 4,6 30,-3 0,-2 0,-1 1,-10 57,7-79,-2 1,0 1,-1-2,0 0,-3 0,1 0,-1-1,-2 0,1 0,-19 19,28-34,-1 1,0 0,0 0,0-1,0 1,0-1,0 0,0 1,0-1,-1 0,0 0,1 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,-2 0,2 0,0-1,-1 1,-4-3,5 2,1 0,-1 0,0 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,-1 0,2-2,-1 1,0 1,0 0,0-1,0 2,2-1,-2 0,1 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,1 1,0-1,0 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 1,0-1,0 1,-1-1,4 2,4 0,2 1,-2 1,1 0,0 0,-1 1,18 11,-5 0,-3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5016.16">2681 264,'-17'0,"-1"1,2 0,-29 5,38-4,0 1,-1-1,1 0,1 1,-1 1,0-1,0 1,1 1,0-1,-6 6,1-1,2 0,0 1,0 0,1 0,0 1,1 0,0 1,1-1,0 1,1-1,1 2,0-1,0 1,1-1,1 1,1 0,0 0,1 24,0-34,1 0,-1-1,0 1,1 0,0-1,-1 0,1 1,0-1,1 1,-1-1,0 0,2 1,-2-1,1 0,0 0,-1 0,1-1,0 1,0 0,5 2,-1-1,1 0,0-1,-1 0,1 0,-1 0,11 0,35 11,-49-12,-1 0,0 0,0 1,0-1,0 1,0 0,0-1,-1 0,1 1,0 0,-1 0,1 0,0 1,-1-1,0 0,0 0,0 1,1 3,-1-2,1 1,-1 0,0 0,0-1,-1 1,1 0,-1 0,0 0,0-1,-1 1,0 0,0 0,0 0,0 0,-1-1,1 0,-1 1,-1-1,1 1,-1-2,0 1,0 0,0 0,-1 0,1 0,-1-1,1 0,-1 0,-1 0,1 0,-1-1,1 1,-1-1,1 0,-2 0,1 0,1-2,-1 1,0 1,0-2,0 1,-7-1,-28 4,-57-4,85 0,-20-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5970.42">3283 391,'704'20,"-320"11,-299-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13964.81">4924 340,'1'-6,"0"1,2-1,-1 0,0 0,1 0,-1 2,1-2,0 1,1-1,0 2,0-1,1 0,7-6,8-12,17-30,-30 40,1 1,1-1,0 1,1 0,17-15,-27 26,1 0,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,0-1,1 1,-1 0,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,2 1,-1 0,-1 1,1-1,0 1,-1-1,0 1,1-1,-1 1,1 0,-1 0,0 0,0 0,0-1,1 3,2 9,-1 0,0 0,2 19,-5-32,12 151,5 40,-9-137,-3-16,1-2,1 2,2-2,24 58,-15-64</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14326.34">5553 721,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15534.31">6374 61,'-7'0,"1"0,0 0,0 0,0 0,-1 1,1 0,0 1,1 0,-1 0,0 0,0 0,1 1,0 0,0 0,0 0,-1 0,1 0,1 1,0 1,-7 6,-4 5,2-1,-1 1,3 1,-1-1,2 1,1 2,0-1,1 0,1 1,1 1,1-1,1 0,-1 0,3 1,1 1,1 31,0-8,0-14,0 0,2 1,3-1,6 31,-10-55,1 1,0-1,1 1,-1-1,1 1,1-2,0 1,0 0,0 0,0-1,1 0,0 0,0 0,1 0,-1-1,1 0,0 0,0 0,1 0,-1-1,0 0,1 0,10 1,9 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17986.68">5991 136,'9'-3,"8"-7,10-6,15-4,4-3,4-3,-1 5,-6 4,-9 20,-10 33,-10 25,-7 6,-4 0,-4-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19334.28">7058 85,'-14'14,"3"0,0 1,0-1,-10 22,-3 3,-229 367,245-393,1 1,1 0,1 0,0 1,0 0,2-1,0 2,1-2,0 28,2-38,1 1,-1-1,1 1,0 0,0-1,0 0,0 1,1 0,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0-2,1 2,-1-1,2 0,-1 0,0 0,0-1,0 1,1-2,-1 1,2 0,-2-1,1 1,-1-1,1 0,0 0,1 0,8-1,1 0,1 0,0-1,-1-1,1-1,-1 0,-1 1,2-3,-2 0,16-7,-3 0,-1-1,-1-1,43-32,-55 35,-1-1,0-1,0 1,-2-2,0 1,-1-1,0-1,-2 0,0 0,1 0,-3-1,0 0,4-24,2-17,-4 0,0-84,-7 135,0-6,0 0,0 0,-1 1,-4-15,5 23,-1 0,0 1,0-1,0 1,0-1,0 1,0-1,-1 2,0-1,1-1,-1 1,-1 0,1 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,-1 0,0 0,1 1,-6-2,-12-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20481.26">7741 162,'0'-5,"-1"3,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,2 1,-2 0,1-1,-1 1,1 0,0 1,-1-1,1 0,0 0,0 0,-1 1,4-1,23-6,1 1,-1 2,44 0,97 4,-125 0,-24 1,7-2,-1 2,1 0,44 10,-66-10,-1 0,1 0,-1 0,1 0,0 1,-1 0,0 0,0 0,0-1,0 2,0 0,0 0,-1-1,0 2,1-1,-1 0,-1 0,1 1,0-1,-1 1,1 0,-1 0,0 0,0 0,-1 0,0 0,1 1,-1 3,-1 4,0-1,-1 0,-1 1,0-1,0 0,-1 0,-2 0,1-1,-1 1,0 0,0-1,-1 0,-1-1,0 1,0-1,-1-1,-1 1,1-1,-1-1,-1 1,1-1,-1-1,-15 9,14-10,7-4,-1 1,1 0,0 1,1-1,-1 1,1 0,-5 4,8-7,0 1,-2-1,2 0,0 1,0-1,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 1,2 0,18 13,-9-11,-2 2,1 0,-1 1,0 0,0-1,-1 2,1 0,-1-1,-1 2,0 0,0 0,0 0,-2 1,1-1,-1 1,-1 1,2-1,-3 0,1 2,-1-2,-1 1,2 11,-3-15,3 12,-1 0,1-1,-2 3,-1 21,-1-37,-1 1,1-2,-1 1,0 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,0-1,0 1,-1-1,1 1,-1-1,1-1,-1 1,0 0,-1 0,0-1,1 1,-1-1,1 0,-1 0,-5 2,-14 2,-1-1,1-1,0-1,-1-1,0-1,1-1,-26-4,9 3,-1 0,1-2,-2-2,2-1,0-1,-1-3,-47-17,17-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21999.15">9218 111,'-26'0,"7"0,-1 0,1 0,-1 2,-34 7,49-7,-1 0,0 0,-1 1,2 0,-1-1,1 1,0 1,-1 0,1 0,1 0,-1 0,1 0,0 0,0 1,-1 0,2 1,0-2,-5 12,2 1,0 1,0 0,2 1,1 0,1-1,0 1,2 0,0 0,3 20,-2-35,-1-1,1 0,-1 0,1 0,0 0,0-1,0 1,1 0,-1 0,2-1,-2 1,1 0,0-1,0 1,0-2,0 1,1 0,-1 0,0 0,1 0,0 0,-1 0,1-1,1 0,-1 1,0-1,0 0,0 0,5 0,10 1,-2-1,2 0,-2-1,31-3,4 1,-43 1,0 2,-1-1,2 1,-1 0,-1 0,1 1,0 0,-1 1,0-1,0 2,1-1,-1 1,0 0,-1-1,1 2,-1 0,0 0,-1 0,1 0,-1 1,9 11,-10-9,0 0,-1 0,1 0,0 1,-2-1,0 1,0 0,-1-1,0 1,-1 0,1-1,-2 1,1 1,-2-2,1 1,-1-1,-7 17,5-14,0 0,-1-1,-1 1,-1-2,1 1,-1 0,0-1,-16 14,18-18,-1 1,-2-1,2-1,-1 0,0 1,0-1,-1-1,1 1,-1-2,0 0,0 0,0 0,0 0,-10 0,-291 0,175-6,63 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23341.18">1 1077,'67'-2,"1"-4,70-14,-18 3,991-64,7 76,-800 7,2185 1,-1776 15,855 123,-767-39,213 31,-1010-130,234 41,-192-26,-40-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24760.09">3912 1255,'-12'2,"0"-1,0 1,1 1,-1 0,1 1,0 0,-1 1,2-1,-1 1,1 2,0-1,0 0,0 1,2 1,-1 0,1-1,0 2,0 0,1 0,1 0,-1 0,1 2,-3 9,2 2,2-1,-1 1,3 2,-1 37,11 91,-7-146,1-1,0 0,0 1,0 0,2-2,-1 2,0-1,0 1,1-1,-1-1,1 1,1 0,-1 0,1-1,-1 0,2 0,0 0,-1 0,0-1,1 1,0-1,1-1,-1 1,0 0,1-1,-1 0,1 0,0 0,6 0,17 3,1-2,-1-1,1-1,53-4,-27 1,-43 3,-1-1,1-1,-1-1,0 1,1-2,17-5,-26 7,-1-1,0 0,1 0,-1 1,0-1,1-1,-1 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,0 1,0-1,-1-1,1 1,-1-1,0 0,1 1,-1 0,0-1,-1 1,1-1,-1-4,2-7,0 1,-2-2,0 1,0-1,-1 2,-1-1,-1-1,-1 2,0-1,-1 1,0 0,-1-1,-1 2,-1-1,-10-14,-12-9,3 6,-36-56,59 79,0 1,-2 2,1-2,-1 1,1 0,-1 1,-1-1,0 1,-8-5,-5-1,-1 0,-22-7,23 10,-11-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25196.6">4569 1662,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26313.98">4733 1356,'35'-17,"0"2,3 0,-1 3,1 0,0 3,1 1,0 1,76-3,-111 10,0 0,0 1,0-1,0 1,-1 0,2 0,-1 0,0 0,0 0,-1 1,1 0,-1 0,0 0,2 0,-2 0,3 4,-1-1,0 0,-1 1,1-1,0 2,-2-2,1 1,-1 1,3 7,1 8,0 0,-2 0,-1 1,1 31,-3-34,-1-2,-1 1,-1 0,-1 0,-7 31,5-40,0 0,-1 0,1 0,-2-1,1 1,-1 0,-2-2,2 1,-2 0,1-1,-13 10,14-14,-58 45,60-46,-1 0,0 0,1-1,-1 1,0-1,0 0,0-1,-1 1,1-1,0-1,0 1,-9 0,11-1,1-1,0 0,-1 1,1 0,0-2,0 1,0 0,0 0,0-1,0 1,0-1,-1 1,2-1,-1 0,0 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,1-1,-1 1,0 0,1-1,0 1,0-1,-1-1,0-7,1 0,-1 2,2-2,-1 1,4-15,-3 21,0 0,0 0,0 0,1 1,0-1,0 1,0-1,0 0,1 1,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,9-4,-6 4,0 1,0 0,1 0,1 0,-2 0,1 1,0 0,1 0,-2 1,10 0,-1 0,-2 2,2 0,-2 0,1 1,-1 0,0 1,0 1,0 0,0 1,22 13,-11-2,1 0,52 23,-42-26</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27931.23">6128 1433,'-1'-1,"1"0,-1 0,1 0,-2 1,2-2,-1 1,0 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,0-1,0 1,-1 0,1-1,-2 1,-43-5,41 5,-24-2,14 0,-2 1,0 0,2 1,-2 0,2 1,-2 0,-28 8,42-6,0-1,0 1,-1-1,1 1,0 0,1-1,-1 1,1 1,0-1,0 0,0 1,0 0,1-2,-1 2,1 0,0 0,0 0,1-1,-1 1,1 6,-3 5,3-2,0 1,0 0,6 19,-6-30,1 0,0 1,0-1,1 0,-1 0,1 0,-1-1,1 1,0 0,0 0,0-1,1 1,-1-1,1 0,0 1,0-1,0-1,0 1,0-1,0 1,0-1,6 3,6 0,1 0,0-1,30 2,4 1,10 4,-42-9,-2 1,2 1,-2 0,1 1,-1 1,1 1,15 7,-26-9,-1 1,2 0,-2 0,-1-1,1 2,-1 0,0 0,0-1,1 1,-2 0,0 1,0-1,-1 0,2 10,3 11,-1 0,2 30,-8-57,2 18,1-5,-2 0,0 1,-1-2,0 2,-3 14,3-25,-1 0,0 0,1 0,-1-1,-1 1,1 0,0-2,-1 2,1-1,-2 1,1-1,1 0,-1 0,0 0,-1 0,1 0,0 0,-1 0,1-2,-1 2,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,1-1,-6 1,-10 0,1-1,0-1,-1 0,2-1,-1-1,0 0,0 0,2-2,-29-11,-9-8,-71-41,92 48,-7-5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17789,13 +17988,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">403 212,'-24'1,"0"2,1 0,-1 1,1 1,0 1,0 1,-22 11,35-13,0 1,1 1,0-1,0 1,1 1,-1-1,2 2,-1-1,1 1,1 0,-1 0,2 1,-9 16,1 3,1 1,1 0,-11 47,17-53,0 0,2 0,0 0,2 0,1 0,0 0,6 34,-3-45,0 0,1 0,0 0,1-1,1 1,0-1,0 0,1-1,1 0,0 0,0 0,1-1,0 0,19 14,-13-12,1 0,0-1,1-1,0 0,1-1,19 6,-32-13,0 0,0 0,0-1,0 0,0 0,1 0,-1-1,0 0,1 0,-1 0,0-1,1 1,-1-1,0 0,0-1,0 0,0 1,0-2,0 1,-1 0,1-1,0 0,-1 0,0 0,0-1,0 1,4-6,43-59,-4-2,63-122,-102 176,-1 1,-1-1,-1 0,0 0,-1-1,3-25,-6 35,-1 1,0 0,0 0,-1 0,1 0,-2 0,1-1,0 1,-4-7,3 10,1-1,-1 1,0 0,0 1,0-1,0 0,-1 1,1-1,-1 1,0 0,1-1,-1 1,0 1,0-1,0 0,-1 1,-4-2,-206-65,125 38,54 20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="452.39">1276 1006,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2967.28">1885 238,'21'-1,"1"-1,-1-2,1 0,23-8,53-10,-78 19,19-2,43 0,-74 5,1 0,-1 1,1-1,0 2,-1-1,0 1,1 1,-1-1,0 1,0 1,9 4,-13-5,-1 1,1-1,-1 0,0 1,0 0,0 0,0 0,-1 0,0 0,0 0,0 1,0-1,0 1,0 6,9 70,-10-63,3 31,-3-1,-2 1,-13 95,8-116,0 0,-2-1,-1 1,-1-2,-2 1,0-1,-2-1,-19 28,24-40,0 0,1 0,0 1,2 1,-1-1,2 1,0 0,-5 27,6-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4093.93">2096 609,'0'-4,"4"-7,7 0,5 0,9 3,5 3,7 2,0 2,4 0,4 1,-1 1,-5-1,-3 1,-3-1,-4 0,3-4,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5056.92">3287 106,'0'5,"0"15,0 17,-5 16,-1 17,0 10,1 10,-7-7,-2 20,2 4,3-10,2-18,-1-17,4-20,17-30,7-26,-1-21,-4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6647.26">3869 0,'-2'23,"-1"-1,0 0,-2 0,0 0,-15 37,10-29,-13 57,23-85,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1-1,1 1,-1-1,1 1,0-1,0 0,-1 0,1 1,0-1,0-1,0 1,0 0,0 0,0-1,0 1,3 0,10 1,0 0,-1-1,1-1,23-1,-12-1,307 13,-268-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7391.24">4451 80,'0'-4,"-5"-2,-5 13,-11 29,-6 22,-7 49,-7 26,3 7,9 3,8-14,9-20,6-23,4-23,2-18,1-11,1-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">418 201,'-25'0,"1"3,0 0,-1 1,1 1,0 0,0 2,-23 10,37-12,0 0,0 2,1-1,0 0,0 2,0-1,2 1,-2 0,2 0,1 1,-1-1,1 2,-8 14,0 4,2 0,0 0,-10 45,16-50,1 0,2-1,0 1,2 0,1-1,0 1,6 32,-3-43,0 1,2-1,-1 0,1 0,1 0,0-1,1 1,0-2,1 0,1 1,-1-1,1 0,1-1,19 14,-14-12,2 0,-1 0,2-2,0 1,0-2,21 7,-34-14,0 1,0 0,1-1,-1 0,0 0,1 0,-1-1,1 0,0 0,-1 0,0-1,1 1,0-1,-1 0,0-1,0 0,0 1,1-1,-1 0,-1 0,1-1,0 0,-1 0,1 0,-1 0,0 0,4-6,45-55,-4-2,65-116,-106 167,0 1,-2-1,-1 0,0-1,-1 0,4-23,-7 32,-1 1,0 1,0-1,-1 0,1 1,-2-1,1-1,0 2,-5-8,4 10,1 0,-1 0,0 0,0 1,0-1,0 0,-1 2,1-2,-1 1,-1 0,2-1,-1 1,0 1,0-1,0 0,-1 2,-5-3,-213-62,130 37,56 19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="452.39">1325 952,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2967.28">1957 225,'22'-1,"1"-1,-2-1,2-1,24-8,55-8,-82 17,21-2,44 0,-77 5,2 0,-2 1,1-1,1 2,-2-1,0 1,2 1,-2-1,0 1,1 0,8 5,-13-5,0 0,0 0,-1 0,0 1,0 0,0 0,0-1,-1 1,0 0,0 0,1 0,-1 0,0 1,0 5,9 67,-10-60,3 29,-3 0,-2 0,-13 90,8-109,-1-1,-1 0,-1 0,-2-1,-1 0,-1 0,-1-1,-20 26,24-38,1 0,1 1,-1 0,3 1,-1-1,2 2,-1-1,-4 25,6-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4093.93">2176 576,'0'-4,"4"-6,8-1,4 1,10 3,5 2,8 2,-1 2,5 0,3 1,0 1,-5-1,-4 1,-3-1,-4 0,4-4,-5-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5056.92">3413 100,'0'5,"0"14,0 16,-6 15,0 16,0 10,1 9,-8-6,-1 18,1 4,4-9,2-17,-2-17,5-18,18-29,6-24,0-20,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6647.26">4017 0,'-2'22,"-1"-1,-1-1,-1 1,0 0,-16 35,11-28,-14 54,24-80,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0-1,1 1,-1 0,1 0,-1 1,1-1,0 0,0 0,0 0,0-2,0 2,0 0,0 0,1 0,-1-1,2 1,-2-1,1 1,0-1,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,4 0,9 1,1 0,-2-1,2-1,23-1,-12-1,319 12,-278-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7391.24">4621 76,'0'-4,"-5"-2,-6 13,-10 27,-7 21,-8 46,-6 25,2 6,10 3,8-12,10-20,6-22,4-21,2-18,1-10,1-10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17849,16 +18048,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">762 1484,'5'0,"1"-1,0 0,-1 0,1-1,-1 0,1 0,4-3,26-7,57-2,0 4,186 5,-179 5,2821 3,1547-4,-2819-81,-261-32,-1378 113,850-40,0-31,265 7,-494 69,349-4,-705-22,-69 3,801 6,-829 14,-115-4,98-16,-15 1,269 5,-410 13,-1 0,1 0,-1 1,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 1,0 0,0 0,0 1,4 3,-4-2,-1 0,0 0,0 0,0 1,0-1,-1 1,0 0,0 0,0 0,0 0,-1 0,2 8,6 56,-2 1,-4 0,-6 81,0-28,37 603,-8-314,14 1246,-41 28,-2-645,0-8,6 1059,2-1895,51 340,145 767,-195-1260,5 30,2 100,-12-64,-4 155,1-251,-1 1,0-1,-1 1,-1-1,0 0,-1 0,0-1,-1 0,-15 22,7-13,-1-1,-1-1,-1 0,-34 28,35-36,1-1,-2 0,1-2,-1 0,-1-1,1 0,-1-2,-1 0,-35 5,-12-2,-106-1,131-8,-1666 6,935-9,610 1,-193 6,196 19,9 0,-197-14,203-9,-181 22,-174 15,90-11,-214 66,506-72,-191 22,-25 4,-483 73,802-117,-999 70,-14-73,421-4,-1963 5,1823-51,7-62,206 28,-728-77,807 91,142 18,-502-49,508 65,27-8,-277-24,504 60,16 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2631.14">6080 214,'-1'1,"0"-1,0 1,1-1,-1 0,0 1,1-1,-1 1,1 0,-1-1,0 1,1-1,0 1,-1 0,1 0,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,0 0,-1-1,1 1,0 1,-4 28,4-24,-10 81,-26 105,26-153,-1-1,-3 0,0-1,-3 0,-22 36,37-70,0 1,0-1,0 0,-1 0,1 1,-1-2,0 1,0 0,0-1,-5 4,7-6,1 0,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1-1,0 0,-1 0,1 0,-1-1,1 1,0 0,0-1,0 0,0 1,0-1,0 0,0 1,1-1,-1-2,-5-16,2 0,0 0,1-1,2 1,0-41,5 9,11-60,-6 71,3 0,1 1,1 1,32-59,-43 93,-1 0,1 0,0 0,0 0,0 1,0 0,1 0,0 0,0 0,0 0,0 1,1 0,0-1,-1 2,1-1,0 1,0-1,0 1,1 1,-1-1,0 1,1 0,-1 0,1 0,-1 1,1 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,1 1,-1 0,0 0,0 0,0 1,0-1,0 1,-1 0,1 1,-1-1,0 1,0 0,0 0,5 7,2 7,0 0,-1 1,-1 0,-1 1,-1 0,0 1,-2-1,0 1,2 25,-1-11,2 0,13 35,-21-69,0 0,0 0,0 0,1 0,-1 0,1 0,-1-1,0 1,1 0,0 0,-1 0,1 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 1,0-1,0 0,-1 1,1-1,0 0,0-2,26-50,-26 49,84-253,-28 75,-55 175,1-1,0 1,0 0,1 0,-1 0,2 0,8-11,-11 16,0 1,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,1 0,-1 0,0 1,0-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 1,4 1,6 5,0 1,0-1,-1 2,0 0,-1 0,0 1,13 19,3 8,24 48,-24-33,-2 1,-2 1,22 90,21 179,-11-47,-38-217</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3057.14">7245 1087,'4'0,"2"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4445.18">8303 293,'-4'51,"-2"0,-2-1,-2 0,-3 0,-28 73,8-21,-29 111,-38 116,78-271,22-57,0 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,-1 0,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,0 0,1 1,-3-1,-4-15,2-36,5 50,17-637,-11 573,24-106,-23 143,1 0,2 1,0 0,2 0,1 1,20-30,-29 50,1 0,0 1,0-1,0 1,1 1,0-1,0 1,0 0,0 0,1 0,0 1,-1 0,1 1,0-1,1 1,-1 1,0-1,0 1,10 0,-9 1,1 0,0 1,0-1,0 2,0-1,0 1,-1 1,1 0,-1 0,0 0,1 1,-2 1,1-1,0 1,10 9,-2 2,0 1,-2 0,1 1,-2 1,14 26,49 107,-60-115,10 19,12 28,57 93,-79-150,-2 1,0 0,14 47,-16-41</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5548.28">8065 769,'508'0,"-487"-1,1-1,32-8,-31 5,0 2,25-2,43 4,-65 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6121.49">8991 690,'9'0,"7"0,10 0,6 0,5 0,2 0,-2 0,-2 0,-3 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6801.04">9150 716,'0'-4,"0"3,0 10,4 13,2 12,-1 4,0 1,-2-3,-1-1,4 0,5-4,1-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7684.99">9441 611,'15'69,"-10"28,-5-69,1 0,5 30,15-103,-16 31,1 0,1 0,0 0,0 1,2 0,-1 0,2 1,-1 1,2-1,0 1,0 1,1 0,0 1,0 0,1 1,0 0,1 1,0 1,0 0,0 1,1 0,0 1,0 1,0 0,0 1,0 1,24 0,-37 1,1 1,0-1,0 0,0 1,0-1,-1 1,1 0,0 0,-1 0,1 1,3 1,-1 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8928.25">10102 637,'-4'1,"1"0,0 0,0-1,0 2,0-1,0 0,1 1,-1-1,0 1,0 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,-1 4,-5 10,1 0,-6 26,11-39,-4 17,1 0,1 0,0 0,2 0,0 1,2-1,0 1,4 26,-4-46,0-1,0 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,1-1,0 0,1 0,-1-1,0 1,0-1,0 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,0-1,3-3,8-15,-1-1,-1 1,-1-2,0 0,8-33,19-121,-35 378,-3-199,1 0,0 1,1-1,-1 1,0-1,1 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,0 0,0 0,1 0,-1-1,0 1,1 0,-1-1,1 0,3 1,27-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10274.85">10869 452,'-7'0,"0"0,1 0,-1 1,0 0,1 0,-1 1,1-1,-1 1,1 1,0-1,0 1,0 0,0 1,-7 4,10-4,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 1,0-1,1 1,-1-1,1 1,0 0,0 0,0-1,1 1,0 0,0 0,0 0,1 5,-1-7,1 0,0 0,-1 0,1 0,0 0,1 0,-1-1,0 1,1 0,0-1,-1 1,1-1,0 0,0 0,0 1,1-1,-1-1,1 1,-1 0,1 0,-1-1,1 0,0 1,0-1,-1 0,1 0,0-1,0 1,0-1,6 1,12 1,0-1,0 0,31-5,-21 2,-11 1,-9 0,1 0,-1 1,0 1,0 0,16 3,-24-3,1 0,-1 0,0 1,-1-1,1 1,0-1,0 1,-1 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,0 0,1 4,2 18,0 0,-2 0,-1 0,-1 0,-1 0,-5 29,6-50,-1 0,0-1,1 1,-1 0,-1-1,1 1,0-1,-1 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,0-1,0 0,0 1,0-1,-1-1,1 1,0 0,-1-1,1 0,-1 0,-5 1,-9 1,-1-1,1 0,0-2,-32-3,20 2,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">792 1425,'5'0,"1"-1,0 0,-1 0,2-1,-2 0,1 0,4-3,28-6,58-3,1 5,193 4,-186 5,2930 3,1607-4,-2928-78,-271-30,-1431 108,882-39,0-29,276 7,-514 66,363-4,-732-21,-72 2,832 7,-861 13,-120-4,103-15,-17 0,280 6,-425 12,-2 0,1 0,-1 1,1 0,-1 0,2 0,-2 0,0 1,1-1,-1 1,0-1,1 1,-1 1,4 3,-4-2,-1 0,0 0,1-1,-1 2,0-1,-1 1,0 0,0-1,0 1,0 0,-1 0,2 7,7 55,-3 0,-4 0,-6 78,0-27,38 579,-8-301,15 1196,-43 26,-2-618,-1-8,8 1016,1-1819,53 327,151 736,-203-1210,5 29,3 96,-13-61,-4 148,1-240,-1 0,0 0,-2 0,0 0,0-1,-1 0,0 0,-2-1,-15 22,8-13,-2-1,0 0,-2-1,-35 27,36-35,2 0,-3-1,1-1,-1 0,0-2,0 1,-1-2,0 0,-38 4,-11-1,-111-2,136-7,-1730 6,971-9,634 1,-201 6,204 18,9 0,-204-13,210-9,-188 21,-180 15,93-11,-222 63,525-69,-198 22,-26 3,-501 70,832-112,-1037 67,-15-70,437-4,-2038 5,1893-49,7-59,214 26,-756-73,839 86,146 19,-520-48,527 62,28-7,-288-23,524 57,17 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2631.14">6316 205,'-1'1,"0"-1,0 1,1-1,-1 0,0 1,1-1,-1 1,1 0,-1-1,0 1,1-1,0 1,-2 0,2 0,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,0 0,-1-1,1 1,0 1,-4 27,4-24,-10 79,-28 100,28-146,-1-2,-4 1,1-2,-4 1,-23 34,39-67,0 0,0 0,0 0,-1 0,1 1,-1-2,0 1,-1 0,1-1,-5 3,7-5,1 0,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-2-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0-1,0 0,0 1,0-1,0 0,0 1,1-1,-1-2,-5-15,2 0,-1 0,2-2,2 2,0-39,5 8,12-58,-7 69,4 0,0 0,2 2,33-57,-45 89,-1 0,1 0,0 0,0 1,0 0,0 0,1 0,1 0,-1 0,0 1,0 0,1 0,0-1,0 2,0-1,0 1,0-1,0 1,2 1,-2 0,0 0,1 0,-1 0,2 0,-2 1,1 0,-1 0,2 1,-2-1,1 1,-1 0,0 0,2 0,-2 1,0 0,0 0,0 1,1-1,-1 1,-1 0,1 1,-1-1,0 0,1 1,-1 0,5 7,2 6,1 0,-2 1,0 1,-2 0,-1 0,1 1,-3-1,0 2,2 23,-1-11,3 1,13 33,-22-66,0 0,0 0,0 0,1 0,-1 0,1 0,-1-1,0 1,1 0,0 0,-1 0,1 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,1 1,-1-1,-1 0,1 1,0-1,0 0,-1 1,1-1,0 0,0-2,27-48,-27 47,87-243,-29 73,-57 167,2-1,-1 2,0-1,1 0,-1 0,2 1,9-12,-12 16,0 2,0-1,-1-1,1 1,0 0,0 0,0 0,0 0,2 0,-2 0,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,1 0,-1 0,0 1,1-1,0 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 1,4 1,7 4,-1 2,1-1,-2 1,1 1,-2-1,0 2,14 18,3 7,25 47,-25-32,-2 1,-2 0,23 88,21 171,-11-45,-39-209</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3057.14">7526 1044,'4'0,"2"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4445.18">8625 281,'-4'49,"-2"0,-3-1,-1 0,-4 0,-28 70,8-20,-31 107,-39 111,81-261,23-54,0 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,-1 0,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,0 0,1 1,-3-1,-4-15,1-34,6 48,18-611,-12 549,25-101,-23 137,0 1,2 0,1 0,1 0,2 1,20-29,-30 48,1 1,1 0,-1-1,0 1,1 1,0 0,1 0,-1 0,0 0,1 0,1 1,-2 0,1 1,1 0,0 0,-1 1,0-1,1 1,9 0,-8 1,0 0,0 1,1-1,-1 2,0-1,1 1,-2 1,1-1,0 1,-1 0,1 1,-1 1,0-1,0 0,11 10,-2 1,-1 2,-1-1,0 1,-1 1,14 26,51 102,-63-111,11 19,13 26,59 90,-83-144,-1 1,-1 0,15 45,-16-39</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5548.28">8378 738,'528'0,"-507"-1,2-1,33-7,-32 4,0 2,26-2,44 4,-67 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6121.49">9340 662,'9'0,"8"0,10 0,6 0,5 0,3 0,-3 0,-1 0,-4 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6801.04">9505 687,'0'-3,"0"2,0 9,4 13,2 12,-1 4,1 0,-3-2,-1-2,4 1,6-4,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7684.99">9807 587,'16'66,"-11"27,-5-66,1 0,5 28,16-98,-17 30,1-1,2 1,-1 0,0 0,3 1,-2-1,2 2,0 0,1-1,1 2,-1 0,1 1,1 0,-1 0,2 2,-1-1,2 1,-1 2,1-1,0 1,0 0,1 1,-1 1,1 1,-1 0,1 1,25 0,-39 1,1 1,0-1,0 0,0 1,0-1,-1 1,1 0,0 0,0 0,0 0,3 2,-1 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8928.25">10494 612,'-4'1,"1"0,-1-1,1 0,0 2,0-1,0 0,1 1,-1-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 1,1 0,-1 0,-1 4,-6 9,2 0,-7 26,12-39,-4 18,1-1,1 0,0 0,2 0,0 1,2 0,0 0,4 25,-4-44,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,-1 0,0 0,1 1,-1-1,0 0,0 0,1 0,1-1,0 0,1 0,-1-1,0 1,1-1,-1 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,0 0,4-4,7-14,0-1,-2 0,-1-1,1 0,7-32,21-116,-37 363,-3-191,1 0,0 1,1-1,-1 1,0-1,1 1,-1-1,1 0,0 1,0-2,0 1,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,2 0,-1-1,0 1,0 0,0-2,0 1,0 1,0-1,0 0,0 0,1 0,-1-1,1 1,0 0,-1-1,1 0,3 1,28-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10274.84">11291 434,'-8'0,"1"0,1 0,-1 1,-1 0,2 0,-1 1,1-1,-2 1,2 1,0-2,0 2,-1 0,1 1,-7 4,9-4,1-2,0 2,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,0 1,0-1,1 1,0-1,0 1,0-1,1 1,0 0,0-1,0 1,1 5,-1-7,1 0,0-1,-1 1,1 0,0 0,2 0,-2-1,0 1,1 0,0-1,-1 0,1 0,0 0,0 0,0 1,1-1,-1-1,1 1,-1 0,2 0,-2-1,1 0,0 1,0-1,-1 0,1-1,0 0,0 1,1-1,5 1,13 1,0-1,-1 0,33-5,-21 2,-13 2,-8-1,0 0,0 1,-1 1,1 0,16 2,-25-2,1 0,-1 0,0 1,-1-1,1 1,0-1,1 1,-2 0,1 0,-1 0,1 1,-1-2,0 2,0-1,0 1,0-1,0 1,-1 0,1 0,0 0,-1-1,0 1,1 4,2 17,0 0,-2 0,-1 0,-1 0,-1 0,-5 28,6-48,-1 0,0-1,1 0,-1 1,-1-1,1 1,0-1,-2 1,1-1,0-1,0 1,0 0,0 0,-1 0,1 0,-1-1,0 1,0-1,-1-1,1 2,0-1,-1-1,1 1,0 0,-1-1,1 0,-2 0,-4 1,-10 1,0-1,0 0,0-2,-33-3,21 2,0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17885,18 +18084,18 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">594 451,'-2'2,"0"-1,0 0,1 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,1 0,-1 0,-1 4,-2 3,-111 238,-68 133,134-291,-3-2,-73 90,96-145,29-31,0-1,0 0,0 1,-1-1,1 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,-1 1,1-1,0 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1-1,0 1,-1 0,7-23,23-31,2 0,3 2,73-87,-56 77,75-123,-80 93,43-124,-31 70,-56 141,2-6,1 0,0 1,1-1,0 1,8-11,-13 20,0 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,0-1,-1 1,1-1,0 1,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,0 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 2,5 7,1 1,-2 0,0 0,0 0,-1 1,0 0,-1 0,0 0,2 19,-1-10,1 0,10 22,-13-36,0-1,1 1,-1-1,2 0,-1 0,0-1,1 1,0-1,0 0,9 6,0-1,1-1,0 0,28 10,-37-16,0-1,0 0,0 0,1-1,-1 0,1 0,-1 0,1-1,-1 0,1 0,-1-1,12-2,-14 2,-1-1,1 0,-1 0,1 0,-1 0,0-1,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,0-1,0 1,0-1,-1 1,2-6,4-11,-1-1,5-25,-6 19,28-133,-12 55,38-114,-56 209,1 0,0 0,1 1,0-1,10-14,-13 22,-1 0,0 0,1 1,-1-1,1 1,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,0 0,3 2,3 3,1 0,-1 1,0 0,-1 0,0 1,0 0,-1 0,0 1,9 15,4 14,16 43,-24-54,31 87,48 200,-4 128,-44-213,-31-171</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="347.99">2235 1298,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1382.55">2843 504,'0'1,"1"-1,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 1,3 31,-3-26,6 450,-8-402,-16 260,9-192,8-93,4-44,5-54,14-144,84-357,-62 444,-29 87,16-62,-31 97,-1 1,1-1,-1 0,1 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0 0,2-1,-3 2,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,0 1,-1-1,1 1,0-1,1 2,20 23,9 28,-2 1,40 109,20 123,-37-112,2 23,22 61,-60-218</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1962.55">2870 1192,'873'0,"-830"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3079.84">4272 107,'67'332,"-47"-222,28 195,32 144,-67-384,-10-44,0-1,2 0,0 0,2 0,0-1,15 30,-22-49,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,2-1,6-16,-6-29,-3 38,-1 1,0 0,0 0,0 0,-1 0,0 1,0-1,0 1,-1 0,0 0,-1 0,1 0,-1 1,0-1,0 1,-1 0,0 1,0 0,0 0,0 0,0 0,-1 1,0 0,-7-2,-8-1,0 0,0 2,0 0,0 2,-1 0,-35 3,45 0,-1-2,-1 2,1 0,-1 1,1 0,-27 9,37-10,0 1,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,0 0,0 1,0-1,1 0,-1 1,1-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,1 0,-1 9,-1 0,1 1,0-1,1 1,1 0,1-1,5 25,-6-32,1 0,1-1,-1 1,1-1,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,1 0,-1 0,1-1,0 1,0-1,10 5,4 0,1-1,0 0,0-2,1 0,-1-1,33 1,-16-3,0-2,68-9,-84 7,-1-2,1 0,-1-1,0-1,0-1,0-1,-1-1,20-12,-21 3,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3890.75">4669 1219,'16'-6,"0"1,1 0,-1 0,1 2,30-2,3-2,-18 1,-12 4,0-1,-1-1,1-1,-1 0,-1-2,21-9,-38 15,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 0,0 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,0 0,0 0,1-2,-2 2,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,0-1,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,-4-2,0 0,0 0,-1 1,1 0,0 1,-1-1,-7 1,5 3,0-1,0 2,1-1,-1 1,1 0,0 1,0-1,0 2,1-1,0 1,0 0,0 1,-9 12,-9 12,-36 59,56-83,-7 12,1 2,0-1,2 2,0-1,1 1,1 1,-5 30,11-46,0 1,0-1,1 0,-1 1,2-1,-1 1,1-1,0 0,0 1,1-1,0 0,1 0,-1 0,1 0,1 0,-1-1,1 0,0 1,1-1,-1-1,1 1,0-1,1 0,-1 0,1 0,13 7,1-1,0-2,1 0,1-2,-1 0,40 6,-14-6,84 2,-124-10,-1 1,1-1,-1 0,1 0,-1 0,0-1,1 0,-1-1,0 1,0-1,8-5,2-4,1-1,18-19,10-7,0 3,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4427.42">5807 584,'0'5,"-5"23,-1 26,0 34,1 26,2 10,1 3,1-7,0-14,1-22,1-20,-1-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5519.38">6150 1298,'-6'1,"0"0,0 0,0 0,0 1,0 0,0 0,1 1,-1-1,1 1,0 0,-1 1,-5 4,-53 53,52-47,1 0,1 1,1 1,0 0,1 0,0 0,1 1,2 0,-1 1,2-1,0 1,1 0,1 0,1 0,1 31,1-46,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,1 0,0 0,-1 0,1 0,0 0,0-1,1 1,-1-1,0 1,1-1,0 0,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,0 0,1 0,-1 0,0-1,5 1,-3 0,1 0,-1-1,1 1,0-1,-1-1,1 1,-1-1,1 0,-1 0,0-1,1 1,-1-1,0 0,0-1,0 1,0-1,-1 0,7-5,2-5,-1-1,0 0,-1 0,-1-2,0 1,-1-1,0-1,-2 1,0-2,-1 1,8-36,-7 13,-5 20,1 0,2 0,6-20,-11 40,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 1,4 13,1 22,0 133,-6-119</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6403.06">6389 1430,'0'225,"0"-223,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0-1,0 1,0 0,1 1,-1-2,0-1,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 0,0 0,0-2,37-64,-36 63,16-34,-7 13,1 0,2 1,19-27,-32 50,-1-1,1 1,0-1,0 1,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,1 1,-1-1,1 0,-1 0,0 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1 0,1 0,0 0,2 0,-2 1,0 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0 0,-1 0,2 4,3 10,-1 0,0 0,2 31,-7-2,1-36,-1 0,1 0,0 1,1-1,0 0,4 13,-5-22,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,3-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6966.06">7024 557,'-5'81,"-3"0,-3-1,-4 0,-28 87,27-110,3 0,3 0,2 2,-1 115,10-165,0 1,1-1,0 0,0 0,0 0,2 0,5 14,-8-21,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,0-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 0,0 0,2-2,17-13,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7603.06">6733 1245,'8'0,"9"0,5 0,3 0,2 0,6 0,1 0,4 0,5 0,4 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8656.1">7315 1298,'39'1,"1"-2,0-1,-1-3,0-1,60-17,-97 22,0 1,0 0,0-1,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0-1,1 0,-1 1,-1-1,1 1,0-1,0 0,-1 0,1 1,0-1,-1 0,0 0,1-3,-2 3,0-1,0 1,-1-1,1 1,0-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0-1,-1 1,1 0,-4-1,-16-7,0 2,0 0,-1 1,-31-3,41 7,0 0,-1 2,1-1,0 2,-1 0,1 0,0 2,0-1,-14 6,20-5,0 1,0 0,1 1,-1-1,1 1,1 1,-1-1,1 1,0 0,0 0,0 0,1 1,0-1,0 1,1 0,-5 15,3-9,1 1,0 0,1 0,1 0,0 1,1-1,1 0,1 19,0-29,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,-1 0,1 0,0 0,0 0,0 0,7 1,13 5,1-2,45 8,-49-11,90 11,220-2,-278-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">619 430,'-2'1,"0"0,0 0,1 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1 0,0 0,0-1,1 1,-1 0,-2 4,-1 3,-116 226,-70 127,138-278,-2-1,-76 86,100-139,30-29,0-1,0 0,0 1,-1-1,1 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,-1 1,1-1,0 0,0 0,-2 0,2 1,0-1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1-1,0 1,-1 0,7-22,24-29,3-1,2 3,77-84,-59 74,78-117,-83 89,45-119,-32 67,-59 134,2-5,1-1,0 2,2-2,-1 2,8-11,-13 19,1 0,-1-1,1 1,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,0-1,-1 1,1-1,1 1,-2-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,0 1,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 2,6 6,0 2,-2-1,0 1,1-1,-2 1,0 1,-1-1,0 1,3 17,-2-9,1 0,11 21,-14-34,0-1,1 0,-1 0,3 0,-2-1,0 0,1 1,0-1,1-1,8 7,1-2,0 0,1 0,29 9,-39-16,0 0,1 0,-1 0,1-1,0 0,0 0,-1 0,1-1,0 0,0 0,-1-1,13-2,-15 2,-1-1,1 0,0 1,0-1,-1 0,0-1,0 1,0-1,-1 0,1 0,0 1,0-1,-1 0,0-1,0 1,0-1,-1 1,2-5,4-11,0-1,4-24,-6 18,30-126,-13 52,39-109,-58 200,2-1,-1 1,1 0,0 0,11-14,-14 21,-1 0,0 0,1 1,-1-1,1 1,0-1,-1 2,1-1,0-1,1 1,-1 0,0 0,0 1,0-1,0 0,0 0,0 1,0 0,0-1,1 1,0 0,-1 0,0 0,0 0,0 0,1 1,-1-1,0 1,0-1,0 1,0 0,1 0,-1 0,3 2,3 2,2 1,-2 1,0-1,0 1,-1 1,0-1,-1 1,1 0,8 15,5 13,17 42,-26-53,33 84,50 190,-5 122,-45-203,-32-163</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="347.98">2330 1236,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1382.55">2964 480,'0'1,"1"-1,0 0,1 1,-1-1,0 0,-1 1,1-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 0,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 1,3 29,-3-24,7 428,-9-382,-17 247,9-183,9-89,5-41,4-52,15-137,88-339,-65 422,-31 82,18-58,-33 92,-1 1,1-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 0,1 0,1-1,-3 2,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,0 1,-1-1,1 1,0-1,1 2,21 22,10 26,-3 2,42 103,21 117,-39-106,2 22,24 57,-64-207</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1962.55">2993 1135,'910'0,"-865"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3079.84">4454 102,'70'316,"-49"-211,29 185,34 138,-71-366,-10-42,0-1,3 0,-1 0,2 0,0-1,16 29,-23-47,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,2 0,-2 0,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,2-1,6-15,-6-28,-3 37,-1 0,0 0,0 1,0-1,-1 0,0 2,0-2,0 1,-2 1,1-1,-1 0,1 0,-1 2,-1-2,1 1,-1 0,0 2,-1-1,1 0,0 0,0 0,-2 2,1-1,-7-2,-9-1,0 0,0 3,0-1,0 2,-1 0,-37 3,48 0,-2-2,0 2,0 0,-1 1,2 0,-29 8,39-9,0 1,-1 0,2 0,-1 1,1-1,-1 0,1 0,0 1,-1 0,1 1,0-1,1 0,-1 0,1 0,0 1,0 0,0 0,1 0,-1-1,0 1,1 0,0 0,1 0,-1 8,-1 0,1 2,0-2,1 1,1 1,1-2,6 24,-7-30,1 0,1-2,-1 2,1-1,0 0,0-1,2 1,-2 0,1-1,0 1,0-2,1 1,0 0,0-1,0 1,0-2,11 6,4 0,0-2,1 1,0-2,1 0,-1-2,34 2,-16-3,-1-2,72-9,-88 8,-1-3,0 0,0-1,0-1,0 0,0-2,-1 0,20-12,-21 2,-6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3890.75">4868 1161,'17'-6,"0"1,0 1,0-1,1 2,31-2,3-1,-19 0,-12 4,0-1,-1-1,1 0,-1-1,-2-2,23-8,-40 14,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 0,0 1,0-1,-1 0,2 0,-1 0,-1 0,1 0,-1 1,1 0,-1-1,1 0,-1 0,0 0,0 0,1-2,-2 2,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,-1-1,2 0,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,-1 1,-4-2,0 0,-1 0,0 1,1 0,-1 1,0-1,-7 1,4 3,1-1,-1 2,2-2,-1 2,0 0,1 1,0-1,-1 1,2 0,0 1,-1 0,1 0,-10 12,-9 12,-37 56,58-80,-8 12,2 2,-1-1,3 2,-1-1,2 1,1 1,-6 29,12-45,0 2,0-1,1-1,-1 2,2-2,-1 2,1-1,0-1,0 2,1-1,0-1,1 1,0 0,0-1,1 1,-1-1,1-1,0 2,2-1,-2-1,1 0,0 0,1 0,0 0,0-1,14 8,1-2,-1-1,2-1,1-1,-1 0,42 5,-15-5,87 1,-128-9,-2 1,1-1,-1 1,2-1,-2 0,0-1,2 0,-2-1,0 1,0-1,9-4,2-5,0 0,20-19,10-6,0 3,-3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4427.42">6055 556,'0'5,"-5"22,-1 24,-1 33,2 24,2 10,1 3,1-6,0-14,1-21,1-19,-1-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5519.38">6413 1236,'-7'1,"1"0,0 0,0 0,-1 1,1 0,0 0,1 1,-2-2,2 2,0 0,-1 1,-6 4,-55 50,55-45,0 0,2 2,1 0,-1 0,2 0,0 1,0 0,3 0,-1 1,2-1,0 1,0 1,2-1,1 0,1 29,1-43,-1 0,1 1,0-1,0 0,0 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0-2,1 2,-1-1,0 1,1-1,1 0,-2 0,1 0,0-1,0 1,0-1,0 0,0 0,1 0,0 0,-1 0,0-1,5 1,-2 0,0 0,-1-1,1 1,1-1,-2-1,1 1,-1-1,1 0,0 0,-1-1,1 1,-1-1,1 1,-1-2,0 1,0-1,-1 0,8-5,1-4,0-1,-1-1,0 1,-2-2,1 1,-2-2,1 0,-3 1,0-2,-1 1,9-35,-8 13,-5 19,1 0,3 0,5-19,-11 38,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 1,5 12,0 22,0 125,-6-112</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6403.06">6662 1362,'0'214,"0"-212,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0-1,1 1,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0-1,0 1,0 0,1 1,-1-2,0-1,1 1,0-1,-1 1,0-1,0 1,1-1,-1 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 0,0 0,0-2,39-60,-38 59,17-32,-8 12,2 0,1 1,21-25,-34 47,-1-1,1 1,0-1,0 1,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,1 1,-1-1,1 0,-1 1,0 0,2-1,-1 1,-1-1,1 1,-1-1,1 1,-1 0,1 0,0 0,2 0,-2 1,0 1,-1-2,2 1,-1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0 0,-1-1,2 5,3 9,0 1,-1-1,2 30,-7-3,1-33,-1 0,1-1,0 2,1-2,0 1,4 12,-5-21,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,2 0,2-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6966.06">7324 530,'-5'78,"-4"-1,-2-1,-5 0,-29 83,29-105,2 1,4-1,1 2,0 110,10-158,0 2,1-1,0-1,0 1,0-1,3 1,4 13,-8-20,0 0,0-1,0 0,0 1,0 0,0-1,1 1,-1 0,1-1,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0-1,1 1,-1-1,0 0,0 0,0 1,0-1,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,-1 0,1 1,0-1,0 0,2-2,18-12,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7603.06">7021 1186,'8'0,"10"0,5 0,3 0,2 0,6 0,2 0,3 0,6 0,4 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8656.1">7627 1236,'41'1,"1"-2,-1-1,0-3,0 0,62-17,-101 21,0 1,0 0,0-1,0 0,-1 1,2-1,-1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0-1,1 0,-1 1,-1-1,1 1,1-1,-1 0,-1 0,1 1,0-1,-1 1,0-1,1-3,-2 3,0-1,0 1,-2-1,2 1,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,0 2,1-2,-1 1,1 0,-4-1,-17-7,0 3,0-1,-1 1,-32-2,42 6,1 0,-2 2,2-1,-1 2,-1 0,2 0,-1 2,1-2,-15 7,20-5,1 1,0 0,0 0,0 0,1 1,1 1,-2-2,2 2,0 0,0 0,0-1,0 2,1-1,0 0,1 1,-5 14,2-9,2 2,0-1,1 0,1 1,0 0,1-1,1 1,1 17,0-27,0 0,1-1,-1 1,1 0,0 0,0 0,0-1,1 0,-1 1,2-1,-1 0,0 0,0 0,0-1,1 1,-1 0,2-1,-2 0,1 0,0 0,0 0,0 0,8 0,13 6,1-2,47 7,-51-10,94 10,229-1,-290-12</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17923,10 +18122,10 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">383 688,'-11'12,"0"1,1 0,1 0,-12 22,3-6,-46 72,12-23,3 2,-58 133,100-193,1 1,1-1,1 1,0 0,0 34,8 108,1-67,-6-18,0-44,1 0,1-1,2 1,9 40,-10-68,0 0,0 0,1 0,0 0,0-1,0 1,1-1,-1 1,1-1,1-1,-1 1,1 0,-1-1,7 4,-1-2,0 0,0 0,0-1,1-1,0 0,0 0,15 2,2-1,1-2,-1 0,1-2,-1-2,46-5,-23-1,0-3,-1-2,0-1,93-41,-136 51,0-1,0 0,0 0,-1 0,0-1,0 1,0-1,0-1,-1 1,0-1,0 0,6-11,-6 8,-1-1,0-1,-1 1,0-1,-1 1,0-1,0 0,-1-13,25-194,-1 13,-17-368,-8 562,-1-1,0 1,-1 0,0 0,-1 0,0 0,-1 0,0 1,-1-1,0 1,-1 0,0 1,0-1,-8-8,5 9,0 1,0 0,-1 1,0 0,0 1,0 0,-1 0,0 1,0 1,-1 0,1 0,-1 1,-15-2,-101-12,0 7,-130 5,236 6,22-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,45 7,38-1,10-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="713">1653 344,'-4'2,"1"0,0-1,-1 1,1 0,0 1,0-1,0 0,1 1,-1 0,1 0,-1 0,1 0,0 0,-2 4,-5 5,-26 32,2 1,3 2,1 1,2 1,-34 89,49-104,2-1,1 1,1 1,2 0,1 0,2 0,2 0,1 1,2-1,7 45,-2-52,1 0,1 0,2-1,1 0,1-1,19 30,4-2,71 82,-98-125,0-2,1 1,0-1,0 0,1-1,0-1,13 8,-15-11,-1-1,1 0,0 0,0-1,0 0,0 0,1-1,-1-1,0 1,19-3,25-1,-33 2,0 0,-1-1,25-6,-37 6,0 0,0-1,-1 0,1 0,-1 0,0-1,0 0,0 0,-1-1,1 0,-1 1,9-12,15-23,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1683.19">2288 370,'1'247,"-27"647,34-948,1 0,26-77,-24 94,3 1,0 0,3 1,1 1,27-40,-21 43,33-37,-49 60,-1 1,2 0,-1 0,1 0,0 1,0 1,0-1,1 2,16-7,-24 10,1 0,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,0 0,1-1,-1 1,0 0,1 1,3 1,-3 0,1 0,-1 1,0-1,0 1,-1-1,1 1,-1 0,0 0,0 0,3 6,1 11,0 0,-1 0,3 39,-6-44,4 57,-4 75,-1-7,-1-138,0 0,0 0,0 0,1 0,-1-1,1 1,0 0,0 0,0 0,2 3,3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2314.01">2791 0,'8'1,"0"-1,1 1,-1 0,0 1,0 0,0 0,0 1,0 0,0 0,-1 1,1 0,-1 0,0 1,0 0,-1 0,0 1,0 0,8 8,3 9,0 0,-2 2,25 51,5 23,-4 2,51 201,10 217,-100-506,15 79,-5 0,-3 1,-4 111,-7-189,-1 1,0-1,0 1,-2-1,0 0,-1-1,0 1,-1-1,-1 0,0-1,-1 0,0 0,-1 0,-16 14,3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">402 660,'-11'12,"-1"0,2 1,0-1,-12 22,3-6,-48 69,12-22,4 1,-61 129,104-186,2 1,1-1,0 1,1 1,0 31,8 105,1-65,-6-17,0-42,1-1,1 0,3 0,8 40,-10-67,0 1,0 0,2 0,-1-1,0 0,0 1,1-1,-1 0,2 0,0-1,-1 1,1 0,0-2,6 5,0-2,-1 0,1-1,-1 0,2-1,-1 0,1 0,15 2,3-2,0-1,-1 0,2-2,-2-2,49-5,-24 0,-1-4,0-2,-1 0,99-40,-144 49,0-1,1 1,-1-1,-1 0,1-1,-1 1,0 0,0-2,0 1,-1-1,0 0,7-10,-7 7,-1 0,0-2,0 2,-1-2,-1 2,0-2,0 0,-1-12,26-186,0 12,-19-353,-8 540,-1-2,0 2,-1-1,0 1,-1-1,0 1,-2-1,1 1,-1 0,0 0,-2 1,1 0,0-1,-9-7,6 8,-1 2,1-1,-2 1,1 1,-1 0,1 0,-2 0,0 2,1 0,-2 0,2 0,-2 1,-15-2,-107-11,1 7,-137 4,248 6,23-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,47 6,40 0,11-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="713">1737 330,'-4'2,"0"0,1-1,-1 1,1 0,0 1,0-1,-1 0,2 0,-1 1,1 0,-1 0,1 0,0 0,-2 4,-6 4,-27 31,3 1,2 3,2 0,1 1,-35 85,52-99,1-2,2 2,0 1,3-1,1 1,1-1,3 1,1 1,3-2,6 44,-2-50,2 0,0 0,3-1,0-1,2 0,20 29,3-2,76 79,-104-121,1-1,0 0,1 0,-1 0,2-2,-1 0,15 7,-17-10,0-1,0 0,0 0,1-1,-1 0,1 0,0-1,0-1,-1 1,21-3,25-1,-34 2,0 0,-1-1,27-6,-40 6,0 0,1 0,-2-1,1 0,0 0,-1-1,0 0,0 0,0 0,0-1,-1 1,10-11,15-23,-1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1683.18">2404 355,'1'237,"-28"621,35-910,2 1,26-75,-24 90,3 2,-1-1,4 2,1 0,28-38,-21 41,33-35,-50 57,-2 2,3-1,-2 0,2 0,-1 2,0 0,1-1,0 2,18-6,-26 9,1 0,-1 1,1-1,-1 1,1 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,1 0,0-1,-1 1,0 0,1 1,3 0,-2 1,0 0,-1 1,0-1,0 1,-1-1,1 0,0 1,-1 0,0 0,3 6,1 10,1 0,-2 0,3 38,-6-43,5 55,-5 72,-1-7,-1-132,0 0,0 0,0 0,1 0,-1-1,1 1,0 0,0-1,0 1,2 3,4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2314.01">2932 0,'9'1,"-1"-1,2 1,-2 0,0 1,1 0,-1 0,1 1,-1-1,1 1,-2 1,1 0,0 0,-1 1,0-1,0 1,-1 1,0 0,9 7,3 9,0 0,-3 2,27 49,6 22,-5 2,53 193,12 208,-106-485,16 75,-6 0,-2 2,-5 105,-7-180,-1 0,0 0,-1 0,-1-1,0 1,-1-2,-1 2,0-2,-1 0,-1 0,0-1,-1 1,0-1,-18 14,4-3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17983,17 +18182,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1376,'1'0,"0"-1,0 1,0-1,0 0,0 0,1 1,-1-1,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,-1-1,0 1,1 0,-1 0,0-1,1-2,1-3,21-61,3 2,36-65,-52 112,2-1,0 2,1-1,1 2,1 0,0 0,1 2,1 0,0 0,35-20,-41 29,1 1,1 0,-1 1,0 0,1 2,0-1,0 1,17 0,-7 2,0 0,0 2,40 8,-32-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="783.3">80 1111,'4'0,"16"0,17 0,11 5,3 5,1 2,-3-2,-7-2,-4-2,-6-3,-2-2,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1884.02">1218 502,'-62'122,"-50"142,96-217,2 0,2 2,2-1,2 2,2-1,2 73,4-83,1-4,5 47,-4-73,-1 0,1 0,1 0,0 0,0 0,1 0,0-1,0 0,11 15,-9-18,0 1,0-1,1 0,0-1,-1 1,2-1,-1-1,0 1,1-1,0-1,14 4,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3062.09">662 423,'4'0,"7"5,0 6,0 14,-3 7,-3 8,-2 6,-2 0,0 0,-1-2,-1-5,1-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4504">1562 767,'-1'1,"1"-1,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,-1 0,1 0,0-1,0 1,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,0 0,1-1,15-10,-2 8,1 1,-1 0,0 1,1 0,-1 1,0 1,1 0,-1 1,0 1,0 0,23 8,-28-7,0 0,0 0,0 1,0 0,-1 0,1 1,-2 1,1-1,-1 1,0 0,0 1,0 0,-1 0,-1 0,1 1,-1-1,4 14,15 46,-19-49,1-1,1 1,0-1,1-1,1 1,1-1,1-1,16 21,-21-30,0 0,0 0,0-1,1 0,0 0,0-1,1 1,-1-2,1 1,0-1,1 0,-1-1,1 0,-1 0,1-1,13 2,6-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5024">2276 502,'0'-4,"0"3,0 5,-5 17,-10 13,-7 15,-9 12,-13 4,-12 10,-14 10,-10-5,-8-3,-8-5,8-15,24-17,23-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5581.54">2461 1111,'0'9,"0"8,0 14,0 11,0 2,0 4,0-3,4-8,7-11,14-10,3-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6443.09">2514 0,'2'1,"1"0,0 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,0 1,0 0,0 1,3 2,3 3,34 34,-2 1,-1 2,-3 1,-2 2,-2 2,40 82,-24-25,-5 2,38 153,-63-194,42 170,-50-187,-3 0,2 93,-9-117,-6 97,5-113,0 0,-2 0,1 0,-1 0,-1 0,0-1,0 0,-10 16,-9-2,-1-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7038.76">2435 741,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7743.28">3678 846,'4'0,"11"0,17-4,10-2,18-8,16-3,13 2,9 4,7 4,7-2,-6 1,-17 1,-23 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8321.63">3652 1058,'928'0,"-885"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1327,'1'0,"0"-1,0 1,0-1,0 0,0 0,1 1,-1-1,-1 0,1 0,0 0,0 0,0 0,1 0,-2 1,1-2,0 1,-1 0,1 0,-1-1,0 1,1 0,-1 0,0-1,1-2,1-3,22-58,3 1,37-62,-54 107,3 0,-1 2,2-2,0 3,2 0,-1-1,2 3,0-1,1 1,36-20,-43 28,2 2,0-1,0 1,-1 0,2 2,-1-1,1 1,17 0,-7 2,-1 0,1 2,42 8,-34-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="783.3">83 1072,'4'0,"17"0,17 0,12 4,3 6,1 2,-3-3,-8-1,-3-2,-7-3,-2-2,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1884.02">1263 484,'-64'118,"-52"136,99-208,2-1,3 2,2 0,1 1,3-1,2 71,4-81,1-3,5 45,-4-70,-1 0,1-1,2 1,-1 0,0-1,1 1,0-1,0-1,12 16,-10-19,0 2,0-1,2 0,-1-1,-1 1,2-2,0 0,-1 1,1-1,1-1,13 4,-3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3062.09">686 408,'5'0,"6"5,0 5,1 15,-4 5,-3 9,-2 5,-2 1,0-1,-1-2,-1-4,1-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4504">1620 740,'-1'1,"1"-1,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,-2 0,2 0,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,-1 0,1 0,0-1,0 1,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,0 0,1-1,16-10,-2 9,0 0,0 0,-1 1,2 0,-2 1,1 1,0 0,0 1,-1 1,1-1,23 9,-28-7,-1 0,0 0,1 0,-1 1,-1 0,1 1,-1 1,0-2,-1 2,1 0,-1 1,0-1,-1 1,-1 0,2 0,-2 0,4 13,16 45,-20-48,1 0,2 0,-1-1,1 0,2 0,0-1,1 0,17 20,-21-30,-1 1,0 0,0-1,2-1,-1 1,0-1,1 1,0-2,0 1,0-2,2 1,-2-1,1 0,-1 0,2-1,13 2,6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5024">2360 484,'0'-4,"0"3,0 5,-5 16,-11 13,-6 15,-11 10,-12 5,-13 9,-15 10,-10-5,-8-2,-9-6,9-14,25-16,23-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5581.54">2552 1072,'0'8,"0"9,0 12,0 12,0 1,0 5,0-4,4-7,8-11,13-10,5-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6443.09">2607 0,'2'1,"1"0,0 1,0-1,-1 1,2-1,-2 1,1 0,-1-1,0 0,0 1,0 1,3 2,4 3,34 32,-1 2,-2 1,-3 2,-1 1,-3 2,41 79,-24-23,-5 1,39 147,-66-186,45 164,-53-181,-3 0,3 90,-10-113,-7 93,6-108,0 0,-2-1,1 1,-1-1,-1 1,0-1,0-1,-11 16,-9-1,-1-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7038.76">2525 715,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7743.28">3814 816,'4'0,"12"0,17-4,10-2,20-7,15-4,15 3,8 3,8 5,7-3,-6 1,-17 1,-25 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8321.63">3787 1020,'962'0,"-917"0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18020,38 +18219,38 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7657 4243,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1769.65">3186 3899,'0'0,"0"-1,0 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,-1 0,1 0,0 0,1-1,32-3,-27 3,443-10,41-4,177-19,-217 4,-160 5,677-4,6 31,-339 2,156 10,61 0,199-15,-1024 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30357.73">249 883,'-3'5,"0"-1,0 1,1 0,0-1,0 1,1 0,-1 0,1 0,0 1,-1 8,-3 14,-22 74,-86 288,109-376,-25 63,27-71,-1 0,0 0,0-1,0 1,-1-1,0 1,0-1,0 0,-6 4,10-9,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,1-24,6-15,1 0,2 0,26-59,66-113,-51 107,-51 102,27-56,2 1,42-60,-71 115,1 0,-1 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1 0,1-1,0 1,-1 0,4-1,-4 2,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 0,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 2,4 5,-1 1,-1 0,1-1,-1 1,1 11,3 9,18 59,1 6,52 130,-76-219,0-1,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,1 0,0 1,0-1,4 2,-4-4,-1 1,1-1,0-1,0 1,-1 0,1-1,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,2-3,14-14,0-1,-2-1,-1-1,0 0,17-36,-20 37,105-215,90-262,-146 343,-44 110,-12 27,2 0,0 0,1 0,1 1,0 0,1 0,1 1,22-24,-31 38,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,1 1,-1-1,1 1,0 0,-1 0,1 0,0 1,0-1,0 1,-1-1,1 1,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,0 1,0 0,-1 0,1 0,0 1,-1-1,0 0,1 1,-1 0,0-1,1 1,-1 0,0 0,0 1,-1-1,1 0,1 3,7 9,-1 1,0 0,-2 0,0 1,0 0,4 20,9 41,-3 1,10 118,-6 168,-20-342,4 170,15 237,-11-352</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30023.71">2313 1597,'4'0,"2"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-29138.57">3847 353,'-1'-1,"1"0,-1 0,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,-3 0,-31-11,29 11,-4-2,0 2,0-1,-1 1,1 1,0 0,0 0,0 1,0 0,0 1,0 0,0 0,0 1,0 1,1 0,-15 8,-9 7,1 1,-52 44,83-63,-59 48,-83 86,124-114,1 1,0 1,2 0,1 1,1 1,0 0,-16 47,-7 51,5 3,6 0,-17 220,41-325,2-1,0 1,1-1,4 26,-3-39,-1-1,1 0,0 0,0 0,1 0,0-1,0 1,0 0,0-1,1 0,0 0,0 0,1-1,-1 1,1-1,0 0,0 0,6 3,6 1,0 0,0-1,1-1,0-1,0 0,0-2,1 0,22 1,156-7,-159 1,-9-1,0-2,0-1,-1-1,0-1,0-2,35-17,-43 19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-28331.17">3900 1650,'11'0,"1"-2,-1 0,0 0,0-1,0 0,15-7,15-4,73-16,168-23,123 10,-238 28,-146 13,-1 1,0-2,0 0,0-1,30-10,-48 14,1-1,-1 0,0 1,0-1,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 1,0-1,0 0,2-4,-3 4,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,0 0,0-1,1 1,-1 0,0 0,-1 0,1-1,-1 0,-6-4,1 1,-1-1,0 1,-1 1,1 0,-1 0,-14-5,-31-7,-1 3,-1 1,0 4,0 1,-81 2,115 6,-1 2,2 0,-1 1,0 1,1 1,0 1,-23 12,29-12,0 2,1 0,0 1,0 0,1 1,0 0,1 1,1 1,0 0,-13 20,23-31,-14 19,1 1,1 0,1 1,1 1,-9 29,18-48,0 1,1-1,0 0,1 0,-1 0,1 1,0-1,0 0,0 1,1-1,0 0,0 0,0 0,1 0,0 0,0 0,0 0,0 0,1-1,0 1,0-1,0 0,0 1,1-2,-1 1,1 0,0-1,0 1,1-1,-1 0,1-1,6 4,10 3,-1-1,2-1,-1-1,24 4,17 5,56 21,-48-14,1-2,119 17,-184-36,-1 0,0-1,1 1,-1-1,1-1,-1 1,0-1,1 0,-1 0,0 0,1-1,-1 0,0 0,0 0,-1-1,1 0,0 0,-1 0,1 0,-1-1,0 1,0-1,4-6,11-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-27496.17">5488 1332,'-2'39,"-2"-1,-1 0,-1-1,-3 1,0-2,-3 1,-23 50,-15 16,-70 106,112-196,-16 26,23-38,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1 0,1-1,-1 0,1 1,-3-1,4 0,-1-1,0 1,0-1,0 1,1-1,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0-2,-1-14,1-1,0 0,1 1,1-1,1 1,0 0,1 0,11-27,63-137,-69 160,24-44,2 1,77-104,-85 133,2 1,0 2,3 1,0 1,69-47,-95 73,1 0,0 0,0 0,0 1,1 0,-1 0,15-2,-19 4,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,1 0,-1 0,2 4,10 14,-1 0,0 1,-2 1,0 0,-2 0,0 1,-2 0,0 1,6 47,-5 9,-5 135,-3-198,-1 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-26841.9">6599 565,'-5'85,"-4"0,-3-1,-36 132,25-119,9-32,3 0,3 0,2 1,7 124,-1-186,0-1,1 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 0,1 0,0 0,-1 0,1 0,0-1,0 1,1 0,-1-1,1 0,-1 1,1-1,-1 0,1 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 0,0 0,1-1,-1 1,0-1,1 0,-1 0,0 0,4-1,14 0,0-2,0 0,-1-1,34-12,-53 15,39-12,-1-1,57-31,-77 34,0-1,-1 0,0-1,-1-1,-1 0,24-27,-15 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-26302.89">6414 988,'0'-4,"4"-2,38 1,29 0,26 2,27 10,7 8,-7 7,-5-1,-19 0,-26-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5242.61">4482 3343,'1'-16,"1"1,1-1,9-29,-1 4,60-234,-35 143,-19 83,2 1,2 1,2 1,50-74,-72 117,4-4,0 1,0 0,0 0,1 0,0 1,0 0,0 0,0 0,1 1,0 0,0 0,0 1,8-3,-12 5,-1 0,1 0,0 0,-1 1,1-1,0 1,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 1,-1-1,1 1,0 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,0 2,5 26,-3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6120.79">4588 2788,'0'5,"9"1,7-1,6 0,3-2,3-1,0-1,4 0,3-1,-2-1,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7220.28">5593 2338,'-2'0,"0"-1,1 0,-1 0,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,1 0,-3 1,-40 25,29-15,1 1,1 0,0 1,1 0,0 1,1 1,1-1,0 2,1-1,1 2,-6 17,0 3,2 1,2 0,2 0,-5 46,7 19,10 180,-2-271,0 0,1 0,0 0,1 0,0-1,1 0,0 1,8 11,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8067.49">5726 2682,'1'-2,"0"0,0 0,0-1,0 1,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,0 1,0-1,0 1,4-2,1-2,17-13,1 1,35-17,-53 30,0 1,-1 0,2 0,-1 1,0-1,0 2,1-1,-1 1,1 0,-1 0,1 1,0 0,-1 1,15 2,-19-1,1-1,-1 2,1-1,-1 0,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 1,2 6,20 66,-22-68,20 118,-19-100,0 0,2 0,0-1,2 1,1-1,1-1,18 36,-11-37</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8623.48">6387 2470,'-10'1,"0"1,1-1,-1 1,1 1,0 0,0 0,0 1,0 0,0 1,1 0,0 0,0 1,0-1,-8 10,-12 12,0 2,-24 32,43-49,4-7,-27 36,-2-1,-2-2,-67 56,70-64,20-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9468.7">6255 3105,'1'-12,"0"0,1-1,1 1,0 0,1 0,0 1,0-1,1 1,1 0,0 0,1 0,0 1,0 0,1 1,1-1,-1 2,1-1,14-9,-22 17,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,1 1,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 1,-1-1,2 3,3 6,-1 1,0 1,0-1,2 16,5 52,-4 1,-3-1,-7 96,3-169,-1 23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9843.7">6493 2735,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10364.14">6652 2920,'0'9,"0"12,0 16,0 15,0 8,0-2,0 3,0-5,0-3,0-5,0-7,0-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11370.16">6652 3184,'-5'0,"-6"0,-5 0,0-4,-2-2,6 1,15 0,11 2,8 1,4 1,3 0,1 1,-1 0,-5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12156.24">6810 3184,'5'0,"1"-1,-1 0,0-1,1 1,-1-1,0 0,0-1,0 1,0-1,-1 0,1 0,-1-1,0 1,0-1,7-7,6-8,-2 0,15-23,-23 29,1-1,-2 0,0 0,-1 0,5-19,-10 120,-3 324,3-384</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13100.99">7234 2232,'6'0,"0"0,0 1,0-1,-1 1,1 1,0-1,0 1,0 0,-1 0,1 0,-1 1,0 0,0 0,0 0,8 7,-8-4,1 0,-1 0,0 1,-1 0,0 0,0 0,0 0,-1 0,0 1,3 10,1 15,-2 1,-1-1,-2 1,-3 51,1-57,9 181,-3-142,-3 0,-3 1,-12 91,2-98,-3 0,-37 107,42-148</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13981.54">7816 2761,'9'0,"7"0,10 0,6 0,1 0,17 0,6 0,-3 0,-2 0,-4 0,-2 5,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15562.06">8848 3184,'7'-9,"1"-15,1-53,-4-1,-5-107,-2 72,9-51,-4 142,1 0,1 0,1 1,1-1,11-24,-7 22,1 0,1 0,1 2,19-26,-26 40,0 1,0 0,0 1,1-1,0 1,0 1,0-1,1 1,0 1,0 0,0 0,1 1,-1 0,17-3,-7 3,0 0,0 2,0 0,0 1,0 1,36 6,-36-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16385.9">8954 2655,'4'0,"15"0,14 0,9-4,3-2,-2 1,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17132.1">10012 2100,'0'1,"1"-1,0 0,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 0,-1 1,1 0,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,-1 2,-7 29,-6 0,-3-2,-33 47,-9 14,23-26,3 1,3 2,-40 132,57-149,2 1,3 0,1 0,3 0,2 1,7 74,-3-114,0-1,0 1,1 0,1-1,0 1,0-1,1 0,1 0,0-1,0 0,1 0,0 0,1-1,0 0,0 0,14 10,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18007.7">10012 2973,'0'-7,"2"-1,-1 1,1-1,0 1,0 0,1 0,0 0,1 0,-1 0,1 1,1-1,-1 1,1 0,0 0,0 1,1 0,10-9,-12 11,0-1,1 1,-1 0,0 1,1-1,0 1,-1 0,1 0,0 0,0 1,0-1,0 1,1 1,-1-1,0 1,0 0,0 0,1 0,-1 1,0-1,0 1,0 1,0-1,0 1,0 0,0 0,5 3,7 9,-1 1,-1 1,0 0,-1 1,0 1,17 30,0-2,13 20,-3 2,42 93,-70-132</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18904.55">10594 2867,'-2'8,"0"-1,-1 0,0 0,0 0,0-1,-1 1,1-1,-2 1,1-1,-6 6,-9 15,-179 284,182-282,5-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19595.51">10753 3290,'4'0,"6"0,2 5,-1 10,-4 7,-1 5,-3 2,-2 0,0 0,-1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19928.51">10885 2973,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20548.9">10964 3290,'4'0,"7"0,5 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21656.98">11203 3237,'8'-4,"9"-6,5-7,-2 10,-3 19,-5 17,-9 16,-10 10,-3 5,0 1,1-6,3-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22580.63">11573 2258,'1'-1,"0"-1,0 1,1 0,-1-1,1 1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,3 1,-2 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,1 3,4 7,-1 0,-1 1,0 0,-1 0,3 15,7 76,-5 0,-8 208,-4-149,2-114,-1-1,-12 60,10-86,-2 0,-1 0,0 0,-2-1,0 0,-21 34,1-5,20-29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25017.62">7604 4137,'2'1,"0"-1,0 1,-1-1,1 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1-1,-1 1,1 4,9 66,-10-62,5 331,-6-259,64-254,-55 154,53-113,-54 117,1 1,1 0,0 0,1 0,0 1,24-21,-28 30,-1-1,1 1,0 1,1-1,-1 1,0 0,1 0,-1 1,1 0,-1 0,1 0,0 1,6 1,10 0,0 1,31 7,-49-7,0-1,0 1,0 0,-1 0,1 0,0 1,-1 0,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1 0,0 0,0 1,0-1,-1 1,0-1,0 1,0 0,0 0,-1 0,0 0,1 8,2 14,-2 1,-1-1,-4 53,0-36,0 101,2-120</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7924 4071,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1769.65">3297 3741,'0'0,"0"-1,0 0,1 0,-1 0,0 1,1 0,-1-1,1 0,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,1 1,-2 0,1 0,0 0,1-1,33-3,-28 3,459-9,42-5,183-17,-224 3,-166 5,701-4,6 30,-351 2,161 9,64 1,206-15,-1060 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30357.73">258 847,'-3'5,"-1"-1,1 1,1 0,0-2,0 2,1 0,-1 0,1 0,0 0,-1 9,-3 13,-23 70,-89 278,113-362,-26 61,28-68,-2 0,1-1,0 0,0 1,-1-1,0 0,0 0,0 0,-7 4,11-9,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,1-23,6-14,2-1,1 1,27-57,69-109,-53 103,-53 98,28-53,2 0,43-57,-73 110,1 0,-1 1,1-1,-1 1,1-1,-1 1,0 0,1 0,-1 0,1-1,0 2,-1-1,4-1,-4 2,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 0,-1 1,2-1,-2 0,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 2,4 5,-1 1,-1-1,1 0,-1 1,1 10,3 9,19 56,1 7,54 124,-79-211,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,2 1,-2-1,1 0,0 1,0-1,4 2,-4-4,-1 1,1-1,1-1,-1 1,-1 0,1-1,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,2-2,15-15,-1 0,-1-1,-1-1,-1 0,18-35,-20 36,108-206,93-252,-151 329,-45 106,-13 26,2-1,0 1,2 0,0 0,0 1,2 0,0 0,23-22,-32 36,0 0,0 0,0 0,0 0,1 1,0 0,-1-1,1 1,-1-1,1 1,0 0,-1 0,1 0,0 1,0-1,1 1,-2-1,1 1,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,1 1,-1 0,-1 0,1 0,0 1,-1-1,0 0,1 1,-1-1,0 0,1 1,-1 0,1 0,-1 1,-1-1,1 0,1 3,7 8,-1 1,1 1,-3-1,0 2,1-1,3 20,10 38,-4 2,11 113,-6 162,-21-329,4 163,16 228,-12-339</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30023.71">2394 1532,'4'0,"2"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-29138.57">3981 339,'-1'-1,"1"0,-1 0,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,-1 0,1 1,0-1,-1 0,1 1,0-1,-3 1,-32-12,30 11,-5-2,1 2,0-1,-2 1,2 1,0 0,-1 0,1 1,0 0,-1 1,1 0,0 0,-1 1,1 1,1 0,-16 7,-9 7,1 2,-54 41,86-60,-62 46,-85 82,129-108,0 0,1 1,1 0,1 1,2 1,-1 0,-16 45,-7 49,5 3,6 0,-17 211,42-312,2-1,0 1,1-1,4 26,-3-39,-1 0,1 0,0 0,0-1,1 1,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,1-2,-1 2,2-1,-1 0,0 0,6 2,7 2,-1 0,1-1,1-2,-1 0,1 0,0-2,0 0,24 0,160-5,-163 0,-10-1,0-2,0-1,-1 0,0-2,0-2,36-16,-44 19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-28331.17">4036 1583,'11'0,"2"-2,-2 0,0 1,1-2,-1 0,16-7,16-3,75-16,173-22,128 10,-246 26,-151 14,-1 0,-1-2,1 0,0-1,31-9,-50 13,1-1,-1 0,0 1,0-1,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,-1 1,0-1,0 0,2-3,-3 3,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,0 0,0-1,1 1,-1 0,-1 0,0 0,1-1,-1 0,-6-4,1 1,-1 0,-1 0,0 1,1 0,-2 0,-13-4,-33-8,-1 4,-1 0,0 5,0 0,-84 2,119 6,0 2,1 0,-1 1,0 1,2 0,-1 2,-24 11,31-11,-1 2,2-1,-1 2,1-1,0 2,1 0,0 0,2 2,0-1,-14 20,24-30,-15 18,2 1,0 0,2 1,1 1,-10 28,19-46,0 1,1-2,0 1,1 0,-1 0,1 0,0 0,0 0,0 1,1-1,0-1,0 1,0 0,1 0,0 0,0-1,0 1,0 0,1-1,0 1,0-2,0 1,1 1,0-2,-1 1,1 0,0-1,0 0,1 0,0 0,0-1,6 4,11 2,-1 0,1-1,0-1,25 3,17 6,58 19,-50-13,2-2,122 17,-189-35,-2 0,0-1,1 1,-1-1,2-1,-2 1,0-1,1 0,-1 0,0 0,2-1,-2 0,0 0,0 0,-1-1,2 1,-1-1,-1 0,1 0,-1-1,0 1,0-1,5-5,10-22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-27496.17">5679 1278,'-2'38,"-2"-2,-1 0,-1 0,-4 0,1-1,-3 0,-25 49,-14 15,-74 101,117-187,-17 24,24-36,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1 0,1-1,-1 0,1 1,-4-1,5 0,-1-1,0 1,0-1,0 1,1-1,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0-2,-1-13,1-1,0 0,1 0,1 0,1 1,0-1,1 1,12-26,65-132,-72 154,25-42,2 0,80-99,-88 127,2 2,0 1,3 1,0 2,72-46,-99 70,1 0,1 0,-1 0,0 1,1 1,0-1,14-2,-19 4,1 1,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,2 0,-1 0,0 0,0 0,-1 1,1-1,-1 0,1 1,-1 0,0 0,0 0,1 0,0 0,1 4,10 13,0 0,-1 1,-2 1,1 0,-3 1,0 0,-1 0,-1 1,6 45,-4 9,-6 129,-3-190,-1 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-26841.9">6829 542,'-5'82,"-5"-1,-2 0,-38 126,27-114,8-30,4-1,2 0,3 2,7 118,-1-178,0-1,1 1,-1-2,1 1,0 0,0 1,0-1,0 0,0 0,2 0,-1-1,-1 1,1 0,0-1,0 1,1 0,-1-1,1 0,-1 1,1-2,-1 1,1 0,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,0 0,1-1,0 1,-1-1,1 0,-1 0,0 0,4-1,15 0,0-2,-1 0,0-1,35-11,-55 14,40-11,0-2,58-29,-79 32,0 0,-2-1,1 0,-2-2,0 1,24-26,-15 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-26302.89">6637 948,'0'-4,"5"-2,38 2,31-1,26 2,28 10,8 7,-8 7,-5-1,-19 0,-28-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5242.61">4638 3208,'1'-16,"1"2,1-1,10-28,-2 3,63-224,-37 138,-20 79,3 1,2 0,2 2,51-71,-74 112,4-3,1 0,-1 0,0 0,1 1,0 0,1 0,-1 0,0 0,1 2,0-1,1 0,-1 1,9-3,-13 5,-1 0,1 0,0 0,-1 1,1-1,0 1,0 0,-1 0,1 0,1 0,-1 0,-1 1,1-1,0 1,-1-1,1 1,0 0,-1 0,1 1,-1-1,1 0,0 1,-1-1,0 1,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,1-1,-1 3,5 25,-3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6120.79">4748 2675,'0'5,"9"1,8-1,5-1,4-1,3-1,0-1,4 0,4-1,-3-1,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7220.28">5788 2243,'-2'0,"0"-1,1 1,-1-1,0 1,-1-1,1 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 1,0-1,1 1,-1-1,-1 0,1 1,1 0,-3 1,-41 24,29-14,2 0,0 1,1 0,0 1,1 0,1 1,0 0,1 1,1-1,0 3,-5 15,-1 4,3 0,2 1,1-1,-4 45,7 17,10 174,-2-261,0 1,1-1,0 1,1-1,0 0,2-1,-1 2,8 10,2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8067.49">5926 2574,'1'-2,"0"0,0 0,0-1,0 1,1 0,-1 0,1 0,0 0,-1 0,1 1,0 0,0 0,0-1,0 1,5-2,0-2,18-12,0 0,38-15,-56 28,0 1,-1 0,3 0,-2 1,0 0,0 1,2-1,-2 1,1 0,-1 0,2 1,-1 0,-1 1,16 2,-20-1,1-2,-1 3,1-1,-1 0,1 1,-1-1,0 1,0 0,-1 0,1 0,-1-1,1 1,-1 1,0-1,0 1,3 5,19 64,-22-65,21 113,-20-96,0 0,3 0,-1-1,2 1,1-1,2-1,18 34,-12-35</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8623.48">6610 2370,'-11'1,"1"1,1-1,-2 1,2 1,0 0,-1 0,1 0,0 1,-1 1,2 0,0 0,-1 0,1 0,-8 10,-13 10,0 3,-25 31,45-48,3-6,-27 34,-2 0,-2-3,-70 54,73-61,21-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9468.7">6473 2979,'1'-11,"0"-1,1 0,1 0,0 1,1-1,1 2,-1-2,1 2,1-1,0 1,2-1,-1 1,0 1,1 0,2 0,-2 1,1-1,15-8,-23 16,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,1 1,-1-1,2 1,-2 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,1 0,0 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 1,-1-1,2 2,3 7,-1 1,0 0,1 0,1 14,5 51,-4 1,-2-1,-9 92,4-162,-1 21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9843.7">6719 2624,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10364.14">6884 2802,'0'9,"0"11,0 15,0 15,0 8,0-3,0 4,0-5,0-4,0-3,0-8,0-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11370.16">6884 3055,'-5'0,"-7"0,-4 0,-1-4,-2-1,7 0,15 0,12 2,7 1,5 1,3 0,1 1,-1 0,-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12156.24">7047 3055,'5'0,"2"-1,-2 0,0-1,1 1,-1 0,1-1,-1-1,0 1,0-1,-1 0,1 0,0-1,-1 1,0 0,7-8,7-7,-3 0,16-23,-23 29,0-2,-2 1,0 0,-1-1,6-18,-11 116,-3 310,3-368</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13100.99">7486 2142,'6'0,"0"0,1 1,-1-1,-1 1,1 1,0-1,1 0,-1 1,-1 0,1 0,-1 1,1 0,-1 0,0 0,8 6,-7-3,0 0,-1 0,0 0,-1 1,0 0,1-1,-1 1,-1 0,0 1,3 9,1 15,-1 0,-2 0,-2 0,-3 50,1-55,9 173,-3-135,-3-1,-3 1,-12 88,2-95,-4 1,-38 102,44-142</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13981.54">8088 2649,'10'0,"6"0,11 0,6 0,1 0,18 0,6 0,-3 0,-2 0,-5 0,-1 5,-9 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15562.06">9156 3055,'8'-8,"0"-15,1-51,-4-1,-5-103,-2 70,9-49,-3 135,0 1,1 0,1 1,1-1,12-23,-8 21,2 0,0 0,2 2,19-25,-27 38,0 1,1 0,-1 2,1-2,0 1,1 1,-1 0,1 0,1 1,-1 0,0 0,2 1,-2 1,18-4,-8 3,1 0,0 2,-1 0,1 1,0 1,37 6,-38-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16385.9">9266 2548,'4'0,"16"0,14 0,9-4,4-2,-3 1,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17132.09">10361 2015,'0'1,"1"-1,0 0,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 0,-1 1,1 0,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,0 0,0-1,0 1,1 0,-1-1,0 0,0 1,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,-1 2,-7 28,-7 0,-2-3,-35 46,-9 14,24-26,3 2,3 1,-42 127,60-143,1 1,4 0,1 0,3 0,2 0,7 72,-3-109,0-2,0 2,1-1,1 0,0 0,1 0,0 0,1-1,0 0,0-1,2 1,-1 0,1-2,0 1,1-1,13 11,3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18007.7">10361 2853,'0'-7,"2"-1,-1 2,1-2,0 1,0 1,1-1,0 0,2 0,-2 1,1 0,1-1,-1 1,1 1,0-1,1 1,0 0,10-8,-11 10,-1-1,1 1,-1 0,0 2,1-2,0 1,0 0,0 0,0 0,0 1,0-1,0 1,2 1,-2-1,0 1,0 0,0 0,2 0,-2 1,0-1,0 1,0 1,0-1,1 1,-1 0,0 0,5 3,8 8,-2 1,0 2,0-1,-2 1,0 2,19 28,-1-2,13 19,-2 2,43 90,-73-127</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18904.55">10963 2751,'-2'8,"0"-2,-1 1,0 0,0 0,0-2,-2 2,2-1,-2 1,1-2,-6 7,-10 14,-185 272,189-270,4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19595.5">11128 3157,'4'0,"6"0,3 5,-2 9,-4 7,-1 5,-2 2,-3 0,0 0,-1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19928.5">11264 2853,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20548.9">11346 3157,'4'0,"8"0,4 0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21656.98">11593 3106,'9'-4,"8"-5,6-8,-2 11,-4 17,-4 17,-10 15,-10 10,-4 5,1 0,1-5,2-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22580.62">11976 2167,'1'-1,"0"-1,0 1,1 0,-1-1,2 1,-2 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,3 1,-2 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,1 0,-1 0,0 0,-1 0,1-1,0 2,1 3,4 7,-1-1,0 2,-1-1,-1 0,3 15,8 73,-6 0,-8 199,-4-143,2-109,-1-1,-13 58,11-83,-2 0,-1 0,-1 0,-1-1,0 1,-22 31,1-4,20-28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25017.62">7869 3970,'2'1,"0"-1,0 1,-1-1,1 1,0 0,0-1,0 1,1 0,-2 0,1 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-1 0,1-1,-1 1,1 4,10 63,-11-59,5 317,-6-248,66-245,-57 149,55-108,-55 111,0 2,1-1,1 1,0-1,0 2,25-21,-28 29,-2-1,1 1,0 1,1 0,0 0,-1 0,1 0,-1 1,2 0,-2 0,1 0,0 1,7 1,10 0,-1 1,33 6,-51-6,1-1,-1 1,0 0,-1 0,1 0,0 1,0 0,-1 0,0 0,0-1,0 2,0-1,-1 1,1 0,0 0,-1 0,0 0,0 0,-1 1,0-1,0 1,0-1,0 1,-1 0,0 0,1 7,3 14,-3 1,-1-1,-4 51,-1-35,1 97,2-115</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18132,13 +18331,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1774 450,'-10'1,"-1"0,2 1,-1 0,0 0,0 1,1 0,-13 7,-66 37,62-32,-201 127,220-136,0 0,0 1,1-1,-1 1,2 1,-1-1,1 1,0 0,1 0,0 0,0 1,1 0,0-1,0 1,1 0,0 1,-1 15,1 11,2 0,1 0,8 42,-8-66,0-6,-1 0,1 0,0 0,1-1,-1 1,1-1,0 1,1-1,0 1,-1-1,1 0,1-1,6 9,-3-6,1-1,0 0,1-1,-1 0,1 0,0-1,12 4,-7-2,2 0,-1-1,1-1,-1 0,31 2,-40-6,0 0,0 0,0 0,0-1,0 0,-1 0,1 0,0-1,0 0,-1 0,1 0,-1-1,0 1,0-2,0 1,0 0,0-1,8-8,4-9,-1-1,-1-1,-1 0,12-27,39-106,-57 134,-1-1,-1-1,-1 1,-1-1,-1 0,-1 0,-1 0,-5-46,4 67,0-1,-1 1,1-1,-1 1,0 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 1,-1-1,1 1,-1-1,-4-3,-10-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="503.4">2250 1324,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1761.54">2515 583,'9'-1,"0"-1,0 0,0-1,-1 0,1-1,-1 0,0 0,0-1,13-9,31-15,8 7,1 3,1 2,66-8,-123 24,0 0,0 1,0 0,0-1,0 2,0-1,0 1,0-1,-1 1,1 1,0-1,0 1,-1-1,1 1,-1 1,1-1,4 4,-4-1,1 0,-1 1,-1 0,1-1,-1 2,0-1,0 0,0 1,-1 0,4 13,3 13,-1 0,-2 1,-1 0,-2 0,0 40,-11 175,6-241,1 3,-1 1,0-1,-1 0,0 0,-1 0,0 0,-1 0,0-1,-1 1,0-1,-1 0,1 0,-2-1,0 0,0 0,0-1,-1 0,0 0,-1 0,0-1,-11 7,15-11,-27 19,-38 20,60-37,1 0,-1-1,0-1,0 1,0-2,-1 1,1-1,0-1,-14 1,22-2,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,1 0,-1 0,0 0,1 1,-1-5,1 4,0-1,1 1,-1 0,1-1,0 1,0 0,-1-1,2 1,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 1,0-1,0 0,0 1,0 0,0 0,0-1,0 1,1 0,-1 1,3-2,12-3,-1 1,1 1,0 1,0 0,-1 1,1 1,0 0,21 4,6 3,79 25,-93-24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8436.62">1 662,'3'0,"0"-2,0 1,-1 0,1 0,0-1,0 0,-1 1,1-1,-1 0,1 0,1-3,16-10,4 2,1 2,1 1,-1 1,2 1,-1 1,1 2,0 0,0 2,0 1,1 1,29 3,-54-1,-1 0,1 0,0-1,-1 2,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0 4,2 11,-1 0,-1 36,-1-40,2 38,-3-1,-3 0,-1 0,-3 0,-2-1,-16 50,21-84,-1 0,0-1,-1 1,0-1,-16 22,20-34,0 1,-1 0,1-1,-1 1,0-1,0 0,0-1,0 1,-1-1,1 1,-1-1,0-1,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,0 0,0 0,-9-2,-51-11,61 12,-1-1,1 0,-1 0,1 0,-1 0,1-1,0 1,0-1,0 0,1 0,-4-4,6 6,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 1,0-1,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,0-1,1 1,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1 0,0 1,4-2,4 0,0 1,0-1,0 2,11 0,-8 2,1 0,-1 2,1 0,-1 0,0 1,0 1,16 10,40 15,118 41,-155-64</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9477.62">1351 1,'-4'0,"1"0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 1,0 0,0 0,0 0,-1 0,1 1,1-1,-1 1,0 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 1,0-1,0 1,0 0,1 0,-3 4,-102 206,8-16,76-157,3 2,1 0,1 1,3 1,-9 46,12-26,3 0,2 0,4 67,2-78,-1-5,3 0,11 74,-10-107,1-1,0 1,1-1,0 0,1-1,0 1,1-1,1-1,0 1,1-1,0-1,19 19,21 16,51 64,-94-103,1 0,-1-1,1 1,0-1,1-1,0 1,0-1,0-1,16 7,5-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11305.02">4076 345,'-45'0,"6"-1,1 2,-55 8,80-7,0 2,0-1,0 2,0-1,0 2,1 0,0 0,0 1,1 1,-17 13,20-14,0 1,1 0,-1 0,2 1,-1 0,1 0,1 0,-1 1,2 0,-1 0,1 0,-3 15,3-7,2-1,0 1,1 0,0 0,2 0,4 32,-4-46,0 1,1-1,-1 1,1-1,0 0,1 1,-1-1,1 0,-1-1,1 1,1 0,-1-1,0 0,1 1,-1-1,1-1,0 1,0-1,0 1,1-1,6 3,11 3,0-1,1 0,24 3,-41-9,24 4,-1 2,0 1,-1 1,0 1,0 1,-1 2,42 27,-56-31,11 6,-1 2,0 1,23 25,-40-36,0-1,-1 1,0 0,0 1,0-1,-1 1,0 0,-1 0,0 0,0 1,-1-1,0 1,0-1,0 18,-1-14,-1 1,-1 0,1 0,-2-1,0 1,-1-1,-6 21,7-29,0 0,0 1,-1-1,1-1,-1 1,0 0,0-1,0 1,-1-1,1 0,-1 0,0 0,0-1,0 1,0-1,0 0,0 0,-1-1,1 1,-1-1,1 0,-1 0,1 0,-7 0,-45 1,-1-3,0-2,1-2,-68-15,103 16,0-1,-25-9,18 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12391.57">4499 133,'2'1,"0"1,-1-1,1 0,0 0,0 1,0-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 3,2 6,162 459,-136-365,-4 1,17 174,-40-250,-1-1,-1 0,-2 1,-1-1,-1 0,-9 33,8-45,0-1,-2 0,1 0,-2-1,0 0,-1 0,-1-1,0 0,0-1,-2 0,-22 20,28-28,0-1,0 0,0 0,0-1,-11 5,-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1837 434,'-10'1,"-2"0,3 1,-2 0,1 0,0 1,0 0,-12 6,-69 37,64-32,-208 123,227-131,1 0,0 1,1-2,-2 2,3 1,-1-1,1 0,0 1,0 0,1 0,0 0,1 1,0-1,0 0,1 1,0 1,-1 14,1 11,2-1,1 1,8 40,-8-63,0-6,-1-1,1 1,0 0,1-1,-1 1,1-2,0 2,1-1,0 1,0-1,0 0,1-2,6 10,-3-6,2-2,-1 1,1-1,0 0,0 0,0-1,13 3,-8-1,3 0,-1-1,0-1,0-1,31 3,-41-6,1 0,-1 0,0 0,0-1,1 0,-2 0,1 0,0-1,0 1,0-1,0 0,-1-1,0 1,0-2,0 1,1 0,-1-1,8-7,5-10,-2 0,0-1,-2 0,13-26,41-103,-60 130,-1-1,-1-2,0 2,-2-1,-1 0,-1 0,-1 0,-5-45,4 65,0-1,-1 1,1 0,-1 0,0 0,0-1,-1 1,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,-1-1,-4-3,-11-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="503.4">2330 1278,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1761.54">2604 563,'9'-1,"1"-1,-1 0,0-1,0 0,0-1,-1 0,1 0,-1 0,14-10,31-14,10 7,0 3,1 1,68-7,-126 23,-1 0,0 1,0 0,0-1,1 2,-1-1,0 1,0-1,-1 1,1 1,1-1,-1 1,-1-1,1 1,-1 1,1-1,5 3,-5 0,1 0,-1 1,-1 0,2-2,-2 3,0-1,0 0,0 1,-1-1,5 14,2 11,-1 1,-2 1,0 0,-3 0,0 38,-11 169,6-232,1 3,-1 0,0 0,-1 0,-1-1,0 1,0-1,-1 1,0-1,-1 0,0 0,-2 0,2-1,-2 0,0 0,-1-1,1 0,-1 0,0-1,-2 1,1-1,-12 6,16-10,-28 19,-40 18,63-35,1 0,-2-1,1-2,0 2,-1-2,0 1,1-1,-1-1,-14 1,23-2,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,-1 0,1 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0 0,0-1,-1 1,1-1,0 0,0 1,0-1,1 0,-1 0,0 0,1 1,-1-5,1 4,0 0,1 0,-1 0,1-1,0 1,0 0,-1-1,2 1,-1 0,0 0,0 0,1 0,-1 0,1 1,-1-1,1 0,0 1,0-1,0 0,0 1,1 0,-1 0,0-1,0 1,1 0,-1 1,3-2,13-3,-2 1,2 2,0 0,-1 0,0 1,0 1,1 0,21 4,7 2,81 25,-96-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8436.62">1 639,'3'0,"0"-2,0 1,-1 0,1 0,1-1,-1 0,-1 1,1-1,-1 0,1 0,1-2,17-11,4 3,1 1,1 1,-2 2,3 0,-1 1,1 2,0 1,0 1,0 1,1 1,30 3,-56-1,-1 0,1 0,1-1,-2 1,0 0,1 0,-1 1,0-1,1 1,-1-1,0 1,0 0,0 0,-1 0,1 0,1 0,-2 1,1-1,-1 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,0 4,2 10,-1 0,-1 36,-1-40,2 37,-3-1,-3 1,-1-1,-3 0,-3-1,-16 49,22-82,-1 1,0-2,-2 2,1-2,-17 22,21-33,0 1,-1-1,1 0,-1 1,0-1,-1 0,1-1,0 1,-1-1,1 1,-1-1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-1-1,1 0,0 0,-10-2,-52-10,63 11,-1-1,1 0,-1 0,0 0,0 0,1-1,0 1,0-1,0 1,1-1,-5-4,7 6,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 1,0-1,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,0-1,1 1,0-1,-1 1,1 0,1 0,-1 0,0 0,-1 0,1 0,0 1,4-2,4 0,1 1,-1-1,0 2,12 0,-8 2,0 0,0 2,0 0,0 0,-1 1,1 0,16 11,41 14,123 39,-161-61</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9477.62">1399 1,'-4'0,"1"0,0 0,-2 0,2 0,0 0,-1 1,1-1,0 1,0 0,0 0,-1 0,0 0,1 1,1-1,-1 1,0 0,0-1,1 1,-1 0,1 0,-2 1,2-1,0 1,0-1,0 1,0 0,1 0,-3 3,-106 200,9-16,78-151,3 1,2 1,0 0,4 2,-10 43,12-24,4 0,2 0,4 64,2-75,-1-4,3-1,11 72,-10-104,2 0,-1 0,1 0,0-1,1 0,0 0,2 0,0-2,0 2,2-1,-1-2,20 19,22 15,52 63,-97-101,2 1,-2-1,1 1,0-2,2 0,-1 1,0-1,0-1,17 6,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11305.02">4220 333,'-46'0,"5"-1,2 2,-57 8,82-7,1 1,-1 0,1 2,0-1,-1 2,2 0,-1-1,1 2,0 1,-17 12,21-13,0 1,1-1,-2 1,3 1,-1-1,1 1,0 0,0 0,2 1,-1 0,1-1,-3 16,2-8,3-1,0 2,1-1,0 0,2 1,4 30,-4-44,0 1,2-1,-2 0,1 0,0 0,1 1,-1-1,1 0,-1-1,1 0,1 1,-1-1,1 0,0 1,-1-1,1-1,0 1,0-1,0 0,2 0,5 3,12 3,-1-1,2-1,25 4,-43-9,25 4,-1 2,0 0,-1 2,0 1,0 0,-1 3,44 25,-59-29,12 6,-1 1,0 1,23 25,-41-35,1-2,-2 2,0 0,0 1,0-2,0 2,-1 0,-1 0,0-1,0 2,-1-1,0 0,0 0,0 17,-1-13,-1 0,-1 1,1-1,-2 0,0 1,-1-2,-6 21,7-28,0 0,0 1,-2-2,2 0,-1 1,0 0,0-1,0 1,-1-1,1 0,-1-1,-1 1,1-1,0 1,0-1,0 0,0 0,-2-1,2 1,-1-1,1 0,-1 0,1 0,-8 0,-46 1,-1-3,0-2,1-2,-70-14,106 15,0-1,-25-9,18 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12391.57">4658 128,'3'1,"-1"1,-1-1,1 0,0 0,0 1,0-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,-1 1,1-1,0 3,3 6,166 442,-140-352,-4 2,18 167,-42-241,-1-1,-1 0,-2 1,-1-1,-1 0,-10 32,9-44,0-1,-2 1,0-1,-1 0,0-1,-2 1,0-2,0 1,-1-2,-1 1,-23 19,29-27,-1-2,1 1,0 0,0-1,-12 5,-4-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18165,24 +18364,24 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1371,'0'5,"9"1,16-1,22 0,22-2,29-1,35-1,26 0,9-1,-7-1,-17 1,-46 0,-40 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="720.52">186 1874,'9'0,"30"5,17 1,13-1,8 0,9-2,3-1,-4-1,-13 0,-18-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1970.25">2356 1768,'1634'0,"-1486"0,0-7,-1-7,252-55,-209 29,1 8,239-10,389 28,-656 14,768 6,770-7,-883-48,-643 25,-1-7,276-86,-376 91,116-33,-158 51,1 1,-1 2,1 2,34 0,133 16,290 56,-237-28,46 0,-252-33,-39-4,-31-1,-138-1,-62-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35967.45">3387 498,'-28'25,"0"-2,-2-1,0-2,-66 33,54-31,1 2,-41 32,77-51,0-1,0 2,0-1,1 0,0 1,0 0,0 0,1 0,-1 1,1-1,1 1,0 0,0-1,0 1,1 0,-1 7,0 13,1 0,5 51,-1-34,-2-34,-1 0,1 0,1 0,-1 1,2-1,0-1,0 1,5 10,-6-17,0 0,0 0,0-1,0 1,1-1,-1 1,1-1,0 0,0 1,0-1,0-1,0 1,0 0,0-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 0,-1 0,1 0,-1 0,7-2,4 0,-1 0,0-2,0 1,0-2,-1 0,0 0,1-1,10-8,-16 10,0 0,0-1,-1 0,1 0,-1-1,-1 1,1-1,-1-1,0 1,0-1,-1 0,0 0,0 0,4-11,1-22,-1 1,-1-1,-3-1,-1 1,-4-57,0 91,1 0,-1 0,-1 0,1 1,-1-1,0 1,-1-1,1 1,-1 0,0 0,0 0,-1 0,0 0,1 1,-1-1,-1 1,1 0,-1 1,-8-7,-4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36360.03">3599 1186,'4'0,"7"0,5 0,14 0,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37341.8">4102 339,'-11'6,"1"1,1 0,0 0,0 1,0 0,-12 15,-2 2,6-9,1 1,1 0,0 1,2 1,0 0,1 1,1 0,0 1,2 0,1 1,0 0,2 0,0 1,1-1,2 1,0 0,1 28,2-40,10 234,-10-242,1 0,0 0,-1 0,1-1,0 1,1 0,-1-1,1 1,-1 0,1-1,0 0,-1 1,1-1,0 0,1 0,-1 0,0 0,1-1,-1 1,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,5 1,11 0,-1 0,1-1,31-5,-37 4,-10 1,0 0,0 0,0-1,0 1,0-1,0 0,0 1,0-1,0-1,0 1,0 0,0-1,-1 0,1 1,-1-1,1 0,-1 0,0 0,1-1,-1 1,-1-1,1 1,0-1,0 1,-1-1,0 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1-5,-1 2,1 0,-1 0,-1 0,1 1,-1-1,0 1,0-1,-1 1,1 0,-1-1,0 1,-1 1,1-1,-1 0,0 1,0 0,0 0,-9-6,-4-2,0 1,-1 1,0 0,-1 1,-36-11,46 18,0-1,0 2,0 0,-1 0,1 0,0 1,0 0,0 1,0 0,0 1,0 0,0 0,0 1,0 0,-13 6,-10 11,5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38416.27">4340 524,'178'0,"204"1,-360 0,58 3,-74-3,0 0,0 0,-1 1,1 0,0 0,-1 0,1 0,-1 1,0 0,7 5,-10-7,-1 1,1-1,-1 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,-1-1,1 0,0 1,0-1,-1 0,-1 2,-6 5,0 0,-1 0,0-1,-18 10,-27 10,-24 14,72-36,1-1,0 1,-1 0,1 0,1 0,-1 1,1 0,-7 10,11-14,0 0,0 1,0-1,0 0,1 0,-1 1,1-1,0 0,-1 1,1-1,0 1,0-1,0 0,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,0 1,1 1,37 49,-13-18,-17-19,-2 0,0 0,0 1,-2 0,0 0,-1 0,-1 1,2 27,-4-37,-1 0,0 1,0-1,-1 0,0 0,0 0,-1 0,0-1,-1 1,1 0,-1-1,-1 1,1-1,-1 0,-1 0,1-1,-1 1,0-1,-1 0,-11 10,-1-5,-1 0,0-1,0-1,-1-1,0-1,-1 0,0-2,-33 5,-7-3,-106 0,156-6,0-1,-1 0,1-1,0 0,0-1,-1 0,1-1,1 0,-1-1,0 0,1 0,0-1,0-1,0 0,-13-11,3-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39582.15">5636 551,'-16'3,"0"0,0 1,0 1,1 0,0 1,0 0,0 2,1 0,-15 10,8-3,1 0,0 1,1 2,1 0,0 0,1 2,2 0,0 1,1 1,1 0,1 0,1 2,1-1,1 1,1 1,1-1,1 1,1 1,2-1,0 1,2-1,1 1,3 29,-2-47,1-1,-1 0,1 0,0 0,1 0,-1-1,1 1,1-1,-1 0,1 1,0-2,1 1,0 0,-1-1,2 0,-1 0,0 0,1-1,0 0,0 0,0 0,12 4,-12-6,0 0,-1 0,1-1,0 1,0-1,0-1,0 1,0-1,0-1,0 1,0-1,0 0,0 0,0 0,0-1,-1 0,1 0,-1 0,1-1,-1 0,0 0,0-1,0 1,0-1,-1 0,1 0,5-8,-5 5,0-1,0 0,-1 0,0 0,0-1,-1 1,0-1,0 0,-1 0,-1 0,1 0,-1-12,0 18,-1-1,0 1,0-1,0 1,0-1,-1 0,1 1,-1-1,0 1,0 0,0-1,0 1,-1 0,1-1,-1 1,0 0,0 0,0 0,0 1,-1-1,1 0,-1 1,1 0,-1-1,0 1,0 0,0 0,0 1,-1-1,1 1,0 0,-1-1,-3 1,-10-2,-1 2,0 0,0 1,0 0,0 2,-30 6,23-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40748.94">6007 471,'114'-2,"-52"-1,-1 3,0 3,66 11,-122-13,0 0,0 1,0-1,0 1,0 0,0 1,0-1,0 1,-1 0,0 0,1 1,-1-1,0 1,-1 0,1 0,-1 0,0 0,0 1,0-1,0 1,2 6,-1-1,-1 1,0-1,-1 1,0 0,-1-1,0 1,0 0,-1 0,-2 16,1-24,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,-1-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,1-1,-1 0,0 0,0 0,-3 1,3-1,0 0,-1 0,1 0,0 1,0-1,0 1,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,1 1,0 0,0 0,0-1,1 1,-1 0,1 0,-2 5,-1 15,1-1,1 1,1 40,2-39,-2-1,-6 46,5-61,0 1,-1-1,0 0,0 0,0 0,-1 0,-1-1,1 1,-1-1,0 0,-12 11,7-10,1 0,-1-1,-1 0,1-1,-1 0,0 0,-1-1,1-1,-1 0,0-1,0 0,-21 2,-13-1,0-2,-47-3,67 0,-16-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41367.93">6827 948,'0'-4,"4"-2,6 0,11 1,15 2,15 1,25 1,41-4,32-1,26 1,-11 0,-21 2,-39 2,-37 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49308.03">8706 657,'-1'0,"1"0,-1 1,1-1,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1-1,1 1,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0 0,-1-1,1 1,0-1,0 1,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,0-1,12-24,8-4,1 1,2 0,0 2,37-31,120-88,-88 73,-88 69,4-4,1 0,0 1,0 0,0 0,20-8,-27 13,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0 0,0 0,-1-1,1 2,0-1,-1 0,1 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,-1-1,1 1,0 3,6 15,-1 2,-1-1,-1 0,2 42,-4 96,-3-106,0 12,-1 16,10 86,-2-127</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49704.59">9526 1001,'4'0,"6"0,7 0,-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50614.64">9817 551,'1'-3,"0"0,1 0,-1 0,1 0,0 0,0 1,0-1,1 0,-1 1,0 0,1-1,0 1,3-2,9-10,165-211,-24 27,-149 190,-3 1,1 1,0 1,0-1,0 1,1-1,0 1,0 1,0-1,1 1,-1 0,1 1,8-4,-13 7,-1 0,0 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,0 1,7 57,-7-53,-4 214,0-146,2-1,15 121,-7-152,0 68,-6-90</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52003.33">10875 101,'-4'-1,"0"-1,1 0,-1 1,0-1,0 1,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0 0,0 0,0 0,-5 2,4 1,-1-1,0 1,1 0,0 0,0 1,0-1,0 1,1 0,0 0,-7 11,0 4,1 1,1 0,0 0,2 1,-9 42,4-12,3 1,3 0,0 99,7-143,1 0,1 0,-1-1,2 1,-1-1,1 1,0-1,1 0,-1-1,2 1,-1-1,1 0,10 9,-6-6,0-1,0 0,1 0,1-1,-1-1,1 0,1 0,13 5,-21-11,0 0,0 1,0-2,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,1 0,-1 0,8-4,4-2,-2 0,27-17,-11 5,73-35,70-41,-146 78,0-1,-2-2,45-42,-66 57,-1-1,0 0,0 1,0-1,0-1,-1 1,0 0,0-1,-1 0,0 1,0-1,-1 0,1 0,-1-13,-1-3,-1 0,-1 0,-6-27,0 1,6 43,0 1,0-1,-1 1,1-1,-1 1,-1 0,1 0,0 1,-1-1,0 1,0-1,-1 1,1 1,-1-1,-8-5,1 2,1-1,-1 2,-1-1,1 2,-24-8,1 8,1 1,-1 2,1 2,-67 7,97-7,-10 2,1 1,-1 0,1 1,0 0,1 1,-1 1,1 0,-19 13,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53237.02">11775 75,'8'-1,"1"0,-1-1,1 0,-1-1,10-4,8-2,21-2,0 2,1 2,0 2,0 3,1 1,-1 3,85 13,-128-14,1 0,-1 0,1 0,-1 1,0 0,0 0,0 0,0 1,0-1,0 1,7 6,-10-7,0 0,-1 1,1-1,0 1,-1-1,0 1,1-1,-1 1,0 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0 0,-1 0,1 0,0 0,-1 0,-1 4,-1 1,0-1,0 1,-1-1,0 0,0 0,0 0,-1-1,0 1,-1-1,1 0,-1-1,0 0,-7 5,3-2,1 1,0-1,1 1,-10 14,17-20,1-1,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,0 0,2 2,9 17,-6-4,-1 1,0-1,-1 2,-1-1,3 28,0 94,-7-134,0 0,-1-1,1 1,-1-1,0 1,0-1,-1 0,0 1,0-1,0 0,0 0,-1 0,0 0,0-1,0 1,-8 7,5-6,-1-1,0 0,0 0,0-1,-1 0,0 0,1-1,-1 0,-1 0,-7 2,-18 0,0 0,0-2,-1-2,-43-3,45 1,7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54498.16">13124 75,'29'4,"-28"-4,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,-1-1,1 0,-3 3,-1-1,1 1,-1-1,0 0,0-1,0 1,0-1,0 1,0-1,-4 0,-30 6,1-2,-67 0,61-4,-73 11,108-11,1 1,-1 0,1 1,0 0,0 0,0 1,0-1,0 2,1-1,-1 1,1 0,1 0,-1 0,1 1,0 0,0 0,0 0,1 1,0 0,-4 9,2-2,1 0,0 0,1 0,1 1,1-1,0 1,0 0,2 0,1 26,0-38,-1 0,1 0,0 0,-1 0,1 0,1 0,-1 0,0 0,1 0,0 0,-1-1,1 1,0-1,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,0 0,0-1,-1 1,1-1,0 0,0 0,0 0,1 0,-1-1,4 1,12 2,0-2,1 0,-1-1,20-3,-7 1,17 0,-17 0,0 1,0 1,-1 2,53 9,-75-9,-1 1,1-1,-1 2,0-1,0 1,0 0,-1 1,1-1,-1 2,0-1,-1 1,1 0,-1 0,0 1,-1 0,1 0,-1 0,-1 1,1-1,-1 1,4 14,-1-1,-2 0,0 1,-1 0,-2 0,0 0,-1 0,-1 0,-1 1,-6 32,5-48,-1 0,1 0,-1 0,0-1,-1 1,0-1,0 0,0 0,-1 0,1 0,-2-1,1 0,0 0,-1 0,-10 5,1 0,0-1,0-1,-1 0,0-1,-28 7,-2-3,-1-3,0-1,-61 0,-148-11,242 4,-15-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55154.06">13838 1265,'13'0,"23"0,24 0,14 0,13 5,18 1,10 4,-10 1,-10-2,-21 2,-23-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55716.12">13759 1795,'4'0,"16"0,12 0,29 0,30 0,23 0,19 0,13 0,9 0,1 0,-8 0,-21 0,-26 0,-32 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1310,'0'5,"9"0,17 0,23 0,23-2,29-1,38-1,26 0,9-1,-7-1,-17 1,-49 0,-40 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="720.52">193 1790,'9'0,"32"5,17 1,14-1,8-1,9-1,3-1,-3-1,-15 0,-18-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1970.25">2446 1689,'1696'0,"-1542"0,0-7,-2-6,262-53,-216 28,0 7,248-9,405 27,-682 13,797 5,800-5,-916-47,-669 24,0-7,286-82,-390 88,120-33,-164 50,2 0,-2 2,1 2,36 0,137 16,302 53,-246-27,47 0,-261-31,-41-4,-32-2,-143 0,-64-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35967.45">3516 476,'-29'24,"0"-2,-2-1,0-2,-69 31,57-29,0 2,-42 31,80-49,-1-2,1 3,0-1,1 0,0 0,0 1,-1 0,2 0,-1 0,1 0,1 1,0-1,0 0,0 1,1 0,-1 6,0 13,1-1,5 50,-1-33,-2-32,-1-1,1 1,1-1,-1 2,2-2,0 0,0 0,6 11,-7-18,0 1,0 0,0-1,0 1,1-1,-1 1,1-1,0 0,1 0,-1 0,0-1,0 1,0 0,0-1,0 0,1 0,0 0,0 0,-1 0,1 0,-1-1,1 0,-1 0,1 0,0 0,6-2,5 0,-2 0,1-2,-1 1,1-1,-2-1,0 0,2-1,10-7,-17 9,0 0,1 0,-2-1,1 0,-1-1,0 1,0 0,-1-2,0 1,0 0,-1-1,1 0,-1 1,4-12,1-20,0 1,-2-1,-3-2,-1 2,-4-54,0 86,1 0,-1 0,-1 1,1 0,-1-1,0 1,-1 0,1 0,-1 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,-1 2,0-1,0 1,-8-7,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36360.03">3736 1133,'4'0,"8"0,5 0,14 0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37341.8">4259 324,'-12'6,"2"0,0 1,1 0,0 0,-1 1,-11 14,-3 2,6-9,1 1,2 1,-1 0,3 1,-1 0,2 1,0 0,1 1,2 0,0 1,1 0,2 0,0 1,0-1,3 1,0 0,1 27,2-38,10 223,-10-231,2-1,-1 1,-1 0,1-1,0 1,1 0,-1-1,1 1,-1-1,1 0,0 0,-1 1,1-1,0 0,1 0,-1 0,0 0,2-1,-2 1,1-2,-1 2,1-1,0 0,-1 0,1 0,0 0,0-1,1 1,-1-1,5 1,12 0,-2 0,2-1,32-5,-38 4,-11 1,0 0,0 0,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,0 0,0 0,0-1,-1 0,1 1,-1-1,1 0,0 0,-1 0,1-1,-1 1,-1 0,1 0,0-1,0 1,-1-1,0 0,1 0,-1 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-1-4,-1 1,1 0,-1 0,-1 1,1 0,-1-1,0 1,0 0,-1 0,1 0,-1-1,0 2,-2 0,2-1,-1 0,0 1,0 1,0-1,-10-6,-3-1,-1 0,-1 2,1-1,-2 1,-37-10,47 17,1 0,0 1,-1 0,0 0,1 0,-1 1,1 0,0 1,-1 0,1 1,0 0,-1-1,1 2,-1 0,-12 6,-12 10,6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38416.26">4506 501,'184'0,"213"1,-374 0,60 2,-77-2,0 0,1 0,-2 1,1 0,0 0,-1 0,2 0,-2 1,0-1,7 6,-9-7,-2 1,1-1,-1 0,0 0,0 1,0-1,0 1,0-1,0 0,0 0,0 1,0 0,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 1,1 0,-1 0,0-1,-1 0,1 1,0 0,-1 0,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 0,-1 0,1 0,0 1,0-1,-1 0,-2 2,-5 5,0-1,-2 1,1-1,-19 9,-28 10,-25 13,75-34,0-1,1 0,-1 1,1 0,0 0,0 0,1 1,-7 9,11-13,-1 0,1 1,0-1,0 0,1 0,-1 1,1-1,0-1,-1 2,1-1,0 1,0-1,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,1 1,0 1,38 47,-13-18,-18-18,-1 1,-1-1,0 1,-2 0,1 1,-2-1,-1 1,2 26,-4-35,-1-1,0 2,0-2,-1 1,0 0,0-1,-1 1,0-1,-1 0,1 1,-1-1,-2 0,2 0,-1 0,-1-1,1 0,-1 1,-1-1,0-1,-11 11,-2-6,-1 1,0-2,1 0,-2-2,0 0,-1 0,1-2,-36 4,-6-2,-110-1,161-5,1-1,-2 0,2-1,0 1,-1-2,0 0,0-1,2 0,-1-1,-1 0,2 1,-1-2,1-1,0 0,-14-10,3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39582.15">5851 526,'-17'3,"1"0,-1 1,1 1,0-1,1 2,-1 0,0 2,2-1,-16 10,8-2,1-1,0 1,2 3,0-1,0 0,2 2,1 0,1 1,0 1,1 0,2 0,1 2,0-1,2 1,1 1,0-1,2 1,1 1,2-1,0 0,2 0,1 1,3 28,-2-46,1 0,-1 0,1-1,0 1,1 0,-1-2,1 2,1-1,0 0,0 0,0-1,1 1,0 0,-1-2,3 1,-2 0,0 0,1-2,1 1,-1 0,0 0,13 4,-13-7,0 1,-1 0,2-1,-1 1,0-1,0-1,0 1,1-1,-1-1,0 1,0-1,1 0,-1 0,0 0,0-1,-1 0,2 1,-2-1,1-1,-1 0,1 0,-1-1,0 1,0 0,-1-1,1 0,6-8,-6 6,0-2,0 0,0 1,-1-1,0 0,-1 0,0-1,0 1,-1-1,-1 1,1-1,-1-11,0 17,-1-1,0 1,0 0,0 0,0-1,-1 0,1 1,-1-1,0 1,0 1,0-2,0 1,-1 0,1-1,-1 1,0 0,0 1,0-1,0 1,-1-1,1 0,-2 1,2 0,-1-1,0 2,0-1,0 0,0 1,-1-1,0 1,1 0,-1-1,-3 1,-11-2,0 2,-1 0,0 1,1 0,-1 2,-31 6,24-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40748.94">6236 450,'119'-2,"-55"-1,-1 3,1 3,67 10,-125-12,-1 0,0 1,0-1,0 1,1 0,-1 1,0-1,0 1,-1 0,1-1,0 2,-1-1,0 1,-1 0,1 0,-1-1,0 1,1 1,-1-1,0 1,2 5,-1 0,-1 0,0 0,-1 0,1 1,-2-2,0 2,0-1,-1 1,-2 15,1-24,1 1,-1 0,-1 0,1 0,0 0,0 0,0-1,-1 0,1 1,-1-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,-2-1,2 1,-1-1,0 1,1-1,-1 0,0 0,0 0,-3 1,2-1,1 0,-1 0,1 0,0 1,0-1,0 1,1-1,-1 1,-1 0,2 0,-1 1,1-1,-1 0,1 1,0 0,0-1,0 0,1 1,-1 0,1 0,-3 5,0 14,1-1,1 1,1 38,2-37,-2-1,-6 44,5-59,0 2,-1-2,-1 1,1 0,0-1,-1 1,-1-1,1 0,-2 0,1 0,-12 10,6-9,2-1,-1 0,-2 0,2-2,-2 1,1 0,-2-1,2-2,-1 1,-1-1,1 0,-23 2,-12-1,-1-3,-49-1,70-1,-16-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41367.93">7088 906,'0'-4,"4"-2,6 0,12 2,15 1,16 1,26 1,43-4,32-1,28 2,-12-1,-21 2,-41 2,-39 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49308.03">9038 628,'-1'0,"1"0,-1 1,1-1,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1-1,1 1,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0 0,-1-1,1 1,0-1,0 1,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,0-1,12-23,9-3,1 0,2 0,0 2,38-29,125-85,-92 71,-91 65,5-4,0 0,0 2,1-1,-1 0,21-7,-28 12,0 1,0-1,1 1,-2 0,1-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1 0,-1 0,0 0,-1-1,1 2,0-1,-1-1,1 1,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,1 0,-2-2,1 2,0 3,6 14,-1 2,-1-1,-1 0,3 41,-5 91,-3-102,0 12,-1 16,10 81,-2-121</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49704.59">9890 956,'4'0,"6"0,8 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50614.64">10192 526,'1'-2,"0"-1,1 0,-1 0,1 0,0 0,0 1,0-1,1 1,-1 0,0 0,2-1,-1 1,3-2,9-9,172-202,-25 26,-154 181,-4 1,1 2,0 0,0-1,0 1,2 0,-1 0,0 1,0-1,2 1,-2 1,1 0,9-4,-14 7,-1 0,0 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,2 0,-2-1,0 1,0 0,0 0,0 0,0 0,0-1,0 2,0-1,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,0 1,7 54,-7-50,-4 204,0-140,2 0,15 115,-6-145,-1 65,-6-86</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52003.33">11290 96,'-4'0,"0"-2,1 0,-1 1,-1-1,1 1,0 0,0 1,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 1,0 0,-1 0,1 0,-5 2,4 0,-2 0,1 1,1 0,0 0,0 1,-1-2,1 2,1 0,0 0,-7 10,-1 4,2 1,0 0,1 0,2 1,-10 40,5-11,2 1,4-1,0 96,7-138,1 1,1-1,-1 0,2 1,-1-2,2 2,-1-1,1-1,-1 0,2 1,0-2,0 1,10 8,-5-5,-1-2,1 1,0 0,1-2,0 0,0 0,2-1,13 6,-22-11,0 0,0 1,1-2,0 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 0,9-4,3-2,-1 0,28-15,-12 3,76-32,72-40,-150 75,-1-1,-2-3,46-39,-68 54,0 0,-1-1,0 1,0 0,0-2,-1 1,0 0,1 0,-2-1,0 1,0 0,-1-1,1 0,-1-12,-1-3,-1 0,-1 0,-6-26,-1 2,7 40,0 1,0-1,-1 2,1-2,-1 1,-1 0,0 1,1 0,-1-1,0 1,0-1,-1 1,1 2,-2-2,-7-5,0 3,2-2,-1 2,-2-1,2 3,-26-9,2 8,1 2,-2 1,2 2,-70 6,101-6,-11 2,2 1,-2 0,2 1,-1 0,2 1,-2 0,2 1,-20 12,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53237.02">12224 72,'9'-1,"0"0,-1-1,2 0,-2-1,11-4,8-1,22-3,-1 3,2 1,0 2,0 3,1 1,-1 3,88 13,-133-14,1-1,-1 1,1 0,0 1,-1 0,0 0,0 0,0 1,1-1,-1 1,7 5,-10-6,0 0,-1 1,1-1,1 1,-2-1,0 1,1-2,-1 2,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 0,0 1,0 0,0 0,-1 0,1 0,0 0,-1-1,-1 5,-1 1,0-2,-1 2,0-1,0-1,0 1,0 0,-1-1,-1 0,0 0,1 0,-1-1,0-1,-8 6,4-2,0 0,1 0,1 0,-11 14,18-19,1-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,1 1,0-1,-1 1,1-1,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,1 0,1 2,9 16,-6-4,0 1,-1-1,-1 3,-1-2,3 27,1 89,-8-127,0 0,-1-1,1 0,-1 0,0 1,0-1,-1-1,-1 2,1-1,0 0,0 0,-1-1,0 1,0-1,0 1,-9 6,6-5,-1-1,0-1,-1 1,1-1,-1 0,-1 0,2-1,-1-1,-1 1,-8 2,-18 0,-1 0,1-3,-1-1,-45-2,46 0,8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54498.16">13625 72,'30'3,"-29"-3,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,-1-1,1 0,-3 3,-1-1,1 1,-1-1,-1 0,1-1,0 0,0 0,0 1,0-1,-5 0,-30 6,1-2,-70-1,63-3,-75 11,111-11,2 1,-1 0,0 1,1-1,0 1,0 1,-1-1,1 2,1-1,-1 0,0 1,2 0,-1 0,1 0,0 1,-1 0,1 0,1 0,0 1,-4 8,1-1,2-1,0 0,1 1,1 0,1-1,-1 2,1-1,2 0,1 26,0-38,-1 1,2 0,-1 0,-1 0,1 0,1 0,-1 0,0-1,1 1,0 0,-1-1,1 1,0-1,0 1,1-1,-1-1,0 1,2 0,-2 0,1 0,0 0,0-1,-1 1,1-1,0 0,0 0,1 0,0 0,-1-1,4 1,13 2,0-3,0 1,0-1,20-2,-6 0,17 0,-18 0,0 1,0 1,-1 2,56 8,-79-8,-1 1,2-1,-2 2,0-1,1 0,-1 1,-1 1,1-1,0 2,-1-2,-1 2,1 0,0 0,-1 0,-1 1,1 0,0-1,-2 2,1-1,-1 0,4 14,0-1,-3 0,0 1,-1 1,-2-1,0 0,-1 0,-1 0,-1 1,-6 30,5-45,-1-1,1 1,-1 0,0-1,-2 0,1 0,0 0,0-1,-1 1,1 0,-3-1,2-1,0 1,-1 0,-11 5,2-1,-1 0,0-2,0 1,-1-1,-29 6,-1-2,-2-4,0 0,-63 0,-154-11,252 4,-16-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55154.06">14366 1208,'14'0,"23"0,25 0,15 0,13 5,19 1,11 4,-11 0,-10-1,-23 1,-23 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55716.12">14284 1715,'4'0,"17"0,12 0,31 0,30 0,24 0,21 0,12 0,10 0,1 0,-8 0,-23 0,-26 0,-33 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18264,13 +18463,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">191 213,'-6'2,"0"0,1 0,0 0,-1 0,1 1,0 0,0 0,0 0,1 1,-5 4,-3 1,-1 0,2 0,-1 1,1 0,1 1,0 0,-13 19,19-25,1 1,0-1,0 1,0 0,1-1,0 1,0 0,0 0,1 1,0-1,0 0,0 0,1 1,0-1,0 0,1 1,0-1,2 8,-2-11,0-1,1 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,1-1,0 1,-1 0,1-1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 0,3 1,14 0,0 0,38-4,-25 1,2 1,121-7,-135 5,0 0,0-1,0-2,-1 0,24-10,-38 13,0-1,0 0,0 0,-1 0,1-1,-1 0,0 0,0 0,-1 0,1-1,-1 0,0 0,-1 0,0 0,0-1,0 1,0-1,-1 0,2-13,-2 8,0-1,-1 1,-1 0,0-1,0 1,-1 0,-1-1,0 1,-1 0,-7-20,9 30,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 1,0 0,-1-1,1 1,0 0,-1 0,-3 0,5 1,-1 0,0 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,0 0,0-1,-1 1,2 1,-7 43,3 1,6 86,0-43,11 155,-6-162,-3 0,-4 0,-12 99,11-182,-1 11,-1 0,1-1,1 1,0 0,2 19,-2-29,1 1,-1 0,1 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,3-2,17-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1250.68">1117 54,'2'-3,"1"-1,-1 1,1 0,0 0,0 0,1 0,-1 0,0 1,1-1,0 1,0 0,-1 0,1 1,0-1,1 1,-1 0,8-2,9 0,0 0,28 1,-36 1,0 0,1 1,-1 1,1 0,18 4,-28-5,-1 1,0 0,0 0,0 0,-1 0,1 1,0-1,0 1,-1 0,1-1,-1 1,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 0,1 4,1 8,-1 0,-1 0,0 0,0 0,-2 0,0 1,0-1,-2 0,0 0,-1-1,0 1,-8 17,12-31,-1 1,1 0,-1-1,1 1,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 0,0 1,1-1,-1 0,0 0,3 2,51 34,-28-21,19 19,-1 1,-1 3,-3 2,-1 1,-2 2,-2 1,49 82,-75-108,-1-1,0 1,-2 1,0 0,-2 0,0 0,-1 1,0-1,-2 1,-1 0,-1 0,-2 27,0-33,0 0,0 0,-2 0,0 0,0-1,-1 1,-1-1,-1 0,0-1,-1 0,0 0,-1-1,0 0,-1 0,0-1,-1 0,-16 12,8-11,1-1,-1 0,-1-2,0 0,0-2,-1 0,0-1,0-1,0-1,-25 2,-28-2,-122-9,47-1,118 6,5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2548.23">2493 81,'-1'3,"0"0,0-1,0 1,0-1,0 0,0 1,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 0,-3 2,-3 4,-41 46,-81 117,107-134,2 0,1 1,2 1,-22 70,37-99,0-1,1 1,0 0,1 0,0 13,1-20,0-1,0 1,0-1,1 1,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 1,3 0,25 7,1-1,0-1,0-2,0-1,36 0,20 4,357 47,-368-47</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3089.85">3181 213,'0'9,"0"12,0 16,0 20,-9 18,-8 14,-14 33,-6 17,-2 13,-7 8,4-11,9-12,10-7,9-21,11-34,12-52,12-61,3-24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3692.71">3684 160,'-11'19,"1"-1,2 1,-10 28,-17 36,3-27,-92 185,122-238,1 1,0-1,0 0,-1 0,2 1,-1-1,0 1,1-1,0 0,-1 1,1-1,1 1,-1-1,2 7,-1-7,0-1,1 1,0-1,-1 0,1 1,0-1,0 0,1 0,-1 0,0 0,1-1,-1 1,1-1,-1 1,1-1,0 0,4 2,38 14,1-2,0-2,1-1,1-3,-1-2,95 2,-85-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4222.71">4292 81,'-2'61,"-3"-1,-22 106,-46 116,42-173,-19 69,-73 308,108-403,3 0,4 1,4-1,6 86,1-125,-2-25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5930.97">562 81,'-102'-2,"43"0,-102 8,154-5,0 0,1 1,-1-1,1 2,0-1,0 1,-1-1,2 2,-1-1,0 1,1 0,-1 0,1 0,0 1,1-1,-1 1,-5 8,-1 6,0 0,0 1,-13 40,8-21,3-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">199 204,'-7'2,"1"0,1 0,0 0,-2 0,2 0,0 1,0 0,0 0,0 1,-4 4,-3 0,-2 1,3-1,-2 2,2 0,0 0,1 1,-14 17,20-23,1 1,0-1,0 0,-1 1,2-1,0 1,0-1,0 1,1 1,0-1,0-1,0 1,1 1,0-1,0-1,1 2,0-1,2 7,-2-10,0-1,1 1,-1 0,1-1,1 1,-1-2,0 2,0-1,0 0,0 0,1 0,-1 0,1-1,0 1,-1 0,2-1,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,1 0,2 1,15 0,-1 0,41-4,-27 2,2 0,126-7,-140 5,0 0,0-1,0-1,-1-1,24-10,-39 14,1-2,-1 0,0 0,-1 0,2 0,-2-1,0 0,0 0,-1 0,2 0,-2-1,0 0,-1 0,0 1,0-2,0 1,0-1,0 1,1-13,-2 7,0 0,-1 0,-1 1,0-2,0 2,-1-1,-1 0,0 0,-1 1,-8-20,10 29,0-1,0 1,0 1,0-2,0 1,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,-1 1,1-1,0 1,0 0,0 0,-1-1,1 1,0 0,-1 0,-3 0,4 1,0 0,0 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,0-1,0 0,-1 1,2 1,-7 41,3 1,6 83,0-42,12 148,-7-154,-3-1,-4 1,-12 94,11-174,-1 11,-1-1,1 0,1 0,0 1,2 18,-2-28,1 1,-1 0,1-1,-1 1,1 0,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 0,-1-1,1 1,1 0,-1 0,-1 0,1 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,0 0,0 0,1 0,-2 0,1-1,0 1,0 0,3-2,18-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1250.67">1161 52,'2'-3,"1"-1,-1 1,1 0,0 0,1 1,0-1,-1 0,0 1,1-1,0 1,0 0,0 0,0 1,0-1,1 1,-1 0,9-1,9-1,-1 0,30 1,-37 1,-1 0,2 1,-2 1,2 0,18 4,-29-5,-1 1,1 0,-1 0,0 0,-1-1,1 2,0-1,0 1,-1 0,1-1,0 1,0 0,-1 1,0-1,0 0,0 1,0-2,0 2,-1-1,1 1,-1 0,1 0,-1 0,0 0,2 3,0 9,-1-1,-1 0,0 1,0-1,-2 1,0 0,0-1,-2 1,-1-1,0-1,0 2,-8 15,12-29,-1 1,1 0,-1-1,1 1,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,0 0,1 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 0,0 1,1-1,-1 0,0 0,3 1,53 34,-29-21,20 19,-1 0,-1 4,-4 1,0 1,-3 2,-1 1,50 79,-77-104,-2-1,0 2,-1 0,-1 0,-2 0,0 0,-1 1,1-1,-3 2,-1-1,-1 0,-2 26,0-32,-1 0,1 1,-2-1,0 1,0-2,-1 1,-1 0,-2-1,1 0,-1-1,-1 1,0-2,0 0,-2 1,1-1,-2-1,-16 12,9-10,0-2,-1 1,-1-3,1 1,-1-2,-1-1,0 0,0-1,0-1,-25 1,-30-1,-127-9,49 0,123 5,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2548.23">2591 78,'-1'2,"0"1,0-1,0 1,0-1,0 0,0 1,-1-1,1 0,-1 0,0-1,1 1,-2 0,1 0,-3 2,-3 4,-43 43,-84 113,111-128,2-1,1 1,3 2,-24 66,39-94,0-2,1 2,0 0,1-1,0 13,1-19,0-1,0 1,0-1,1 1,-1-1,1 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,0-1,0 0,0 1,0 0,1-1,-1 1,0-1,0 0,0 1,3 0,26 6,1 0,1-1,-1-2,0-2,38 1,20 4,372 45,-383-46</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3089.85">3306 204,'0'9,"0"11,0 15,0 20,-9 17,-9 13,-14 32,-6 16,-3 12,-7 9,5-12,8-10,11-8,10-20,11-32,12-50,13-58,3-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3692.71">3829 153,'-11'18,"0"0,3 0,-11 27,-17 34,3-25,-96 177,127-228,1 1,-1-2,1 1,-1 0,2 1,-1-1,0 1,1-1,0-1,-1 2,1-1,1 1,-1-1,2 6,-1-6,0-1,2 1,-1-1,-1 0,1 1,0-1,0 0,1 0,-1-1,0 1,1-1,-1 1,1-1,0 1,0-1,0 0,4 2,40 13,1-1,-1-3,2 0,1-4,-1-1,99 1,-89-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4222.71">4461 78,'-2'58,"-3"-1,-23 102,-48 112,44-167,-20 66,-76 296,112-387,4 1,3 0,5 0,6 82,1-120,-2-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5930.96">584 78,'-106'-2,"45"0,-107 7,161-4,0 0,1 1,-2-1,2 2,0-1,0 1,-2-1,3 2,-1-1,0 0,1 1,-2 0,2 0,0 1,1-1,-1 0,-6 9,0 5,-1 0,1 1,-14 39,8-21,4-6</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18442,7 +18641,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">185 0,'-18'19,"2"1,0 1,2 0,0 0,1 2,1 0,-10 29,8-14,1 1,3 0,-11 76,20-109,1-1,-1 0,1 1,0-1,0 0,1 1,0-1,0 0,0 0,0 1,1-1,0 0,0 0,0 0,1-1,4 7,-3-6,1 0,0-1,0 0,0 0,1 0,-1-1,1 1,0-1,0-1,0 1,0-1,0 0,9 1,26 4,1-2,0-2,-1-2,75-7,-111 6,0-1,1 1,-1-1,0 0,0-1,0 1,0-1,0 0,-1 0,1-1,-1 1,1-1,-1 0,0 0,0-1,0 1,0-1,-1 0,1 0,-1 0,5-8,-5 5,0 0,0 0,-1-1,0 1,0 0,-1-1,0 1,0-1,-1 0,0 1,0-1,-1 0,0 1,-3-13,-4-5,-2 0,0 1,-2 0,-28-43,19 33,13 20,0 2,-1-1,0 1,-1 0,-1 1,0 0,0 1,-1 0,-14-8,5 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="536.96">767 529,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="536.95">767 529,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18469,14 +18668,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">56 1279,'-1'1,"1"0,0-1,0 1,0-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,0-1,0 1,-1-1,-3-6,1 0,0 0,0 0,1 0,0 0,0 0,1 0,-2-13,0-71,2 53,0-36,2 0,4 0,15-78,-13 115,2 1,2 1,1 0,1 0,2 1,2 1,0 0,28-36,-21 36,-12 14,2 1,0 1,19-20,-28 32,1 1,-1 0,1 0,0 0,0 1,0-1,0 1,1 1,-1-1,1 1,0 0,-1 1,1 0,12-1,-6 1,4 1,0-1,27 5,-41-4,1 0,-1 1,1 0,-1 0,1 0,-1 0,0 1,0-1,1 1,-1 0,0 0,0 0,-1 0,1 0,0 1,-1-1,0 1,4 4,2 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="723">3 750,'13'5,"14"1,6 4,7 5,1 0,-1-3,-4-3,-8-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1777">1220 221,'-1'3,"0"-1,1 1,-1-1,0 1,0-1,-1 1,1-1,0 0,-1 0,1 0,-1 0,-2 2,-5 8,-25 45,-36 82,34-65,24-50,0 1,1 1,2 0,1 0,0 0,2 1,1 0,2 0,-1 31,3 5,-1-23,2 1,2-1,1 0,13 56,-12-84,1-1,0 1,1-1,1 0,-1 0,2-1,-1 0,2 0,-1-1,1 0,20 15,-1-3,1 0,62 30,-27-27,-35-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4304">1934 961,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6234">2622 300,'-3'31,"-2"-1,0 1,-2-1,-1-1,-1 0,-20 41,-1 10,20-52,-44 147,50-156,0 0,1 1,2-1,-1 1,2-1,1 1,3 23,-1-34,0 1,1-1,0 0,1 0,-1 0,2 0,-1-1,1 0,0 0,1-1,0 1,0-2,1 1,0-1,0 0,0 0,1-1,-1 0,1-1,1 0,-1 0,16 3,-15-5,1 0,0-1,0 0,0-1,0-1,-1 1,17-4,-24 3,0 0,0 0,0-1,1 1,-1-1,-1 1,1-1,0 0,0 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,0 1,-1 0,2-7,1-11,-1-1,-1 0,-1 1,0-1,-2 0,-1 1,-5-25,6 42,1 1,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 0,1 1,-1 0,0 0,0-1,1 2,-1-1,0 0,-5-1,-4-2,1 1,-1 1,-18-4,23 6,-28-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7608">2993 485,'2'-7,"0"0,1 0,0 0,0 0,1 0,0 1,0 0,0 0,10-11,2 1,0 1,2 0,-1 1,2 0,-1 2,2 0,0 2,0 0,1 1,0 1,0 0,26-4,-43 11,1 0,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 1,1-1,-1 1,1 0,-1 1,0-1,1 1,-1 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1 0,5 6,-3-2,-1 0,0 0,0 0,-1 1,0-1,0 1,-1 0,0 0,0 0,-1 0,0 0,0 11,1 43,-2 0,-3 1,-15 85,14-131,-1 0,-1-1,0 1,-1-2,-1 1,0-1,-18 24,19-29,0-1,-1 0,0-1,0 0,-1 0,0 0,0-1,0-1,-1 0,0 0,-1-1,-16 7,23-12,0 1,1-1,-1 1,1-1,-1 0,0 0,1-1,-1 1,0-1,1 0,-1 0,1 0,-1 0,1-1,-6-3,7 5,1-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0-1,1 1,-1-1,1 1,-1 0,1-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,0 1,-1 0,1-1,0 1,0 0,0 0,1-3,1 1,0 0,-1 0,2 1,-1-1,0 0,0 1,1 0,-1 0,1 0,0 0,-1 1,1-1,0 1,0 0,0 0,0 0,0 1,0-1,0 1,0 0,1 0,-1 1,0-1,0 1,5 1,12 4,0 0,0 1,31 17,-25-12,80 33,-70-27</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8981">4104 353,'-5'-1,"0"0,0-1,1 1,-1-1,1 0,0-1,-1 1,-5-5,-12-6,20 12,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 1,-1 0,1 0,-1 0,-4 3,3-1,0 0,1 0,-1 0,1 1,-1 0,1 0,0 0,1 0,-1 0,1 0,-3 7,1-3,1 1,0-1,1 1,-1 0,2 0,-1 0,1 0,1 0,0 0,0 0,1 0,0 0,2 10,-2-17,1 1,-1-1,0 0,1 1,-1-1,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,1 0,-1 0,4 2,50 12,-18-5,-23-5,-1 1,0 0,23 15,-31-16,-1-1,1 1,-1 0,0 0,-1 0,1 1,-1-1,0 1,0 0,3 10,7 13,-2 1,-1 1,-1 0,-2 0,-1 1,-1-1,1 34,-7-54,0 0,-1-1,0 1,0 0,-1 0,-1-1,0 1,0-1,-1 0,-9 16,9-19,-1 0,0 0,-1-1,1 0,-1 0,0-1,-1 0,1 0,-1 0,0-1,0 0,-1 0,1-1,-1 0,-14 4,4-2,-1-2,1 0,-1-1,0-1,1-1,-29-2,44 1,0 1,0-1,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,0-1,-2-3,-2-5,0 0,1 0,-7-22,8 21,-9-28</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9811">4368 9,'1'-1,"1"0,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,2 0,0 0,1 0,-1 1,0-1,1 1,-1 0,0 0,6 5,0 2,-1 0,-1 0,0 1,0 0,-1 0,0 1,-1 0,-1 0,8 19,33 119,-32-97,5 15,19 62,25 155,-57-230,-3 1,-2 0,-7 72,4-114,-1 0,0 1,0-2,-2 1,0 0,0-1,-1 0,0 0,-1 0,-1-1,-15 18,2-5,-1-2,0-1,-50 35,46-39,3-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">58 1223,'-1'1,"1"0,0-1,0 1,0-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 0,1 0,0 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,0 0,1 1,-2-1,2 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 1,-1 0,1 0,-1-1,1 1,0-1,0 1,-1-1,-3-6,1 0,0 1,0-1,0 0,1 0,0 1,1-1,-2-12,0-68,2 51,0-35,2 0,4 0,16-74,-14 110,3 0,1 2,1-1,2 1,1 0,3 2,0-1,28-34,-21 35,-12 13,1 0,1 2,19-19,-29 30,1 1,-1 0,2 1,-1-1,0 1,0-1,0 1,2 1,-2-1,1 2,0-1,0 1,0 0,13-1,-7 1,5 1,-1-1,29 5,-43-4,1 0,-1 1,1 0,-1 0,2 0,-2-1,0 2,0-1,1 1,-1 0,0 0,0 0,-1 0,2 0,-1 1,-1-1,0 0,4 5,2 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="723">3 717,'14'5,"14"1,6 3,7 5,2 1,-2-4,-4-2,-8-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1777">1264 211,'-1'3,"0"-1,1 1,-1-1,0 1,0-1,-1 1,1-2,0 1,-1 0,1 0,-1 0,-2 2,-6 7,-25 44,-38 78,36-62,25-49,-1 2,2 1,2 0,0 0,1 0,2 1,1-1,1 1,0 30,3 4,-1-22,2 1,2 0,1-1,14 54,-13-81,1 0,0 0,2 0,0-1,-1 1,2-2,0 1,1-1,-1 0,2-1,20 15,-1-3,1 1,64 27,-28-25,-36-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4304">2004 919,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6234">2717 287,'-3'29,"-2"0,0 1,-3-2,0 0,-1 0,-21 39,-2 9,22-49,-46 140,52-148,0-1,1 1,2-1,-1 1,2-1,1 1,3 23,-1-34,0 2,1-2,0 1,2-1,-2 1,2 0,-1-2,1 1,1 0,0-2,0 2,0-2,2 0,-1 0,0 0,0 0,2-2,-2 1,1-1,2 0,-2 0,17 2,-16-4,2 0,-1-1,1 0,-1-1,0-1,0 1,17-4,-25 3,0 0,0 0,0 0,1 0,-1-1,-1 1,2-1,-1 0,0 0,-1-1,1 1,-1 0,1-1,-1 1,0 0,0-1,0 0,-1 0,2 0,-2 0,1 0,-1 1,0-2,0 1,-1 0,2-7,1-10,-1-1,-1 0,-1 1,0-1,-2 0,-1 1,-5-24,5 40,2 1,-1 1,1-1,-1 0,0 0,0 0,0 1,0-1,-1 0,1 2,-1-1,0 0,-1-1,2 2,-1-1,0 0,-5-1,-5-2,2 2,-1 0,-19-4,23 6,-28-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7608">3101 464,'2'-7,"1"0,0 1,0-1,0 0,1 1,0 0,0 0,0 0,11-10,2 1,-1 0,3 1,-2 1,3-1,-1 3,1-1,1 3,0-1,1 2,-1 0,1 0,27-3,-45 10,1 0,-1 1,2-1,-2 1,1 0,-1 0,1 0,-1 1,2-1,-2 1,1 0,-1 1,0-1,1 1,-1 0,1 0,-1-1,0 1,0 1,-1-1,1 1,-1 0,6 5,-4-1,-1 0,0 0,0-1,-1 2,1-1,-1 0,-1 1,0 0,0-1,-1 1,0-1,0 12,1 40,-2 0,-3 1,-16 82,15-126,-1 0,-1 0,0 0,-2-2,0 2,0-2,-19 23,20-27,-1-2,0 1,0-1,-1-1,0 1,0 0,-1-2,1 0,-1 0,-1-1,0 0,-17 7,24-12,0 1,1-1,-2 1,2-1,-1 0,0 0,1-1,-1 1,0-1,1 0,-2 0,2 0,-1 0,1-1,-6-3,7 5,1-1,0 0,0 0,-1 0,0 0,1 0,0 1,0-1,0 0,0-1,1 1,-1 0,0 0,0-1,1 1,-1-1,1 1,-1 0,1-1,0 1,0-1,-1 1,1-1,0 2,0-2,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,0 1,-1 0,1-1,0 1,0 0,0 0,1-2,1 0,1 0,-2 0,2 1,-1-1,0 0,0 1,1 1,-1-1,2 0,-1 0,-1 1,1-1,0 1,0 0,0 0,1 0,-1 1,0-1,0 1,0 0,1 0,-1 1,1-1,-1 1,5 1,13 4,0-1,-1 2,33 16,-26-11,83 31,-73-26</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8981">4253 338,'-6'-1,"1"0,0-1,1 1,-1-1,1 0,0-1,-2 1,-4-5,-13-5,21 11,-1 0,1 0,-1 0,1 0,-1 0,1 1,-2-1,1 1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 1,-2 0,2 0,-1 0,-4 3,3-1,0 0,1 0,-2-1,2 2,-1 0,1 0,0 0,1 0,-1-1,1 1,-3 7,0-4,2 2,0-1,1 0,-1 1,2-1,-1 1,1 0,1-1,0 1,0-1,1 1,0 0,2 9,-2-16,1 1,-1-2,0 1,1 1,-1-1,1 0,0 0,1 0,-1-1,0 1,0 0,0-1,0 1,0-1,1-1,-1 1,4 2,52 12,-18-6,-25-4,0 1,-1-1,25 16,-33-17,-1 0,1 1,-1 0,1-1,-2 1,1 1,-1-1,0 0,0 1,4 10,6 11,-1 2,-2 1,-1-1,-1 1,-2 0,-1 0,1 32,-7-51,0-1,-1 0,0 0,0 1,-1-1,-1 0,0 0,0 0,-1 0,-10 14,10-17,-1 0,0-1,-1 0,0 0,0 0,0-2,-1 1,0 0,0 0,0-1,0-1,-2 1,2-1,-1 0,-15 4,4-3,0-1,0 0,-1-1,1-1,0-1,-30-2,46 1,0 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,0 0,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-2-4,-2-5,0 1,1-1,-8-20,9 19,-9-26</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9811">4526 9,'1'-1,"1"0,-1 0,1 0,1 1,-1-1,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 1,1 0,0 0,1 0,-1 1,0-1,1 1,0 0,-1-1,6 6,1 2,-2-1,-1 1,0 0,1 1,-2 0,0 0,-1 1,0-1,7 19,35 113,-34-92,6 14,19 59,27 149,-60-220,-3 0,-2 1,-7 68,4-108,-1-1,-1 1,1-1,-2 0,0 1,0-2,-1 1,-1-1,0 1,-1-2,-16 18,2-5,-1-2,1-1,-53 33,48-36,3-5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18532,13 +18731,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 820,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6008.43">1297 265,'70'-1,"-19"-1,84 8,-122-4,1 0,-1 1,0 0,0 1,0 0,0 1,0 1,-1 0,0 1,0 0,10 9,-18-13,-1 1,0-1,0 1,0 0,-1 0,1 0,-1 1,0-1,0 1,0-1,-1 1,0-1,0 1,1 8,0 4,-1-1,-1 1,-2 18,-4 10,-1-1,-3 0,-22 63,-60 129,62-165,5-10,4-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6669.43">1456 661,'0'-4,"9"-2,7 1,11 0,4 2,2 1,0 1,-2 0,-1 6,-1 1,-1 0,3-2,2 0,-1-2,-2-1,0 0,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8177.43">2409 265,'-14'0,"0"0,0 1,0 0,0 1,-25 7,33-7,1 1,-1 0,1 0,0 0,0 1,0-1,0 1,1 0,-1 1,1-1,0 1,1 0,-1 0,1 0,-5 11,1-3,2 1,0 0,0 0,2 0,-3 16,5-21,-1-1,2 0,-1 1,1-1,1 1,-1-1,2 0,-1 1,1-1,3 10,-3-15,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,1 1,0-2,-1 1,1 0,0 0,0-1,0 0,0 1,1-1,4 1,65 11,-43-9,-26-3,0 0,0 0,1 0,-1 0,0 1,0 0,-1 0,1 0,0 1,-1-1,1 1,-1-1,0 1,1 1,-2-1,1 0,0 1,-1-1,1 1,-1 0,0-1,0 1,-1 0,1 0,-1 1,0-1,1 6,1 11,-1 1,-1-1,-1 1,-3 31,0-5,3-18,0-17,0 0,0 1,-2-1,1 0,-5 15,5-24,0-1,-1 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,-1-1,0 1,0-1,0 0,0 0,0 0,0-1,0 1,-1-1,1 1,0-1,-8 1,-22 2,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21472.32">610 450,'0'-4,"1"0,0 0,0 1,0-1,1 0,-1 0,1 1,0-1,0 1,0-1,1 1,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 1,0 0,4-1,8-4,1 1,0 1,0 0,29-1,-38 4,0 1,0 0,0 0,0 1,0 0,0 0,0 1,10 4,-15-5,1 1,-1 0,0-1,0 2,0-1,0 0,0 0,-1 1,1 0,-1-1,0 1,1 0,-1 0,0 0,-1 1,1-1,-1 0,1 1,0 4,-1-7,4 17,0 0,-1 0,0 0,-2 1,1 18,-3-33,0 0,0 0,0-1,-1 1,0 0,1 0,-1-1,-1 1,1-1,0 1,-1-1,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,1 0,-6 1,-62 4,71-6,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,11 12,17 7,-28-19,13 6,-1 1,0 0,0 1,16 13,-24-17,-1 1,1-1,0 1,-1 0,0 0,0 0,-1 0,0 0,1 1,-2-1,1 1,0-1,-1 1,0 6,2 17,-2 1,0 0,-8 52,7-80,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,-1 1,0-1,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,-2-1,-11-1,0 0,1-2,-1 0,-19-7,-4-2,21 8,1 0,-27-14,-14-5,35 18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22889.32">2726 0,'2'1,"0"-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 5,5 11,-1 1,3 24,-5-26,26 249,-12-83,4-91,-16-77,-1 0,0 0,-1 0,0 0,-2 1,0-1,0 1,-3 26,-2-32,-1 0,0 0,0 0,0-1,-2 0,1 0,-1-1,0 1,-13 10,-1 4,-12 11,-72 56,27-25,41-31</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25236.32">3441 450,'4'5,"6"1,11-1,24 0,8-2,1-1,-5-1,-2 0,-4-1,-6-1,1 1,-2 0,2 0,4 0,-1-1,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 791,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6008.42">1347 256,'72'-1,"-19"-1,87 8,-126-4,0-1,0 2,-1 0,1 1,-1 0,1 1,-1 1,0-1,-1 2,1 0,10 8,-19-12,-1 1,0-1,0 1,0 0,-1 0,1-1,-1 2,0-1,1 1,-1-1,-1 1,0-2,0 2,1 8,0 3,-1 0,-1 0,-2 18,-4 9,-2 0,-2-1,-23 61,-63 125,65-159,5-10,4-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6669.42">1512 638,'0'-4,"9"-2,8 1,11 1,4 1,2 1,0 1,-2 0,0 6,-2 0,-1 1,3-2,2 0,-1-2,-1-1,-1 0,-7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8177.42">2501 256,'-15'0,"1"0,-1 1,1 0,-1 1,-25 6,34-6,0 1,0 0,1 0,0 0,0 1,-1-1,1 0,1 1,-1 1,1-1,0 1,0 0,0-1,1 1,-5 11,1-4,1 2,1-1,0 1,2-1,-3 16,5-20,-1-1,2-1,-1 2,1-1,1 0,-1 0,2 0,-1 1,1-2,3 11,-3-15,0-1,0 0,0 1,0-1,0 1,2-1,-2 0,1 1,0-2,-1 1,1 0,0 0,0-1,0-1,0 2,2-1,3 1,68 11,-45-9,-27-3,0 0,0 0,2 0,-2 0,0 0,0 1,-1 0,1 0,0 1,0-1,0 1,-1-1,0 1,1 1,-2-1,1-1,0 2,-1-1,2 1,-2 0,0-1,0 1,-1 0,1-1,-1 2,0-1,1 6,1 10,-1 1,-1-1,-1 2,-3 29,0-5,3-17,0-16,0-1,0 2,-2-2,1 1,-5 14,5-23,0-1,-1 0,1 0,-2 0,1 0,0 0,0 0,0 0,0 0,-1-1,1 1,-1-2,0 2,0-1,-1 0,1 0,0 0,0-1,0 1,-1-1,1 1,0-1,-9 1,-22 2,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21472.32">633 434,'0'-4,"1"1,0-1,0 1,0-1,1 0,0 0,0 1,0-1,0 2,0-2,1 1,-1 0,1 0,0 0,0 0,0 0,1 1,-1-1,1 2,-1-1,1 0,-1 0,1 0,1 1,-1 0,4-1,9-4,0 1,1 1,0 1,29-2,-38 4,-1 1,0 0,1 0,-1 1,0 0,0 0,1 1,9 3,-14-4,0 1,-1 0,0-1,0 2,0-1,0 0,0 0,-1 1,2 0,-2-1,0 1,1-1,-1 1,0 0,-1 1,1-1,-1 0,1 1,0 3,-1-6,5 17,-1-1,-1 1,0-1,-2 1,1 18,-3-32,0 0,0 0,0-2,-1 2,0 0,1 0,-1-1,-1 1,1-1,0 0,-1 0,0 1,0-1,0 0,0 0,0 0,-2 0,2 0,-1 0,0-2,0 2,0-1,0 0,0 0,-2 0,2 0,-1-1,1 1,-1-1,1 0,-7 1,-63 4,73-6,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,11 12,18 6,-29-18,14 6,-2 1,0 0,1 0,16 14,-25-18,-1 2,1-1,1 1,-2 0,0 0,0-1,-1 1,0 0,1 1,-2-1,1 0,0 0,-1 1,0 6,3 16,-3 1,0-1,-9 52,8-78,0-1,0 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,-1 0,1-1,0 1,-1-1,1 0,-1 0,1 0,-1 1,0-1,-1 0,2 0,-1 0,0 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,0 0,0 0,-2 0,2 0,-2-1,-11-1,-1 0,2-2,-2 0,-19-6,-5-3,23 9,0-1,-28-14,-14-4,36 17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22889.32">2830 0,'2'1,"0"-1,1 1,-1 0,1 0,0 0,-1 0,0 0,0 0,0 1,0-1,0 1,0-1,0 0,-1 1,1 0,-1 0,1 0,-1 0,2 0,-2 0,0 0,0 0,0 1,0-1,0 4,5 12,-1 0,4 24,-6-26,27 241,-13-81,5-87,-17-75,0 1,-1-1,-1 1,0-1,-2 2,0-2,0 2,-3 24,-2-30,-1 0,-1-1,1 1,0-1,-2-1,1 1,-2-1,1 0,-14 11,-1 3,-12 11,-75 54,28-25,43-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25236.32">3572 434,'5'5,"5"1,12-1,24-1,9-1,2-1,-7-1,-1 0,-4-1,-7-1,2 1,-3 0,3 0,3 0,0-1,-9 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18620,13 +18819,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 106,'2'-2,"1"0,0 0,0 0,1 0,-1 0,0 1,0-1,1 1,-1 0,1 0,0 0,5 0,49-3,-36 4,518-2,-533 2,-1 0,1 1,-1 0,0 0,1 1,-1-1,0 1,11 6,-14-6,0 0,0 0,-1 0,1 0,-1 0,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,-1 0,1 1,0 3,2 21,0 0,-3 0,0 1,-4 30,-24 113,26-160,-11 47,-2 0,-2-1,-3-1,-3-1,-39 71,47-101</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="585.98">556 608,'4'0,"7"0,14 0,21 0,17 0,1 0,0 0,-3 0,-7 0,-8 0,-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1172.98">1 820,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2564.98">1562 159,'-2'1,"0"-1,0 1,0-1,0 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,0 1,-1-1,1 0,0 1,-1-1,1 1,0 0,0-1,0 1,-1 3,-15 43,17-46,-4 8,-35 144,34-129,2-1,0 0,1 1,3 36,-1-58,1-1,-1 1,1-1,-1 0,1 1,0-1,0 0,0 0,1 1,-1-1,0 0,1 0,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,1-1,2 1,10 1,1-1,-1-1,29-3,-18 2,-21 1,0-1,1 1,-1-1,0 0,0 0,0 0,0-1,0 1,0-1,0-1,-1 1,1-1,-1 1,0-1,0 0,0-1,6-5,-5 3,-1-1,0 1,-1-1,1 0,-1 1,0-2,-1 1,0 0,0 0,0-1,0-12,1-1,-1 0,-1-1,-1 1,-1-1,-3-21,3 38,0-1,-1 1,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 1,0 0,-1-1,1 1,-1 1,0-1,0 0,0 1,-1 0,1 0,-1 0,0 0,1 1,-1 0,0 0,-7-2,-8 0,-1 0,1 1,-1 1,0 1,0 1,-34 4,18 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3158.98">1774 211,'-5'86,"-3"0,-21 93,14-99,3 0,-2 134,14-209,0-1,1 1,-1-1,1 1,0-1,3 10,-4-14,1 1,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1 0,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,-1-1,1 1,0-1,0 0,16-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4246.98">2276 0,'1'1,"0"-1,0 1,0-1,0 0,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 2,-6 42,-11 5,-1 0,-3-1,-30 50,13-24,20-40,1 2,3 1,0 0,3 0,1 1,2 0,1 1,-1 74,7-78,5 117,-4-150,0 0,1-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,1-1,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1-1,-1 1,5 0,8 1,-1 0,1-2,-1 1,22-4,-6 2,-18 0,8 1,1-1,-1-1,1 0,21-7,-36 8,0-1,0-1,0 1,-1-1,1 0,-1 0,0-1,0 0,0 0,0 0,0 0,-1-1,0 1,0-1,0 0,-1-1,0 1,3-6,-2 4,36-86,-37 84,0 0,0 0,-1-1,0 0,-1 1,0-1,-1-19,0 26,-1 0,0 0,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,1 1,-1 0,0 0,0 0,1 0,-7-1,-8-2,0 1,0 1,-21-1,28 2,-179 0,142 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5730.98">3387 26,'-393'0,"387"1,1-1,0 1,-1 0,1 0,0 0,0 1,-1-1,1 1,0 1,1-1,-1 1,0-1,1 2,0-1,-1 0,1 1,0 0,1-1,-1 2,1-1,0 0,0 1,0-1,0 1,1 0,-4 10,-2 10,0 1,2 0,1 1,-3 31,6-39,2-18,-3 16,1 0,1 0,1 0,0 0,3 22,-2-36,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,0 1,0 0,0-1,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0-1,0 1,-1-1,1 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 0,0 0,1 1,-1-2,6 0,92-14,-63 8,48-3,-74 9,0 1,1 1,-1 0,0 0,1 1,-1 1,0 0,12 5,-6 1,0 0,-1 1,0 1,-1 1,0 0,0 1,-2 1,0 0,0 1,-1 0,-1 1,17 30,-18-28,-2 0,0 1,-1 1,-1-1,0 1,-2 0,0 1,-2-1,0 1,-1 0,-1 0,-2 25,-2-33,0-1,0 1,-2-1,1 0,-1 0,-1 0,0-1,-1 0,0 0,-1 0,0-1,0 0,-1-1,-1 0,1 0,-2-1,-18 12,-2 0,-1-2,-1-1,0-1,-70 22,59-26,0-2,-2-2,1-2,0-1,-1-3,0-2,-72-9,94 4,8-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">57 101,'2'-2,"1"0,0 0,0 0,1 0,-1 0,1 2,-1-2,1 1,-1 0,1 0,0 0,6 0,51-3,-38 4,542-2,-557 2,-2 0,1 1,0 0,-1 0,1 1,0-1,-1 1,12 5,-15-5,0 0,0 0,-1 0,1 0,0 0,-1 1,0 0,0-2,0 2,0 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,-1 0,1 1,0 3,3 19,-1 1,-3 0,0 0,-4 29,-26 108,28-153,-11 46,-3-1,-2-1,-3-1,-3 0,-41 66,49-95</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="585.98">583 579,'4'0,"7"0,15 0,23 0,17 0,1 0,0 0,-3 0,-8 0,-8 0,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1172.98">1 781,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2564.98">1637 151,'-2'1,"-1"-1,1 1,0-1,0 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,0 1,-2-1,2 0,0 1,-1-2,1 2,0 0,0-1,0 1,-1 3,-16 41,18-45,-4 9,-37 137,36-124,2 0,0 0,0 1,5 34,-2-55,1-1,-1 1,1-2,-1 1,1 1,0-1,0 0,0 0,1 1,-1-1,0 0,1-1,0 1,-1-1,1 1,0 0,1-1,-1 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,2-1,-2 1,1-1,2 0,11 2,1-1,-2-1,31-3,-18 3,-23 0,0-1,1 1,0-1,-1 0,0 0,0 0,1-1,-1 1,0-1,0-1,-1 1,2-1,-2 1,0 0,0-1,0-1,7-5,-6 4,-1-2,1 1,-2 0,1-1,-1 1,0-1,-1 0,0 0,0 1,1-2,-1-11,1-1,-1 0,-1-1,-1 1,-1-1,-3-20,3 36,0 0,-1 0,0 0,0 1,0-1,0 0,-1 0,1 0,-1 1,0 0,0 0,-2-1,2 2,-1 0,0-1,0 0,-1 1,0 0,1 0,-1 1,0-1,0 1,0 0,0 0,-8-2,-8 0,-1 1,1 0,-1 1,0 1,0 1,-35 4,18 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3158.98">1859 201,'-5'82,"-4"0,-21 88,14-94,4 0,-3 128,15-199,0-2,1 2,-1-1,1 1,0-1,3 9,-4-13,1 1,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1 0,0-1,-1 1,2-1,-1 1,0-1,-1 0,1 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,1-1,1 1,-1 0,-1 0,1 0,0-1,0 0,17-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4246.97">2385 0,'1'1,"0"-1,0 1,0-1,0 0,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1-1,-1 1,2 0,-2 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 2,-7 39,-10 6,-2 0,-3-2,-32 48,14-22,22-39,0 2,3 1,0 1,4-1,0 1,3 0,1 1,-2 71,8-75,5 112,-4-144,0 1,1-1,-1 1,2 0,-1-1,0 1,0-1,0 0,0 0,1 0,-1 1,1-1,-1 0,1 0,0 0,0 0,0-1,1 0,-1 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,2-1,-2 1,5 0,9 1,-2 0,2-2,-1 1,22-4,-5 2,-20 0,9 1,1-1,-1-1,1 0,22-7,-37 9,-1-2,0-1,1 1,-2-1,1 0,-1 0,1-1,-1 1,0-1,0 0,1 0,-2-1,0 2,0-2,0 0,-1-1,1 2,2-7,-2 5,38-83,-39 80,0 1,0-1,-1 0,1-1,-2 2,0-2,-1-17,0 24,-1 0,0 0,0 0,-1 1,0-1,1 1,-1 0,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,-2 1,2-1,0 0,-1 1,0-1,1 1,-1 0,0 0,-1 0,2 0,-7-1,-9-2,0 2,1 0,-23-1,29 2,-187 0,149 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5730.98">3549 25,'-412'0,"406"1,1-1,-1 1,0 0,1 0,0 0,-1 0,0 0,1 1,0 1,0-1,0 1,0-1,1 2,0-2,-2 1,2 1,0 0,1-1,-1 2,0-2,1 1,0 1,0-1,0 0,1 1,-4 10,-3 8,1 2,1 0,2 1,-3 29,6-37,2-17,-3 15,1 0,0 0,2 0,0 1,4 20,-3-34,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 1,0 0,0-1,1 0,-1 1,1-1,-1-1,1 1,-1 0,1 0,0-1,1 1,-2-1,1 0,0 0,0 0,1 0,-1 0,1 0,-1-1,0 0,0 0,1 1,-1-2,7 0,96-14,-67 9,52-4,-79 9,1 1,0 1,0 0,-1 0,2 1,-1 1,-1 0,13 4,-6 2,0-1,-1 2,0 0,-2 2,1-1,0 2,-2 0,-1 0,1 2,-1-1,-2 1,19 29,-20-27,-1 0,-1 1,-1 1,0-1,-1 1,-2 0,1 1,-3-1,0 1,-1 0,-1 0,-2 24,-2-31,0-2,-1 1,-1 0,1-1,-1 1,-1-1,-1 0,0-1,0 1,-2-1,1 0,-1-1,0 0,-1-1,0 1,-1-2,-20 12,-1 0,-2-1,0-2,-1-1,-73 21,62-24,0-3,-2-1,1-3,-1 0,0-3,0-2,-76-9,99 5,8-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18653,12 +18852,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 160,'9'-1,"0"-1,-1-1,1 0,0 0,-1-1,0 0,1 0,-2-1,1 0,0 0,11-12,5-1,-5 4,-14 9,1 0,1 1,-1-1,0 1,1 0,0 1,0-1,0 1,1 1,-1-1,0 1,12-1,-17 4,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0-1,-1 1,0 0,1 0,-1 0,0 0,0-1,0 2,0-1,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 2,3 14,-1 0,-1 28,-1-34,-9 545,9-535</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="376.99">531 847,'4'0,"2"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1715.02">1457 1,'-25'0,"15"-1,-1 1,0 0,1 1,-16 3,23-3,-1 0,0 0,1 1,0-1,-1 1,1 0,0 0,0 0,0 0,0 1,0-1,0 1,1 0,-1-1,1 1,-4 6,-19 43,3 0,1 1,-22 97,38-132,-6 29,2-1,2 1,0 75,14 140,-6-252,0 0,1 0,0 0,0 0,7 15,-9-23,0 0,1-1,0 1,-1-1,1 0,0 1,-1-1,1 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,1 0,0-1,-1 1,1 0,-1 0,1-1,-1 1,1-1,-1 0,1 1,-1-1,0 0,1 0,1-1,8-6,0-2,0 0,-1 0,0-1,-1 0,0 0,9-16,-4 3,0 0,18-50,-13 13,13-79,-27 115,-1 3,4-20,17-49,-17 65,-2 0,-1 0,-1-1,-1 0,-1 0,-4-52,2 75,-1 0,0-1,1 1,-1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,-6-4,3 3,0 1,-1-1,1 1,-1 1,0-1,1 1,-1 0,0 1,0 0,-12-1,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2766.99">1906 160,'0'-4,"1"0,0 0,0 0,1-1,-1 1,1 1,0-1,0 0,0 0,0 1,1-1,0 1,5-6,43-37,-43 40,1 0,0 1,0-1,1 2,-1-1,1 2,0-1,0 1,0 1,14-2,-18 3,0 1,-1-1,1 2,0-1,-1 0,1 1,0 0,-1 1,1-1,-1 1,0 0,0 0,1 1,-1 0,-1-1,1 2,0-1,-1 0,1 1,6 8,3 6,-2 1,1 0,-2 1,-1 0,0 1,-2 0,0 1,-2 0,0 0,-1 0,3 38,-6-30,0 0,-2 1,-2-1,0 0,-2 0,-2 0,0 0,-15 38,12-45,0-1,-2-1,0 1,-1-2,-24 30,27-39,-1 0,-1-1,0 0,0 0,-1-1,0-1,-1 0,1-1,-2 0,-14 5,20-9,0-1,0-1,0 0,0 0,-10 0,-8-8,25 7,0-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,1-1,1 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 1,3-2,47-17,-37 15,-8 2,-1 1,0 0,1 0,0 1,-1 0,1 1,0-1,-1 1,1 1,0-1,10 3,1 3,-1 0,0 0,19 11,14 6,-25-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3810.02">3388 80,'-11'1,"0"0,1 1,-1 0,1 0,0 1,0 0,0 1,-14 7,-72 47,92-55,-24 17,0 1,1 1,2 1,0 1,-35 46,45-49,1 0,0 1,2 1,1 0,1 0,0 1,2 0,-7 35,6-6,-6 97,14-124,2 1,0-1,2 1,1-1,11 40,-12-59,-1 0,1 0,0-1,1 1,0-1,0 0,0 0,1 0,-1-1,1 1,1-1,-1 0,7 4,-9-7,0 0,0-1,0 1,0 0,1-1,-1 0,0 0,1 0,-1 0,0-1,1 0,-1 1,1-1,-1 0,1 0,-1-1,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 0,0-1,0 0,0 1,0-1,0 0,3-3,6-7,-1 0,0-1,0-1,-1 1,-1-1,-1-1,0 0,-1 0,0 0,-1-1,-1 0,0 0,-2-1,3-17,-6 31,0-1,0 1,0-1,0 1,-1-1,1 1,-1-1,0 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 0,1 1,0-1,-1 1,0 0,0 0,0 0,0 0,0 0,-4-1,-4-1,1 0,-1 1,0 1,0-1,0 2,-1 0,-13 0,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5187">4049 133,'-7'1,"1"0,-1 0,1 1,0-1,-1 1,1 1,0-1,0 1,1 0,-1 1,1-1,-1 1,-4 5,-12 10,-32 36,35-34,-32 31,3 3,2 2,-61 98,98-137,1 1,1-1,0 2,2-1,0 1,1 0,1 0,0 27,2-17,1 0,2 0,1-1,1 1,9 29,-11-54,1 0,-1 0,1 0,0 0,0-1,1 1,-1-1,1 0,0 0,0 0,1 0,-1-1,1 0,0 1,0-2,0 1,6 2,5 2,1-1,0 0,0-1,23 3,-29-6,1-1,0 0,-1-1,1 0,-1-1,1 0,11-3,-18 3,1-1,0 0,-1 0,1 0,-1 0,0-1,0 0,0 0,0-1,0 1,-1-1,1 0,-1 0,0-1,5-6,21-42,-2-1,34-92,-57 133,3-9,-2 0,-1 0,0-1,-2 0,0 0,-1-24,-11-140,9 183,-1-6,0 0,0 1,-1-1,0 1,-1-1,0 1,-1 0,0 0,0 0,-7-8,8 12,-1 0,1 1,-2 0,1 0,0 0,-1 0,1 1,-1-1,0 1,0 0,-1 1,1-1,-1 1,1 0,-1 1,1-1,-12 0,-12-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 154,'9'-1,"1"-1,-2-1,1 0,1 0,-2 0,0-1,2 0,-3-1,1 0,1 0,11-11,5-1,-6 3,-13 9,0 1,1 0,-1-1,1 1,0 0,0 1,0 0,1 0,0 1,-1-1,1 1,11-1,-16 4,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,1-2,-2 2,0 0,1 0,-1 0,0 0,0-1,0 2,0-1,0 0,0 0,-1 0,1 0,-1-1,1 2,-1-1,0 2,3 13,-1 1,-1 26,-1-32,-9 523,9-513</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="376.98">553 815,'4'0,"2"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1715.02">1517 1,'-26'0,"16"-1,-2 1,1 0,0 1,-16 3,24-3,-1 0,0 0,1 1,0-1,-1 1,0-1,1 1,0 0,0 0,0 1,0-1,0 1,1 0,-2-1,2 1,-4 5,-20 42,3 0,1 1,-22 94,38-128,-5 28,1-1,3 2,0 71,14 135,-6-242,0-1,1 1,0-1,1 1,6 14,-9-22,0 0,1-1,0 1,-1-1,1 0,0 1,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,0-1,-1 1,0 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,1 0,1-1,-2 1,1 0,-1 0,1-1,-1 1,1-1,-1 0,1 1,-1-1,0 0,1 0,1-1,9-5,-1-3,1 0,-2 1,1-2,-2 1,0-1,10-15,-4 3,-1 0,19-48,-13 12,14-76,-29 111,-1 3,4-19,18-48,-17 63,-3 0,-1 0,-1-1,-1 0,-1 0,-4-50,2 72,-1 1,0-2,1 1,-1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,-6-4,2 3,1 1,-1 0,1 0,-2 1,1-1,1 1,-1 0,-1 1,1 0,-13-1,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2766.99">1985 154,'0'-4,"1"0,0 0,0 1,1-2,-1 1,1 1,0-1,0 0,0 0,0 2,2-2,-1 1,5-6,45-35,-45 38,2 0,-1 2,1-2,0 2,-1-1,2 2,-1-1,1 2,-1 0,15-2,-19 3,1 1,-2-1,1 2,0-1,-1 0,2 1,-1 0,-1 1,1-1,0 1,-1-1,0 1,1 1,-1 0,0-1,0 2,0-1,-1 0,1 1,7 7,2 6,-1 2,0-1,-1 1,-2 0,1 2,-3-1,0 1,-1 0,-1 0,-1 0,3 37,-5-29,-1 0,-2 1,-2-1,-1-1,-1 1,-2 0,0 0,-16 36,13-42,-1-2,-1-1,-1 1,0-2,-26 29,29-37,-1 0,-2-2,1 1,-1-1,0 0,-1-1,0 0,0-2,-1 1,-16 5,22-10,0 0,-1-1,1 0,0 0,-11 0,-8-8,26 7,0 0,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,2 0,-2 1,1-1,0 1,3-2,49-16,-38 14,-9 2,0 2,-1-1,1 0,1 1,-2 0,1 1,1-1,-2 1,1 1,1-1,9 3,2 2,-1 1,0 0,19 10,15 6,-26-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3810.02">3528 77,'-11'1,"-1"0,2 1,-2 0,2 0,-1 1,1-1,0 2,-15 7,-75 45,96-53,-26 16,1 1,1 1,2 1,0 1,-36 45,46-48,1 0,1 1,1 1,2 1,0-1,1 1,2 0,-8 34,7-6,-7 93,15-119,2 1,0-1,2 1,1-1,12 38,-13-56,-1 0,1 0,0-2,2 2,-1-1,0 0,0-1,1 1,-1-1,2 1,0-1,-1-1,8 5,-10-7,0 0,0-1,0 1,0 0,1-1,0 0,-1 0,1 0,-1-1,0 0,1 0,-1 1,2-1,-2 0,1 0,-1-1,1 1,-1 0,1-1,0 0,-1 0,1 0,-1 0,0-1,0 0,0 1,0-1,1 0,2-3,6-6,0-1,-1 0,1-2,-2 2,-1-2,0 0,-1-1,-1 1,1-1,-2 0,-1 0,0-1,-2 0,4-17,-7 30,0 0,0 0,0-1,0 1,-1-1,1 1,-1-1,0 1,0 1,-2-2,2 1,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 1,1 0,0-1,-1 1,-1 0,1 0,0 0,0 0,0 0,-4-1,-5 0,2-1,-2 1,1 1,-1-1,1 2,-2 0,-13 0,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5187">4216 128,'-7'1,"1"0,-1 0,0 1,1-1,-1 1,1 1,-1-2,1 2,1 0,-1 1,0-1,0 1,-4 4,-13 11,-33 34,36-33,-33 30,3 3,2 2,-64 94,103-132,1 1,0 0,1 1,2-1,0 1,1 1,0-1,1 26,2-16,1 0,2 0,1-1,2 0,8 29,-11-52,1 0,-1 0,2-1,-1 1,0-1,1 1,-1-1,1 0,0-1,1 1,0 0,-1-1,1 0,0 1,1-2,-1 1,6 1,6 3,1-1,-1 0,1-2,24 4,-31-6,2-1,-1 0,0-1,0 0,0-1,0 0,12-3,-19 3,1-1,1 0,-2 1,1-1,-1 0,1-1,-1 0,0 0,0-1,0 1,0-1,0 1,-1-1,0-1,5-6,23-40,-3-1,35-88,-58 127,2-8,-2 0,-1 0,1-1,-3 0,0 0,-1-24,-11-134,9 177,-1-7,0 0,-1 2,0-2,0 1,-1 0,0 0,-1 1,0-1,0 0,-8-7,9 11,-1 0,1 1,-3 1,2-1,0 0,-1 0,1 1,-1-1,-1 1,1 0,-1 2,1-2,-2 1,2 0,-1 1,1-1,-13 0,-12-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18685,16 +18884,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">56 1323,'-3'-1,"2"0,-1-1,0 0,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0-3,0 3,-7-25,2 0,0 0,2-1,1 0,2 1,1-1,0 0,9-45,1 15,3-1,3 2,24-62,-24 87,1 0,2 2,1 0,2 1,0 1,2 1,2 1,38-32,-55 51,1 0,-1 1,1 1,1-1,-1 2,1-1,0 1,16-4,5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="895.99">3 767,'9'0,"12"0,6 5,5 1,4 0,1-1,-1-2,3-1,3 8,-1 3,-8-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1876">718 0,'4'0,"11"0,16 5,7 1,-2 4,-4 1,-2 7,-6 5,-7 12,-7 9,-5 16,-3 1,-2-5,-1-7,-5-12,-6-9,-6-8,1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2697.99">1300 159,'-2'21,"-1"-1,-1-1,0 1,-1 0,-13 30,1-1,-7 26,-72 258,87-276,3 0,2 0,6 101,0-69,-2-83,6 92,-5-90,1 1,0 0,0-1,0 0,1 1,1-1,-1 0,10 14,2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3812.99">1432 688,'-4'2,"1"-1,0 0,0 1,1 0,-1 0,0-1,0 2,1-1,-1 0,1 0,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,-2 6,-1 1,-9 14,1 0,2 1,0 0,-13 50,21-63,1 1,0-1,0 0,1 1,1-1,0 1,1-1,0 1,1-1,0 1,1-1,0 0,6 13,-5-20,-1 0,1 0,0 0,0-1,1 1,-1-1,1 0,0 0,0-1,1 1,-1-1,1 0,-1-1,1 1,0-1,0 0,0-1,0 1,0-1,0-1,12 1,-9 0,1 0,-1-1,1-1,0 0,-1 0,1 0,-1-1,0-1,1 0,-1 0,0-1,-1 0,15-8,-16 5,1 1,-1-2,-1 1,1-1,-1 0,0 0,-1 0,0-1,0 0,-1 0,0 0,-1-1,0 0,-1 1,3-16,-1-12,-2 1,-4-71,1 86,1 17,0 0,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,-1 1,1 0,0 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,-6-3,-5-1,0 1,-1 1,1 1,-1 0,-16-1,-16-3,23 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4916.99">2252 794,'-49'-10,"11"-1,20 9,1 0,-1 2,0 0,0 0,-22 5,37-5,0 0,-1 1,1 0,0-1,-1 1,1 0,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 1,0-1,0 1,0 0,0 0,0-1,1 1,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,1 1,-1-1,1 0,0 1,1 4,-1-6,1 1,0-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,1 0,-1-1,1 1,-1-1,1 0,2 0,14 3,0-2,35-2,-35 0,-3 1,-1 0,1 1,-1 0,1 1,-1 1,0 0,15 6,-23-6,0 1,-1-1,0 1,0 0,0 0,0 1,0 0,-1 0,0 0,0 0,-1 1,1 0,-1 0,0 0,-1 1,1-1,2 9,0 4,0 1,-1-1,-1 1,-1 0,-1 0,0 1,-2-1,0 0,-1 1,-1-1,-5 20,6-37,-1 0,1 0,-1 0,0 0,1 0,-1 0,0-1,-1 1,1-1,0 0,-1 1,0-1,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 0,1 0,0-1,0 1,-1-1,-3 0,-13 2,1-2,-1-1,-25-3,28 2,-13-2,-48-11,67 12,0 0,0-1,0 0,1-1,0 0,-1-1,-13-10,6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5547.99">1829 1164,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6414">2332 212,'5'1,"0"0,0 0,-1 0,1 1,0-1,0 1,-1 0,1 1,-1-1,0 1,1 0,-1 0,4 5,48 48,-18-8,-1 1,-3 2,49 98,58 176,-121-273,-2 1,-2 1,-3 0,-2 1,-2 1,1 73,-10-89,-3 0,-10 64,10-90,0 0,-1 0,-1 0,0-1,0 1,-1-1,-1-1,-1 1,1-1,-17 18,19-24,-1-1,0 0,0 0,0-1,-1 1,0-2,1 1,-1-1,-12 4,1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7046.99">3337 926,'4'0,"6"0,11 0,29-4,36-6,32-2,26 1,-1 4,1 1,-15 3,-24 2,-30 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7678.99">3654 1217,'908'0,"-899"0,71 4,-74-3,-1-1,0 1,1 1,-1-1,0 1,1 0,-1 0,0 1,0-1,-1 1,8 5,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">58 1260,'-3'-1,"2"0,-1-1,0 0,0 1,0-1,1 0,-2 0,2 0,-1 0,1 1,0-1,0 0,0-1,0 1,0 0,0-1,0-2,0 2,-7-24,2 0,-1 1,3-2,1 0,2 2,1-2,0 1,9-44,2 15,2-1,4 2,24-60,-24 84,0 0,3 1,1 0,2 2,-1 0,3 2,2 0,40-30,-58 48,1 1,0 0,0 1,1-1,0 3,0-2,0 1,17-3,6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="895.99">3 730,'9'0,"13"0,6 5,5 1,5-1,0 0,-1-2,4-1,2 8,0 2,-9-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1876">744 0,'4'0,"12"0,16 5,7 0,-2 5,-3 0,-3 8,-6 4,-8 11,-6 9,-6 15,-3 1,-2-5,-1-6,-5-12,-7-8,-6-8,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2697.99">1347 151,'-2'20,"-1"-1,-1 0,0 0,-2 0,-12 28,0 0,-7 24,-74 246,89-262,4-1,2 0,6 97,0-67,-2-78,6 87,-5-85,2 1,-1-1,0 0,0-1,1 2,1-1,-1-1,11 14,1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3812.99">1484 655,'-4'2,"1"-1,-1 0,1 1,1 0,-1 0,0-1,0 1,1 0,-1 0,1 0,0 1,0 0,-1-1,1 1,0-1,1 1,-1 0,-2 6,-1 0,-10 14,2 0,1 1,1 0,-14 47,22-60,1 2,0-2,0 1,1 0,1-1,0 2,1-2,0 2,1-2,0 1,1 0,0-1,7 13,-6-19,-1 0,1-1,0 1,0-1,1 1,0-2,0 1,0 0,0-1,1 1,0-1,0-1,-1 0,1 1,0-1,1 0,-1-1,0 1,0-1,0-1,13 1,-10 0,2 0,-2-1,2-1,-1 0,-1 0,2 0,-2-1,0-1,2 0,-2 0,0 0,0-1,14-8,-15 6,0 0,-1-2,-1 2,2-2,-2 0,0 1,-1-1,0 0,1-1,-2 1,0-1,-1-1,0 1,-1 0,3-14,-1-13,-1 2,-6-68,2 82,1 16,0 1,-1-1,1 0,-1 0,0 0,0 1,-1-1,1 1,-1-1,1 0,-1 1,0 0,-1 0,1 0,0 0,-1 0,-1 0,1 0,0 1,0 0,0-1,0 1,-1 0,-7-3,-4 0,-1 0,0 1,0 1,0 0,-18-1,-15-2,23 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4916.99">2333 756,'-50'-10,"10"0,22 8,0 0,-1 2,1 0,-1 0,-22 5,38-5,-1 0,0 1,1 0,0-1,-1 1,1 0,0 1,0-1,-1 1,1-2,0 2,1 0,-1 0,0 0,1 0,-1 0,1 1,0-1,0 1,-1-1,1 1,0-1,1 1,-1 0,1 0,0 1,0-2,0 1,0 0,0 0,1 1,-1-1,1-1,0 2,1 4,-1-6,1 1,0-1,0-1,0 2,0-1,0 0,0 0,1 0,-1 0,1 0,-1 0,2 0,-1-1,0 0,0 1,0-1,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,1 0,0-1,0 1,-1-1,1 0,2 0,15 3,-1-2,37-2,-36 0,-3 1,-2 0,2 1,-2 0,2 0,-2 2,1 0,15 6,-24-6,1 0,-2 0,0 1,0 0,0 0,1 0,-1 1,-1 0,0 0,0 0,0 0,0 1,-1 0,0-1,-1 2,1-1,2 8,1 4,-1 1,-1-1,-1 1,-1 0,-1 0,0 1,-2-1,0 0,-1 1,-1 0,-5 18,6-36,-1 1,1 0,-1 0,0 0,1 0,-1 0,0-2,-1 2,0-1,1 0,-1 1,0-1,1 0,-1 0,0-1,0 1,0-1,0 0,-1 0,1 0,-1 0,1 0,0-1,0 1,-1-1,-4 0,-12 2,0-2,-1-1,-25-3,28 2,-13-1,-50-12,70 12,-1 1,1-2,0 0,0-1,1 0,-2 0,-12-10,5-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5547.99">1895 1108,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6414">2416 202,'6'1,"-1"0,0 0,-1 0,1 1,0-1,1 0,-2 1,1 1,-1-1,0 1,1 0,-1 0,5 4,49 47,-19-9,0 2,-4 2,51 92,60 169,-125-261,-3 2,-1 0,-4 1,-1 0,-3 1,1 70,-10-85,-3 0,-10 61,10-85,0-1,-2 0,0 1,0-2,0 1,-1 0,-2-2,0 2,1-2,-18 18,20-24,-1 0,-1 0,1 0,0-2,-1 2,-1-2,2 1,-1-1,-13 3,2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7046.99">3458 882,'4'0,"6"0,12 0,30-4,37-6,33-1,27 0,0 5,0 0,-16 3,-24 2,-31 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7678.99">3786 1159,'941'0,"-932"0,74 4,-77-3,0-1,-1 0,1 2,-1-1,0 1,2 0,-2 0,0 1,0-1,-1 1,9 4,-6 3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18721,20 +18920,20 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3970 480,'4'0,"16"0,12 0,11 0,11 0,5 0,-2 0,-2-4,-11-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="699.99">5002 294,'12'-8,"0"-2,0 0,-1 0,0-1,-1 0,0-1,-1 0,14-24,-5 10,-9 12,-4 6,0 1,1-1,0 1,14-13,-20 20,0 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,7 26,-4 21,-2 0,-2 0,-3 0,-10 55,13-96,-55 295,55-299,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,0 1,0 0,0 0,0 0,0-1,1 1,-1-1,1 1,-1-1,1 1,0-1,4 4,12 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1043.99">5425 718,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6215.14">636 559,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5121.14">1086 3,'45'-1,"-28"0,1 1,0 0,0 1,31 6,-46-6,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,1 1,-1 0,0 0,-1-1,1 1,0 0,-1 1,0-1,1 0,-1 0,0 0,-1 1,1-1,0 5,1 12,0 1,-2 38,0-37,-3 109,-38 251,34-344</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4541.14">1086 453,'9'0,"7"0,20 0,20 0,16 0,3 0,-5 0,-11 0,-11-9,-14-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3304.62">2198 30,'-21'0,"-5"0,0 0,-49 9,65-7,1 0,0 1,0 1,0 0,0 0,0 0,1 1,0 1,0-1,0 1,-8 9,9-8,1 0,0 1,0 0,1 0,0 0,0 0,1 1,0 0,0 0,1 0,1 1,-1-1,1 1,1-1,-1 13,2-17,0 0,0 0,0 0,1 0,0 0,0 0,0 0,0 0,1 0,0-1,0 1,0-1,1 1,-1-1,1 0,0 0,1 0,-1 0,0-1,1 1,0-1,0 0,0 0,0 0,0-1,1 1,-1-1,1 0,0 0,7 1,-6-1,-1 0,1 0,0-1,-1 0,1 0,0-1,0 1,-1-1,1 0,0-1,0 0,0 0,-1 0,1 0,0-1,-1 0,0 0,1-1,-1 1,0-1,0 0,0 0,-1-1,1 0,-1 0,0 0,0 0,0 0,0-1,-1 0,0 0,0 0,0 0,2-7,2 0,32-71,-37 77,0 1,0-1,0 0,-1 0,0 1,0-1,0 0,-1 0,0 0,0-1,0 1,-2-6,2 12,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,-14 14,-8 30,10-2,2 0,2 0,2 1,-3 51,5 174,6-248,0 0,1 0,1 0,6 21,3-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1941">2753 30,'0'0,"0"0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 0,0 1,-1-1,-17 19,-10 24,3 1,1 1,3 1,1 2,3 0,-22 95,0 113,38-249,-3 11,1 1,1-1,1 38,1-53,0-1,0 1,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,1 0,-1-1,1 1,-1-1,4 4,-4-5,1 0,0 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,3-1,1-1,0-1,1 0,-2 0,1 0,0-1,-1 0,0 0,0 0,0 0,-1-1,1 0,-2 0,1 0,4-11,5-9,-3 0,11-36,-18 53,0 0,-1 0,-1 0,1 0,-1 0,-1-14,0 20,0 1,-1 0,1 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,-3 1,-16-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-750">3282 136,'-12'1,"0"1,1 0,-1 0,1 1,0 1,0 0,0 0,-12 7,2 1,0 0,-36 29,49-34,0 0,0 1,1 0,0 1,1-1,-9 17,13-22,1-1,0 0,0 1,0 0,1-1,-1 1,0-1,1 1,0 0,-1 0,1-1,0 1,1 5,0-7,0 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1-1,0 1,2 0,10 2,0-1,1 0,-1-1,26-2,-30 0,-1 1,1 0,0 0,-1 1,1 0,0 0,-1 1,1 1,-1 0,0 0,0 0,17 10,-14-5,-1 1,0 0,-1 0,0 1,0 1,-1-1,-1 1,12 19,-17-24,0 0,0 0,0 0,-1 0,0 1,0-1,0 1,-1 0,0-1,0 1,-1 0,0 0,0-1,-1 1,0 0,0-1,0 1,-1 0,-5 12,4-13,-1 0,0 0,0 0,-1-1,0 0,0 0,0 0,-1 0,1-1,-1 0,0 0,0 0,-1-1,1 0,-1 0,1 0,-1-1,0 0,0-1,0 1,-12-1,-15 2,-1-1,0-2,-38-5,57 3,9 2,0-1,0 0,0-1,0 1,0-1,0-1,-6-2,-6-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2305.01">6351 294,'-20'1,"1"0,0 1,0 1,0 0,0 2,1 0,-1 1,1 1,1 1,-1 0,-16 12,23-13,1 0,0 1,1 0,0 0,0 1,1 0,0 1,1-1,0 2,0-1,1 1,0 0,1 0,1 1,0-1,0 1,1 0,-2 15,1 30,2 0,9 87,-7-140,0-1,0 0,1 1,-1-1,1 1,0-1,0 0,0 0,0 1,1-1,-1 0,1 0,0 0,0 0,0-1,0 1,1-1,-1 1,1-1,-1 0,1 1,0-1,0-1,6 4,-5-4,1 0,-1 0,1 0,0 0,-1-1,1 0,-1 0,1 0,0-1,-1 0,1 1,-1-2,1 1,-1 0,1-1,-1 0,7-4,12-7,0 0,-2-2,1 0,-2-1,0-2,-1 0,23-29,-33 35,0-1,-1-1,0 0,-1 0,0 0,-2-1,0 1,0-1,-1-1,-1 1,-1-1,0 1,0-27,-2 14,0 15,0-1,0 1,-1 0,-5-21,5 31,0-1,0 1,0 0,-1 0,1-1,-1 1,0 1,0-1,0 0,0 0,0 1,-1-1,1 1,-1 0,0-1,1 1,-1 1,0-1,0 0,-1 1,1-1,-4 0,-4-1,0 1,-1 0,1 1,0 0,0 1,-1 0,1 1,0 0,-1 1,1 0,0 0,-13 6,-25 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3429.99">6457 294,'0'-4,"1"0,0 0,0 0,0 0,1 1,0-1,-1 0,1 1,1-1,-1 1,0-1,1 1,4-5,0 1,1-1,-1 1,1 1,12-8,-16 12,0 0,0 0,0 0,0 0,0 1,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,1 1,-1-1,1 1,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,0 1,-1 0,1-1,4 6,6 6,-1 0,0 1,-1 1,0 0,12 23,-13-21,81 149,-81-144,-1 0,-2 1,0 0,-1 1,5 35,-11-51,0 0,-1-1,0 1,0 0,-1 0,0-1,-1 1,0-1,0 1,-1-1,0 0,0 0,-1 0,0 0,-1-1,-8 13,4-11,0 1,0-2,-1 1,0-1,-1-1,0 0,0 0,0-1,-1-1,-21 8,13-6,4-1,0 0,-1 0,1-2,-1 0,0-1,-1 0,-33-1,49-2,0 0,1 0,-1 0,0 0,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,-1-3,1 3,1-1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 1,0-1,0 0,0 1,1-3,5-6,0 0,1 1,0-1,16-13,-19 19,20-19,0 2,2 0,43-25,-62 42,-1 0,1 0,0 1,-1 0,2 1,-1-1,0 2,0-1,1 1,-1 0,0 1,1 0,-1 0,1 1,-1 0,0 0,1 1,-1 0,12 6,20 11,-29-12,0-1,1-1,0 0,0 0,1-1,17 3,37 0,6-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4624.99">7833 268,'-9'0,"1"0,0 1,-1-1,1 2,0-1,0 1,0 0,0 1,0 0,1 0,-1 1,1 0,0 0,0 0,0 1,0 0,1 1,0-1,-7 10,-22 21,2 2,-40 62,64-87,0 1,1 0,1 1,1 0,0 0,1 0,0 1,1 0,1 0,1 0,-2 32,7-7,1 0,12 48,-12-72,1-1,0 0,1 0,1 0,0 0,2-1,-1 0,14 15,-20-26,1-1,0 0,0 0,0 0,0 0,0 0,1-1,0 1,-1-1,1 0,0 0,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,0-1,0 0,1 0,-1 0,0 0,9-2,-8 0,-1 1,1-1,0-1,-1 1,1 0,-1-1,0 0,0 0,0-1,0 1,-1-1,1 1,-1-1,0 0,0-1,0 1,-1 0,1-1,-1 1,2-7,1-6,-1 0,0 0,-1-1,-1 1,-1-1,0 1,-2-1,0 1,0-1,-2 1,0 0,-1-1,-1 2,-7-18,10 30,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,-1 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1 0,0 1,0-1,0 1,1 0,-1 0,0 0,-4 1,-20 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5622.99">8680 321,'-17'1,"0"1,0 0,1 1,-1 1,1 0,0 2,0 0,-18 9,-17 12,-50 36,39-24,24-16,0 2,-69 60,96-73,-1 0,1 0,1 1,0 0,1 1,1 0,0 1,0 0,2 0,0 0,-7 27,9-24,1 0,0 1,1 0,1-1,1 1,1 0,3 19,-3-31,0 0,1-1,0 1,0-1,1 1,-1-1,2 0,-1 0,0 0,1 0,0-1,1 1,-1-1,1 0,0 0,0-1,1 1,-1-1,1-1,0 1,0-1,7 3,6 1,1 0,-1-2,1 0,0-2,0 0,0-1,1-1,-1 0,33-5,-41 2,1 0,-1 0,0-1,0-1,0 0,0-1,-1 0,1 0,-2-2,1 1,0-1,-1-1,-1 0,1 0,-1-1,13-16,-9 8,-1-1,0 0,-2-1,0-1,-1 1,-1-1,0-1,-2 0,-1 0,0 0,-1 0,-2-1,0 1,-1-1,-1 0,-4-26,3 43,0 0,0 1,0-1,-1 0,1 0,-1 0,-1 1,1-1,0 1,-1 0,0 0,0 0,0 0,-1 0,0 1,1-1,-1 1,0 0,0 0,-1 0,1 1,-1-1,1 1,-1 0,0 1,1-1,-1 1,-8-1,-13-2,0 1,0 2,-1 1,-36 4,6-1,12-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7135.99">1 1009,'1'-1,"0"-1,1 0,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,0 0,0-1,0 2,0-1,0 0,0 0,4 0,43-7,-34 6,189-15,287 10,-304 9,4122 1,-2390-5,-1793 6,243 40,117 60,-247-48,257 27,-355-78,-79-4,-24 4,-25 2,-13-7,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,-1-1,1 0,0 1,0-1,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 0,-25 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4117 465,'4'0,"17"0,12 0,12 0,11 0,5 0,-2 0,-2-4,-11-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="699.99">5187 285,'13'-8,"-1"-2,1 1,-2-1,0-1,0 1,-1-2,-1 0,15-23,-5 10,-10 12,-4 5,1 1,0-1,0 2,15-14,-21 20,0 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,2 1,-2-1,0 0,1 1,-1-1,0 1,1-1,-1 1,7 25,-4 21,-2-1,-2 1,-3-1,-11 54,14-93,-57 285,57-289,0 0,1 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,1-1,0 1,0 0,0 0,0-1,0 0,1 1,-1-1,2 1,-2-1,1 1,0-1,4 4,13 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1043.99">5626 695,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6215.14">660 541,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5121.15">1126 3,'47'-1,"-30"0,2 1,0 0,-1 1,33 6,-48-6,1 1,-1-1,0 1,0-1,0 1,-1 0,1 0,0 0,-1 1,0-1,2 1,-2 0,0 0,-1-1,1 1,0 0,-1 0,0 0,1 0,-1 0,0 0,-1 1,1-1,0 5,1 11,0 1,-2 37,0-35,-3 104,-39 244,34-333</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4541.15">1126 439,'10'0,"6"0,21 0,22 0,15 0,4 0,-5 0,-12 0,-11-9,-15-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3304.62">2279 29,'-21'0,"-6"0,0 0,-51 9,68-7,0 0,1 1,0 0,-1 1,1 0,0 0,0 1,1 1,0-1,-1 0,-7 10,8-8,2-1,0 2,0 0,1 0,-1-1,1 1,1 1,0 0,0-1,1 1,1 1,-1-2,0 2,2-1,-1 12,2-16,0 0,0 0,0-1,1 1,0 0,0 0,0 0,1 0,0-1,0 0,0 1,0-1,1 1,-1-1,1 0,0 0,1-1,-1 1,1-1,0 1,0-1,0 0,0 0,0 0,0-1,2 1,-2-2,1 1,0 0,8 1,-7-1,-1 0,1 0,0-1,0 0,0 0,0-1,0 1,0-1,0 0,0-1,0 0,0 0,0 0,0 0,0-1,-1 0,0 0,2-1,-2 1,0 0,0-1,0 0,0-1,0 0,-1 0,0 0,0 0,0 0,0 0,0-1,-1 0,0 0,0 0,2-6,2-1,34-68,-39 74,0 1,0-1,0 0,-1 1,0 0,0-1,0 0,-1 0,0 1,0-2,0 1,-2-6,2 12,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,-15 13,-8 30,11-3,1 1,3 0,2 0,-4 50,6 169,6-241,0 1,1-1,2 0,5 21,3-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1941">2855 29,'0'0,"0"0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,-2 0,2 1,0-1,-1 0,1 0,0 0,0 1,-1-1,-17 19,-11 22,3 2,1 1,3 0,1 3,4-1,-24 92,1 110,39-241,-3 10,1 2,0-2,2 37,1-51,0-1,0 1,1 0,-1 0,2 0,-1 0,0 0,0-1,0 1,1-1,-1 0,1 1,-1-1,4 4,-4-5,1 0,0 0,0 0,-1 0,1 0,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1-1,-1 1,0-1,3-1,1-1,0-1,2 0,-3 0,1 1,0-2,-1 0,1 0,-1 0,0 0,-1 0,1-1,-2 0,2 0,3-10,5-10,-2 1,10-35,-17 52,-1-1,-1 0,-1 0,1 1,-1-1,-1-13,0 19,0 1,-1 0,1 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,0 1,0-1,1 0,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,-2 1,2-1,-3 1,-17-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-750">3404 132,'-13'1,"1"1,0 0,0-1,0 2,1 1,0 0,-1 0,-12 7,3 0,-1 1,-37 28,50-34,1 1,0 1,0 0,1 0,1 0,-10 16,14-21,1-1,0 0,0 1,0 0,1-1,-1 1,0-1,1 1,0-1,-1 1,1-1,0 1,1 5,0-7,0 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,2 0,-2 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1-1,0 1,2 0,11 2,-1-1,2 0,-1-1,26-2,-31 0,0 1,0 0,0 0,0 1,0 0,1 0,-2 1,1 1,0-1,-1 1,0 0,18 10,-14-5,-2 0,0 1,0 0,-1 0,1 2,-2-1,-1 0,13 19,-18-23,0 0,0 0,0 0,-1 0,1 0,-1 0,0 1,-1 0,0-2,0 2,-1 0,0 0,0-1,-1 0,0 1,0-1,0 1,-1 0,-6 11,5-12,-1 0,0-1,0 1,-1-1,-1 0,1 0,0 0,-1-1,1 0,-2 0,1 0,0 0,-1-1,0 0,0 0,1-1,-1 0,-1 0,1-1,0 1,-13-1,-15 2,-1-1,-1-2,-38-5,58 3,10 2,0-1,-1 0,1-1,0 1,0-1,-1 0,-5-3,-7-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2305.01">6586 285,'-21'1,"2"0,-1 1,0 0,1 1,-1 2,1 0,0 1,0 1,1 0,0 1,-18 11,25-12,1 0,-1 1,2-1,0 1,-1 1,2 0,0 0,0 0,1 2,0-2,1 2,-1 0,2-1,1 2,0-1,0 0,1 1,-3 14,2 29,2 0,9 85,-7-136,0-1,0-1,2 2,-2-1,1 1,0-1,0 0,0 0,0 1,1-1,-1-1,1 1,0 0,0 0,0-1,0 1,1-1,-1 1,1-1,0 0,0 1,0-1,0-1,6 3,-5-3,2 0,-2 0,1 0,0 0,-1-1,1 0,0 0,0 0,0-1,-1 0,1 1,-1-2,2 1,-2 0,1-1,-1 1,7-5,13-7,0 1,-2-3,1 1,-2-2,-1-1,0-1,24-27,-35 33,0-1,-1 0,1-1,-2 1,0-1,-2 0,1 0,-1 0,-1-2,-1 2,-1-2,0 2,0-27,-2 14,0 14,0 0,0 0,-1 1,-5-21,5 30,0-1,0 1,0 0,-1 0,1-1,-1 1,0 1,0 0,0-1,-1 0,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 1,0-1,0 0,-2 1,2-1,-4 1,-4-2,-1 1,0 0,0 1,1 0,0 1,-2 0,2 1,-1 0,0 1,0 0,1 0,-14 5,-26 11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3429.99">6696 285,'0'-4,"1"0,0 0,0 0,0 0,1 1,0 0,-1-1,2 1,0-1,-1 1,0-1,1 1,4-5,0 2,2-2,-2 1,1 1,13-7,-17 11,0 0,0 0,1 0,-1 0,0 1,0 0,1 0,-1 0,2 0,-2 1,1-1,-1 1,0 0,1 1,0-1,0 1,-1 0,1 0,-1 0,0 1,0-1,1 1,-1 0,0 0,0 0,0 1,-1 0,1-1,5 5,5 7,0-1,-1 2,0 0,-1 1,13 22,-14-21,85 145,-85-140,0 0,-3 1,0 1,-1 0,6 34,-12-49,0-1,-1 0,0 1,0 0,-1-1,0 0,-1 1,0-1,0 0,-1 0,-1 0,1-1,-1 1,0 0,-1-1,-9 12,5-10,0 0,-1-1,0 1,0-1,-2-2,1 1,-1 0,1-1,-1-1,-23 7,15-5,3-1,0 0,0-1,0-1,0 0,-1-1,-1 0,-34-1,51-2,0 0,1 0,-1 0,0 0,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,1 0,0 0,0 0,0-1,0 1,0 0,-1-2,1 2,1-1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 1,0-1,0 1,0 0,1-3,6-6,-1 0,1 2,0-2,17-12,-19 18,19-18,1 1,2 1,45-25,-65 41,0 1,0-1,0 1,-1 0,3 1,-2-1,0 2,1-1,0 1,-1 0,1 1,0 0,-1 0,2 1,-2 0,0 0,1 1,0 0,11 6,22 10,-31-11,1-1,0-1,1-1,-1 1,2-1,17 3,38 0,7-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4624.99">8123 259,'-9'0,"0"0,1 1,-1-1,1 2,-1-1,1 1,0 0,-1 1,1 0,1 0,-2 1,2 0,0 0,0-1,-1 2,1 0,1 1,0-1,-8 9,-22 21,2 2,-42 60,67-85,-1 2,2-1,1 2,1-1,-1 1,2 0,0 0,1 0,1 1,1-1,-2 32,7-7,1-1,12 47,-11-69,0-2,0 1,1-1,1 1,1-1,1 0,-1-1,15 15,-21-25,1-1,0 0,0 0,1 0,-1 0,0 0,1-1,0 1,-1-1,1-1,1 1,-1-1,0 1,0-1,0 0,0 0,1 0,0 0,-1-1,0 0,1 0,-1 0,0 0,10-2,-9 0,-1 1,1-1,1-1,-2 2,1-1,-1-1,0 0,0 0,0-1,1 1,-2-1,1 1,-1-1,0 1,0-2,0 1,-1 0,2-1,-2 1,2-6,1-7,-1 1,0-1,-1 0,-1 0,-1 0,0 1,-2-2,0 2,0-2,-2 2,0-1,-1 0,-1 1,-8-17,11 30,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 1,-1-1,1 1,0 0,0 0,-1 0,1 1,-1-1,1 1,-2-1,1 1,1 0,-1 0,0 1,0-1,0 1,1 0,-2 0,1 0,-4 1,-21 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5622.99">9001 311,'-17'1,"-1"1,1 0,0 1,-1 0,2 1,-1 2,1 0,-20 8,-17 13,-51 34,39-24,26-14,0 1,-72 58,99-70,0-1,0 1,2 0,0 1,0 1,2-1,0 2,-1-1,3 1,0-1,-8 27,10-24,1 1,0 0,1 1,1-2,1 1,1 1,3 18,-3-31,0 1,1-1,0 1,0-1,2 0,-2 0,2 0,-1 0,0 0,1-1,0 0,1 1,0-1,0 0,0 0,0-2,1 2,0-1,0-1,0 1,0-1,8 3,5 0,2 1,-1-2,1 0,-1-2,1 0,0-1,1-1,-2-1,35-3,-42 1,0 0,0 0,-1-1,1-1,-1 0,0-1,0 0,0 1,-1-3,0 1,1-1,-2 0,-1-1,2 0,-2-1,14-15,-10 8,0-2,-1 1,-2-2,1 0,-2 1,-1-2,1 0,-3 0,-1-1,0 1,0 0,-3-2,0 2,-1-1,-1-1,-4-24,3 41,-1 0,1 1,0 0,-1-1,1 0,-1 0,-1 1,1-1,0 1,-1 1,0-1,0 0,0 0,-2 0,1 1,1-1,-1 1,0 1,0-1,-2 0,2 1,-1-1,1 1,-1 0,0 1,0-1,0 1,-8-1,-14-2,0 1,0 2,-1 1,-37 4,5-1,14-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7135.99">1 977,'1'-1,"0"-1,1 0,0 0,-1 1,1-1,0 1,0-1,1 1,-1 0,0 0,0-1,0 2,0-1,0 0,0 1,4-1,45-7,-35 6,195-15,298 11,-315 8,4275 0,-2479-3,-1859 4,251 40,122 58,-256-47,267 26,-369-75,-82-4,-25 4,-25 2,-14-7,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 0,-26 10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18793,15 +18992,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">26 609,'66'-16,"-14"9,1 3,92 4,-142 1,0-1,0 1,0 0,-1 0,1 0,0 1,0-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,0 1,-1-1,1 1,0-1,-1 1,1 0,0 3,4 8,0 1,-1 0,3 16,-7-25,11 56,-3 1,-3 0,-3 0,-7 112,2-160,0 1,-1-1,0 1,-1-1,-1 0,0 0,-1-1,-1 0,0 0,-1 0,-13 17,8-15,-1-1,0-1,0 0,-2 0,0-2,0 0,-1-1,-24 12,36-20,0-1,0 0,-1 0,1 0,-1 0,1-1,-1 0,1 0,-1-1,0 0,1 0,-1 0,0 0,1-1,-1 0,1 0,-1-1,1 1,-1-1,1-1,0 1,0-1,0 1,0-1,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-5-8,3 4,0 1,1-1,0 0,0-1,1 1,0-1,0 1,1-1,0 0,1 0,0 0,0 0,1 0,0 0,1 0,-1 0,2 0,0 0,0 0,4-12,-2 15,-1 1,1 0,0 0,0 0,1 0,0 1,-1 0,1 0,1 0,-1 0,0 1,1 0,0 0,0 0,11-3,10-2,0 1,33-5,-41 10,-1 0,1 2,-1 0,1 1,-1 0,1 2,-1 0,0 1,0 1,-1 0,1 2,31 16,-16-4,-1 1,-1 2,-1 1,-1 1,34 36,-38-31,-9-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="644">1084 503,'-34'76,"4"1,3 1,-24 114,45-165,1 1,1 0,1-1,1 1,2 0,1 0,1 0,1 0,1-1,2 1,1-1,18 48,-15-52,0-1,1 0,2 0,0-1,1-1,21 24,-27-35,0-1,1-1,0 1,0-2,1 1,0-1,0 0,0-1,1 0,0-1,0 0,0-1,0 0,1-1,15 2,3-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1604.99">1640 741,'0'5,"0"14,0 18,0 8,0 8,0 10,0-2,0-2,0-6,0-4,0 3,0-2,0-5,0-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2458.52">1349 1296,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3755.51">2010 714,'0'-4,"1"-1,0 1,0-1,0 0,1 1,0 0,0-1,0 1,0 0,1 0,-1 0,1 1,0-1,0 0,7-4,0-2,0 2,1-1,0 1,13-6,-15 9,1 0,-1 1,1-1,0 2,0 0,0 0,1 1,-1 0,1 0,-1 2,20-1,-24 2,0 0,0 1,0-1,-1 1,1 1,0-1,-1 1,1-1,-1 2,0-1,0 0,0 1,-1 0,1 0,-1 1,0-1,0 1,-1 0,1 0,-1 0,5 10,1 5,-1 1,-1 1,0-1,-2 1,0 1,2 42,-4-1,-7 76,4-128,-1 1,-1-1,0 1,0-1,-1 0,-1 0,0-1,-1 1,0-1,-1 0,0 0,0 0,-1-1,-1 0,0 0,0-1,-1 0,0-1,-19 15,-8 2,-48 28,72-47,0 0,0 0,-1-2,1 1,-1-1,0-1,0-1,-23 3,34-5,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1-1,-1 1,0-1,1 0,-1 0,1 0,0 1,0-1,-1 0,1-1,1 1,-1 0,0 0,0 0,1 0,-1-1,1 1,0 0,0-1,-1 1,2 0,-1 0,0-1,0 1,2-4,-1-3,1-1,0 1,0 0,1 0,0 0,1 0,0 0,10-15,-7 15,1 1,0 0,0 0,0 1,1 0,0 1,1 0,-1 0,1 1,0 0,0 1,1 0,0 0,-1 1,1 1,0 0,0 0,0 1,18 1,-12 0,0 1,0 1,0 0,0 2,0 0,0 0,-1 2,0 0,0 1,-1 0,1 1,15 12,-24-14,0-1,0 0,1-1,-1 0,1 0,0 0,1-1,-1-1,0 1,1-1,-1 0,1-1,0 0,0-1,-1 0,1 0,0-1,9-1,5-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4930.52">3466 661,'-1'-1,"1"-1,-1 0,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,0 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-3 0,-45-13,40 12,-17-5,-91-18,104 23,0 1,0 0,0 1,0 0,0 1,-25 5,34-4,0 0,0 0,1 0,-1 0,1 1,0-1,-1 1,1 0,0 0,1 0,-1 0,1 1,-1-1,1 1,0 0,0-1,0 1,1 0,0 0,-1 0,1 0,1 0,-1 0,0 1,1 7,-1 2,0 0,1 1,1-1,1 0,0 0,5 20,-6-31,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,0 0,0-1,0 1,0-1,1 0,-1 1,1-1,-1 0,1 0,0-1,-1 1,1-1,0 1,0-1,0 0,6 1,4 0,1 0,-1-1,1-1,22-2,-25 1,0 1,0-1,1 2,-1-1,0 2,13 2,-12 1,-1 0,0 1,0 0,0 1,-1 0,0 0,0 1,-1 0,0 1,0 0,-1 1,-1 0,1 0,-2 0,1 1,-1 0,7 20,-8-19,-1 0,0 1,-1-1,-1 1,0 0,0 0,-1 0,-1 0,0 0,-1 0,0 0,-1 0,-1 0,0 0,-1-1,-9 23,11-31,-1 0,0 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,-1-1,0 1,1 0,-1-1,0 0,-6 0,-12 2,0-1,0-2,-25-1,18-1,-20 3,18 0,-43-5,68 4,0-1,0-1,0 1,0-1,0 0,0-1,0 0,1 0,0 0,-1-1,-8-6,-1-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5747.51">3466 370,'6'1,"1"0,0 0,-1 1,1 0,-1 0,1 0,-1 1,0 0,0 0,0 0,0 1,-1 0,1 0,-1 1,0-1,-1 1,6 6,10 14,-1 0,21 38,-26-39,18 25,41 74,-66-109,0 0,-2 1,0 0,-1 0,0 0,-1 1,1 17,0 21,-3 1,-2-1,-2 1,-19 95,18-137,0-1,-1-1,0 1,-1-1,0 0,-1 0,-13 16,-3-1,-36 33,25-28</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6547.51">8096 0,'4'0,"6"0,7 0,8 0,9 0,9 0,5 0,-1 0,-4 0,-5 5,-8 5,-10 6,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7116.51">7778 397,'4'0,"11"0,17 0,15 0,9 0,0 0,9 0,-4 0,-6 0,1 0,-1 0,-5 0,-2 0,0 0,-4 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 585,'69'-15,"-15"8,1 3,96 4,-148 1,0-1,0 1,0 0,-1 0,1 0,0 1,1-1,-2 1,1-1,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 1,-1-1,2 1,-1-1,-1 1,1-1,0 4,4 8,0 0,-1 1,4 14,-8-23,11 54,-2 0,-4 1,-3-1,-7 108,2-153,0 0,-1-1,-1 2,0-2,-1 1,0-1,-1-1,-2 1,1-1,-1 1,-14 16,8-15,0-1,-1 0,1-1,-3 1,0-3,1 1,-2-2,-24 12,36-19,1-1,0 0,-1 0,0 0,0 0,1-1,-1 0,1 0,-2-1,1 0,1 0,-1 0,-1 0,2-1,-1 0,1 0,-1-1,0 1,0-1,1-1,0 1,0-1,-1 1,1 0,1-2,-1 1,1-1,-1 0,1 0,0 1,0-1,1 0,-5-8,2 5,1 0,1-1,0 1,0-2,1 1,-1 0,1 0,1-1,0 1,1-1,0 0,0 1,1-1,0 0,1 1,-1-1,2 0,0 1,0-1,5-11,-3 14,-1 1,1 1,0-1,0 0,1 0,1 1,-2 1,1-1,1 0,-1 0,1 1,0 0,0 0,0 0,12-2,10-3,0 1,35-4,-44 9,0 0,1 2,-1 0,0 1,0 0,1 2,-1 0,-1 0,1 2,-1 0,0 2,33 15,-16-4,-2 1,-1 2,-1 2,0 0,34 34,-39-29,-9-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="644">1127 483,'-35'73,"4"1,3 1,-25 109,46-158,2 1,1 0,1-1,1 1,2 0,1 0,1 0,1 0,1-1,2 0,2 0,18 46,-16-50,1 0,0-1,2 0,1-1,1-1,21 24,-28-35,1 0,0-1,0 0,1-1,0 1,0-1,1-1,-1 0,2 0,-1-1,1 0,-1-2,0 1,2-1,15 2,3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1604.99">1706 712,'0'5,"0"13,0 17,0 9,0 6,0 11,0-2,0-3,0-5,0-4,0 3,0-2,0-5,0-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2458.52">1403 1245,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3755.51">2090 686,'0'-4,"1"-1,0 1,0 0,0-1,2 1,-1 0,0-1,0 1,0 1,1-1,-1 0,1 1,0-1,0 0,8-3,-1-3,1 2,0 0,1 0,12-5,-14 8,0 0,0 1,0-1,0 2,1 1,-1-1,2 1,-2 0,1 0,0 2,20-1,-25 2,1 0,-1 1,0-1,-1 1,1 1,1-2,-2 2,1-1,-1 2,1-1,-1 0,0 1,-1 0,1-1,-1 2,1-1,-1 1,-1 0,1-1,-1 1,6 10,0 4,-1 1,-1 1,1-1,-3 1,0 2,2 39,-3-1,-9 74,5-124,-1 2,-1-2,0 2,0-1,-1-1,-1 1,0-2,-2 2,1-2,-1 1,0-1,0 1,-2-1,0-1,0 1,-1-2,0 1,0-1,-21 14,-7 2,-50 27,74-46,1 1,-1 0,0-2,0 1,0-2,-1 0,1-1,-25 3,36-5,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,-2 1,2-1,0 0,0 0,0 0,0 0,0 0,0-1,0 2,0-1,1-1,-1 1,-1-1,2 0,-1 0,1 0,0 1,0-1,-1 0,1-1,1 1,-1 0,0 1,0-1,1 0,-1-1,1 1,0 0,0-1,-1 1,2 0,-1 0,0-1,0 2,2-5,-1-3,1 0,0 0,0 0,1 1,1-1,0 0,0 1,10-15,-6 14,0 1,0 1,1-1,-1 1,1 0,1 2,0-1,-1 0,2 1,-1 1,1 0,0 0,1 0,-2 1,1 1,1 0,-1 0,1 1,18 1,-12 0,-1 1,1 1,0 0,-1 2,1 0,0 0,-2 2,1-1,0 2,-2 0,2 0,15 13,-25-15,1 0,-1 0,1-1,-1 0,2 0,-1-1,1 0,0-1,-1 1,1-1,0 0,0-1,0 0,1-1,-2 0,2 0,-1-1,10-1,5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4930.52">3605 635,'-2'-1,"2"-1,-1 0,1 1,-1-1,0 1,0-1,1 1,-1-1,0 2,0-1,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,-2 0,-47-12,42 11,-18-5,-95-17,109 22,-1 1,1 0,-1 1,1 0,-1 1,-25 5,34-4,1 0,0 0,1 0,-1-1,1 2,0-1,-2 1,2 0,0 0,1 0,-1 0,1 1,-1-2,1 2,0 0,0-1,0 1,0 0,1 0,-1-1,1 1,1 0,-1 0,0 1,1 6,-1 3,0-1,1 2,1-2,1 0,0 1,6 19,-7-31,0 1,0 0,0 0,0 0,1 0,-1-1,1 1,0-1,0 0,0 1,0-1,1 0,0 1,0-1,-1 0,1 0,0-1,-1 1,1-1,0 1,0-2,1 1,5 1,4 0,2 0,-1-1,0-1,24-2,-27 1,0 1,1-1,0 2,0-1,-1 2,14 2,-12 1,-2 0,1 0,-1 1,0 1,0 0,-1-1,1 2,-2 0,0 0,1 1,-2 1,-1-1,2 1,-3-1,1 2,-1 0,8 18,-9-17,-1-1,0 2,0-2,-2 2,0-1,0 1,-1-1,-1 1,0-1,-1 1,0-1,-1 1,-1-1,-1 1,0-2,-9 23,11-30,-1 0,-1-1,1 1,0 0,-1-1,1 1,-1-1,0 0,-1-1,1 1,0 0,0-1,-1 1,1-1,-2-1,1 1,1 0,-1-1,0 0,-7 0,-12 2,0-2,0-1,-26 0,19-2,-21 3,19 0,-45-5,71 4,-1-1,1-1,0 1,0-1,-1 0,1-1,0 0,1 0,-1 0,0 0,-9-7,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5747.51">3605 355,'6'1,"1"0,0 0,0 1,0 0,-1 0,1 0,0 1,-1 0,0 0,0-1,1 2,-2 0,1 0,-1 1,0-1,0 0,5 7,11 13,-1 0,21 37,-26-38,18 24,43 71,-69-105,0 1,-1 0,-1 1,-1-1,0 0,-1 2,1 15,1 21,-4 1,-2-1,-3 1,-18 91,17-132,1 0,-1-2,0 2,-1-1,-1-1,0 1,-14 15,-3-1,-37 31,26-26</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6547.51">8420 0,'4'0,"6"0,8 0,8 0,9 0,10 0,5 0,-1 0,-5 0,-4 5,-9 4,-10 7,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7116.51">8089 381,'4'0,"12"0,17 0,16 0,9 0,0 0,10 0,-5 0,-5 0,0 0,-1 0,-5 0,-2 0,0 0,-4 0,-10 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19001,16 +19200,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">328 1164,'9'0,"7"0,6 0,4 0,6-4,2-2,0 1,7-5,2-3,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1325">1307 423,'-3'1,"0"0,0-1,0 1,0 0,0 1,0-1,0 0,1 1,-1-1,0 1,1 0,0 0,-1 0,1 0,0 1,-3 3,-30 43,13-12,1 2,1 1,-18 55,30-72,2 0,0 0,1 1,2 0,0 0,2 0,2 43,0-61,0 0,0 0,0-1,1 1,-1 0,2-1,-1 1,1-1,-1 1,1-1,1 0,-1 0,1-1,0 1,0-1,6 5,-3-3,1-1,1 0,-1 0,1-1,0 0,0 0,0-1,0 0,12 1,14 1,0-2,0-1,0-2,48-6,-80 6,1 0,0-1,-1 1,1-1,-1 0,1 1,-1-2,1 1,-1 0,0-1,1 1,-1-1,0 0,0 0,0 0,-1-1,1 1,0-1,-1 0,1 1,-1-1,3-5,-2 0,0-1,0 0,-1 0,0 0,-1 0,0-1,0-14,4-17,11-51,-10 67,-1 0,-1 0,-1 0,-1 0,-2 0,0-1,-5-31,3 51,1-1,-2 1,1 0,-1 0,0 0,0 1,0-1,-1 1,0-1,0 1,0 0,-1 1,0-1,0 1,0 0,0 0,0 0,-10-4,-7-2,0 1,0 1,-41-8,46 11,-17-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1811">1889 820</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3104">2419 185,'-18'15,"0"0,0-2,-25 14,2-2,14-7,0 2,1 0,-26 27,43-37,0 0,0 1,1 0,1 1,0-1,0 2,1-1,1 1,0-1,-5 21,4-11,1 1,2 0,0 0,1 0,2 24,0-42,0-1,0 1,1-1,0 1,0-1,0 1,0-1,1 1,0-1,0 0,0 0,0 0,0 0,1 0,0-1,0 1,0-1,0 1,1-1,-1 0,1-1,0 1,-1 0,1-1,0 0,1 0,-1 0,0-1,1 1,-1-1,1 0,5 0,0 1,0-1,0 0,0-1,-1 0,1-1,0 0,0 0,13-5,-18 5,-1-1,0 0,1 0,-1 0,0-1,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 0,-1 0,0 0,1 0,-1 0,2-8,79-224,-76 209,-2-1,0 1,-2-1,0-36,-3 59,-1 696,1-683,1 0,-1 0,1 0,1 0,0 0,0 0,5 12,4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3685">2736 265,'0'9,"0"17,0 17,0 19,0 22,0 10,4 2,2-10,0-11,3-14,0-8,-1-9,-2-7,-3-5,-1-4,-1-12,-1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4656">3054 291,'-9'1,"0"0,0 1,0-1,1 1,-1 1,1 0,0 0,0 1,0 0,0 0,0 1,1 0,0 0,0 1,0 0,1 0,0 0,0 1,1 0,-1 0,2 1,-1-1,-5 13,3-5,0 0,1 0,1 0,1 0,0 1,1 0,0 0,1 0,1 0,1 0,0 0,4 22,-3-33,0 0,0 0,1 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 1,0-1,1 0,-1-1,1 1,0 0,0-1,0 0,1 0,-1 0,1-1,-1 1,1-1,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,0-1,0 0,0 0,1 0,-1-1,0 1,0-1,0-1,0 1,0-1,0 1,0-2,0 1,-1 0,1-1,-1 0,1 0,-1 0,0-1,-1 1,8-8,-4 1,-1-1,1 1,-2-1,1 0,-1-1,-1 1,0-1,-1 0,3-18,-3 8,-1-1,-1 0,-1 0,-4-26,4 46,0 0,-1 0,0 0,1 0,-1 0,0 0,-1 0,1 0,0 1,-1-1,1 0,-3-2,-8-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5906">2921 741,'-20'19,"2"1,1 0,0 1,2 1,-25 44,36-56,-1 1,1-1,1 1,0-1,0 1,1 0,1 0,0 0,0 1,1-1,0 0,1 0,1 0,0 0,0 0,6 17,-3-16,0 0,1 0,0 0,1-1,0 0,1 0,17 18,-22-26,0 0,0 0,0 0,0 0,1-1,0 1,-1-1,1 0,0 0,0-1,0 1,0-1,0 1,0-1,0-1,1 1,-1-1,0 1,0-1,1 0,-1-1,0 1,0-1,1 0,-1 0,0 0,0 0,5-4,-3 2,0-1,0-1,-1 1,0-1,0 0,0 0,0-1,-1 1,4-7,34-62,-31 54,2-4,4-6,26-64,-40 86,-1-1,1 1,-1-1,0 1,-1-1,0 0,-1 0,0 0,0 1,-1-1,0 0,0 0,-3-9,2 15,0-1,0 1,0-1,0 1,-1 0,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,0 0,1 0,-1 0,0 1,-7-1,-17-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6704">222 106,'-5'1,"0"0,0 0,1 0,-1 0,1 1,-1 0,1-1,-1 2,1-1,0 0,0 1,0 0,0 0,1 0,-1 1,-4 5,-5 7,0 0,-14 26,13-16,1 0,1 1,1 1,2 0,1 0,1 1,1 0,-3 57,6 5,15 143,-7-169,4-1,31 119,-32-156,1 0,2-1,1 0,1-1,1 0,1-1,1 0,1-2,25 26,-18-23,-11-11,1 1,0-2,0 0,2 0,0-1,0-1,1-1,0-1,19 9,21 1,84 18,-81-27</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7765">3186 0,'6'0,"1"0,0 0,0 1,0 0,0 0,-1 0,1 1,12 5,-14-4,-1 0,0 0,0 0,0 1,0 0,0 0,-1 0,1 0,-1 0,0 0,-1 1,4 5,20 47,-3 1,-2 1,-2 1,14 88,-14-44,-6 0,2 157,-17-237,-1-1,-1 0,-1 0,-1-1,-1 1,-1-1,-1-1,-1 1,-1-2,-22 32,-62 112,49-73,34-65</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8578.52">3715 635,'4'0,"7"0,5 0,4 0,4 0,12 0,3 0,4 0,0 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">342 1120,'9'0,"8"0,6 0,4 0,6-4,3-2,-1 1,8-4,2-4,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1325">1362 407,'-3'1,"0"0,0-1,0 1,0 0,0 1,0-1,-1 0,2 1,-1-1,0 0,1 1,0 0,-1 0,1 0,0 1,-4 3,-30 41,13-11,1 1,1 2,-18 52,30-69,3 0,0 0,1 1,1 1,1-1,2 0,2 41,0-58,0 0,0-1,0 0,2 1,-2 0,2-1,-1 0,1 0,-1 1,1-1,1 0,-1-1,2 0,-1 1,0-1,6 5,-2-4,0 0,1 0,0 0,0-1,0-1,1 1,-1-1,1 0,12 1,14 1,0-2,1-1,-1-2,51-6,-84 6,1 0,0-1,0 1,0-1,-1 0,1 1,-1-2,1 1,-1 0,1-1,0 1,-1-1,0 0,0 0,0 0,-1 0,1 0,1-1,-2 0,1 1,-1-1,3-5,-2 1,0-2,0 0,0 1,-1-1,-1 0,0 0,0-14,4-17,12-48,-11 64,-1 0,-1 0,-1 0,0-1,-3 1,0-1,-6-29,4 48,1-1,-2 1,1 1,-1-1,0 0,0 1,-1-1,0 2,0-2,0 1,0 0,-1 1,-1 0,1 0,0 0,0 0,0 0,-11-4,-7-1,0 0,0 1,-43-7,49 10,-19-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1811">1969 789</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3104">2522 178,'-19'14,"0"1,0-3,-26 14,3-2,14-6,-1 1,2 0,-27 26,45-35,-1 0,1 0,1 1,0 0,1 0,0 1,0 0,2 0,0 0,-5 20,3-11,2 1,2 0,0 0,1 0,2 24,0-42,0 0,0 1,1-1,0 1,0-1,0 0,0 0,1 1,0-1,0 0,0 0,0-1,1 1,0 0,0-1,0 1,0-1,0 1,1-1,-1-1,2 0,-1 1,-1 0,1-1,0 0,1 0,0 0,-1-1,1 1,-1-1,1 0,6 0,-1 1,1-2,-1 1,1-1,-2 0,1-1,1 1,-1-1,14-5,-19 5,0-1,-1 0,1 0,-1 0,0-1,0 0,0 0,0 1,-1-1,1 0,-1-1,0 1,0-1,1 0,-2 1,0-1,1 0,-1 0,2-8,83-215,-80 201,-2-1,0 2,-2-2,1-35,-4 57,-1 670,1-657,1-1,-1 1,1 0,1-1,0 1,0 0,5 11,5-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3685">2852 255,'0'9,"0"16,0 16,0 19,0 20,0 11,4 1,2-9,1-11,2-13,0-8,0-9,-3-6,-3-5,-1-5,-1-10,-1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4656">3183 280,'-9'1,"0"0,-1 1,1-1,1 1,-2 1,2-1,0 1,-1 1,1 0,0 0,-1 1,2 0,0-1,-1 2,1 0,1 0,-1-1,1 2,1 0,-1 0,2 0,-2 0,-4 12,3-4,-1-1,2 1,1-1,1 0,0 2,0-1,1 1,1-1,1 0,1 1,0-1,4 22,-3-32,0-1,0 1,2 0,-1 0,0 0,0-1,1 0,-1 1,1-1,0 1,0-1,2-1,-2 0,1 1,0 0,0-1,0 0,2 0,-2 0,1-2,-1 2,1-1,1 0,-1-1,0 1,0-1,0 0,2 0,-2 0,0-1,0 0,1 0,0 0,-1-1,0 1,0-1,1-1,-1 1,0-1,0 1,0-2,1 1,-2 1,1-2,-1 0,1 0,0 0,-1-1,-1 1,8-7,-3 0,-2-1,1 2,-2-2,2 1,-2-2,-1 2,0-2,-1 0,4-16,-4 6,-1 0,-1 0,-1 0,-4-25,4 44,0 0,-1 0,0 0,1 0,-1 1,0-1,-2 0,2 0,0 1,-1-1,1 0,-3-2,-8-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5906">3045 713,'-21'18,"2"1,1 1,1 0,1 1,-26 43,38-55,-1 2,1-2,1 2,0-1,-1 0,2 1,1-1,0 1,0 0,1 0,0 0,1-1,1 1,0-1,1 1,5 16,-3-16,0 1,2-1,-1 1,1-1,0-1,2 1,17 17,-23-25,0-1,0 1,0 0,0 0,2-1,-1 1,-1-1,1 0,0 0,0-1,1 1,-1-1,0 0,0 0,0-1,2 1,-2-1,0 1,0-1,1 0,-1-1,1 1,-1-1,1 0,-1 0,0 1,0-1,6-4,-4 2,0-1,1-1,-2 1,0 0,0-1,0 0,1-1,-2 1,4-6,36-60,-33 51,3-3,4-6,27-61,-42 82,-1 0,1 0,-1-1,0 2,-1-2,0 0,-1 1,0-1,0 1,-1 0,0-1,0 0,-3-8,2 14,0-1,0 1,-1-1,1 2,-1-1,1 0,-1 0,0 1,0-1,0 1,0-1,-1 1,1 0,-1 1,1-1,-1 1,1-1,-1 1,-1 0,1 0,1 0,-1 0,0 1,-8-1,-17-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6704">231 102,'-5'1,"0"0,0 0,1 0,-2 0,2 1,-1 0,1-1,-1 1,0 0,1 0,0 1,0 0,0 0,1 0,-2 1,-3 4,-5 8,-1-1,-14 26,13-16,2 0,0 1,2 1,1-1,2 1,1 1,1 0,-4 55,7 4,16 139,-8-164,4 0,33 114,-34-150,2 0,1-1,1 0,2-1,1 0,0-1,2 0,1-2,25 25,-18-22,-11-10,1 0,-1-1,1-1,1 1,1-2,0 0,1-1,-1-2,21 10,21 0,88 17,-84-25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7765">3321 0,'6'0,"2"0,-1 0,0 1,0 0,1 0,-2 0,1 1,13 5,-15-5,0 1,-1 0,0 0,0 1,0 0,0 0,-1-1,2 1,-2 0,0 0,-1 1,4 4,21 46,-3 1,-2 1,-2 1,14 84,-14-42,-6 0,1 151,-17-228,-1-1,-1 0,-1 1,-1-2,-2 1,0-1,-1-1,-2 1,0-1,-24 30,-64 107,51-69,36-63</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8578.52">3872 611,'5'0,"6"0,6 0,4 0,4 0,12 0,4 0,4 0,-1 0,-7 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19067,16 +19266,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1086,'0'5,"4"1,11-1,7-5,4-2,3-2,0 1,5 0,5-4,6 0,-2 0,-2 3,-4 0,-5 2,-2 1,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2547.07">1138 345,'-1'-1,"1"0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,-2 0,-34 1,26 3,0 1,0-1,1 2,0 0,0 0,0 1,1 0,0 0,1 1,-1 0,1 1,-10 14,-6 12,1 0,-18 41,40-74,-3 5,0 0,0 0,-1-1,0 1,0-1,-1 0,0-1,0 1,0-1,-11 7,0-3,0-1,-35 13,-4 0,31-5,25-15,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,0 1,0-1,1 0,4 1,-1 0,1 0,0 0,-1 0,1-1,0 0,-1 0,10-1,-4 0,1-1,-1 0,1-1,-1 0,0 0,0-1,-1 0,1-1,-1 0,11-8,-15 9,0-1,0 1,-1-1,1 0,-1 0,0 0,-1 0,1-1,-1 0,0 0,0 0,-1 0,0 0,0 0,0 0,-1-1,1-12,0-51,-2 47,1-1,0 0,8-32,-2-10,-7 56,1 1,-1-1,2 0,-1 0,1 1,1-1,0 1,5-12,-8 20,0 0,0 0,1 1,-1-1,0 1,1-1,-1 0,0 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 2,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,-1-1,1 1,0 5,-1 2,0 0,-1 1,0-1,-1 0,0 1,-1-1,-5 14,-37 72,4-10,21-30,-49 113,51-133,-69 150,80-166,0 0,1 0,1 1,1-1,1 1,1 0,0 34,3-53,-1 0,0 0,0 1,1-1,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,-1-1,1 1,0-1,0 1,3 1,0-1,-1 0,1 0,0-1,-1 1,1-1,0 0,0-1,0 1,0-1,5 0,2-1,0 0,1-1,-1-1,0 1,0-2,-1 0,1 0,10-7,17-11,-2-2,0-1,-2-2,-1-2,-1-1,-2-2,28-36,-50 54,-2-1,0 0,-1-1,0 0,-1 0,-1 0,-1 0,0-1,0-24,9-36,-5 46,-2-1,-1 1,-1-1,-3-49,-1 70,0 1,-1 0,0 0,-1 0,0 1,0-1,-10-17,10 22,-1-1,0 1,0 0,0 0,0 1,-1-1,0 1,0 0,0 0,0 1,0 0,-1 0,-11-5,-5 5,4 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2887.07">1615 1271,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4054.07">2144 372,'-12'0,"1"0,-1 1,0 0,1 1,0 0,-1 1,-11 4,16-4,-1 1,1 0,1 1,-1 0,1 0,0 0,0 0,0 1,1 0,0 0,-5 9,0-1,0 2,1-1,1 1,1 1,0-1,1 1,-6 32,11-43,0 0,0-1,1 1,0 0,0 0,1-1,0 1,0 0,0-1,0 1,1-1,3 7,-3-8,1 0,-1-1,1 1,0-1,-1 0,2 0,-1 0,0-1,0 1,1-1,0 1,-1-1,1 0,0-1,0 1,0-1,0 1,7 0,-8-1,1 0,-1 0,0 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,0 1,1-2,-1 1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0-1,-1 1,1 0,-1-1,0 0,0 0,0 1,0-1,0 0,-1-1,3-5,1-9,0 1,-2-1,0 0,-1-1,0-27,-1 15,0 8,2 1,0 0,1 0,2 0,0 0,1 1,15-31,-22 50,1 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,1-1,-2 2,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,1 1,-1-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 2,3 7,0 1,-1-1,0 1,1 17,9 332,-3-40,1-46,-6-251,2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5568.14">2488 451,'2'-2,"1"0,0 0,1 0,-1 0,0 1,0-1,1 1,-1 0,1 0,-1 0,1 0,3 0,50-3,-38 3,5 0,19-2,1 1,58 7,-91-4,0 1,0 0,0 0,0 1,0 1,0 0,-1 0,0 1,0 0,0 1,-1 0,0 1,0 0,10 10,-14-12,-1 1,0 0,-1 0,1 0,-1 0,-1 0,1 0,-1 1,0 0,0-1,-1 1,0 0,0 0,-1-1,0 1,0 9,-2-2,1 0,-2 1,0-1,-1-1,0 1,-10 21,12-32,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,0 1,0-1,1 1,-1-1,0 1,1 0,0-1,0 0,0 1,1-1,-1 0,1 1,-1-1,1 0,0 0,0 0,1-1,-1 1,4 3,4 8,-1 0,0 1,-1 0,0 1,-1 0,-1 0,-1 0,0 1,3 22,0 11,0 96,-7-140,-1 1,0-1,-1 0,0 1,1-1,-2 0,1 1,-1-1,0 0,0 0,-5 8,4-11,1 1,-1-2,0 1,0 0,0 0,-1-1,1 0,0 0,-1 0,1 0,-1 0,0-1,0 1,0-1,0 0,0 0,0-1,0 1,-7-1,-33 2,0-2,-58-8,41 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6308.14">3678 424,'-8'2,"1"-1,0 1,0 1,0-1,0 1,1 0,-1 1,1-1,0 1,0 1,0-1,0 1,1 0,-5 6,-11 7,19-17,-140 127,129-113,0 0,0 0,2 1,0 0,0 1,2 1,-13 31,21-46,-1 1,1-1,0 0,1 0,-1 1,0-1,1 0,0 1,0-1,0 1,0-1,0 0,1 1,0-1,-1 0,1 1,2 3,-1-5,0 1,0-1,0 0,0 0,0 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 0,0 0,0 0,-1 0,1-1,0 1,0-1,0 0,4 1,57 1,76-6,-35 0,-68 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6752.14">3784 610,'0'14,"0"17,-5 22,-5 15,-2 15,2 1,-7-4,-1-7,4-11,21-34,10-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7411.14">4366 451,'-1'16,"0"-1,-1 0,-1 0,0 0,-1 0,-7 19,-45 83,43-93,0 0,2 1,1 0,1 1,0 0,-4 32,11-48,1 1,0 0,1 0,0 0,3 13,-3-21,1-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,4-1,27 2,-1-3,1 0,-1-2,61-14,-50 4,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7900.14">4631 424,'8'35,"-2"0,0 1,-3-1,-1 71,-2-50,0 131,-1-54,19 162,-16-269,-2-20,1 1,-1-1,1 1,1 0,-1-1,1 0,4 12,-5-18,-1 1,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 0,1 0,0 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,1-1,-1 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1-1,0 0,11-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8763.14">4657 1,'4'0,"1"-1,0 1,0 0,-1 1,1-1,0 1,0 0,-1 0,1 0,-1 0,1 1,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,-1 0,5 5,13 15,-2 0,0 1,-2 1,0 0,-2 2,12 27,64 181,-39-90,-3-28,47 133,-85-214,-1 0,-3 1,0 0,-3 0,1 42,-5-15,1-7,-11 89,7-134,-1 0,0 1,-1-2,0 1,-1-1,-1 0,1 0,-2 0,1-1,-1 0,-1-1,0 0,0 0,-1-1,0 0,-15 9,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1045,'0'5,"4"1,12-1,7-5,4-2,4-2,-1 1,6 0,5-3,6-1,-2 0,-2 3,-4 0,-6 2,-1 2,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2547.07">1193 332,'-1'-1,"1"0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,0 0,-2 0,-36 1,28 3,-1 0,1 0,0 2,1 0,-1 0,1 0,0 1,1 0,0 1,0-1,1 2,-11 13,-6 12,0-1,-18 41,42-72,-3 4,0 1,0 0,-1-2,-1 2,1-1,-1 0,-1-1,1 0,0 0,-12 7,0-4,0 0,-36 12,-5 1,33-6,26-14,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,0 1,0-1,1 0,4 0,0 1,0 0,0 0,-1 0,1-1,1 0,-2 0,11-1,-5 0,2-1,-2 1,2-2,-2 0,1 0,-1-1,0 0,0-1,-1 1,12-9,-15 9,-1-1,0 2,-1-2,2 0,-2 0,0 0,-1 0,1 0,-1-1,1 0,-1 0,-1 1,0-1,0 0,0 0,-1 0,1-13,0-48,-2 45,1-1,0 0,9-31,-3-10,-7 54,1 2,-1-2,2 1,-1-1,2 1,0 0,0 0,5-11,-8 19,0 0,0 0,1 1,-1-1,0 1,1-1,-1 0,0 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,2 1,-2 0,1-1,-1 1,1-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 0,1 1,-2-1,1 1,-1-1,1 2,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,0-1,0 1,-1-1,1 1,0 5,-1 1,0 1,-1 0,0 0,-1 0,0 0,-1 0,-5 13,-40 69,5-9,22-29,-51 109,53-128,-72 144,84-160,-1 0,2 0,1 2,1-2,0 1,2 0,0 33,3-51,-1 0,0 0,0 1,1-1,0 0,-1 0,1 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,1 0,-1-1,1 1,0-1,0 1,4 1,-1-2,-1 1,1 0,0-1,0 1,0-1,0 0,0-1,1 1,-1-1,5 0,3-1,-1 0,2-1,-1-1,-1 1,1-1,-2-1,2 0,10-7,18-10,-2-2,0-1,-3-2,0-2,-1-1,-3-2,30-34,-53 51,-1 0,-1 0,-1-2,1 1,-2-1,-1 1,-1 0,0-2,0-22,10-35,-6 44,-1-1,-2 1,-1-1,-3-47,-1 68,0 0,-1 0,0 1,-1-1,-1 2,1-2,-10-16,9 21,0-1,0 1,0 1,0-1,0 1,-2-1,1 1,0 0,0 1,-1 0,1 0,-1 0,-12-5,-5 5,4 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2887.07">1694 1224,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4054.07">2248 358,'-12'0,"0"0,0 1,-1 0,1 1,1 0,-2 1,-11 4,17-5,-2 2,2 0,1 1,-2 0,2 0,0-1,0 1,-1 1,2 0,0 0,-6 8,1-1,-1 3,2-2,1 2,0 0,1-1,1 2,-7 30,12-41,0 0,0-2,1 2,0 0,0 0,1-2,0 2,0 0,0-1,0 1,1-2,3 8,-2-8,0 0,-1-1,1 0,0 0,-1 0,2 0,0 0,-1-1,0 1,1-1,0 1,-1-1,2-1,-1 0,0 1,0-1,0 1,8 0,-9-1,1 0,-1 0,0 0,2-1,-2 1,1-1,-1 0,1 0,-1 0,2-1,-2 1,1-1,-1 0,0 1,2-2,-2 1,0 0,0-1,0 1,0-1,0 0,1 1,-1-1,0-1,-1 1,1 0,-1-1,0 0,0 0,0 1,1-1,-1 1,-1-2,3-5,1-8,0 0,-1 0,-1 0,-1-2,0-25,-1 14,0 8,2 1,0 0,1 0,3-1,-1 1,1 1,16-30,-23 48,1 1,1-1,-2 1,1-1,0 1,0 0,0-1,0 1,0 0,0 1,0-1,1 0,-1 0,0 0,1 0,1-1,-2 2,-1 0,1 0,-1 0,2 0,-1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,1 1,-1-1,1 1,-1-1,0 0,0 0,1 1,-1-1,0 2,3 7,0 1,-1-2,0 2,2 16,8 320,-2-39,0-45,-6-240,3-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5568.14">2609 434,'2'-2,"1"0,0 0,2 0,-2 1,0 0,0-1,1 1,-1 0,2 0,-2 0,1 0,3 0,53-3,-40 3,5 0,20-2,1 1,61 7,-95-4,-1 1,1 0,-1 0,1 1,0 1,-1-1,0 1,-1 1,0 0,1 1,-2-1,1 2,-1 0,11 9,-15-11,0 1,-1 0,-1-1,1 1,-1 0,-1 0,2 0,-2 0,0 1,0-1,-1 1,0-1,0 1,-1-1,0 1,0 8,-2-2,1 1,-2 0,0 0,-2-2,1 2,-10 19,11-30,2 0,-1 0,1 1,0-1,0 1,0-1,0 0,1 0,-1 1,1-1,0 1,0-1,1 1,-1-1,0 0,1 1,0-1,0 0,0 1,1-1,-1 0,1 1,0-2,0 1,0 0,0 0,1-1,-1 1,4 3,5 7,-2 1,1 0,-2 1,0 0,0 0,-2 1,-1-1,1 2,2 20,0 11,1 93,-8-135,-1 0,0 0,-1 0,0 1,1-2,-2 1,1 1,-2-1,1-1,0 1,-5 8,4-11,1 0,-1-1,-1 1,1 0,0 0,-1-1,1 0,0 0,-2 0,2 0,-1 0,0-2,0 2,0-1,-1 0,1 0,0-1,0 1,-8-1,-34 2,0-2,-61-8,43 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6308.14">3857 408,'-9'2,"2"-1,0 1,-1 1,1-1,0 1,1 0,-2 0,2 0,0 1,-1 1,1-1,0 1,0-1,-4 7,-12 6,20-16,-147 123,135-110,1 0,-1 1,3 0,-1 1,0 0,3 1,-14 31,22-46,-1 2,1-1,0 0,1 0,-1 1,0-1,1 0,0 0,0 0,0 1,0-1,0 0,1 1,0-1,-1 0,1 0,2 4,-1-5,0 1,0-1,0 0,0 0,0 0,2 0,-2-1,1 0,-1 0,1 1,-1-1,1 0,0 0,1 0,-2 0,1-1,0 1,0-1,0 0,5 1,59 1,80-6,-37 0,-72 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6752.14">3968 587,'0'14,"0"16,-5 21,-6 14,-1 15,1 1,-7-4,0-7,3-10,22-33,11-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7411.14">4578 434,'-1'16,"0"-2,-1 0,-1 1,0-1,-1 1,-8 18,-47 79,46-89,-1 0,3 1,0 0,2 2,-1-1,-3 30,11-45,0 1,1-1,1 1,0-1,4 13,-4-20,1-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,1-1,-1 1,1 0,0-1,-1 1,1 0,1-1,-1 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,2 0,-2-1,0 1,4-1,29 2,-2-3,2 0,-2-2,65-14,-53 5,-10-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7900.14">4856 408,'9'34,"-3"0,0 0,-3 0,-1 68,-2-48,0 126,-1-52,20 156,-17-259,-2-19,1 0,-1 0,1 1,2 0,-2-2,1 1,4 12,-5-18,-1 1,0-1,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 0,1 0,0 1,-1-1,2 0,-2 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,1-1,-1 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1-1,0 0,12-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8763.14">4884 1,'4'0,"1"-1,0 1,0 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 1,-1 0,2 0,-2-1,0 2,0-1,0 1,1 0,-2 0,5 5,14 14,-2 0,0 1,-2 1,0 0,-3 2,14 26,66 174,-40-86,-4-27,50 127,-90-205,0 0,-4 0,0 1,-2-1,0 42,-5-16,1-6,-12 86,8-130,-1 1,0 0,-1-1,-1 0,0 0,-1-1,1 1,-3 0,2-2,-2 1,0-1,0-1,-1 1,0-1,-1-1,-15 10,-12-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19270,17 +19469,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">292 767,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1954.99">1 1376,'0'-5,"1"-1,0 0,0 0,1 0,-1 1,1-1,4-6,6-21,35-240,-7 30,6 37,-46 202,1 1,0-1,0 1,0-1,1 1,-1 0,1-1,0 1,-1 0,1 0,1 0,-1 0,0 1,1-1,0 0,-1 1,1 0,0 0,0 0,0 0,1 0,-1 0,0 1,1 0,-1 0,1 0,-1 0,5-1,6 1,0 0,-1 0,1 1,0 1,-1 0,19 5,-3 3,-6 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2727.02">27 767,'9'0,"12"0,6 0,5 0,-1 0,1 0,-2 0,-1 0,-1 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3960.99">1165 79,'-8'10,"1"1,0-1,1 1,0 0,1 1,0-1,1 1,-4 16,-11 26,-65 138,-75 186,120-273,8-26,3 2,4 0,-17 106,40-176,1 1,0-1,1 1,0-1,1 0,0 1,1-1,0 0,1 0,0-1,0 1,1-1,1 0,0 0,13 16,10 9,1-2,61 52,-32-32,-30-25,-5-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4718">371 0,'6'1,"0"0,1 0,-1 0,0 1,1 0,-1 0,0 1,0-1,-1 1,1 1,0-1,-1 1,0 0,0 0,0 0,-1 1,1 0,-1 0,6 9,7 11,-1 1,23 54,-24-48,-8-14,0-1,-1 1,-1 0,0 1,-2-1,3 33,-7 114,-3-70,4-66</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5670">1165 979,'0'-2,"1"-1,-1 0,1 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,1 1,-1-1,3-1,1-1,0 0,0 1,1-1,-1 1,1 1,7-3,-6 4,0-1,0 2,0-1,1 1,-1 0,0 1,0 0,1 0,-1 1,0 0,0 0,-1 1,1 0,0 0,-1 1,0 0,0 0,7 6,14 12,-1 1,-1 1,24 30,29 26,-35-44,-5-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6191">1853 556,'-5'5,"-6"19,-14 19,-3 7,-10 3,-4 7,-3 2,1 0,4-7,4 1,9-4,-1-7,-5 3,-4 1,-7 3,6-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6760">1932 1191,'4'0,"2"5,0 5,-1 6,-2 5,-1 3,-1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7785">2250 106,'0'9,"2"-1,-1 1,1-1,0 0,1 0,0 0,8 14,3 11,36 96,-6 3,41 203,-61-158,-7 2,-10 280,-8-439</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8482.99">2779 952,'4'0,"6"0,7 0,3 0,9 0,3 0,5 0,20 0,39 0,27 0,10 0,-13 0,-18 0,-22 0,-24 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9194">3070 1349,'4'0,"20"0,19 5,16 6,11 0,17 4,2-1,-10-3,-13-3,-14-3,-15-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">305 740,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1954.99">1 1328,'0'-5,"1"-1,0 0,0 1,1-1,-1 1,1-1,5-5,5-21,37-232,-7 30,6 35,-48 195,1 1,0-1,0 2,0-2,2 1,-2 0,1-1,0 1,-1 0,1 0,1 0,-1 1,0 0,1-1,1 0,-2 1,1 0,0 0,0 0,0 0,1 0,0 0,-1 1,1 0,-1 0,1 1,-1-1,6-1,5 1,1 0,-1 0,0 1,1 1,-2 0,21 4,-4 4,-6 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2727.02">28 740,'10'0,"12"0,6 0,5 0,0 0,0 0,-1 0,-2 0,-1 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3960.99">1219 76,'-9'10,"2"1,0-2,0 2,1-1,1 2,0-1,0 0,-3 16,-12 25,-68 134,-78 178,125-262,9-26,2 2,5 0,-18 103,42-171,1 2,0-2,1 2,0-1,2-1,-1 2,1-2,0 1,1 0,0-2,0 2,2-1,0-1,0 1,14 15,10 9,2-2,63 50,-33-31,-32-24,-5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4718">388 0,'6'1,"1"0,0 0,-1 0,0 1,2 0,-2 0,0 1,1-2,-2 2,1 1,0-1,0 1,-1 0,0 0,0 0,-1 0,2 1,-2 0,6 9,8 10,-1 1,24 52,-26-46,-7-14,-1 0,-1 0,0 0,-1 2,-2-2,3 32,-7 111,-3-69,4-63</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5670">1219 945,'0'-2,"1"-1,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,1 0,-1-1,1 1,0 0,0 0,-1 0,1 0,1 0,0 1,-1-1,3-1,1-1,1 1,-1 0,1-1,-1 1,2 1,6-3,-5 4,-1-1,0 2,1-1,0 1,0 0,-1 1,0 0,2 0,-2 1,1 0,-1 0,-1 1,2 0,-1 0,-1 1,1-1,-1 1,8 6,14 11,-1 1,-1 2,26 28,29 25,-36-42,-5-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6191">1938 537,'-5'4,"-7"20,-14 17,-3 7,-11 3,-4 7,-3 2,1 0,4-7,5 1,9-4,-2-6,-4 2,-5 1,-7 3,6-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6760">2021 1149,'4'0,"2"5,1 5,-2 5,-2 5,-1 4,-1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7785">2353 102,'0'9,"3"-1,-2 0,1 0,0 0,1 0,0-1,9 14,2 11,39 93,-7 2,42 196,-62-152,-9 2,-9 270,-9-424</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8482.99">2907 919,'4'0,"6"0,8 0,3 0,9 0,4 0,5 0,20 0,42 0,27 0,11 0,-13 0,-19 0,-24 0,-24 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9194">3211 1302,'4'0,"21"0,20 5,17 5,11 1,18 3,2 0,-10-4,-14-2,-14-3,-17-3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19335,15 +19534,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">114 589,'-5'82,"-3"-1,-32 141,19-125,-10 125,29-189,-2 30,2 1,6 70,-2-117,0 0,1 0,1 0,1 0,0 0,1-1,1 0,0 0,1-1,1 0,1 0,18 22,-24-33,0 0,1 0,0 0,0-1,0 1,0-1,0-1,1 1,-1-1,1 0,0 0,0 0,8 1,5-1,0-1,35-1,-46-1,21 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="740">431 1118,'5'-11,"0"0,1 1,0-1,1 1,0 0,1 1,0-1,0 2,17-14,-3 4,1 0,1 2,26-13,-42 25,0 0,1 0,0 1,-1 0,1 0,0 1,1 0,-1 1,0 0,0 1,1 0,-1 0,0 0,12 4,-9-1,-1 0,1 1,-1 1,0 0,-1 0,1 1,-1 1,0 0,17 15,-5 0,-2 1,0 0,-1 2,-2 0,0 1,-2 1,21 51,27 113,-45-126,36 83,-37-112</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1229">1304 906,'-5'0,"-10"5,-11 10,-11 16,-8 12,-10 12,-4 6,8 1,7-9,12-10,16-12,10-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1958.03">1410 1409,'9'5,"3"5,-1 20,3 4,-2 6,-2 0,-3-2,-3-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2512.02">1437 1012,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3456.99">1860 1171,'0'5,"0"5,0 11,0 6,0 2,0 6,0 2,0-2,0-2,0-1,0-3,0-1,0-1,0-1,4 0,2-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4120.99">1728 1515,'0'5,"4"1,7-1,5 0,13-2,7-1,15-1,40 0,30-1,9-1,-4 1,-19 0,-28 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5069">2627 1435,'4'-5,"1"0,-1-1,0 0,-1 0,0 0,4-9,6-10,59-91,113-139,-184 253,0 0,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,1 0,-1 0,1-1,0 1,0 0,-1 1,1-1,0 0,0 0,0 1,3-1,-4 2,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 1,-1 0,0-1,0 1,0-1,0 1,0 0,0 1,5 96,-4 1,-25 192,21-262,-20 130,23-138</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5991.55">3051 7,'1'-1,"1"1,-1-1,1 0,0 0,-1 1,1-1,0 0,0 1,0 0,-1-1,1 1,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 1,-1-1,1 1,0 0,-1-1,1 1,2 2,43 25,-44-26,18 14,-1 1,-1 1,-1 0,0 2,-1 0,-2 1,0 0,-1 1,-1 1,-1 0,-1 1,-1 0,13 48,-2 20,-3 1,7 140,-18-157,18 122,-11-111,-4 0,-3 157,-14-201,-1 0,-2 0,-2-1,-33 74,20-49,9-24,-4 14,-39 75,50-116,0 0,-1-1,0 0,-1-1,-1 0,0-1,-1-1,-1 0,-17 13,4-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">119 567,'-5'79,"-3"-1,-34 136,20-121,-11 121,31-183,-2 30,2 1,6 67,-2-113,0 0,2 1,0-1,1 0,0 1,2-2,0 1,0-1,2-1,0 1,1-1,20 22,-26-32,0 0,1-1,1 1,-1-1,0 1,0-1,1-1,0 1,-1-1,2 0,-1-1,0 1,9 1,5-1,0-1,36-1,-47-1,21 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="740">452 1076,'5'-10,"0"-1,2 1,-1 0,1 0,1 0,0 2,0-2,1 3,17-15,-3 5,1 0,1 1,28-12,-45 25,1-1,0 0,0 1,0 0,0 0,1 1,0 0,0 1,-1 0,0 1,2 0,-2 0,1 0,12 4,-10-1,0 0,1 1,-2 1,1-1,-2 1,2 1,-2 1,1 0,17 14,-5 0,-2 1,0 0,-1 2,-2 0,0 1,-3 1,23 49,28 109,-47-121,38 79,-40-107</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1229">1367 872,'-5'0,"-11"5,-11 9,-12 16,-8 12,-11 10,-3 7,7 1,8-9,12-10,18-11,9-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1958.03">1478 1356,'10'5,"2"5,0 19,3 3,-3 7,-1-1,-4-1,-3-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2512.02">1507 974,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3456.99">1950 1127,'0'5,"0"5,0 10,0 6,0 2,0 5,0 3,0-2,0-3,0 0,0-3,0-1,0-1,0-1,4 0,3-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4120.99">1812 1458,'0'5,"4"1,8-1,4-1,15-1,7-1,15-1,42 0,32-1,10-1,-5 1,-20 0,-29 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5069">2755 1381,'4'-5,"1"1,-1-2,0 0,-1 0,1 1,3-10,7-9,61-88,119-133,-193 243,0 0,0 1,1-1,-1 1,0-1,0 1,2-1,-2 1,1 0,-1 1,1-2,0 1,0 0,-1 1,1-1,0 0,0 0,0 1,4-1,-5 2,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,2 1,-2 0,0-1,0 1,0-1,0 1,0 0,0 0,5 94,-4 0,-26 185,21-252,-20 125,24-133</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5991.55">3199 7,'1'-1,"1"1,-1-1,1 0,0 0,0 1,0-1,0 0,0 1,0 0,-1-1,1 1,0 0,0 0,0 0,-1 0,2 1,-1-1,0 0,0 1,-1-1,1 1,0 0,-1-1,1 1,2 2,46 24,-47-25,19 13,-1 1,-1 2,-1-1,-1 2,0 0,-2 2,0-1,-2 1,0 1,-1 0,-2 1,0 1,13 45,-2 19,-3 2,7 134,-19-151,19 118,-11-107,-4-1,-4 152,-14-193,-2-1,-1 0,-3 0,-34 71,21-48,9-23,-4 14,-41 72,53-111,-1-1,0 0,-1-1,0 0,-2-1,1 0,-2-2,-1 1,-17 12,3-8</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19578,12 +19777,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">289 159,'-5'1,"0"0,0 0,0 0,0 0,0 1,1 0,-1 0,0 0,1 0,0 1,-1 0,1 0,0 0,1 0,-1 1,1-1,-1 1,-3 6,-7 9,0 1,-16 34,26-46,-22 42,2 1,2 2,3 0,2 0,-14 80,30-130,1 0,-1 1,1-1,0 1,1-1,-1 0,1 1,-1-1,1 1,0-1,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,0 0,-1 1,1-1,0-1,0 1,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,0 0,1-1,3 1,5 0,-1 1,1-2,0 0,-1 0,1-1,0 0,-1-1,1 0,-1-1,12-5,-13 4,-1 0,0-1,0 0,0-1,0 0,-1 0,0-1,0 0,-1 0,0-1,0 0,0 0,8-16,-8 11,-2 0,1 0,-2 0,0-1,0 0,-1 1,-1-1,0 0,-1-24,-8-239,7 252</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="407.99">845 900</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1587.99">1295 27,'-3'18,"1"-2,-2 1,-1 0,0-1,0 1,-2-1,0-1,-10 16,-11 28,16-29,-19 40,4 2,-29 116,55-181,-1 1,1-1,0 1,1 0,0-1,0 1,1 0,0-1,0 1,0-1,1 1,5 11,-5-15,1 0,-1-1,1 1,0 0,0-1,0 0,0 0,0 0,1 0,0-1,-1 1,1-1,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,1 0,-1-1,8 1,-6-1,0 0,0-1,0 0,-1 0,1 0,0-1,-1 0,1 0,-1 0,0-1,1 1,-1-1,0-1,-1 1,1-1,-1 1,1-1,-1-1,0 1,-1-1,1 1,4-8,-6 8,0 1,0-1,0 1,0-1,0 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,0-1,-1 1,0 0,1 0,-2 0,1 0,0 0,-1 1,1-1,-1 0,0 1,-1-1,1 1,0 0,-1-1,0 1,-4-4,3 5,1-1,-1 1,0 0,0-1,-1 2,1-1,0 0,-7 0,-11-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3084">1559 212,'82'-2,"-44"0,-1 1,1 2,49 8,-84-8,1 0,-1 0,1 0,-1 1,1 0,-1-1,0 1,0 0,0 0,0 1,0-1,0 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,-1 1,1-1,0 0,-1 1,0-1,0 1,0 0,0-1,0 1,-1 4,2 11,-1 0,-1 0,-1 0,-4 23,5-37,-1-1,0 0,0 0,0 0,0 0,-1 0,0-1,-3 8,-4 5,10-14,0 0,1 0,-1-1,0 1,1 0,-1-1,1 1,-1-1,1 1,0-1,0 0,-1 0,1 1,0-1,0-1,0 1,0 0,3 0,4 4,-1 0,49 28,63 50,-105-72,-1 1,0 1,-1 0,0 1,-1 0,-1 1,0 1,-1-1,9 22,-16-32,-1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 1,0-1,0 0,-1 0,1 1,-1-1,0 0,-3 10,2-12,-1 1,1-1,0 0,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,-6 0,-290 0,181-3,88 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4266.99">2988 0,'-56'38,"3"1,-57 55,92-77,2 0,0 1,1 0,1 1,1 1,1 0,0 1,2 1,-14 37,11-15,1 0,2 1,2 0,-4 91,12-133,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,0-1,0 1,1-1,-1 0,0 1,1-1,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,1 1,0-1,5 3,-3-2,1-1,0 0,0-1,0 1,0-1,1-1,-1 1,0-1,0 0,0 0,1-1,9-2,-8 1,-1 0,-1 0,1-1,0 0,-1-1,1 1,-1-1,0 0,0-1,0 0,-1 0,0 0,0 0,0-1,0 0,-1 0,0 0,4-9,-4 9,-1-1,0 0,0 0,0-1,-1 1,0 0,0-1,-1 0,0 1,0-1,-1 0,0 1,0-1,-1 0,0 1,-1-1,-2-10,2 16,1-1,-1 1,0-1,1 1,-1 0,0 0,-1-1,1 1,0 1,-1-1,1 0,-1 1,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0 0,-5 1,-17-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5611">3226 106,'0'-1,"0"0,1 0,0 0,-1-1,1 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,1 0,-1-1,0 1,1 0,-1 0,0 0,2 0,41 1,-40 0,1 0,-1 0,0 0,0 1,0 0,0-1,0 1,0 1,0-1,0 1,-1-1,1 1,-1 0,0 0,0 0,0 1,0-1,0 1,-1 0,0-1,0 1,2 5,-3-4,0 1,0-1,0 0,-1 1,0-1,0 0,-1 1,1-1,-1 0,0 0,-1 1,1-1,-1 0,0 0,0 0,0-1,-1 1,-3 5,-4 3,0-1,0 0,-24 20,22-20,11-12,1 1,-1-1,0 0,0 1,1-1,-1 1,0 0,1-1,-1 1,0-1,1 1,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0 0,0 0,5 2,-1 0,0 0,1-1,0 0,10 3,5 1,-10-1,1 0,-1 1,0 0,-1 1,17 12,-24-16,0-1,-1 0,1 1,0 0,-1-1,0 1,0 0,1 0,-2 1,1-1,0 0,-1 1,1-1,-1 1,0-1,0 1,-1 0,1-1,-1 1,0 0,1-1,-2 1,1 5,-1-7,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,0 0,1-1,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,0-1,-4 1,-60 3,58-4,-58-1,35 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">303 152,'-5'1,"0"0,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,1 0,0 1,-2 0,2 0,0 0,1-1,-1 2,0-1,0 1,-3 6,-8 8,1 1,-18 32,28-43,-23 40,1 0,3 3,3 0,3-1,-16 77,32-124,1 0,-1 1,1-1,0 0,1 0,-1 0,1 1,-1-1,1 1,0-1,0-1,0 1,1 0,-1 0,2 0,-1 0,0 0,0-1,0 1,0-1,0 1,1-1,0 0,0 1,0-1,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,1 0,-1 0,0 0,1-1,4 1,4 0,0 1,0-2,1 0,-1 0,0-1,1 0,-2-1,2 0,-2-1,13-4,-13 3,-2 0,1-1,-1 1,1-2,-1 0,0 0,-1 0,0-1,0 0,-1 0,0-1,1 0,7-15,-7 11,-3 0,1-1,-1 1,-1-2,0 1,-1 1,-1-2,0 1,-1-23,-8-229,7 241</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="407.98">886 859</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1587.99">1358 26,'-3'17,"1"-2,-2 1,-2 1,1-2,0 1,-2 0,-1-2,-10 15,-11 28,17-29,-21 39,5 2,-31 111,58-174,-1 2,1-1,0 0,1 1,0-2,0 2,1 0,0-2,0 2,0-1,1 0,5 12,-5-16,2 1,-2-1,1 1,0 0,0-1,0-1,0 1,1 0,0 0,0-1,-1 1,1-1,0 0,1 0,-1-1,0 0,1 1,0-1,-1 0,1 0,-1-1,9 1,-7-1,0 0,1-1,-1 0,-1 0,1 0,1-1,-2 0,1 1,0-1,-1-1,1 1,-1-1,1-1,-2 1,1 0,-1 0,1-1,0-1,-1 1,-1-1,1 2,5-9,-7 8,0 2,0-2,0 1,0-1,0 0,-1 0,0 1,0-1,0 0,0 0,0 0,-1 0,0 1,0-1,0 0,0-1,-1 1,0 1,1-1,-2 0,1 0,0 0,-1 1,1 0,-1-1,0 1,-1-1,1 1,-1 0,0 0,0 0,-4-4,3 5,0-1,0 1,0 0,0 0,-1 1,0-1,1 0,-7 0,-12-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3084">1635 202,'86'-1,"-46"-1,-1 1,1 2,51 7,-88-7,1 0,-1 0,1 0,0 1,0 0,-1-1,0 1,0 0,0 0,1 0,-1 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 2,0-1,0 0,-1 1,0-1,0 0,0 1,0-1,0 1,-1 4,2 10,-1 0,-1 0,-1 0,-4 22,5-35,-1-1,0 0,0 0,0-1,0 1,-1 0,-1-1,-2 7,-4 6,10-14,0-1,1 1,-1-1,0 1,1 0,-1-1,1 1,-1-1,1 1,1-1,-1 0,-1 0,1 1,0-1,0-1,0 1,0-1,3 1,5 4,-2 0,52 27,66 47,-110-69,-2 2,1 0,-1 1,-1 0,0 0,-2 2,1 0,-2-1,10 22,-17-32,0 1,-1 0,-1 0,1-1,-1 1,0 0,0 0,0 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 0,-3 9,2-11,-2 1,2-1,0 0,-1-1,0 1,0 0,0 0,-1-1,1 1,0-1,-1 0,1 0,-1-1,1 1,-2-1,1 1,0-1,0 0,0 0,-1-1,1 1,0-1,-7 0,-303 0,189-3,93 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4266.99">3134 0,'-59'36,"3"2,-59 51,96-72,2-1,1 1,0 0,1 1,2 1,0 0,0 2,3 0,-15 35,11-14,1 0,3 1,2 0,-5 87,13-127,0 0,0 0,0 1,0-1,1 1,-1-1,1 0,0 0,0 1,1-1,-1 0,0 1,2-1,-1-1,0 1,0 0,0-1,1 1,-1 0,0-1,1 1,1-2,4 4,-3-2,1-1,1 0,-1-1,0 1,1-1,0-1,-1 1,1-1,-1 0,0 0,1-1,10-2,-8 1,-2 0,-1 0,2-1,-1 0,-1 0,2 0,-2-1,0 0,0-1,1 1,-2-1,0 0,1 0,-1-1,0 1,-1-1,0 0,5-8,-5 8,-1 0,0-1,0 0,1 0,-2 0,0 0,0 0,-1-1,0 1,0 0,-1-1,0 1,0 0,-1-1,0 1,-1 0,-2-11,2 17,0-2,0 1,0-1,1 1,-1 0,0 0,-1-1,1 1,0 1,-1 0,0-1,0 1,1-1,-1 1,0 0,0 0,1 0,-1 0,-1 0,1 0,-5 1,-18-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5611">3383 101,'0'-1,"0"0,1 0,0 0,-1-1,1 2,-1-1,1 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,1 0,-1-1,1 1,0 0,-1 0,0 0,2 0,43 1,-42 0,1 0,0 0,-1 0,0 1,0 0,0-1,1 1,-1 0,0 0,0 1,-1-1,2 1,-2 0,0 0,0 0,0 0,0 0,0 1,0 0,-1-1,0 1,2 4,-3-3,0 1,0-1,0-1,-1 2,0-1,0 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 0,0 0,0-1,-1 0,0 1,-3 5,-5 2,1-1,0 1,-26 18,23-18,12-12,1 1,-1-1,0 0,0 1,1-1,-1 1,0 0,1-1,-1 1,0-1,1 1,-1 0,1 0,-1-1,1 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1-1,-1 1,1 0,-1-1,1 0,0 1,0 0,5 2,0 0,-1 0,1-1,0 0,11 3,5 0,-10 0,0 0,0 1,-1-1,0 2,17 11,-25-15,0-1,0 0,0 1,0 0,-1-2,0 2,0 0,1 0,-2 1,1-1,1 0,-2 0,1 0,-1 1,0-1,0 1,-1 0,1-2,-1 2,0 0,1-1,-2 1,1 4,-1-6,0 0,0 0,0 0,-1 0,1 0,0 0,-2 0,2-1,-1 1,0-1,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1 0,1-1,0 1,0-1,-4 1,-64 3,62-4,-61-1,36 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19638,11 +19837,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">348 186,'-14'1,"1"0,0 1,0 0,-1 1,2 1,-1 0,0 0,1 1,0 1,0 0,0 1,1 0,0 1,1 0,-1 0,1 1,1 1,-14 17,10-9,0 0,1 0,1 2,1-1,0 1,2 1,0 0,2 0,0 0,-4 34,9-51,0 0,1 0,0 0,0-1,0 1,0 0,0 0,1 0,0 0,0 0,0-1,0 1,0 0,1-1,0 1,0-1,0 0,0 1,0-1,4 4,-2-4,0 0,1 0,-1-1,1 1,0-1,0 0,0 0,0 0,0-1,0 0,0 0,0 0,0-1,9 0,202-5,-211 4,0 0,-1 0,1 0,-1 0,1-1,-1 0,0 0,1 0,-1 0,0-1,-1 1,1-1,0 0,-1 0,1-1,-1 1,0-1,0 0,-1 1,1-1,-1 0,1-1,1-4,4-12,-1 1,-1-2,6-40,1-1,-6 37,0-1,-2 0,-1 0,-2 0,0-1,-2 1,-1 0,-1-1,-10-49,10 73,1 1,-1-1,0 0,0 1,0-1,-1 1,1 0,-1-1,0 1,0 1,0-1,0 0,0 1,-1-1,1 1,-1 0,0 0,1 0,-1 1,0 0,0-1,0 1,-6 0,0-1,1 1,0 0,0 1,0 0,0 1,0-1,-1 2,1-1,-15 6,21-5,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,0 1,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 1,0-1,0 0,0 1,1-1,-1 1,1-1,-1 4,0 16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="579.99">692 477,'4'0,"7"0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2400">1433 1,'-27'0,"1"0,0 2,-1 0,1 2,-30 8,48-9,0 0,1 0,0 0,0 1,0 0,0 1,0-1,1 1,0 1,0-1,0 1,1 0,0 0,0 1,1-1,-1 1,1 0,1 0,-1 1,1-1,-2 11,2-10,1-1,1 1,-1 0,2-1,-1 1,1 0,0 0,0 0,1-1,0 1,0 0,1 0,0-1,4 9,-5-13,1 0,0 1,0-1,0 0,0-1,1 1,-1 0,1-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,1 0,-1 0,1 0,0 0,-1-1,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,-1 0,4-1,-2 1,-1 0,0-1,1 0,-1 0,0 0,0 0,0 0,-1-1,1 0,0 0,-1 0,0 0,0 0,0-1,5-7,-3 3,-1 0,0-1,0 0,-1 0,0 0,4-18,-4 2,0-1,-2 1,-3-40,2 56,1 226,-4 106,-1-294,-2-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4311">1909 80,'8'0,"1"-2,-1 1,1-1,12-5,26-4,-32 9,0 1,0 0,0 1,0 1,-1 1,23 4,-31-4,-1 0,1 0,-1 0,1 1,-1 0,0 0,0 0,-1 1,1 0,0 0,-1 0,0 0,0 1,-1-1,1 1,-1 0,0 0,0 0,2 7,2 6,-1 0,-1 1,-1-1,-1 1,0 0,-1 0,-1 1,-1-1,-4 34,-5 7,-28 103,30-140,-1 0,-1 0,0 0,-15 22,17-33,0-1,0-1,-1 1,-1-1,0-1,0 1,-1-2,0 1,-14 8,21-15,-1-1,1 1,0-1,-1 0,1 0,-1 0,0 0,1-1,-1 0,1 1,-1-1,0 0,1-1,-1 1,0-1,1 1,-1-1,1 0,-1-1,1 1,0 0,-1-1,1 0,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,1 0,0 0,0 1,0-2,0 1,0 0,-1-4,0 3,1 0,0 0,0 0,1 0,-1 0,1 0,0-1,0 1,0 0,1-1,-1 1,1-1,0 1,0 0,1-1,-1 1,1-1,0 1,0 0,1 0,-1-1,1 1,0 0,0 1,0-1,1 0,-1 0,1 1,0 0,0-1,5-3,-2 3,1 0,-1 1,1 0,0 0,0 0,0 1,0 0,1 1,-1-1,0 1,1 1,-1-1,1 1,-1 1,0-1,11 3,2 2,0 0,0 1,-1 1,31 16,-22-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13051.96">3153 160,'-20'1,"0"1,0 0,0 2,0 0,-32 12,-88 45,135-58,1 0,0 0,0 0,0 0,1 0,-1 1,1 0,0-1,0 1,0 0,0 1,1-1,0 0,0 1,0 0,0-1,1 1,-1 0,1 0,1 0,-1 5,-1 11,1 1,1-1,4 31,-4-52,0 2,0 1,0-1,0 1,1-1,-1 1,0-1,1 0,0 1,-1-1,1 0,0 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0-1,0 1,-1-1,1 1,0-1,0 1,1-1,-1 0,0 0,0 0,4 1,2-2,0 0,0 0,0-1,0 0,-1 0,1-1,0 0,9-4,44-10,0 3,1 2,94-4,-149 15,0-1,-1 1,1 0,-1 1,1-1,-1 1,1 1,8 2,-13-3,1 1,-1-1,0 0,0 1,0 0,0 0,0-1,0 1,0 0,0 1,-1-1,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,0 1,1 3,1 7,-1 1,0-1,0 1,-2 0,0-1,0 1,-1-1,-1 1,0-1,-1 0,-1 0,1 0,-2-1,0 0,-1 0,0 0,0-1,-1 0,-1 0,0-1,-13 11,9-7,-1-2,-1 0,0 0,-1-2,-25 14,33-21,0 1,0-1,0-1,0 0,-1 0,1 0,-1-1,0 0,1-1,-1 0,0-1,1 1,-1-2,-12-2,-43-18,1-2,1-3,-75-46,89 46</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">365 177,'-14'1,"0"0,0 1,1 0,-2 1,3 1,-2 0,0-1,2 2,-1 1,0 0,1 0,0 1,1 1,0-1,0 1,0 0,2 2,-16 16,12-9,-1 0,2 0,0 2,2-1,-1 1,3 1,-1 1,3-1,0 0,-5 32,10-48,0 0,1-1,0 1,0-1,0 1,0 0,0 0,1-1,0 1,0 0,0-1,0 1,0-1,1 0,1 1,-1-1,0 0,0 1,0-1,4 3,-2-3,1 0,0 0,-1-1,1 1,1-2,-1 1,0 0,0 0,1-1,-1 0,0 0,0 0,1-1,8 0,213-5,-222 4,1 0,-2 0,1 0,-1 0,2 0,-2-1,0 0,1 0,-1 0,1-1,-2 1,1-1,0 0,-1 1,2-2,-2 1,0-1,0 0,-1 1,1 0,-1-1,2-1,0-4,4-11,-1 1,0-2,5-38,2-1,-7 35,1 0,-3-1,-1 0,-2 0,0 0,-2 0,-1 0,-1 0,-10-48,10 70,0 1,0 0,0-1,0 1,0-1,-1 1,1 0,-1 0,0 0,-1 1,1-1,0 0,0 1,-1-1,1 1,-2 1,1-1,1 0,-1 1,0 0,-1-1,1 1,-6 0,-1-1,2 1,-1 0,1 1,-1 0,1 1,-1-1,0 2,1-1,-17 6,23-5,0-1,0 0,0 1,0 0,-1 0,2 0,-1 0,0 1,1-1,0 1,0-1,0 0,-1 1,1 0,0 0,1 0,-1 0,1 1,0-2,0 1,0 1,1-1,-1 1,1-1,-1 3,0 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="579.99">727 455,'4'0,"8"0,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2400">1505 1,'-28'0,"0"0,1 2,-1 0,1 2,-32 7,50-8,1 0,1 0,-1 0,1 0,-1 1,1 1,0-1,0 0,1 2,0-1,0 1,0-1,1 1,0 1,1-1,-2 0,2 1,1 0,-1 0,1 0,-3 10,3-9,1-2,1 2,-1 0,2-2,-1 2,1 0,0-1,0 1,1-2,0 2,0 0,1-1,0 0,5 8,-6-12,1 0,0 1,0-1,0 0,0-2,1 2,-1 0,2-1,-1 1,0-1,0 0,0 0,0 0,0-1,1 0,0 1,-1-1,0 0,1 0,-1 0,2 0,-1 0,-1-1,1 0,-1 0,2 0,-1 0,-1-1,1 1,0-1,-1 0,5-1,-3 1,-1 0,0-1,2 1,-2-1,0 0,0 0,1 0,-2-1,1 0,0 0,-1 0,0 1,1-1,-1-1,5-7,-3 4,0-1,-1 0,0-1,-1 0,0 1,5-18,-5 2,0-1,-2 2,-3-39,2 53,1 216,-4 101,-1-280,-3-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4311">2005 76,'9'0,"0"-2,-1 1,2 0,12-6,27-4,-33 9,0 2,0-1,-1 1,1 1,-1 0,24 5,-33-4,-1 0,1 0,0 0,0 1,-1 0,1-1,-1 1,-1 1,1 0,0 0,0-1,-1 1,0 1,-1-1,1 1,0-1,-1 1,0 0,2 6,3 7,-2-1,-1 1,-1-1,-1 1,1 0,-2 0,-1 1,-1 0,-4 31,-6 7,-29 99,32-134,-2 0,0-1,0 1,-17 21,19-31,0-2,-1 0,0 0,-2 0,1-2,0 2,-2-2,0 0,-14 8,22-14,-1-1,1 1,0-1,-2 0,2 0,-1 0,0 0,1-1,-1 0,0 1,0-1,0 0,1-1,-1 1,-1-1,2 1,-1-1,1 0,-1-1,1 1,-1 0,0-1,1 0,0 0,0 1,0-1,-1 0,1-1,1 1,-1-1,1 0,0 0,0 2,0-3,0 1,-1 0,0-4,0 3,1 1,0-1,0 0,1 0,-1 0,1 1,0-2,0 1,-1 0,2-1,-1 2,1-2,0 1,0 0,1-1,-1 2,2-2,-1 1,0 0,1 0,-1 0,1 0,0 0,0 1,0-1,1 1,-1-1,2 1,-1 0,0-1,5-2,-1 2,0 0,-1 1,2 0,-1 0,0 0,1 2,-1-1,1 1,0-1,-1 1,2 1,-2-1,1 1,0 1,-1-1,12 3,2 1,0 1,0 1,-1 1,32 15,-22-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13051.96">3312 153,'-21'1,"0"0,0 1,0 2,0 0,-34 11,-92 43,142-55,1 0,-1 0,1 0,0 0,1 0,-1 0,1 1,-1-1,1 1,0 0,0 0,1 0,0 0,0 1,0 0,-1-2,2 2,-1 0,1 0,1 0,-1 4,-1 11,1 1,1-1,4 30,-4-50,0 2,0 0,0 0,0 1,1-1,-1 1,0-1,1 0,0 1,-1-1,1-1,0 2,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0-1,0 0,-1 0,1 1,0-1,1 1,0-1,-1 0,0 0,0 0,4 1,3-2,-1 0,1 0,-1-1,0 0,0 0,0-1,1 0,8-4,47-9,1 3,0 1,99-3,-157 14,0-1,0 1,0 0,-1 1,2-1,-2 1,1 1,9 2,-14-3,1 1,-1-1,0-1,0 2,1 0,-1 0,0-1,0 1,0 0,0 1,-1-1,1 0,-1 0,0 0,0 0,0 1,0-1,1 1,-1-1,0 1,-1-1,0 0,1 4,1 7,-1 0,0-1,0 2,-2-1,0-1,0 2,-1-2,-1 2,-1-2,0 0,-1 1,1-1,-3 0,1-1,-1 0,-1 1,1-2,-1 1,-2-1,1 0,-14 10,9-7,-1-1,0-1,-1 1,-1-3,-26 14,35-20,-1 1,1-1,-1-2,1 1,-2 0,2 0,-1-1,-1 0,2-1,-2 0,1-1,0 1,0-2,-13-2,-45-17,1-1,0-4,-78-44,94 44</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19810,16 +20009,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2408,'-1'-94,"5"0,4 0,4 0,4 1,4 1,33-92,18 8,163-291,-196 400,3 2,3 3,2 1,3 2,3 2,2 3,76-60,-125 110,-1 1,1 0,0-1,0 2,0-1,1 1,-1-1,1 1,-1 1,1-1,0 1,-1 0,1 0,0 1,0 0,6 0,-8 1,-1 0,0 0,0 0,0 0,1 1,-1-1,0 1,-1 0,1 0,0 0,0 0,-1 0,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,-1 0,1 0,-1 1,0-1,0 0,0 0,0 1,-1-1,1 5,2 18,-2 0,-1 1,-1-1,-1 0,-7 33,2-5,1-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="646">54 1164,'9'0,"12"0,6 5,9 1,2 0,4-1,3 2,3 1,-1-1,-1-2,-3-2,9 4,0 4,1 1,-1-2,1 2,-9-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1510.99">1641 238,'-2'17,"-1"-1,0 0,-1-1,-1 1,-1 0,-12 25,7-15,-32 76,-124 341,150-382,3 1,3 0,3 0,2 1,3 73,7 98,-3-228,0 0,0 1,0-1,1 0,0 0,0 0,0-1,1 1,0 0,0-1,0 0,1 1,0-1,0-1,0 1,0 0,1-1,0 0,0 0,7 3,8 5,2-1,-1-2,1 0,26 6,14 7,-24-8,-7-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2897">2250 397,'-6'4,"2"-1,-1 1,0 0,1 0,-1 1,1 0,1-1,-7 10,-2 2,-20 24,1 0,2 2,1 1,3 2,-31 73,51-93,0-1,2 1,0-1,2 1,1 0,0 0,6 27,-1 42,-5-89,0 0,0 0,1 0,0 0,0-1,0 1,0 0,1 0,-1-1,1 1,1-1,-1 0,1 1,-1-1,1 0,6 5,-3-3,0-1,1-1,-1 1,1-1,0 0,1-1,-1 1,1-2,12 4,-6-3,0 0,1-2,-1 0,1 0,-1-2,0 1,1-2,-1 0,0-1,0 0,18-7,-20 6,1-1,-1 0,0 0,-1-2,0 1,0-1,0-1,-1 0,0-1,0 1,-1-2,13-16,-17 17,-1 1,0 0,-1-1,0 0,0 0,-1 0,0 0,0 0,0-18,-2-11,-5-44,0 8,4-77,0 148,1 0,-1 0,0 1,0-1,0 0,0 1,0-1,0 0,-1 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,-1 1,1 0,-1 0,-3-2,-22-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3893">1192 0,'4'5,"6"10,2 7,-1 5,-4 1,-1 2,-3-1,-2-1,0 1,-1-2,-1 0,1 0,-1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6076.99">3202 397,'-17'0,"-27"0,0 1,-1 2,-43 9,87-12,1 0,-1 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,1-1,0 1,-1 0,1-1,0 1,-1 0,1 0,0 1,1-1,-1 0,1 0,-1 0,1 1,0-1,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,2 1,48 24,-29-19,-1 2,-1 0,0 2,24 15,-36-20,0 1,-1-1,0 1,0 1,-1-1,0 1,0 0,-1 0,0 1,0 0,-1 0,4 11,3 12,-2 0,6 38,-12-56,-2 0,1 0,-2 0,0 0,-1 0,0 0,-6 25,5-33,-1 0,0 1,-1-1,1 0,-1-1,0 1,-1-1,1 1,-1-1,0-1,0 1,-1-1,1 0,-1 0,0 0,0-1,0 0,-1 0,1-1,-1 1,1-1,-9 1,-14 3,-1-1,-1-1,-45-1,31-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6469">2700 1111,'9'0,"3"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7426">3441 132,'9'0,"1"0,0 1,-1-1,1 2,0-1,-1 2,1-1,-1 1,0 1,0-1,0 1,-1 1,1 0,-1 0,0 1,0 0,-1 0,0 1,0 0,0 0,9 14,1 3,-2 1,0 1,-2 0,-1 1,16 49,27 149,-46-175,-2 0,-2 1,-3 0,-3 51,-1-75,-1 1,-2-1,0 0,-2-1,-1 1,-1-1,-2-1,-25 47,-172 243,192-295</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8096.03">4102 556,'4'0,"11"0,7 0,9 0,4 0,4 0,1 0,-2 0,-3 0,1 0,-1 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8810.99">4155 926,'4'0,"6"0,7 0,3 0,13 0,6 0,4 0,0 0,5 0,0 0,1 0,-4 0,-1 0,2 0,11 0,36 0,42 0,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2324,'-1'-91,"5"1,5-1,3 0,5 1,4 2,35-90,18 8,172-281,-206 387,3 1,3 3,2 1,4 2,3 2,1 3,81-58,-132 106,-1 1,1 1,1-2,-1 2,0-1,1 1,0-1,0 1,-1 1,2-1,-1 1,-1 0,1 0,1 1,-1 0,7 0,-9 1,-1 0,0 0,0 0,0 0,2 1,-2-1,0 1,-1 0,1 0,0 0,1 0,-2 0,0 1,1-2,-1 2,0 0,0-1,0 1,0 0,-1 0,2 0,-2 1,0-1,0-1,0 1,0 1,-1-1,1 5,2 17,-2 0,-1 1,-1-1,-1 0,-8 32,3-5,1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="646">57 1123,'9'0,"13"0,7 5,8 1,3 0,4-1,4 1,2 2,-1-1,0-2,-4-2,9 3,1 5,1 1,-2-3,2 3,-10-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1510.99">1723 230,'-2'16,"-1"0,0-1,-1-1,-2 2,0-1,-13 25,8-15,-34 73,-131 330,158-369,4 1,2 0,4-1,1 2,4 70,7 95,-3-220,1 0,-1 1,0-2,1 1,0 0,0 0,0-1,1 0,0 1,0-1,1 0,0 1,0-2,0 0,0 1,1 0,0-1,0 0,0 0,8 2,8 6,2-1,-1-3,1 1,28 5,14 8,-25-9,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2897">2363 383,'-6'4,"1"-1,0 1,0 0,1-1,-2 2,2 0,1-1,-7 10,-3 1,-21 24,2-1,1 3,2 0,3 3,-33 70,54-90,-1-1,3 1,0-1,2 1,1 0,0 0,6 27,0 39,-6-85,0 0,0 0,1 0,0 0,0-2,0 2,0 0,1 0,-1-1,1 1,1-2,-1 1,1 1,0-1,0 0,6 5,-3-4,1 0,0-1,-1 1,2-1,-1 0,2-2,-2 2,1-2,13 4,-6-3,0 0,0-2,0 0,1 0,-1-2,-1 1,2-2,-1 0,-1-1,1 0,19-7,-22 7,2-2,-1 0,-1 0,0-2,-1 2,1-2,-1-1,0 0,-1 0,1 0,-2-2,14-15,-17 17,-2 0,0 0,-1-1,0 1,1-1,-2 0,0 1,0-1,0-17,-2-11,-5-42,-1 8,5-75,0 143,1 0,-1 0,0 1,0-1,0 1,0 0,0-1,0 0,-1 1,1 0,-1-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 1,-1 0,1-1,-1 1,1 0,-2 0,-2-2,-23-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3893">1252 0,'4'5,"6"9,3 8,-1 4,-5 1,-1 2,-3-1,-2-1,1 1,-2-2,-2 0,2 0,-1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6076.99">3363 383,'-18'0,"-28"0,-1 1,0 2,-45 9,91-12,1 0,-1 0,0 0,-1 0,1 0,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,0 0,1 0,-1 0,0 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,1-1,0 1,-1 0,1-1,0 1,-1 0,1 0,0 1,1-1,-1 0,1 0,-1 0,1 1,0-1,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,2 1,51 23,-31-19,-1 3,-1 0,0 1,25 15,-37-19,-1 1,-1-1,1 1,-1 0,0 0,-1 1,0-1,-1 1,1 1,-1 0,-1-1,4 12,4 10,-3 1,7 37,-13-55,-2 1,2-1,-3 1,0-1,-2 1,1-1,-6 25,5-32,-1 0,0 0,-2 0,2 0,-1-1,0 1,-1-2,0 2,0-1,0-1,0 1,-2-1,2-1,-1 1,0 0,-1-1,1 0,-1 0,0-1,0 1,1-1,-10 1,-15 2,0 0,-2-1,-46-1,31-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6469">2835 1072,'10'0,"2"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7426">3614 127,'9'0,"2"0,-1 1,-1-1,2 2,0-1,-2 2,1-1,0 1,-1 1,1-1,-1 1,0 0,0 1,0 0,-1 1,0 0,0-1,-1 2,0 0,1 0,9 13,0 3,-1 1,0 1,-2 0,-2 2,18 46,27 144,-47-169,-3 1,-2 0,-3 0,-3 49,-1-72,-1 2,-2-2,0 0,-3-1,0 1,-2-1,-1-1,-27 45,-180 235,201-284</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8096.03">4308 537,'4'0,"12"0,7 0,9 0,5 0,4 0,1 0,-2 0,-3 0,1 0,-2 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8810.99">4363 894,'5'0,"5"0,8 0,3 0,14 0,6 0,4 0,0 0,5 0,1 0,0 0,-4 0,0 0,1 0,12 0,37 0,45 0,-1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19846,7 +20045,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 347,'408'2,"431"-4,-599-14,308-59,-35 1,-241 52,169-19,15-11,759 13,-1069 30,-28 0,1422-1,-854 13,-458-3,1093 21,-1037-8,495 41,-303 20,-388-59</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 325,'424'2,"449"-4,-623-13,320-55,-37 1,-250 48,176-17,15-11,790 12,-1112 29,-30-1,1480 0,-888 12,-477-3,1137 19,-1079-6,515 37,-315 20,-403-56</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19873,50 +20072,50 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">954 1786,'-2'0,"0"-1,1 1,-1-1,1 0,-1 0,1 1,0-1,-1 0,1 0,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,-1-2,-15-37,14 33,-15-55,2 0,3-1,-9-116,12 82,5 51,1-1,5-64,1 86,1 0,2 0,0 1,2-1,18-46,1 11,44-91,-60 134,0-1,2 2,1-1,0 2,24-25,-34 38,-1 1,1 0,0-1,0 1,0 1,0-1,0 0,0 1,0-1,1 1,-1 0,0 0,1 0,3 0,-5 1,0 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,0-1,0 3,2 17,0 0,-4 37,1-37,0 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="632.99">848 1151,'13'0,"14"0,7 0,6 0,1 0,-2 0,-3 0,-3 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1450.03">1959 437,'-21'37,"12"-15,-161 313,148-291,2 1,2 1,2 1,2 0,3 1,-9 64,-5 295,25-398,0 0,0 0,1 0,0 0,1 0,0 0,0-1,1 1,0-1,8 16,-7-19,0 1,0-1,1 0,-1 0,1 0,1 0,-1-1,1 0,-1 0,1-1,0 0,1 0,-1 0,11 3,48 7,-38-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2176.99">2012 1072,'10'-6,"1"-1,-1 0,-1 0,16-16,-16 14,1 1,0-1,20-11,-20 14,0 1,1 1,0 0,0 0,0 1,0 0,17-2,-21 5,-1 0,0 0,1 0,-1 1,0 0,0 0,1 0,-1 1,0 0,0 0,0 1,-1 0,1 0,-1 0,6 5,16 14,-2 1,-1 1,-1 2,-1 0,-1 1,-2 1,23 43,92 223,-114-241,-4-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2715.99">2568 993,'-5'0,"-6"5,-5 10,-5 11,-7 11,-4 8,-1 5,1 4,1-4,6-6,7-5,7-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3390.99">2965 1495,'9'0,"3"5,3 10,1 7,-4 9,-4 4,-2 5,-3-1,-2-1,-1-3,-1-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3754.99">3018 1178,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4258">3414 1337,'0'5,"0"14,0 14,0 14,0 8,0 0,0 3,0 2,0-6,0-7,0-7,0-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4728.99">3229 1681,'9'0,"7"0,11 0,8 0,13 0,12 0,-1 0,-5 0,-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5977">3758 1284,'3'-2,"0"-1,1 0,-1 1,1 0,0 0,0 0,0 0,0 1,0 0,0-1,0 2,1-1,-1 0,0 1,1 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0 0,1 1,-1-1,0 1,5 2,1 1,0 0,0 1,0 0,-1 1,0-1,0 2,-1-1,14 17,-14-11,0-1,-1 1,-1 1,0-1,-1 1,0 0,-1 0,-1 0,0 1,2 26,-3 3,-2 0,-7 59,6-93,0 1,-1-1,0 1,-1-1,0 0,0 0,-1 0,-1-1,1 1,-10 12,10-17,-1 0,1 0,-1-1,0 0,0 1,-1-1,1-1,-1 1,0-1,0 0,0-1,0 1,-1-1,1 0,0-1,-1 0,-8 1,8-1,0 0,0-1,1 0,-1 0,0-1,0 1,0-2,-10-2,15 3,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0-1,1-3,-1 3,1 1,-1-1,1 0,-1 1,1-1,0 1,0-1,0 1,1 0,-1-1,0 1,1 0,0 0,-1 0,1 0,0 0,0 0,2-1,2-1,-1 1,1 0,-1 0,1 0,0 1,0 0,9-2,2 0,1 2,-1 0,0 1,33 2,-42-1,1 1,0 0,-1 0,0 1,1 0,-1 0,0 1,0 0,0 1,0 0,-1 0,1 1,-1-1,0 2,0-1,-1 1,0 0,0 0,9 13,21 26,-18-28</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6803">4340 305,'8'14,"0"-1,2 0,-1-1,16 14,12 17,-1 7,-2 1,-3 2,-2 1,-2 2,-3 0,-2 2,14 60,-16-31,-3 0,-4 1,-4 0,-3 113,-7-84,-3 132,3-237,-1 0,0 0,-1 0,0 0,-1-1,0 1,-1-1,0 0,-1 0,-8 10,-8 11,-49 51,40-49,18-20,0-1,-1-1,0 0,-28 17,11-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10241">7039 702,'-3'122,"1"-38,8 90,-5-168,0 0,0 0,0-1,1 1,0 0,0-1,0 1,1-1,0 0,0 0,0 0,1 0,-1-1,1 1,7 6,-3-5,1 0,-1-1,1 0,0 0,0-1,0 0,1 0,14 3,11 0,1-2,0-2,72-1,-61-3,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10840.99">7595 543,'10'146,"0"-36,-3 600,-8-442,0-258,1-1,1 1,0-1,0 1,1-1,3 10,7 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8737.99">5637 1284,'22'-9,"21"-7,22-2,12-1,12 2,13-1,3 3,-8 4,-20 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9354.99">6087 728,'0'14,"0"22,0 23,0 10,4 8,2 3,4 7,1 2,-2 3,-3 19,-1 2,2-12,0-19,-1-24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25690.21">15294 490,'670'0,"-621"4,-49-3,1-1,0 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 0,-1 1,0-1,1 1,-1-1,0 1,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,0-1,0 1,0 0,-2 0,-2 3,-1-1,1 1,0 0,0 1,1-1,-1 1,1 0,-7 11,10-14,0 0,0 1,1-1,-1 0,1 0,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,2 1,10 12,2-1,0-1,0-1,1 0,24 12,100 43,-86-42,-12-6,1 0,-1 2,-1 1,67 49,-103-66,0 1,-1 0,0 0,-1 0,1 1,-1 0,0 0,-1 0,0 0,0 0,0 1,-1 0,0-1,-1 1,0 0,0 0,0 0,-1 11,-2 13,-1-1,-1 1,-10 35,11-54,0-1,-1 1,0-1,-1 0,-1 0,0 0,0-1,-1 0,-1 0,0-1,0 0,-1 0,0-1,0 0,-19 12,13-12,1-1,-1 0,-1-2,0 1,1-2,-2 0,1-1,0-1,-1 0,0-2,-29 1,-209-16,218 9,-1-2,1-1,1-2,-60-25,70 23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27743.73">17384 1416,'-3'0,"0"0,1-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,0-1,0 1,0-1,0-2,-4-9,2 0,0-1,-2-20,5 34,-7-56,4-1,5-96,2 121,0 1,3-1,0 1,2 0,2 1,16-37,210-487,-230 535,-1 0,1 0,1 0,1 1,13-22,-19 36,0 0,1 1,-1-1,1 1,1 0,-1 0,0 0,1 1,0-1,0 1,0 0,0 1,0-1,1 1,-1 0,1 0,0 1,-1 0,13-1,-9 1,1 0,-1 1,1 0,-1 1,14 3,-20-4,-1 1,1 0,0 0,0 1,-1-1,1 0,0 1,-1 0,1 0,-1-1,0 1,0 1,0-1,0 0,0 0,0 1,-1-1,1 1,-1 0,3 4,2 12,-1-1,0 1,-2 0,0 0,1 31,-8 103,2-110,0-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28470.25">17172 622,'9'0,"7"0,6 5,8 1,3 0,1-1,-1 2,-1 1,2-1,0 3,-1-1,3 3,8-1,7-2,-2-2,-4-3,-6 7,-9 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29349.77">18495 93,'-13'68,"-2"0,-3-2,-38 92,-8 28,48-135,-5 12,3 1,3 0,2 1,-6 104,19-157,4 149,-2-142,0-1,2 0,0 1,1-1,1-1,12 27,-14-38,-1 0,1-1,0 0,1 0,-1 0,1-1,0 1,0-1,0 0,12 6,64 27,-58-28,-4-2,0-1,1-1,39 5,-26-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30073.61">18760 860,'0'-6,"1"0,0 0,1-1,0 1,0 0,0 0,0 1,1-1,0 0,0 1,5-7,48-54,-28 39,2 2,0 0,2 2,0 1,1 2,1 1,40-15,-68 31,-1 1,1 0,0 0,0 1,0-1,-1 1,1 1,0-1,0 1,0 0,0 0,0 1,0 0,0 0,0 0,0 1,11 4,-10-1,1 0,-1 0,0 1,-1 0,1 0,-1 1,0 0,-1 0,0 0,0 1,7 13,42 92,61 182,-69-168,-35-97,30 70,-37-91,1 0,0-1,1 0,-1 0,2 0,-1-1,1 0,11 9,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30764.74">19845 516,'-9'0,"-12"5,-12 10,-8 7,-3 9,-7 31,1 13,4 4,6-8,9-6,1-11,6-9,2-3,1-5,-6-4,3-3,4-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31471.02">19977 1257,'0'9,"0"8,0 9,0 6,0 1,0-1,0 0,0-2,4-6,2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31873.08">20003 887</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32851.6">20453 225,'0'0,"0"-1,0 1,0-1,0 0,1 1,-1-1,0 1,1-1,-1 0,0 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,0 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 0,-1 0,1 1,0-1,31 12,-19-4,-1 1,0 0,-1 1,0 1,0-1,-1 1,0 1,-1 0,-1 1,0-1,-1 1,0 1,8 21,5 22,-2 1,10 62,-17-70,7 47,-4 1,-4 0,-4 1,-14 179,3-224,-2-1,-3 0,-2 0,-31 82,30-100,-3-1,-1-1,-1 0,-2-2,-1 0,-1-1,-41 42,43-52</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35742.69">1 2395,'1030'21,"-91"-13,-535-11,6492 3,-6521 18,-152-4,866 14,-333-13,653-7,-857-10,1262 1,-1476 0,311 1,-1 32,-443 0,13 1,496-7,-512-23,1187 30,-1355-32,26 1,0-3,78-11,-106 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38532.69">7938 3083,'30'-2,"0"-2,0-1,0-1,0-2,34-13,31-8,-85 26,122-25,-116 26,-1 1,1 0,0 1,-1 1,1 0,23 6,-34-6,0 1,-1 0,0 0,0 0,1 1,-1-1,0 1,-1 0,1 0,-1 0,1 1,-1-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,-1 0,1 1,-1 0,0-1,0 9,3 13,-2-1,-1 2,-4 38,2-41,0 6,-2 1,-1-1,-1 0,-11 34,10-45,-1-1,-1 0,-1-1,-1 0,0 0,-1-1,-21 24,21-28,-1-1,0 0,-1-1,0 0,-1-1,0-1,0 0,-21 8,-15 2,-62 15,75-22,23-8,-1 1,1-2,-1 0,1-1,-1 0,-27-2,39 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,0 0,1 0,-1 0,-3-4,5 3,-1 0,1 0,-1 0,1 0,0 0,1 0,-1 0,0 0,1-1,0 1,-1 0,1 0,1-1,-1 1,0 0,1 0,0 0,-1 0,3-5,2-6,1 0,1 0,0 0,1 1,0 0,1 1,14-16,-7 10,1 0,1 2,39-29,-48 40,1 0,0 0,0 1,0 1,0 0,1 0,-1 1,1 0,0 1,0 0,-1 0,13 2,17 2,71 16,-107-19,26 9,-1 1,0 1,0 2,-1 1,32 20,21 11,129 40,-142-60,-60-22,0-1,0 0,0-1,0 1,0-1,0-1,0 0,0 0,0 0,0-1,14-3,-1-3,0 0,39-18,-27 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40696.7">9738 2818,'-3'2,"0"0,0 0,1 1,-1-1,1 1,-1-1,1 1,0 0,0 0,0-1,0 1,1 1,-1-1,1 0,-1 4,-13 58,12-48,-45 196,-12 63,61-256,10-24,18-32,-22 26,1 1,17-22,54-52,-70 75,-1 1,2 0,-1 1,0 0,1 0,0 1,1 0,-1 1,1 0,0 1,16-3,-1 2,0 1,0 2,0 0,0 2,0 1,32 6,-53-6,-1-1,1 1,-1 0,0 1,1-1,-1 1,-1 0,1 0,0 0,-1 0,1 1,-1 0,0-1,0 1,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,-1 1,0 0,0-1,0 6,2 15,0 1,-2-1,-4 40,1-35,1-2,-7 91,2-85</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="136848.31">15030 4115,'9'0,"7"0,24 0,36 0,23 0,13 0,24 0,-3 0,-19 0,-20 0,-27 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="138156.3">16935 3903,'-10'0,"0"0,0 1,0 0,0 1,1 0,-1 0,-16 7,21-7,0 1,0 0,0 1,0-1,0 1,1 0,0 0,-1 0,1 1,1-1,-1 1,1 0,0 0,-4 8,-8 23,1 0,2 2,1-1,2 1,1 1,3-1,1 1,2 78,2-93,0 0,2 0,1 0,1-1,8 29,-10-45,1 0,0 0,1 0,0 0,0-1,0 0,1 0,-1 0,1 0,1-1,-1 1,1-1,0-1,0 1,1-1,-1 0,1-1,0 1,0-1,12 3,94 23,-99-27,-1 0,1-1,0-1,0 0,-1 0,21-4,-28 2,-1 0,0-1,0 1,0-1,0 0,0 0,-1-1,0 1,1-1,-1 0,-1 0,1-1,0 1,-1-1,0 1,0-1,-1 0,1 0,-1-1,0 1,2-8,3-9,-2-1,0 1,3-45,-7-192,-3 127,2 115,-1-1,0 1,-1-1,-1 1,-6-22,8 34,0 1,-1 0,0 0,0-1,0 1,0 1,-1-1,0 0,0 0,0 1,0 0,0 0,-1 0,1 0,-1 0,0 0,0 1,0 0,0 0,0 0,0 0,-1 1,1 0,0-1,-5 1,-14-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="138558.3">17517 4829,'4'0,"2"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="140100.3">17702 4168,'55'-21,"-21"17,1 0,-1 3,1 0,37 6,-68-5,-1 1,1-1,0 1,-1 0,0 0,1 1,-1-1,1 1,-1 0,0-1,0 1,0 1,0-1,-1 0,1 1,3 3,-2 0,1 0,-2 1,1-1,-1 1,1 0,-2-1,4 13,0 8,-1 0,-2 0,0 37,-2-59,-4 307,1-303,0 0,-1 0,1 0,-2-1,1 1,-2-1,1 1,-1-1,0 0,0-1,-1 0,-9 10,12-13,-1 0,1-1,-1 1,1-1,-1 0,0 0,0 0,0-1,-1 0,1 1,-1-1,1-1,-1 1,0-1,0 0,1 0,-1 0,0 0,0-1,0 0,0 0,0 0,0-1,-7-1,9 0,0 0,0 0,1-1,-1 1,1 0,0-1,-1 0,1 1,0-1,1 0,-1 0,0 0,1 0,0-1,0 1,0 0,0 0,0-1,1 1,-1-1,1-5,-1-4,0 1,1-1,0 0,4-19,-4 29,1 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 1,1-1,0 1,0-1,0 1,0 0,0 0,0 0,1 0,2-2,0 1,1 0,0 1,-1-1,1 1,0 1,0-1,0 1,7-1,11 0,1 2,-1 0,33 5,-47-3,2 0,-2 0,1 1,0 0,0 1,14 8,-14-7,0 0,1 0,-1-1,16 2,-1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="141590.3">18919 4035,'0'5,"0"15,0 12,0 15,0 4,0 3,0 0,0 0,0 5,0-3,4-12,2-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="142334.3">18628 4300,'4'0,"6"0,7 0,3 0,4-4,3-2,4 0,3 1,-1 2,-1 1,-1 1,2 0,-4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="143393.3">19951 3903,'-2'1,"1"-1,0 1,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,1 1,-2 1,-13 38,11-30,-19 55,2 0,-12 75,32-137,0 0,0 0,1 0,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,0 0,0 0,0-1,3 5,-3-6,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,1 0,-1 1,1-1,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 0,1 0,4 0,169-10,-147 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="144101.3">20321 3850,'0'5,"0"6,0 14,-5 7,-5 31,-6 17,-5 9,-3 7,-2-3,3-10,6-13,6-14,4-13,4-4,2-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="144911.3">20692 3612,'-2'13,"0"-1,0-1,-1 1,0 0,-1-1,-1 1,1-1,-2 0,-9 15,5-9,1 0,-10 29,-17 113,-1 1,27-123,2 0,2 1,-4 68,12 118,1-83,-3-113,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="146755.31">21168 3771,'-1'12,"-1"-1,0 0,0 0,-1 0,-1-1,-6 14,-11 44,3 90,10-67,6-70,-10 126,11-128,2 0,0 0,1 0,1 0,7 28,-9-44,0 0,0-1,0 1,1 0,-1-1,1 1,0-1,-1 1,1-1,0 0,0 0,0 0,1 0,-1 0,0 0,1-1,0 1,-1-1,1 0,0 1,3 0,-4-2,0 0,0 1,1-1,-1 0,0 0,0 0,1-1,-1 1,0-1,0 1,0-1,0 1,1-1,-1 0,0 0,0 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,-1-1,0 0,1 0,-1 1,2-4,12-22,20-46,-30 62,-1 0,-1-1,0 1,0-1,-1 0,-1 0,0-16,-1 26,0 0,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,-1 0,1 1,0-1,0 1,-1-1,1 1,-3-1,-13-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="147211.3">20850 4512,'0'5,"0"1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="148488.3">21671 3850,'0'-1,"1"0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,2 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,1 0,-1 0,2 0,37-4,-35 4,-1 0,1 0,-1 0,1 1,-1 0,0 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 1,0-1,-1 1,1-1,5 7,-5-4,0 0,0 1,0 0,-1 0,0 0,0 0,-1 0,1 1,-1-1,1 12,0 4,-1 0,-1 0,-1 1,-1-1,-1 0,-6 26,8-44,-1 0,1 0,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,0-1,0 1,1 0,2 5,33 44,0 1,-18-17,-1 0,-2 1,-2 1,14 60,-27-96,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,-1-1,1 1,0 0,-1 0,0-1,1 1,-1-1,0 0,0 1,-1-1,1 0,0 0,-1-1,1 1,-1 0,0-1,1 1,-1-1,0 0,0 0,0 0,-5 1,0-1,0 0,0-1,-1 0,1 0,0-1,0 0,-1 0,1-1,0 0,0 0,1-1,-15-7,-12-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="149956.32">22411 3691,'-3'34,"0"0,-2-1,-2 1,-13 39,-12 65,18-61,6-38,2 0,1 1,2 74,4-110,0 0,0 0,0-1,0 1,1 0,0-1,0 1,0-1,0 0,0 1,1-1,0 0,-1 0,1-1,0 1,0-1,0 1,1-1,-1 0,1 0,-1 0,1-1,0 1,-1-1,7 1,1 2,1-1,-1-1,1 0,0-1,0 0,0 0,18-3,-28 2,1-1,-1 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0-1,0 1,-1-1,1 1,0-1,0 0,-1 0,1 0,2-3,-1-1,-1 1,1-1,-1 0,0 1,0-1,0 0,0-9,0 3,-1 0,-1 0,0-1,0 1,-1 0,-1 0,-3-14,4 23,0 0,0 1,0-1,0 0,-1 1,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,-1 0,1 1,0-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 1,0-1,-4 0,-3 1,-1 0,1 0,0 1,-1 0,-17 6,-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="151376.85">22808 3691,'23'0,"-6"0,1 0,-1 0,1 2,31 7,-43-8,-1 1,0 0,0 1,0-1,0 1,0 0,0 1,-1-1,0 1,1 0,-1 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,-1 0,3 7,-1-4,-2 1,1 0,-1 0,0 0,-1 0,0 1,0-1,-1 0,-1 0,1 1,-1-1,-3 10,3-13,-1 0,0 0,0-1,0 1,0 0,-1-1,0 0,0 0,-1 0,1 0,-1 0,0-1,-1 0,1 0,-1 0,1 0,-1-1,0 1,-8 3,10-6,-26 12,17-5,12-2,9-1,-1 1,-1 0,1 0,-1 1,0 0,0 0,-1 0,0 1,-1 0,1 0,-1 1,-1 0,0-1,0 2,4 16,-2-5,-1 0,0 0,-2 0,-1 1,0-1,-3 27,1-44,0-1,-1 1,1 0,-1 0,0-1,0 1,0-1,-1 1,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,-1 0,0 0,1-1,-1 1,0-1,0 0,0 0,-1 0,-4 3,-13 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="152210.85">23232 3427,'7'1,"0"0,1 1,-1 0,0 0,0 0,0 1,0 0,-1 1,1-1,-1 1,0 0,0 1,0-1,-1 1,9 10,4 5,-1 0,28 46,-22-27,-1 2,-3 1,-1 0,-3 2,-1-1,-2 2,-2 0,-2 0,-2 0,-2 1,-3 57,-4-74,-1 0,-2-1,-1 0,-1 0,-2-1,-21 46,-95 147,114-199,-3 3,-1-1,-1-1,-1 0,-1-1,-1-1,-1-1,0-1,-42 28,36-29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="152875.85">23893 3824,'4'0,"11"0,8 0,3 0,16 0,5 0,0 0,0 0,-4 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="154468.85">24793 3506,'0'-4,"0"0,1 0,0 0,0 0,0 0,0 0,0 0,1 0,0 1,0-1,0 0,0 1,1 0,-1-1,1 1,0 0,0 0,0 1,0-1,0 0,1 1,-1 0,1 0,-1 0,1 0,5-1,5-2,0 1,0 0,0 1,0 0,0 1,18 1,-17 0,111 3,-113-1,-1 0,0 1,0 1,0 0,0 1,0 0,-1 1,12 6,-20-8,0 0,1 0,-1 0,-1 0,1 0,0 0,-1 1,0-1,0 1,0 0,0 0,0 0,-1 0,0 0,1 0,-2 0,1 0,0 7,1 12,-1 0,-3 29,0-23,2-15,-1 0,0-1,-2 1,1 0,-2-1,0 0,0 0,-1 0,-1 0,0-1,-1 0,0 0,-1-1,-11 13,18-21,-1-1,0 0,1 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,1 0,0 0,-1 0,1-1,0 1,0 0,1 0,-1 0,1-1,-1 1,1 0,0 0,0-1,2 5,4 7,0-1,1 0,16 20,4 5,-25-32,70 130,-66-121,0 1,-2 0,0 0,-1 1,0-1,2 34,-6-45,-1 0,0 0,0 0,0 0,-1 0,0-1,0 1,0 0,0-1,-1 1,1-1,-1 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,0 0,0 0,-1 0,1-1,-1 1,-6 2,-8 3,0 0,-1-1,0 0,-32 4,-59 1,63-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">992 1709,'-2'0,"0"-1,1 1,-1-1,1 0,-1 0,1 1,0-1,-1 0,1 0,0-1,-2 1,2 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,-1-1,-16-37,15 33,-15-54,1 1,3-1,-8-111,11 78,6 49,1-1,5-61,1 82,1 0,2 0,0 1,3 0,18-45,1 10,46-86,-63 128,0-1,3 1,0 0,1 2,24-24,-35 36,0 1,0 0,0-1,0 1,0 1,0-1,0 0,0 1,0-1,2 1,-2 1,0-1,1 0,3 0,-5 1,0 0,0 1,0-1,-1 1,1-1,-1 1,1-1,-1 0,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 1,2-1,-1 1,-1-1,1 1,-1-2,0 2,1-1,-1 1,0 0,0-1,0 3,2 16,0 0,-4 36,1-36,0 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="632.99">882 1101,'13'0,"16"0,6 0,6 0,2 0,-2 0,-4 0,-3 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1450.03">2037 418,'-21'35,"11"-14,-167 300,155-279,1 1,2 1,2 1,3 0,2 1,-8 61,-6 282,26-380,0 0,0-1,1 1,0-1,1 1,0 0,0-2,1 2,0-1,9 15,-8-19,0 2,0-1,1 0,-1-1,2 1,0 0,-1-1,1 0,-1 0,2-2,-1 1,1 0,-1 0,12 3,50 6,-40-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2176.99">2093 1026,'10'-6,"1"-1,0 0,-2 1,17-16,-17 13,2 1,-1 0,21-11,-20 13,-1 1,2 1,-1 1,1-1,-1 1,0 0,19-2,-23 5,-1 0,0 0,2 0,-2 1,0 0,0 0,2 0,-2 1,0 0,0 0,1 1,-2-1,1 1,-1 0,7 5,16 13,-2 1,-1 1,-1 2,-1 0,-2 0,-1 2,24 41,95 213,-118-230,-4-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2715.99">2671 950,'-5'0,"-7"5,-5 9,-4 11,-8 10,-5 8,0 5,1 4,0-4,7-6,8-5,6-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3390.99">3084 1430,'9'0,"4"5,2 9,2 7,-5 9,-3 3,-3 6,-3-2,-2-1,-1-2,-1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3754.99">3139 1127,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4258">3551 1279,'0'5,"0"13,0 14,0 13,0 7,0 1,0 2,0 3,0-7,0-6,0-6,0-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4728.99">3358 1608,'10'0,"6"0,12 0,9 0,13 0,12 0,-1 0,-4 0,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5977">3908 1228,'4'-2,"-1"0,1-1,-1 1,1 0,0 0,0 0,1 0,-1 1,0 0,0-1,0 2,1-1,0 0,-1 1,1 0,-1 0,0 0,1 0,0 1,-1-1,0 1,0 0,1 1,-1-1,1 1,4 2,1 1,1-1,-1 2,1 0,-2 1,0-2,1 3,-2-1,15 16,-15-11,0 0,0 0,-2 1,0 0,-1 0,1 1,-2-1,-1 0,0 2,2 24,-3 3,-2 0,-7 57,6-90,0 2,-1-2,0 2,-1-2,0 1,-1 0,0-1,-1 0,1 0,-11 12,11-16,-1 0,1 0,-1-1,-1-1,1 2,-1-1,1-1,-1 1,-1-1,1-1,0 0,0 1,-2-1,2 0,0-1,-1 0,-9 1,9-1,-1 0,1-1,1 0,-1 0,-1-1,1 1,0-2,-11-2,16 3,0 0,0 0,0 0,0 0,0 0,0-1,-1 1,2 0,-1 0,0-1,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,1-1,0 1,-1 0,1 0,0 0,0-1,1-2,-1 2,1 1,-1-1,1 0,-1 1,1-1,0 1,0-1,0 2,1-1,-1-1,0 1,1 0,0 0,-1 0,1 0,1 0,-1 0,2-1,2 0,-1 0,1 0,0 0,0 0,0 1,0 0,10-1,2-1,0 2,0 0,0 1,34 2,-44-1,1 1,1 0,-2 0,0 1,2 0,-2-1,0 2,1 0,-1 1,0 0,0 0,0 0,-1 0,1 2,-1-1,-1 1,0-1,1 1,8 12,23 25,-20-26</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6803">4514 292,'8'13,"0"0,3-1,-2 0,17 12,13 18,-2 5,-2 2,-2 2,-3 1,-2 1,-3 1,-2 1,14 58,-16-30,-3 0,-5 2,-3-1,-4 108,-7-80,-3 126,3-226,-2-1,1 1,-1-1,0 1,-1-2,0 2,-1-2,-1 1,0-1,-8 10,-9 11,-51 48,42-46,18-20,1 0,-2-2,0 1,-28 15,11-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10241">7321 672,'-3'116,"1"-35,8 85,-5-160,0 0,0-1,0 0,1 1,0 0,0-2,0 2,1-1,1 0,-1-1,0 1,1 0,-1-1,1 1,8 5,-4-4,1 0,0-2,0 1,0 0,1-1,-1 0,1-1,15 4,12 0,0-2,1-3,74 0,-63-3,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10840.99">7899 519,'10'140,"1"-35,-4 575,-8-424,0-246,1-2,1 2,0-2,0 2,1-2,3 11,8 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8737.99">5863 1228,'23'-8,"21"-8,24-1,12-1,12 2,15-1,2 2,-8 5,-21 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9354.99">6331 696,'0'14,"0"20,0 23,0 9,4 7,2 4,4 6,2 2,-3 3,-3 18,0 3,1-13,0-17,-1-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25690.21">15906 469,'697'0,"-646"4,-51-3,1-1,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 0,-1 1,0-1,1 1,-1-1,0 1,2 0,-2 0,0 0,0 0,-2 0,2 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0-1,0 0,0 1,0 0,-2 0,-2 3,-2-1,2 1,0 0,0 0,1 0,-1 1,0 0,-6 10,10-13,0 0,0 1,1-1,-1 0,1 0,-1 1,1-2,0 2,0-1,0 0,0 1,0-1,1 0,-1 1,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,3 0,9 13,3-2,-1 0,1-2,1 1,24 10,105 43,-90-42,-12-4,1-1,-2 2,0 1,69 47,-106-63,-1 0,-1 1,0 0,-1 0,2 0,-2 1,0 0,-1-1,0 1,0 0,0 0,0 1,-1-1,-1 0,0 1,0 0,0-1,-1 12,-2 11,-1 0,-2 0,-9 35,11-53,0-1,-2 2,1-2,-1 1,-1-1,0 1,-1-2,0 1,-1-1,-1 0,1 0,-1-1,-1 0,1-1,-20 12,13-11,2-1,-2-1,0-1,-1 1,1-2,-1-1,0 0,0-1,0 0,-1-2,-30 1,-217-16,226 10,0-3,0-1,2-1,-63-25,73 23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27743.73">18080 1355,'-3'0,"0"0,1-1,-2 1,2-1,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,0 1,1-1,-1 0,1 0,-1-1,1 1,0 0,0-1,0 1,0-1,0-1,-4-10,1 1,1-1,-2-20,5 33,-7-53,4-2,5-91,2 115,0 2,3-2,1 1,1 1,2 0,18-35,217-466,-239 512,0 0,0 0,1 0,2 0,12-20,-18 34,-1 1,1 0,-1-1,1 1,1 0,-1 1,1-1,0 1,0-1,0 1,0 0,1 1,-1-1,1 2,-1-1,1 0,1 1,-2 0,14-1,-10 1,1 0,0 1,0 0,0 1,13 3,-19-4,-2 1,1 0,0 0,0 1,-1-1,1-1,0 2,-1 0,2 0,-2-1,0 1,0 1,0-1,0 0,0 0,0 1,-1-2,1 2,-1 0,3 4,3 11,-2-1,0 1,-2 1,0-1,1 30,-8 98,2-105,0-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28470.25">17859 595,'10'0,"6"0,7 5,9 1,2-1,1 0,0 2,-2 0,2 0,1 3,-2-2,3 4,9-2,7-1,-2-2,-4-4,-7 8,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29349.77">19235 89,'-13'65,"-3"0,-2-2,-41 88,-7 27,49-129,-5 11,4 2,2-1,2 1,-5 100,19-151,4 143,-2-136,0 0,2-1,0 1,2-1,0-1,12 27,-13-38,-2 1,1-1,0 0,1-1,-1 1,2-1,-1 1,0-1,0-1,13 7,66 25,-60-26,-4-2,0-2,0 0,42 5,-28-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30073.6">19511 823,'0'-6,"1"0,0 0,1 0,0 0,0 0,0 1,0 0,2-1,-1 0,0 2,5-8,50-51,-28 37,1 2,0 0,2 2,1 1,0 2,1 1,42-15,-71 30,0 2,0-1,0 0,0 1,1-1,-2 1,1 1,0-1,0 1,1 0,-1 0,0 1,0 0,1 0,-1 0,0 1,12 3,-11 0,1 0,0 0,-1 1,-1-1,2 1,-2 1,0-1,-1 1,0 0,1 0,6 14,44 87,64 174,-72-161,-37-92,32 67,-39-88,1 1,0-1,2-1,-2 1,2 0,-1-2,2 1,10 8,1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30764.74">20639 494,'-9'0,"-13"4,-12 11,-9 6,-2 8,-9 31,2 12,5 3,5-7,10-6,1-10,6-9,2-3,1-5,-6-3,3-3,4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31471.02">20777 1202,'0'9,"0"7,0 9,0 6,0 0,0 0,0 0,0-3,4-5,2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31873.08">20804 849</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32851.6">21272 215,'0'0,"0"-1,0 1,0-1,0 0,1 1,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,0 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,2 0,-1 1,-1-1,1 0,-1 0,1 1,0-1,32 11,-20-3,0 0,-1 1,0 1,-1 0,1 0,-2 0,1 2,-2-1,-1 2,1-2,-2 2,0 0,9 20,5 22,-3 0,11 60,-17-67,7 45,-5 1,-4-1,-3 2,-16 171,4-214,-2-2,-3 1,-3 0,-32 78,32-96,-4 0,-1-2,0 1,-3-2,-1-1,-1 0,-42 40,44-50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35742.68">1 2291,'1071'20,"-94"-12,-557-11,6752 3,-6782 17,-158-3,901 12,-347-11,679-8,-891-8,1313 0,-1535 0,323 1,-2 30,-459 1,12 0,517-6,-533-22,1235 29,-1410-31,27 1,1-3,80-11,-109 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38532.68">8256 2949,'31'-2,"0"-1,0-2,1-1,-1-2,35-12,33-7,-88 24,126-24,-121 25,0 1,1 0,-1 1,0 1,1 0,23 6,-35-6,1 1,-2-1,0 1,0 0,1 1,-1-1,1 1,-2 0,1 0,-1 0,1 0,-1 0,0 1,0 0,1 0,-2 0,1-1,-1 1,0 1,0-1,-1 0,1 0,-1 1,0-1,0 8,3 13,-2-1,0 2,-6 36,3-39,0 6,-2 1,-1-2,-1 1,-12 32,11-43,-1 0,-2-1,0-1,-1 0,-1 1,0-2,-23 23,23-26,-1-2,-1 1,0-2,-1 1,-1-2,1 0,-1 0,-21 7,-16 2,-65 15,79-22,23-7,0 1,0-2,0 0,0-1,0 0,-29-2,41 0,0 1,-1-1,0 0,1 0,0 0,0 0,0 0,0-1,0 1,1-1,-2 0,1 1,1-1,-1 0,-3-4,5 3,-1 0,1 0,-1 1,1-1,0 0,1 0,-2 0,1 0,1-1,0 1,-1 1,1-1,1-1,-1 1,0 0,1 0,1 0,-2 1,3-6,2-5,1-1,1 1,1-1,0 2,0-1,2 2,14-16,-8 10,2 0,1 1,40-27,-50 39,2-1,-1 0,0 1,1 1,-1 0,2 1,-2 0,2 0,-1 1,0 0,0 0,13 2,17 2,75 15,-112-18,27 9,-1 0,0 2,1 1,-2 1,33 20,22 10,135 38,-148-57,-63-21,0-1,0 0,1-1,-1 1,0-1,1-1,-1 0,0 0,1 0,-1-1,15-3,-1-3,0 1,40-18,-28 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40696.69">10128 2696,'-3'2,"0"0,-1 0,2 0,-1 0,1 1,-1-1,1 1,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 4,-13 55,12-46,-47 188,-13 60,64-245,11-23,18-30,-23 24,2 2,17-22,56-49,-73 71,-1 1,3 1,-2 0,1 0,0 0,0 2,2-1,-2 1,2 0,-1 1,17-2,-1 1,0 1,0 2,0 0,0 2,0 1,34 5,-56-5,-1-1,1 1,-1 0,1 1,0-1,-1 1,-1 0,1 0,0-1,0 1,0 1,-1 0,0-1,0 1,-1-1,1 1,-1 1,0-1,1 0,-1 1,0-2,-1 2,0 0,0-1,0 5,2 15,0 1,-2-1,-4 38,1-33,1-2,-7 87,1-82</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="136848.31">15632 3937,'9'0,"8"0,24 0,38 0,24 0,14 0,24 0,-2 0,-21 0,-20 0,-28 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="138156.29">17613 3734,'-10'0,"-1"0,1 1,-1 0,1 1,1-1,-2 1,-16 7,22-7,0 1,0 0,-1 0,1 0,0 1,1 0,0 0,-2 0,2 0,1 0,-1 1,1 0,0 0,-5 7,-7 23,0-1,3 2,0 0,3 0,1 1,3 0,0 0,3 75,2-89,0 0,2 0,1 0,2-1,7 28,-10-44,1 1,0 0,2-1,-1 1,0-1,0-1,1 1,-1 0,2 0,0-2,-1 2,1-1,1-1,-1 1,1-2,-1 1,2-1,-1 1,0-1,13 3,97 21,-102-25,-1 0,0-1,1-1,-1 0,0 0,21-4,-29 2,0 0,-1 0,0 0,0-1,0 0,1 0,-2-1,0 1,1 0,-1-1,-1 0,1-1,1 1,-2-1,0 2,0-2,-1 0,1 0,-1 0,0 0,3-8,2-8,-2-1,0 1,4-43,-8-184,-4 122,3 110,-1-1,0 0,-1 0,-1 1,-6-21,8 32,0 1,-1 0,0 0,0 0,-1 0,1 1,-1-1,0 0,0 0,0 1,0 1,0-1,-2 0,2 0,-1 0,0 0,0 1,0 0,0 1,-1-1,1 0,-1 1,1 0,0-1,-6 1,-14-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="138558.29">18218 4620,'4'0,"3"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="140100.29">18411 3987,'57'-20,"-22"16,2 1,-2 2,1 0,39 5,-71-4,0 1,0-1,0 1,-1 0,0 0,1 1,-1-1,2 1,-2 0,0-1,0 1,0 1,0-1,-1-1,1 2,4 3,-3 0,1 0,-2 0,1 0,-1 1,2-1,-3 0,4 12,0 8,-1 0,-2 0,1 35,-3-56,-5 293,2-289,0 0,-1-1,1 1,-2-2,1 2,-2-1,0 0,0 0,0 0,0-2,-1 1,-10 9,13-12,-1 0,1-1,-2 1,2-2,-1 1,0 0,0 0,0-1,-2 0,2 1,-1-1,1-1,-1 1,0-2,-1 1,2 0,-1 0,0 0,0-1,-1 0,1 0,0 0,0-1,-8-1,10 1,0-1,0 0,1-1,-1 1,1 0,0-1,-2 0,2 1,0-1,1 1,-1-1,0 0,1 0,0-1,0 1,0 0,0 1,0-2,1 1,-1-1,1-5,-1-3,0 1,1-2,0 1,4-19,-4 28,1 0,0 0,0 1,0-1,0 1,0-1,1 0,-1 1,1-1,0 1,1-1,-1 2,0-1,0 0,0 0,1 0,2-2,0 1,2 0,-1 1,-1 0,1 0,1 1,-1-1,0 1,8-1,10 0,2 2,-1 0,35 5,-50-3,3 0,-3-1,1 2,1 0,-1 1,15 8,-14-8,-1 1,2 0,-2-1,17 1,-1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="141590.29">19676 3860,'0'5,"0"14,0 12,0 14,0 3,0 4,0 0,0-1,0 6,0-4,5-11,1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="142334.29">19374 4114,'4'0,"6"0,8 0,3 0,4-4,3-2,4 0,3 1,0 3,-2 0,-1 1,3 0,-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="143393.29">20750 3734,'-2'1,"1"-1,0 1,-2-1,2 1,0 0,-1-1,1 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,1 1,-2 1,-14 36,12-28,-20 52,2 0,-12 72,33-132,0 1,0 0,1 0,0 0,0 0,0-1,0 0,1 1,-1 0,1 0,0 0,0-1,0 0,3 5,-3-6,1 0,0 0,0 0,0 0,1-1,-1 0,0 1,0-1,0 0,1 0,-1 1,1-1,-1-1,1 1,-1 0,2-1,-2 1,1-1,-1 0,1 0,4 0,176-10,-153 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="144101.29">21135 3683,'0'5,"0"5,0 14,-6 7,-4 29,-7 17,-5 8,-3 7,-2-3,4-10,5-12,6-13,5-13,4-4,2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="144911.29">21520 3455,'-2'13,"0"-2,0 0,-1 0,0 1,-1-2,-1 2,0-2,-1 1,-9 14,4-9,2 0,-11 28,-17 108,-2 1,29-117,1-1,3 2,-4 64,12 113,1-79,-3-108,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="146755.31">22015 3607,'-1'12,"-1"-2,0 1,0 0,-1-1,-1 0,-7 13,-10 42,2 86,11-64,5-67,-9 121,11-123,2 0,0 0,1 0,1 0,8 27,-10-42,0 0,0-1,0 1,1 0,-1-1,1 1,0-2,-1 2,1-1,0 0,0 0,0 0,2 0,-2 0,0 0,1-1,0 1,-1-1,1 0,0 0,4 1,-5-2,0 0,0 1,1-1,-1 0,0 0,0 0,1-1,-1 1,0-1,0 1,1-1,-1 1,1-1,-1 1,0-1,0 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0-1,-1 0,1 0,-1 1,2-3,12-22,22-44,-32 59,-1 1,-1-2,0 2,1-2,-2 1,-1-1,0-14,-1 24,0 0,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-2-1,1 1,0-1,-1 0,1 1,0-1,0 1,-1-1,1 1,-3-1,-14-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="147211.29">21685 4316,'0'5,"0"1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="148488.29">22539 3683,'0'-1,"1"0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,-1-1,2 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,2 0,-2 0,2 0,38-4,-36 4,0 0,0 0,-1 0,1 1,-1 0,1 0,0 0,-1 0,0 1,0-1,0 1,1-1,-1 2,0-1,-1 1,1-1,5 7,-4-5,-1 1,0 1,0 0,-1-1,0 1,0 0,0 0,0 0,-1 0,1 11,0 4,-1 0,-1 0,-1 1,-1 0,-1-1,-6 24,8-41,-1 0,1 0,0 0,0 1,0-2,1 1,-1 0,1 0,0 0,0-1,0 0,1 1,2 5,35 42,-1 0,-18-15,-1-1,-3 1,-1 2,14 56,-28-91,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,0 1,-1-1,1 1,0 0,-1 0,-1-1,2 1,-1-2,0 1,0 1,-1-1,1 0,0 0,-1-1,1 1,-1 0,-1-1,2 1,-1-1,0 0,0 0,0-1,-5 2,-1-1,1 0,0-1,-2 0,2 0,0-1,-1 0,0 0,1 0,-1-1,1 0,1-1,-16-7,-13-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="149956.31">23308 3531,'-3'32,"0"1,-2-1,-3 0,-12 38,-14 62,20-58,5-37,3 0,1 1,2 72,4-107,0 1,0 0,0-1,0 1,1 0,0-2,0 2,0-1,1 0,-1 1,1-1,0 0,-1-1,1 0,0 1,0-1,0 1,2-1,-2 0,1 0,-1 0,1-1,0 1,-1-2,8 2,0 2,2-1,-2-1,2 0,-1-1,1 0,-1 0,19-3,-29 2,2-1,-2 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0-1,0 1,-1-1,2 1,-1 0,0-1,-1 0,1 0,2-3,-1-1,-1 2,1-2,-1 0,0 1,1 0,-1-1,0-9,0 4,-1-1,-1 1,0-1,0 0,-1 1,-1-1,-4-13,5 22,0 0,0 2,0-2,0 0,-1 1,1 0,-1-1,0 1,1 0,-1 0,0 0,0 1,0-1,-1 0,0 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 1,-1-1,-3 0,-3 1,-2 0,2 0,-1 1,0 0,-18 6,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="151376.84">23721 3531,'24'0,"-6"0,0 0,0 0,1 2,32 6,-45-7,-1 1,0 0,1 1,-1-1,0 1,0 0,0 1,0-2,-1 2,1 0,-1 0,-1 0,1 0,-1 0,2 0,-2 1,0 0,-1 0,3 6,-1-3,-2 0,2 1,-2 0,0-1,-1 1,0 0,0 0,-1 0,-1-1,1 2,-1-2,-3 10,3-12,-2 0,1 0,0-2,0 2,0 0,-1-1,0 0,0-1,-1 1,0 0,0 0,0-1,-1-1,1 1,-1 0,0 0,0-1,0 1,-8 2,9-5,-26 12,18-6,12-1,9-1,-1 1,0-1,0 1,-1 1,1-1,-1 1,-1 0,0 0,0 1,0 0,-1 0,-1 1,0-1,0 1,5 16,-3-5,-1 0,0 0,-1 0,-2 1,0 0,-3 24,1-41,0-1,-1 1,1 0,-1 0,0-1,0 0,-1 0,0 1,1-1,-1 1,0-1,0-1,0 1,0 0,0 0,-1 0,0 0,1-1,-2 1,1-1,0-1,0 1,-1 0,-4 3,-14 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="152210.84">24162 3278,'7'1,"1"0,0 1,-1 0,0 0,1 0,-1 1,0 0,0 1,0-2,-1 2,0 0,1 1,-1-1,-1 0,10 11,3 4,0 0,29 44,-23-25,-1 1,-4 1,0 0,-3 2,-2-1,-1 2,-3 0,-2 0,-1 1,-3 0,-3 54,-4-70,-1 0,-3-2,0 1,-1 0,-3-1,-21 44,-99 140,119-190,-4 3,-1-1,0-1,-2 0,-1-1,-1-1,0 0,-1-2,-44 27,38-28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="152875.84">24850 3658,'4'0,"11"0,9 0,3 0,17 0,5 0,0 0,0 0,-5 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="154468.84">25786 3354,'0'-4,"0"0,1 0,0 1,0-1,0 0,0 0,0 0,1 1,0 0,0-1,0 0,0 1,1 0,-1-1,2 2,-1-1,0 0,0 1,0-1,0 0,1 1,-1 0,2 0,-2 1,1-1,5-1,6-2,-1 1,1 0,-1 1,1 1,0 0,18 1,-18 0,116 3,-117-1,-2 0,1 0,-1 2,1 0,-1 1,1 0,-2 1,13 5,-21-7,0 0,2 0,-2 0,-1 0,1-1,0 1,-1 1,0-1,0 1,0 0,0-1,1 1,-2 0,0 0,1 0,-2 0,1-1,0 8,1 11,-1 0,-3 28,0-23,2-13,-1-1,0 0,-2 0,0 0,-1 0,0-1,0 1,-1-1,-1 1,-1-2,0 1,0-1,-2 0,-10 12,18-21,-1 0,-1 0,2 1,0-1,0 1,0-1,0 1,0 0,0-2,0 2,1 0,0 0,-1 0,1-1,0 1,0 0,1-1,-1 1,1-1,-1 1,1 0,0 0,0-1,2 4,5 8,-1-2,1 1,17 18,4 6,-25-32,71 125,-67-115,-1 0,-2 0,0 1,0 0,-1-1,2 33,-6-43,-1 0,0 0,0-1,0 1,-1 0,0-1,0 0,-1 1,1-1,-1 1,1-1,-1 0,0-1,-1 1,1 0,-1-1,0 1,0-1,0-1,0 1,-1 0,1-1,-2 1,-5 2,-9 2,0 1,0-1,-1-1,-33 5,-62 0,66-10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -19943,13 +20142,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">435 105,'-4'2,"0"-1,0 1,0 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1 0,0 0,0 0,1 0,-1 1,1-1,-1 1,-2 5,-1 1,-34 50,3 1,-36 82,-43 141,92-218,4 0,2 1,-10 85,23-107,1 1,2 0,3-1,1 1,16 86,-13-111,1-1,0 0,2-1,0 0,1 0,1-1,24 34,-29-44,2-1,-1 1,1-1,0 0,0-1,1 0,0 0,0-1,0 0,1 0,0-1,-1 0,2 0,-1-1,0-1,1 1,-1-1,1-1,10 1,-6-2,1-1,-1 0,0-1,0 0,14-5,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1229.99">1229 635,'-1'-1,"1"0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 1,1-1,-2 1,1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,-1-1,1 1,0 0,-2 1,-39-1,40 0,-11 1,-1 1,1 1,0 0,0 1,0 0,0 1,0 0,1 1,0 1,0 0,1 0,0 1,0 1,1 0,0 0,-13 16,11-9,1 0,0 0,1 1,0 1,2 0,0 0,1 0,1 1,1 0,-5 35,4-24,2 1,2-1,1 1,1 0,8 58,-7-83,1-1,1 0,-1 0,1 0,0 0,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,1-1,-1 0,1 1,0-2,0 1,0 0,0-1,0 0,0 0,1-1,-1 0,10 2,14 1,1 0,0-2,40-3,-49 1,11 0,-8 0,0 0,0-2,24-4,-42 4,1 1,-1-1,0 0,0 0,-1-1,1 1,0-1,-1-1,0 1,1-1,-1 0,-1 0,1 0,-1-1,0 0,5-6,-2-1,0 0,-1 0,-1-1,0 0,-1 0,0 0,-1 0,-1-1,2-15,-2-17,-5-64,1 45,1 52,-1-1,0 1,-1 1,0-1,-1 0,0 1,-1-1,-1 1,0 1,-10-17,-10-9,-51-56,55 68,20 23,-5-7,0 1,0 0,-1 1,0 0,-14-9,20 14,0 1,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,1 1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-3 4,-8 5,2 2,-1-1,2 2,-1-1,2 1,0 1,-13 24,8-8,1 1,-16 56,16-31</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1687.99">1652 1243,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3016.99">2367 502,'-26'0,"1"1,0 1,-42 8,56-7,0 1,0 0,0 0,1 1,-1 1,1 0,0 0,1 0,0 2,-11 9,4-2,1 1,1 1,0 0,1 1,1 0,-10 21,18-30,0 0,0 0,1 1,0-1,0 1,1-1,1 1,0 0,0 0,0 0,1-1,1 1,0 0,0 0,5 17,-4-22,1 0,0 0,-1 0,1 0,1 0,-1 0,1-1,0 0,0 0,0 0,0 0,1 0,0-1,-1 0,1 0,1 0,-1-1,0 0,1 0,-1 0,1 0,-1-1,1 0,0 0,-1-1,1 1,8-2,0 1,1 0,-1-1,1-1,-1-1,0 0,1-1,-2 0,1-1,22-12,-26 11,0-2,0 0,0 0,-1-1,-1 0,1 0,-1-1,-1 0,11-19,-4 3,-1-1,18-54,-19 22,-10 48,0 1,0-1,0 1,7-15,-9 25,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,4 20,-2 94,-16 159,2-98,12-168,-1 0,2 0,-1 0,1-1,1 9,4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3960">2658 635,'0'-2,"1"1,0-1,1 0,-1 0,0 1,0-1,1 0,-1 1,1-1,-1 1,1 0,0-1,0 1,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,4-1,3-3,10-5,-9 4,0 0,0 1,0 0,16-3,-22 6,-1 1,0 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,0 0,-1-1,1 1,4 4,0 2,-1-1,0 1,0 0,-1 1,0 0,0-1,-1 1,0 1,-1-1,0 1,0-1,2 19,0 14,1 69,-6-96,0 7,2 30,-2 1,-3-1,-14 81,15-125,-1 0,-1 0,1 0,-1 0,-1 0,1-1,-1 0,-1 0,1 0,-1-1,-11 10,15-14,-1 1,0-1,1 0,-1 0,0 0,-1 0,1 0,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,0 0,1-1,-1 1,1-1,-1 1,1-1,-1 0,1-1,-1 1,1 0,-6-5,6 4,0-1,0 0,0-1,0 1,1 0,-1-1,1 0,0 1,0-1,0 0,1 0,-1 0,1 0,0-1,0 1,1 0,-1 0,1-1,0 1,0 0,0 0,1-1,-1 1,1 0,0 0,0-1,1 1,-1 0,3-4,-2 2,1 0,0 1,0-1,0 0,0 1,1 0,0 0,0 0,0 0,1 1,-1 0,1-1,0 2,1-1,-1 1,1-1,-1 2,1-1,9-3,-5 5,-1 0,0 0,0 1,1 1,-1-1,0 1,0 1,0 0,0 0,0 1,11 4,12 7,51 33,-54-30,46 21,-50-29,1 0,0-2,0 0,0-2,0-1,1-2,28 0,-21-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5319.99">3875 687,'-41'0,"1"2,-53 9,77-8,0 1,0 0,0 2,1 0,-1 0,2 2,-1 0,-19 14,7-3,14-10,-1 0,1 1,-15 16,28-25,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1 0,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,1 1,18 9,34-6,-51-5,38 1,-16-1,1 0,-1 2,1 1,37 9,-55-10,0 1,0 0,0 0,0 1,0-1,-1 2,0-1,0 1,0-1,0 2,-1-1,1 1,-2-1,1 1,0 1,-1-1,-1 1,1 0,3 8,0 8,-2 1,0-1,-1 1,-2 0,0 0,-2 0,-4 45,2-10,2-55,0 6,0-1,-1 0,0 1,0-1,-6 17,6-23,0-1,0 1,0-1,-1 0,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,-1-1,1 0,-1 1,1-1,-1 0,1-1,-1 1,1 0,-1-1,-5 1,-33 1,-1-1,-49-5,12-1,-27-2,71 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6044.99">3690 0,'20'1,"0"1,0 1,0 1,0 0,-1 2,1 0,-1 1,34 18,5 9,70 52,-121-81,3 3,-1 0,0 1,0 0,-1 0,0 1,-1 1,0-1,-1 1,10 20,3 16,15 54,-10-27,-2-12,-3 0,-3 1,-3 1,-2 1,-3-1,0 80,-8-118,-10 246,6-233,-2 0,-1-1,-3 1,-25 67,24-80,-1-1,-1 0,-1-1,-1-1,-33 40,34-49,0 0,-1-1,-1 0,0-1,0-1,-1-1,-1 0,0-1,-19 7,-43 10,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">452 102,'-4'2,"0"-2,-1 2,1 0,0 0,0 0,1 0,-1 1,1-1,-2 1,2 0,0 0,0 0,1-1,-1 2,1-1,-1 1,-3 5,0 1,-35 48,2 1,-37 79,-44 137,95-212,4 1,3 1,-12 82,25-103,1 0,2 1,3-2,1 2,17 82,-14-106,1-2,0 0,3 0,-1-1,1 1,2-2,24 33,-30-42,3-1,-2 1,1-2,0 1,1-1,0 0,0-1,1 0,-1 0,1 0,1-1,-2 0,2 0,0-1,-1-2,1 2,0-1,0-1,11 1,-7-2,2-1,-1 0,-1-1,1 0,14-4,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1229.99">1277 614,'-1'-1,"1"0,0 0,-1 0,1 0,-1 0,0 1,1-1,-2 0,1 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 1,1-1,-2 1,1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,-1-1,1 1,0 0,-3 1,-39-1,41 0,-12 1,0 1,0 1,1 0,-1 0,1 1,-1 1,1 0,0 1,1 1,-1-1,2 1,-1 1,1 1,1-1,-1 1,-13 15,12-8,0-1,1 1,1 0,-1 1,3 1,0-1,0 1,2 0,1 0,-5 35,3-24,3 1,2-1,1 1,1 0,8 56,-7-80,1-2,2 1,-2 0,1 0,0 0,0-1,0 0,1 0,-1 0,2 0,-1 0,0 0,1-1,-1 0,1 1,1-3,-1 2,0 0,0-1,0 0,1 0,0-1,-1 0,11 2,14 1,1 0,0-2,42-3,-51 1,11 0,-8 0,0 0,0-2,24-4,-42 4,0 1,-1-1,0 0,1 0,-2-1,1 1,0-1,0 0,-1 0,1-1,-1 0,-1 0,2 0,-2-1,0 0,5-5,-2-2,1 1,-2-1,-1-1,0 1,-1-1,1 1,-2-1,-1 0,2-15,-2-17,-5-61,1 43,1 50,-1 0,0 0,-1 1,-1 0,0-1,0 2,-1-2,-1 2,-1 0,-9-16,-11-9,-53-54,57 66,21 22,-5-7,-1 1,1 1,-1 0,-1 0,-13-8,20 13,-1 1,0 0,1 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-2 0,2 0,-1 0,1 0,-1 1,0-1,1 1,-1 0,1 0,0 0,-2 0,2 0,0 0,-1 1,1-1,-3 3,-9 6,3 2,-2-2,3 3,-1-1,1 0,1 2,-14 22,9-7,0 1,-16 55,16-31</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1687.99">1716 1202,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3016.99">2459 486,'-27'0,"1"1,0 1,-44 7,59-6,-1 1,1 0,0 0,0 1,0 0,0 1,1 0,1 0,-1 1,-11 10,5-3,0 2,2 0,-1 1,2 0,0 1,-10 19,19-28,0 0,0-1,1 2,0-1,0 1,0-2,2 2,0 0,0-1,0 1,1-1,1 0,0 1,0 0,6 16,-5-21,1-1,0 1,-1 0,1 0,1 0,-1 0,2-1,-1-1,0 1,0 0,0 0,1 0,1-1,-2 0,1 0,1-1,-1 0,1 0,0 0,-1 0,1 0,-1-1,2 0,-1 0,-1-1,1 1,9-2,-1 1,2 0,-1-1,0-1,0-1,-1 0,2-1,-3 1,2-2,22-12,-26 12,-1-3,0 0,1 0,-2 0,-1-1,2 0,-2 0,-1-1,12-18,-4 3,-2-1,19-53,-19 22,-11 46,0 2,0-2,0 1,7-14,-9 24,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,2 0,-2 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,4 19,-2 92,-17 153,3-95,12-162,-1-1,2 1,-1 0,1-1,1 8,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3960">2761 614,'0'-2,"1"1,0-1,1 1,-1-1,0 1,0-1,1 0,-1 1,2-1,-2 1,1 0,0-1,0 1,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,5-1,2-3,11-4,-10 3,0 0,1 1,-1 0,17-3,-23 6,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 1,1-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 1,0 0,-1-1,1 1,5 4,-1 2,-1-2,0 2,1 0,-2 1,0-1,0 0,-1 1,1 0,-2 0,0 1,0-2,2 20,0 12,2 68,-7-94,0 7,2 30,-2 0,-3-1,-15 79,16-121,-1-1,-1 1,0 0,0 0,-1-1,1 0,-1 0,-2 0,2-1,-1 0,-12 10,16-14,-1 0,0 0,1 0,-1 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,1 0,-1 0,1 0,-1 0,0-1,0 1,1-1,-1 0,0 0,1-1,-1 1,0-1,0 1,1-1,-1 0,1-1,-1 1,1 0,-7-5,7 4,0-1,0 1,0-2,0 1,1 0,-1-1,0 0,1 1,0-1,0 0,1 1,-1-1,1 0,0-1,0 1,1 0,-1 0,1 0,0 0,0 0,0 0,1-1,-1 1,1 0,0 1,0-2,1 1,-1 0,3-4,-2 2,2 1,-1 0,0-1,0 0,0 1,1 0,0 1,1-1,-1 0,1 1,-1 0,1-1,0 2,2 0,-2 0,1-1,-1 2,2-1,8-3,-5 5,0 0,-1 0,1 1,0 1,-1-1,1 1,-1 1,0 0,1 0,-1 1,12 4,12 6,53 33,-56-30,48 21,-52-28,1-1,0-1,0 0,0-2,0-1,1-2,29-1,-21-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5319.99">4025 665,'-42'0,"0"2,-54 8,79-7,0 1,1 0,-1 2,1-1,0 1,1 2,0 0,-21 13,8-3,15-9,-2 0,2 0,-16 17,29-25,-1-1,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 1,0-1,-1 1,1 0,0-1,0 1,-2 0,2-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,2 1,17 9,36-7,-53-4,40 1,-17-1,1 0,-1 2,1 1,38 9,-57-10,1 1,-1 0,0-1,0 2,1-1,-2 2,0-1,0 1,1-1,-1 1,-1 0,1 1,-1-1,0 1,0 1,-1-2,-1 2,1 0,4 7,-1 9,-2 0,0-1,-1 1,-2 1,1-1,-3 0,-5 44,3-10,2-53,0 5,0 0,-1 0,0 0,0 0,-6 16,6-22,0-1,0 1,0-1,-1 0,1 1,-1-1,0 0,-1 0,1 0,0-1,0 0,0 1,0-1,0 1,-1-1,1 0,-1 1,1-1,-2 0,2-1,-1 1,1 0,-1-1,-5 1,-35 1,0-1,-52-5,13-1,-28-2,74 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6044.99">3833 0,'21'1,"0"1,-1 1,1 1,0 0,-1 1,0 1,0 1,35 17,6 9,71 50,-124-78,2 3,-1 0,1 0,-1 1,0 0,-1 0,-1 2,0-1,0 0,9 20,4 16,15 51,-10-25,-2-12,-3 0,-4 1,-2 1,-3 1,-2-1,-1 77,-8-114,-10 238,5-225,-1 0,-1-2,-3 2,-27 65,26-78,-2-1,0 0,-2-1,0 0,-35 38,35-48,1 1,-2-2,-1 1,1-2,-1 0,0-1,-2-1,0 0,-19 7,-45 9,0-4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20060,13 +20259,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">483 245,'-7'-1,"1"0,0 0,0-1,0 0,0-1,0 1,-9-6,-20-8,12 8,-1 2,1 0,-43-3,57 8,-1 2,1-1,0 1,-1 1,1-1,0 2,0-1,0 1,0 1,1-1,-1 2,-13 8,13-8,0 1,0 0,1 1,0 0,0 0,1 1,0 0,0 0,1 0,0 1,1 0,0 0,0 0,0 1,2 0,-1 0,1 0,1 0,-1 1,2-1,0 0,0 1,0-1,2 1,-1 0,4 17,5 32,17 65,-20-100,2 0,1 0,1-1,2 0,15 26,-24-46,0-1,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,0-1,0 0,0 0,0 0,0-1,0 1,0-1,1 0,-1 0,0-1,1 1,-1-1,1 0,-1 0,9-2,8-1,0-1,-1-1,34-13,-39 13,30-11,66-34,-98 44,0-2,0 0,-1 0,0-1,0-1,-1 0,0 0,-1-1,11-15,-15 13,0-1,-2 1,0-1,0 1,-1-1,-1 0,0-1,-1 1,-1-20,2 2,4-282,-6 310,0 1,0 0,-1 0,1 0,0-1,-1 1,0 0,0 0,0 0,0 0,0 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0-1,-3-2,1 4,0-1,1 1,-1-1,0 1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 1,0-1,1 1,-6 1,-15 3,0 1,1 1,-41 20,24-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="507.99">1012 827,'4'0,"6"0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1930.35">1700 34,'-14'0,"0"1,1-1,-1 2,1 0,0 1,-22 7,30-8,1 0,-1 0,1 0,0 1,0-1,0 1,0 0,1 0,-1 1,1-1,0 1,0 0,0 0,0 0,1 0,0 0,0 0,0 1,0-1,0 1,1-1,-1 7,-27 128,12-68,3-1,-7 136,20-203,1 1,0-1,0 1,0-1,0 1,0 0,1-1,0 0,-1 1,1-1,1 1,-1-1,0 0,1 0,0 0,-1 0,1 0,0 0,1 0,-1 0,0-1,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,1-1,-1 1,0-1,0 0,1 0,-1 0,1-1,-1 1,1-1,-1 1,1-1,4-1,13 1,0-1,0-2,0 0,0-1,-1-1,33-12,-14 2,0-2,49-30,-78 40,0-1,-1 1,0-2,-1 0,1 0,-2 0,1-1,-2 0,1 0,-1-1,-1 0,0 0,0 0,-1-1,-1 1,0-1,2-13,0-6,-1 1,-2-2,-1 1,-1 0,-8-48,7 66,-1 0,-1 0,0 0,-1 0,-1 0,0 1,-7-13,10 21,-1-1,-1 1,1 0,0-1,-1 1,0 1,0-1,0 1,-1-1,1 1,-1 0,0 1,0-1,0 1,0 0,0 0,0 1,0-1,-11 0,-23-1,-79 5,67 1,14-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3806.32">1859 563,'0'-3,"0"-1,0 0,0 0,-1 0,1 1,-1-1,0 0,0 1,0-1,0 0,-1 1,-3-6,4 8,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,0 0,0-1,-2 3,-27 9,0 1,1 2,1 1,1 2,0 0,-49 45,70-57,1 1,1 0,-1 0,1 0,1 1,-1 0,1 0,1 0,-1 0,1 0,1 1,0 0,0-1,-1 15,1 9,2 0,6 57,0-2,-7-39,0-34,0 0,1 1,0-1,1 0,1 0,4 19,-3-29,0 1,-1-1,1 0,1 1,-1-2,1 1,-1 0,1-1,0 1,1-1,-1 0,0-1,1 1,-1-1,1 0,0 0,8 2,4 2,1-2,0 0,30 3,-43-7,15 2,-1-1,1-1,28-3,-43 2,0 0,0 0,0 0,0-1,0 1,0-1,0 0,-1-1,1 1,-1-1,1 0,-1 0,0-1,-1 1,1-1,0 0,-1 0,4-6,17-34,33-87,-45 100,-5 16,-2-1,0 0,-1 0,-1 0,0-1,0-30,-3 40,0-1,-1 1,1 0,-2 0,1 0,-1 0,0 0,0 0,-1 0,0 0,0 1,-1-1,0 1,0 0,0 0,-1 1,-10-11,-6-4,0-2,-33-45,13 15,21 30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5662.35">2891 219,'-1'-2,"1"0,-1 0,0-1,1 1,-1 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 1,1-1,-1 0,0 1,0 0,1-1,-1 1,0 0,0 0,-1 0,1 0,0 0,-4-1,-66-16,62 17,-39-7,-1 2,0 2,1 2,-1 3,-91 12,133-12,-1 1,0 0,1 1,-1 0,1 0,0 1,0 0,0 0,0 1,1 0,-10 9,9-6,1 0,0 1,0 0,1 0,0 1,1 0,0 0,-6 17,6-14,0 0,1 0,1 0,0 1,0-1,0 18,3-28,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,0 0,0-1,0 1,1 0,-1 0,1-1,0 1,0 0,0-1,0 0,0 1,1-1,-1 0,0 0,1-1,0 1,-1 0,1-1,0 1,0-1,0 0,0 0,0 0,0-1,6 2,100 17,-60-12,0 2,-1 2,0 2,80 33,-119-41,8 3,0 1,0 0,27 21,-39-25,0-1,-1 1,1 0,-1 0,0 1,-1-1,1 1,-1 0,0 0,-1 0,1 0,-1 0,0 0,2 14,2 42,-3 1,-2 0,-10 86,9-146,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,0-1,1 1,-1-1,0 1,0-1,0 0,0 1,-1-1,1 0,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 0,0 0,-5 1,-5 1,-1-1,0-1,0 0,0-1,-16-2,5 0,-94 1,50 2,0-3,0-3,-86-18,143 20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8014.32">3552 272,'-16'1,"1"0,0 2,-1-1,1 2,0 0,1 0,-1 2,1-1,0 2,-25 16,19-10,1 2,0 0,1 1,1 0,1 2,-20 26,29-34,1 0,1 1,-1-1,2 1,0 0,0 1,1-1,0 1,1 0,0 0,1-1,0 1,2 20,-1-24,1 0,0 0,0 0,1 0,0 0,1 0,-1 0,1-1,1 0,0 1,0-1,0 0,1-1,-1 1,2-1,-1 0,1 0,0-1,0 1,10 5,-4-5,-1 0,1-1,0-1,0 0,1-1,-1 0,1-1,-1 0,1-1,0 0,0-1,25-3,-32 2,1 0,0 0,-1-1,1 0,-1 0,0-1,0 1,0-1,0-1,0 1,-1-1,1 0,-1 0,0 0,0-1,-1 0,1 0,-1 0,0-1,-1 1,1-1,-1 0,0 0,0 0,3-11,-1-13,-2-1,0 1,-2-1,-1 0,-6-39,1-25,4 71,0 16,0 1,1-1,0 1,0-1,1 0,0 1,0-1,4-9,-5 17,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,1 1,8 19,3 31,-2 50,-4 185,-4-30,14-138,-5-48,-11-69,0 1,0 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,-1 0,4-1,15-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9537.32">4240 166,'-1'69,"-2"0,-3 0,-16 69,-6 43,-8 35,28-184,-21 97,27-119,1 1,0-1,1 1,0-1,0 1,1-1,1 1,0-1,6 19,-5-22,1-1,1 0,-1 0,1 0,0 0,0-1,1 1,-1-1,1-1,1 1,-1-1,0 0,1-1,0 1,0-1,0-1,0 1,0-1,1 0,-1-1,1 0,-1 0,1-1,7 0,-7 1,-1-1,1 0,0 0,-1-1,1 0,-1-1,1 0,-1 0,0 0,1-1,-1 0,-1 0,1-1,0 0,-1 0,0-1,0 1,0-1,0-1,-1 1,0-1,0 0,6-10,-4-1,0-1,-1 0,-1 0,-1 0,-1-1,2-27,-3 5,-7-77,5 115,0 0,-1 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,-1 0,0 0,0 1,1-1,-1 1,0-1,0 1,0 0,-1 0,1 0,0 1,0-1,0 1,-6 0,-9-1,0 1,0 1,0 0,-27 7,14-2,1 2,-45 17,41-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">501 233,'-7'-1,"1"0,-1 0,1-1,0 0,0-1,0 2,-10-7,-20-7,12 7,-1 2,1 1,-44-4,58 8,0 2,1-1,-1 1,0 1,0-1,1 2,0-1,-1 1,1 0,1 0,-2 2,-12 7,12-7,1 1,0 0,0 0,1 1,0 0,0 0,1 1,0-1,1 1,-1 0,2 1,0 0,0-1,0 2,2-1,-2 1,2-1,1 1,-1 0,2 0,0-1,0 2,0-2,2 2,-1-1,4 17,6 30,17 62,-21-96,2 1,1 0,2-1,1 0,16 24,-25-43,0-1,1 0,-1 0,0-1,0 1,1 0,-1-1,1 1,0-1,1 0,-1 0,0-1,0 0,0 1,0-1,2 0,-2 0,0-1,1 1,-1-1,1 0,0 0,8-2,9-1,0 0,-2-2,36-12,-40 12,31-10,68-33,-102 42,1-1,-1-1,0 1,-1-2,1 0,-2-1,1 1,-2-2,12-14,-16 13,0-1,-2 0,0 0,1 1,-2-2,-1 1,0-1,-1 0,-1-18,2 2,4-269,-6 295,0 1,0 1,-1-1,1 0,0-1,-1 1,0 0,0 0,0 1,0-1,0 0,-1 0,0 0,1 0,-1 1,0 0,-1 0,1-1,-3-2,1 4,0-1,1 1,-1-1,0 1,-1 0,1 1,0 0,0 0,0-1,0 1,-1 0,1 1,0-1,1 0,-6 2,-16 3,0 1,1 1,-42 18,24-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="507.98">1050 786,'4'0,"7"0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1930.35">1764 32,'-14'0,"-1"1,2-1,-2 2,2 0,-1 1,-22 6,31-7,0 0,0 0,1 0,0 1,0-1,0 1,-1 0,2-1,-1 2,1-1,0 1,0 0,0-1,0 1,1 0,-1 0,1 0,0 0,0 0,0 1,1-1,-1 6,-28 122,12-64,4-1,-8 128,21-192,1 1,0-1,0 1,0-1,0 0,0 1,1-1,0 0,-1 1,1-1,1 0,-1 0,0 0,1 0,0 0,-1 0,1-1,1 1,0 0,-1 0,0-1,1 1,0-1,-1 0,1 0,0-1,0 1,1 0,0-1,-1 1,0-1,0 0,1 0,-1 0,1-1,0 1,0-1,-1 1,1-1,4-1,14 1,0-1,0-2,-1 0,1-1,-1 0,34-13,-15 3,1-2,50-29,-80 39,-1-2,-1 1,1-1,-2-1,1 1,-1-1,0 0,-2-1,1 1,0-2,-2 1,0-1,0 1,-1-2,-1 2,1-2,1-11,0-7,-1 2,-2-3,-1 2,-1-1,-8-45,7 63,-1-1,-1 1,0 0,-2-1,0 1,0 1,-7-13,9 20,0-1,-1 1,1 1,0-2,-1 1,0 1,0-1,-1 2,0-2,1 1,-1 0,0 1,-1-1,1 1,0 1,0-1,0 1,0-1,-12 0,-24-1,-81 5,69 1,15-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3806.32">1929 535,'0'-2,"0"-2,0 0,0 0,-1 0,1 1,-1 0,0-1,0 1,0-1,0 0,-1 2,-3-7,4 8,-2 0,2-1,-1 1,0 0,1 0,-1 0,0 0,0 1,0 0,0-1,0 1,1-1,-1 1,0 0,0 0,-2 0,2 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,0-1,0 0,-2 3,-29 9,1 0,1 2,1 2,1 1,0 0,-51 43,73-55,0 2,2 0,-1-1,1 1,1 1,-1-1,0 1,2-1,-1 1,1 0,1 0,0 1,0-2,-1 15,1 9,2-1,6 55,0-2,-7-38,0-31,0-1,1 1,0-1,1 1,1-1,4 18,-3-27,0 1,0-1,0 0,1 0,-1-1,1 1,-1 0,1-1,1 0,0 0,-1 0,0-1,1 1,-1-1,2 0,-1 0,8 1,5 3,1-2,-1 0,32 2,-45-6,16 2,-1-1,0-1,30-3,-45 2,1 0,-1 1,0-1,0-1,0 1,1-1,-1 0,-1-1,1 1,-1-1,1 0,0 1,-1-2,-1 1,1-1,0 0,-1 1,5-7,16-32,36-82,-48 94,-5 16,-2-1,1-1,-2 1,-1 0,0-1,0-29,-3 38,0 0,-1 0,1 1,-2-1,1 0,-1 1,0-1,0 0,-1 1,0-1,-1 1,0 0,0 0,0 0,0 0,-1 2,-11-11,-6-5,0 0,-34-44,14 14,21 29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5662.35">3000 208,'-1'-2,"1"0,-1 1,0-2,1 1,-1 0,0 0,0 0,0 0,-1 0,1 0,0 0,-2 1,1 0,1-1,-1 0,0 1,0 0,1-1,-1 1,0 0,0 0,-1 0,1 0,0 0,-5-1,-67-15,63 16,-40-6,0 1,-1 2,1 2,-1 3,-94 12,137-12,0 1,0-1,0 2,0 0,1 0,-1 1,1 0,0-1,-1 2,2 0,-10 8,8-5,2-1,0 2,0 0,0-1,1 2,1-1,0 1,-7 15,7-12,0-1,1 0,1 1,0 0,-1-1,1 18,3-27,0 0,1-1,-1 1,1 0,-1 0,1 1,0-1,0 0,1-2,-1 2,1 0,-1 0,1-1,0 1,0 0,0-1,0-1,0 2,1-1,-1 0,0 0,1-1,1 1,-2 0,1-1,0 1,0-1,0-1,0 1,0 0,0-1,7 2,103 16,-62-11,0 2,-2 1,1 2,83 32,-124-39,9 3,0 0,-1 1,29 19,-41-23,0-1,-1 0,2 1,-2 0,0 1,-1-2,1 2,-1 0,0 0,0-1,0 1,-1 0,0-1,2 14,2 40,-3 1,-2 0,-10 82,9-139,0 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0-1,-1 1,0-1,1 1,-2-1,1 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 1,0-1,0 0,0 0,-5 1,-6 0,0 0,-1-1,1 0,-1-1,-16-2,5 0,-97 2,51 0,0-1,1-4,-90-17,149 19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8014.32">3686 259,'-17'1,"2"0,-1 1,0 0,0 2,0 0,2 0,-2 1,2 0,-1 2,-25 15,19-10,1 2,1 1,0 0,1 0,2 2,-22 25,31-32,1-1,1 2,-2-2,3 1,0 1,0 0,1 0,0 0,1 1,0-1,1 0,0 0,2 19,-1-22,1 0,0-1,0 1,1-1,0 1,1 0,-1-1,1 0,1 0,0 0,1 0,-1-1,1 0,-1 1,2-1,-1-1,2 1,-1-1,0 0,11 6,-5-5,0-1,0 0,1-1,-1 0,1-2,0 1,0-1,0 0,0-1,1 0,-1-1,27-3,-34 2,1 0,1 0,-2-1,1 1,-1-1,0-1,1 1,-1-1,0-1,0 1,0 0,0-1,-1 0,0 0,0-1,-1 1,2-1,-2 0,0-1,-1 2,1-2,-1 0,0 1,1-1,2-10,-1-13,-2 0,0 0,-2 0,-1-1,-6-36,1-25,4 68,0 16,0 0,1 0,0 0,0-1,1 1,0 0,0-1,4-8,-5 16,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,1 1,9 18,2 30,-1 47,-5 176,-4-29,14-130,-4-47,-12-65,0 1,0 0,0 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,2 0,-2-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,0 1,-1-1,1 0,0 0,0 0,1 0,-1 0,-1 0,4-1,16-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9537.32">4400 158,'-1'65,"-2"1,-4 0,-15 65,-7 41,-9 34,30-176,-22 93,28-114,1 2,0-2,1 2,0-2,0 2,1-2,1 2,0-2,6 19,-5-22,1 0,2 0,-2-1,1 1,0 0,0-1,2 0,-2 0,1-1,1 1,-1-2,1 1,0-1,0 1,0-1,1-1,-1 0,0 0,2 0,-2-1,1 0,-1 0,2-1,6 0,-6 1,-2-1,1 0,0 0,0-1,0 0,-1-1,2 0,-2 0,0 1,1-2,0 0,-2 0,1-1,0 0,0 1,-1-2,0 1,0-1,1 0,-2 0,0-1,0 0,6-9,-3-1,-1-1,-1 0,-1 0,0 0,-2-2,2-24,-3 4,-7-74,5 111,0-1,-1 0,0-1,0 1,0 0,0 1,0-1,-2 0,2 0,-1 1,0-1,0 0,0 2,0-2,0 1,0-1,-1 1,1 0,-1 0,-1 0,1 1,1-1,-1 1,0 0,0 0,0 0,-1 0,1 0,-1 1,1-1,0 1,-6 0,-10-1,1 1,-1 1,0 0,-27 6,13-1,2 2,-47 15,43-8</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20093,56 +20292,56 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3764 1776,'4'0,"6"0,7 0,3 0,4 0,3 0,4 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="747.03">3579 2120,'13'0,"27"0,21 0,12 0,0 0,-14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8172.52">139 2437,'3'-6,"0"0,0-1,0 1,0-1,-1 0,0 0,-1 0,1 0,-2 0,1-1,-1 1,0 0,-1-7,2-7,4-154,-3 65,23-162,-13 224,2 0,2 1,2 1,46-82,-26 52,-31 62,1 0,0 0,1 2,0-1,13-13,-20 24,1-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,1 1,-1 0,0-1,6 0,-7 2,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 1,1 3,2 2,-1 0,-1 1,1-1,-1 1,-1 0,1 0,-1 0,-1 0,2 16,0 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-7024.53">7 1776,'-5'0,"3"0,7 5,11 1,8-1,8 0,3-2,6-1,-1-1,-2 0,-4-1,-2-1,-2 1,-3 0,0 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5117">827 956,'4'5,"2"5,-1 6,0 5,-2 3,-1 2,-1 1,4-4,1-1,0 0,-2 0,4 2,0 1,-2 0,-1 1,-2 1,-1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4232.01">1462 1114,'-2'19,"-1"-1,-1 0,0 0,-1 0,-1-1,-10 23,1-2,-80 193,-29 82,117-288,1 1,1 0,2 0,-1 32,7 109,0-71,-4-7,2 59,1-127,0 0,2 0,0-1,13 37,-16-53,1 0,-1-1,1 1,0 0,1-1,-1 0,0 0,1 0,0 0,-1 0,1 0,1 0,-1-1,0 0,0 1,1-1,0-1,-1 1,1 0,6 1,15 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3115">1621 1882,'6'-13,"2"0,-1 0,2 1,0 0,0 0,1 1,23-19,-29 26,1 0,0 0,1 1,-1 0,0 0,1 0,0 1,0 0,0 0,0 0,0 1,0 0,0 0,0 0,0 1,1 0,-1 0,0 1,0-1,1 1,6 3,3 2,-1 1,-1 1,1 0,-1 1,0 0,-1 1,0 1,-1 0,0 1,17 22,-4-2,-2 1,-1 2,21 43,66 164,-81-191,-20-39</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2338.01">2362 1696,'-3'1,"1"0,0-1,0 1,1 0,-1 0,0 0,0 0,0 1,1-1,-1 0,0 1,1-1,-1 1,1-1,0 1,-3 3,-21 37,20-33,-149 232,126-205,-1 0,-2-2,-1-1,-45 34,-49 32,86-70</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1706.01">2467 2226,'4'0,"2"5,0 5,-1 11,-2 5,-1 9,-1 6,0 1,-1-2,0 1,-1-2,1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-695.01">2864 1273,'2'24,"1"0,1 0,2-1,0 0,1 0,2 0,12 25,3 10,73 240,-85-244,-1 1,-4 1,2 89,-10-79,-9 76,6-117,-1-1,-1 0,0 0,-2-1,-1 0,-16 31,-13 25,24-41</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1402.99">2573 1961,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3329">4928 2067,'479'-2,"590"7,-570 27,612 117,45 24,-214-35,-617-85,614 92,-758-126,199-6,173-31,-510 16,297-21,401-78,-502 36,-91 22,-65 20,-26 7,0 2,97-11,1225-2,-926 29,349-2,-723 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4921">5510 532,'127'-5,"155"-27,-42 2,-230 29,1 0,-1 1,1 0,0 0,-1 1,19 4,-26-4,0 0,-1 0,1 1,0-1,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 0,-1 1,1-1,0 1,-1-1,0 1,1 0,-1 0,0-1,-1 1,1 0,0 0,-1 0,1 6,-1 1,1 0,-1 0,-1 0,0 1,-1-1,0 0,0 0,-1 0,0-1,-6 11,-5 9,-34 49,0 2,46-78,1 0,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,1 1,-1-1,1 1,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 1,1-1,2 2,8 3,0-1,1 0,0-1,0 0,21 3,97 10,-88-13,0 2,-1 1,1 3,-2 1,61 25,-98-34,-1 0,1 0,-1 1,1 0,-1 0,0 0,0 0,0 1,-1-1,1 1,-1 0,4 5,-6-5,1-1,-1 0,0 1,0-1,0 0,-1 1,1-1,-1 1,0 0,0-1,0 1,0-1,0 1,-1-1,0 1,0-1,0 1,-1 3,-7 14,-1 0,-1 0,-1-1,0 0,-2-1,0-1,-1 0,-1-1,0-1,-28 22,-4-3,-1-1,-101 51,97-61,0-2,-1-2,-1-3,-1-2,-96 12,65-18,0-3,-1-5,-92-10,173 8,-66-9,68 9,0 0,1 0,-1-1,1 0,-1 0,1 0,0 0,0-1,0 0,0 0,0 0,-4-4,-2-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6198.52">7203 1273,'4'-60,"3"0,2 1,3 0,33-97,-36 126,19-47,4 1,3 1,64-100,-47 85,-28 47,3 1,1 1,2 1,1 1,73-66,-98 99,1 1,-1 0,1 0,1 0,-1 1,1 0,13-4,-18 7,0 0,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,1 0,2 4,4 5,-1 0,-1 1,1 0,-2 0,0 0,0 1,-1 0,-1 0,0 1,-1-1,-1 1,0-1,0 1,-1 0,-2 19,0-20,0-1,-1 1,0-1,-1 0,-1 1,0-1,0-1,-1 1,-1-1,0 0,0 0,-1 0,-1-1,0 0,0-1,0 1,-12 8,6-8,1 0,-2 0,1-1,-32 13,-1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6754.52">7018 850,'4'0,"11"0,7 0,10 0,7 0,6 0,10 0,3 0,7 0,4 0,-4 0,0 0,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7452.52">8844 188,'-6'1,"0"0,0-1,0 2,1-1,-1 1,1 0,-1 0,1 0,0 1,0 0,0 0,0 0,0 1,-5 5,-8 8,1 1,-17 22,13-14,-105 119,-400 507,495-608,2 2,-37 78,57-103,1 0,1 0,1 1,1 0,1 0,1 0,0 0,2 1,1 23,2-27,1 1,1 0,0-1,1 0,2 0,-1 0,14 23,-15-33,0 1,1-1,0 1,0-2,1 1,0-1,1 0,0 0,0-1,1 0,0-1,0 0,0 0,18 7,-18-10,1-1,0 0,-1 0,1-1,0-1,17 0,1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8129.52">8685 1114,'0'-9,"1"0,0 0,0 0,1 0,1 0,-1 1,2-1,-1 1,1-1,0 1,1 0,-1 1,2-1,-1 1,1 0,10-9,-4 4,2 1,-1 1,1 0,1 0,0 2,0 0,29-10,-41 16,1 1,-1-1,1 1,0 0,-1 0,1 1,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 1,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,0 0,1 0,4 4,-4 0,1-1,-1 0,0 1,-1 0,0 0,0 0,0 1,0-1,-1 1,0-1,-1 1,1 0,-1 8,5 52,-3 91,-1 13,0-129,6 58,-8-94,1 0,1-1,-1 1,1 0,0 0,0-1,0 1,1-1,0 0,0 0,1 0,6 8,-9-12,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 0,2-1,14-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8734.52">9347 1088,'-5'0,"-10"5,-3 5,-2 6,-4 10,0 8,-2 4,-5 0,-2-3,-18 7,-5 0,-1-2,-5 6,3-5,8-10,8-6,25-6,15-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9231.52">9399 1591,'-5'0,"-1"5,1 5,0 6,2 5,1 3,1 2,-4 1,-1 1,1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9908.52">9479 1273,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10928.52">9796 373,'3'1,"1"0,-1-1,1 1,0 0,-1 1,0-1,1 1,-1-1,0 1,0 0,0 0,0 0,0 1,4 3,32 42,-24-18,-1 1,-2 0,-1 0,-1 1,8 51,-8-41,3 24,-3 2,3 112,-19 140,5-283,-7 35,-3 1,-3-2,-39 121,15-63,30-102,-1-1,-1 0,-15 28,11-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11928.52">10458 1247,'4'0,"11"0,2-4,8-2,4 0,2 1,-1 2,0-4,80 0,71 1,54 2,41 1,23 1,-3 6,-25 1,-59 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14113.52">13342 241,'1'1,"0"-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 1,0 1,4 32,-4-34,0 24,-1 0,-1 0,-1 0,-1 0,-11 38,-52 115,3-8,57-145,1-1,1 1,1 1,1-1,1 28,2-50,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,1 1,0-1,3 5,-1-5,0 0,-1 1,1-2,0 1,0 0,0-1,0 0,0 1,0-2,0 1,0 0,6-1,204 0,-95-3,-91 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14984.52">13897 268,'-36'91,"10"-4,-19 129,1 1,13-86,-22 211,49-262,3-48,-1 1,-11 49,9-55,0 0,2 0,2 36,0-40</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16127.52">14532 797,'1'196,"-3"214,1-381,-2-1,0 0,-2 0,-1 0,-1-1,-1 0,-14 29,10-42,1-20,-2-35,1-88,6-1,13-169,-4 230,24-131,-21 172,2 0,0 0,2 1,1 1,1 0,1 0,22-31,186-223,-214 271,0 2,1-1,0 1,0 0,0 0,18-9,-24 14,1 1,-1 0,1 0,0 0,-1 1,1-1,0 0,0 1,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,-1 0,1 0,0 1,-1-1,0 0,1 1,-1 0,0 0,0 0,0 0,2 2,2 4,0 0,-1 0,0 1,0-1,-1 1,0 0,-1 0,0 1,0-1,-1 1,-1-1,2 16,-1 5,-2 0,-5 54,0-57,-2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16974.52">14479 956,'4'0,"7"0,5 0,9 0,5 0,2 0,0 0,13 0,2 0,-1 0,-5 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17812.52">15802 294,'-2'1,"0"-1,0 0,1 1,-1 0,1-1,-1 1,0 0,1 0,-1-1,1 1,0 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,-1 3,-17 32,16-29,-33 81,-34 129,51-156,16-51,-104 372,85-286,5 0,-6 103,22-184,0 1,1-1,4 25,-3-34,1-1,-1 1,1 0,0-1,1 0,-1 1,1-1,0 0,1 0,-1 0,9 8,5 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18756.52">15591 1723,'0'-4,"9"-11,12-8,15-12,7-1,1 6,1 21,-7 17,-1 21,-1 9,0 8,0 4,-2 4,-2-3,-7-7,-3-9,-5-8,-5-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19531.52">16252 1432,'0'5,"-5"10,-5 16,-6 7,-1 2,-5 3,-9 3,1-1,1 0,-7 2,1-3,3-4,2-5,2-4,6-2,6-2,6-1,5-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21031.52">16358 1908,'0'9,"0"12,0 7,0 3,0 1,0 0,0-2,0-1,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21536.52">16570 1617,'0'5,"0"1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22196.52">16517 2014,'4'0,"11"-4,7-2,9-5,8 1,2 1,-2 2,-2 3,-4 2,-2 1,-2 0,-2 2,-1-1,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22849.52">17152 1670,'4'0,"2"5,-1 5,0 11,-2 10,-1 10,-1 1,0 3,-6-1,-1 0,-4 2,-1-3,2-3,2-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23791.52">17337 373,'10'1,"1"1,0 0,0 0,-1 1,1 0,-1 1,0 0,0 0,0 1,-1 1,1 0,-1 0,-1 0,1 1,14 16,4 7,-1 1,40 63,-13-12,-5 3,-3 1,-4 3,-4 1,-4 1,-3 3,-5 0,-4 1,-5 1,-3 1,0 174,-14-201,-6 111,4-160,0 1,-2-1,0 0,-2 0,0 0,-12 23,5-21,0 1,-2-2,-1 0,0 0,-2-2,0 0,-2-2,-25 20,31-26</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25708.52">18660 1167,'0'2,"1"-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 0,1 0,1 0,38 6,-37-5,32 0,1-1,0-2,50-8,32-3,73 1,172-4,-222 17,-77-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26656.52">19374 612,'0'18,"0"20,0 11,0 12,0 13,0 13,0 8,0 7,0-1,0-12,0-9,0-13,4-18,7-17,0-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28422.52">20777 1326,'-5'0,"-6"5,-5 1,0-10,2-21,18-47,12-26,3 1,4 7,-3 14,0 16,5 13,-1 11,5 6,-4 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39047.82">16543 2331,'597'-1,"700"3,22 103,862 137,-1955-219,614 35,-67-63,-739 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40260.85">22073 188,'-10'277,"5"-223,-3 0,-3 0,-17 53,17-72,-3 3,2 1,1 1,2 0,2 0,-3 81,10 122,4 119,-4-358,1 0,-1 1,1-1,-1 0,1 0,0 0,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,1 1,0-1,0 0,4 3,1 0,2 0,-1-1,1 0,-1-1,19 5,-20-6,20 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41313.82">22523 823,'0'-5,"1"0,0 0,0 0,1 0,-1 0,1 0,1 0,-1 1,0-1,1 0,0 1,0 0,0 0,7-6,59-51,-55 50,1-2,1 1,1 1,-1 0,2 1,0 1,33-12,-46 19,-1 1,1 0,0 0,0 0,-1 1,1-1,0 1,0 0,0 1,0-1,0 1,-1 0,1 0,0 0,-1 1,1 0,-1-1,1 2,-1-1,0 0,0 1,0 0,0 0,0 0,-1 1,0-1,1 1,-1 0,0-1,-1 2,1-1,-1 0,3 6,26 59,30 99,4 9,-55-152,9 21,2 0,1-1,42 61,-36-72</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36983.84">20777 1432,'-1'0,"0"0,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 1,1-3,-1-27,0 29,3-34,2 0,1 1,2-1,14-36,58-131,-71 180,24-55,3 1,3 3,81-115,3 55,-24 27,-96 102,0 1,0 0,0-1,0 1,1 0,-1 0,1 1,0-1,0 1,0 0,0 0,8-3,-11 5,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,1 0,-1 2,1-1,-1 1,1 0,-1-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 3,2 35,-4 60,1-68,-1 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37754.82">20803 1061,'4'0,"6"0,11 0,11 0,12 0,9 0,13 0,4 0,-5 0,-4 0,-14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42032.82">23608 691,'-9'0,"-8"5,-5 10,-8 11,-8 7,-10 10,-12 8,-13 8,2-2,-11 4,1-5,9-11,8-5,15-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42668.82">23819 1379,'0'5,"0"5,0 6,0 14,0 11,0 2,0-1,0 1,0-2,0-3,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43077.82">23899 1326,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44152.82">24084 1802,'0'-4,"4"-2,11 1,12 0,5 2,2 1,0 1,-1 0,-3 1,0 0,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46061.35">24507 1617,'3'-4,"0"-1,1 1,0-1,0 1,0 0,0 1,1-1,-1 1,1 0,9-5,-10 5,6-2,0 0,1 0,0 1,-1 0,1 1,12-2,-17 4,0 0,1 0,-1 0,0 1,1 0,-1 0,0 1,1-1,-1 1,0 1,0-1,8 4,-11-3,-1 0,1 0,-1 1,1-1,-1 1,0-1,0 1,0 0,0-1,-1 1,1 0,-1 0,1 1,-1-1,0 0,-1 0,1 1,0 5,3 68,-4-64,0 12,1 8,-2 0,-1-1,-12 62,12-85,-1 0,0-1,0 1,-1-1,0 1,0-2,-1 1,0 0,0-1,-1 0,0 0,0 0,-1-1,1 0,-2 0,1-1,0 0,-17 9,23-14,0 1,0 0,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,-1 0,1 0,0 1,0-1,0 0,-1-1,1 1,0 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,-2-2,2 1,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,0-1,1-2,1-11,2 1,0-1,6-15,-9 28,3-7,0 0,0 0,1 0,0 0,1 1,0 0,0 0,1 1,0-1,16-11,-20 16,0 1,0 0,1 0,-1 0,1 0,0 1,-1-1,1 1,0 0,0 0,0 1,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 1,0 0,0 0,-1 0,1 1,0-1,-1 1,1-1,-1 1,1 1,-1-1,5 5,29 24,-20-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47750.35">24825 400,'8'0,"7"0,-1 0,1 1,0 0,25 7,-35-7,0 1,-1 0,1 0,-1 0,1 1,-1 0,0 0,0 0,-1 0,1 0,0 1,-1 0,0 0,0 0,0 0,0 0,-1 0,3 7,26 64,35 134,-57-166,8 81,3 20,-12-99,-1 1,-3-1,-1 1,-3 0,-1 0,-3 0,-12 65,-16 28,-53 140,54-182,-19 23,18-49,-35 56,56-106</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50512.35">13924 3390,'134'-38,"1"6,175-19,-129 23,-159 24,-9 1,1 1,0 0,0 1,25 1,-36 0,1 1,-1-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 1,-1-1,1 1,0 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1-1,0 1,1 0,0 6,6 28,-2 0,-2 0,-2 1,-1 0,-5 48,2-12,1-44,-1 0,-1 0,-1 0,-1 0,-2-1,-2 0,0 0,-17 33,16-40,-5 14,-2-1,-2-1,-1 0,-1-2,-28 32,46-61,1 0,-1-1,0 1,0 0,0-1,-1 0,1 0,0 0,-1 0,1-1,-1 1,0-1,1 0,-1 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,1-1,-6 0,-3-3,0-1,0 1,1-2,-1 0,-16-12,-3 0,22 13,1-1,-1 1,1-1,0-1,0 0,0 0,1 0,-7-9,12 13,0-1,1 1,-1 0,1 0,-1-1,1 1,0-1,0 1,0-1,1 1,-1-1,1 0,0 1,0-1,0 0,1 1,-1-1,1 1,0-1,0 0,0 1,0 0,1-1,-1 1,1 0,3-5,1-1,1-1,0 1,0 0,1 1,0 0,1 0,0 0,0 1,1 1,0 0,0 0,0 1,1 0,-1 1,1 0,20-5,-3 5,0 0,1 1,-1 2,1 1,49 6,-70-5,0 1,0 0,0 0,0 0,0 1,-1 0,1 0,-1 1,0 0,0 1,-1-1,1 1,-1 1,0-1,8 10,3 7,-2 0,0 0,16 36,-16-30,1-1,20 28,-31-48,1-1,0 1,0-1,1 0,0 0,0-1,0 1,1-2,-1 1,1-1,15 5,-15-7,0 0,-1-1,1 0,0-1,0 0,0 0,-1 0,1-1,0-1,10-2,11-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51941.35">15776 2940,'0'1171,"3"-1123,3-32,-5-17,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 0,0 1,1-1,-1 1,0-1,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,22-57,29-115,-35 114,-15 52,1 1,0-1,0 0,1 1,0 0,0 0,1 0,-1 0,1 0,1 0,-1 1,1 0,8-7,-6 8,-1 0,1 0,-1 1,1 0,0 1,0 0,1 0,-1 0,0 1,1 0,-1 0,12 1,-8 0,0 0,0 0,0 1,0 0,0 1,0 0,17 6,-25-6,1 0,-1 0,1 0,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,0 0,0-1,0 1,0 0,-1 6,3 29,-5 75,-1-52,2-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3912 1706,'4'0,"7"0,6 0,4 0,4 0,3 0,4 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="747.03">3720 2036,'13'0,"29"0,21 0,13 0,0 0,-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8172.52">144 2341,'4'-6,"-1"0,0-1,0 1,0 0,-1-1,0 0,-1 1,1-1,-2 0,1-1,-1 2,0-1,-1-6,2-8,5-147,-4 63,24-157,-14 216,3 0,1 1,3 1,48-79,-28 50,-32 60,2-1,-1 1,1 1,1 0,12-13,-19 23,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,2 2,-2-1,0-1,6 0,-7 2,1 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,-1 0,2 1,-1-1,-1 0,1 1,-1-1,1 1,1 3,2 2,-1-1,-1 2,2-1,-2 0,-1 1,1 0,-1-1,-1 1,2 15,0 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-7024.53">7 1706,'-5'0,"3"0,7 4,12 2,8-1,8 0,3-2,7-1,-1-1,-3 0,-4-1,-1-1,-3 1,-3 0,0 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5117">860 918,'4'5,"2"5,-1 5,0 5,-2 3,0 2,-2 1,4-4,1-1,0 0,-2 1,5 1,-1 1,-2 0,-1 1,-1 1,-2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4232.01">1520 1070,'-3'18,"0"-1,-1 1,0-1,-1 0,-1 0,-11 21,1-1,-82 184,-31 80,121-277,2 1,1 0,2 0,-1 31,7 104,0-68,-4-6,2 56,1-122,0 0,2 0,0 0,14 34,-17-50,1 0,-1-1,1 1,0 0,2-2,-2 1,0 0,1 0,0 0,-1 0,1 0,1 0,-1-2,1 1,-1 1,1-1,0-1,-1 1,1 0,7 1,15 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3115">1685 1807,'6'-12,"2"0,0-1,1 2,0-1,1 0,0 2,24-19,-30 25,2 0,-1 1,1 0,-1 0,1 0,0 0,0 1,0 0,0 0,1 0,-1 1,0 0,0 0,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 1,7 3,2 2,0 1,-2 0,2 1,-1 1,-1-1,0 2,-1 1,0-1,-1 2,18 20,-4-1,-2 1,-1 1,22 42,68 158,-84-184,-21-38</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2338.02">2455 1629,'-3'1,"1"0,0-1,0 1,1 0,-2 0,1 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 1,1-1,0 1,-3 3,-22 35,20-31,-154 222,131-196,-1-1,-2-1,-1-1,-47 32,-51 31,89-67</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1706.01">2564 2138,'4'0,"2"5,1 4,-2 11,-2 5,-1 9,-1 5,0 2,-1-3,0 2,-1-3,1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-695.01">2977 1223,'2'23,"1"0,1 0,2-1,0 0,2 0,1 0,13 24,3 10,76 230,-89-234,0 1,-5 1,2 85,-10-76,-9 74,6-113,-2-1,0 0,0 0,-2-1,-2 0,-16 30,-13 24,24-40</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1402.99">2674 1883,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3329">5122 1985,'498'-2,"613"7,-593 26,637 112,46 23,-221-33,-643-83,639 90,-788-122,207-6,180-29,-530 15,308-20,417-75,-521 35,-95 20,-68 20,-27 7,0 2,101-11,1274-2,-964 28,364-2,-752 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4921">5727 511,'132'-5,"161"-26,-44 3,-238 27,0 0,-1 1,2 0,-1 0,0 1,19 3,-27-3,0 0,-1 0,1 1,0-1,-1 1,2-1,-2 1,0 0,1 0,-1 0,0 0,0 0,0 0,-1 0,1 0,0 1,-1-1,0 1,2 0,-2 0,0-1,-1 1,1-1,0 1,-1 0,1 6,-1 0,1 1,-1 0,-1-1,0 2,-1-2,0 1,-1 0,0-1,0 0,-6 10,-6 9,-35 47,1 2,46-75,2 0,0-1,0 1,0 1,0-1,0 0,1 1,-1-1,1 1,-1-1,1 1,0-1,0 0,0 0,0 1,1-1,-1 1,1-1,-1 1,1-1,0 0,0 1,0-2,0 1,0 0,2 0,-2 0,0 0,1 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 1,1-2,3 3,7 3,1-1,0 0,1-1,-1-1,23 4,100 9,-91-12,-1 2,0 1,1 2,-3 2,64 24,-101-34,-2 1,1 0,-1 1,1 0,-1 0,1 0,-1 0,0 1,-1-2,1 2,-1 0,5 5,-7-5,1-2,-1 1,0 1,0-1,0 0,-1 1,1-1,-1 1,0-1,0 0,0 1,0-1,0 1,-1-1,0 1,0-2,0 2,-1 3,-8 13,0 0,-2 0,0 0,0-1,-3-1,0-1,0 1,-2-2,1-1,-30 22,-4-3,-1-2,-105 50,101-59,0-2,-1-2,-1-2,-2-3,-99 12,68-18,0-2,-2-5,-95-9,180 7,-69-9,71 9,0 0,0 0,0-1,1 0,-1 0,1 0,0 1,-1-2,1 0,0 0,0 0,-4-4,-3-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6198.52">7486 1223,'4'-58,"4"0,1 2,4-1,33-93,-36 121,19-45,4 1,3 1,67-96,-49 82,-29 45,3 0,1 2,3 1,0 0,76-63,-102 95,1 2,0-1,0 0,1 0,0 1,0 1,14-5,-19 7,0 0,0 1,0-1,0 1,0 0,1 0,-2 0,1 0,0 0,0 1,0-1,0 1,0 0,-1 0,2 0,-1 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,1 0,3 4,3 5,-1-1,0 2,0-1,-2 1,0-1,1 2,-2-1,-1 1,0 0,-1 0,-1 0,0 0,0 0,-1 0,-2 19,0-19,0-2,-1 2,0-2,-1 1,-1 0,0 0,0-2,-2 2,0-2,0 1,0-1,-2 1,0-1,0-1,-1 0,1 0,-13 9,7-9,0 1,-1 0,0-2,-33 13,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6754.52">7294 816,'4'0,"12"0,7 0,10 0,7 0,7 0,10 0,4 0,6 0,5 0,-5 0,1 0,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7452.52">9192 181,'-6'1,"-1"0,1-1,0 1,1 0,-2 1,2 0,-1 0,1 0,0 1,-1 0,1 0,0 0,0 0,-6 6,-7 7,0 2,-17 20,13-13,-109 114,-416 488,515-585,2 2,-39 75,60-99,1 0,0 1,2 0,1 0,1 0,1 0,0 0,2 1,1 22,2-25,1 0,1 0,0-1,1 1,2-1,0 0,14 22,-16-31,0 1,1-2,0 2,1-2,0 0,0 0,1 0,1-1,-1 0,1 0,1-1,-1-1,1 1,18 7,-19-11,1 0,1 0,-2 0,1-1,1-1,17 0,1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8129.52">9027 1070,'0'-9,"1"1,0-1,0 0,1 1,1-1,-1 1,2 0,-1 0,1-1,1 2,0-1,-1 1,2 0,-1 0,2 0,9-8,-3 3,1 2,0 0,0 1,2-1,-1 2,1 1,30-11,-43 16,1 1,-1-1,1 1,1 1,-2-1,1 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0 0,-1-1,1 1,1 0,-2 1,1-1,-1 1,0 0,1 0,5 4,-5 0,1-2,-1 1,0 1,-1 0,0-1,1 1,-1 1,0-1,-1 0,0 0,-1 1,1 0,-1 7,5 50,-2 88,-2 12,0-123,6 55,-8-90,1-1,1 0,-1 1,1 0,0-1,0 0,0 1,2-1,-1 0,0-1,1 1,6 8,-9-12,0-1,0 1,-1-1,2 0,-1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0 0,1-1,-2 1,1-1,0 0,-1 1,1-1,0 0,-1 0,2-1,14-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8734.52">9715 1045,'-6'0,"-9"5,-4 4,-2 7,-4 9,0 7,-2 5,-5-1,-2-2,-19 6,-5 1,-2-3,-4 6,3-4,8-11,8-5,26-5,16-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9231.52">9769 1528,'-6'0,"0"5,1 4,0 7,2 4,1 3,1 2,-5 1,0 1,1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9908.52">9852 1223,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10928.52">10181 358,'3'1,"2"0,-2-1,1 1,0 0,-1 1,0-1,1 1,0-1,-1 1,0 0,0 0,0 0,0 0,4 4,34 40,-26-17,0 1,-2 0,-2-1,-1 2,9 49,-9-40,4 24,-4 1,4 108,-20 134,5-271,-8 33,-2 1,-4-2,-40 116,16-60,30-98,0-1,-1 0,-16 27,11-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11928.52">10869 1198,'4'0,"12"0,2-4,8-2,4 0,2 1,-1 3,0-5,84 0,73 1,56 3,43 0,24 1,-4 6,-25 0,-62 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14113.52">13867 231,'1'1,"0"-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 1,0 0,5 32,-5-33,0 23,-2 0,0 0,-1 0,-1 0,-11 37,-55 110,3-8,60-139,1-1,1 1,1 1,0-1,2 27,2-48,0 0,0-1,0 2,0-1,1 0,-1 0,1 0,0 0,0 0,1-2,-1 2,0 0,1 0,-1-1,1 1,0-1,3 5,-1-6,0 1,-1 1,2-2,-1 1,0 0,0-1,0 0,0 1,1-2,-1 1,0 0,6-1,213 0,-100-3,-94 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14984.52">14444 257,'-38'88,"11"-5,-20 125,2 0,12-82,-22 202,51-251,3-46,-1 1,-11 46,8-52,1 0,2 0,2 35,0-39</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16127.52">15104 765,'1'189,"-3"204,0-365,-1-1,0 0,-2 0,-1 0,-1-1,-2 0,-14 28,11-41,0-19,-1-33,0-85,7-1,14-162,-5 221,25-126,-22 165,2 0,1 0,1 1,1 1,2 0,0 0,24-30,192-214,-221 261,-1 1,1-1,1 2,-1-1,0 0,19-8,-25 13,1 1,0 0,0 0,0 0,-1 1,1-1,0 0,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,0 0,0 0,0 1,-1-1,0 0,1 1,-1 0,0 0,0-1,0 1,2 2,3 4,-1 0,-1-1,0 2,1-1,-2 0,0 1,-1 0,0 0,0 0,-1 0,-1 0,2 15,0 5,-3 0,-6 51,1-54,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16974.52">15048 918,'5'0,"6"0,6 0,9 0,5 0,2 0,0 0,14 0,2 0,-1 0,-6 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17812.52">16424 282,'-3'1,"1"-1,0 0,1 1,-1 0,1-1,-1 1,0 0,1 0,-1-1,1 1,0 0,-1 1,1-1,0 0,0 0,-2 1,2-1,0 0,-1 3,-17 30,15-27,-33 77,-36 125,54-151,15-48,-107 357,88-275,6 0,-7 99,23-176,0 0,1 0,4 23,-3-32,1-2,-1 2,1 0,0-1,1 0,-1 0,1 0,1 0,0 0,-1 0,9 7,6 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18756.52">16204 1655,'0'-4,"10"-10,11-9,17-10,6-2,2 6,1 21,-8 15,0 21,-2 9,1 7,-1 4,-1 4,-3-3,-7-7,-3-8,-6-8,-4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19531.52">16891 1375,'0'5,"-5"10,-5 14,-7 8,-1 1,-5 3,-9 4,1-2,1 0,-8 2,2-2,3-5,2-4,2-5,6-1,6-2,7-1,4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21031.52">17001 1832,'0'9,"0"11,0 7,0 3,0 1,0-1,0-1,0-1,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21536.52">17222 1553,'0'5,"0"1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22196.52">17167 1934,'4'0,"11"-4,8-1,9-6,9 1,2 2,-3 1,-1 3,-5 2,-2 1,-2 0,-2 2,-1-1,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22849.52">17827 1604,'4'0,"2"5,-1 4,0 11,-1 10,-2 10,-1 0,0 3,-7-1,0 1,-4 1,-2-3,3-2,2-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23791.52">18019 358,'10'1,"2"1,-1 0,1 0,-2 1,1 0,0 1,-1-1,1 1,-1 1,-1 1,2 0,-2-1,-1 1,2 1,14 15,4 7,-1 1,41 60,-13-11,-5 2,-3 2,-4 2,-5 2,-4 0,-2 3,-6 1,-5 0,-4 1,-3 1,-1 167,-14-192,-6 106,4-154,0 1,-3-1,1 0,-2 0,0 1,-13 21,5-20,1 1,-3-2,-1 0,1 0,-3-1,0-1,-2-2,-25 19,31-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25708.52">19394 1121,'0'2,"1"-1,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,2 1,-2-1,0 1,0-1,1 1,-1-1,0 0,1 0,1 0,40 6,-39-5,33 0,2-1,-1-2,53-8,32-2,77 0,178-3,-230 16,-81-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26656.52">20136 588,'0'17,"0"20,0 10,0 11,0 13,0 13,0 7,0 7,0-1,0-11,0-10,0-11,4-18,8-17,-1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28422.52">21594 1274,'-5'0,"-6"4,-6 2,0-10,3-20,18-45,13-25,2 1,5 6,-3 14,0 16,5 12,-1 10,5 6,-4 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39047.82">17194 2239,'620'-1,"728"3,23 99,896 131,-2032-210,638 34,-70-61,-768 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40260.85">22941 181,'-10'266,"5"-215,-4 1,-2 0,-18 51,17-69,-2 2,1 2,2 0,1 0,3 1,-3 77,10 117,4 115,-4-344,1 0,-1 0,1 0,-1 0,1 0,0 0,1 0,-1 0,1-1,0 1,0 0,1-1,-1 1,0-1,1 1,0-2,0 1,4 3,2 0,1 0,-1-2,2 1,-2-1,20 5,-20-6,20 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41313.82">23409 790,'0'-4,"1"-1,0 0,0 0,1 0,-1 1,1-1,1 0,-1 1,0-1,2 1,-1 0,0 0,0 0,7-6,62-48,-57 47,0-1,2 0,0 2,0-1,2 2,0 0,34-11,-48 18,-1 1,1 0,0 0,0 0,0 1,0-1,0 1,0 0,0 1,1-1,-1 1,-1 0,1 0,0 0,0 1,0 0,-1-1,1 2,-1-2,0 1,1 1,-1 0,0 0,0 0,-1 1,0-1,1 0,0 1,-1-1,-1 2,1-1,-1 0,3 5,27 58,32 94,3 9,-56-146,8 20,3 0,1-1,44 59,-38-69</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36983.84">21594 1375,'-1'0,"0"0,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1-1,-1 0,1 1,-1-1,1 0,0 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 1,1-3,-1-26,0 28,3-32,2-1,1 1,3 0,13-35,62-126,-75 173,25-53,4 1,2 2,85-109,3 52,-25 26,-100 99,0 0,0 0,0-1,0 1,1 0,0 0,0 1,0 0,0 0,0 0,0 0,9-3,-12 5,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,1 1,-1 0,0-1,-1 1,1 0,1 0,-1 2,1-2,-1 2,1 0,-1-1,0 1,0 0,0 0,0 0,-1 0,1-1,0 4,2 34,-4 57,1-66,-1 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37754.82">21621 1019,'4'0,"7"0,11 0,11 0,13 0,9 0,13 0,5 0,-5 0,-5 0,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42032.82">24537 664,'-10'0,"-7"4,-6 11,-9 10,-7 7,-11 9,-12 8,-14 7,2-1,-11 4,1-5,9-11,8-5,16-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42668.82">24756 1324,'0'5,"0"5,0 5,0 14,0 10,0 3,0-2,0 1,0-1,0-4,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43077.82">24839 1274,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44152.82">25031 1731,'0'-4,"4"-2,12 1,12 0,5 3,3 0,-1 1,-1 0,-3 1,1 0,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46061.35">25471 1553,'3'-4,"0"-1,1 1,0 0,1 0,-1 0,0 1,1-1,-1 1,1 1,10-6,-11 5,7-2,-1 0,1 1,1 0,-2 0,2 1,12-2,-18 4,0 0,1 0,0 0,-1 1,1 0,-1 0,1 1,0-1,-1 1,0 1,0-1,9 4,-12-3,-1 0,1 0,-1 1,2-1,-2 0,0 0,0 1,0 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,-1 0,1 1,0 5,4 65,-5-62,0 12,1 8,-2-1,-2 0,-11 59,12-81,-1 0,0-2,-1 2,0-1,0 0,0-1,-1 1,0-1,-1 0,0 0,0 0,0-1,-2 0,2 0,-2 0,1-2,-1 1,-17 9,24-14,0 1,0 0,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,0 1,0 0,0-1,0 1,-2-2,2 1,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 0,0 1,0-1,0 1,0 0,0-1,1-2,1-11,2 2,0-1,7-15,-10 27,3-7,0 1,0-1,1 0,1 1,0 0,0 0,0 1,2 0,-1-1,17-10,-21 15,0 1,0 0,1 0,-1 0,1 0,1 1,-2 0,1 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,1 1,-1 0,0 0,-1 0,1 0,0 0,-1 1,2-1,-2 1,1 1,-1-1,5 5,31 23,-22-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47750.35">25801 384,'9'0,"6"0,0 0,0 1,1 0,26 7,-37-7,0 1,-1 0,1 0,0-1,0 2,-1 0,0 0,0 0,-1 0,1 0,1 1,-2-1,0 1,0 0,0 0,0 0,-1 0,3 6,28 62,35 129,-58-160,7 78,4 20,-13-96,0 1,-4-1,-1 1,-3 1,-1-1,-3 0,-13 63,-16 26,-55 135,55-175,-19 22,19-46,-37 53,59-102</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50512.35">14472 3256,'139'-37,"1"7,182-19,-133 22,-167 23,-8 1,0 1,1 0,0 1,25 1,-37 0,1 1,-1-1,1 1,-1 0,-1 0,1 0,0 0,0 0,0 1,-1-1,1 1,1 0,-2-1,0 1,1 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1-1,0 0,2 1,-1 6,6 27,-2-1,-2 1,-2 0,-1 1,-5 45,2-11,1-42,-1 0,-1 0,-1-1,-1 1,-3-1,-1 0,0 0,-18 31,16-37,-4 12,-3 0,-2-2,-1 1,0-2,-30 30,48-58,0 0,0-1,0 1,0 0,0-1,-1 0,1-1,0 1,-2 0,2-1,-1 1,0-1,1 0,-1 0,0 0,-1-1,1 1,0-1,0 0,0 0,0 0,1-1,-7 0,-2-3,-1-1,1 2,0-3,0 0,-17-11,-3-1,22 14,2-2,-1 1,0-1,1 0,0-1,-1 0,2 0,-8-8,13 12,0-1,1 1,-1 1,1-1,-1-1,1 1,0-1,0 1,0-1,1 2,-1-2,1 0,0 1,0-1,0 0,1 1,-1 0,1 0,0-1,0 0,0 1,0 0,1-1,-1 2,1-1,3-5,2-1,0 0,0 0,1 0,0 2,0-1,2 0,-1 1,0 0,2 1,-1 0,0 1,1 0,0 0,0 1,0 0,21-4,-3 4,0 0,2 1,-2 2,1 1,51 6,-73-5,1 1,-1 0,0 0,0 0,1 0,-2 1,1 0,0 1,-1 0,0 1,-1-1,2 0,-2 2,0-1,9 9,2 7,-1 1,0-1,16 34,-17-28,2-1,20 27,-31-46,0-1,0 0,0 0,2 0,-1 0,0-2,0 2,2-2,-2 1,1-1,16 4,-15-6,-1 0,-1-1,1 0,1-1,-1 0,0 0,0 0,0-1,0-1,11-2,11-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51941.35">16396 2824,'0'1124,"4"-1078,2-30,-5-17,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 0,0 1,1-1,-1 1,0-1,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,23-54,30-112,-36 111,-16 49,1 1,0-1,0 1,1 0,0 0,0 0,2 1,-2-1,1 0,1 0,-1 2,1-1,9-7,-7 8,-1 1,2-1,-2 1,1 0,1 1,-1 0,1 0,-1 0,1 1,0 0,-1 0,13 1,-9 0,1 0,-1 0,1 1,-1 0,1 1,-1 0,18 6,-26-6,1 0,0 0,0 0,-1 0,0 0,0 1,0 0,0 0,0 0,0 0,0 0,-1 1,0-2,0 2,0-1,0 1,0 0,-1 0,0-1,0 0,0 1,0 0,-1 6,3 27,-5 73,-1-51,2-22</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20196,14 +20395,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 926,'0'-22,"-1"-41,13-102,-8 144,0 0,1 0,2 0,0 1,1 0,1 0,0 1,20-28,37-60,-49 76,1 1,1 0,2 2,36-39,-53 63,1 0,0 1,-1-1,1 1,0 1,1-1,-1 1,0 0,1 0,-1 0,1 1,0-1,-1 1,1 1,0-1,0 1,-1 0,1 1,0-1,0 1,-1 0,1 0,0 1,-1 0,0 0,1 0,-1 1,0 0,0-1,0 2,0-1,5 6,7 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="943.99">107 556,'9'0,"7"0,10 0,6 0,5 0,2 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2009">1007 133,'-3'38,"-1"-2,-11 48,8-43,-7 64,5 1,7 153,3-157,-2-93,1-1,1 1,-1-1,1 0,1 1,3 10,-4-16,0-1,0 1,1-1,-1 0,1 0,0 1,-1-1,1-1,0 1,0 0,0 0,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,3-1,27 3,-1-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3492.99">1642 450,'-10'3,"0"-1,1 1,-1 0,1 1,0 0,0 1,0 0,1 0,-1 1,1 0,-9 9,9-7,0 1,0 1,0-1,1 1,1 0,0 1,0 0,1 0,0 0,1 1,0-1,1 1,-2 14,-2 18,2 1,1 52,4-91,-1 0,2 0,-1 0,0 0,1 0,0 0,1 0,-1 0,1-1,0 1,4 6,-4-10,0 0,0 1,0-1,0 0,1 0,-1 0,0-1,1 1,0-1,-1 1,1-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,5-1,-3 1,0-1,0 1,0-1,-1-1,1 1,0 0,-1-1,1 0,-1 0,0-1,1 1,-1-1,0 0,0 0,-1 0,1 0,-1-1,0 0,0 1,0-1,0 0,0-1,-1 1,0 0,0-1,0 1,0-1,-1 0,0 1,1-9,2-14,-2-1,0 1,-2-1,-5-38,2 11,3 18,11-65,-4 43,-3 22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3951.99">1853 847,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5090.99">2012 424,'24'-1,"0"-1,1-2,39-11,27-4,-88 18,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0 0,0-1,0 1,0 0,-1 0,1 1,0-1,0 1,-1-1,1 1,3 3,-3-1,0-1,0 1,0 1,0-1,-1 0,0 1,0-1,0 1,0 0,-1-1,2 7,0 14,0 0,-1 0,-4 49,1-49,0 33,2-12,-9 59,7-93,-1 0,-1 0,0-1,-1 1,0-1,0 1,-2-1,1 0,-13 18,16-27,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,0 0,-1 0,1 1,-1-1,1-1,-5 2,5-2,1 0,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,0-1,0 1,0 0,1 0,-1 0,0-1,0 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,1-2,-4-13,0 1,2-1,-2-32,4 41,0-1,0 0,1 1,0-1,1 0,0 1,0-1,1 1,5-11,-7 17,-1 1,1 0,0-1,0 1,0 0,-1 0,1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,1 0,-1 0,0-1,1 2,-1-1,3 0,2 2,-1 0,1 0,-1 0,1 1,-1 0,5 3,-7-4,21 14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6710.99">2991 291,'-32'2,"1"1,-1 2,-56 15,80-17,0 0,0 0,0 1,0 0,0 0,1 0,0 1,-8 8,13-12,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,1 1,-1-1,0 1,1-1,-1 1,1 0,-1-1,1 1,0 0,-1-1,1 1,0 0,0-1,0 1,1 0,-1-1,0 1,1 0,-1-1,1 1,-1-1,1 1,0 0,0-1,-1 0,1 1,0-1,1 1,-1-1,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,2 0,3 3,0 0,1-1,-1 0,1 0,-1-1,1 0,0 0,0-1,12 0,79-4,-9 0,-85 4,-1-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,1 0,-1 1,1-1,-1 1,0 0,4 3,-3-1,0 1,-1 0,1-1,-1 1,0 0,0 1,-1-1,0 0,2 9,0 12,-1 0,-1 0,-3 55,0-59,1-18,0 0,0-1,-1 1,1 0,-1-1,0 1,-1-1,1 1,-1-1,0 0,0 0,0 1,-1-1,0-1,1 1,-1 0,-7 6,5-6,-1-1,1 0,-1 0,0 0,0 0,0-1,0 0,0 0,0-1,-1 1,1-1,-10 0,2 0,0 0,0-1,-1-1,1 0,0-1,0 0,0-1,0-1,0 0,1-1,0 0,0-1,0-1,1 0,-21-15,13 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7651.99">3097 0,'10'0,"0"1,0 0,-1 0,1 1,0 0,0 0,-1 1,1 1,-1 0,0 0,0 0,14 11,-11-5,1 1,-1 0,-1 1,0 1,-1-1,17 29,-6-2,-1 0,-1 2,-3 1,-1 0,-2 1,-3 0,12 89,-19-101,-1 0,-2 1,-1-1,-1 1,-10 48,9-66,-1-1,0 0,-1 0,0-1,-1 0,0 0,-1 0,-1 0,0-1,0 0,-1-1,0 0,-1 0,0-1,-14 9,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 888,'0'-21,"-1"-40,14-97,-9 138,0 0,1 0,3 0,-1 0,1 1,2 0,-1 1,22-27,38-58,-51 74,1 0,0 0,4 2,36-37,-55 60,2 0,-1 1,-1 0,1 0,1 1,0-1,-1 1,0 0,2 0,-2 0,1 1,1-1,-2 1,1 1,0-1,1 1,-2 0,1 1,1-1,-1 1,-1 0,1 0,1 1,-2 0,0 0,1 0,0 1,-1 0,0-1,0 1,1 0,4 6,8 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="943.99">112 533,'10'0,"6"0,12 0,5 0,6 0,2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2009">1056 128,'-3'36,"-1"-2,-12 47,9-42,-8 62,6 1,7 146,3-150,-2-90,1 0,1 1,-1-2,1 1,1 1,3 9,-4-15,0-1,0 1,1-1,-1-1,1 1,1 1,-2-1,1-1,0 1,0 0,0 0,1-1,-1 1,0-1,2 1,-2-1,1 0,-1 0,1-1,-1 0,1 1,-1-1,1 1,4-1,27 3,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3492.99">1722 432,'-10'2,"-1"0,2 1,-2 0,2 1,0 0,-1 1,1-1,0 1,0 1,0 0,-8 8,8-6,1 0,-1 2,1-1,1 0,0 1,1 0,0 1,1-1,-1 1,2 0,0 0,1 0,-2 14,-3 18,3 0,1 50,4-88,-1 1,2 0,-1 0,0 0,1-1,0 1,1 0,-1 0,1-2,0 2,5 6,-5-11,0 1,0 1,0-1,0 0,1 0,-1 0,0-1,2 1,-1-1,-1 1,1-1,0 0,0 0,0 0,0 0,1-1,-1 0,0 0,0 0,0 0,0 0,1 0,4 0,-3 0,0-1,1 1,-1-1,-1-1,1 1,1 0,-2-1,1 0,-1 0,0-1,2 1,-2-1,0 0,0 1,-1-1,2 0,-2-1,0 0,0 1,0-1,0 1,0-2,0 1,-1 0,0-1,0 2,0-2,-1 0,0 1,1-8,2-14,-2-1,1 1,-3-1,-6-36,3 10,3 18,12-63,-5 41,-3 22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3951.99">1944 812,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5090.99">2110 407,'26'-1,"-1"-1,1-2,41-11,29-3,-93 17,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0 0,0-1,0 1,1 0,-2 0,1 1,0-1,0 1,-1-1,1 1,4 3,-4-2,0 0,0 1,0 1,0-1,-1 0,1 0,-1 0,0 1,0 0,-1-1,2 6,0 14,0 0,-1 0,-4 47,1-47,0 32,2-12,-9 56,7-88,-1-1,-1 1,-1-1,0 0,0 0,0 0,-2 0,0-1,-13 18,17-26,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,0-1,-2 1,2-1,0 0,-1 0,1 1,-1-1,1-1,-6 2,6-2,1 0,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 0,1 0,0 0,0 1,-2-1,2 0,0 0,0-1,0 1,0 0,1 0,-1 1,0-2,0 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,1-2,-4-12,-1 1,3-2,-2-30,4 40,0-2,0 0,1 2,0-2,1 0,0 2,1-2,0 1,5-10,-7 16,-1 1,1 0,0-1,0 1,0 1,-1-1,1 0,0 0,2 0,-2 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,2 0,-2 0,0-1,1 2,-1-1,3 0,2 2,0 0,0 0,-1 0,1 1,0-1,4 4,-7-4,22 13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6710.99">3137 279,'-33'2,"0"1,0 2,-60 14,85-16,0 0,-1-1,1 2,-1 0,1 0,1 0,-1 1,-7 7,13-11,1 0,-1 0,0 0,1 0,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 1,1-1,-1 1,1 0,-1-1,1 1,0 0,-1-1,1 1,0 0,0-1,0 1,1 0,-1-2,0 2,1 0,-1-1,1 1,-1-1,1 1,0 0,0-1,-1 0,1 1,0-1,1 1,-1-1,0 0,0 0,1 0,0-1,-1 1,0 0,1 0,-1 0,1 0,2 0,4 3,-1 0,1-1,0 0,0 0,-1-2,2 1,-1 0,0-1,13 0,83-4,-9 0,-90 4,-1-1,0 1,1 0,-1 0,0 0,0 0,0 1,1-1,-1 1,-1 0,1 0,-1 1,1-1,0 1,-1-1,4 4,-3-1,0 1,0-1,0 0,-1 1,0 0,0 0,-1 0,0 0,3 8,-1 12,-1 0,-1 0,-3 53,0-57,1-17,0-1,0 0,-1 1,1 0,-1-1,0 0,-1 0,1 1,-1-1,-1 0,1-1,0 2,-1-1,0-1,1 1,-1 0,-8 5,6-5,-1-1,0 0,0 0,0 0,0-1,-1 0,1 0,0 0,-1-1,0 1,1-1,-11 0,2 0,1 0,-1-1,-1-1,2 0,-1-1,0 0,0-1,1-1,-1 1,1-2,1 0,-1-1,1 0,0-1,-22-14,14 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7651.99">3249 0,'10'0,"1"1,-1 0,0 0,0 1,0 0,1 0,-2 1,2 0,-2 1,1 0,-1 0,15 10,-11-4,1 0,-2 1,0 0,-1 2,0-2,17 29,-6-3,-1 1,-1 1,-3 1,-1 0,-3 2,-2-1,12 85,-20-96,-1 0,-2 1,-1-2,-1 2,-11 46,10-64,-1 0,0-1,-2 0,1 0,-1 0,0-1,-2 1,0-1,-1 0,1-1,-1 0,-1-1,0 1,-1-1,-14 8,-4 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20403,7 +20602,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">10 222,'-1'0,"1"0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,8-20,16-17,-9 20,0 1,0 0,34-26,-39 36,0-1,0 1,1 1,0 0,0 1,0 0,1 0,19-4,-29 9,1-1,0 1,0 0,0 0,-1 0,1 1,0-1,0 1,-1-1,1 1,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,0 0,0-1,1 5,3 11,-1 1,0-1,2 37,-4-30,12 383,-9-358,0-34</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="407.99">750 566,'9'0,"3"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="407.98">750 566,'9'0,"3"0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20430,16 +20629,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1270,'2'-43,"3"1,1-1,17-59,-8 37,30-93,-10 41,-25 84,1 0,1 1,2 1,1 0,1 1,2 1,1 1,1 0,38-39,-54 63,0 0,1 0,0 0,0 0,0 1,0 0,0 0,1 1,-1-1,1 1,0 0,-1 1,1-1,0 1,0 1,0-1,11 1,-13 0,-1 1,1 0,-1 0,1 0,-1 0,0 0,1 1,-1 0,0-1,0 1,0 0,0 1,0-1,-1 0,1 1,-1 0,0-1,1 1,-1 0,0 0,-1 0,1 1,0-1,-1 0,0 1,0-1,0 0,0 1,0 0,-1 4,3 18,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="825">107 688,'0'5,"4"1,7 0,5 3,5 0,3-1,2-2,1-3,1-1,-1-1,1-1,3 0,16 0,-1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1841.99">954 0,'4'0,"11"5,2 6,-1 5,-3 14,0 1,-2 1,-2-1,-4-2,-2-1,-1 0,-6-1,-3-1,1 1,1-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2691">1351 133,'0'904,"0"-889,0 1,2-1,0 0,0 0,2-1,-1 1,2-1,10 23,-12-31,0-1,0 1,0-1,1 0,0 0,0 0,0-1,1 1,-1-1,1 0,0-1,0 1,1-1,-1 0,1 0,0 0,-1-1,1 0,0 0,0-1,0 1,1-1,5 0,11-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4205">1853 503,'-1'3,"0"0,0 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,0 1,0-1,0 0,0 0,-4 3,-10 13,7-2,0 0,1 1,1-1,0 2,2-1,0 1,-5 28,6-16,1 0,2 0,4 57,-2-80,0 0,1 0,0 0,0 0,1-1,-1 1,1-1,1 0,-1 0,1 0,0 0,0-1,1 1,0-1,7 6,-10-9,1 0,0 0,0 0,-1 0,2 0,-1-1,0 1,0-1,0 0,1 0,-1 0,0-1,1 1,-1-1,1 1,-1-1,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 0,0 0,0 0,1-1,-1 1,0-1,0 0,0 0,5-4,0-2,1 0,-1-1,-1 0,0 0,0-1,-1 0,0 0,0 0,-1-1,-1 0,6-19,0-11,9-82,-11 60,-5 46,-1 1,-1-1,0 0,-1 1,-1-1,-3-24,3 37,-1 0,1-1,0 1,-1 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,-1 0,1 0,-6 1,6-1,0 1,0-1,0 1,0 0,0 0,0 0,0 1,0 0,1-1,-1 1,0 1,0-1,1 0,-1 1,1 0,-1 0,1 0,-1 0,1 1,0-1,0 1,1 0,-1-1,0 1,1 1,0-1,-1 0,1 1,-1 3,-4 14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4726">2197 900</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6292">2515 424,'-6'4,"1"0,-1-1,1 0,-1 0,0 0,0-1,0 0,0 0,-11 1,-35 14,50-16,-1 1,1-1,0 1,0-1,-1 1,1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,0 1,-1-1,1 1,-1 3,2-5,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 1,1-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,2 0,47 15,-22-9,-22-5,-1 1,1 0,-1 0,1 0,-1 1,0 0,-1 0,1 0,-1 0,1 1,-1-1,-1 1,1 0,-1 0,1 1,-2-1,1 1,0 0,-1-1,0 1,-1 0,1 0,-1 1,0-1,-1 0,0 0,1 0,-2 0,1 1,-1-1,0 0,0 0,-1 0,0 0,0 0,0 0,-5 8,4-10,1 0,-1-1,0 1,0-1,0 1,0-1,-1 0,1 0,-8 4,-10 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7190.99">2621 53,'3'1,"0"-1,-1 1,1 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,4 4,31 37,-27-30,-1 0,1 0,-2 1,0 1,-1-1,0 1,-1 0,4 19,22 117,-17-68,-1-16,-3 0,-3 2,-3-1,-8 123,-7-128,4-36</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8365">3176 397,'4'0,"7"0,5 0,5 0,3-4,2-2,1 1,1 0,-1 2,1 1,-5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9195">3229 662,'4'0,"7"0,9 0,7 0,3 0,-4-4,-1-2,-1 0,0 1,0 2,1 1,-4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1207,'2'-40,"3"0,2-1,17-56,-9 35,33-88,-12 38,-25 81,0 0,2 0,2 2,0-1,2 2,2 0,1 2,1-1,40-37,-57 61,0-1,2 0,-1 0,0 0,0 1,0 1,1-1,0 1,-1-1,2 1,-1 0,-1 1,1-1,1 1,-1 1,0-1,12 1,-14 0,-1 1,2 0,-2 0,1 0,-1 0,0 0,1 1,0 0,-1-1,0 1,0 0,0 1,0-2,-1 1,2 1,-2 0,0-1,1 1,-1 0,0 0,-1-1,1 2,0-1,-1 0,0 1,1-1,-1-1,0 2,0 0,-1 4,3 16,-2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="825">112 654,'0'5,"4"1,8-1,5 4,5-1,3 0,2-2,2-3,0-2,-1 0,2-1,2 0,17 0,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1841.99">1001 0,'4'0,"12"5,1 5,0 5,-3 14,0 0,-3 2,-2-2,-3-1,-3-1,-1-1,-6 0,-4-1,2 0,1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2691">1417 126,'0'860,"0"-846,0 1,2 0,0-1,0 0,3-1,-2 2,2-2,11 22,-13-29,0-1,0 0,0 0,2 0,-1 0,0-1,0 0,1 1,0-1,0 0,0-2,0 2,2-1,-2 0,1 0,0 0,0-2,0 1,0 0,1-1,-1 1,1-1,6 0,11-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4205">1944 478,'-1'3,"0"0,0 0,0 0,-2-1,2 1,-1-1,1 1,-1-1,0 1,0-1,0 0,0 0,-5 2,-9 13,6-1,1-1,0 1,2-1,0 2,1-1,1 2,-5 25,6-14,0-1,3 1,5 54,-3-77,0 1,1 0,0-1,0 1,1-1,-1 0,1 0,1 0,0-1,0 1,0 0,0-2,1 2,1-1,6 5,-10-8,2 0,-1 0,0 0,-1 0,2 0,-1-1,0 1,1-1,-1 0,1 0,-1-1,0 0,1 1,0-1,0 1,-1-1,1 0,-1-1,0 1,2-1,-2 1,1 0,-1-1,0 0,0 0,2-1,-2 1,0-1,0 0,0 0,6-4,-1-1,1-1,0 0,-2-1,0 1,1-2,-2 1,0-1,1 1,-2-2,-1 1,7-19,-1-10,10-78,-12 57,-4 44,-2 1,-1-1,0 0,-1 0,-1 0,-3-23,2 35,0 1,1-2,0 1,-1 0,0 0,0 1,0-1,-1 1,1-1,-2 1,1 0,0 0,0 0,0 0,-1 0,1 0,-2 1,2 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,1 0,0 0,-2 0,2 0,-6 1,5-1,1 1,0-1,0 1,0 0,-1 0,1 0,0 1,0 0,1-1,-1 1,-1 1,1-1,1 0,-1 1,1 0,-2 0,2 0,-1-1,1 2,0-1,0 1,1 0,-2-1,1 1,1 0,0 0,-1 0,1 1,-1 3,-5 13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4726">2305 856</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6292">2638 403,'-6'4,"1"0,-2-1,2-1,-1 1,0 0,-1-1,1 0,0 0,-12 1,-37 13,53-15,-1 1,1-1,0 1,0-2,-1 2,0 0,2 0,-1 0,0 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1 1,-1 3,2-5,-1 0,1 1,0-1,0 0,0 1,0-2,0 1,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 1,1-1,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,2 0,50 14,-24-8,-22-5,-2 1,1 0,-1-1,2 1,-2 1,0 0,-1 0,2-1,-2 1,1 1,-1-1,-1 1,2-1,-2 1,1 1,-2-1,1 0,0 1,-1-1,1 0,-2 1,1 0,-1 0,0 0,-1 0,0 0,1-1,-2 1,1 1,-1-2,0 1,0 0,-1-1,-1 1,1 0,0 0,-5 7,4-9,1 0,-2-2,1 2,0-1,0 1,0-1,-1 0,1-1,-9 5,-10 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7190.99">2749 50,'4'1,"-1"-1,-1 1,1 0,0 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,-1 0,0 0,4 3,33 36,-28-29,-2 1,2-1,-3 1,0 2,0-2,-1 1,-1 1,5 17,23 111,-19-64,0-15,-4 0,-2 1,-4 0,-8 117,-8-123,5-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8365">3332 377,'4'0,"7"0,6 0,5 0,3-3,3-3,0 1,1 0,0 3,0 0,-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9195">3387 629,'4'0,"8"0,9 0,7 0,4 0,-5-3,-1-3,-1 0,1 1,-1 3,1 0,-4 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20466,18 +20665,18 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1297,'378'-1,"418"4,-15 61,-87-3,755-52,-802-13,1035 4,-1545-6,270-50,-222 25,-86 21,186 5,-169 6,624 0,-714-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2252.99">187 318,'60'-3,"117"-21,-114 13,102-5,-136 15,-9 0,-1 0,0 2,0 0,1 1,33 8,-49-9,0 1,1 0,-1 0,0 0,0 1,0-1,-1 1,1 0,0 0,-1 0,0 0,0 1,0-1,0 1,0 0,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0-1,0 1,-1-1,0 1,1-1,-2 8,1-9,0-1,0 1,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 0,0 1,-1-1,1 0,0 0,-1 1,0-1,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,0-1,-1 0,1 0,0 1,-5 0,-2 1,0-1,0 0,0 0,0-1,-1 0,-11-1,36 2,0 0,-1 1,0 1,21 7,80 33,-68-25,-10-6,-10-4,-1 1,33 18,-54-26,0 1,-1 0,1 0,-1 0,0 1,1-1,-1 1,-1 0,1 0,-1 0,1 1,-1-1,-1 1,1 0,-1 0,1 0,2 10,-5-12,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,-1-1,1 1,-1-1,-3 5,1-3,-1 0,1 0,-1-1,0 1,0-1,-1 0,1 0,-1-1,-6 3,-8 1,0-1,0-1,0-1,-35 2,53-5,-27 1,0 0,-1-2,1-1,-32-7,39 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7006.99">1880 0,'-4'1,"0"-1,0 1,0 0,1 0,-1 0,0 0,1 1,-1-1,1 1,0 0,-1 0,1 0,0 1,0-1,-4 5,-42 53,29-32,-76 89,37-49,3 3,3 2,-53 97,98-151,1 0,1 0,0 0,2 1,0 0,1 0,1 0,1 0,0 0,2 0,0 0,2 0,0 0,1 0,1-1,1 1,0-1,2-1,0 1,1-1,1-1,0 1,2-2,0 0,0 0,2-1,0 0,0-2,2 1,-1-2,2 0,24 13,-5-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8234.99">2488 265,'-31'21,"26"-19,1 0,0 0,0 1,0 0,0 0,-6 6,-165 201,154-179,0 0,2 1,1 1,2 1,-15 44,29-72,0 1,0-1,0 1,1-1,0 1,1 0,-1-1,1 1,1 0,0 9,1-12,-1-1,1 1,-1-1,1 1,0-1,0 0,1 0,-1 0,0 0,1 0,0 0,0-1,0 1,0-1,0 0,0 0,1 0,6 3,28 13,0-2,1-1,41 9,-64-20,1-1,0 0,0-1,0-1,0-1,0 0,0-1,0-1,0-1,20-5,-33 6,1 0,-1-1,0 1,0-1,0 0,0 0,0 0,0 0,-1-1,0 0,1 0,-2 1,1-2,0 1,-1 0,0 0,0-1,0 0,0 1,-1-1,2-7,2-12,-1 1,-2-1,1-24,-3 45,4-96,-16-171,11 257,-1 0,-1 1,0-1,-1 1,0-1,-1 1,0 1,-1-1,0 1,-1 0,0 0,-1 0,0 1,-1 1,-19-17,28 25,-1 0,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,-14 41,12-32,-7 24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8801.99">2832 953,'4'0,"2"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10092.99">3282 185,'-11'1,"1"0,0 1,0 0,0 1,0 0,1 0,-1 1,1 0,0 1,0 0,0 0,1 1,0 0,0 1,0 0,1 0,-7 8,2-1,1-1,1 2,0 0,1 0,1 0,0 1,1 1,0-1,-3 18,9-30,0 0,0-1,0 1,1 0,-1 0,1-1,0 1,0 0,1 0,-1 0,1-1,-1 1,1 0,1-1,-1 1,0-1,1 1,0-1,0 1,3 3,-1-3,-1 0,2-1,-1 0,0 0,1 0,-1 0,1-1,0 0,0 0,0 0,0 0,10 1,10 0,0-1,0-1,0-1,49-6,-69 5,0-1,0 1,0-1,0 0,0 0,-1-1,1 1,-1-1,1 0,-1-1,0 1,0-1,0 1,-1-1,1 0,-1-1,0 1,0 0,2-7,8-12,-2-1,13-42,-14 37,16-51,-26 80,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,6 14,-1 22,0 421,-7-287,2-106</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11340.03">3864 265,'7'-3,"0"-1,0 1,0 1,1-1,-1 1,1 0,-1 1,1 0,0 0,0 1,0 0,8 1,-12-1,1 1,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,0 0,-1 1,0-1,1 1,-1-1,0 1,-1 0,1 0,3 8,11 25,-2 2,-1 0,-2 0,12 74,-12-31,0 117,-11-179,-1 0,-1 1,0-1,-2 0,0 0,-2 0,-6 19,8-33,0 1,0-1,-1 1,0-1,0 0,0-1,-1 1,0-1,0 0,0 0,0 0,-1-1,0 1,0-2,0 1,-1-1,1 1,-1-2,0 1,1-1,-1 0,0 0,-9 0,11-1,0 0,0 0,-1-1,1 0,-1 0,1 0,0 0,-1-1,1 0,0 0,0 0,-7-3,10 2,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,0 0,0 0,0 0,1-1,-1 1,1 0,-1-5,0 1,0-1,1 1,0-1,0 1,1 0,-1-1,2 1,-1 0,1-1,0 1,5-12,-4 16,-1-1,0 0,1 1,0 0,0 0,0 0,0 0,1 0,-1 0,1 1,-1 0,1 0,0 0,0 0,0 0,0 1,0 0,0 0,1 0,-1 0,6 0,1 1,0-1,-1 2,1-1,0 1,-1 1,1 0,-1 1,1 0,-1 0,0 1,0 0,-1 1,1 0,-1 1,9 6,5 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12874.99">4843 318,'-5'0,"0"0,0 0,0 1,0-1,0 1,1 0,-1 1,0-1,0 1,1 0,-1 0,-7 5,9-4,0-1,0 1,0 0,1 1,0-1,-1 0,1 1,0-1,1 1,-1-1,1 1,-1 0,1 0,0 0,1 0,-1 5,0-5,1-1,0 1,0 0,0 0,1 0,0 0,-1-1,1 1,1 0,-1-1,0 1,1-1,0 1,0-1,0 0,0 1,0-1,1 0,-1-1,4 4,7 6,1-1,0-1,20 12,7 5,-27-17,-1 1,0 1,-1 0,0 0,-1 1,0 1,11 18,-16-20,0 0,-1 1,0 0,-1 0,0 0,-1 0,-1 1,0 0,0 21,-1-21,-1-1,0 1,-1 0,-1-1,0 1,-6 21,6-31,0 0,0 0,0 0,0 0,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 0,1 0,-1-1,0 1,1-1,-1 0,0 0,0 0,-1 0,1-1,0 0,0 0,-1 0,-6 0,-26 2,1-2,-41-3,34 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13708">5055 27,'2'1,"0"-1,0 1,0 0,0 0,1 0,-1 0,0 0,-1 0,1 0,0 1,0-1,0 1,-1-1,3 4,23 29,-26-33,37 55,-2 1,-3 2,-2 2,-3 1,-2 0,29 115,-46-115,-2 0,-4 0,-2 1,-2-1,-12 68,11-106,-1-1,-1 1,-1-1,-1 0,-1 0,-1 0,-1-1,-1 0,-1-1,-1 0,0-1,-29 34,21-32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14386">5531 662,'4'0,"11"0,7 0,9 0,9 0,1 0,-2 0,-2 5,-9 5,-8 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15649">6484 291,'4'5,"-3"24,-10 20,-4 6,-4 4,-4-5,2-6,4-8,4-5,5-5,12-7,9-7,11-7,7-5,0-3,1-1,-2-2,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16574">6775 370,'0'5,"0"15,-5 12,-15 42,-3 13,1 5,5-8,5-15,5-14,3-12,3-9,1-5,1-4,0-1,0 0,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1259,'393'-1,"435"4,-15 59,-91-3,785-50,-834-13,1077 4,-1608-6,282-48,-232 24,-89 20,193 5,-175 6,649 0,-743-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2252.99">194 309,'63'-3,"121"-21,-118 14,105-6,-141 15,-9 0,-1 0,0 2,-1 0,2 1,34 8,-50-9,-1 1,1 0,-1 0,0 0,0 1,1-1,-2 0,1 1,0 0,-1 0,0 0,0 1,0-1,1 1,-1 0,-1 0,0-1,0 1,0 0,0 0,-1 1,1-1,-1 1,0-1,0 0,-1 0,0 1,1-1,-2 8,1-9,0-1,0 0,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 0,0 1,-1-1,1 0,0 0,-1 1,0-1,1-1,-1 0,0 1,0 0,-1 0,1-1,0 1,0-1,-1 0,1 0,0 1,-5 0,-3 1,1-1,0 0,-1 0,1-1,-2 0,-10-1,36 2,1 0,-2 0,1 2,21 7,84 32,-71-25,-11-5,-10-4,-1 0,35 18,-57-25,0 1,-1 0,2 0,-2 0,0 1,1-1,-1 1,-1 0,2-1,-2 1,1 1,-1-1,-1 1,1 0,-1 0,1-1,3 11,-6-12,1 0,-1 0,0 0,0-1,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,-1 0,1-1,0 1,0 0,-1-1,1 1,-1-2,-3 6,1-3,-1 0,0 0,0-1,0 1,0-1,-1 0,0-1,0 0,-6 3,-9 1,0-1,0-1,0-1,-36 2,55-5,-28 1,0 0,-1-2,0-1,-32-7,40 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7006.99">1956 0,'-5'1,"1"-1,0 1,0 0,1 0,-1 0,0 0,0 1,0-1,1 1,0 0,-1 0,1 0,0 0,-1 0,-3 5,-44 51,30-30,-78 85,37-47,4 3,3 2,-55 94,101-147,2 1,1-1,-1 1,3 0,0 1,1-1,1 0,1 1,0-1,2 1,0-1,2 0,0 1,1-1,2 0,0 0,0 0,2-2,1 2,0-2,1-1,1 2,1-3,1 1,-1 0,3-2,-1 1,1-3,2 2,-2-2,3-1,25 13,-6-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8234.99">2588 257,'-32'21,"27"-19,0 0,1-1,0 2,0 0,0 0,-7 6,-171 195,161-174,-1 0,2 1,1 1,3 1,-17 43,31-70,0 0,0 0,0 1,1-1,0 1,1-1,-1 0,1 1,1 0,0 8,1-11,-1-1,1 1,-1-1,1 1,0-1,0 0,2 0,-2-1,0 1,1 0,0 0,0-1,0 1,0-1,0 0,1 0,0 0,6 3,30 12,-1-1,2-2,42 10,-66-21,0 0,1 0,0-1,-1-1,1-1,0 0,-1-1,1-1,0-1,20-4,-34 5,2 0,-2-1,0 1,0-1,0 0,0 0,1 0,-1 0,-1-1,0 1,1-1,-2 1,1-2,0 1,0 0,-1 0,0-1,0 1,0 0,-1-1,2-7,2-11,-1 1,-2-2,2-22,-4 43,4-93,-17-166,12 249,-1 0,-1 2,0-2,-1 1,0 0,-2 0,1 1,-1 0,0 0,-2 0,1 1,-1-1,0 1,-2 2,-19-18,29 25,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0 0,0 0,0 0,1 0,-1-1,-1 1,1 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,0 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,-15 40,13-31,-7 23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8801.99">2946 925,'4'0,"2"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10092.99">3414 180,'-11'1,"0"0,1 0,-1 1,1 1,0 0,0 0,0 1,0 0,1 1,0 0,-1-1,2 2,0 0,-1 1,1 0,1 0,-8 7,3 0,0-2,2 3,0-1,0 1,2 0,0 0,0 2,1-2,-3 18,9-29,-1 0,1-1,0 1,1 0,-1-1,1 0,0 1,0 0,1 0,-1 0,1-1,-1 1,1 0,2-2,-2 2,0-1,1 1,0-1,0 1,3 3,-1-3,-1-1,3 0,-2 0,0 0,1 0,-1 0,1-1,1 0,-1 0,0 0,0 0,11 1,10 0,0-1,0-2,0 0,51-5,-72 4,0-1,0 1,1-1,-1 0,0 0,-1-1,1 1,0-1,0 0,-1-1,0 1,0 0,0 0,0-1,0 0,-1-1,0 1,0 0,2-6,9-13,-3 0,14-41,-14 36,16-50,-27 78,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,6 14,-1 21,1 408,-9-278,3-102</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11340.03">4019 257,'8'-3,"-1"-1,0 2,1 0,0-1,-1 1,2 0,-2 1,1 0,0 0,1 1,-1 0,9 1,-13-1,1 1,-1 1,1-1,0 1,0 0,-1 0,0 0,0-1,0 2,1-1,-1 1,0 0,-1 1,0-1,1 1,-1-1,1 1,-2-1,1 1,3 8,12 24,-3 2,0 0,-3-1,13 73,-12-30,-1 113,-11-174,-1 1,-1 0,0 0,-2-1,0 0,-2 1,-7 18,9-32,0 0,0 0,-1 1,0-1,0 0,-1-2,0 2,0-1,0 0,0 0,-1 0,0-1,0 0,0-1,-1 1,0-1,1 1,-1-2,-1 1,2-1,-1 0,0 0,-10 0,12-1,-1 0,1 0,-1-1,1 0,-1 0,0 0,1 0,-1-1,1 0,0 0,-1 0,-6-3,10 2,-1 0,1 0,-2 0,2 0,0 0,-1-1,1 1,0-1,1 1,-1-1,0 1,1 0,-1-1,1 0,0 0,0 0,0 0,1-1,-2 1,2 0,-1-4,0 0,0-1,1 1,0-1,0 2,1-1,-1-1,2 1,0 1,0-2,0 1,5-11,-4 15,-1-1,0 0,1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,1 2,-1-1,2 0,-1 0,0 0,0 0,0 1,0 0,1 0,0 0,-1 0,6 0,2 1,-1-1,0 2,0-1,0 1,0 1,0 0,0 1,0 0,0 0,-1 0,0 1,0 1,0 0,0 1,8 6,6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12874.99">5038 309,'-5'0,"-1"0,1 0,0 1,0-1,0 1,1 0,-2 1,1-1,0 0,1 1,-1 0,-8 5,10-4,0-1,0 1,0 0,0 1,1-1,-1 0,1 0,0 0,1 1,-1-1,1 1,-1 0,1 0,0 0,1 0,-1 4,0-4,1-1,0 1,0 0,0 0,1 0,0-1,-1 0,1 1,1 0,-1-1,0 1,1-1,0 1,0-1,0 0,0 0,0 0,2 0,-2-1,4 4,7 6,2-2,0 0,20 11,8 6,-29-18,0 2,-1 1,0-1,-1 1,0 1,-1 0,12 18,-17-19,0 0,0 0,-1 1,-1-1,0 1,-1 0,-1 0,0 1,1 20,-2-21,-1 0,0 1,-1-1,-2 0,1 0,-6 21,6-30,0 0,0 0,0 0,0 0,-1 0,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1-1,-1 1,2-1,-1 0,0 0,0 0,-1 0,0-1,1 0,0-1,-1 1,-7 0,-26 2,0-2,-42-3,36 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13708">5258 26,'2'1,"1"-1,-1 1,0 0,0 0,1 0,-1 0,0 0,-1 0,1 0,0 1,0-1,0 1,-1-1,4 4,23 28,-27-32,38 53,-1 1,-4 3,-2 1,-3 1,-1 0,29 112,-48-112,-2 0,-4 1,-1 0,-4-1,-11 66,11-103,-1 0,-1 0,-2-1,0 1,-1-1,-1 0,-2 0,0-1,-2-1,0 1,-1-2,-29 34,21-32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14386">5754 643,'4'0,"11"0,8 0,9 0,10 0,1 0,-3 0,-1 4,-10 6,-8 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15649">6745 282,'4'5,"-3"23,-10 20,-5 5,-3 5,-5-6,2-5,4-8,5-5,5-5,12-7,10-6,11-8,7-4,0-3,2-1,-3-2,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16574">7048 359,'0'5,"0"14,-6 12,-14 41,-4 13,1 4,5-7,6-15,4-14,4-11,3-9,1-5,1-4,0-1,0 1,0-6</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20559,18 +20758,18 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">258 238,'-2'8,"1"-1,-1 0,0 1,0-1,-1 0,0 0,-1-1,1 1,-7 8,-5 10,0 5,-87 188,90-187,1 1,2 0,1 1,2 0,-3 41,-10 65,0-3,19-120,0 1,0-1,2 1,0 0,1-1,6 22,1-6,2-1,1 0,2-1,26 41,-24-46</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="834.99">576 741,'0'-2,"1"-1,0 0,0 0,0 0,1 1,-1-1,1 1,-1-1,1 1,0-1,0 1,2-2,6-8,34-54,4 3,72-76,-119 137,1 0,-1 1,0-1,1 1,0-1,-1 1,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,1 0,2 0,-3 1,0 0,0 1,0-1,-1 1,1-1,0 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 0,0 5,9 78,-3-1,-10 139,-1-86,5-101,-2 7,2 1,12 82,-6-98</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1215.99">1211 1297,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1833.99">1687 371,'-5'0,"-1"14,0 17,1 22,2 15,1 15,1 6,-4-3,-5-7,-2 1,3-9,-4-7,2-10,3-10,2-3,6-9,13-14,4-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3222.99">2190 344,'-21'485,"14"-402,8 161,-1-241,1 0,-1 1,1-1,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,1 0,-1-1,0 0,1 1,0-1,-1 0,1 0,0 0,0-1,0 1,0-1,0 0,0 1,1-2,-1 1,0 0,1 0,-1-1,0 0,4 0,11 1,0-1,0-1,-1 0,1-2,17-4,-29 6,0-1,0 1,0-1,0-1,-1 1,1-1,-1 0,1-1,-1 1,0-1,-1 0,1 0,0 0,-1-1,0 0,0 0,-1 0,1 0,3-8,1-7,0 0,-2 0,0-1,4-28,0 3,-2-3,-2 1,-1-1,-3 0,-6-78,3 121,0 0,0 0,0 0,0 0,-1 0,0 0,0 0,-1 1,0-1,0 1,0 0,0-1,-1 1,0 1,0-1,-1 1,1-1,-1 1,0 0,0 1,0-1,0 1,-8-3,-6-2,0 1,-1 1,1 1,-1 0,-36-2,32 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4531.99">2851 291,'8'-4,"0"1,0 0,0 0,1 0,0 1,-1 1,1-1,0 1,0 1,0-1,-1 2,15 1,-10 1,0 0,0 1,-1 1,0 0,0 0,0 1,19 14,149 113,-177-131,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,-1 0,2 3,-3-3,1 0,-1 0,0 0,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,-1 0,1-1,0 1,-4 4,-88 120,91-121,1 0,0-1,0 1,0 0,1 0,0 0,0 0,0 0,1 0,0 0,0-1,3 9,1 11,2 34,-2-1,-6 118,1-170,-1 0,0-1,0 0,0 1,-1-1,0 0,0 0,0 1,0-1,-1-1,0 1,0 0,0-1,-1 0,1 1,-1-1,-7 5,2-3,0-1,0 1,-1-2,0 1,0-2,0 1,0-1,-12 2,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6032.01">3936 371,'-9'2,"0"0,0 0,0 1,1 0,-1 1,1 0,0 0,0 0,0 1,1 1,0-1,0 1,0 0,0 1,1 0,-6 8,5-4,0 1,1 0,1 0,0 1,-5 16,8-23,1-1,0 1,0-1,0 1,0-1,1 1,0 0,0-1,0 1,1 0,0-1,0 1,1-1,-1 1,4 6,-2-9,1 1,0-1,-1 1,1-1,1 0,-1 0,0-1,1 1,0-1,-1 0,1 0,0-1,0 1,5 0,23 9,-14-1,-1-1,0 2,-1 1,0 0,-1 1,0 1,-1 0,18 23,-28-31,-1 0,0 0,0 0,-1 1,1 0,-1 0,-1 0,1 0,-2 0,1 1,1 10,-3-12,0-1,-1 1,1-1,-1 1,-1-1,1 1,-1-1,0 1,0-1,0 0,-1 0,1 0,-1 0,0-1,-1 1,1-1,-6 5,4-4,-1 0,1 0,-1-1,-1 0,1 0,-1 0,1 0,-1-1,0 0,0-1,0 0,-1 0,1 0,0-1,-1 0,1 0,-1-1,0 0,1-1,-9-1,-14-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6808.99">4174 0,'4'1,"1"0,0-1,-1 2,1-1,-1 0,0 1,1 0,-1 0,0 0,0 0,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,3 6,8 11,-2 0,17 36,-16-29,15 27,-2 1,-3 1,-2 2,-3 0,-2 1,-3 0,-2 2,-3-1,0 93,-7-134,-1 1,-1-1,-1 0,0 0,-2 0,0 0,-1-1,-1 0,0 1,-13 21,4-12,-3-1,0 0,-1-1,-2-2,-1 1,0-2,-50 38,36-39</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7957.99">1608 1614,'366'-12,"-38"-1,1272 11,-821 3,-407 1,385-4,-697 0,-1-3,67-13,-88 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8663.99">5444 159,'0'14,"0"22,-9 18,-3 14,0 9,3 14,2 4,3 1,2-4,1-12,1-16,1-13,-1-8,1 4,-1 1,0-1,1-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9301">5100 768,'9'-4,"12"-2,6 0,9-3,11 0,2 1,-3 2,0 3,-3 1,-5 1,0 1,3 0,-1 0,-3 1,-3-1,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10124">6132 450,'23'-12,"-1"-2,21-17,-22 16,39-23,-58 37,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,0 0,2 0,-2 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 0,1 1,-1-1,0 0,0 1,0-1,1 5,1 10,0 1,-1 0,-1 36,-1-37,-8 436,7-421</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">268 229,'-2'7,"1"0,-1 0,0 1,0-2,-1 1,0 0,-2-2,2 2,-7 8,-6 9,1 4,-91 182,93-180,2 1,1-1,2 2,2 0,-3 39,-11 62,0-2,20-116,0 2,0-2,2 2,0-1,1-1,7 22,0-7,3 0,0 0,3-1,26 39,-24-44</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="834.99">599 712,'0'-2,"1"-1,0 0,0 1,0-1,1 1,-1-1,1 1,-1-1,1 1,0-1,1 1,1-2,6-7,36-52,4 2,75-73,-124 132,1 1,-1 0,0-1,1 1,0-1,-1 1,1-1,0 1,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 1,0-1,0 1,0 0,1 0,2 0,-3 1,0 0,1 1,-1-1,-1 1,1-1,0 1,-1 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 0,0 4,10 76,-4-1,-10 133,-1-82,5-98,-3 8,3 0,13 79,-7-94</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1215.99">1259 1246,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1833.99">1754 357,'-5'0,"-1"13,-1 17,2 21,2 14,1 15,1 5,-4-2,-6-7,-1 1,3-9,-5-6,3-11,2-8,3-4,6-8,14-14,3-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3222.99">2277 331,'-22'466,"15"-387,8 156,-1-232,1 0,-1 1,1-2,0 1,0 1,0-1,1 0,-1 0,1 0,1 0,-2-1,1 0,0 1,1 0,-1-1,0 0,1 1,0-1,-1 0,1 0,1 0,-1-2,0 2,0-1,0 0,0 1,1-2,-1 1,1 0,0 0,-1-1,0 0,4 0,12 1,0-1,-1-1,0 0,1-2,17-3,-30 5,1-1,-1 1,0-1,0-1,0 1,0-1,-1 0,1-1,-1 2,1-2,-2 0,1 0,0 0,-1-1,1 1,-1-1,-1 0,1 0,3-7,2-8,-1 1,-2 0,0-1,5-27,-1 2,-1-2,-3 1,-1-1,-3 0,-6-75,3 116,0 1,0-1,0 0,0 0,-1 0,0 1,-1-1,0 1,0-1,0 2,0-1,0-1,-1 1,0 1,-1 0,0 0,1-1,-1 1,0 0,-1 1,1-1,0 2,-9-4,-5-2,-1 1,-1 2,1 0,0 0,-39-2,34 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4531.99">2964 280,'9'-4,"-1"1,0 0,1 0,0 0,0 1,0 1,0-1,1 2,-1 0,0-1,0 2,14 0,-9 2,0 0,-1 1,0 1,-1 0,0-1,1 2,19 13,155 109,-184-126,1 0,-1 0,-1 0,1 0,-1 1,1-1,-1 1,0-2,0 2,0 0,1 0,-1 0,-1 0,2 3,-3-3,1-1,-1 1,0 0,-1 0,1 0,0 0,-1 0,0 0,1-1,-1 1,0 0,-1 0,0-1,1 1,-4 4,-91 115,93-117,2 1,0-1,0 1,0 0,1-1,0 1,0 0,0 0,1-1,0 1,0-1,4 8,0 11,2 33,-2-1,-6 113,1-163,-1 0,0-2,0 1,0 1,-1-1,0 0,0-1,0 2,0-1,-1-1,-1 1,1-1,0 0,-1 0,1 1,-1-1,-8 4,3-2,0-1,-1 1,0-2,-1 0,1-1,0 1,-1-1,-12 2,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6032.01">4093 357,'-10'1,"1"1,0 0,-1 1,2 0,-1 1,0 0,1 0,0-1,-1 2,2 1,0-1,-1 1,1-1,0 2,1 0,-7 7,6-3,0 0,0 1,2-1,0 2,-5 15,8-22,1-2,-1 2,1-1,0 1,0-2,1 2,0 0,0-1,0 1,1-1,0 0,0 1,2-1,-2 0,4 7,-2-9,1 1,0-1,-1 0,1 0,2 0,-2 0,0-1,1 1,0-1,0 0,0 0,0-1,0 1,6-1,23 10,-14-1,-2-2,1 3,-1 0,-1 1,0 0,0 2,-2-1,20 23,-30-30,-1-1,0 1,0 0,-1 1,2-1,-2 1,-1 0,1 0,-2-1,1 2,1 9,-3-11,0-1,-1 1,1-2,-1 2,-1-1,1 1,-1-1,0 0,0 0,0 0,-2 0,2 0,-1-1,0 0,-1 1,1-1,-6 5,3-5,0 1,1 0,-1-1,-2 0,2-1,-1 1,1 0,-2-1,1 0,0-1,0 0,-2 0,2 0,0-1,-2 0,2-1,-1 0,-1 0,2 0,-10-2,-14-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6808.99">4340 0,'4'1,"2"0,-1-1,-1 2,1-1,-1 0,0 1,2 0,-2 0,0-1,0 1,0 1,0 0,1 0,-2 0,1 0,-1 0,0 1,0-2,3 7,9 10,-3 0,19 35,-18-28,16 26,-2 1,-3 1,-2 2,-3-1,-3 2,-2 0,-3 1,-2 0,-1 89,-7-129,-1 1,-1 0,-1-1,0 0,-2 1,0-1,-2-1,0 0,0 2,-14 19,5-11,-4-1,0 0,-1-1,-2-2,0 1,-1-2,-52 37,37-38</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7957.99">1672 1551,'381'-11,"-40"-2,1322 11,-853 3,-423 1,400-4,-724 0,-2-3,70-12,-91 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8663.99">5661 153,'0'13,"0"22,-10 17,-2 13,-1 9,4 14,2 3,3 1,2-4,1-11,1-15,1-13,-1-8,1 4,-1 2,0-2,1-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9301">5303 738,'9'-4,"13"-2,6 1,10-4,11 0,2 2,-4 1,1 3,-3 1,-6 1,1 1,3 0,-2 0,-2 1,-4-1,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10124">6376 432,'24'-11,"-1"-3,22-15,-23 14,40-21,-60 35,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,1 1,-1-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,1 0,1 0,-2 1,0 0,0 0,0 0,-1-1,1 1,0 0,-1 0,0 0,1 1,-1-1,0 0,0 1,1-1,0 4,1 11,0 0,-1 0,-1 35,-1-35,-8 418,7-404</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20598,7 +20797,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">169 12,'-1'0,"1"0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,1 1,0-1,0 0,-1 0,1 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,-1 1,-16 15,6-3,0 2,1 0,1 0,1 1,-14 31,8-8,-13 60,4 26,22-115,0 1,0-1,1 1,1-1,0 1,0-1,1 0,0 0,7 20,-5-23,1 0,0-1,0 0,1 0,-1 0,1 0,1-1,-1 0,1 0,-1-1,2 0,12 6,-5-3,-1-2,1 1,0-2,0 0,30 3,-38-6,0-1,0 0,1 0,-1-1,0 0,0 0,0 0,0-1,0 0,0-1,0 0,-1 0,1 0,-1-1,0 0,10-7,-8 3,-1 1,0-2,-1 1,1 0,-1-1,-1-1,0 1,0 0,-1-1,5-15,-3 4,-1-1,-1 1,-1-1,-1 0,-1 1,-1-1,-1 0,0 0,-2 0,-8-34,5 43,1 1,-1 0,-1 0,0 1,-1 0,0 0,-1 1,0 0,-1 0,1 1,-2 0,-15-10,3 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="438.99">1122 356,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="438.98">1122 356,'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1924.99">2074 39,'-34'1,"0"-2,0-1,1-2,-65-16,33 8,63 12,-1 0,0 0,0 0,0 0,1 1,-1-1,0 1,0 0,-4 1,6-1,0-1,0 1,0 0,1-1,-1 1,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 2,-1-2,1 1,-1-1,1 1,0-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 1,2-1,46 7,-42-7,92 0,-73-1,0 0,0 2,45 7,-69-7,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,-1 1,1-1,-1 1,1-1,-1 1,0 0,0-1,0 1,-1 0,1 0,-1 1,1-1,-1 0,0 0,0 1,-1-1,2 7,0 9,0 1,-2-1,-1 28,0-32,1 0,0-5,-1 0,1-1,-2 1,1-1,-4 13,4-20,0 0,0 1,0-1,-1 0,1 1,-1-1,1 0,-1 0,0 0,1-1,-1 1,0 0,0-1,0 1,-1-1,1 1,0-1,0 0,-1 0,1 0,-1 0,1-1,-1 1,-3 0,-29 2,1-1,-1-2,-36-5,-13 1,63 3,1-1,0-1,0-1,1 0,-1-2,-28-12,12 3</inkml:trace>
 </inkml:ink>
 </file>
@@ -20767,17 +20966,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1523,'0'1,"-1"-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,10-10,7-15,3-29,-1-1,-4 0,15-93,15-55,-37 181,0 1,1 0,1 0,1 2,0-1,26-31,96-93,-125 137,3-4,0 1,1 0,0 0,1 2,25-14,-35 21,0-1,0 1,0 0,0 0,1 0,-1 1,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,4 2,-4-2,-1 2,0-1,0 0,0 0,1 1,-1-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 1,0 2,6 48,-6-28</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="862">186 1073,'9'0,"7"0,15 0,15 0,5 0,-2 0,-1 0,-3 0,-6 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1561">1006 544,'-1'7,"0"-1,0 0,-1 0,1-1,-1 1,-5 10,-5 16,-28 196,7-33,-3 37,33-200,2 1,2-1,1 1,1-1,8 35,-8-56,1 0,0-1,0 0,1 0,1 0,0 0,0-1,0 0,1 0,1-1,0 1,9 7,12 7,0-2,42 24,-65-42,15 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2353.99">1324 1100,'1'-26,"1"-1,2 1,1 0,1 0,1 0,18-42,2 7,52-84,-72 133,1 0,0 1,0 0,1 1,1 0,-1 0,2 1,-1 0,1 1,13-8,-18 13,1 0,0 0,-1 1,1-1,0 1,0 1,1-1,-1 1,0 1,0-1,1 1,-1 0,0 1,0 0,1 0,-1 1,0-1,0 2,0-1,11 6,-7-1,0 0,0 1,0 0,-1 0,0 1,-1 0,0 1,-1 0,0 1,0 0,7 14,9 21,28 73,-43-98,100 284,-32-83,-62-182</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3083">2382 386,'-14'46,"-38"82,17-48,-52 123,-184 312,262-498</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3711">2382 1285,'0'9,"0"17,0 17,0 5,0 5,0 1,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4089">2488 835,'4'0,"6"0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4780">2752 1206,'0'9,"0"17,0 17,0 5,0 0,0-4,0-5,0-5,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6227.02">2646 1391,'4'0,"7"0,5 0,5 0,7 0,5 0,-1 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7957">2937 1285,'11'-1,"-1"-1,1 0,0 0,0-1,-1-1,12-5,-11 4,-1 1,1 0,0 1,0 0,22-2,-30 5,0 0,0 0,1 0,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,-1-1,3 5,3 8,0 1,-1 1,-1-1,0 1,3 31,3 89,-11-127,0 1,-1 0,0 0,-1 0,0 0,-1-1,0 1,-1-1,-8 18,10-24,0 0,-1 0,1 0,-1 0,0-1,0 1,0-1,-1 1,1-1,-1 0,0 0,0-1,0 1,0-1,0 0,0 0,-1 0,1-1,-1 0,1 1,-1-1,0-1,1 1,-1-1,-5 0,8 0,-1 0,1-1,0 1,0-1,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1-1,-1 1,1-1,-1 0,-2-3,2 0,-1 1,1-1,0 0,0 1,1-1,-1 0,1 0,-1-10,1 7,1-1,0 0,0 0,1 0,0 1,0-1,1 0,0 1,1-1,4-10,-5 15,0 0,0 1,1-1,-1 1,1 0,0 0,0 0,0 0,0 0,1 0,-1 1,1 0,-1 0,1 0,0 0,0 0,0 1,0 0,5-2,-2 3,0-1,1 1,-1 0,0 1,0 0,0 0,0 0,0 1,0 0,10 5,7 4,0 2,0 1,-1 1,38 33,-17-10,-7-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9107.03">3625 15,'0'0,"0"-1,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,2 0,26 5,-20-1,0 0,0 1,0 0,0 0,-1 1,0 0,0 0,-1 1,0-1,0 1,0 1,-1-1,0 1,-1 0,5 9,7 19,-2 0,12 47,-17-51,43 171,31 254,-55-284,-18-81,-3 1,-8 122,-1-100,1-104,0 0,0-1,-1 1,0-1,-1 1,0-1,-1 0,0 0,-1-1,0 1,0-1,-13 16,7-12,0 0,-2 0,1-1,-1-1,-1 0,0 0,-19 9,-25 3,27-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1457,'0'1,"-1"-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,11-10,6-14,4-27,-1-2,-5 0,16-88,16-53,-39 173,1 1,0-1,1 1,2 2,-1-1,28-30,99-88,-130 130,3-4,1 2,0-1,1 1,0 1,27-13,-37 20,0-1,0 1,0 0,0 0,1 0,0 1,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 0,5 2,-5-2,-1 2,0-1,0 0,0 0,1 1,-1-1,-1 1,1 0,1 0,-1-1,0 1,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 1,0 1,6 47,-6-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="862">193 1026,'9'0,"8"0,15 0,16 0,5 0,-2 0,-1 0,-4 0,-5 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1561">1044 520,'-1'7,"0"-1,0 0,-1-1,1 0,-1 1,-5 9,-6 16,-28 187,6-32,-2 36,34-191,2 0,2 0,1 1,1-2,9 34,-9-53,1-1,0 0,0 0,1-1,2 1,-1-1,0 0,0-1,1 1,2-1,-1 0,10 8,12 6,0-2,44 23,-68-40,16 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2353.99">1374 1052,'1'-25,"1"0,3 0,0 0,1 0,1 0,19-40,2 7,54-81,-74 128,0-1,0 2,0-1,2 1,0 1,-1-1,3 2,-2-1,2 1,13-7,-19 12,1 0,0 1,0 0,0-1,0 1,0 1,2-1,-2 1,0 1,1-1,0 1,-1 0,0 1,1 0,0 0,-1 1,0-1,1 2,-1-1,12 5,-8 0,0 0,1 0,-1 1,0 0,-1 0,-1 1,1 0,-2 1,0 0,1 1,6 13,10 20,29 70,-45-94,105 272,-34-80,-65-174</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3083">2473 369,'-15'44,"-39"79,18-47,-55 118,-190 299,272-477</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3711">2473 1229,'0'9,"0"16,0 16,0 5,0 4,0 2,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4089">2583 799,'4'0,"6"0,3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4780">2857 1154,'0'8,"0"17,0 16,0 5,0 0,0-4,0-4,0-6,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6227.02">2747 1331,'4'0,"7"0,6 0,5 0,7 0,5 0,-1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7957">3049 1229,'11'-1,"-1"-1,2 0,-1 1,1-2,-2-1,13-5,-12 4,0 2,0-1,1 1,-1 0,23-2,-31 5,0 0,1 0,0 0,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 1,-1 0,1 0,-1-1,1 1,-1 1,0-1,0 1,1-1,-1 1,0 0,-1-1,3 4,3 9,0 0,0 1,-2 0,0 0,3 30,4 85,-12-122,0 2,-1-1,0 1,-1-1,-1 1,0-1,0 0,-1 0,-8 16,10-22,-1 0,0 0,1 0,-1 0,0-2,0 2,0-1,-1 1,1-1,-2 0,1 0,0-2,0 2,0-1,0 0,0 0,-2 0,2-1,-1 0,1 1,-1-1,-1-1,2 1,-1-1,-5 0,8 0,-1 0,0-1,1 1,0-1,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,-2-4,2 0,-1 1,1-1,0 1,0 0,1-1,-1 0,1 0,-2-9,2 6,1 0,0-1,0 1,1-1,1 1,-1 0,1-1,0 1,1 0,4-10,-5 14,0 0,0 1,1-1,0 1,0 1,0-1,0 0,0 0,0 0,1 0,-1 1,2 0,-2 0,1 1,0-1,0 0,0 1,0 0,6-2,-3 3,0-1,2 1,-2 0,0 1,0 0,1 0,-1 0,0 1,0 0,11 4,7 5,0 1,0 2,-1 0,39 32,-17-10,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9107.03">3763 14,'0'0,"0"-1,0 0,0 1,0 0,0-1,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,2 0,28 5,-22-1,0-1,0 2,1 0,-1 0,-1 1,1-1,-1 1,-1 1,0-2,1 2,-1 1,-1-2,0 2,-1 0,6 8,6 18,-1 1,12 44,-18-48,45 163,32 243,-57-271,-18-78,-4 1,-8 116,-1-95,1-99,0-1,0 0,-1 1,0-2,-2 2,1-2,-1 1,0-1,-1 0,0 0,-1 0,-12 15,6-12,1 1,-3-1,2 0,-1-2,-2 1,0-1,-19 9,-26 3,28-12</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20804,48 +21003,48 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4525 1905,'4'0,"6"0,7 0,12 0,12 0,3 0,7 0,4 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="541">4498 2329,'4'0,"16"0,17 0,12 0,2 0,1 0,-4 0,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2741.55">1958 2646,'0'-16,"2"-1,0 0,1 1,1-1,0 1,2 0,-1 1,2-1,0 1,1 0,11-16,-5 11,1 0,1 1,1 0,0 2,1 0,39-27,-52 40,0 1,0 0,0 0,1 0,-1 0,1 1,0 0,-1 0,1 1,0 0,0 0,0 0,0 1,1 0,-1 0,0 0,0 1,0 0,0 0,0 0,7 3,-3 1,-1 0,1 1,-1 0,0 0,0 1,0 0,-1 1,0 0,-1 0,13 17,17 30,-2 1,-2 2,35 86,-50-99</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2234.55">2779 1985,'-9'14,"-17"17,-21 22,-17 24,-11 22,-6 7,2 0,5-6,11-10,11-16,11-16,16-18,17-15,14-13,7-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1520.01">3017 2540,'4'0,"2"5,-1 10,0 7,-2 5,-1 1,-1 2,0-1,-1 0,0 3,-1 1,1 0,0-1,0-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-704.01">3176 1455,'3'1,"1"-1,0 1,-1 0,1 0,0 0,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,-1 1,1 0,0-1,-1 1,1 0,-1 0,0 0,3 6,5 10,-1 0,13 34,-11-23,36 91,-5 1,-5 3,-6 1,-6 1,-5 1,-6 1,-5 1,-10 155,-1-261,-1-1,-2 0,0 0,-14 37,-44 86,33-82,12-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6105.54">106 3466,'0'-872,"1"848,1 0,2 1,0-1,1 1,2 0,17-41,-4 19,3 0,34-50,-37 66,0 1,2 1,2 1,0 2,1 0,2 1,0 2,2 1,33-19,-36 27</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5186.55">1 2302,'4'0,"6"0,6 0,5 0,3 0,2 0,6 0,1 0,1 0,-2 0,-2 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4284.55">953 1535,'4'5,"2"5,4 15,1 8,2 7,0 15,-3 2,-3 1,-3-5,-2-3,-1-5,-1-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3450.55">1376 1720,'-4'64,"-3"0,-2-1,-19 69,-2 12,9-32,-2 1,6 0,-5 172,21-192,-1-31,3-1,9 65,-8-114,0-1,1 0,0 0,1 0,0 0,1 0,8 14,-10-21,1 1,-1-1,1 0,-1 1,1-2,0 1,1 0,-1-1,1 0,-1 0,1 0,0-1,0 1,0-1,1 0,-1-1,8 2,11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2280.53">5821 2381,'6'-5,"1"1,0-1,1 1,-1 1,1-1,0 1,-1 1,13-3,-2-1,76-19,2 5,167-15,295-32,-414 46,502-66,13 37,408 48,-501 7,4416-6,130 1,-4479-14,-144 1,109 2,583-3,-1147 13,-1-1,1-1,-1-2,57-15,-61 13,1 1,-1 1,1 2,41 0,-48 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18088.22">5821 1244,'4'0,"11"-4,7-2,19 0,10-3,15 0,14 1,7 2,-2 3,-12 1,-17 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20755.21">11563 1138,'4'-9,"11"-3,20 1,19-3,17 2,2 2,-8 4,-10 2,-10 1,-8 3,-1 0,-3 0,-2 1,3-1,4 1,-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21413.22">11960 556,'-1'0,"0"0,0 0,0 1,0-1,1 0,-1 0,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,1 0,-1-1,1 1,-1 0,-11 25,11-22,-44 131,5 2,7 1,5 2,-10 161,34-220,9 139,-4-211,0 0,1 0,0 0,0 0,6 12,4 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23721.22">13018 609,'-5'-3,"1"0,0 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0 1,0 0,0 0,-1 0,-7 0,4 1,0-1,0 2,-1-1,1 1,0 0,0 1,-8 3,11-2,0 0,0 0,1 0,0 1,-1 0,1 0,1 1,-1-1,1 1,0 0,0 0,0 0,0 1,1 0,0-1,0 1,1 0,0 0,0 1,-1 6,-4 16,2 1,1 0,0 32,3-45,-2 21,1-16,0 1,1 0,1 0,2 0,7 40,-7-58,0 0,0 0,1 0,0 0,-1-1,2 1,-1-1,1 0,-1 0,1 0,0 0,0-1,1 1,-1-1,1 0,0-1,0 1,-1-1,2 0,-1 0,0 0,0-1,1 0,7 1,10 1,1-1,-1-2,1 0,30-5,-49 5,1-1,-1 0,0-1,0 1,1-1,-1 0,0 0,-1-1,1 0,0 0,-1 0,1 0,-1 0,0-1,0 0,0 0,-1 0,0 0,1-1,-1 1,-1-1,1 0,-1 0,3-7,3-12,-2 0,0 0,-2 0,3-31,-1 3,0 18,-1 12,-2-1,1-37,-4 53,0 0,-1 0,0 1,0-1,-1 0,0 1,0-1,-1 1,1 0,-1-1,-1 1,1 1,-6-8,3 5,-1 0,0 1,-1 0,1 0,-1 1,-1 0,1 0,-1 1,0 0,0 0,-1 1,1 0,-1 1,0 0,-10-1,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25334.22">12939 1138,'-1'4,"1"0,-1 0,0 0,0 0,0-1,0 1,-1-1,1 1,-1-1,0 1,0-1,-5 6,-36 37,15-18,10-7,1 1,0 1,2 0,1 1,-16 36,26-52,1 1,0 0,1 0,0 0,1 0,-1 0,2 0,-1 1,2 9,0-14,0 0,0 0,0 0,1 0,-1 0,1 0,1 0,-1 0,1-1,-1 1,2-1,-1 0,0 0,1 0,-1 0,1-1,5 4,-2-3,0 0,0 0,1-1,-1 0,1-1,0 0,0 0,0 0,0-1,0 0,0-1,13-1,-7 1,1-1,-1-1,0 0,0-1,0-1,18-7,-22 6,0-1,0 0,-1 0,0-1,0 0,0-1,-1 0,0 0,-1-1,0 0,0-1,-1 1,0-1,-1 0,0-1,0 1,-1-1,3-12,-4 10,0 0,0 0,-2 0,1 0,-2 0,0 0,0 0,-1 0,-1 0,0 0,-1 0,0 0,-1 1,0-1,-11-19,14 29,-1 0,0 0,0 1,-1-1,1 1,0 0,-1-1,1 1,-1 0,0 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,-4 0,-4-1,-1 1,0 0,-19 2,28-1,-20 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26405.22">13388 1350,'13'26,"-7"-13,-1-33,-3-186,0-18,3 194,0-1,2 1,1 1,2-1,0 1,2 1,2 0,0 1,22-31,-17 30,1 1,2 1,0 1,2 1,0 0,2 2,0 2,39-24,-57 39,1 0,0 1,0 0,0 0,0 1,1 0,10-1,-18 4,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0 0,0 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 1,-1-1,0 0,0 2,2 26,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27308.22">13388 979,'4'0,"7"0,5 0,5 0,3 0,7 0,2 0,9 0,7 0,-1 0,-4 0,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28899.22">14473 291,'-2'14,"0"0,-1 0,0 0,-1-1,-10 24,-3 9,5 1,3 0,1 1,-2 67,11 148,3-109,-4-143,1-1,1 0,0 0,0 0,1 0,1 0,-1 0,2-1,-1 1,1-1,1 0,-1-1,2 1,-1-1,1 0,13 11,-1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29756.22">14738 847,'1'-15,"2"-1,0 1,1-1,0 1,1 0,1 1,0-1,1 1,1 0,0 1,1 0,0 0,1 1,0 0,13-11,-20 21,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 1,1 0,0 0,0 1,-1-1,1 1,0 0,-1-1,1 2,-1-1,1 0,-1 1,0 0,1-1,3 4,9 7,-1 0,0 1,-1 1,19 24,-8-10,18 20,-3 2,-1 2,46 84,-46-73,-21-35</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30445.22">15452 476,'-2'1,"0"0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 2,-1 2,-35 95,-64 130,65-153,8-26,-46 68,15-28,33-50,15-26</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32647.22">15637 1085,'11'-10,"1"-1,1 2,0 0,0 0,25-11,-37 19,0 1,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,-1 1,1-1,1 2,9 24,-8 43,-3-60,0 9,-2 30,3 0,2 0,2 0,13 52,-11-77</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33164.22">15849 688,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33937.22">16484 979,'0'5,"0"15,0 12,0 11,0 6,0 0,0 1,0-5,0 0,0-3,0-5,0-4,0-3,0 3,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34582.22">16167 1270,'4'0,"6"-4,7-2,3 1,13 0,14 2,8 1,8 1,3 0,-2 1,-6 0,-9 1,-13-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35321.22">16722 1111,'18'-19,"-1"-1,25-39,-32 42,1 1,1 1,0 0,1 0,0 1,17-12,-29 25,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 1,-1-1,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,-1 0,0 0,1 1,-1-1,1 2,2 9,-1 1,0 0,-1 0,0 16,-1-21,2 90,-1-9,3 1,18 94,-14-145</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36218.22">17066 0,'2'1,"1"-1,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,-1 0,1-1,0 1,2 5,26 50,-22-41,189 475,-41 19,-98-311,-48-162,-1 1,-2 0,-1 0,-3 1,-1 61,-2-68,0-6,-1-1,-1 1,-5 25,5-44,1 0,-1-1,-1 1,1-1,-1 1,0-1,0 0,-1 0,0-1,0 1,0-1,-1 0,1 0,-1 0,0 0,-8 4,-14 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40304.22">18019 1111,'9'0,"7"0,10 0,6 0,1 0,4-4,0-2,3 1,4-4,-1-1,-4 3,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43193.22">19024 397,'-18'0,"-4"0,0 1,-27 3,41-2,0 0,-1 0,1 1,0 0,0 1,0 0,1 0,-1 0,-6 6,-18 15,0 1,-39 44,61-60,1 0,1 2,0-1,0 1,1 0,0 0,1 1,1 0,0 0,-6 25,10-32,1 0,0 0,0 0,0 0,1 0,0 0,0 0,1 0,-1 0,1-1,0 1,1 0,-1-1,1 0,0 0,1 0,-1 0,1 0,0-1,0 1,1-1,-1 0,1 0,0-1,10 7,-2-3,-1 0,2-1,-1-1,0 0,1 0,0-1,0-1,1-1,25 2,-23-3,25 1,1-2,-1-2,0-2,51-10,-89 13,0-1,0 0,0 0,0 0,0 0,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,-1-1,1 0,0 1,-1-1,0 0,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,-1 0,1-1,-1-6,1-8,-1 0,-1-1,-1 1,-8-37,9 49,-1 1,0 0,0 0,-1 0,0 0,0 0,0 1,-1-1,0 1,0 0,0 0,-1 0,0 1,1 0,-2-1,1 2,0-1,-1 1,1-1,-8-1,3 0,-1 2,-1-1,1 1,0 1,-1 0,1 1,-1 0,0 0,1 1,-16 3,-8 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45004.22">18971 873,'-2'8,"1"-1,-1 0,0 0,0 0,-1 0,0-1,0 1,-1-1,-8 12,3-3,-16 22,-34 39,-11 18,65-86,1-1,1 1,0 0,0 0,0 0,1 1,0-1,0 1,1-1,1 1,-1-1,1 1,0 0,1-1,3 16,4 8,1 0,25 55,-15-40,-17-42,0 1,1-1,-1 1,1-1,0 0,0 0,1 0,-1-1,1 1,0-1,0 0,1 0,-1 0,1 0,0-1,0 0,0 0,0 0,1-1,-1 0,1 0,0 0,-1-1,1 1,0-1,0-1,0 1,0-1,0 0,-1-1,1 1,0-1,0 0,0 0,-1-1,10-3,-15 5,14-4,-1-1,0 0,0 0,17-12,-26 15,0-1,0-1,-1 1,1 0,-1-1,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,0-1,-1 1,1-1,0-6,63-262,-63 257,-1-1,0 0,-2 1,1-1,-2 0,-5-22,-3-42,10 73,-1 1,0-1,0 0,0 1,-1-1,0 1,0-1,-1 1,0 0,-5-8,5 11,1 1,-1-1,0 1,-1 0,1 0,0 0,-1 0,0 1,0-1,1 1,-1 0,-1 0,1 1,0-1,0 1,-1 0,1 0,-8-1,-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47407.21">20003 1561,'-1'0,"0"0,1 0,-1-1,0 1,1 0,-1-1,0 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 0,0 1,0-1,-1 0,1 1,0-1,0 0,0 0,0-1,-3-25,3 23,0-87,3 0,29-161,-5 62,-17 126,34-117,-22 104,-6 25,40-83,-40 99,-14 29,1 1,0 0,0 0,0 1,1-1,-1 1,2-1,-1 1,0 0,1 1,0-1,10-6,4 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48201.22">20082 926,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48969.21">20691 450,'-2'1,"0"-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,1 1,-1-1,1 1,-1 2,-12 49,10-41,-28 125,-29 153,49-221,4-1,0 91,7-150,1 1,-1-1,1 0,1 1,0-1,0 0,1 0,0 0,0 0,1-1,0 1,10 13,1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49940.21">20770 953,'-1'-20,"2"0,1 1,0-1,2 0,0 0,10-27,-11 39,0 0,1 0,0 1,1-1,0 1,0 0,0 0,1 1,0-1,0 1,1 1,-1-1,1 1,0 0,1 1,-1-1,14-4,-18 8,-1 0,1 1,-1-1,1 0,0 1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,1 0,0 0,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,-1 0,1 0,-1 1,1-1,2 5,3 7,0 0,-1 1,0 0,4 20,-7-25,12 40,-3-5,2 0,1 0,3-2,28 51,-44-91,0 1,1-1,0 0,-1 0,1 0,0 0,0 0,6 3,7 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50567.22">21247 688,'-4'7,"0"-1,1 0,1 1,-1 0,1 0,0 0,0 0,1 0,0 0,0 0,0 10,-2 15,-9 13,-2 0,-1-2,-3 0,-1 0,-49 76,-26 59,80-145</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51753.24">21458 1111,'4'0,"2"5,0 6,-1 5,-2 5,-1 3,-1 2,0 1,-1-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54566.21">21485 820,'0'5,"0"1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54942.21">21591 1164,'4'0,"6"0,6 0,5 0,3 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54943.21">21882 1085,'0'-9,"0"-7,0 8,0 14,0 10,0 8,0 4,4 6,2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55290.21">22093 344,'3'1,"1"-1,0 1,0 0,0-1,-1 2,1-1,0 0,-1 1,1 0,-1-1,0 1,1 1,-1-1,0 0,0 1,-1 0,1-1,0 1,-1 0,0 1,0-1,0 0,0 1,2 4,4 10,0 1,-2 1,7 29,-10-34,7 42,-3 0,-2 0,-3 1,-6 76,1-6,1-93,-1 0,-1 0,-2 0,-2-1,-1 0,-1-1,-2 0,-31 59,19-39,16-31</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57375.88">22517 926,'4'0,"6"0,7 0,3 0,4 0,2 0,1 0,1 0,0 0,4 0,1 0,0 0,-2 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58153.88">22728 291,'-4'68,"-3"-1,-23 104,15-99,-11 135,29 158,-3-339</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4700 1824,'4'0,"6"0,8 0,12 0,13 0,2 0,8 0,4 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="541">4672 2230,'4'0,"17"0,17 0,13 0,2 0,1 0,-4 0,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2741.55">2034 2533,'0'-15,"2"-2,0 1,1 1,1-1,0 0,2 1,0 1,1-2,0 2,1 0,12-16,-5 11,0 0,2 0,1 1,-1 2,2 0,40-26,-54 38,0 1,1 0,-1 0,1 0,-1 0,2 1,-1 1,-1-1,1 1,0 0,1 0,-1 0,0 1,1 0,0 0,-1 0,0 1,0 0,1 0,-1 0,7 2,-2 2,-2 0,1 1,0 0,-1-1,0 2,1 0,-2 0,0 1,0 0,12 16,19 28,-3 2,-2 1,37 83,-52-95</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2234.56">2886 1900,'-9'14,"-18"15,-22 22,-17 23,-12 21,-6 6,2 1,5-7,11-9,12-15,12-15,16-18,17-14,16-13,6-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1520.01">3133 2432,'5'0,"1"4,-1 11,0 6,-2 5,-1 0,-1 3,0-1,-1 0,0 2,-1 2,1-1,0 0,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-704.01">3299 1393,'3'1,"1"-1,0 1,-1 0,1 0,0 0,0 1,0-1,-1 0,0 1,1 0,-1 0,0 0,0 0,0 1,0 0,0-1,-1 1,1-1,-1 1,0 0,3 6,6 9,-2 0,14 33,-12-22,38 86,-5 2,-6 3,-6 1,-6 0,-5 2,-6 0,-6 2,-10 147,-1-249,-1-1,-2 0,-1 0,-13 36,-47 82,35-79,12-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6105.54">110 3318,'0'-835,"1"812,1 0,2 1,0-1,2 1,1 0,18-39,-4 18,3 0,35-48,-38 63,-1 1,3 2,2 0,0 2,1 0,2 1,0 2,2 0,35-17,-38 26</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5186.55">1 2204,'4'0,"7"0,5 0,6 0,3 0,2 0,6 0,1 0,2 0,-3 0,-2 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4284.55">990 1469,'4'5,"2"5,5 14,0 7,2 8,1 13,-4 3,-2 0,-4-4,-2-3,-1-5,-1-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3450.55">1429 1647,'-4'61,"-3"0,-3-1,-19 67,-2 11,9-31,-2 1,7 0,-6 165,22-184,-1-30,3 0,9 61,-8-108,0-2,1 1,1 0,0-1,0 1,1-1,9 14,-11-20,1 1,-1-2,1 1,-1 1,1-2,1 1,0 0,-1-1,1-1,-1 1,1 0,1-1,-1 1,0-1,1 0,-1-1,9 2,11-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2280.53">6046 2279,'6'-4,"1"0,0-1,2 1,-2 1,1-1,1 2,-2 0,14-3,-3-1,80-18,2 5,173-14,306-32,-429 45,521-63,13 35,425 46,-522 7,4588-6,134 1,-4651-13,-151 0,115 3,604-4,-1191 13,0-1,0 0,-1-3,60-14,-64 12,1 1,-1 1,1 2,43 1,-50 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18088.22">6046 1191,'4'0,"11"-4,8-2,20 1,10-4,15 0,15 2,8 1,-3 3,-12 1,-18 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20755.21">12009 1089,'5'-8,"10"-4,21 2,21-4,16 3,3 1,-8 5,-11 1,-11 1,-7 3,-2 0,-2 0,-3 1,3-1,5 1,-5-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21413.22">12422 532,'-1'0,"0"0,0 0,0 1,0-1,1 0,-2 0,1 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,1 0,-1-1,1 1,-1 0,-11 24,11-21,-46 125,5 2,8 1,5 2,-11 154,36-210,9 132,-3-201,-1 0,1-1,0 1,0 0,6 11,5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23721.22">13521 583,'-6'-3,"2"0,0 0,-1 1,1 0,-1 0,-1 0,1 0,0 0,0 1,0 0,-1 0,0 0,-7 0,3 1,1-1,0 2,-2-1,2 1,-1 0,1 1,-9 3,12-2,0 0,0-1,1 1,-1 1,0 0,1 0,1 1,-1-2,0 2,1 0,0 0,0 0,0 0,1 1,0-1,0 1,0-1,1 1,0 1,-1 5,-4 16,2 1,1-1,-1 32,4-44,-2 20,1-15,0 1,1 0,1 0,2 1,7 37,-6-55,-1-1,0 1,1 0,0 0,-1-1,2 0,-1 0,1 0,0 0,0 0,0 0,0-2,1 2,-1-1,2 0,-1-1,0 1,-1-1,2 0,0-1,-1 1,0-1,1 0,8 1,10 1,0-1,0-2,1 0,31-5,-50 5,0-1,-1 0,0-1,0 1,2 0,-2-1,0 0,-1-1,1 0,1 0,-2 0,1 0,-1 0,0 0,0-1,0 0,0 0,-1 0,1 0,-1 0,-1-1,1 0,-1 0,3-6,4-12,-3 0,0 0,-2 0,4-30,-2 4,0 16,-1 12,-2-1,2-36,-5 52,0-1,-1 0,0 2,-1-2,0 0,0 1,0 0,-1 0,1 0,-1 0,-1 0,1 1,-7-7,4 4,-1 0,0 2,-2-1,2 0,-1 1,-2 1,2-1,-1 1,-1 0,1 1,-1 0,0 0,0 1,-1 0,-9-1,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25334.22">13439 1089,'-2'4,"2"0,-1 0,0 0,0 0,0-2,0 2,-1-1,1 1,-1-1,0 1,0-1,-5 5,-38 36,16-17,10-7,2 1,-1 1,2 0,2 1,-17 35,26-51,2 2,0 0,1-1,0 1,1-1,-1 1,2 0,-1 0,2 9,0-13,0 0,0 0,0-1,1 1,-1 0,1 0,1 0,0-1,0 0,-1 1,2-1,-1 0,0 0,1-1,-1 1,2-1,4 4,-2-3,0-1,1 1,0-1,-1 0,2-1,-1 0,0 0,0 0,1-1,-1 0,0-1,14-1,-7 1,0-1,0-1,-1 0,1-1,0-1,18-6,-23 5,1-1,-1 0,-1 1,1-2,-1 0,0 0,0-1,-1 0,-1 0,0-1,1-1,-2 2,0-2,-1 1,1-2,-1 2,-1-2,3-11,-4 10,0-1,1 1,-3-1,1 1,-2-1,0 1,0-1,-1 1,-1 0,-1-1,0 1,0-1,-1 2,0-2,-12-17,15 27,-1 0,0 0,0 1,-1-1,1 1,0 0,-1 0,1 0,-2 0,1 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,-5 0,-3-1,-2 1,1 0,-20 2,29-1,-21 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26405.22">13905 1292,'13'25,"-6"-12,-2-32,-3-179,0-16,3 185,0 0,3 0,0 1,2-1,1 2,1 0,3 0,-1 1,24-29,-19 28,2 1,2 1,0 1,2 1,0 0,2 2,0 2,40-23,-59 37,2 0,-1 1,1 1,-1-1,0 1,2 0,9-1,-18 4,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0 0,1 0,-2 0,1 0,0 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 0,0 1,1-1,-1 1,0 0,0 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 2,3 25,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27308.22">13905 937,'4'0,"7"0,6 0,5 0,3 0,7 0,2 0,10 0,7 0,-1 0,-5 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28899.22">15032 279,'-2'13,"0"0,-2 1,1-1,-1 0,-10 22,-4 9,6 1,2 0,2 1,-3 64,13 142,2-105,-4-136,1-2,1 1,0 0,0-1,1 1,1-1,-1 1,3-2,-2 2,1-1,1-1,-1 0,3 1,-2-2,1 1,14 10,-1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29756.22">15307 811,'1'-15,"2"0,0 1,1-2,1 2,0 0,1 0,0 0,1 1,2-1,-1 2,1-1,1 1,0 0,1 1,12-11,-19 20,-1 0,0 0,0 0,0 0,1 0,-1 0,0 2,2-1,-2 0,1 0,0 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 1,-1-1,1 1,0 0,0-1,0 2,-1-1,1-1,-1 2,0 0,1-1,4 4,8 7,0-1,-1 1,0 2,19 22,-8-9,19 19,-4 2,0 2,47 80,-47-70,-23-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30445.22">16049 456,'-3'1,"1"0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1-1,1 1,-1-1,1 1,-1 0,1 2,-1 2,-37 91,-66 124,68-147,8-24,-48 65,16-27,34-48,16-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32647.22">16241 1039,'11'-10,"2"0,0 1,1 0,-1 1,27-11,-39 18,0 1,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,-1 1,1-1,1 1,10 24,-9 41,-3-57,0 8,-2 29,3 0,2 0,2 0,14 50,-12-74</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33164.21">16461 659,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33937.21">17120 937,'0'5,"0"14,0 12,0 10,0 6,0 0,0 1,0-5,0 0,0-3,0-5,0-3,0-3,0 2,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34582.21">16791 1216,'4'0,"7"-4,6-2,4 1,13 1,15 1,8 1,9 1,2 0,-1 1,-7 0,-9 1,-14-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35321.21">17368 1064,'18'-19,"0"0,26-37,-34 39,1 2,2 1,-1-1,2 1,-1 1,18-12,-30 24,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,0 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,2 0,-2 0,0 0,1 1,-1-1,1 2,2 9,-1 0,0 0,-1 1,0 15,-1-21,2 87,-1-9,3 2,19 89,-15-139</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36218.21">17725 0,'2'1,"1"-1,-1 1,1-1,-1 1,0 0,1 0,0 0,-1 0,1 0,-1 1,0-1,0 0,0 0,0 1,0 0,-1 0,1-1,0 1,3 5,26 47,-23-38,197 454,-43 18,-102-298,-50-154,0 0,-3 1,-1-1,-3 1,-1 59,-2-65,0-6,-1-2,-1 2,-5 24,5-42,1 0,-1-2,-1 2,1-1,-2 0,1 0,0 0,-1 0,0-2,0 2,0-1,-2 0,2 0,-1-1,0 1,-9 4,-14 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40304.21">18715 1064,'9'0,"8"0,10 0,6 0,1 0,5-4,-1-2,4 1,3-3,0-2,-5 3,-7 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43193.21">19758 380,'-18'0,"-5"0,0 1,-28 3,43-2,0 0,-2 0,2 0,0 1,-1 1,1 0,1 0,-2 0,-5 5,-19 15,-1 1,-39 42,62-57,2-1,1 3,-1-2,1 2,1-1,-1 1,2 0,1 1,0-1,-7 24,11-30,1 0,0 0,0-1,0 1,1 0,0 0,0-1,2 1,-2 0,1-1,0 0,1 1,-1-1,1 0,0-1,1 1,-1 0,2 0,-1-1,0 0,1 0,-1 0,1 0,1-1,9 6,-1-2,-2 0,3-1,-2-2,1 1,0 0,1-1,-1-1,2-2,25 3,-23-3,26 1,0-2,0-2,0-2,52-9,-92 12,1-1,-1 0,0 0,0 0,0 1,-1-2,1 1,0-1,0 0,-1 0,0 0,0 0,-1 0,1-1,0 1,-1-1,0 0,1 0,-1 1,-1-1,1 0,-1 0,0-1,0 1,-1 1,1-2,-1-6,1-7,-1 0,-1-1,-1 1,-9-36,10 47,-1 2,0-1,0 0,-1 0,0 1,0-1,0 1,-1-1,-1 1,1 1,0-1,-1 0,0 1,1 0,-3 0,2 1,0-1,-1 1,1-1,-9-1,4 1,-2 1,0-1,0 1,1 1,-2 0,2 1,-1 0,-1 0,2 1,-17 3,-9 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45004.21">19703 836,'-2'7,"1"0,-1 0,0-1,0 1,-1 0,0-1,0 0,-1 0,-9 11,4-2,-17 20,-36 38,-10 17,67-83,0 0,2 1,0 0,0-1,0 1,1 0,0 0,0 1,1-2,1 2,-1-1,1 0,0 1,1-1,3 15,4 7,2 1,25 52,-15-38,-18-40,0 1,1-2,-1 2,1-1,0 0,0-1,1 1,0-1,0 1,0-1,0 0,1-1,-1 1,2 0,-1-1,0 0,0 0,0 0,2-2,-2 1,1 0,0 0,-1-1,2 1,-1-1,0-1,0 1,1-1,-1 0,-1-1,1 1,0-1,1 0,-1 0,-1-1,11-3,-16 5,14-3,0-2,-1 0,1 0,17-11,-27 14,0-1,0-1,-1 1,2 1,-2-2,0 0,0 0,0 0,-1 0,1 1,-1-2,0 1,0-1,0 1,0 0,0-7,65-250,-65 245,-1 0,0 0,-2 1,1-2,-2 1,-5-21,-3-41,10 70,-1 2,-1-2,1 0,0 2,-1-2,0 1,0 0,-1 0,0 0,-5-7,5 10,0 1,0-1,0 2,-1-1,1 0,0 0,-1 0,0 1,-1-1,2 1,-1 0,-1 1,1 0,0-1,-1 1,0 0,1 0,-8-1,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47407.21">20775 1494,'-1'0,"0"0,1 0,-1-1,0 1,1 0,-1-1,0 1,1-1,-1 1,1 0,-1 0,1 0,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 0,0 1,0-1,-1 0,1 1,0-1,0 0,0 0,0-1,-3-24,3 22,0-83,3 0,30-154,-5 59,-18 121,36-113,-23 101,-6 23,41-79,-42 94,-14 29,2 0,-1 0,0 0,0 2,1-2,-1 1,2-1,0 1,-1 1,1 0,0-1,11-5,3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48201.21">20857 886,'4'0,"8"0,4 0,6 0,3 0,2 0,1 0,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48969.21">21490 431,'-2'1,"0"-1,1 1,-1-1,0 1,0 0,1-1,-1 1,1 0,0-1,-1 1,1 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,1 1,-1-1,1 1,-1 1,-13 48,11-39,-29 119,-30 146,50-210,5-2,0 87,7-144,1 2,-1-1,1-1,1 2,0-2,0 1,1 0,0-1,0 1,1-1,1 0,9 13,2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49940.21">21572 912,'-1'-19,"2"0,1 1,0-1,2 0,0-1,11-25,-12 38,0-1,1 0,0 2,2-2,-1 1,0 1,0-1,1 1,1 0,-1 0,1 1,-1-1,2 1,-1 1,1 0,-1-1,15-4,-19 8,-1 1,2 0,-2-1,1 0,0 1,-1 0,1 0,0 0,-1 0,1 0,1 0,-2 1,1-1,-1 1,1-1,0 1,-1 0,0 0,1 0,-1 0,0 1,2-1,-2 1,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,1 0,2 5,4 6,-1 1,-1 0,0 1,5 18,-8-23,12 38,-2-5,1 0,2 0,3-2,28 49,-44-87,-1 1,1-1,0-1,-1 1,1 0,0 0,0 0,7 3,6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50567.21">22067 659,'-4'6,"0"0,1 0,1 1,-1-1,1 1,-1 0,1-1,1 1,0 0,0-1,0 11,-2 13,-9 13,-3 0,0-1,-4-1,-1 0,-50 73,-28 56,83-138</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51753.24">22286 1064,'5'0,"1"4,0 7,-1 4,-2 5,-1 3,-1 2,0 1,-1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54566.21">22314 785,'0'5,"0"1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54942.21">22425 1114,'4'0,"6"0,7 0,5 0,2 0,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54943.21">22727 1039,'0'-9,"0"-6,0 7,0 14,0 9,0 8,0 4,4 5,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55290.21">22946 329,'3'1,"1"-1,0 1,0 0,1-1,-2 2,1-1,0 0,-1 1,1 0,-1-1,1 1,0 1,-1-1,0-1,0 2,-1 0,1-1,0 1,-1 0,1 1,-1-1,0-1,0 2,2 4,4 9,1 1,-3 1,7 28,-10-32,8 39,-4 1,-2-1,-3 2,-6 72,1-5,1-90,-1 1,-1-1,-3 1,-1-2,-1 1,-2-2,-1 1,-33 56,20-37,17-30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57375.88">23386 886,'4'0,"7"0,6 0,4 0,4 0,2 0,1 0,1 0,0 0,5 0,0 0,0 0,-2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58153.88">23605 279,'-4'65,"-3"-1,-24 100,15-96,-11 131,30 150,-3-324</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20872,7 +21071,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 218,'42'-2,"1"-2,78-19,-38 6,800-112,-235 87,2 42,-326 3,6513 1,-3876-6,4830 2,-7767 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 219,'44'-2,"1"-2,81-19,-40 6,834-113,-245 88,2 42,-340 3,6784 1,-4037-6,5031 2,-8090 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21225,7 +21424,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">418 4,'0'0,"0"0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,-15 10,-11 14,-20 25,2 1,3 2,-43 70,64-79,1 0,2 2,2 0,-10 54,-7 21,26-105,1 1,1 0,0 1,1-1,1 1,1-1,0 1,1-1,0 1,2 0,0-1,1 1,0-1,11 27,-5-21,0 0,2 0,1-1,0-1,22 27,-24-36,0 1,0-1,1-1,1 0,-1 0,2-1,-1-1,1 0,23 10,-10-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2467.22">921 189,'-1'-1,"1"0,0 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,-2-1,-33-4,31 5,-7-1,1 1,-1 1,1 0,-1 0,1 1,0 1,0 0,0 0,0 1,1 0,-20 12,22-12,-1 2,1-1,1 1,-1 0,1 1,0 0,1 0,-1 1,1-1,1 1,0 0,0 1,0 0,-4 11,-1 8,5-17,1 1,0-1,1 1,0 0,-2 23,5-32,0 0,0 0,0 0,1-1,-1 1,1 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,5 0,28 6,1-1,0-2,44-1,-10 0,-36 0,-41-2,-58-1,50 0,-29-1,16 0,-58 4,79-2,-1 0,0 1,1 0,-1 0,1 1,-1 0,1 0,0 0,0 1,1 0,-1 1,-6 5,-2 3,0 2,1 0,0 1,2 0,-19 29,26-35,1 0,0 0,0 0,1 0,0 1,1-1,0 1,1-1,0 1,0 0,2 0,1 17,-1-23,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0 0,1 0,0-1,-1 1,1-1,0 1,0-1,0-1,1 1,7 2,11 2,1 0,0-2,37 3,-20-3,-12 0,223 39,-250-43,-1 0,0 0,0 1,1-1,-1 0,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 2,1 0,-1 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,-2 3,-2 5,-1 0,0 0,-1-1,-11 15,6-13,-1 0,0-1,-1-1,0 0,-27 14,-35 27,72-48,1 0,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,0 0,0 0,0 0,1 0,0 1,0-1,0 0,0 0,1 1,-1 5,1-7,0-1,1 1,-1 0,1 0,-1-1,1 1,0 0,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 1,0-1,0 0,0-1,0 1,0 0,0 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,6 1,13 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2467.21">921 189,'-1'-1,"1"0,0 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,-2-1,-33-4,31 5,-7-1,1 1,-1 1,1 0,-1 0,1 1,0 1,0 0,0 0,0 1,1 0,-20 12,22-12,-1 2,1-1,1 1,-1 0,1 1,0 0,1 0,-1 1,1-1,1 1,0 0,0 1,0 0,-4 11,-1 8,5-17,1 1,0-1,1 1,0 0,-2 23,5-32,0 0,0 0,0 0,1-1,-1 1,1 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,5 0,28 6,1-1,0-2,44-1,-10 0,-36 0,-41-2,-58-1,50 0,-29-1,16 0,-58 4,79-2,-1 0,0 1,1 0,-1 0,1 1,-1 0,1 0,0 0,0 1,1 0,-1 1,-6 5,-2 3,0 2,1 0,0 1,2 0,-19 29,26-35,1 0,0 0,0 0,1 0,0 1,1-1,0 1,1-1,0 1,0 0,2 0,1 17,-1-23,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0 0,1 0,0-1,-1 1,1-1,0 1,0-1,0-1,1 1,7 2,11 2,1 0,0-2,37 3,-20-3,-12 0,223 39,-250-43,-1 0,0 0,0 1,1-1,-1 0,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 2,1 0,-1 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,-2 3,-2 5,-1 0,0 0,-1-1,-11 15,6-13,-1 0,0-1,-1-1,0 0,-27 14,-35 27,72-48,1 0,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,0 0,0 0,0 0,1 0,0 1,0-1,0 0,0 0,1 1,-1 5,1-7,0-1,1 1,-1 0,1 0,-1-1,1 1,0 0,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 1,0-1,0 0,0-1,0 1,0 0,0 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,6 1,13 3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21252,18 +21451,18 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">141 238,'-4'6,"1"-1,0 0,0 1,0-1,1 1,0 0,0 0,0 0,1 0,-1 9,-2 4,-5 23,2 1,2 0,2 0,3 60,0-99,1 0,-1 0,0 0,1 0,0 0,0 0,0 0,1 0,0 0,-1 0,1 0,0-1,1 1,-1-1,1 0,5 6,-4-6,0 0,0-1,0 1,1-1,-1 0,1-1,-1 1,1-1,0 0,-1 0,1 0,0-1,0 1,6-2,11 1,0-2,0 0,40-11,-50 10,0-1,0 0,0 0,-1-2,0 1,0-2,0 1,13-12,-21 14,1 0,-1-1,1 1,-2-1,1 1,0-1,-1 0,0 0,0-1,0 1,-1 0,0-1,0 1,0 0,0-12,-1-6,-1-1,-5-30,6 50,-1-1,-1 1,1-1,0 0,-1 1,0-1,0 1,-1 0,1-1,-1 1,0 0,0 1,0-1,-1 0,1 1,-1 0,0 0,1 0,-2 0,1 1,0-1,0 1,-1 0,1 0,-10-2,-9-2,0 1,-1 1,-41-2,61 6,-24 1,6 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1439">274 688,'-1'0,"1"-1,0 0,0 1,0-1,-1 0,1 1,0-1,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,1 1,-2 0,-32 15,22-6,0 0,1 0,0 2,-18 21,-11 14,28-36,1 1,1 0,0 1,0 0,2 1,-11 20,16-27,0 0,1 0,-1 0,2 1,-1-1,1 1,0-1,0 1,1-1,0 1,1 0,-1-1,2 1,-1-1,5 15,-4-18,0 0,1 0,-1-1,1 1,0 0,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,0-1,0 0,0 0,0 0,0 0,1-1,-1 0,1 1,-1-2,0 1,1 0,-1-1,1 0,0 0,5-1,1 1,-1-1,1 0,-1-1,1 0,-1-1,0 0,0 0,0-1,0-1,16-9,-11 2,-1 0,0-2,0 1,-2-2,0 1,13-21,-19 26,0 0,-1-1,0 1,0-1,-1 0,-1-1,0 1,0-1,0 0,-2 1,1-1,-1-13,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2734.99">1041 26,'-6'100,"-3"-1,-31 131,22-136,-1 5,8-57,2 2,3-1,1 1,2 0,2 0,5 46,1-57,2-1,2 0,0-1,2 0,23 45,92 139,-106-183,-11-19,-1 0,2 0,0-1,17 17,-6-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5358">1623 635,'5'0,"0"-1,0 0,0 0,0-1,0 1,0-1,0 0,-1-1,1 1,-1-1,6-3,47-42,-43 36,129-116,-142 126,1 1,-1-1,1 1,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,4 1,-4 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,-1 0,1-1,0 1,0 4,2 12,0 1,-2 0,0 37,-2-40,-3 159,0 64,4-234,0 0,1-1,-1 1,1-1,0 1,1-1,-1 1,1-1,0 0,0 0,0 1,0-2,1 1,0 0,0 0,0-1,3 4,4 1,1-1,-1 0,1-1,0 0,17 6,22 9,7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5735">2417 1191,'0'-4,"0"-7,0-18,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6459">2787 132,'-21'453,"12"-323,-16 356,31-435,0-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8046">3422 212,'-4'1,"0"0,0 0,0 0,0 0,1 1,-1-1,1 1,-1 0,1 0,0 0,-1 1,1-1,0 1,0-1,1 1,-1 0,1 0,-1 1,-1 3,-9 13,2-1,-10 24,14-29,-5 13,1-1,2 1,0 1,2 0,1 0,-2 31,2 173,7-198,-1-27,0-1,0 1,1-1,0 1,0-1,0 1,1-1,0 0,0 0,1 0,-1 0,2 0,-1 0,0-1,1 1,0-1,0 0,1 0,0-1,-1 1,1-1,1 0,-1 0,1-1,-1 1,1-1,0-1,0 1,0-1,1 0,-1 0,13 1,-5 0,0-1,1-1,-1 0,1 0,-1-2,1 0,-1-1,1 0,-1-1,0 0,18-8,-26 8,1 0,0-1,-1 1,0-2,0 1,0-1,0 0,-1 0,0 0,0-1,0 0,-1 0,0 0,0 0,0-1,-1 1,0-1,0 0,-1 0,0 0,0-1,-1 1,2-13,0-52,-7-105,0 47,4 127,0-7,0 0,-1-1,1 1,-2 0,0 0,-3-12,3 19,1 1,0-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 1,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 0,1 1,-1-1,0 1,0 0,1 0,-6 0,-17 1,2 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9231">3951 106,'54'0,"79"2,-117-1,0 1,0 1,0 1,0 0,-1 1,15 7,-26-11,-1 1,0 0,0-1,0 1,0 1,0-1,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 1,0 4,0 3,-1 0,0 0,0 1,-2 18,0-18,1 0,0-1,1 1,3 19,4-7,1-1,22 43,-21-47,0 1,-1 0,-1 1,7 31,-9-20,-1 0,-1 1,-3 0,0-1,-2 1,-10 64,10-92,-1 1,1-1,-1 0,0 0,-1 0,1 0,-1-1,0 1,0-1,0 1,-1-1,0 0,1 0,-1-1,-1 1,1-1,0 0,-1 0,0 0,1-1,-1 0,0 1,0-2,-8 3,3-2,1-1,0 0,-1-1,1 0,0 0,0-1,-1 0,1-1,0 0,0 0,0-1,0 0,-12-6,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10735">5142 265,'-7'3,"0"-1,0 1,1 0,-1 0,1 1,0 0,0 0,0 0,0 1,1 0,-8 8,4 0,0 0,0 1,1 0,1 0,0 0,-8 29,-4 3,5-14,7-18,0 0,1 1,0 0,2 0,0 1,-3 15,7-29,0 0,0 0,0 0,-1 0,2 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1 1,0-1,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,0 0,3 0,10 0,0-1,-1-1,1 0,22-7,-6 2,26 0,87 0,-141 7,1 0,-1 0,0 1,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 1,0 0,0-1,0 1,-1 0,1 0,2 3,-1 0,0 0,-1 0,1 0,-1 0,0 1,-1-1,1 1,2 10,1 9,-1 1,-1-1,0 41,-3-46,-1-20,1 18,0 0,-1 0,-4 28,3-41,0-1,0 1,0-1,-1 0,0 1,1-1,-1 0,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 1,-1-1,1 0,-1 0,1-1,-7 4,-4 1,-1-1,0-1,-1 0,1-1,-1-1,0 0,-22 1,-119-5,107-1,36 1,-1-1,1 0,-1-1,1-1,0 0,0-1,1 0,-22-12,-4-6,-51-40,66 45,-115-89,86 63</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11646">5433 0,'7'1,"0"0,0 0,0 1,0 0,0 0,0 0,-1 1,1 0,-1 0,0 1,0 0,9 7,5 5,-1 2,19 21,-18-16,-2 0,-1 2,-1 0,-1 1,12 28,-4 0,25 91,-39-99,-2 0,-2 1,-2 0,-2 0,-7 61,2 6,3-57,-2 0,-20 102,17-132,-1-1,-2 0,-1 0,0-1,-2 0,-1-1,-1-1,-19 25,3-1,20-26</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13008">6544 79,'0'1162,"0"-1120</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13621.03">6147 714,'4'0,"11"0,8 0,3 0,12 0,8 0,5 0,7 0,4 0,-1 0,8 0,23 0,1 0,2 0,-5 0,-14 0,-20 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">146 228,'-4'6,"1"-1,0 0,0 1,-1-2,2 2,0 0,0 0,0-1,1 1,-1 9,-2 3,-5 22,1 1,3 1,2-1,3 58,0-95,1 0,-1-1,0 1,1 0,0 0,0 0,0 0,1-1,0 1,-1 0,1 0,1-1,0 1,-1-1,1-1,5 7,-4-6,0 0,1-1,-1 1,1-1,-1 0,1-2,-1 2,2-1,-1 0,-1 0,1 0,0-1,0 1,7-2,11 1,-1-2,1 0,41-10,-51 9,-1-1,1 0,-1 1,-1-3,1 1,-1-2,1 1,12-11,-20 13,0 1,-1-2,1 1,-2-1,1 1,0-1,-1 1,0-1,0-1,1 1,-2 0,0 0,0 0,0 0,0-11,-1-6,-1-1,-6-29,7 48,-1-1,-1 1,1 0,0-1,-1 1,0-1,0 1,-1 0,1 0,-1 0,0 0,0 1,-1-1,0 0,1 2,-1-1,0 0,1 0,-2 0,0 1,1-1,0 1,-1 0,1 0,-11-1,-8-3,-1 1,-1 1,-42-2,62 6,-24 1,7 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1439">284 661,'-1'0,"1"-1,0 0,0 1,0-1,-1 0,1 1,0-1,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-2 0,1-1,1 1,-1 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,1 1,-2 0,-33 14,22-5,1-1,0 1,1 2,-19 19,-12 14,30-34,1 0,0 1,1 0,0 1,1 0,-10 20,15-26,1-1,1 1,-1 0,2 1,-1-2,1 2,0-1,0 0,1 0,0 1,1-1,-1 0,2 1,-1-1,5 14,-4-17,0-1,2 1,-2-1,1 1,0 0,0-1,0 0,0-1,0 1,1 0,0 0,0 0,0-1,0 0,0 0,0 0,0 0,2-2,-2 1,1 1,-1-2,0 1,1 0,0-1,0 0,0 0,5-1,2 1,-2-1,1 0,0-1,0 1,-1-2,1 0,-1 0,1-1,-1-1,17-8,-12 1,0 1,-1-3,1 2,-3-3,1 2,13-21,-20 26,0-1,-1 0,0 0,1-1,-2 1,-1-2,0 2,0-2,0 0,-2 2,1-2,-1-12,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2734.99">1078 25,'-6'96,"-3"-1,-33 126,23-131,0 5,7-55,3 3,3-2,1 1,2 0,2 1,5 43,1-54,2-1,2-1,1 0,1 0,24 43,96 133,-110-175,-12-19,-1 1,3-1,-1 0,18 16,-6-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5358">1681 610,'5'0,"0"-1,0 0,1 0,-1-1,0 1,0-1,0 0,-1-1,2 1,-2-1,6-2,49-41,-44 34,133-111,-147 121,1 1,-1-1,1 1,0-1,-1 1,1 1,0-1,0 0,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,0 1,0 0,0 0,1 0,-1 0,4 1,-4 0,-1 0,1 0,1 0,-2 0,1 0,-1 0,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,-1 0,1-1,0 1,0 3,2 13,0 0,-2 0,0 36,-2-39,-3 153,0 62,4-225,0-1,1 0,-1 1,1-1,0 1,1-1,-1 0,1 0,0 0,1 0,-1 1,0-2,1 0,0 1,0 0,0-1,3 4,5 0,0 0,-1 0,2-1,-1-1,18 7,23 8,7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5735">2503 1143,'0'-3,"0"-8,0-17,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6459">2886 127,'-21'435,"11"-311,-16 343,33-418,-1-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8046">3544 204,'-4'0,"0"1,-1 0,1 0,0 0,1 1,-1-1,1 1,-1 0,1 0,-1 0,0 1,1-1,0 1,0-2,1 2,-1 0,1 0,-1 1,-1 3,-10 12,3-1,-11 23,15-27,-6 12,2-1,2 1,-1 1,3-1,1 1,-3 30,3 166,7-191,-1-25,0-1,0 1,1-2,0 2,0-1,0 1,1-2,1 1,-1 0,1 0,-1-1,2 1,-1 0,0-1,1 0,0 0,1 0,0 0,0-1,-1 0,1 0,1 0,0 0,0-1,-1 1,1-1,0-2,1 2,-1-1,1 0,-1 0,14 1,-5 0,-1-1,2-1,-2 0,2 0,-2-2,2 0,-2-1,2 0,-2-1,1 0,18-7,-27 7,1 0,1-1,-2 1,0-2,0 1,0 0,1-1,-2 0,0 0,0 0,0-1,-1 0,1 0,-1 0,0 0,-1 0,0-1,0 1,-1-1,0 0,0-1,-1 2,3-13,-1-51,-7-100,-1 46,5 121,0-7,0 1,-1-2,1 1,-2 1,0-1,-3-11,3 18,1 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 1,-1-1,1 1,-1 0,0 1,1-1,-2 0,1 0,1 1,-1-1,0 1,0 0,1 0,-6 0,-18 1,2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9231">4092 102,'56'0,"81"2,-120-1,0 1,-1 0,1 2,-1 0,0 1,15 6,-27-10,-1 1,0 0,0-1,0 1,1 1,-1-1,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,0 0,-1 0,1 0,-1 0,1 1,1 3,-1 4,-1-1,0 1,0 0,-2 18,0-17,1-1,0 0,1 0,3 19,4-7,1-1,24 42,-23-46,0 1,0 0,-2 1,7 30,-8-19,-2 0,-1 0,-3 1,0-1,-2 1,-10 61,10-89,-2 2,2-1,-1 0,0 0,-1-1,1 1,-1-1,0 1,0-1,0 1,-1-2,-1 1,2 0,-1-1,-1 1,1-1,0 0,-1-1,-1 1,2-1,-1 0,0 1,0-2,-9 3,4-2,1-1,-1 0,0-1,1 0,-1 0,1-1,-1 0,0-1,1 0,0 0,-1-1,1 0,-13-5,-2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10735">5325 254,'-7'3,"0"-1,-1 1,2 0,-1 0,1 1,0 0,-1-1,1 1,0 1,1 0,-9 7,5 1,0-1,-1 2,2-1,1 1,-1-1,-7 28,-5 3,6-13,7-17,-1-1,2 1,0 1,2-1,0 2,-4 13,8-27,0 0,0 0,0 0,-1 0,2 0,-1 0,0 0,0 0,1 0,-1 0,1-1,-1 0,1 1,0 0,0 0,1-1,-1 1,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1 1,0-2,-1 1,1 0,0-1,0 1,-1 0,1-1,0 1,1-1,-1 1,0-1,0 0,0 0,3 0,11 0,-1-1,0-1,0 0,23-6,-5 1,26 0,90 1,-146 6,1 0,-1 0,0 1,0-1,1 1,0 0,-1-1,0 1,0 0,0 0,0 1,0 0,0-1,0 1,-1 0,2 0,1 3,-1 0,0-1,-1 1,1 0,-1 0,0 0,0 0,0 1,2 9,1 9,-1 1,-1-1,1 40,-4-45,-1-19,1 17,0 1,-1-1,-5 27,4-39,0-1,0 0,0 0,-1 0,0 1,1-1,-1 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,-1 1,0-2,1 1,-1 0,1-1,-7 4,-5 1,0-2,-1 0,-1 0,2-1,-2-1,1 0,-24 0,-122-4,110-1,38 2,-2-2,1 0,0-1,0-1,1 0,-1-1,2 1,-23-13,-5-5,-52-38,68 42,-119-84,89 59</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11646">5627 0,'7'1,"0"0,0 0,1 1,-1 0,0 0,0 0,-1 0,2 1,-2 0,0 1,0 0,10 6,5 6,-2 1,21 21,-20-16,-1 0,-1 2,-2 0,0 1,12 27,-5-1,27 89,-40-96,-3 0,-2 1,-2 0,-2 0,-7 59,2 5,3-54,-2 0,-21 97,18-126,-2-1,-1 0,-1 0,-1-1,-1 0,-2-1,0-1,-20 25,3-2,20-25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13008">6777 76,'0'1115,"0"-1074</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13621.03">6366 685,'4'0,"12"0,7 0,4 0,13 0,7 0,6 0,7 0,4 0,0 0,7 0,24 0,2 0,1 0,-5 0,-14 0,-21 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21372,7 +21571,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 347,'663'-12,"-199"1,1304 7,-998 5,4250-1,-1121 0,521 0,-4116 1,509-6,-629-10,309-65,-78 9,4 24,86-11,109 13,8 44,-383 4,2263-3,-2451 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 326,'690'-11,"-207"0,1358 8,-1040 4,4425-1,-1167 0,542 0,-4284 1,529-6,-654-9,321-61,-81 8,4 23,90-11,113 13,8 41,-398 4,2356-3,-2552 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21399,21 +21598,21 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1985 211,'0'18,"-5"42,-19 38,-19 25,-16 13,-11 7,2-8,3-13,13-59,15-58,14-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1340">2171 317,'42'-10,"-7"0,-2 4,-1-2,37-14,43-11,-84 27,1 1,-1 2,39 0,-65 3,0 0,1 1,-1-1,0 1,1 0,-1-1,0 1,0 0,0 0,1 1,-1-1,0 0,-1 1,1-1,0 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 1,2 3,0 8,0 0,-1 0,0 27,-1-39,-4 56,-3 0,-2 0,-2 0,-4-2,-1 1,-3-2,-2-1,-3 0,-2-1,-41 60,60-100,-1-1,-1-1,1 1,-2-1,1-1,-1 0,-1 0,0-1,0 0,-1-1,-19 10,29-17,0 0,0 0,1-1,-1 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,-2-3,1 1,1 0,1 0,-1 0,0-1,0 1,1-1,0 1,-1-1,1 1,0-1,0 0,0 1,0-6,-1-3,1 0,0-1,1 1,0-1,1 1,3-18,-2 19,1 1,0-1,0 1,1-1,0 1,1 0,0 0,1 1,0 0,0 0,0 0,1 0,0 1,15-11,-16 14,0 0,0 0,1 1,-1 0,1 0,0 1,-1-1,1 1,1 1,-1-1,0 1,0 1,0-1,0 1,1 1,-1-1,0 1,0 0,0 1,0 0,10 3,-3 2,-1 0,0 1,0 1,0 0,-1 0,12 13,-20-19,20 18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2184">3494 238,'-1'1,"1"-1,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-16 21,-3 20,2 0,1 1,2 1,2 0,2 1,2 0,2 0,-1 80,39 271,-29-377,1 0,1-1,1 1,0-1,1 0,1-1,0 0,1 0,17 21,-6-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3329">4393 317,'-3'1,"1"0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,-3 3,-6 5,-51 50,2 1,3 4,3 1,3 3,3 2,-59 119,91-154,0 0,-12 56,22-72,1-1,2 1,0 0,0-1,2 1,4 35,-3-51,0 1,0-1,0 0,1 0,0 0,0 0,0 0,0 0,0 0,1 0,0-1,-1 0,2 1,-1-1,0 0,0 0,1-1,0 1,-1-1,1 1,0-1,0-1,0 1,1 0,-1-1,0 0,0 0,8 1,-5-2,0 1,0-1,0 0,0 0,-1-1,1 0,0 0,0-1,-1 1,1-2,-1 1,1-1,-1 0,0 0,0 0,0-1,-1 0,8-7,14-18,-2 0,-2-2,0 0,20-40,66-147,-76 145,-22 50,-2 0,0-1,-2-1,8-44,-2-101,-10 144,1 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3830">4843 899,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5029">5187 370,'3'-2,"1"-1,0 0,0 1,0 0,0-1,0 2,1-1,-1 0,1 1,-1 0,1 0,7 0,62-2,-53 3,-2 0,1 1,-1 0,0 1,0 1,-1 1,1 1,18 7,-31-10,0 1,0 0,0 0,0 0,-1 1,0 0,1 0,-1 0,-1 1,1 0,-1-1,1 2,-1-1,-1 0,1 1,-1 0,0 0,0 0,-1 0,0 0,0 0,0 1,1 11,0 11,-2 0,-1-1,-1 1,-6 39,6-58,-1 0,0 0,-1 0,0 0,0 0,-1-1,0 0,-1 0,0 0,0 0,-1-1,0 0,-1 0,0-1,-14 13,19-19,0 1,0-1,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1-1,1 0,-1 0,0 0,-3-1,4 1,0-1,1 0,-1 1,0-1,0 0,0 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1-1,0 1,0-1,0 0,-2-3,1 0,-1-1,1 1,1-1,-1 0,1 0,0 0,1 0,-1 0,1 1,0-1,1 0,-1 0,1 0,2-6,-1 6,0 0,0 0,1 1,0-1,0 1,1-1,-1 1,1 0,0 1,0-1,1 1,-1-1,1 1,0 1,0-1,0 1,1 0,6-3,-7 4,-1 0,1 0,0 1,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 1,1 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1 1,0-1,1 1,4 4,6 6,-1 1,-1 1,12 16,1 0,-10-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6388.99">6669 264,'-12'0,"-6"0,0 0,0 0,0 2,0 0,0 1,1 1,-19 6,-2 6,1 1,1 1,0 2,2 2,0 1,1 2,-51 50,77-67,1 0,0 1,1 0,0-1,0 2,1-1,0 1,1-1,-4 15,6-21,0-1,1 1,-1 0,1-1,-1 1,1 0,0-1,0 1,0 0,1 0,-1-1,1 1,-1-1,1 1,0 0,0-1,0 1,0-1,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,1-1,-1 1,1 0,3-1,9 0,0 0,0-2,0 0,-1 0,1-1,-1-1,1-1,-1 0,15-8,43-12,-72 25,14-5,0 2,0 0,1 0,-1 1,28 1,-39 1,0 1,1-1,-1 1,1 0,-1 0,0 0,0 1,1-1,-1 1,0 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,1 1,-2 0,1 0,0 0,0 0,-1 0,0 1,0-1,0 0,0 1,1 4,3 26,-1 0,-1 1,-2-1,-4 42,1-20,2-46,0-1,-1 1,0-1,0 1,-1-1,0 0,-5 11,6-18,0 0,0 1,-1-1,1 0,-1-1,1 1,-1 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 0,-3 0,-51-18,28 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7589">6563 132,'10'1,"1"-1,0 1,0 1,0 0,-1 0,1 1,-1 1,0 0,1 0,-2 1,1 0,14 10,-11-4,0 0,-1 0,0 2,0-1,-2 2,1-1,10 20,5 19,-2 0,-2 1,25 94,-46-141,16 56,-3 0,-3 1,-3 0,-3 1,-2 0,-3 0,-9 73,3-107,-1 1,-1-1,-1 0,-2-1,-1 0,-1-1,-2 0,0-1,-2-1,-1 0,-1-1,-1-1,-1-1,-1-1,-1-1,-1-1,-46 29,40-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12819.02">742 0,'-4'1,"0"0,0 1,1-1,-1 1,1-1,0 1,-1 0,1 0,0 1,0-1,0 1,0-1,1 1,-1 0,-2 3,-5 5,-33 34,3 1,1 3,-31 52,-83 166,147-257,-11 20,1 1,-19 57,34-86,0 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,2 3,-2-4,0 0,0 0,1 0,-1-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,2-1,9-3,0 0,0-1,-1-1,0 0,11-8,33-25,-24 17,59-33,-78 49,0 0,0 2,1 0,-1 0,1 1,0 0,0 1,0 1,14 0,-24 1,10 0,-1 0,1 0,-1-1,16-4,-23 3,0 1,0-1,0-1,0 1,-1-1,1 0,-1 0,0 0,0 0,0-1,0 0,0 1,3-6,68-90,-48 65</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13321.55">1033 185,'0'9,"-5"12,-1 16,-8 47,-7 22,0-2,4-10,4-17,6-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13656.55">1112 396,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14992.55">1509 185,'8'0,"0"0,1 1,-1 0,0 0,11 3,-18-4,0 1,0-1,0 1,0-1,0 0,0 1,0 0,0-1,0 1,-1-1,1 1,0 0,0 0,-1-1,1 1,-1 0,1 0,0 0,-1 0,0 0,1 1,-1 0,0-1,0 1,0 0,0 0,-1-1,1 1,0 0,-1-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,-2 3,-51 45,47-44,0 0,0 1,0 0,0 0,1 0,0 1,1 0,-1 0,1 0,1 1,-1-1,-5 16,10-22,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,1 0,0 0,-1 0,1 1,-1-1,1 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 0,2 1,53 12,-22-6,-29-4,1 0,-1 1,1 0,-1 0,0 0,-1 0,1 1,-1 0,0 0,0 0,0 0,-1 1,0 0,0-1,0 1,-1 0,0 0,0 1,-1-1,1 0,-1 1,-1-1,1 1,-1-1,0 1,-1-1,1 0,-2 7,1-6,0 0,0 0,0-1,-1 1,0-1,0 1,0-1,-1 0,0 0,0 0,-1 0,0-1,0 1,0-1,0 0,-1 0,0-1,0 1,0-1,-1 0,1 0,-1-1,0 0,0 0,0 0,-1-1,-6 2,-14-1,3-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15689.55">424 767</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17267.55">1 926,'24'-1,"0"-1,0-1,0-1,42-14,92-41,-115 41,512-229,-516 226,-1-2,44-36,36-23,234-94,-250 129,-22 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18700.55">2938 1508,'7'-1,"1"0,0-1,-1 0,0-1,1 0,-1 0,7-4,16-7,397-119,-282 91,157-46,608-185,-897 269,905-278,-406 145,6 41,-349 74,-112 12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2054 203,'0'17,"-5"41,-20 36,-19 25,-17 12,-12 6,3-7,2-12,15-58,14-55,16-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1340">2247 305,'43'-10,"-7"1,-2 3,0-2,37-13,45-11,-87 27,1 0,-1 2,40 0,-67 3,0 0,1 1,-1-1,1 1,0 0,-1-1,0 1,0 0,0 0,1 1,-1-1,0 0,-1 1,1-1,0 1,0-1,-1 0,1 1,0 0,0 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 1,2 2,0 9,0-1,-1 1,0 25,-1-37,-4 54,-3 0,-3 0,-1-1,-4-1,-2 1,-3-2,-1-1,-4 0,-2-1,-43 58,63-97,-1 0,-1-2,0 2,-1-1,1-2,-2 1,0-1,0 0,-1 0,0-2,-20 11,30-17,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0-1,-1 1,2-1,-1 0,0 1,-2-3,1 1,1 0,1 0,-1 0,0-1,0 1,1-1,0 2,-1-2,1 1,0-1,-1 0,1 1,0-6,-1-2,1-1,0 0,1 0,0-1,1 2,3-18,-1 18,0 2,0-2,0 1,1 0,0 0,1 0,0 1,2 0,-1 0,0 1,0-1,2 0,-1 2,16-12,-17 14,0 1,0-1,1 1,0 0,0 0,0 1,-1-1,2 1,0 1,-1-1,0 1,1 1,-1-1,0 1,1 1,0-1,-1 1,0 0,0 1,1 0,9 3,-2 2,-2-1,1 2,-1 1,0 0,0-1,12 13,-21-18,21 17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2184">3616 229,'-1'1,"1"-1,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,-1 0,1 0,0 0,-2 0,2 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-16 21,-4 18,2 0,2 2,1 0,3 1,2 0,1 0,3 1,-1 76,40 261,-30-362,1-1,1-1,2 2,-1-2,1 0,1 0,1-1,0 0,18 21,-6-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3329">4546 305,'-3'1,"1"0,0 0,0 0,0 0,0 0,-1 1,1-1,0 1,0-1,1 1,-1-1,1 0,-3 4,-6 5,-53 48,1 0,4 5,4 0,2 4,3 1,-60 115,93-148,1-1,-13 55,22-70,2-1,2 2,0-1,0-1,2 1,4 34,-3-49,0 1,0-1,0 0,1 0,0-1,1 1,-1 0,0 0,0 0,1 0,0-1,-1-1,2 2,-1-1,0 0,0 0,2-1,-1 1,-1-1,1 1,0-1,0-1,0 0,2 1,-2-1,0 0,0 0,8 1,-4-2,-1 1,0-1,0 0,1 0,-2-1,1 0,0 0,1-1,-2 1,1-2,-1 2,2-2,-2 0,0 0,0 0,0-1,0 0,7-6,15-18,-2 0,-2-2,-1 0,22-38,68-142,-79 140,-23 48,-1 0,-1-2,-2 0,9-42,-3-98,-10 139,1 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3830">5012 865,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5029">5368 356,'3'-2,"1"-1,0 0,0 1,0 1,0-2,1 2,0-1,-1 0,1 1,-1 0,1 0,8 0,63-2,-54 3,-2 0,0 1,0 0,0 1,-1 1,0 1,1 1,18 6,-32-9,0 1,1 0,-1 0,0 0,-1 0,0 1,2 0,-2 0,-1 1,1 0,-1-2,1 3,0-1,-2 0,1 1,-1-1,0 1,0 0,-1 0,0-1,0 1,0 1,2 10,-1 11,-2 0,-1-1,-1 1,-7 37,7-55,-1 0,0-1,-1 1,0 0,0-1,-1 0,0 0,-2-1,1 1,0-1,-1 0,0 0,-2 0,1-2,-15 14,20-19,0 0,0 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-2-1,2 1,-1-1,1 0,-1 0,0 0,-3-1,4 1,0-1,1 0,-1 1,-1-1,1 0,0 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1-1,0 1,0-1,0 0,-2-3,1 0,-1-1,1 2,1-2,-2 0,2 0,0 1,1-1,-1 0,1 1,0-1,1 1,-1-1,1 0,3-5,-2 5,0 0,0 0,1 1,0 0,0 0,1-1,-1 1,1 0,1 2,-1-2,1 1,-1-1,1 1,0 1,1-1,-1 2,1-1,6-3,-6 4,-2 0,1 0,0 1,0 0,0 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 1,0 0,0 0,0 0,0 1,0-1,0 1,0 0,-1 1,0-1,1 1,4 3,7 7,-2 0,0 2,12 15,1-1,-11-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6388.99">6901 254,'-12'0,"-7"0,1 0,-1 0,0 2,1 0,-1 1,1 1,-19 5,-2 7,1 0,0 1,1 3,2 1,0 1,1 2,-53 48,79-64,2 0,0 0,1 1,0-1,-1 1,2 0,0 1,1-2,-4 15,6-20,0-1,1 1,-1 0,1-1,-1 1,1 0,0-1,0 0,0 1,1 0,-1-1,1 1,-1-1,1 1,0 0,0-1,0 0,0 0,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,1 0,-1-1,1 1,-1-2,0 1,1 1,-1-1,1 0,-1 0,1-1,-1 1,1 0,4-1,8 0,1 0,-1-2,1 0,-2 0,2 0,-2-2,2-1,-2 0,16-7,45-13,-75 25,14-4,1 1,-1 0,2 0,-2 1,30 1,-41 1,0 1,1-1,-1 1,1 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,-1-1,1 1,-1 1,2-1,-2 1,0-1,1 1,-2 0,1 0,0 0,0-1,-1 1,0 1,0-1,0 0,0 1,1 3,3 26,0 0,-2 1,-2-2,-4 41,1-19,2-44,0-1,-1 0,0 0,-1 1,0-2,0 1,-5 10,6-17,0 0,0 1,-1-1,1 0,-1-1,1 1,-1 0,0-1,0 0,-1 1,1-1,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,1-1,-2 0,2 0,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 0,-3 0,-53-17,29 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7589">6792 127,'10'1,"1"-1,1 1,-1 1,0 0,0 0,0 1,0 0,-1 1,1 0,-1 1,0 0,15 9,-12-3,1-1,-2 1,1 2,-1-2,-2 3,2-2,9 20,6 18,-2 0,-2 1,26 90,-48-135,16 54,-2 0,-4 0,-3 1,-3 0,-1 1,-4 0,-10 69,4-102,-1 1,-1-1,-2 0,-1-1,-2 0,0-1,-3 0,1-1,-3-1,0 0,-2-1,-1-1,0-1,-2-1,-1-1,-1 0,-47 27,41-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12819.02">768 0,'-4'1,"0"0,-1 1,2-1,-1 1,1-1,0 1,-1 0,1-1,0 2,-1-1,1 1,0-1,1 1,-1 0,-2 3,-5 4,-35 34,4 0,0 3,-31 50,-86 160,151-247,-10 19,0 1,-19 54,35-82,0 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0-1,0 1,0 0,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,2 2,-2-3,0 0,0 0,1 0,-1-1,1 1,-1-1,0 1,1-1,0 1,0-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,2-1,10-3,-1 1,0-2,0-1,-1 0,12-7,34-25,-25 17,61-32,-80 47,-1 1,0 1,2 0,-2 0,2 1,-1 0,1 1,-1 1,15 0,-25 1,11 0,-2 0,1 0,0-1,16-3,-24 2,0 1,0-1,1-1,-1 1,-1-1,1 0,-1 0,0 0,0 1,1-2,-1 0,0 1,3-6,71-86,-50 62</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13321.55">1069 178,'0'9,"-5"11,-1 16,-9 44,-7 22,1-1,3-11,5-16,5-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13656.55">1151 381,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14992.55">1562 178,'8'0,"0"0,1 1,0 0,-1 0,12 3,-19-4,0 1,0-1,0 1,0-1,0 0,0 1,0 0,0-1,0 1,-1-1,1 1,0 0,0-1,-1 0,1 1,-1 0,1 0,0 0,-1 0,0 0,1 1,-1 0,0-1,0 1,0 0,0 0,-1-1,1 1,0 0,-1-1,0 1,1-1,-1 0,0 0,0 1,0-1,0 1,0-1,-2 3,-53 43,49-42,-1 0,1 1,0-1,0 1,0 0,1 1,1-1,-1 1,1 0,1 1,-2-2,-4 16,10-21,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,1 0,0 0,-1 0,1 1,-1-1,1 0,0 0,0 0,0-1,-1 0,1 1,0 0,0 0,0 0,1-1,0 1,-1 0,0-1,0 1,0-1,0 0,2 1,55 12,-23-7,-30-3,1 0,0 1,0 0,-1 0,0 0,-1-1,1 2,0 0,-1 0,0 0,0 0,-1 0,0 1,0-1,0 1,-1-1,1 1,-1 1,-1-1,1 0,-1 0,-1 0,1 1,-1-1,0 0,-1 0,1 0,-2 6,1-5,0 0,0 0,0-2,-2 2,1-1,0 1,0-2,-1 1,0 0,0 0,-1-1,0 0,0 1,-1-1,1 0,-1-1,0 0,0 1,0-1,-2 0,2 0,-1-1,0-1,0 1,-1 0,0-1,-6 2,-15-1,3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15689.55">439 738</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17267.55">1 891,'25'-1,"0"-1,0-1,-1 0,45-15,94-38,-118 38,529-220,-534 218,0-2,45-35,37-22,242-90,-259 124,-22 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18700.55">3040 1451,'8'-1,"0"0,0 0,-1-1,1-1,0 0,-1 0,8-4,16-6,411-115,-292 87,162-43,630-179,-929 259,937-267,-420 139,6 39,-361 72,-116 12</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21525,7 +21724,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">458 288,'-7'-5,"0"-1,-1 1,1 0,-1 0,0 1,0 0,-1 0,1 1,-1 0,1 1,-1 0,-18-2,-9 1,-70 3,62 1,34-1,-1 0,1 1,-1 0,1 1,0 0,-15 5,22-6,0 1,0 0,0-1,0 1,0 0,0 1,0-1,0 0,1 1,0 0,-1-1,1 1,0 0,0 0,0 0,1 0,-1 1,1-1,0 0,0 1,0-1,-1 6,-3 21,1 1,2 0,3 55,-1-73,2 0,-1-1,2 1,-1-1,2 0,0 1,0-2,1 1,0 0,1-1,1 0,8 11,-12-17,1-1,-1-1,1 1,-1 0,1-1,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,0 0,0-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0 0,1-1,-1 1,0-1,0 0,0 0,0-1,0 0,-1 1,1-2,0 1,-1 0,1-1,-1 0,4-3,3-3,0 0,-1-1,0 0,-1-1,-1 0,1 0,-2-1,1 0,-2 0,1-1,-2 1,6-19,-1-9,-1 1,-2-2,-2 1,0-59,-5 77</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="393.99">538 579,'4'5,"2"1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="393.98">538 579,'4'5,"2"1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2028.99">1146 103,'-6'1,"1"-1,0 0,0 1,0 0,0 0,-1 1,2-1,-1 1,0 0,0 1,1-1,-1 1,1 0,-1 0,1 0,0 1,1-1,-1 1,1 0,-1 0,1 0,0 0,0 1,1-1,0 1,-1 0,2 0,-3 7,-2 7,2 0,0 1,1-1,1 1,1-1,2 24,-1-36,0 5,0 0,1 0,0 0,1-1,7 23,-8-31,1 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 0,-1 1,0-1,1 0,-1-1,1 1,4 0,-4-1,0 1,0-1,0 1,0-1,0 0,1-1,-1 1,0-1,0 1,0-1,0-1,0 1,0 0,-1-1,1 0,0 0,-1 0,4-3,-4 2,0-1,0 0,0 1,-1-1,1 0,-1-1,0 1,0 0,-1-1,1 1,-1-1,0 1,0-1,-1 0,1-8,-2-167,-3 72,4 80</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2648.99">1199 50,'4'9,"2"12,0 12,-1 13,-2 13,-1 5,-1 0,0-5,-1-9,0-9,-1-6,1-4,0-4,0-2,0 0,0 0,0-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3816">1570 315,'52'-84,"51"-112,-102 194,15-26,-7 23,-3 19,-1 43,-3-1,-6 79,0-25,2 176,2-259</inkml:trace>
@@ -21612,15 +21811,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3837 582,'0'40,"-9"682,-47-2,-11-154,21-161,-15 27,-10 81,-16 731,83-919,-8 275,-56 263,43 140,28-674,23 364,75 14,-50-374,-34-222,2 0,6 210,-26-182,1-110</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1349.97">1 8150,'8379'0,"-867"0,-5495-62,-130-171,-1627 195,450-6,1285 51,-1923-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6263.96">4631 0,'-4'8,"2"0,-1 1,1-1,0 0,1 1,0-1,0 1,1 9,-2 13,-33 889,35 521,5-1345,5-1,23 100,-19-120,-2-8,3-2,3 1,2-2,45 94,46 92,-29-59,-70-164,202 396,43-38,-58-72,-171-280,1-1,1-1,67 52,-16-15,202 164,-179-151,-52-45,1-2,107 49,-89-48,860 376,-791-362,155 32,8 2,115 34,-47-31,-327-78,411 70,-99-8,-161-42,213 40,207 101,-574-157,53 9,-1-1,-42-6,83 17,63 13,-121-25,117 15,307-25,-312-12,-128 1,-43 0,1 1,0 1,-1 0,1 1,-1 1,1 1,-1 0,27 10,-4 3,2-1,0-2,80 14,-96-24,0-1,0-1,-1-1,1-1,0-1,-1-2,1 0,25-9,74-37,-95 36,0 1,1 2,0 1,54-10,75 8,-92 9,89-16,-46 5,0 4,174 7,-170 5,152 0,303-3,-562 0,40-4,-47 4,1 1,0-1,0 1,-1-1,1 0,0 0,-1 1,1-1,-1-1,1 1,-1 0,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,1-2,0-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8217.96">7541 3281,'27'2,"1"2,-1 0,0 2,0 0,34 14,-23-7,55 11,-60-18,-16-2,1-1,-1 0,1-2,-1 0,1 0,-1-2,35-5,-2-8,0-1,-2-3,64-34,132-86,-225 126,4-1,-1 0,0-2,-1 0,0-1,-1-1,33-39,-52 54,1 1,-1-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,-1-3,0 2,0 0,-1 0,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,0 0,-1 0,-5-2,-11-3,-1 1,0 0,-36-4,25 6,0 2,0 1,-1 1,1 2,0 1,0 1,1 2,-1 2,1 0,-54 24,66-23,-1 0,1 2,1 0,0 1,1 1,0 1,1 0,0 1,1 1,1 0,0 1,2 1,0 0,1 0,0 1,2 1,-8 21,2 1,2 2,2-1,2 1,2 1,-3 85,10-124,0-1,1 1,0-1,0 1,0-1,1 0,0 0,0 1,0-1,1 0,-1-1,1 1,0 0,1-1,-1 0,1 0,0 0,0 0,6 4,7 4,0-2,0 0,39 15,-20-9,4-1,0-1,1-2,1-1,50 5,-5-1,88 18,183 9,-340-41,0 0,0-1,0-2,20-3,-28 3,-1 0,0-1,-1 0,1-1,-1 0,1-1,-1 1,0-1,8-8,34-33</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8796.98">9155 2567,'9'0,"16"0,18 0,10 0,1 0,0 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10036.96">10002 2170,'-6'1,"0"0,1 0,-1 0,1 0,-1 1,1 0,0 0,0 1,0-1,0 1,0 0,0 0,1 1,0-1,-1 1,-4 6,-7 9,1 0,-19 31,26-38,-15 24,-22 46,39-69,0 1,1-1,1 1,0 0,0 1,2-1,-2 21,4-32,0 0,0 0,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,0 0,0-1,0 1,0-1,3 3,1 0,0-1,0 0,0 0,0-1,0 0,1 0,0-1,6 2,14 2,-1-1,0-1,37 0,-16-1,-18-1,1 0,0-2,0-1,55-10,-82 10,1 0,-1-1,1 0,-1 1,1-1,-1-1,0 1,0 0,0-1,0 0,0 1,-1-1,1 0,-1 0,0-1,0 1,0 0,0-1,-1 1,1-1,-1 0,0 1,0-1,0 0,0-7,1-9,-1-1,-1 1,-3-35,1 29,-9-176,11 197,-1 1,1-1,-1 1,0-1,0 1,0 0,0-1,-1 1,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,1 1,-1 0,-1 0,1 1,0-1,0 1,-1 0,-7-1,-9 0,0 1,0 1,1 1,-1 1,-33 8,-34 6,-137 43,172-39</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11989.97">10399 2038,'-125'452,"125"-451,-51 186,45-162,2 1,1 0,1 0,1 0,3 37,-1-59,0-1,0 1,0-1,0 0,0 0,1 1,-1-1,1 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,1 1,3 1,53 27,-47-25,-8-5,-1 0,1 0,-1 0,1 0,-1-1,1 1,0-1,-1 0,1 0,-1 0,1-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,6-4,38-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12819.96">10716 2064,'2'-2,"0"0,0 1,1-1,-1 0,1 1,-1-1,1 1,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 1,0-1,-1 0,1 1,-1 0,1-1,-1 1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,-1 1,0 0,2 4,14 43,19 86,-3-6,-15-70,2-1,3 0,3-2,45 75,-67-125,1 0,1 0,-1-1,1 1,10 7,-15-13,0 0,0 0,1 0,-1-1,0 1,0 0,0-1,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1-1,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1-3,4-5,-1 0,0-1,-1 0,-1 0,3-17,-2 15,8-48</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13356.96">11378 1932,'-23'14,"-30"22,-37 27,-25 22,-22 13,5 0,11-3,22-14,22-16,26-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3994 559,'0'39,"-10"654,-48-1,-12-148,22-155,-15 26,-11 78,-16 702,85-883,-7 265,-59 252,45 135,29-648,24 350,78 13,-52-359,-35-213,2-1,6 203,-27-176,1-105</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1349.97">1 7830,'8721'0,"-902"0,-5719-59,-136-165,-1694 188,469-7,1338 50,-2002-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6263.96">4820 0,'-4'8,"2"-1,-1 2,1-1,0-1,1 2,0-1,0 0,1 10,-3 11,-33 855,36 501,5-1293,6-1,23 97,-19-116,-3-8,4-1,2 0,3-1,47 89,47 90,-29-58,-74-157,211 380,44-36,-59-69,-179-269,1-2,1 0,70 50,-17-15,211 158,-187-145,-54-43,2-3,110 48,-92-46,895 361,-823-348,161 31,8 1,120 34,-49-31,-340-74,428 67,-104-8,-167-40,222 38,215 98,-597-152,55 9,-2 0,-42-7,85 17,66 12,-126-24,122 15,319-24,-324-12,-133 1,-46 0,2 1,0 1,-2 0,2 1,-1 1,1 1,-2 0,29 9,-4 4,1-2,1-1,83 12,-100-22,0-1,0-1,-1-1,1-1,1-1,-2-2,1 1,26-10,77-35,-99 35,0 0,2 3,-1 0,56-9,79 7,-96 9,92-15,-47 5,-1 3,182 7,-178 5,159 0,316-3,-586 0,42-4,-49 4,1 1,0-1,0 1,-1-1,1 0,0 0,-1 1,2 0,-2-2,1 1,-1 0,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,1-2,0-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8217.95">7849 3152,'28'2,"1"2,-1 0,1 2,-1 0,35 13,-23-7,57 11,-63-17,-16-2,0-1,0 0,1-2,-2 0,2 0,-1-2,36-5,-2-8,0 0,-2-3,67-33,137-83,-235 122,5-2,-1 1,0-3,-1 1,0-2,-1 0,34-38,-54 52,1 1,-1-1,0 1,0 0,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1 0,-1-3,0 2,0 1,-1-1,1 0,-1 1,0-1,-1 1,1-1,0 1,0 0,0 0,-1 0,-6-1,-10-4,-2 1,0 0,-37-3,25 5,1 2,0 1,-2 1,2 2,0 1,-1 1,2 1,-1 3,0 0,-55 23,68-23,-1 1,2 1,0 1,0 1,1 0,1 1,0 1,0 0,2 2,0-1,1 1,1 2,1-1,0 0,1 2,1 0,-7 20,1 2,3 1,1-1,3 1,2 2,-4 81,11-120,0 0,1 1,0-1,0 0,0 0,1 0,0 0,1 1,-1-2,1 1,-1-1,1 1,0 0,1-1,-1-1,2 1,-1 0,0 0,6 4,8 3,0-1,-1-1,42 15,-22-8,5-2,-1 0,2-3,1 0,52 4,-6-1,92 18,191 9,-354-41,-1 1,1-1,0-1,20-4,-28 3,-2 0,0-1,0 0,0-1,-1 0,2 0,-2 0,1-1,7-8,36-31</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8796.98">9529 2466,'9'0,"17"0,19 0,10 0,2 0,-1 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10036.95">10411 2085,'-7'1,"1"0,1 0,-1 0,1 0,-2 1,2 0,0-1,0 2,-1-1,1 1,0 0,0 0,1 1,0-1,-2 1,-3 5,-8 9,2 1,-21 29,28-37,-16 24,-23 44,41-67,0 2,0-2,2 1,0 1,0 0,2 0,-2 19,4-30,0 0,0 0,1 0,-1 1,1-1,0 0,0-1,0 1,0 0,0 0,1 0,-1-1,1 1,0 0,0-1,0 0,1 0,2 3,1 0,0-1,1 0,-1-1,0 0,0 0,2 0,-1-1,6 2,15 2,0-2,-1 0,38 0,-16-1,-19-1,1 0,1-2,-1-1,57-10,-84 10,0 0,-1 0,1-1,-1 1,1-1,-1-1,1 1,-1 0,0-1,0 0,0 1,-1-1,1 1,-1-1,0-1,0 1,1 0,-1-1,-1 1,1-1,-1 1,0 0,0-1,0 0,0-7,1-8,-1-1,-1 1,-3-34,1 28,-10-169,12 189,-1 1,1 0,-1 0,0-1,0 1,0 0,0-1,-1 2,0-1,0 0,0 0,0 0,-1 0,1 1,-2 0,1 0,0 0,0 0,-1 0,1 0,-1 0,-1 1,1 0,1 0,-1 0,-1 0,1 1,-1-1,1 1,-1 0,-7-1,-10 0,0 1,0 1,1 1,-1 1,-34 8,-35 5,-144 42,180-38</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11989.97">10824 1958,'-130'434,"130"-433,-53 179,46-156,3 1,1 0,1 0,1 0,3 35,-1-56,0-1,0 1,0-1,0 0,0 0,1 1,-1-2,2 1,-1 0,0-1,0 1,0 0,0-1,1 1,-1-1,1 0,4 2,54 26,-49-24,-7-5,-2 0,1 0,-1 0,1 0,-1-1,1 1,1-1,-2 0,1 0,-1 0,1-1,0 1,-1-1,2 0,-2 0,1 0,-1 0,6-4,40-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12819.96">11154 1983,'2'-2,"0"0,0 1,1-1,-1 0,1 1,-1 0,2 0,-1 0,0 0,0 0,-1 0,1 0,0 1,0-1,1 1,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,-1 0,1 1,0-1,-1-1,1 2,-1 0,2-1,-2 1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,-1 1,0 0,2 4,15 41,20 83,-4-7,-15-66,2-1,3-1,3-1,46 72,-68-120,0 0,1-1,-1 0,2 1,9 6,-15-12,0 0,0 0,1 0,-1-1,0 1,1 0,-1-1,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,1 0,0-1,-1 1,0-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,-1-1,1-3,4-5,0 0,-1 0,-1-1,-1 1,3-17,-2 14,9-46</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13356.96">11843 1856,'-24'14,"-31"20,-39 27,-26 20,-22 14,4-1,12-3,23-13,23-16,27-17</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21647,7 +21846,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 245,'0'2,"1"-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,2 0,0 1,27 1,1-2,-1-1,0-1,1-2,36-9,-24 5,433-115,-199 44,-227 68,0 2,95-5,103 16,-113 1,1225-1,-1253 2,1 4,144 30,198 68,-433-101,80 15,2-5,0-3,118-3,-85-4,210 38,-65-5,5-7,79 7,-234-27,112 5,1912-18,-1953 16,-4-1,189-26,3-1,-137-2,-208 11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 233,'0'2,"1"-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,2 0,-2-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,2 0,1 1,27 1,1-2,0-1,-1-1,1-1,38-10,-25 6,452-110,-208 41,-237 66,0 1,99-4,108 15,-118 1,1277-1,-1306 1,1 5,150 28,206 65,-451-96,83 14,2-5,0-2,124-4,-89-3,218 36,-67-5,5-7,83 8,-244-27,116 5,1994-17,-2036 16,-5-2,198-24,2-2,-142-1,-217 10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21674,13 +21873,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7832 5762,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="374">768 6847,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3813">1 7429,'625'-1,"689"3,-804 41,-366-26,256 7,80 9,-334-20,233-8,-222-7,2274 1,-2066-24,-93 3,-36 13,303-20,403-101,-460 55,-215 44,168-30,255-52,-462 85,338-58,-317 47,-74 14,666-107,-663 106,279-77,-344 68,-1-6,-3-4,151-85,-72 26,224-88,235-91,-40 18,-437 186,196-124,-270 147,483-267,-416 220,219-181,-146 101,318-287,-161 126,-382 335,151-123,164-173,116-225,-339 401,286-454,-237 337,136-275,-254 449,138-267,7-15,-63 117,-101 207</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5764">16696 1952,'148'-6,"-127"3,-1 0,0-2,0 0,-1-2,26-11,18-12,-2-2,109-76,-164 104,0-1,-1 0,0 0,0 0,0 0,0-1,-1 0,0 0,7-13,-10 16,-1 1,1-1,0 0,-1 1,1-1,-1 0,0 1,0-1,0 0,-1 0,1 1,0-1,-1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,-3-2,-8-7,-1 1,0 0,0 1,-1 1,0 0,-1 1,0 1,0 0,0 1,-1 1,1 0,-27-2,29 5,0 1,-1 0,1 1,0 1,-1 0,1 0,0 2,1 0,-1 0,1 1,-1 1,2 0,-1 1,1 0,-15 12,12-8,1 0,1 1,0 0,0 2,1-1,1 1,0 1,1 0,1 0,0 1,1 0,1 1,0 0,1 0,-3 19,2 2,0 5,-5 75,12-109,0 1,0 0,1 0,0-1,1 1,0 0,0-1,1 1,0-1,1 0,0 0,0 0,9 12,-8-17,-1 1,1-1,0 0,1-1,-1 1,1-1,-1 0,1 0,0-1,0 1,0-1,1-1,10 2,12 2,50 0,-64-5,-15 0,134 5,153-14,-239 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7076">18442 841,'-6'1,"1"1,-1-1,1 1,-1 0,1 0,0 0,0 1,-9 6,-1 0,-13 6,1 2,0 1,1 1,1 1,1 1,1 1,1 2,-37 50,50-59,1 0,1 0,0 1,1 0,1 0,-6 32,6-18,1 0,1 59,3-87,0 1,0 0,0-1,1 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0-1,3 3,-1-2,1 0,-1 0,1 0,0 0,-1-1,1 0,0 0,0 0,0-1,7 1,10-2,0-1,0-1,39-11,-34 7,-1-1,0-1,-1-1,0-1,0-2,-2 0,1-2,-2 0,41-36,-51 39,-1 0,0-1,-1 0,0 0,-1-1,-1-1,0 1,-1-1,-1-1,0 1,-1-1,0 0,-2 0,0-1,0 1,-2 0,0-28,-3 16,0 36,0 51,1-11,1 437,0-478,0 5,1 0,0-1,0 1,6 18,-2-26,0-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7723">18813 1053,'0'-6,"1"-1,1 0,0 1,-1-1,2 1,-1-1,1 1,0 0,0 0,1 0,5-7,3-3,1 0,23-20,-24 24,1 0,1 1,-1 1,2 0,-1 1,25-11,-33 18,0 0,0 0,0 0,1 1,-1 0,0 0,1 1,-1-1,1 1,-1 1,0-1,1 1,-1 0,0 1,1 0,-1 0,0 0,0 0,-1 1,11 6,-2 1,1 1,-2 1,1 0,-2 1,21 25,48 83,-32-46,-41-64,6 11,1-2,1 0,1 0,20 17,-33-34,0 1,0-1,0 0,0 0,0 0,1 0,-1-1,1 0,0 0,0 0,-1-1,1 1,0-1,1 0,-1-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0-1,0 1,0 0,0-1,5-3,-1 0,0-2,-1 1,1-1,-1 0,-1-1,0 0,8-10,11-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8141">19871 788,'-5'0,"-15"9,-26 17,-14 12,-11 14,-20 16,-13 5,7 0,6-9,11-6,8-3,9-3,14-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8144 5521,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="374">799 6561,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3813">1 7119,'650'-1,"716"3,-835 39,-382-25,267 7,83 9,-347-20,242-7,-230-7,2363 1,-2147-23,-97 3,-38 13,316-20,418-97,-478 53,-223 43,174-30,266-49,-481 81,351-55,-329 44,-77 14,693-102,-690 101,290-74,-357 66,-2-7,-3-3,158-81,-76 24,234-84,244-87,-42 17,-455 178,205-118,-281 140,502-255,-433 210,229-173,-153 96,331-274,-167 120,-398 322,158-119,170-165,120-216,-352 385,298-436,-247 323,141-263,-263 430,143-256,7-14,-66 112,-104 198</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5764">17361 1871,'154'-6,"-132"3,-1 0,-1-2,1 0,-1-1,27-12,18-10,-1-3,113-72,-171 99,0-1,-1 0,0 0,1 1,-1-1,0-1,-1 0,0 1,8-14,-11 16,-1 2,1-2,0 0,-1 1,1-1,-1 0,0 1,0-1,0 0,-1 1,1 0,0-1,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,-2-1,1 1,1 0,-1 0,0 0,0 0,0 0,-3-2,-9-6,0 0,-1 1,1 0,-2 1,0 1,0 0,-1 1,1 1,-1 0,-1 1,2 0,-29-2,30 5,1 1,-2 0,2 1,-1 1,-1 0,2 0,-1 2,2 0,-2 0,2 0,-2 2,3 0,-2 1,2-1,-16 13,12-9,1 1,2 0,-1 1,1 1,0-1,2 2,0 0,0 1,2-1,-1 1,2 1,1 0,0 0,0 1,-2 17,2 2,-1 6,-4 71,12-105,0 2,0-1,1 1,0-1,1 0,0 1,0-2,1 2,0-1,2-1,-1 1,0 0,9 11,-7-16,-2 0,1 0,0 0,1-1,0 1,0-1,-1-1,1 1,1-1,-1 1,0-1,1-1,11 2,12 2,52-1,-66-4,-16 0,139 5,160-13,-249 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7076">19177 806,'-7'1,"2"1,-1-1,1 1,-1 0,0-1,1 1,0 1,-10 6,0 0,-14 5,1 2,0 1,1 2,1 0,1 1,1 1,1 2,-39 48,53-57,1 1,0-1,1 1,1 1,1-1,-7 31,7-17,1 0,1 56,3-83,0 1,0-1,0 0,1 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,0-2,0 1,1 0,-1 0,1 0,0 0,0 0,0 0,0-1,3 3,-1-2,1 0,-1-1,2 1,-1 0,-1-1,1 0,0 0,1 0,-1-1,7 1,11-2,0-1,0-1,40-10,-35 6,-1 0,0-2,-1-1,0 0,0-3,-2 1,1-3,-2 1,43-35,-54 38,0-1,-1 0,-1-1,1 1,-2-2,0 0,-1 1,-1-2,-1 0,1 1,-2-2,0 1,-2 0,0-2,0 2,-2 0,0-28,-3 17,0 33,0 50,1-11,1 419,0-459,0 6,1-1,0 0,0 0,7 18,-3-25,0-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7723">19562 1009,'0'-6,"2"0,0-1,0 1,-1-1,2 2,-1-2,1 1,0 0,0 1,1-1,6-6,2-4,2 1,23-20,-24 24,0-1,2 2,-2 0,3 1,-2 0,27-10,-35 17,0 0,1 0,-1 0,1 1,-1 0,1 0,0 1,-1-1,2 1,-2 1,0-1,1 1,0 0,-1 1,1 0,-1 0,1 0,-1 0,-1 1,12 5,-3 2,2 0,-3 2,2-1,-3 2,23 23,49 80,-33-44,-43-61,7 10,0-2,2 0,1 0,20 17,-34-33,0 0,1 0,-1 0,0 0,0 0,1 0,-1-1,2 0,-1 0,0-1,-1 0,1 1,1-1,0 0,-1-1,0 1,0-1,1 0,-1 0,0-1,0 1,0-1,1-1,-1 1,0 0,0 0,6-4,-2 0,0-2,0 1,0 0,-1-1,0-1,-1 1,8-11,12-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8141">20663 755,'-6'0,"-14"9,-28 16,-15 11,-10 14,-22 15,-13 5,7 0,6-9,12-5,8-3,10-4,14-8</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21707,9 +21906,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 795,'120'-10,"-19"0,26 5,631-54,-631 40,474-65,1 34,354 46,-488 8,3954-5,-2277 1,-2001-6,162-27,-78 5,624-16,6 45,-427 2,738-15,-57-2,1238 15,-1487-41,-105 1,-636 38,335-19,-303 13,-126 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="658">20347 213,'4'-4,"6"-2,11 0,29 10,27 18,65 33,21 11,-8 3,-26-10,-35-10,-28-14,-27-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1488.99">21511 1,'-18'0,"-3"0,0 1,-26 3,40-2,0-1,0 1,0 0,0 1,0 0,0 0,1 1,-1-1,1 1,-6 6,-15 16,1 1,2 2,1 0,-30 51,15-24,33-48,-95 138,-193 217,248-316</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 756,'125'-10,"-20"1,27 4,656-51,-656 38,492-62,2 33,368 43,-508 8,4110-5,-2366 1,-2081-6,169-25,-81 4,649-15,6 43,-444 2,767-14,-60-3,1288 15,-1546-39,-109 1,-661 36,348-18,-315 12,-131 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="658">21148 203,'4'-4,"7"-2,11 0,29 10,30 17,66 31,23 11,-9 3,-27-10,-37-10,-28-12,-28-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1488.99">22358 1,'-19'0,"-3"0,1 1,-28 3,41-2,1-1,0 1,0-1,-1 2,1 0,0 0,1 1,-2-1,2 0,-6 7,-16 15,1 0,2 3,1-1,-31 50,15-24,35-46,-99 132,-201 206,259-300</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21790,7 +21989,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 6536,'11'10,"1"-2,1 1,-1-2,1 1,1-2,-1 0,1-1,0 0,27 5,14-3,1-3,0-2,58-5,-11 0,105 1,327 3,-165 25,-158-25,-46-2,268 32,53 14,1-41,-284 9,-16 1,1382-12,-765-5,-149-28,-487 14,146-21,280-126,-297 71,-118 40,238-64,-346 95,-1-3,83-42,30-11,-98 47,24-8,167-83,8-21,84-47,-273 134,-2-4,-2-4,122-111,-141 103,-4-3,-3-2,-3-4,-4-2,59-109,-84 128,265-546,-250 490,2 3,-5-3,46-193,-39 87,-22 106,15-132,-19-30,10 85,0-5,-26 89,30-201,-24 181,-5-1,-7-169,2-37,-1 230,-2 19,4 0,25-120,-21 131,-6 40,-4 90,-4 1384,3-793,2-557,4-1,22 103,6 40,-8-40,-5-24,-8-56,10 41,129 374,-74-328,-31-78,169 313,-168-338,-10-29,2-1,2-2,3-3,2-1,72 62,-61-66,120 78,73 20,-232-137,88 50,2-5,187 67,186 20,68 23,-312-100,-66-20,-77-18,200 55,-212-64,134 14,381 42,-132-13,8-36,3728-30,-2367 5,-1830-1,64-4,-51-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 6270,'11'9,"2"-1,0 1,0-3,0 2,2-2,-2 0,2-2,-1 1,29 5,14-4,1-2,0-2,61-5,-12 0,109 2,339 2,-170 23,-165-23,-48-2,279 31,55 13,0-39,-294 9,-16 0,1434-11,-794-5,-155-27,-505 14,151-20,291-122,-309 69,-122 38,247-61,-359 91,-1-3,86-40,31-11,-102 45,25-7,174-80,8-20,87-46,-283 130,-3-5,-1-3,126-107,-146 99,-4-3,-4-2,-2-4,-5-1,61-106,-86 124,274-524,-259 470,2 2,-5-2,47-185,-40 83,-22 102,14-127,-19-28,11 81,-1-5,-26 86,30-193,-24 173,-6-1,-6-161,1-36,-1 220,-2 19,5 0,25-116,-22 126,-5 39,-5 86,-4 1328,3-762,2-533,4-1,23 98,6 39,-8-39,-5-22,-8-55,10 40,134 359,-77-315,-32-74,175 299,-174-323,-11-29,3 0,2-3,2-2,3-1,75 59,-64-63,125 75,76 19,-242-132,93 49,1-5,194 64,194 19,70 22,-324-96,-68-19,-80-17,207 53,-220-62,140 14,395 40,-137-13,8-34,3872-29,-2459 5,-1899-1,65-4,-52-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21898,14 +22097,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1191,'58'0,"89"-13,-118 9,-1-3,1 0,-1-1,-1-2,27-13,-34 15,1 0,0 2,0 1,1 0,-1 2,30-2,34-6,-48 5,1 0,0-1,-1-1,0-3,-1-1,56-26,3-24,-78 48,1 1,0 1,1 1,0 1,1 0,0 1,26-7,-27 13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1038">1218 662,'4'0,"6"0,7 0,3 0,4 0,2 0,-3 9,-6 12,-6 11,-9 5,-4 1,-8-2,-1-2,2-3,5-7,5-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3508.99">2620 0,'0'0,"1"0,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1-1,0 1,0 0,0-1,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,-1 2,-12 31,-18 10,-1-1,-2-2,-1-1,-77 63,93-88,-1-1,0-1,-1 0,0-2,0 0,-35 10,25-8,-2 2,2 2,0 1,-53 38,32-18,46-34,1 0,0-1,-1 0,0 1,0-2,0 1,0-1,-7 2,-8-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4462">1826 370,'0'1,"1"-1,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1-1,1 3,-11 37,11-39,0 1,-6 12,1 1,1-1,1 1,0 0,-2 26,5-38,0 0,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,1 0,-1 0,0 0,1 0,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 1,0-1,1 0,-1 0,0-1,5 2,73 8,-57-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6884.99">1588 953,'0'1325,"0"-1304,2 0,1-1,1 1,0-1,9 23,42 95,-42-106,3 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7793">1535 3254,'17'-9,"17"-2,-7 7,0 1,0 1,1 1,-1 1,0 2,31 5,-54-6,-1 1,0 0,1-1,-1 1,0 0,0 1,0-1,-1 0,1 1,-1 0,1 0,-1-1,0 1,0 1,0-1,0 0,0 0,-1 1,2 4,3 11,0 1,5 26,-5-17,54 170,-53-174</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8509.99">1985 3122,'0'5,"0"10,0 12,-9 10,-8 12,-5 3,-8 1,-3-4,-1-10,6-8,2-3,7-4,6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9399.99">2064 3440,'4'0,"2"5,0 5,-1 15,-2 26,-1 13,-1 0,0-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1144,'62'0,"94"-13,-125 9,-1-3,1 1,-1-2,-2-2,30-12,-37 15,1-1,1 2,-1 1,2 1,-2 1,32-2,37-6,-52 6,2-1,-1-1,-1 0,1-4,-2-1,60-24,3-24,-83 47,1 0,1 2,0 0,0 2,1-1,1 2,27-8,-29 13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1038">1297 636,'4'0,"6"0,9 0,2 0,4 0,3 0,-3 8,-7 12,-7 11,-9 5,-4 0,-8-1,-2-3,2-2,6-7,5-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3508.99">2789 0,'0'0,"1"0,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,0 1,-1-1,2 0,-2 1,1-1,-1 0,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1-1,0 1,0 0,0-1,0 0,1 0,-1 1,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,-1 2,-13 30,-19 9,-1-1,-2-1,-2-2,-81 61,99-84,-1-2,-1 0,0-1,0-1,-1-1,-36 11,26-9,-2 3,2 1,0 1,-57 37,35-17,48-34,2 1,0-1,-2 0,1 1,0-2,-1 1,1-1,-8 2,-8-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4462">1944 355,'0'1,"1"-1,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,1-1,-2 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0-1,0 0,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1-1,1 3,-12 35,12-37,0 1,-6 12,0 0,2 0,1 0,0 0,-3 26,6-37,0 0,1 0,-1 0,2 0,-2 1,1-1,0 0,0 0,1 0,-1-1,0 1,1 0,0 0,0 0,0-1,1 1,-1-1,0 1,1-2,-1 1,1 0,1 0,-2 0,1-1,0 1,0-1,0 1,1-1,0 0,-1 0,0-1,6 2,77 7,-60-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6884.99">1690 915,'0'1272,"0"-1252,3 1,0-2,1 1,0-1,10 22,45 92,-46-102,4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7793">1634 3124,'18'-8,"18"-3,-7 7,0 1,-1 1,2 1,-1 1,0 2,33 5,-58-6,-1 1,0 0,1-1,0 1,-1 0,0 1,0-1,-1-1,2 2,-2 0,1 0,-1-1,0 1,0 1,0-1,0-1,1 1,-2 1,2 4,3 10,1 1,4 26,-4-18,57 164,-57-167</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8509.99">2113 2998,'0'4,"0"11,0 11,-10 9,-8 12,-5 3,-9 1,-3-4,-1-9,6-9,2-2,8-4,6-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9399.99">2197 3303,'4'0,"3"5,-1 4,-1 15,-1 25,-2 13,-1-1,0-10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21932,8 +22131,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4354 1481,'-10'1,"-1"1,2 0,-1 0,0 1,-15 6,-14 4,-42 5,-2-3,1-5,-1-2,-1-5,1-3,-125-16,144 4,0-4,0-1,2-4,-91-43,-8-1,-534-236,609 257,-243-109,106 77,96 36,2-6,-119-62,204 84,0-3,-69-61,-6-4,80 69</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="712.03">1153 0,'-174'9,"52"-2,-504 5,591-12,0 2,0 1,-46 11,78-13,1-1,0 1,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,0 0,-1 0,-1 3,3-3,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,0-1,1 0,-1 1,1-1,0 0,0 0,-1 0,1 1,1-1,0 2,9 11,0-1,0 0,1-1,21 18,-22-21,62 59,42 37,-5 5,99 129,-179-198</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4524 1421,'-10'1,"-2"1,3 0,-2 0,1 1,-16 6,-14 3,-45 5,-1-2,1-6,-1-1,-2-5,2-3,-130-15,150 3,-1-3,1-2,1-3,-94-41,-8-1,-555-227,632 246,-251-103,109 73,100 34,2-5,-124-60,213 81,-1-3,-71-58,-6-4,82 66</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="712.03">1198 0,'-181'9,"54"-3,-523 6,614-12,-1 2,1 1,-48 10,81-12,1-1,-1 1,0-1,1 1,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,1-1,-2 0,1 1,0-1,1 1,0 0,-1 0,-1 3,3-3,-1 1,1-1,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 1,1-1,0 0,0 0,-1 0,1 0,1 0,0 2,10 11,-1-2,1 0,0 0,22 17,-22-21,64 58,43 34,-5 6,104 123,-187-190</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21987,7 +22186,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 135,'0'-1,"0"1,0-1,1 0,-1 0,0 0,1 0,-1 0,1 0,0 1,-1-1,1 0,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,2 0,29-6,-30 6,53-4,0 3,76 8,110 26,-202-27,51 3,1-4,98-7,-65 0,1398 1,-1518 1,1 0,-1 0,1 0,-1 1,0-1,1 1,-1 0,0 1,0-1,1 1,-1-1,0 1,-1 0,1 1,7 4,-8-3,1 1,-1-1,0 1,-1-1,1 1,-1 0,0 0,0 0,0 0,-1 0,0 1,2 8,1 21,-1-1,-2 1,-1 0,-7 50,-33 140,33-190,-4 15,2 1,-3 96,14 1587,11-1495,1 1,-16-171,3 68,0-134,-1 1,1-1,-1 0,1 0,0 0,1 1,-1-1,0-1,1 1,0 0,-1 0,1 0,0-1,0 1,1-1,-1 0,1 1,-1-1,1 0,-1-1,1 1,0 0,0-1,0 1,0-1,0 0,0 0,1 0,-1-1,0 1,0-1,1 1,4-2,14 2,-1-2,1 0,-1-2,23-5,-25 5,58-13,-31 7,59-6,28 11,0 7,0 5,143 27,5 23,-221-48,-17-2,44 2,94 9,239 55,-225-35,27 4,-186-40,-35-3,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,-1-1,1 0,0 1,0-1,-1 1,1-1,0-1,1-2,-1 0,0 0,-1-1,1 1,-1 0,0 0,0-1,0 1,-1 0,1 0,-3-6,-7-67,-39-469,37 345,0 0,56-460,-35 579,43-303,-36 306,-2 15,-2-2,2-72,-10 86,18-90,-11 89,5-83,-15 83,0 5,11-75,-3 51,-4 1,-6-112,-1 66,1 114,1 0,0-1,0 1,0 0,1-1,-1 1,1 0,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,0-1,4-2,0 2,1 0,-1 0,1 1,-1-1,1 1,0 1,-1 0,1 0,11-1,1024-20,-698 24,1367-2,-1679-1,-16 0,1 1,0 0,0 1,19 4,-33-4,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,0 1,0-1,0 0,0 1,-1-1,1 0,-1 1,1 0,-1-1,0 1,0 0,0 0,-1 0,1 0,0 3,-1 17,-1 0,0 1,-2-1,-1 0,-7 24,-2 17,-11 93,-6 211,26 167,6-302,-16 30,0 3,16 929,-2-1185,-1 4,1 0,1 0,0 0,7 26,-7-37,0 1,0-1,0 0,1 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 0,1 1,-1-1,1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,1-1,4 1,31 3,1-3,57-4,11-1,321 35,-6 36,-284-43,4 1,3 1,261 15,433 17,-757-45,-43-6,-1-2,66 2,-103-7,0-1,0 1,0 0,0 0,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,0-1,-1 1,1 0,-1-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,-1 0,1-3,0-7,0 0,0 0,-2-1,-1-17,-1 2,0-219,5 198,3 1,1-1,15-53,4-4,-5-1,11-201,-28-225,-6 276,3-1404,-1 1656,1 0,0 0,0-1,1 1,-1 0,1 0,1 0,-1 0,0 0,4-6,-3 8,1 1,-1 0,0-1,1 1,0 0,-1 0,1 1,0-1,0 0,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,1 1,-1 0,0 0,4 0,72-1,106 11,-122-5,1525 180,-1170-153,-12-34,-197-1,59 3,251-5,211-31,-349 16,-380 20,1 0,0 0,0 0,-1 1,1-1,0 0,0 1,-1-1,1 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 1,0-1,1 4,1 2,-1 0,0 0,-1 0,1 1,-1 7,0-9,5 68,-7 141,-26 80,-3 81,27-123,-28 460,-15 88,48-737,0-42,0 0,-2 1,-1-1,-1 0,0 0,-2 0,-7 26,10-47,0 1,0-1,1 0,-1 1,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,1 0,-1 1,1-1,0 1,0-1,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,2 0,4 3,1-1,0-1,0 0,0 0,16 2,421 20,-284-21,224 14,171 4,770-22,-1321 1,12 1,0-1,0-1,0-1,0 0,23-7,-35 8,-1-1,0 0,0 0,0 0,0 0,-1-1,1 1,0-1,-1 0,0 0,0-1,0 1,0 0,0-1,-1 0,0 0,1 0,-1 0,-1 0,1 0,-1 0,1-1,-1 1,0-1,0-5,2-28,-2 1,-2-1,-7-51,-1-33,7-123,-12-271,7 419,2 13,-3 1,-21-83,9 85,2-1,5 0,-6-133,22-1045,-4 1258,1 0,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,1-1,-1 1,1 0,0-1,0 1,0 0,0 0,0 0,4-4,-1 4,1-1,-1 1,1 0,0 1,0-1,0 1,0 0,0 1,0-1,0 1,9 0,543 27,-411-15,888 45,-410-23,-525-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 130,'0'-1,"0"1,0-1,1 0,-1 0,0 0,1 0,-1 0,1 0,0 1,-1-1,1 0,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 1,0-1,1 1,-2 0,1-1,0 1,0 0,2 0,30-5,-31 5,55-4,0 3,79 8,114 24,-209-25,52 3,2-5,101-5,-68-1,1452 1,-1576 1,1 0,-1 0,2 0,-2 1,0-1,1 1,-1 0,0 0,1 0,0 1,-1-1,0 1,-1 0,1 1,8 4,-9-3,1 0,-1 0,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,-1 0,0 1,2 7,1 21,-1-2,-2 2,-1 0,-7 47,-35 135,35-182,-4 14,1 1,-2 92,14 1525,12-1436,0 1,-16-165,3 66,0-130,-1 2,1-1,-1 0,1 0,0 0,1 1,-1-1,0-2,1 2,0 0,-1 0,2 0,-1-1,0 1,1-1,-1 0,1 1,-1-2,1 1,-1-1,1 1,1 0,-1-1,0 1,0-1,0 0,0 0,1 0,-1-1,0 1,1-1,0 1,4-2,15 2,-1-2,0 0,0-2,24-5,-26 5,60-12,-33 6,62-5,29 10,0 7,0 5,149 25,4 23,-228-46,-19-3,47 3,96 8,249 53,-233-33,27 3,-193-38,-36-3,1 0,-1 0,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,-1-1,1 0,0 1,0-1,-1 1,1-1,0-1,1-1,-1-1,0 0,-1-1,1 1,-1 0,0 1,0-2,0 1,-1 0,1 0,-3-5,-7-65,-41-451,38 332,1 0,58-442,-37 556,45-291,-37 294,-3 15,-1-3,1-69,-10 84,19-88,-12 86,6-80,-16 81,0 3,12-71,-4 49,-4 1,-6-108,-1 64,1 109,1 0,0-1,0 1,0 0,1-1,-1 2,1-1,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 1,1-1,-1 1,0-1,0 1,0-1,4-2,0 2,2 1,-2-1,1 1,-1-1,2 1,-1 1,-1 0,1 0,12-1,1062-19,-724 23,1419-2,-1743-1,-16 0,0 1,1 0,0 1,19 4,-34-4,0-1,-1 1,2 0,-1 0,0 0,0 0,-1-1,1 2,-1-1,1 1,-1 0,1-1,0 1,-1 0,0 1,0-1,0 0,0 1,-1-1,1-1,-1 2,1 0,-1-1,0 1,0 0,0 0,-1 0,1 0,0 2,-1 17,-1 1,0 0,-2-1,-1 0,-7 23,-3 16,-11 90,-6 203,27 160,6-290,-17 29,1 2,16 893,-2-1138,-1 3,1 1,1-1,0 1,7 24,-7-35,0 1,0-1,0 0,2 0,-2-1,1 1,0 0,0-1,0 1,0 0,0-1,0 0,1 1,-1-2,1 1,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,2-1,3 1,32 3,2-3,59-4,11-1,333 34,-6 34,-295-41,5 1,2 1,271 15,450 15,-786-42,-44-6,-2-3,69 3,-107-7,0-1,0 1,1 0,-1 0,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,0-1,-1 2,2-1,-2-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,-1 1,1-4,0-7,0 1,0-1,-2 0,-1-17,-1 2,0-210,5 190,3 0,1 0,16-51,4-4,-5 0,11-194,-29-216,-6 265,3-1349,-1 1591,1 0,0 0,0 0,1 0,-1 0,1 0,1 0,-1 0,0 1,4-7,-3 8,2 1,-2 0,0 0,1 0,0 0,-1 0,1 1,0-1,0 0,0 1,1 0,-1 0,1 0,-1 0,0 0,0 0,1 1,-1 0,1 0,3 0,75-1,110 11,-127-5,1583 172,-1214-146,-13-33,-204-1,61 3,261-4,219-31,-363 16,-394 19,1 0,0 0,0 0,-1 1,1-1,0 0,1 1,-2-1,1 1,0 0,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 1,0-1,1 4,2 1,-2 1,0 0,-1 0,1 0,-1 8,0-9,5 65,-7 135,-27 78,-3 77,28-118,-29 442,-16 85,50-709,0-40,0 0,-2 2,-1-2,-1 0,0 0,-2 0,-8 25,11-45,0 1,0-1,1 0,-1 1,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,0-2,0 2,0-1,0 1,1-1,-1 1,0-1,1 0,-1 1,1-1,0 1,0-1,-1 0,1 0,1 1,-1-1,0 0,0 0,0 0,0-1,1 1,-1 0,2 0,4 3,1-1,1-1,-1 0,0 0,17 2,437 19,-295-20,233 13,177 4,799-21,-1371 1,13 1,-1-1,1-1,0-1,-1 0,25-6,-37 7,-1-1,0 0,0 0,1 0,-1 0,-1-1,1 1,0-1,-1 1,0-1,1-1,-1 1,0 0,0-1,-1 0,0 1,1-1,-1 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,1-5,1-26,-2 0,-2 0,-8-50,0-31,7-118,-13-261,8 403,2 12,-3 1,-22-79,9 81,2-1,6 0,-7-127,23-1005,-4 1209,1 0,0-1,0 1,0-1,0 2,0-2,1 1,-1 0,1-1,-1 1,1 0,0-1,0 1,0 0,0 0,0 0,4-3,0 3,0-1,-1 1,1 0,0 1,1-1,-1 1,0 0,0 1,0-1,0 1,10 0,563 26,-426-14,921 43,-426-23,-544-25</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22014,9 +22213,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1535 25,'-1'-1,"1"0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,-2 1,-36-5,33 4,-1 1,0 0,-1 0,1 1,0 0,-1 0,1 1,0 0,0 0,0 1,0 0,1 0,-1 0,1 1,0 0,0 0,0 1,0 0,1 0,-6 6,-10 13,2 1,0 1,-18 33,17-25,11-20,1 1,1 0,1 0,0 0,1 1,0 0,2 0,-3 21,5-30,0 0,0 1,1-1,1 0,-1 0,1 0,0 1,1-1,-1 0,1 0,1-1,-1 1,1 0,1-1,-1 1,1-1,0 0,0-1,1 1,0 0,7 6,176 141,-184-150,0 0,0 0,0-1,0 1,1-1,-1 0,1-1,0 1,-1-1,1 0,0 0,0 0,-1-1,1 0,0 0,0 0,0 0,5-2,-3 0,0 0,-1-1,1 0,-1 0,1 0,-1-1,0 0,0 0,-1-1,1 1,4-7,5-6,-1 0,-2-1,1-1,-2 0,-1 0,16-41,-21 47,0-1,-1 0,-1 0,-1 0,0-1,0 1,-1-1,-1 1,-1-1,0 1,-1-1,0 1,-1 0,-1 0,0 0,-1 0,0 1,-1 0,-1 0,-8-13,13 22,-9-16,-1 1,0 0,-2 0,-17-18,25 31,0 1,-1 0,0 0,0 0,0 1,0 0,-1 1,1-1,-1 1,0 1,0 0,0 0,0 0,-15 0,7 1,1 0,0 1,0 1,0 0,-20 5,12 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2395">1 237,'704'0,"-666"1,1 2,-1 2,72 17,-88-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3581">530 25,'0'-1,"0"0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,0 0,1 0,35-4,-23 4,0 1,-1 0,1 1,-1 1,1 0,-1 1,23 10,0 4,44 28,-65-37,23 11,-29-15,-1-1,1 1,-1 1,0-1,10 10,-15-11,0 0,0 0,0 0,0 0,-1 0,0 1,0-1,0 1,0 0,-1 0,0-1,0 1,0 0,0 6,2 25,-2 0,-1-1,-6 46,4-65,-1-1,-1 1,0-1,-1 1,0-1,-1-1,-1 1,0-1,-17 23,21-33,0-1,0 1,-1-1,0 1,1-1,-1 0,0-1,-1 1,-4 2,-11 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1612 24,'-1'-1,"1"0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 0,1 0,-1 0,-1 1,1-1,0 0,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,-2 1,-38-5,34 4,0 1,0 0,-2 0,2 1,0 0,-2 0,2 1,0 0,-1-1,1 2,0 0,0 0,0 0,1 1,-1-1,1 1,0 1,-1 0,2-1,-6 7,-12 11,4 2,-1 0,-19 32,18-24,11-19,2 1,1 1,0-1,1 0,1 1,-1 0,3 0,-3 20,5-28,0-1,0 2,1-2,1 1,-1 0,1-1,0 2,1-2,-1 1,1-1,1 0,-1 1,2-1,0 0,-1 1,1-2,0 1,1-1,0 0,0 1,8 5,184 133,-193-141,1 0,-1 0,0-1,0 1,1-1,0-1,0 0,0 1,-1-1,2 0,-1 0,0 0,-1-1,1 0,1 0,-1 0,0 0,6-2,-4 0,0 0,0 0,0-1,-1 0,2 0,-2-1,0 1,1-1,-2-1,1 1,5-6,4-6,0 0,-2-1,0-1,-1 0,-2 0,18-38,-23 43,0 0,-1 0,0 0,-2 0,0-2,0 2,-1-1,-1 1,-1-1,0 0,-1 0,0 1,-2 0,0 0,0 0,-1-1,0 2,-2 0,0 0,-9-13,14 21,-9-15,-2 1,0 1,-1-1,-19-17,27 29,-1 1,0 1,0-1,-1 0,1 1,0 1,-2 0,2-1,-1 1,-1 1,1 1,-1-1,1 0,-16 0,7 1,1 0,1 1,-1 1,0 0,-21 5,13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2395">1 224,'739'0,"-699"0,1 3,-1 2,76 16,-93-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3581">557 24,'0'-1,"0"0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,0 0,0 0,0-1,0 1,0-1,0 1,0 0,0-1,2 1,-2 0,0 0,1 0,37-4,-25 4,1 1,-1 0,0 1,0 1,1-1,-2 2,25 9,0 4,46 27,-68-36,24 11,-31-14,0-1,0 0,-1 2,1-1,10 9,-16-10,0-1,0 1,0 0,0 0,0-1,-1 2,0-1,0 1,0-1,-1 1,0-1,0 0,0 1,0 6,2 23,-2-1,-1 0,-6 44,4-62,-1-1,-1 1,-1-1,0 1,0 0,-1-2,-2 1,1-1,-18 22,22-31,-1-1,1 0,-1 0,0 1,1-1,-1 0,-1-2,0 2,-4 2,-12 3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22043,9 +22242,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1487 238,'-436'16,"-125"23,527-39</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1117.01">667 0,'0'0,"0"0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-11 13,-17 11,-57 25,64-38,1 0,0 1,0 0,2 2,-24 21,40-34,0 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,1 0,-1 1,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,1 1,0-1,-1 1,1-1,0 0,2 1,11 7,0-1,1 0,0-1,29 8,-22-8,87 24,-76-24,-1 2,0 2,49 22,-60-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3281.02">270 53,'-1'-2,"1"0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,-4-1,-2-1,-1 0,0 1,1 0,-1 0,-16 2,19 0,-1 0,0 1,0-1,1 1,-1 1,1-1,0 1,-1 1,1-1,1 1,-1 0,0 0,1 0,0 1,0 0,0 0,1 0,0 1,0 0,0-1,1 1,-4 8,2-2,0 1,1 0,0 0,1 0,1 0,0 0,0 0,2 0,0 1,2 21,0-30,-1 0,1 0,0 0,1 0,-1 0,1 0,0-1,0 0,1 1,-1-1,1 0,0-1,0 1,0-1,0 1,1-1,7 3,6 4,-1 0,2-2,26 9,-17-7,-17-5,0-1,0 0,0-1,0 0,0-1,0 0,1-1,-1 0,13-1,-23 0,1-1,0 0,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,1-2,0-1,0 0,-1 0,0 0,0 0,0-1,0-9,-1-4,-1 1,-7-36,5 34,-2 2,0-1,-2 1,0-1,0 2,-12-19,14 27,-1 0,0 0,-1 1,0 0,0 0,-1 1,0-1,0 2,-1-1,0 1,0 0,-15-6,-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1572 237,'-461'16,"-132"23,557-39</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1117.01">705 0,'0'0,"0"0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-12 13,-17 11,-61 25,68-38,1 0,-1 1,1 0,2 2,-25 21,42-34,0 1,1-1,-1 1,0-1,0 1,1 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,1 0,-1 1,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,2 1,-1-1,-1 1,1-1,0 0,2 1,12 7,0-1,1 0,0-1,30 8,-22-8,91 24,-80-24,-1 2,0 2,51 22,-62-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3281.02">285 53,'-1'-2,"1"0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 1,-2-1,1 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 1,-4-1,-3-1,0 0,-1 1,2 0,-2 0,-16 2,20 0,-2 0,1 1,-1-1,2 1,-1 1,0-1,1 1,-2 1,2-1,1 1,-1 0,-1 0,2 0,0 1,-1 0,1 0,1 0,0 1,-1 0,1-1,1 1,-4 8,1-2,1 1,1 0,0 0,0 0,2 0,0 0,0 0,2-1,0 2,2 21,0-30,-1 0,1 0,1 0,0 0,-1 0,1 0,0-1,0 0,2 1,-2-1,1 0,0-1,0 1,1-1,-1 1,1-1,8 3,6 4,-1 0,2-2,27 9,-17-7,-18-5,-1-1,1 0,0-1,-1 0,1-1,-1 0,2-1,-1 0,13-1,-24 0,1-1,0 0,1 1,-2-1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,1-1,0 1,-1-1,0 1,0-1,1-2,0-1,0 0,-1 0,0 0,0 0,0-1,0-9,-1-4,-1 1,-7-36,5 34,-3 2,1 0,-2 0,-1-1,1 2,-13-19,15 27,-2 0,1 0,-2 1,1 0,0 0,-2 1,1-1,-1 2,0-1,-1 1,1 0,-17-6,-4 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22099,10 +22298,10 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 0,'-1'80,"4"-1,15 100,-10-135,2-1,19 56,-22-81,0-1,2 0,0 0,1-1,1 0,0-1,1 0,18 17,4-3,0-1,2-2,1-1,1-2,1-2,1-1,0-2,75 21,28-1,186 23,-321-60,359 45,-97-14,-178-20,-1-4,1-4,0-4,0-4,105-19,-186 21,1 0,-1-1,0-1,0 0,0-1,0 0,-1 0,0-1,0-1,0 1,-1-2,0 1,-1-1,1 0,-1-1,7-11,34-37,-29 36,-1-2,17-27,-30 41,-1-1,0 1,0-1,-1-1,-1 1,0 0,0-1,-1 0,1-14,-2-183,-3 104,2 69</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2240.68">2806 503,'2'19,"0"-1,2 0,0-1,1 1,1-1,1 0,0 0,16 25,-18-30,2 0,-1 0,2-1,0 0,0 0,1-1,0 0,0 0,1-1,1 0,0-1,0 0,24 12,403 155,-396-161,44 15,116 24,66 1,-237-50,0-1,0-1,53-5,93-20,-116 14,-4 0,1-2,110-38,-131 35,0-3,-1-1,-1-1,0-2,39-32,-49 32,51-41,2 3,156-87,-220 139,-1 0,0 0,0-2,23-18,-31 22,0-1,-1 0,1 1,-1-2,0 1,0 0,-1-1,0 1,0-1,-1 0,0 0,2-9,1-15,-2 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2817.21">5558 370,'0'0,"1"0,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 1,-1-1,1 0,-1 0,1 1,-1-1,0 1,1-1,0 1,25 13,512 367,-491-343,1-2,2-2,1-3,1-1,75 29,-101-50,104 40,3-6,140 26,-62-35,365 13,-539-47,1-2,-1-2,0-1,0-2,53-17,168-79,-214 84,-9 3,-1-1,38-25,-57 32,0-1,-1-1,-1-1,1 1,-2-2,20-26,12-22,-19 27,-1 0,35-69,-55 91,0 0,0 1,-1-1,-1 0,0-1,-1 1,0 0,-1 0,-1-1,-2-14,3 26,-1 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,0 0,-3-1,3 1,-44-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4352.68">8786 370,'18'1,"1"1,0 0,0 2,-1 0,0 1,0 0,0 2,33 16,1 7,70 53,-75-50,16 15,-46-32,2-2,0 0,1-1,0-1,32 14,218 77,537 195,-752-280,0-1,0-3,1-3,1-2,94 3,-42-11,2 2,0-4,184-27,-271 22,-1 0,0-1,0-2,-1 0,0-1,-1-1,31-22,-22 11,-1-2,-2 0,0-2,29-38,7-22,-4-2,67-136,-104 184,21-36,37-75,-78 148,-1 0,1 0,-1 0,1 0,-1 0,0-1,0 1,0 0,0-1,-1 1,0-1,1 1,-1-1,0 1,-1 0,0-6,-4 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 0,'-1'76,"4"-1,16 95,-11-128,2-1,20 53,-22-77,-1-1,2 0,0 0,2-1,0 0,1 0,0-1,19 16,4-2,0-2,3-1,0-1,1-2,1-2,2-1,-1-2,78 20,29-1,192 22,-331-57,370 42,-99-12,-185-20,-1-3,1-4,0-4,0-4,109-18,-192 20,0 0,-1-1,1-1,-1 1,0-2,1 0,-2 0,1 0,-1-2,0 1,0-1,-1 0,-1 0,1-1,0-1,6-10,36-35,-30 34,-2-1,18-27,-30 40,-2-2,0 1,0 0,-1-1,-1 0,1 1,-1-2,-1 1,1-14,-2-174,-3 100,2 64</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2240.67">2902 478,'3'18,"-1"-1,2 0,0-1,1 1,1-1,1 0,1 0,15 24,-17-28,1-1,-1 1,2-2,1 0,-1 1,1-2,1 1,-1-1,1 0,2-1,-1 0,0 0,26 11,416 147,-410-153,46 15,120 22,68 1,-245-47,0-1,0-1,55-5,96-19,-120 14,-4-1,1-1,114-37,-136 34,1-3,-2-1,-1-2,0 0,41-32,-51 31,52-39,3 3,161-82,-227 131,-2 0,0 1,1-3,23-16,-32 20,0-1,0 0,0 2,-1-3,0 1,0 1,-1-2,0 1,1 0,-2-1,0 0,2-8,1-14,-2 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2817.21">5749 351,'0'0,"1"0,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,1 1,-2-1,1 0,-1 0,1 1,-1-1,0 1,1-1,0 1,26 12,529 349,-507-326,0-2,3-1,1-4,1 0,77 27,-104-48,107 39,4-6,144 24,-63-33,376 13,-556-45,0-2,-1-2,0 0,1-3,54-16,174-75,-222 80,-9 3,0-1,38-24,-58 31,-1-2,0 0,-2-2,1 2,-1-2,20-25,13-21,-21 26,0-1,36-64,-57 85,0 1,1 1,-2-2,-1 1,0-1,-1 0,0 1,-1 0,-1-2,-2-12,3 24,-1 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 2,-2-2,2 0,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,0 0,-4 0,4 0,-45-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4352.68">9088 351,'19'1,"0"1,1 0,0 2,-2 0,1 0,-1 1,1 2,34 15,1 6,72 51,-78-48,18 15,-49-31,3-2,-1 1,2-2,0-1,33 14,225 73,556 185,-778-266,-1-1,1-3,1-2,1-3,97 4,-43-11,2 2,0-4,190-26,-280 21,-1 1,-1-2,1-2,-1 1,0-2,-2 0,33-21,-23 10,-1-2,-2 0,0-2,30-35,7-22,-4-2,70-128,-109 174,23-34,37-72,-79 141,-2 1,1-1,-1 0,1 0,-1 0,0-1,0 1,0 1,0-2,-1 1,0-1,1 1,-1 0,0 0,-1 0,0-6,-4 6</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22135,17 +22334,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5372 1169,'11'537,"99"653,46 441,-140-424,-15-729,22 144,0-78,-21 197,2 93,46-293,-5-137,56 475,-38-396,-4-119,-51-334</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1264.99">1 8445,'0'0,"0"-1,0 0,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 1,-1 0,1-1,0 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,26-2,40 8,84 18,-12-1,426 18,1-38,-370-3,596-2,3514 5,3558 19,-3006-23,1117 1,-2211 0,-3681 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="99645.53">14447 110,'-8'0,"0"-1,0-1,0 1,0-1,1-1,-1 0,1 0,-1 0,1-1,0 0,-7-6,7 6,0-1,0 1,0 0,0 1,-1 0,1 0,-1 0,0 1,0 0,0 1,-15-2,2 5,0 0,0 1,0 1,0 1,1 1,0 0,0 2,1 0,-29 18,24-11,1 0,1 2,0 1,1 1,1 0,-32 42,38-42,0 1,1 0,1 1,1 0,1 1,1 0,-12 45,16-48,1 1,1-1,0 1,2 0,1 31,1-38,1-1,0 0,1 0,0 0,1 0,0-1,1 1,1-1,0 0,7 10,-4-8,1-1,1 0,0-1,0 0,1 0,1-1,0-1,0 0,1-1,-1-1,2 0,-1-1,1 0,0-1,0-1,1 0,-1-1,29 2,90 5,240-14,-369 4,-1 0,1 0,-1 0,1-1,-1 0,0 0,0 0,1-1,-1 1,0-1,0 0,0 0,-1 0,1-1,6-5,-6 3,0 0,-1-1,0 0,0 0,0 0,0 0,-1 0,0 0,2-12,9-47,-2 1,-3-1,-2-121,-6 159,-1 0,-2 0,-1 0,-9-35,9 48,-1 0,-1 1,1 0,-2 0,0 0,-1 1,0 0,-1 1,-17-19,1 3,18 20,1-1,-1 1,-1 0,1 0,-1 1,0 0,0 1,-1 0,0 0,0 0,-16-4,-19-1,0 1,-82-3,-93 10,135 3,34-2,22 0,1 1,-1 1,0 1,1 1,-53 14,40 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="101789.53">14130 401,'0'2,"0"-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,3 0,38 6,-37-6,-4 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,-1 0,1 1,0-2,-2 1,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,0 0,-1-1,1 1,0 0,-2 0,-33-5,-70-3,89 8,0 1,0 0,0 1,0 1,1 1,-22 7,35-10,-1 1,0 0,1 0,-1 1,1-1,-1 1,1 0,0-1,0 1,1 1,-1-1,0 0,1 1,-4 6,6-9,-1 0,1 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 1,2 0,-1 0,1-1,-1 0,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,3 0,-2 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 1,0-2,-1 1,1 0,0 0,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,-1 0,2-3,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="103837.06">14024 8101,'0'5,"0"10,0 16,0 7,0 2,0 8,0-1,0-2,4-1,2 1,-1-3,0-3,3-9,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="104783.06">13786 9159,'1'-6,"1"-1,1 1,-1-1,1 1,1 0,-1 0,1 0,0 1,0-1,0 1,9-8,-3 1,-6 7,0 0,0 1,1-1,-1 1,1 0,0 0,0 1,0 0,1-1,-1 2,1-1,-1 1,8-3,-10 5,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,1 0,-1-1,0 1,0 0,0 1,0-1,0 0,-1 0,1 1,-1-1,1 1,1 4,6 14,-1 0,-1 1,-1 0,-1 1,5 43,-6-35,1-1,13 43,-12-56,1 0,0 0,2-1,15 25,-8-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="105373.09">14235 9000,'-5'0,"-5"0,-6 0,-10 9,-8 17,-4 8,-8 7,-2 6,-1 4,-1-2,8-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="108037.09">14235 9424,'0'-1,"0"1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,0 0,0-1,0 1,0-1,-1 1,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,2 1,-1-1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0 1,-1-1,2 2,1 4,0 0,-1 0,0 0,-1 1,1 0,-1-1,-1 1,0 0,0 0,0 9,-5 81,3-91,-1 0,0 0,0 0,0 0,-1 0,0 0,-1-1,-7 11,10-15,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,0-1,0 1,-1-1,1 0,0 1,-1-1,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,-2-1,4 1,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,1 0,9-11,20-5,-25 16,1 0,0 0,0 0,0 1,-1 0,1 0,0 1,0-1,0 1,-1 0,1 1,0-1,-1 1,1 1,-1-1,6 4,12 7,-1 2,30 25,-33-25,40 26,-26-25,-4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="334979.03">10452 10694,'0'5,"0"1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="335367.03">10293 10297,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="337688.03">6245 8577,'-1'62,"12"237,-6-262,1 0,1-1,3 0,1 0,1-1,20 37,-7-26,3-2,1-1,2-1,3-1,0-2,3-2,62 51,161 116,327 196,150 28,-445-288,508 168,-329-126,-458-176,92 34,176 42,110-2,-317-67,625 99,8-63,770-50,-498-3,-562 6,453-4,-800-1,0-2,0-3,-1-3,107-32,-173 41,356-125,-301 102,-2-3,-1-2,-2-2,56-44,-12 0,117-69,-138 101,97-60,-143 83,-1-1,-1-1,41-44,331-359,-370 398,-16 16,0-1,0-1,-1 0,-1 0,-1-1,0-1,0 0,-2 0,14-32,22-115,36-107,-70 237,-2 0,-1-1,8-65,-7-103,-8 123,15-103,-14 170,28-230,-29 202</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5589 1122,'12'516,"102"626,48 424,-145-407,-16-700,23 138,0-74,-22 188,2 90,48-282,-5-131,58 456,-39-380,-5-115,-53-320</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1264.99">1 8108,'0'0,"0"-1,0 0,1 1,-1-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 1,-1 0,1-1,0 1,-1-1,1 1,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,2 0,-1 0,0 0,0 0,27-2,41 7,89 18,-14 0,444 16,1-36,-385-3,620-2,3656 5,3702 18,-3128-22,1162 1,-2299 0,-3831 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="99645.53">15031 106,'-8'0,"-1"-1,1-1,0 1,-1-1,2-1,-1 0,0 0,0 0,1 0,-1-1,-6-6,7 6,-1-1,1 2,0-1,-1 1,0 0,1 0,-1 0,-1 1,1 0,0 1,-16-1,2 3,0 1,0 1,0 1,0 1,2 1,-1-1,0 3,1 0,-30 17,25-11,1 1,1 1,1 1,0 1,1 1,-33 39,39-40,1 2,0-1,2 1,0 0,2 1,0 0,-11 44,15-47,2 1,1-1,0 2,2-1,1 30,1-37,1 0,0-1,1 1,0-1,2 1,-1-2,1 2,1-1,0-1,8 10,-5-7,2-2,0 1,1-2,-1 1,2-1,0 0,1-1,-1-1,2 0,-2-1,3-1,-2 0,2 0,0-1,-1-1,2-1,-2 0,31 2,94 5,249-14,-384 4,-1 0,1 0,-1 0,2-1,-2 0,0 0,0 0,1-1,0 1,-1-1,0 0,0 0,-1 1,1-2,7-5,-7 3,0 0,-1 0,0-1,0 0,1 0,-1 1,-1-1,0 0,2-11,9-46,-1 2,-4-1,-1-117,-7 153,-2 0,-1 0,-1 0,-9-33,8 45,0 1,-1 0,1 1,-2-1,-1 1,0 0,0 1,-2 0,-17-18,1 4,19 18,1-1,-2 1,0 1,1-1,-2 1,1 0,0 2,-2-1,1 0,0 0,-17-3,-20-2,0 1,-85-2,-97 9,141 3,35-2,23 0,1 1,-2 1,1 1,1 1,-55 13,41 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="101789.53">14701 385,'0'2,"0"-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,3 0,40 6,-39-6,-4 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1-1,0 1,-1 0,1 0,0-1,0 1,0 0,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,-1 0,1 1,0-2,-2 1,1 0,-1 0,0 0,0 0,0 0,0 1,0 0,0-1,0 0,0 1,0-1,0 1,-2-1,2 1,0-1,0 1,0 0,-1-1,1 1,0 0,-2 0,-34-5,-74-3,94 8,-1 1,0 0,1 1,-1 1,1 1,-22 6,36-9,-2 1,1 0,1 0,-1 1,1-1,-1 1,1 0,-1-1,1 0,1 2,-1-1,0 0,1 1,-4 6,6-10,-1 1,1 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 1,2-1,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0-1,0 1,0-1,3 0,-2 1,0-1,0 0,1 0,-1 0,0 0,0-1,0 1,0-1,0 0,0 1,1-2,-2 1,1 0,0 0,-1-1,1 1,-1-1,1 0,-1 1,0-1,1 0,-1 0,0-1,0 1,0 0,0-1,-1 0,2-2,0-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="103837.06">14591 7778,'0'5,"0"9,0 16,0 6,0 3,0 7,0-1,0-2,4-1,2 2,-1-4,1-3,2-8,0-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="104783.06">14343 8794,'1'-6,"1"-1,1 1,-1 0,2 0,0 0,-1 0,1 1,0 0,0-1,1 1,8-7,-3 0,-5 7,-1 1,0 0,1-1,-1 1,1 0,1 0,-1 2,0-1,1-1,0 2,0-1,-1 1,9-3,-11 5,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,1-1,-2 1,1 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,2 0,-2-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,1 1,1 4,7 13,-2 0,-1 1,0 0,-2 1,5 42,-6-35,2 0,12 41,-11-53,0-1,0 0,3 0,15 23,-9-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="105373.09">14810 8641,'-5'0,"-5"0,-7 0,-10 9,-8 16,-5 7,-8 8,-2 5,-1 4,-1-2,9-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="108037.09">14810 9048,'0'-1,"0"1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 1,2 0,-2-1,1 1,0-1,0 0,-1 1,1-1,0 1,0 0,0-1,0 1,0-1,-1 1,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,2 1,-1-1,0 0,1 0,-1 0,0 1,0-1,0 0,0 1,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,1 1,-2-1,2 2,1 4,0 0,-1-1,0 1,-1 1,1-1,0 0,-2 1,0 0,0-1,0 10,-5 77,3-88,-2 1,1 0,0 0,0-1,-1 1,0 0,-1-2,-8 12,11-15,0 1,-1-2,1 1,-1 0,1 0,-1 0,0 0,0-1,0 1,0-1,0 1,-2-1,2 0,0 1,-1-1,1 0,-1-1,1 1,-1 0,1-1,-1 0,0 0,0 0,1 0,-1 0,0 0,-2 0,4 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,-2 0,2-1,0 1,0 0,0-1,2 0,8-11,21-4,-26 15,2 0,-1 0,0 0,0 1,-1 0,2 0,-1 1,0-1,0 1,0 0,0 1,0-1,-1 1,2 1,-2-1,6 3,13 8,-1 1,31 25,-34-25,41 25,-26-23,-5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-94517.7">10874 10267,'0'5,"0"1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-94129.7">10709 9886,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-91808.7">6497 8235,'-1'59,"13"228,-7-251,1-1,1 0,4 0,0-1,2 0,20 35,-7-25,3-2,1 0,3-2,2-1,0-1,4-3,64 50,167 111,341 188,156 27,-463-277,528 162,-342-122,-476-168,95 33,183 39,115-1,-330-64,650 94,9-60,801-48,-519-3,-584 6,471-4,-832-1,0-1,0-4,-2-3,113-30,-181 39,370-120,-313 98,-1-3,-2-1,-2-3,59-42,-14 0,123-66,-144 96,101-56,-149 78,0 0,-2-1,42-42,346-345,-386 382,-17 16,1-2,0 0,-2-1,0 1,-2-2,0 0,1 0,-3-1,15-30,23-110,37-104,-72 229,-3-1,-1-1,9-62,-8-99,-8 119,16-100,-15 163,29-220,-30 194</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22172,9 +22371,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1827 0,'0'2404,"-14"-1907,1-71,-39 334,35-586,-59 395,-12 153,62 26,-21 323,16-689,-44 480,44-650,-4 48,33-232</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="998">1 5635,'18'2,"1"-1,0 2,29 8,26 4,152 3,233-11,-296-8,7953-2,-8034 8,-56 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5457">1853 1640,'3'-3,"2"1,-1-1,0 0,0 1,1 0,0 0,-1 0,1 1,0-1,0 1,0 0,6 0,67-1,-53 2,16 1,1 2,-1 2,49 12,116 40,-90-22,-64-19,-2 2,96 50,84 70,-74-43,74 57,-93-58,-93-63,-2 1,-1 3,37 40,98 127,2 34,-149-193,-2 2,-3 1,32 81,18 63,22 64,-80-197,-3 1,9 78,-3 118,-18-244,37 320,-24-222,-6 1,-8 185,-3-116,4 455,-1-600</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1894 0,'0'2309,"-15"-1831,2-69,-41 321,36-563,-60 380,-14 146,65 26,-21 310,16-662,-46 461,46-625,-5 47,35-223</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="998">1 5413,'19'2,"0"-1,1 2,30 7,27 5,157 2,242-10,-307-8,8244-2,-8328 8,-58 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5457">1921 1575,'3'-2,"2"0,-1-1,0 0,1 1,0 0,0 0,-1 0,1 1,0-1,1 1,-1 0,6 0,70-1,-55 2,17 1,0 2,0 2,50 11,120 39,-92-21,-67-19,-3 2,101 49,86 66,-76-40,76 54,-96-56,-96-60,-3 0,0 4,38 38,101 122,3 33,-155-186,-2 2,-3 2,33 77,19 60,22 62,-82-189,-4 1,10 74,-3 114,-19-234,38 307,-24-213,-7 0,-8 179,-3-112,4 437,-1-577</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22201,13 +22400,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">382 688,'-19'0,"0"1,1 1,0 0,-1 1,-21 7,30-7,1 1,0 0,0 0,0 1,0 0,1 1,0 0,0 0,1 1,-1 0,-7 10,11-11,0 0,0 0,1 1,0-1,0 1,1 0,0-1,0 1,1 0,-1 0,1 13,0 11,4 44,0-33,-3-10,-1-18,2-1,-1 1,5 22,-4-32,0 0,1 0,-1 0,1-1,0 1,0 0,0-1,0 1,0-1,1 0,0 0,-1 0,1 0,0 0,1 0,4 2,4 3,0 0,1-1,0-1,0 0,20 6,-30-12,0 1,1 0,-1-1,0 1,0-1,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,-1-1,1 0,0 0,-1 0,1 0,-1-1,0 1,1-1,-1 1,0-1,2-4,32-53,118-180,-146 229,0 0,-1-1,-1 0,0 0,-1 0,0-1,-1 0,0 0,-1 0,0-1,-1 1,-1-1,0 1,-1-1,0 0,-4-21,3 32,0 0,1 0,-1 1,0-1,0 0,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 0,0 0,-1 0,1 1,0-1,-1 1,1-1,-1 1,-2-1,-8-3,0 1,0 0,-21-3,0 0,-3-2,0 1,-1 2,-66-2,87 8,-1 0,1 2,0 0,0 0,0 2,0 0,0 1,1 1,0 0,-23 13,17-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="916">1255 0,'-4'2,"0"0,1 0,-1 1,1-1,-1 1,1 0,0 0,0 0,1 0,-1 0,1 0,-1 1,-3 7,-1 0,-44 56,4 2,-70 138,98-165,1 1,3 1,1 0,-9 59,-12 63,-15 102,49-252,1 0,1 0,0-1,1 1,0 0,8 24,37 85,-20-61,-24-56,1 1,0-1,0 0,1 0,0-1,0 1,1-1,0 0,0-1,1 0,0 0,9 7,-10-10,0 1,1-1,-1 0,1 0,0-1,0 0,0 0,0 0,0-1,0 0,0-1,0 0,1 0,-1 0,11-3,7-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2527">1413 344,'0'698,"-6"-641,6-56,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,0-1,-2 0,0-1,1 0,-1-1,0 1,1-1,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,1-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,1-5,-1 5,1-1,0 1,0-1,0 1,1-1,-1 1,1 0,0-1,0 1,1 0,-1 0,1-1,0 1,0 0,0 1,6-8,-3 8,0-1,1 1,-1 0,1 1,0-1,0 1,0 0,1 0,-1 1,0 0,0 0,1 1,-1-1,1 1,-1 1,0-1,1 1,6 2,4 0,-1 1,0 0,0 2,0 0,25 13,-38-17,1 0,0 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0 0,0-1,0 1,1 5,-1 1,0-1,-1 1,0 0,0-1,-2 14,1-11,0 0,0 0,4 19,0-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4923.99">1784 529,'0'-2,"0"0,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,1 1,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,3-1,0 1,0-1,-1 1,1 0,0 0,0 0,0 1,-1-1,1 1,0 0,-1 1,1-1,6 4,-7-2,1 0,0 0,-1 1,0-1,0 1,0 0,0 0,-1 0,1 1,-1-1,4 9,-6-12,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,-1 1,1-1,-2 2,1 0,0-1,-1-1,0 1,0 0,1 0,-1-1,0 1,0-1,0 1,-1-1,1 0,0 0,0 0,-4 1,-36 17,35-14,-1-1,0 0,0 0,0-1,0 0,0 0,-1-1,1 0,-1-1,0 0,-15 0,10-9,17-3,-1 9,0 0,0 1,1-1,-1 1,0-1,1 1,-1 0,1 0,-1 0,6-1,-1 1,0 0,0 1,0-1,0 2,0-1,0 1,0 0,0 0,0 1,0 0,-1 0,1 1,11 6,1 2,-1 2,0 0,17 17,-25-20,0-1,1 0,0 0,0-1,1-1,0 0,0 0,1-1,0-1,22 7,-8-9,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5841.99">2313 53,'0'-1,"0"1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 1,2 4,0 0,0 0,-1 0,0 1,0-1,0 1,-1 0,1 0,-1 0,1 8,1 0,17 57,-3 0,15 138,-12 152,-9-224,-1 27,-10-159,-1 34,-1 0,-9 64,4-76</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6534.99">2789 741,'4'0,"7"0,5 0,23 5,27 1,16-1,-2 0,4-2,-3-1,-12-1,-8 0,-14-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7321.99">2948 1111,'4'0,"11"0,16 0,17 0,13 0,19 0,0 0,-9 0,-11 0,-13 0,-9 0,-2 0,11 0,11 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">400 660,'-20'0,"0"1,1 1,0 0,-1 1,-22 7,32-8,1 2,-1 0,1 0,-1 1,1 0,1 0,-1 1,1 0,0 1,0-1,-8 11,12-12,0 1,0 0,1 1,0-2,-1 2,2 0,0-1,0 0,1 1,-1 0,1 12,0 11,4 42,0-32,-3-9,-1-18,2 0,-1 0,5 21,-3-30,-1 0,1 0,-1 0,1-1,0 1,0-1,0 0,0 1,0-1,1 0,1 0,-2 0,1 0,0-1,1 1,4 2,5 3,0-1,0 0,1-1,-1 0,22 5,-32-11,0 1,1 0,-1-1,1 1,-1-1,1 0,-1 0,0 0,1-1,0 1,-1-1,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,-1 0,1-1,0 0,-1 0,1 0,-1-1,0 1,2-1,-2 1,0-1,2-3,34-52,123-172,-153 219,1 1,-2-2,-1 1,0-1,0 1,-1-2,-1 1,0-1,-1 1,1-2,-2 2,-1-2,0 2,-1-2,0 1,-4-21,2 32,1-1,1 0,-1 1,0-1,0 0,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 0,-1 0,0 0,1 1,0-1,-1 1,1-1,-1 1,-2-1,-9-2,0 0,1 0,-23-3,1 1,-4-3,0 1,-1 2,-68-1,90 7,-1 0,1 2,0 0,1 0,-1 1,0 1,0 1,2 1,-1 0,-24 12,18-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="916">1313 0,'-4'2,"0"0,0 0,0 1,1-1,-1 0,1 1,0 0,0 0,0 0,0 0,1 0,-1 1,-3 6,-2 1,-45 53,4 2,-73 133,102-159,1 1,3 2,1-1,-9 57,-12 60,-17 98,52-241,1-1,1 0,1 0,0 0,0 0,8 24,39 81,-20-59,-26-53,1 0,0 0,0 0,2 0,-1-2,0 2,1-1,1-1,-1 0,1 0,0 0,10 6,-11-9,1 1,0-1,-1 0,2-1,-1 0,0 0,1 0,-1 0,0-1,1 0,-1-1,0 0,2 0,-2 0,12-3,7-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2527">1478 330,'0'670,"-6"-615,6-54,0 0,0 1,0-1,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0 0,-1 0,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1-1,0 1,0 0,0 0,-1 0,1-1,-2 0,0-1,1 0,-1-1,0 1,1-1,-1 0,0 0,1 1,0-1,0 0,0-1,0 1,1-1,0 1,0 0,0 0,0-1,0 0,1 1,-1-1,1-4,-1 4,1-1,0 1,0-1,0 1,1 0,-1 0,1 0,0-1,0 1,1 1,-1-1,1-1,0 1,0 0,0 1,7-7,-4 7,0-1,1 1,0 0,0 1,0 0,0 0,1 0,0 0,-1 1,1 0,-1 0,1 1,0-1,0 1,-1 1,0-1,2 1,5 2,5 0,-1 0,0 1,-1 2,1 0,26 12,-40-16,1 0,0 0,0 1,0-1,-1 0,0 1,0 0,0 0,0 0,0 1,0-1,-1 1,0-1,0 0,0 1,1 5,-1 0,0 0,-1 1,1-1,-1 0,-2 13,1-11,0 1,0-1,4 19,0-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4923.99">1866 508,'0'-2,"0"0,0 0,1 1,-1-1,2 0,-2 0,1 0,0 0,0 0,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,1 1,-1 0,1-1,0 1,-1 0,1 0,1 0,-1 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,4-1,-1 1,0-1,-1 1,1 0,1 0,-1 0,0 1,-1-1,2 1,-1 0,-1 1,1-1,7 4,-8-2,1 0,0 0,-1 0,1 0,-1 1,0 0,0 0,-1 0,2 1,-2-2,4 10,-6-12,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,-1 1,1-1,-2 2,1 0,0-2,-1 0,0 1,0 0,1 0,-2-1,1 1,0-1,0 1,-1-1,1 0,0 0,0 0,-5 1,-36 16,35-13,0-1,-1-1,1 1,0-1,-1 0,1 0,-1-1,0 0,0-1,-1 0,-15 0,11-9,17-3,-1 9,0 1,0 0,1-1,-1 1,0-1,2 1,-2 0,1 0,-1 0,6-1,0 1,-1 0,0 1,0-1,1 2,-1-1,0 1,1 0,-1 0,0 1,1 0,-2 0,1 1,12 5,1 3,-1 1,0 1,17 16,-25-20,-1 0,2-1,-1 1,1-1,0-2,1 1,-1 0,2-1,0-2,22 8,-7-9,-5-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5841.99">2420 51,'0'-1,"0"1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,-1 1,1 0,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,3 5,-1 0,0 0,-1 0,0 0,0 0,0 1,0 0,0-1,-1 1,1 8,1-1,18 55,-3 0,15 133,-12 145,-9-214,-2 25,-10-152,-1 33,-1-1,-9 62,4-73</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6534.99">2918 711,'4'0,"8"0,4 0,25 5,28 1,17-2,-2 1,4-2,-4-1,-12-1,-8 0,-15-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7321.99">3084 1066,'4'0,"12"0,17 0,17 0,14 0,19 0,1 0,-10 0,-11 0,-14 0,-9 0,-2 0,11 0,12 0,-6 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22294,16 +22493,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">477 0,'0'5,"0"5,0 6,0 10,0 4,-9 10,-8 9,0 3,-7 8,1-3,0-10,3-10,6-6,5-3,4-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="717">371 79,'4'0,"7"0,9 0,16 5,2 6,2 0,0 9,-2 4,-4 7,-3 8,-7 6,-2 0,-6 6,-5-2,-5-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1319.03">424 397,'4'0,"7"0,14 0,17 0,5-4,9-2,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2334">1006 0,'-1'79,"-1"12,4-1,4 1,22 119,-27-210,-1 1,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,-1-1,1 1,0-1,0 1,0 0,-1-1,1 1,0-1,-1 1,1 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,0 0,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 1,0-1,0 0,-39-4,12 0,18 5,0 0,1 0,-1 1,1 0,0 1,-1 0,-13 6,21-8,1 0,-1 0,1-1,0 1,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,1 0,-1 1,1-1,-1 1,0 2,1-2,1 0,-1 1,1-1,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,1-1,-1 1,1 0,-1 0,1-1,0 1,-1-1,3 2,4 3,-1-1,1 1,1-2,-1 1,1-1,-1 0,1-1,0 0,18 3,-4-2,0-2,-1 0,24-3,-22 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2872.99">239 1111,'0'14,"0"13,0 20,0 20,0 17,-9 7,-17 11,-8-3,2-9,1-11,2-20,6-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3396">160 1137,'4'0,"6"0,11 0,6 5,3 6,5 5,5 14,2 19,-8 7,-4 6,10 25,4 6,-2-3,-4-8,-8-14,-13-18,-10-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3779.02">1 1561,'4'0,"11"0,16 0,26 5,16 1,13-1,-2 0,-7-2,-8-1,-15-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4427.99">1006 1217,'-15'232,"7"-155,3 0,7 87,-2-161,1 1,-1-1,1 1,0-1,0 1,1-1,-1 0,1 1,-1-1,1 0,0 0,1 0,-1 0,0-1,1 1,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,0-1,6 3,3 0,0-1,0 0,1 0,-1-1,22 0,-1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4917.99">901 1587,'22'0,"17"0,10 0,7 0,-3 0,4 0,-4 0,-6 0,-7 0,-9 5,-11 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6568">901 2302,'-1'-1,"1"0,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,-1 1,1 0,0 0,0-1,-3 1,-40-5,39 5,-62-4,0 3,-90 11,141-7,1 0,-1 2,1 0,0 1,0 0,0 2,1-1,0 2,0 0,1 0,-18 18,5-2,1 2,1 0,-40 61,56-76,1 1,1 0,1 0,0 1,0-1,1 1,1 0,0 1,-1 22,3 12,6 74,1-18,-7-100,1 0,0 0,0 1,1-1,0 0,-1 0,2 0,-1 0,0-1,1 1,0 0,0-1,1 1,-1-1,1 1,0-1,0 0,0 0,1 0,-1-1,1 1,0-1,0 0,0 0,1 0,-1-1,0 0,1 1,0-2,0 1,7 2,24 4,0-2,0-2,0 0,1-3,66-5,-9 1,113 2,-179 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">477 0,'0'5,"0"4,0 7,0 9,0 3,-9 11,-8 8,0 3,-7 7,1-2,0-10,3-9,6-7,5-2,4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="717">371 76,'4'0,"7"0,9 0,16 5,2 5,2 1,0 8,-2 4,-4 7,-3 7,-7 6,-2 0,-6 6,-5-2,-5-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1319.03">424 381,'4'0,"7"0,14 0,17 0,5-4,9-2,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2334">1006 0,'-1'76,"-1"11,4-1,4 2,22 113,-27-201,-1 1,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,-1-1,1 1,0-1,0 1,0 0,-1-1,1 1,0-1,-1 1,1 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 1,0-1,0 0,-39-3,12-1,18 5,0 0,1 0,-1 0,1 1,0 1,-1 0,-13 6,21-8,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,1 0,-1 1,1-1,-1 1,0 2,1-2,1-1,-1 2,1-1,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,1-1,-1 0,1 1,-1 0,1-1,0 1,-1-1,3 2,4 3,-1-1,1 0,1-1,-1 1,1-1,-1 0,1-1,0-1,18 4,-4-2,0-2,-1 0,24-3,-22 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2872.99">239 1066,'0'13,"0"13,0 19,0 20,0 15,-9 8,-17 9,-8-2,2-8,1-11,2-20,6-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3396">160 1091,'4'0,"6"0,11 0,6 5,3 5,5 6,5 12,2 19,-8 7,-4 6,10 23,4 6,-2-2,-4-9,-8-12,-13-18,-10-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3779.02">1 1498,'4'0,"11"0,16 0,26 4,16 2,13-1,-2 0,-7-2,-8-1,-15-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4427.99">1006 1168,'-15'222,"7"-148,3 0,7 83,-2-154,1 1,-1-1,1 1,0-1,0 0,1 0,-1 0,1 1,-1-1,1 0,0 0,1 0,-1-1,0 0,1 1,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,0-1,6 2,3 1,0-1,0 0,1 0,-1-1,22 0,-1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4917.99">901 1523,'22'0,"17"0,10 0,7 0,-3 0,4 0,-4 0,-6 0,-7 0,-9 4,-11 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6568">901 2209,'-1'-1,"1"0,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,-1 1,1 0,0 0,0-1,-3 1,-40-4,39 4,-62-4,0 3,-90 10,141-6,1 0,-1 2,1 0,0 1,0-1,0 3,1-1,0 1,0 1,1 0,-18 17,5-2,1 1,1 1,-40 59,56-74,1 2,1-1,1 1,0 0,0 0,1 0,1 0,0 2,-1 20,3 12,6 71,1-17,-7-96,1 0,0 0,0 0,1 0,0 0,-1 0,2-1,-1 1,0-1,1 1,0 0,0-1,1 0,-1 0,1 1,0-1,0 0,0-1,1 1,-1-1,1 1,0-1,0 0,0 0,1 0,-1-2,0 1,1 1,0-2,0 1,7 2,24 4,0-3,0-1,0 0,1-3,66-5,-9 1,113 2,-179 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22500,7 +22699,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'1'3,"0"-1,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,3 0,5 5,106 52,-79-41,62 38,-89-48,0 0,0 1,-1 0,0 0,0 1,-1 1,0-1,-1 1,0 1,6 12,191 410,-110-248,-78-155,43 57,-10-16,22 40,110 132,-119-172,-25-30,35 52,54 70,-47-65,-13-28,-11-14,3 8,97 84,81 44,-220-179,126 93,87 73,10 9,-144-116,-56-38,-1 2,-2 1,-2 3,46 65,40 48,17 7,-61-68,139 129,-186-195,133 122,-132-115,0 0,-3 1,24 39,170 276,-203-321</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'1'3,"0"-1,0 0,1 0,-1 0,1-1,0 1,0 0,1 0,-1 0,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,3 0,6 4,110 51,-83-40,65 37,-92-46,-1-1,1 2,-2 0,0-1,1 2,-2 1,0-2,0 2,-1 0,7 12,198 393,-114-237,-81-149,44 54,-10-15,23 38,115 127,-125-165,-25-28,36 49,56 67,-49-62,-13-27,-12-13,4 7,100 81,85 42,-229-172,131 90,90 69,11 10,-150-112,-58-37,-2 3,-1 0,-3 4,48 61,42 47,18 6,-64-65,145 124,-193-187,137 117,-136-110,-1-1,-3 2,25 37,177 264,-211-307</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22527,14 +22726,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">980 714,'-15'42,"13"-36,1 0,-1 0,-1 0,1-1,-1 1,-3 5,4-66,5 34,1 0,0 1,2-1,0 1,16-32,15-48,-32 77,2 1,0 0,2 0,0 1,2 0,18-28,-25 43,1 0,0 0,0 0,1 0,0 1,0 0,0 0,0 1,1 0,0 0,0 0,0 1,0 0,1 0,-1 1,1 0,-1 0,1 1,0 0,0 0,0 1,14 0,-13 1,0 1,0 0,1 0,-1 0,-1 1,1 1,0 0,-1 0,0 0,12 9,-15-10,-1 1,0 0,0-1,0 2,0-1,0 0,-1 1,0-1,0 1,0 0,-1 0,1 0,-1 0,-1 1,1-1,-1 1,1-1,-1 8,-2 66,0-56</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="755.01">953 582,'9'0,"7"0,6 0,4 0,1 0,6 0,1 0,0 0,-2 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1673.14">1588 132,'0'5,"0"10,0 12,0 5,0 2,4 0,2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2319.14">1747 53,'4'0,"2"5,-1 5,0 6,-2 10,-1 4,-1 6,0 2,-1 3,0-1,-1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4006.14">2726 26,'-12'16,"2"-1,0 1,0 1,2 0,0 0,1 1,-7 25,2-8,7-22,-57 177,53-156,2-1,2 1,-3 63,7 2,4 257,-2-347,1-1,0 0,0 0,0 0,1 0,0 0,0 0,1-1,0 1,1-1,0 0,0-1,0 1,1-1,10 10,-8-9,1 0,0 0,1-1,-1 0,1-1,0 0,1-1,-1 0,1 0,0-1,13 2,10-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7217.14">3414 185,'-69'47,"55"-35,1 0,0 0,1 2,1-1,0 2,-16 26,23-34,0 1,1-1,0 1,1-1,0 1,0 0,0 0,1 0,0 0,1 0,0 0,0 0,0 0,1 0,1 0,-1 0,5 12,-4-15,0-1,1 0,0 0,-1 0,1 0,1 0,-1-1,0 1,1-1,0 0,-1 0,8 4,16 13,-27-19,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,-17 5,11-3,-4 1,-1 1,2 0,-1 0,0 1,1 1,0 0,0 0,-14 13,19-14,1 1,-1-1,1 1,0 0,1 0,0 0,-1 0,2 1,-1 0,1-1,0 1,1 0,-1 0,1 0,0 11,1-10,-1 10,0 0,1 0,4 30,-3-44,0 0,0-1,0 1,0 0,0 0,1 0,0 0,-1-1,1 1,1-1,-1 0,0 1,1-1,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,5 2,9 2,-1-1,2 0,-1-1,0-1,1 0,26-1,2-3,55-9,-86 8,-8 1,0 0,0 1,0 0,0 0,0 0,0 1,-1 0,1 1,8 2,-13-3,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 3,0-2,-1 1,0-1,0 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,0 0,0 1,0-1,0 0,0 0,-2 3,-7 9,0-1,-1 0,-1 0,0-1,0-1,-24 16,17-12,0 1,-18 20,34-33,0 0,1 0,-1 0,1 0,0 1,0-1,0 1,1 0,-1-1,1 1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,1 6,-1-7,1-1,0 1,0-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0-1,4 1,52 5,-32-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8495.14">3811 0,'3'0,"0"0,0 1,0-1,0 1,0-1,0 1,-1 0,1 0,0 0,0 0,0 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,0 0,0 0,2 5,0 8,0-1,-1 1,0 0,-1 25,-1-20,12 242,2 108,-18-326,-2-1,-1 0,-3 0,-1-1,-24 58,22-63,-55 123,54-131</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10329.14">1 1217,'4427'0,"-4388"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1017 681,'-15'40,"13"-35,1 1,-2 0,0-1,1 0,-1 1,-3 4,4-62,5 32,1 0,0 1,3-1,-1 1,17-31,15-45,-33 73,2 1,1 0,1 0,0 1,3 0,18-27,-26 42,1-1,0 0,1 0,0 1,0 0,0 0,1 0,-1 2,1-1,0 0,1 0,-1 1,0 1,1-1,0 1,0 0,-1 0,2 1,-1 0,0 0,0 1,15 0,-13 1,-1 1,0 0,2 0,-2 0,-1 1,2 0,-1 1,-1 0,1 0,11 8,-14-9,-2 1,0 0,0-2,0 3,0-1,1 0,-2 1,0-2,0 2,0 0,-1 0,1 0,-1-1,-1 2,1-1,-1 0,1 0,0 8,-4 62,1-53</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="755.01">989 555,'10'0,"6"0,7 0,4 0,1 0,6 0,2 0,-1 0,-2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1673.14">1648 126,'0'5,"0"9,0 12,0 4,0 3,5-1,1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2319.14">1813 51,'5'0,"1"4,-1 6,0 5,-2 10,-1 3,-1 7,0 1,-1 3,0-1,-1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4006.14">2830 25,'-13'15,"3"-1,-1 2,1 0,2 0,-1 0,2 1,-7 24,1-7,8-22,-59 169,54-148,3-2,2 1,-3 61,7 1,4 246,-2-332,1 0,0-1,0 1,0 0,1-1,0 1,0 0,2-2,-1 2,1-2,0 1,0-1,0 1,2-2,9 11,-7-10,0 1,0 0,2-2,-2 1,1-1,1-1,0 0,0 0,0 0,0-1,14 2,11-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7217.14">3544 176,'-72'45,"58"-33,0-1,1 0,0 3,2-2,-1 2,-16 26,24-34,0 2,1-1,0 0,1 0,0 0,0 1,0 0,1-1,0 1,1 0,0-1,0 1,0-1,1 1,1 0,-1-1,5 12,-4-14,0-1,1 0,0 0,-1-1,1 1,2 0,-2-1,0 1,1-1,0-1,-1 1,9 4,16 12,-28-18,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 0,0 0,-2 0,2 0,0 0,-1 0,-17 4,10-2,-3 1,-1 1,1 0,0 0,-1 0,2 2,0 0,-1 0,-14 12,20-14,1 2,-1-1,1 1,-1-1,2 1,0 0,-1-1,2 2,-1 0,1-1,0 0,1 1,-1 0,1-1,0 11,1-9,-1 9,0 0,1 0,4 29,-3-42,0 0,0-1,0 1,0-1,0 1,1 0,0 0,-1-1,1 0,1 0,-1 0,0 1,2-1,-1 0,0 0,0-2,0 2,0-1,0 1,1-1,-1 0,6 2,8 1,0 0,2 0,-2-1,1-1,1-1,26 0,3-3,57-8,-89 7,-9 1,0 0,0 1,1 0,-1 0,0 0,0 1,0 0,0 1,8 2,-12-3,-2-1,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 3,0-2,-1 0,0 0,0 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,0-1,0 2,0-1,0 0,0 0,-2 3,-8 8,1 0,-1-1,-2 0,1 0,-1-2,-24 16,17-12,0 2,-18 18,35-31,0 0,1-1,-1 1,1 0,0 1,-1-1,1 1,1-1,-1 0,1 1,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,1 5,-1-6,1-1,0 1,0-1,0 1,1-1,-1 0,1 0,-1 1,2-1,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,1-2,-1 2,1-1,-1 0,2 0,-1 0,-1 0,1 0,0-1,4 1,54 5,-32-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8495.14">3956 0,'3'0,"0"0,0 1,0-1,1 1,-1-1,0 1,-1 0,1 0,0 0,0 0,0 1,-1-1,2 0,-2 0,1 1,-1 0,0 0,1 0,-1 0,0 1,-1-1,1 1,0-2,-1 2,1-1,-1 1,1 0,-1 0,2 4,0 9,0-2,-1 1,0 0,-1 25,-1-20,13 230,1 104,-18-311,-2-1,-2 0,-2 0,-1-1,-26 55,24-60,-58 117,57-124</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10329.14">1 1160,'4595'0,"-4554"0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22592,7 +22791,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 566,'0'1,"1"-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,1-1,-1 0,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,82 407,-62-280,2 158,-21-265,-2-44,-2-1121,3 1112,-1 11,1 1,1 0,0 0,7-30,-7 45,1 1,-1-1,1 1,0 0,0-1,0 1,0 0,1 0,-1 1,1-1,0 1,0-1,1 1,-1 0,1 0,0 0,-1 0,1 1,0 0,0 0,1 0,-1 0,0 0,9-1,8-1,0 1,0 1,21 1,-32 1,-1 0,1 1,-1 0,0 1,1 0,-1 0,0 1,0 0,9 5,-14-5,-1 0,1-1,-1 1,0 1,0-1,0 0,0 1,0 0,-1-1,0 1,0 0,0 0,0 1,0-1,-1 0,0 0,1 7,1 9,0 0,-2 31,0-34,-8 324,7-338,0 1,0 0,0 0,-1-1,1 1,-1 0,0-1,0 1,0-1,-1 1,1-1,-1 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,1-1,-1 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,-1 0,0-1,1 1,-6 0,-22 3,-48 1,1 0,76-5,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 1,-1-1,1 1,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 0,0 0,1 2,0 5,1 0,0-1,0 1,1-1,6 10,-6-10,164 308,1-1,-91-143,-55-117</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="505.99">795 1360,'4'5,"2"5,-1 6,0 5,-2 3,-1 2,-1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="505.98">795 1360,'4'5,"2"5,-1 6,0 5,-2 3,-1 2,-1-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="839.99">821 804,'0'0</inkml:trace>
 </inkml:ink>
 </file>
@@ -22707,12 +22906,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">109 302,'1'245,"-3"259,-6-443,-4-38,11-22,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 1,0-2,-3-3,-1-1,1 0,1 0,-1-1,1 1,0-1,0 1,1-1,-2-10,-11-69,13 68,-11-145,11-219,5 228,-3 145,-1 1,2-1,-1 1,1-1,1 1,-1 0,1-1,1 1,0 0,0 0,0 0,1 1,0-1,1 1,-1 0,1 0,1 0,0 1,-1 0,2 0,-1 0,9-5,0 1,1 1,0 0,1 1,0 1,0 1,1 0,-1 1,22-3,-25 6,-1 0,1 0,0 2,0 0,0 0,0 1,0 1,-1 0,1 1,-1 1,19 7,-26-8,0 1,-1 0,1 0,-1 1,0 0,0 0,-1 0,0 0,0 1,0 0,0-1,-1 1,0 1,0-1,-1 0,1 1,-1-1,-1 1,2 7,2 20,-1-1,0 55,-3-63,-4 134,1-136,-1-1,-1 0,-1-1,-1 1,-9 21,13-38,-1 0,0 0,0 0,0-1,-1 1,1-1,-1 1,0-1,0-1,-1 1,1 0,-1-1,1 0,-1 0,0 0,-1-1,1 0,0 0,-1 0,1-1,-1 1,-9 0,-11 0,1-1,-1-2,-48-6,7 1,68 11,12 7,15 9,-15-13,0 2,-1-1,0 2,0 0,-1 0,-1 1,0 0,0 1,13 25,-11-14,0 1,-2 0,-1 1,11 53,-19-76,0 1,-1-1,1 1,1-1,-1 1,0-1,1 1,-1-1,1 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0-1,1 0,0 0,-1 0,5 0,14 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2720">744 1122,'19'0,"-8"-1,-1 1,1 0,0 1,0 0,16 4,-24-4,0 0,0 1,1-1,-1 1,0-1,0 1,-1 0,1 0,0 0,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,1 6,1 4,0-1,-1 1,-1 0,0 0,-1 0,0 0,0 0,-2 0,0 0,0-1,-1 1,-1-1,0 1,0-1,-2 0,1-1,-1 1,-1-1,-10 13,13-19,-7 10,-1-1,-1-1,-16 14,27-25,0 0,-1 1,0-1,1-1,-1 1,0 0,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,0-1,0 1,-1-1,1 0,0 0,-1 0,1 0,0-1,-1 1,1-1,-6-2,8 3,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,1 0,1-3,1 1,-1 0,1 0,0 0,0 0,0 1,0 0,1-1,5-1,-1 2,0 1,0-1,0 1,0 1,0 0,1 0,-1 1,0 0,16 4,4 3,47 21,12 4,-26-12,-44-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52426.99">374 2048,'0'1,"1"0,0 0,0 0,0-1,0 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 0,0 0,0 2,5 31,-5-28,11 139,-9 171,-4-147,2-167,1 29,0-31,-1-1,0 1,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,1 0,-1-1,0 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 1,0 0,9-17,-1 0,0 0,-1 0,9-31,18-38,-31 78,9-16,1 0,27-36,-37 55,0 0,0 0,0 1,1-1,-1 1,1 0,-1 0,1 0,0 0,1 0,-1 1,0 0,1 0,-1 0,1 1,-1-1,1 1,0 0,0 1,-1-1,1 1,6 0,-7 1,0 0,0 1,0 0,-1-1,1 1,-1 1,1-1,-1 0,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 1,0 0,0-1,0 1,0 0,-1 0,0-1,0 1,2 8,1 12,0-1,-2 0,1 26,-3-38,-2 58,1-53,0 0,0-1,2 1,0 0,1-1,0 1,8 25,1-12,-1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53902.99">903 2921,'0'-1,"1"0,-1-1,1 1,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,1 0,-1 1,0-1,0 0,0 0,1 1,-1-1,0 0,1 1,-1-1,0 1,1 0,-1-1,1 1,-1 0,3 0,39-3,-40 4,0 0,0 0,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,-1 0,0 0,1 1,-1-1,0 0,0 1,0-1,-1 1,1 0,0 0,-1 0,0-1,0 1,0 0,0 1,0-1,-1 0,1 5,2 13,-1-1,-1 1,-2 22,1-28,-1 0,0 0,-1-1,-1 1,0-1,-1 0,-1 0,-10 23,12-31,0 1,0-2,-1 1,1 0,-1-1,-1 0,1 1,-1-2,1 1,-1 0,-1-1,1 0,-1 0,1-1,-1 0,0 0,0 0,-1-1,-6 3,11-5,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1-1,0 1,-1-1,1 1,0-1,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,1 0,0 0,-1 0,1 0,0-4,-1 4,1-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 1,0-1,1 1,-1-1,1 1,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 1,4-3,5 1,0 0,-1 1,1 0,0 1,1 0,-1 0,0 1,0 1,0 0,0 0,0 1,16 5,14 7,73 34,-58-23,-8-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56151">1274 2498,'4'0,"6"0,11 0,5-4,18-2,13 0,12 1,-2 2,5 1,-4 1,-10 0,-10 1,-13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56676.99">1353 2948,'4'0,"11"0,7 0,5-4,1-2,2 0,-1 1,0 2,-1 1,4 1,1 0,3 1,1 0,-1 1,-3-1,-3 0,-1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">114 291,'1'235,"-3"250,-6-426,-5-37,12-21,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-2-1,1 1,1 0,-1 0,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 1,0-2,-3-3,-1 0,0-1,2 0,-1-1,1 1,0 0,0 0,1-1,-3-9,-10-67,13 66,-12-140,12-210,5 218,-3 141,-1 0,2-1,-1 2,1-2,1 1,-1 1,1-2,2 1,-1 1,0-1,0 0,1 1,0 0,2 0,-2 0,1 1,1-1,1 1,-2 0,2 1,-1-1,10-5,0 2,0 0,1 0,1 2,0 0,0 1,0 0,0 1,23-2,-26 5,-2 0,2 0,-1 2,1 0,0 0,-1 1,1 1,-1 0,0 1,0 1,19 6,-26-7,-1 1,-1 0,1 0,0 0,-1 1,0 0,-1 0,0 0,1 0,-1 1,0-1,-1 1,0 0,0 0,-1 0,2 1,-2-1,-1 0,2 8,2 18,-1 0,0 53,-2-61,-6 129,2-131,-1-1,-1 0,-1-1,-2 2,-8 19,13-36,-1 0,-1-1,1 1,0-1,-1 1,1-1,-1 1,-1-2,1 0,-1 1,1 0,-1-1,0 0,0 0,0 0,-1-2,0 1,1 0,-1 0,1-1,-2 1,-8 0,-12 0,0-1,0-2,-50-6,7 1,71 11,12 7,17 8,-17-12,1 1,-2 0,1 2,0-1,-2 1,0 0,-1 1,0 0,14 25,-11-14,0 1,-3 0,-1 1,12 51,-20-73,0 1,-1-1,2 1,0-2,-1 2,0-1,1 1,-1-1,1 0,0 0,0 0,1-1,-1 1,1 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,0-1,-1 0,0 0,1 0,0 0,-1 0,6 0,14 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2720">778 1079,'20'0,"-9"-1,0 1,0 0,1 1,-1 0,18 4,-26-4,0 0,0 1,1-1,-1 1,1-1,-1 1,-1 0,1 0,0 0,-1 0,1 0,-1 1,0-1,1 1,-1 0,0 0,0 0,0 0,-1-1,1 1,-1 0,0 0,1 6,1 3,1 0,-2 0,-1 1,0-1,-1 1,0-1,0 1,-2-1,0 1,-1-2,0 2,-1-2,0 2,0-1,-3-1,2 0,-1 0,-1 0,-11 12,14-18,-8 9,0 0,-2-2,-16 14,28-24,0 0,-2 1,1-1,1-1,-1 1,0 0,0-2,0 2,-1-1,1 0,0 0,-1 0,1 0,0-1,0 1,-2-1,2 0,0 0,-1 0,1 0,0-1,-2 1,2-1,-6-2,8 3,0 0,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,1-1,-1 0,-1 1,2-1,-1 0,0 0,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 0,1 1,-2-1,1 0,0 0,1 0,1-3,1 1,-1 0,1 0,1 1,-1-1,0 1,0 0,1-1,6-1,-2 2,1 1,-1-1,0 1,1 1,-1 0,2 0,-2 1,1 0,16 4,4 3,49 20,14 3,-29-10,-45-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52426.99">391 1970,'0'1,"1"0,0 0,0 0,0-1,0 1,-1 0,1 0,-1 0,1 0,1 0,-2 0,0 0,1 0,-1 1,0-1,1 0,-1-1,0 1,0 0,0 2,5 30,-5-27,11 133,-9 165,-4-141,2-161,1 28,0-30,-1-1,0 1,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,2 0,-2 0,0-1,0 1,1 0,-1 0,0 0,1 0,-1-1,0 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 1,0 0,9-16,0 0,-1-1,0 1,8-30,20-37,-33 75,10-15,0 0,29-35,-39 53,0 0,0 1,0 0,2-1,-2 1,1 0,-1 0,1 0,0 0,2 1,-2 0,0 0,1 0,0 0,0 1,-1-1,1 1,0 0,1 1,-2-1,1 1,7 0,-8 1,0 0,0 1,0 0,-1-1,2 1,-2 1,1-1,-1-1,0 2,0 0,0 0,1 0,-1 0,-1 0,1 0,-1 1,0-1,0 0,0 1,0 0,-1 0,0-1,1 1,1 7,1 12,0-1,-2 0,1 26,-3-38,-2 56,1-50,0-1,0 0,2 0,0 0,1 0,0 0,9 25,0-12,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53902.99">944 2810,'0'-1,"1"0,-1-1,1 1,1 0,-1 0,0 0,-1 0,1-1,0 1,0 0,1 1,-1 0,0-1,0 0,0 0,1 1,-1-1,0 0,1 1,-1-1,0 1,1 0,0-1,0 1,-1 0,3 0,41-3,-42 4,0 0,0 0,0 0,1 1,-1-1,0 1,0-1,-1 0,1 1,-1 0,0 0,1 1,0-1,-1 0,0 1,0-1,-1 1,1 0,0-1,-1 1,0-1,0 1,0 0,0 1,0-1,-1 0,1 4,3 14,-2-2,-1 1,-2 21,1-26,-1-1,0 1,-2-2,0 2,0-2,-1 0,-1 1,-11 21,13-29,0 1,0-2,-2 1,2-1,-1 0,-1 0,1 1,-2-2,2 0,-1 1,-1-1,1 0,-2 0,2-1,-1 0,0-1,-1 1,0-1,-7 3,12-5,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,0 1,1-1,-1 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-2 1,2-2,0 1,-1-1,1 1,0-1,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,1 0,0 0,-1 1,1-1,0-4,-1 4,1-1,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 1,0 0,1 0,-1-1,1 1,0-1,1 1,-1 0,0 0,0 0,0 0,1 0,-1 1,4-2,6 0,-1 0,0 1,0 0,1 1,0 0,0 0,-1 1,1 1,0 0,-1 0,1 1,16 5,15 6,76 33,-61-22,-7-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56151">1332 2403,'5'0,"5"0,12 0,5-4,19-2,14 1,12 0,-2 2,5 1,-4 1,-10 0,-11 1,-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56676.99">1415 2836,'4'0,"12"0,7 0,5-4,1-2,3 1,-2 0,0 2,0 1,3 1,2 0,2 1,2 0,-1 1,-4-1,-2 0,-2 0,-6 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22904,14 +23103,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1113 101,'0'5,"4"1,6-1,6 0,5-2,7-1,5-1,4 0,1-1,3-1,-1 1,2 0,-2 0,-3-5,-4-1,-2 0,-3 2,-5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="696">345 127,'4'0,"11"0,8 0,8 0,8 0,2 0,-2 0,2 0,-1 0,-4 0,2 0,-2 0,-2 0,-3 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1647">1 895,'0'-2,"0"0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,1 1,-1-1,1 1,-1 0,3-2,36-20,-21 13,77-44,102-62,-159 90,-1-2,63-59,-54 36,-28 30,37-34,-26 30,-3 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4096.02">134 1000,'4'0,"20"-9,10-3,4 1,4-7,5-5,-2 2,-4 4,-5 0,-3 4,1-1,0-3,-2 3,-2 2,4 4,-1 3,-4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5186">1165 551,'4'0,"7"0,5 0,5 0,7 0,5 0,-1 0,1 0,-2 0,-2 0,-1 0,0 0,7 0,4 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6485.99">2171 21,'0'-4,"9"-2,7 1,10 0,10 6,3 8,0 1,-3 0,-8-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7322">2012 603,'9'0,"12"0,15 0,8 0,8 0,5 0,2 0,-5-4,-3-6,-5-2,-6-7,-10-5,-5 1,-7 0,-7 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8005.99">3044 180,'4'0,"11"-4,12-2,14 1,19 0,12 2,-1-4,-4 0,-4 1,-5 1,-2 2,-6 1,-8 1,-10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1164 97,'0'5,"4"0,7 0,5 0,6-2,8-1,4-1,5 0,1-1,3-1,-2 1,3 0,-2 0,-3-5,-5-1,-1 0,-4 3,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="696">361 122,'4'0,"12"0,8 0,8 0,9 0,2 0,-2 0,1 0,0 0,-4 0,2 0,-3 0,-1 0,-4 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1647">1 857,'0'-1,"0"-1,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 2,0-2,2 1,-2-1,1 1,-1 0,3-2,38-19,-22 12,80-41,107-61,-166 88,-1-3,65-57,-56 36,-29 27,39-31,-28 28,-2 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4096.02">140 958,'4'0,"21"-9,11-2,4 0,4-6,5-5,-2 2,-4 4,-6-1,-2 5,0-1,1-4,-3 4,-1 1,3 5,0 2,-5 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5186">1218 528,'5'0,"6"0,6 0,5 0,7 0,6 0,-2 0,2 0,-3 0,-2 0,0 0,-1 0,8 0,3 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6485.99">2271 20,'0'-4,"9"-1,8 0,10 0,11 6,2 8,1 0,-3 1,-9-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7322">2104 578,'10'0,"12"0,15 0,9 0,9 0,4 0,3 0,-5-4,-4-6,-5-1,-6-7,-11-5,-5 1,-7 0,-7 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8005.99">3184 172,'4'0,"12"-3,12-3,15 1,19 0,14 2,-2-3,-4-1,-4 1,-5 1,-3 3,-5 0,-10 1,-9 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22938,56 +23137,56 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2435 0,'0'4998,"-14"-4610,1 12,-1 17,0 2,15-393</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2031">1 4603,'2'-2,"1"1,0-1,0 0,1 1,-1-1,0 1,0 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,6 1,5-2,235-7,-237 8,269-2,4288-1,-2373 5,4176-2,-6335 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3639.99">3970 2196,'212'-236,"-194"211,2 2,0 0,1 1,1 1,1 0,1 2,1 1,30-16,48-11,2 4,209-50,30-10,-314 93,-1 1,1 2,1 1,-1 1,1 1,-1 2,35 4,15-1,53 4,-1 5,-1 6,-1 6,188 60,-238-59,1-3,1-4,1-3,0-5,103 2,-49-12,0 7,197 34,145 37,-332-61,198-4,389-44,-332-19,-347 39,-1-3,0-2,-2-3,0-2,60-33,157-102,370-286,-599 412,-24 20,-1-1,0-1,23-25,-30 25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4822">5584 1481,'-8'146,"-6"-1,-44 190,23-146,-13 86,-89 576,123-702,8 206,-6-166,-1-4,11-149,3 30,5-42</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6137">9632 1878,'6'1,"0"0,0 0,0 1,0-1,0 1,0 0,0 1,0 0,-1 0,0 0,1 0,-1 1,0 0,-1 0,1 0,-1 1,1-1,-2 1,7 9,7 12,-1 0,21 50,-28-57,83 186,97 322,-149-384,-7 2,-6 1,11 191,-32-230,14 446,-20-539,1 10,-1 1,-1 0,-1-1,-1 0,-1 1,-1-1,-14 38,-97 179,51-110,39-75</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6846.99">6298 1613,'0'9,"-54"53,-63 47,-57 32,-43 23,-21 7,-15 1,-5-11,15-19,43-33,61-36,63-31,53-21,44-15,19-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7635.99">7436 2063,'-13'8,"1"-1,0 1,-11 11,-17 11,-1204 915,977-731,207-172,-1-3,-110 52,-32-16,1 1,180-64,10-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8331">8282 2143,'-813'730,"310"-293,372-320,-228 217,289-262,3 3,-103 153,160-214,2 0,0 1,0 0,-5 17,7-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8930">8600 2143,'0'0,"0"0,1 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 0,1 1,-1-1,0 0,0 1,0-1,1 1,-1-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-5 22,5-22,-13 32,-1-2,-1 0,-1-1,-2 0,-38 47,24-33,-421 497,178-230,-447 669,663-890,-62 126,119-212,0 0,0 0,0 0,1 0,0 0,0 1,0-1,-1 5,3-8,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,1 0,-1 1,0-1,0 1,1-1,-1 0,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,1 1,23-1,17-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9498.01">9182 2460,'-1'13,"1"-1,-2 1,1-1,-2 0,0 0,0 0,-6 13,-5 4,-25 42,33-61,-279 408,-38-17,-65 90,326-405,3 3,-86 180,136-247</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9957">10055 3227,'-2'13,"0"0,0 0,-1 0,-1 0,0-1,-1 0,0 0,-1 0,0 0,0-1,-15 18,3-1,-242 366,-136 230,332-511,-46 84,96-161,16-23,7-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10557">9817 2910,'-9'14,"-8"13,-9 15,-15 15,-17 15,-27 27,-12 10,-11 9,-29 43,0 12,19-18,21-23,22-29,24-28,16-17,9-19,5-11,6-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12026">4896 5132,'0'0,"0"0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-2-1,-14 8,-12 19,21-16,0 0,1 0,0 1,0 0,1 0,0 0,1 1,1-1,0 1,0 0,1 0,0 14,1-21,1 0,0 1,0-1,1 0,-1 0,1 0,0 1,0-1,1 0,0 0,0 0,0-1,0 1,1 0,0-1,0 0,0 1,0-1,0 0,1-1,0 1,0-1,0 1,0-1,1-1,-1 1,1 0,0-1,-1 0,7 2,3-1,0 1,0-2,0 0,0-1,0 0,0-1,0-1,0 0,0-1,0 0,0-1,17-6,-23 6,-1 1,-1-1,1-1,0 1,-1-1,0 0,0 0,0-1,0 0,-1 0,1 0,-1-1,-1 0,1 0,-1 0,0 0,0-1,-1 1,0-1,0 0,-1 0,0 0,0-1,1-10,-1 1,-1-1,0 0,-2 0,0 1,-6-33,6 45,-1-1,1 0,-1 1,0-1,-1 1,1-1,-1 1,0 0,0 0,-1 0,1 1,-1-1,0 1,-1 0,1 0,-1 0,1 1,-1 0,0 0,-10-5,6 4,0 1,0-1,0 2,0-1,0 1,0 1,-1 0,1 0,-1 1,1 0,-1 0,1 1,-1 0,1 1,0 0,0 1,0 0,0 0,0 1,0 0,1 1,0-1,0 2,-13 10,11-7,0 0,1 1,0 0,0 0,1 1,1 1,0-1,0 1,1 0,1 0,0 1,0 0,1 0,1 0,0 0,1 0,0 23,2-33,0-1,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,0 0,3 1,4 1,-1-1,0 0,1-1,-1 1,10-1,25 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12783.02">5240 4841,'-1'6,"0"0,0 0,-1 0,0-1,0 1,0-1,-5 9,-7 22,3 22,3 1,2 0,4 0,5 76,-2-56,-1-69,0-1,1 1,0-1,0 1,1-1,1 1,-1-1,1 0,1 0,6 12,-6-16,-1 0,1-1,0 1,0-1,1 0,-1 0,1-1,0 1,0-1,0 0,0 0,0-1,1 1,-1-1,1 0,0-1,10 2,26 2,-1-2,1-2,44-4,-18 0,-16 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13682">9949 4841,'4'0,"2"9,0 12,-1 16,-2 11,-1 24,-1 9,0-1,-1 0,0-5,-1-5,1-7,0-9,0-9,0-8,0-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15111">10372 5423,'-26'0,"12"-1,0 1,0 0,0 0,0 1,0 1,0 1,1 0,-1 1,1 0,-1 1,-23 12,3 4,1 1,-53 47,74-58,1 0,0 1,0 1,1-1,1 2,0 0,1 0,1 0,-10 27,9-19,1 1,2 0,0 0,1 0,2 1,0 0,2-1,4 45,-3-63,0 0,1 0,0 0,0 0,0 0,1 0,0 0,0-1,0 1,0-1,0 0,1 0,0 0,0-1,0 1,0-1,1 0,-1 0,1 0,0-1,0 0,0 0,0 0,0 0,9 1,11 2,1-2,0 0,-1-2,29-1,-28-1,38 2,-14 0,-1-1,1-3,61-11,-106 12,-1 1,1-1,-1 1,0-1,0-1,0 1,0-1,0 1,0-1,0 0,-1-1,0 1,1 0,-1-1,-1 0,1 0,0 0,-1 0,0 0,0 0,0-1,0 1,-1-1,0 1,0-1,1-5,1-15,-1 0,-1 0,-5-47,2 26,3-10,0 36,0 0,-1 0,-7-40,6 57,-1 0,0 0,0-1,0 1,0 0,0 1,0-1,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1 0,1 0,-4-1,-16-4,1 2,-26-3,32 5,-61-8,-2 4,1 3,-104 9,178-5,1-1,-1 1,1 0,-1 0,1 1,-1-1,1 1,0-1,0 1,0 0,0 1,0-1,0 0,1 1,-1-1,1 1,0 0,-4 5,-2 6,0 0,2 0,-7 18,-6 12,4-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18849">5663 1428,'0'-4,"0"-6,-5-2,-6 1,0 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20565">5954 449,'-27'0,"1"1,-1 1,-44 9,64-10,1 1,0-1,0 2,0-1,0 1,0 0,0 0,0 0,1 1,0 0,0 0,0 1,0-1,0 1,1 0,0 0,0 0,1 1,-1-1,-3 11,6-13,0 1,0-1,1 1,-1-1,1 1,0-1,0 1,0-1,1 1,-1-1,1 0,0 1,-1-1,2 0,-1 1,0-1,1 0,-1 0,1 0,0 0,0 0,0 0,1-1,-1 1,1-1,3 3,4 7,-10-11,0-1,0 1,0-1,1 0,-1 1,0-1,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,0 0,-35 5,20-4,9 1,1 0,-1 1,0 0,1-1,0 2,0-1,0 1,0 0,1 0,-1 1,1 0,0 0,0 0,-7 11,9-12,1 0,0-1,0 1,0 0,0 0,1 0,0 1,0-1,0 0,0 0,1 1,-1-1,1 0,0 1,0-1,1 0,-1 1,1-1,0 0,0 0,1 0,-1 1,1-1,0-1,3 7,-1-5,1-1,-1 1,1-1,0 0,0 0,0-1,0 1,1-1,-1 0,1-1,0 1,0-1,0 0,0-1,0 0,0 1,0-2,1 1,7-1,10 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21897">5795 899,'4'0,"2"5,0 6,-6 9,-3 7,0 3,4-4,6-6,12-11,2-12,-2-9,-5-8,-5-4,-3-4,-3 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23164">6192 635,'0'0,"0"-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,-1 1,1 0,0-1,0 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1 1,1-1,-1 0,0 1,-26 16,22-11,0-1,0 1,1 1,0-1,0 0,0 1,1 0,-5 14,5-12,-1-1,0 1,0 0,-1-1,-9 12,11-17,-8 10,0 1,1 0,0 0,1 1,-8 17,16-28,-1-1,1 0,0 1,0-1,0 0,1 1,-1-1,1 1,0-1,0 1,0 0,0-1,1 1,-1-1,1 1,0-1,0 0,0 1,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,0-1,-1 1,6 2,12 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23688.99">6219 926,'4'5,"2"14,0 14,-2 5,-1 5,-1 0,4-2,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24844">6642 582,'-36'0,"25"-2,0 1,-1 1,1 0,0 1,-1 0,1 0,0 1,0 1,0 0,1 0,-16 8,25-10,-1 0,1 1,-1-1,1 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,0 0,1 1,0 1,-1 0,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,0 4,-10 34,7-34,0 1,1-1,0 0,1 1,0 0,0-1,1 1,2 16,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25778.99">6589 767,'3'0,"1"0,-1 1,1-1,0 0,-1 1,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 1,-1-1,5 6,-4-3,0 0,0 0,0 0,-1 0,0 1,0-1,-1 1,1-1,-1 1,0 0,0 9,-1-4,0-1,-1 0,0 0,0 0,-1 0,0 0,-1 0,0 0,-1-1,0 1,0-1,-1 0,0 0,-7 8,-2-5,-7 7,21-18,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 1,2-1,63 19,-29-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26141">7197 1111,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26507">7700 1111</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26867.99">7753 1137,'4'0,"7"0,5 0,14 0,10 0,17 0,-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26868.99">8176 1137,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27215">8547 1137,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27561.03">9155 1164,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28751">9896 635,'-12'1,"0"0,0 0,0 2,0-1,1 1,-1 1,1 0,0 0,0 1,-15 10,20-12,1 1,0-1,0 1,0 0,1 0,-1 1,1-1,0 1,0 0,1 0,-1 0,1 1,0-1,1 1,-1 0,1 0,0 0,1 0,-1 0,1 0,0 9,2 3,-1-14,0 0,0-1,0 1,0 0,0-1,-1 1,1 0,-1 0,-1 3,1-6,0 1,-1 0,1-1,0 1,-1-1,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 0,0-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,-4 0,-41 5,30-4,0 0,0 1,0 1,0 0,1 2,-1 0,1 0,1 2,-1 0,-28 17,37-19,1 1,0 0,0 0,0 0,1 1,-1-1,2 1,-1 0,-6 14,10-19,0 0,0 0,0 1,1-1,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 1,1-1,-1 1,0-1,1 0,-1 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,0 0,4 2,10 2,0-1,1 0,-1-2,1 0,0 0,0-2,-1 0,27-3,-11 1,-1 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29720">9737 1111,'0'99,"-1"-115,2 0,0 1,7-30,-8 42,0 1,1-1,0 0,-1 1,1-1,0 1,0 0,0-1,1 1,-1 0,0 0,1-1,0 1,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 1,4 0,-6 0,1 1,0-1,0 1,-1 0,1-1,-1 1,1 0,0 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 0,0 1,0 0,-1-1,1 1,0-1,0 1,-1 0,1 0,-1-1,0 3,6 51,-6-52,1 21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35960.02">5689 7911,'7'-10,"-1"0,0-1,0 0,-1-1,0 1,-1-1,-1 0,0 0,2-15,4-11,26-71,-19 60,-1-1,16-100,-31 146,1 1,-1 0,0 0,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 1,0-1,0 0,0 1,0 0,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,0 0,0 1,0-1,-3 0,-15-2,0 1,0 0,0 2,-26 2,20-1,11 0,1 1,-1 0,1 1,0 0,0 2,1-1,-1 2,1 0,0 1,0 0,1 1,0 1,0 0,1 0,-16 17,18-16,1 1,0 0,1 0,0 1,0 0,1 0,1 0,0 1,1 0,0 1,1-1,1 1,0-1,1 1,0 0,1 0,1 17,6 553,1 31,16-377,5 137,-28-337,1-14,-1 0,0 0,-2 0,-1 0,-8 31,9-50,0 1,0-1,0 0,0 0,-1 0,0 0,0-1,0 1,-1-1,1 0,-1 0,0 0,-1 0,1-1,0 0,-1 0,0 0,0 0,0-1,0 1,0-1,0-1,-1 1,1-1,0 0,-1 0,0 0,-7-1,-12 0,0-2,1 0,-1-2,1-1,-1 0,1-2,1-1,-1-1,2-1,-1 0,1-2,1-1,0-1,1 0,0-2,-21-22,36 33,1 0,0 0,0-1,1 0,-1 0,1 0,1 0,-1 0,1-1,0 1,0-1,1 0,-1-12,0-9,3-57,1 55,-2 12,1-2,0 0,6-31,0 26</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38743">5689 9842,'-3'1,"1"-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 3,-19 61,17-52,-4 16,-6 54,12-72,1 1,-1 0,2 1,0-2,0 1,7 23,-7-32,1-1,0 1,-1-1,1 0,1 1,-1-1,0 0,1 0,0 0,-1-1,1 1,0-1,0 1,1-1,-1 0,0 0,1-1,-1 1,1-1,0 1,-1-1,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,0-1,0 1,6-2,-3 1,0 0,-1-1,1 1,-1-1,1-1,-1 1,0-1,0 0,0-1,0 1,-1-1,0 0,1-1,-1 1,-1-1,1 0,5-8,-5 2,0 0,-1-1,0 1,-1-1,-1 1,1-1,-2 0,0 0,0-13,-10-112,7 117,2 15,-1 1,0-1,0 1,0-1,0 1,-1-1,0 1,0 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 1,0 0,-1 0,1 0,-1 0,0 0,0 1,0-1,0 1,0 0,0 0,-1 1,1-1,-1 1,1 0,-1 0,1 1,-1-1,-8 1,3 0,0 0,0 1,0 0,1 1,-1 0,1 1,-1-1,1 2,0-1,0 1,0 1,1 0,-1 0,1 1,-10 8,17-13,-1 1,1-1,-1 0,1 0,0 1,0-1,0 0,0 1,0 0,0-1,0 1,0-1,1 1,-1 0,0 0,1-1,0 1,-1 0,1 0,0-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,1 0,-1 0,1-1,1 3,8 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39657">5927 9816,'-2'78,"4"137,-1-208,-1-1,1 0,1 0,-1 0,1 1,0-1,0-1,1 1,5 10,-5-13,-1 0,0-1,1 1,-1-1,1 1,0-1,0 0,0 0,0 0,0-1,1 1,-1-1,0 1,1-1,-1 0,1-1,-1 1,5 0,18 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41288">6324 6773,'0'584,"-3"-658,1 43,1 0,1 0,2 0,6-36,-7 64,1-1,-1 1,0 0,1 0,-1 0,1 0,0 0,0 1,0-1,1 0,-1 1,0 0,1-1,0 1,0 0,-1 0,1 1,0-1,0 0,1 1,-1 0,0 0,0 0,1 0,-1 0,4 1,12-3,-1 2,1 0,32 4,-21-1,-15-1,0 1,-1 1,1 0,-1 0,0 2,0 0,0 0,0 2,-1-1,0 2,18 13,-26-18,-1 0,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 1,0-1,-1 1,1 0,-1 0,0 0,0 0,-1 0,0 0,0 1,0-1,0 0,-1 1,0-1,0 0,0 1,-1-1,0 0,0 1,0-1,0 0,-1 0,0 0,0 0,0 0,-6 7,2-3,-1 1,0-1,-1-1,0 1,-1-1,0-1,0 1,0-2,-1 1,0-1,0-1,-21 9,13-8,-1 0,0-1,0-1,0 0,-1-2,-36 0,33-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42794">6562 8625,'2'85,"0"-51,-1-1,-1 1,-11 65,11-96,-1 0,0 0,0-1,0 1,0 0,0-1,0 1,-1 0,1-1,-1 0,0 1,0-1,0 0,-4 4,6-6,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1-1,-1 1,1-2,0 1,-1 0,1-1,0 1,0-1,-1 1,1-1,0 0,1 1,-1-1,0 0,0-2,-6-17,2 1,1-1,0-1,2 1,0-1,2 1,0-1,5-34,3 9,1 0,28-81,-24 90,2 0,1 1,22-35,-32 60,2 1,-1 1,1-1,1 1,0 1,0-1,1 1,0 1,1 0,0 1,0 0,0 0,15-5,-23 11,16-7,0 1,1 1,-1 1,41-5,-56 9,0 1,0 0,0 0,0 0,0 0,0 1,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,0 0,0-1,0 1,-1 0,1 1,-1-1,1 0,-1 1,0-1,0 1,-1-1,1 1,1 7,3 14,-3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43552">6298 8598,'9'0,"21"0,23 0,16 0,6 0,-6 0,-10 0,-10 0,-10 0,-6 0,-5 0,-2 0,-1 0,3 9,-2 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44627">7277 7725,'9'0,"7"5,6 1,3 4,3 6,0 8,-5 4,0 3,-6 0,-5 0,0-2,-2 0,-3 3,-2 5,-3 1,-1-1,-1 2,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45413.03">7727 7646,'4'0,"6"0,2 9,-1 8,-4 5,3 8,-1 8,-2 1,-2 4,-2-1,-1 1,-2-2,-4-4,-2-3,-5-7,0-5,2-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46831">7991 8228,'-3'31,"-1"0,-1-1,-1 1,-2-1,-20 51,-5 18,14-32,-4 10,3 0,-17 149,35-217,2 0,-1 0,1 1,1-1,0 0,0 0,0 0,1 0,1 0,0-1,0 1,0-1,1 0,1 1,-1-2,1 1,0 0,1-1,0 0,0-1,1 1,-1-1,1 0,1-1,-1 1,1-2,0 1,0-1,15 6,-16-7,14 6,0-1,1 0,-1-2,2 0,-1-1,29 1,-24-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47769">8176 8704,'0'-5,"1"0,0 0,0 0,0 0,1 0,-1 0,1 0,1 0,-1 1,1-1,-1 1,1 0,1 0,-1 0,0 0,1 0,0 1,0-1,0 1,7-4,-3 2,0 0,0 1,0 0,1 0,0 1,-1 0,1 0,0 1,1 1,13-2,-15 3,-1 1,1 0,0 1,-1-1,1 1,-1 1,0 0,1 0,-1 0,13 9,5 5,35 30,-21-14,1-3,-11-11,-1 2,-1 1,-1 2,-2 0,0 1,22 31,-18-22,-27-32,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,4-1,19-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48439.99">8970 8307,'-4'2,"1"-1,0 1,-1 0,1 0,0 0,0 0,1 1,-1-1,0 1,1-1,-1 1,1 0,-2 4,-8 7,-11 9,-149 168,144-156,2 1,1 1,-35 71,3 0,39-79,1 2,2-1,-19 57,28-61</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49150">9076 7937,'6'8,"0"-1,0 1,0 1,-1-1,-1 1,1-1,-1 1,3 11,19 81,-18-67,8 46,-2 1,2 101,-13 165,-3-270,-5-28,-1-28</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50537">9737 7699,'1'2,"0"-1,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,-1 0,0 0,1-1,-1 1,0 0,0 2,2 6,84 444,-26-104,-37-232,17 71,-36-178,0-12,0-26,-1-40,-3 44,0 0,-2 0,0 0,-2 0,-7-27,9 44,0-1,-1 1,1 0,-2 0,1 0,0 1,-1-1,0 1,0 0,-1 0,0 0,0 0,0 1,0 0,0 0,-1 0,0 1,0 0,0 0,0 0,0 1,-11-3,3 2,-1 0,1 1,-1 1,0 0,0 1,1 0,-1 1,-23 5,32-5,0 1,1-1,-1 1,0 0,1 1,0-1,-1 1,1 0,0 0,1 1,-1 0,0 0,1 0,0 0,0 0,0 1,1 0,0 0,-1 0,2 0,-1 0,0 1,-2 9,0 5,1 1,1 0,1 0,1-1,0 2,2-1,0-1,2 1,0 0,1 0,11 30,-12-45,0-1,1 1,0-1,0 0,0 0,1 0,0-1,0 0,0 1,0-2,0 1,1-1,0 0,0 0,0 0,0-1,9 3,-12-4,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,0 0,0-1,1 1,-1 0,0-1,0 0,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 0,0 1,-1-1,0 0,1 0,-1 0,1-6,4-22,-2 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51542">10055 8519,'4'-4,"11"-6,7-2,9 1,4 4,0 6,-1 4,-7 6,-3 5,-5 6,-2 3,5 7,17 7,11 7,1 0,-3-7,-10-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52289">10690 8281,'-6'2,"1"0,0 1,1-1,-1 1,0 0,1 0,-1 1,1-1,0 1,0 0,-4 5,-6 5,-6 5,0 1,2 1,0 0,2 1,-18 31,-59 126,26-14,25-58,39-102,1 0,-2 0,1 0,-1 0,1 0,-1-1,-1 1,1-1,0 0,-1-1,-9 7,11-8,-48 32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53856.99">3573 10371,'27'-10,"0"0,1 2,0 0,29-2,7-3,81-16,197-13,150 19,-205 12,404-49,-1 0,151 52,191-12,-523-20,615-32,-953 68,930-55,15-37,-711 54,-221 17,-122 19,-11 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55923">11881 7487,'36'879,"20"-308,-50-537,2 0,12 35,6 24,-24-90,0-10,0-29,0-50,-5-7,0 44,2 0,11-95,-7 135,-1 0,1 0,1 1,0-1,0 1,0 0,1 0,0 0,1 1,0-1,0 1,1 1,-1-1,1 1,1 1,-1-1,1 1,0 0,0 1,1 0,-1 0,1 1,0 0,0 0,0 1,0 0,0 1,0 0,1 1,-1-1,0 2,1-1,-1 2,17 3,-22-3,1 0,0 1,-1 0,0 0,1 0,-1 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,-1 1,1-1,0 1,-1 0,0 0,0 0,-1 0,1 0,-1 0,1 7,2 17,-1 0,-1 54,-2-56,-5 144,1-90,12 149,-3-198,1-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57266">12569 8202,'1'-5,"1"0,0 0,0-1,1 1,-1 1,1-1,0 0,0 1,1-1,-1 1,1 0,6-5,0-1,0-2,1 1,0 0,1 1,1 1,-1 0,25-13,-35 20,1 1,-1 0,1-1,-1 1,1 0,0 1,-1-1,1 0,0 1,0-1,-1 1,1 0,0 0,0 0,0 0,-1 1,1-1,0 1,-1 0,1-1,0 1,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 1,-1 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,0 4,5 24,0 1,-3-1,0 1,-2 0,-2 0,-4 35,0 15,5-77,1 12,-2 0,0-1,-1 1,-1 0,-6 21,7-34,0 0,0 1,0-1,0 0,-1 0,0 0,0-1,0 1,0 0,0-1,-1 0,1 0,-1 0,0 0,0-1,0 0,0 1,-1-1,1-1,-1 1,1-1,-1 1,-7 0,9-2,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1-1,1 0,-1 1,1-1,0 0,-1-1,1 1,0-1,-6-3,8 5,1-1,-1 1,0-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 1,0-1,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0-1,1 0,0 0,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 1,1-1,0 1,-1 0,1-1,0 1,2-1,4-2,1 0,0 0,0 1,1 0,-1 1,1 0,-1 1,1 0,14 0,89 5,-82 1,-5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="60095">7832 10239,'83'-3,"103"-19,-102 10,94-1,-164 12,0 2,0 0,0 0,0 1,16 5,-24-5,-1 0,0 0,1 1,-1-1,0 1,-1 1,1-1,0 0,-1 1,0 0,0 0,0 0,0 1,-1-1,5 8,7 16,-1 1,-2 0,-1 1,-1 1,-1-1,-2 2,-1-1,-1 1,-2 0,-2 53,-2-54,-2-1,-1 1,-1-1,-1 0,-2-1,-1 0,-2 0,0-1,-2 0,-1-1,-22 32,4-15,-74 79,91-108,-2 0,0-1,0 0,-1-1,-1-2,0 1,-36 14,53-25,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,0 0,1-1,-1 0,1 1,-1-1,-1-1,2 1,1-1,-1 0,0 1,0-1,1 0,-1 1,1-1,-1 0,1 1,0-1,0 0,-1 0,1 0,1 1,-1-1,0 0,0 0,1-1,4-15,0 1,1 0,11-22,-13 29,-1 2,5-10,0 1,1 0,19-28,-25 41,1-1,-1 1,1 0,0 0,0 1,1-1,-1 1,1 0,0 0,0 1,0-1,0 1,0 0,1 0,-1 1,0-1,11 0,27 0,0 2,-1 2,1 2,-1 1,0 2,41 14,-46-7,-1 2,-1 1,0 2,-2 2,40 30,-18-12,-22-17,78 49,-79-55</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2540 0,'0'4793,"-15"-4421,2 12,-2 16,0 2,16-377</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2031">1 4414,'2'-2,"1"2,0-2,0 0,2 1,-2-1,0 1,0 0,1 0,-1 1,2-1,-2 1,1-1,-1 1,6 1,6-2,245-7,-248 8,281-2,4473 0,-2476 3,4356-1,-6607 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3639.99">4141 2106,'221'-226,"-202"202,1 2,1 0,1 0,1 2,1 0,1 2,1 1,32-16,49-10,3 4,217-49,32-8,-328 88,-1 1,2 2,0 2,-1 0,2 1,-2 2,37 4,15-2,56 5,-1 5,-2 5,0 6,196 57,-249-56,1-2,2-5,1-3,-1-4,108 1,-51-11,0 7,205 32,152 36,-347-59,207-3,406-43,-347-18,-362 38,0-4,-1-1,-2-3,0-2,63-32,164-98,385-274,-624 395,-25 20,-2-2,1 0,24-25,-32 25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4822">5824 1420,'-8'140,"-7"-1,-45 183,23-141,-13 83,-93 552,129-673,7 197,-5-159,-2-3,12-144,3 30,6-41</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6137">10046 1801,'7'1,"-1"0,0 0,0 1,1-1,-1 1,0 0,0 1,1-1,-2 1,0 0,1 0,0 1,-1 0,-1 0,1-1,-1 2,2-1,-3 1,7 8,8 12,-2 0,23 48,-30-55,87 179,102 308,-157-368,-6 2,-7 1,12 184,-34-222,15 429,-21-518,1 10,-1 1,-1 0,-1-1,-2 0,0 1,-1-1,-15 36,-101 173,53-107,41-71</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6846.99">6569 1547,'0'9,"-56"50,-66 46,-60 30,-44 22,-23 7,-14 1,-7-11,17-17,44-33,64-34,66-30,55-19,46-16,20-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7635.99">7756 1978,'-14'8,"2"-1,-1 1,-11 10,-17 11,-1257 877,1020-701,215-165,-1-2,-114 49,-34-15,2 1,187-62,10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8331">8638 2055,'-848'700,"324"-281,387-306,-237 207,301-251,3 3,-108 147,168-206,2 0,-1 2,1-1,-6 17,8-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8930">8970 2055,'0'0,"0"0,1 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 0,1 1,-1-1,0 0,0 1,0-1,1 1,-1-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-5 21,5-21,-13 30,-2-1,-1 0,0-1,-3-1,-40 46,26-32,-439 477,185-221,-466 642,691-853,-64 120,124-203,0-1,0 1,0 0,1 0,-1 0,1 1,0-2,-1 6,3-8,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,1 0,-1 1,0-1,0 1,1-1,-1 0,2 1,-2-1,0 0,1 1,-1-1,1 0,-1 0,1 1,24-1,17-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9498.01">9577 2359,'-1'13,"1"-2,-2 2,1-2,-2 1,0-1,-1 1,-5 12,-6 3,-25 42,33-60,-290 392,-40-16,-67 85,339-387,3 2,-89 173,142-237</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9957">10488 3095,'-3'12,"1"1,0-1,-1 1,-1-1,0 0,-1-1,-1 1,0-1,0 1,0-2,-16 18,3-1,-252 351,-142 220,346-489,-48 79,101-153,16-23,7-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10557">10239 2791,'-9'13,"-9"13,-9 14,-16 15,-17 14,-29 26,-12 10,-12 8,-30 41,1 12,18-17,23-23,23-27,25-27,16-16,10-19,5-10,7-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12026">5107 4922,'0'0,"0"0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,0 0,-2-1,2 1,0 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-2-1,-14 8,-14 18,23-16,0 1,0 0,1 0,0 1,1-1,0 1,0 0,2 0,0 0,0 1,1-1,0 14,1-20,1 0,0 1,0-2,1 1,-1 0,1 0,0 1,0-2,1 1,0 0,0 0,0-1,0 0,1 1,1-1,-1 0,0 1,0-1,0-1,1 0,0 1,1-1,-1 1,0-1,1-1,-1 0,2 1,-1-1,-1 0,7 2,4-1,0 1,-1-2,1 0,-1-1,1-1,0 0,-1 0,1-1,-1-1,1 0,0-1,17-6,-24 6,0 1,-2 0,1-2,1 1,-2-1,0 0,0 0,1 0,-1-1,-1 0,1 0,-1-1,0 1,0-1,-1 0,0 0,0 0,0 0,-1-1,0 0,-1 1,0-1,0-1,1-9,-1 1,-1-1,0-1,-2 1,0 1,-6-32,6 43,-1-1,1 0,-1 2,0-2,-2 1,2-1,-1 2,0-1,0 0,-1 0,1 1,-1 0,-1 0,0 0,1 0,-1 0,1 1,-2 0,1 1,-10-6,5 4,1 1,-1-1,1 2,0 0,-1 0,1 1,-2 0,2 0,-1 1,0 0,0 0,0 1,0 0,1 1,-1 0,1 0,-1 1,1 0,0 1,-1 0,2 1,0-2,-1 3,-13 10,12-8,-1 1,2 0,0 1,-1 0,2 0,1 2,-1-2,1 2,1-1,1 1,-1 0,1 1,1-1,1 1,0-1,1 1,0 21,2-31,0-1,0 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,-1 1,1-2,0 1,-1 1,2-1,-1 0,0 0,3 1,4 1,0-1,-1 0,1-1,0 1,10-1,25 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12783.02">5465 4643,'-1'5,"0"1,0 0,-1 0,0-2,0 2,0-1,-5 8,-8 22,4 21,2 0,3 1,4-1,5 74,-2-54,-1-67,0 0,1 0,0 0,0 1,1-2,1 2,-1-2,2 1,0 0,6 11,-6-15,-1-1,2 0,-1 1,0-1,1 0,-1 0,2-2,-1 2,0-1,0 0,0 0,1-1,0 1,-1-1,1 0,1-2,9 3,28 2,-1-2,1-2,45-4,-18 0,-16 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13682">10377 4643,'4'0,"2"8,1 12,-2 16,-2 10,-1 23,-1 9,0-2,-1 1,0-5,-1-5,1-6,0-10,0-7,0-9,0-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15111">10818 5201,'-27'0,"12"-1,1 1,-1 0,1 0,-1 1,0 1,1 1,0-1,0 2,0 0,-1 1,-23 11,2 4,2 1,-56 46,78-57,0 1,1 0,-1 2,2-2,1 3,-1-1,2 1,1-1,-11 26,9-18,2 1,2 0,0 1,1-1,1 1,1 0,2-1,5 43,-4-60,0-1,1 1,0 0,0 0,0 0,1-1,0 1,0-1,0 1,1-1,-1 0,1-1,0 1,0-1,0 1,1-1,0 0,-1 0,1-1,0 0,1 0,-1 0,0 0,0 0,10 1,11 2,1-2,0-1,-1-1,31-1,-30-1,39 2,-13 0,-2-1,1-3,64-10,-111 11,-1 1,1-1,-1 1,1-1,-1 0,0 0,0-1,0 1,0-1,1 0,-2-1,0 1,1 0,-1 0,-1-1,1 0,1 0,-2 0,0 0,0 1,0-2,0 1,-1-1,0 1,0 0,1-6,1-14,-1 0,-1 0,-5-45,2 25,3-10,0 35,0 0,-1 0,-7-39,6 55,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,0 1,0-1,0 0,-1 0,1 1,-1-1,1 1,-1 0,1 0,-5-1,-16-4,1 3,-27-4,34 5,-65-8,-1 5,1 2,-109 8,186-4,0-1,0 1,1 0,-1 0,1 1,-1-1,1 1,-1-1,1 1,0 0,0 1,0-1,0 0,1 0,-1 0,0 1,1 0,-4 5,-2 5,-1 1,3-1,-7 18,-7 11,4-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18849">5907 1369,'0'-3,"0"-7,-6-1,-5 0,-1 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20565">6210 431,'-28'0,"1"1,-1 0,-46 10,66-10,2 1,0-1,0 2,-1-1,1 1,0-1,-1 1,1 0,1 1,0 0,0 0,-1 0,1 0,0 1,1 0,0 0,-1-1,2 2,-1-1,-3 10,6-12,0 1,0-1,1 1,-1-1,1 1,0-2,0 2,0-1,1 1,-1-1,1 0,0 1,-1-2,2 1,-1 1,0-1,1 0,-1 0,1 0,0 0,0-1,0 1,2-1,-2 1,1-1,3 3,4 6,-10-10,0-1,0 1,0-1,1 0,-1 1,0-1,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,0 0,-37 5,22-4,8 0,2 1,-1 1,-1 0,2-1,0 2,0-1,-1 1,1-1,1 1,-1 1,1 0,-1 0,1-1,-7 12,8-12,2-1,0 0,0 1,0 0,0 0,1 0,0 0,0 0,0 0,0 0,1 1,-1-1,1-1,0 2,0-1,1 0,-1 1,1-1,0-1,0 1,1 0,-1 1,1-1,0-1,3 6,0-4,0-1,-1 1,1-2,0 1,1 0,-1-1,0 1,1-1,0 0,0-2,0 2,0-1,1 0,-1-1,0 0,0 1,1-2,0 1,8-1,10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21897">6044 862,'4'0,"3"5,-1 6,-6 8,-3 7,0 2,4-3,6-6,13-10,2-12,-2-8,-6-8,-4-4,-4-4,-3 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23164">6458 609,'0'0,"0"-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,-1 1,1 0,0-1,0 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1 1,1-1,-2 0,1 1,-27 16,23-12,0 0,0 1,0 1,1-2,0 1,0 1,1 0,-6 13,6-12,-1 0,0 1,0-1,-1 0,-10 11,12-16,-9 10,1 0,0 0,1 1,1 0,-9 17,17-27,-1-1,1-1,0 2,0-1,0 0,1 1,-1-1,1 1,0-2,0 2,0 0,0-1,1 1,-1-1,1 1,0-2,0 1,0 1,1-1,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,1-1,0 1,0-1,-1 1,6 2,13 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23688.99">6486 888,'5'5,"1"13,0 14,-2 4,-1 5,0 1,3-3,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24844">6928 558,'-38'0,"27"-2,-1 1,0 1,0 0,1 1,-2 0,2 0,-1 1,1 1,-1 0,2 0,-17 7,26-9,-1 0,1 1,-1-1,0 1,1-1,0 1,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1-1,1 1,0 0,0 0,1 1,0 1,0 0,-1-2,0 2,0 0,-1 0,1 0,-1 0,0-1,0 5,-11 32,8-32,0 1,1-2,0 1,1 1,0-1,0 0,1 1,2 15,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25778.99">6872 736,'4'0,"0"0,-1 1,1-1,0 0,-1 0,1 1,0 0,0 0,-1 0,0 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,-1-1,5 5,-4-2,1 0,-1 0,0-1,-1 1,0 1,0-1,-1 1,1-2,-1 2,0 0,0 8,-1-3,0-2,-1 1,0 0,0-1,-1 1,0-1,-1 1,0-1,-1 0,-1 1,1-2,-1 1,0 0,-8 7,-1-5,-8 8,22-18,0-1,0 1,0-1,0 1,-1-1,1 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 1,2-1,66 18,-30-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26141">7507 1065,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26507">8031 1065</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26867.99">8086 1090,'5'0,"6"0,6 0,14 0,11 0,17 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26868.99">8528 1090,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27215">8915 1090,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27561.03">9549 1116,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28751">10322 609,'-13'1,"1"0,-1 0,1 2,-1-1,2 1,-2 0,2 1,-1 0,1 1,-16 9,20-11,2 1,0-1,0 1,-1-1,2 1,-1 1,1-1,0 1,0 0,0-1,0 1,1 1,0-1,1 0,-1 1,1 0,0 0,1-1,-2 1,2 0,0 8,2 4,-1-15,0 1,0-1,0 1,0 0,0-1,-1 1,1-1,-1 1,-1 3,1-6,0 1,-1 0,1-1,0 1,-1-1,1 0,-1-1,1 2,-1-1,0 0,1 0,-2 0,1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,-4 0,-44 5,33-4,-1 0,0 1,1 1,-1-1,1 3,-1 0,2 0,0 2,-1-1,-28 17,37-18,2 1,0 0,-1-1,1 1,1 1,-1-1,2 0,-2 1,-5 13,10-18,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 1,1-1,-1 1,0-1,1 0,-1 0,1 0,-1 0,1 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,0 1,1-1,-1 1,0-1,0 0,0 0,4 2,11 2,0-1,0-1,0-1,1 0,-1 0,1-2,-1 0,28-3,-12 1,-1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29720">10156 1065,'0'95,"-1"-110,2 0,0 0,7-28,-8 40,0 1,1 0,0-1,-1 1,1-1,0 1,0 0,0-1,2 1,-2 0,0 0,1-1,0 2,-1-1,1 1,0-1,0 0,0 0,0 1,0-1,1 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,1 1,3 0,-6 0,1 1,0-1,0 1,-1 0,1-1,-1 1,1 0,1 0,-2 0,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 0,0 1,0 0,-1-1,1 0,0 0,0 1,-1 0,1 0,-1-1,0 3,7 49,-7-50,1 20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35960.01">5934 7587,'7'-10,"-1"1,1-2,-1 1,-1-2,0 1,-1 0,-1-1,1 1,1-15,4-10,28-69,-21 58,0-1,16-96,-32 140,1 2,-1-1,0 0,-1 0,1-1,-1 1,1 0,-1 0,0 1,0-1,0 0,0 0,-1 0,1 0,-1 1,0-1,0 1,0 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 1,-1 0,1 0,0 0,0 0,0 1,0-1,-3 0,-16-2,0 1,0 0,0 2,-27 2,21-1,11 0,1 1,0 0,0 1,0-1,1 3,0-1,0 2,0 0,0 0,1 1,0 1,1 0,-1 1,2 0,-18 15,20-14,1 1,-1-1,2 1,-1 0,1 1,1-1,1 1,-1 0,2 1,0 0,1 0,1 0,-1-1,2 2,0-1,1 1,1 15,6 532,2 28,16-360,5 130,-29-322,1-14,-1 0,0 0,-2 0,-1 0,-9 30,10-49,0 2,0-1,0 0,0-1,-1 1,0 0,0-1,-1 1,0-1,1-1,-1 1,0 0,-1 0,0-1,1 0,-1-1,0 1,0 0,-1-1,1 1,0-1,0-1,-2 1,2-1,0 0,-1 0,-1 0,-6-1,-13 0,0-2,1 0,-1-2,1-1,-1 0,1-1,1-2,-2-1,4 0,-2-1,1-1,1-2,0 0,1-1,0-1,-22-21,38 31,1 0,0 0,0-1,0 1,0-1,1 0,1 0,-1 1,1-2,0 1,0-1,1 1,-1-12,-1-9,5-55,0 53,-2 12,1-2,0 0,6-30,0 25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38743">5934 9439,'-3'1,"0"-1,1 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 1,0-1,1 1,-2-1,2 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0 3,-20 58,18-49,-4 15,-7 51,13-68,1 0,-1 1,2 0,0-1,0 0,7 23,-6-32,0 0,0 1,-1-1,1 0,1 1,-1-1,0-1,1 1,0 0,-1-1,2 1,-1-1,0 1,1-1,-1 0,0 0,1-2,0 2,0-1,0 1,-1-1,1 0,0-1,1 1,-2-1,1 1,0-1,0 0,0-1,1 1,5-2,-3 1,1 0,-2-1,1 1,-1 0,2-2,-2 1,0-1,0 0,1-1,-1 1,-1-1,0 1,2-2,-2 1,-1-1,1 0,6-7,-6 1,0 1,-1-2,0 2,0-2,-2 2,1-2,-2 1,0-1,0-12,-10-107,6 112,3 14,-1 1,0-1,0 1,0 0,0 0,-1-1,0 1,0 0,0 0,0 1,0-1,-1 0,-1 0,1 0,0 1,0 0,-1 1,1-1,-1 0,-1 0,1 1,0-1,0 1,0 0,0 0,-2 1,2 0,-1 0,1 0,-1 0,0 1,0-1,-8 1,2 0,1 0,-1 1,1 0,1 1,-2-1,2 2,-2-1,2 2,0-1,-1 1,1 1,0-1,0 1,1 1,-11 7,18-12,-1 1,1-1,-1 0,1 0,0 1,0-1,-1 0,1 1,0 0,0-1,0 1,0-1,1 1,-1-1,0 1,1-1,0 1,-1 0,1 0,0-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,-1 1,1-1,1 3,9 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39657">6182 9414,'-2'75,"4"131,-1-200,-1 0,1 0,1 0,-1-1,1 2,0-1,0-1,2 1,4 9,-5-12,-1 0,0-1,1 0,-1 0,2 1,-1-1,0 0,0 0,0 0,0-1,1 1,-1-1,1 1,0-1,-1 0,1-1,-1 1,6-1,18 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41288">6596 6495,'0'561,"-3"-632,1 41,1 0,1 0,2 1,6-36,-7 63,1-2,-1 1,0 0,1 0,0 0,0 0,0 0,0 2,0-2,1 0,-1 1,0 0,1-1,0 1,1 0,-2 0,1 1,0-1,0 0,1 2,-1-1,0 0,1 0,0 0,-1 0,4 1,13-3,-1 2,1 0,33 4,-22-1,-15-1,-1 1,0 0,1 1,-2 0,1 2,-1 0,1 0,0 1,-2 0,1 2,18 12,-27-17,-1 0,1 0,-1 0,0 1,0 0,-1 0,1 0,0 0,-1 0,0 0,-1 1,1 0,-1 0,0-1,0 1,-1 0,0 0,0 1,0-2,1 1,-2 1,0-1,0-1,0 2,-2-1,1 0,0 1,0-2,0 1,-1 0,0 0,0 0,0-1,-6 8,1-4,0 2,0-1,-2-2,1 2,-1-1,-1-2,1 2,0-2,-2 0,1 0,-1-1,-21 8,13-7,-1 0,0-1,1-1,-1-1,-1-1,-37 0,34-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42794">6844 8272,'2'81,"0"-48,-1-2,-1 2,-11 62,11-92,-1 0,0 0,0-2,0 2,0 0,0-1,0 1,-1 0,1-1,-2 0,1 1,0-1,0-1,-4 5,6-6,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-2 0,1-1,1 1,-1 0,1 0,-1-1,-1 1,1-2,0 1,-1 0,1-1,0 1,0 0,-1 0,1-1,0 0,1 1,-1-1,0 0,0-2,-7-16,3 1,1-1,0-1,2 0,0 0,2 1,0-1,5-33,3 9,2 0,28-78,-24 87,1 0,2 0,23-33,-34 58,2 0,0 1,0 0,1 0,1 2,-1-2,2 1,-1 2,1-1,1 1,-1 1,1-1,15-5,-24 11,17-6,0 0,1 1,-2 2,44-6,-59 9,0 1,1 0,-1 0,0 0,0 0,0 1,0 0,1 0,-1 0,0 0,0 1,-1-1,1 1,-1-1,2 1,-2 0,1 0,-1 1,0 0,0-1,0 1,0 0,0 1,-1-2,1 1,-1 1,0-1,0 1,-1-1,1 1,1 6,4 14,-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43552">6569 8246,'9'0,"23"0,23 0,17 0,6 0,-6 0,-10 0,-11 0,-11 0,-5 0,-6 0,-2 0,-1 0,3 8,-2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44627">7590 7408,'9'0,"8"5,6 1,3 4,3 5,1 8,-7 4,1 3,-6-1,-5 1,-1-2,-1 0,-4 2,-2 6,-3 0,-1 0,-1 1,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45413.03">8059 7333,'5'0,"5"0,2 8,0 9,-5 4,4 7,-2 9,-2 0,-1 5,-3-2,-1 1,-2-2,-4-3,-3-3,-4-8,-1-3,3-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46831">8335 7891,'-3'30,"-2"-1,0 0,-1 1,-2-1,-22 48,-4 18,14-31,-4 10,3 0,-17 143,36-208,2-1,-1 1,1 0,1 0,0 0,0-1,0 1,1 0,1-1,0 0,0 0,0 0,2 0,0 0,-1-1,1 1,0-1,2 0,-1 0,0-1,1 0,0 0,0 0,1-1,0 0,0-1,0 1,1-1,15 6,-17-8,15 7,0-1,1-1,-1-1,2 0,-1-1,30 0,-25-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47769">8528 8347,'0'-4,"1"-1,0 0,0 0,0 0,1 1,-1-1,1 0,1 0,-1 1,1 0,-1 0,2 0,0 0,-1 0,0 0,1 1,0 0,1-1,-1 1,7-4,-2 2,-1 1,0 0,1 0,0 0,0 1,0 0,0 1,0 0,2 1,13-2,-16 3,0 1,0 0,0 1,0-1,0 0,-1 2,0 0,2 0,-2 0,14 8,5 6,37 28,-23-13,2-4,-12-10,-1 3,0 0,-2 2,-2 0,0 1,23 29,-19-20,-28-31,1-1,-1 0,1 0,0 0,-1 0,1 0,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,5-1,19-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48439.99">9356 7967,'-4'2,"1"-2,-1 2,0 0,1 0,0 0,0 0,1 1,-1-1,-1 1,2-1,-1 1,1-1,-2 5,-8 7,-12 8,-156 161,151-150,2 2,1 0,-37 69,4 0,40-77,1 3,3-1,-21 54,30-58</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49150">9466 7612,'7'7,"-1"0,0 1,0 0,0 0,-2 1,1-2,-1 2,3 10,21 78,-20-64,9 43,-3 2,3 97,-14 157,-3-258,-5-27,-1-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50537">10156 7384,'1'1,"0"0,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,-1 0,0-1,1 0,-1 1,0 0,0 2,3 6,86 425,-26-99,-39-223,18 68,-38-170,0-12,0-25,-1-38,-3 42,0 0,-2-1,0 1,-2 0,-8-26,10 43,0-2,-1 1,1 0,-2 1,1-1,0 1,-2-1,1 2,0-1,-1 0,0 0,-1 0,1 2,0-1,0 0,-2 0,1 1,0 0,0 0,-1 1,1 0,-12-3,4 2,-2 0,2 1,-2 1,0 0,1 1,0 0,-1 1,-23 5,33-5,-1 1,2-1,-1 1,0 0,0 0,1 0,-1 1,1 0,-1 0,2 1,-1 0,0 0,1-1,-1 1,1 0,0 1,1 0,0-1,-1 1,2 0,-2 0,1 1,-2 8,0 5,1 1,1 0,1 1,1-2,-1 2,4-1,-1-1,2 1,0 0,1 1,12 27,-13-42,0-1,1 1,0-1,0-1,1 1,0 0,0-1,0 0,0 0,1-1,-1 1,1-1,0 0,1 0,-1 0,0-1,10 2,-13-3,0 0,0-1,0 1,1-1,0 1,-1-1,0 0,0 0,0-1,1 1,-1 0,1-1,-1 0,0 0,0 0,0 0,0 1,0-2,-1 1,2-1,-1 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-2-1,0 0,1 0,-1 0,1-5,4-22,-2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51542">10488 8170,'4'-4,"11"-6,8-1,10 0,3 5,1 5,-2 4,-7 5,-3 6,-5 5,-2 3,5 7,17 6,13 7,0 1,-3-8,-11-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52289">11150 7942,'-6'2,"0"0,1 0,1 0,-1 1,0 0,0 0,0 1,1-1,0 0,0 1,-5 5,-5 4,-7 6,0 0,2 1,0 0,3 1,-20 30,-61 121,27-14,27-55,39-99,2 1,-2 0,1 0,-1-1,1 1,-1-1,-2 1,2-1,0 0,-1-2,-10 8,12-8,-50 31</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53856.99">3727 9946,'28'-10,"0"1,1 1,0 1,31-3,7-3,84-14,206-14,156 19,-214 12,422-48,-2 1,159 49,198-11,-545-20,641-30,-993 66,969-54,16-35,-742 52,-230 16,-127 18,-12 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55923">12392 7180,'38'843,"20"-295,-52-516,3 1,11 33,8 23,-26-86,0-9,0-29,0-47,-5-8,0 43,2 0,11-91,-7 130,-1-1,1 0,2 2,-1-2,0 1,0 1,1-1,1 0,0 2,0-2,0 1,2 2,-2-2,1 1,2 1,-2 0,1 0,0 0,1 1,0 0,0 0,0 2,0-1,1 0,-1 1,1 0,-1 1,0 0,2 1,-2-1,0 2,2-1,-2 2,18 3,-22-3,0 0,0 0,-1 1,0 0,2 0,-2 1,0-1,-1 1,1-1,-1 1,2 0,-2 0,-1 1,1-1,0 0,-1 1,0 0,0 0,-1 0,1-1,-1 1,2 7,1 15,-1 1,-1 52,-2-54,-5 138,1-87,12 144,-3-190,1-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57266">13110 7866,'1'-5,"1"0,0 1,0-2,1 1,-1 1,1-1,0 1,1 0,0-1,-1 1,1 0,6-4,1-2,-1-1,2 0,-1 0,2 2,0 0,0 1,25-14,-35 21,0 0,-1 0,1-1,-1 1,1 0,0 1,-1-1,1 0,1 1,-1-1,-1 1,1 0,0 0,0 0,0 0,-1 1,2-1,-1 1,-1 0,1-1,0 1,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 1,-1 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,0 0,1 1,-1-1,0 1,0 0,0 4,5 22,0 2,-3-1,0 0,-1 1,-4 0,-3 33,0 15,5-74,1 11,-2 0,0-1,-1 2,-1-1,-7 21,8-34,0 1,0 1,0-1,0 0,-1 0,0-1,0 0,-1 1,1 0,0-1,-1 0,1 0,-1-1,0 1,-1-1,1 0,0 1,-1-1,1-1,-2 1,2-1,-1 1,-7 0,8-2,0 1,1-1,-1 0,1 0,-1 0,0 0,0-1,1 0,-1 1,1-1,0 0,-1-1,0 1,1-1,-6-3,8 5,1-1,-1 1,0-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 1,0-1,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0-1,1 0,0 0,0 0,0 0,0 1,0-1,0 0,1 2,-1-2,0 1,1-1,0 1,-1 0,1-1,0 1,3-1,3-2,1 0,1 0,-1 2,2-1,-2 1,1 0,0 1,0 0,15 0,93 5,-86 1,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="60095">8169 9819,'86'-2,"108"-20,-106 11,98-2,-172 13,1 0,0 1,-1 0,1 1,16 5,-25-5,-1 0,1 0,0 1,-1-1,0 0,0 2,0-1,0 0,-1 1,0 0,1 0,-1-1,0 2,-1-1,5 8,8 14,-1 2,-3 0,0 1,-2 1,-1-2,-1 3,-2-1,-1 0,-2 1,-2 51,-2-53,-2 0,-1 1,-1-1,-1-1,-3 0,0 0,-3 0,1-1,-3 0,0-2,-24 32,5-15,-78 76,96-103,-3-1,0-1,0 1,0-2,-2-1,0 0,-37 14,54-24,2-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,1-1,-1 1,0 0,1-1,-1 0,1 1,-1-1,-1-1,2 1,1-1,-1 0,0 2,0-2,1 0,-1 1,1-1,-1 0,1 1,0-1,0 0,-1 0,1 0,1 1,-1-1,0 0,0 1,1-2,4-15,0 2,1 0,12-22,-14 29,-1 1,6-9,-1 1,1-1,21-26,-27 39,1-1,-1 2,1-1,0 0,1 1,0-1,-1 1,1 0,0 1,1 0,-1-1,0 1,0 0,1 0,0 1,-1-1,12 0,27 0,1 2,-1 2,1 2,-1 1,0 2,42 13,-47-7,-2 3,0 0,-1 2,-1 2,41 29,-19-11,-22-17,80 47,-81-53</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23014,8 +23213,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2197 56,'0'1086,"-5"-986,-18 104,-5 98,3 19,-1-24,25-223,-18 304,15-345</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1550.99">1 30,'0'-1,"0"0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,2 0,32-6,433 0,-268 9,1195-3,-1372 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2282 54,'0'1046,"-5"-950,-19 101,-5 94,3 18,-1-23,26-215,-19 293,16-332</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1550.99">1 29,'0'-1,"0"0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,-1 1,2 0,-1 0,0 0,0-1,0 1,2 0,33-6,450 0,-278 9,1241-3,-1425 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23042,7 +23241,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 29,'1274'0,"-1239"-1,50-10,9 0,-93 11,91-5,128 8,-217-2,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 1,0 0,0-1,0 1,0-1,0 1,-1 0,1 0,-1 4,2 12,0 0,-2 0,-2 25,1-24,-5 901,9-506,-3 820,0-1211</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 28,'1333'0,"-1296"-1,51-10,11 1,-98 10,95-5,134 8,-227-2,0-1,0 1,0 0,-1 0,1 0,-1 0,1 1,-1-1,2 0,-2 0,0 1,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,-1 0,1 0,-1 4,2 11,0 0,-2 0,-2 25,1-24,-5 867,9-486,-3 788,0-1165</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23100,8 +23299,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'1'5,"1"-1,0 1,1-1,-1 0,1 0,0 0,0 0,0-1,6 6,-3-3,7 8,1 0,0-1,1-1,1-1,24 15,89 36,-32-16,-43-22,1-2,72 18,-99-32,109 26,193 22,-180-34,-18 0,509 57,-623-78,11 0,1 0,51-7,-72 5,0-1,1-1,-1 1,0-2,0 1,-1-1,1 0,-1-1,0 0,0-1,0 1,9-11,-5 4,-1-2,-1 1,0-1,-1-1,-1 0,0 0,-1-1,-1 0,9-31,-14 45,48-148,-37 120</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1723.98">2488 159,'10'1,"1"0,0 0,-1 1,1 0,-1 1,1 0,-1 1,0 0,-1 0,1 1,14 10,5 7,0 1,28 29,-37-31,1-2,1 0,1-2,25 15,164 72,4-9,376 110,-581-202,118 29,-117-29,0-2,0 1,0-2,1 1,-1-2,0 0,0 0,18-5,-25 4,1-1,-1 0,0 0,0 0,-1-1,1 1,-1-1,1-1,-1 1,-1 0,1-1,-1 0,1 0,-1 0,4-9,5-13,16-51,-22 57,0 5,1-3,-1-1,-1 1,-1-1,4-33,-8 44,2 1,-1-1,1 0,0 1,1 0,0-1,5-8,3-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'1'5,"1"-1,0 0,1 0,-1 0,2 0,-1-1,0 1,0-1,6 6,-3-4,8 9,1-1,-1-1,2 0,0-2,26 15,92 34,-33-16,-45-20,1-2,75 17,-103-30,113 24,201 21,-187-32,-19 0,529 54,-647-74,11 0,1 0,54-7,-76 5,0-1,2-1,-2 2,0-3,1 1,-2-1,1 0,0 0,-1-1,0-1,1 1,8-10,-4 4,-2-3,0 2,-1-1,-1-1,0-1,-1 1,-1-1,-1 0,10-30,-15 43,50-140,-39 113</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1723.98">2585 151,'11'1,"0"0,1 0,-2 1,1 0,0 1,0-1,0 2,-1 0,-1 0,2 1,14 9,5 7,0 0,29 29,-38-30,1-2,1 0,0-2,27 14,171 69,3-9,391 105,-603-192,122 27,-122-27,1-2,-1 1,1-2,0 1,0-2,-1 0,1 0,18-4,-26 3,1-1,-1 0,1 0,-1 0,-1-1,1 2,-1-2,1-1,0 1,-2 0,1 0,-1-1,1 0,-1 0,5-8,4-13,17-48,-23 54,1 5,0-3,-1-1,-1 1,-1-1,5-31,-9 41,2 2,-1-2,1 1,0 0,1 0,0 0,6-8,2-6</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23157,7 +23356,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="390.99">134 27,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="390.98">218 27,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23184,11 +23383,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1061 502,'4'0,"6"0,2 5,-2 6,-2 5,1 0,1 7,-3 3,-2 2,-2 1,-1 0,-2-1,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="889">1034 635,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,0 0,1 0,0 0,3 0,2 0,0 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1871">1457 555,'0'-4,"4"-2,11 1,3-5,3 1,-3-3,5-4,-1-4,-5 6,-5 14,-4 12,-4 9,-7 9,-3 4,-1 6,-3 4,-5 0,1-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3057">1775 185,'0'0,"0"-1,0 0,0 1,1-1,-1 0,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1 0,1-1,-1 1,1-1,0 1,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,1-1,28 7,-21-3,0 1,0-1,-1 2,0-1,0 1,0 0,-1 1,0 0,0 0,-1 0,0 1,0 0,0 0,-1 1,6 14,2 9,-1 1,-2 1,7 36,-2-6,-5-18,-2-1,-2 1,1 48,-9 142,-1-88,4-64,-3 87,0-159,0-1,-1 0,0-1,0 1,-1 0,-1-1,1 0,-2 0,0 0,-11 15,-10 7,-49 46,7-6,49-48</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4718.03">108 0,'-1'1,"0"-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,-1 2,-4 30,5-29,-6 114,4-64,-1 0,-14 65,-1-39,3 1,4 0,0 123,12-21,-1-160</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1105 484,'4'0,"7"0,1 5,-1 5,-3 6,1-1,2 7,-4 3,-2 2,-2 1,-1 0,-2-1,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="889">1077 612,'4'0,"8"0,4 0,6 0,3 0,2 0,1 0,0 0,2 0,-1 0,3 0,2 0,1 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1871">1518 535,'0'-4,"4"-2,11 1,4-4,3 0,-3-2,5-5,-1-3,-6 5,-4 14,-5 12,-4 8,-7 9,-3 4,-1 5,-4 5,-4-1,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3057">1849 178,'0'0,"0"-1,0 0,0 1,1-1,-1 0,0 1,1-1,-1 1,1 0,-1 0,1-1,-1 0,1 1,-1 0,1-1,-1 1,1-1,0 1,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,1 0,-2 0,1 1,1-1,29 6,-22-2,1 1,-1-1,-1 2,1-1,-1 0,0 1,0 1,-1 0,0-1,-1 1,1 1,-1 0,0-1,-1 2,7 13,1 9,0 1,-3 1,8 34,-2-5,-6-18,-2-1,-1 2,0 45,-9 138,-1-86,4-61,-3 84,0-153,0-2,-2 1,1-1,0 0,-1 1,-1-2,1 1,-3 0,1-1,-12 15,-10 7,-51 45,7-7,51-46</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4718.03">112 0,'-1'1,"0"-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1-1,0 1,-1 0,1 0,0 0,-1 2,-5 29,6-28,-6 110,4-62,-1 0,-15 62,0-36,2 0,4 0,1 118,12-19,-1-155</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23299,9 +23498,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3784 0,'19'1,"0"1,0 1,0 0,0 2,0 0,-1 1,1 1,-2 0,1 2,-1 0,31 22,7 11,-2 2,48 52,-28-25,-66-64,0 1,0 0,-1 1,0-1,-1 1,0 0,0 1,-1-1,5 17,1 9,7 50,-15-68,7 56,-3 0,-4 0,-7 79,3-127,-2 0,-1 0,-1-1,-1 1,-1-2,-1 1,-1-1,-20 33,-16 17,-61 75,86-119,-49 51,60-67</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1308.88">1 1509,'166'0,"1009"27,-699 9,619 33,-106-66,-503-6,184 3,-637 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="444145.52">2329 2037,'0'-2,"1"-1,-1 1,1 0,0-1,0 1,0 0,1-1,-1 1,0 0,1 0,0 0,-1 0,1 0,0 0,0 1,2-2,41-30,-31 24,12-12,-15 12,0 0,0 1,1 0,0 1,23-10,-32 16,-1 1,1-1,-1 0,1 1,-1 0,1-1,0 1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 0,1 1,-1-1,0 1,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 1,-1-1,2 4,6 14,-2 0,0 0,-1 0,-1 1,1 26,-3 106,0-12,1-110,3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3973 0,'20'1,"0"1,0 1,0 0,-1 2,1-1,-1 2,1 1,-2 0,1 1,-1 1,32 21,8 10,-2 3,50 50,-30-25,-68-61,-1 1,0-1,0 2,-1-1,-1 0,0 1,1 1,-2-2,5 17,2 9,7 48,-16-65,7 53,-2 1,-5-1,-8 77,4-123,-2 0,-1 0,-1-1,-2 1,0-2,-2 2,0-2,-22 32,-16 16,-64 73,90-115,-52 49,64-64</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1308.87">1 1456,'174'0,"1060"26,-734 9,649 31,-110-63,-529-6,193 3,-668 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14648.79">2445 1966,'0'-2,"1"-1,-1 1,1 0,0-1,0 1,0 0,1-1,0 1,-1 0,1 0,0 1,-1-1,1 0,0 0,0 1,2-2,44-29,-34 23,14-11,-17 11,1 1,-1 0,2 0,-1 2,25-11,-34 16,-1 1,2-1,-2 0,1 1,-1 0,1-1,0 1,-1 0,1 1,0-1,0 0,-1 1,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,0 0,1 1,-1-1,0 1,0-1,0 1,-1 0,1 0,1-1,-2 1,1 0,-1 0,0 1,1-1,-1 0,0 1,-1-1,2 4,7 13,-3 0,0 0,-1 1,0 0,0 25,-3 103,0-12,1-106,3-3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23444,7 +23643,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">106 397,'-4'1,"1"0,0 0,0 0,0 0,0 1,0-1,0 1,1 0,-1-1,0 1,1 0,-1 1,1-1,0 0,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 4,-4 11,0 0,1 0,-1 24,3-21,1-1,0 0,2 1,0-1,4 21,-3-33,1-1,-1 1,1 0,0-1,1 1,0-1,0 0,0 0,1-1,0 1,1-1,-1 0,1-1,0 1,9 5,-8-6,0-1,0 1,1-2,-1 1,1-1,0 0,0-1,0 0,16 3,-21-5,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,0 0,1 0,-1 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,0 0,0-1,0 1,-1-1,1-3,3-15,-2-1,0 1,-2-1,0 1,-2-1,0 1,-1 0,-10-33,12 49,-1 1,0 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 1,-1 0,1 0,-7-5,-51-23,51 28,0-1,1-1,0 0,0 0,0-1,-13-11,17 12,-1 0,1 1,-1-1,1 1,-1 0,-1 0,-8-3,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="913.96">900 0,'-4'1,"1"-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,1 1,-4 2,-37 47,31-35,-4 1,2 1,0 1,1 1,1 0,1 0,1 1,0 0,2 1,1 0,1 0,-6 43,7-30,-13 50,10-51,-6 50,9-46,2 0,2 0,1 0,2 0,10 54,-8-83,1 1,0-1,0 0,1-1,0 1,1-1,0-1,0 1,1-1,0 0,1-1,-1 0,1 0,1-1,-1 0,1-1,17 8,-5-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="913.95">900 0,'-4'1,"1"-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,1 1,-4 2,-37 47,31-35,-4 1,2 1,0 1,1 1,1 0,1 0,1 1,0 0,2 1,1 0,1 0,-6 43,7-30,-13 50,10-51,-6 50,9-46,2 0,2 0,1 0,2 0,10 54,-8-83,1 1,0-1,0 0,1-1,0 1,1-1,0-1,0 1,1-1,0 0,1-1,-1 0,1 0,1-1,-1 0,1-1,17 8,-5-6</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2270.98">1032 212,'8'67,"0"-21,-2 135,4 47,-10-227,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,1 1,-1-2,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,0-1,29-68,-25 57,-1 5,0 0,1 0,-1 0,2 1,-1-1,1 2,0-1,0 0,1 1,-1 0,2 1,-1-1,10-4,-13 8,0 0,0 0,0 1,0-1,0 1,1 0,-1 0,0 1,1-1,-1 1,0 0,1 0,-1 1,0-1,1 1,-1 0,0 0,0 0,1 1,-1-1,0 1,-1 0,1 0,0 1,0-1,-1 1,1-1,-1 1,4 4,-3-1,0-1,0 1,0-1,-1 1,0 0,0 0,0 1,-1-1,0 1,0-1,-1 1,1-1,-1 9,1 11,-4 53,2-65,-2 10</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3207.96">1429 0,'3'1,"0"0,1 0,-1 0,0 0,0 0,0 1,0 0,0-1,0 1,0 0,0 0,-1 1,1-1,-1 0,0 1,0 0,0-1,0 1,3 5,29 60,3 34,36 167,-28-90,-29-116,-3 1,-3 1,-3 0,-3 0,-2 0,-10 83,7-133,-2 0,0 0,-1 0,0-1,-12 26,7-20</inkml:trace>
 </inkml:ink>
@@ -23625,14 +23824,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">272 159,'-12'1,"0"-1,0 2,1-1,-1 2,1-1,-1 2,1-1,0 2,0-1,1 2,-1-1,1 1,0 1,1 0,0 0,0 1,0 0,1 0,0 1,1 0,0 1,0 0,1 0,0 0,1 1,0-1,1 1,0 1,1-1,0 0,1 1,0-1,0 22,1-7,2-1,1 1,1 0,1-1,1 0,10 28,-11-43,0-1,1 0,-1 0,2 0,-1 0,1-1,1 0,-1 0,1-1,1 1,-1-2,1 1,0-1,1 0,0-1,0 0,0 0,11 3,-17-6,1 0,0-1,0 0,0 0,0 0,0 0,0 0,0-1,1 0,-1 0,0 0,0 0,0-1,0 0,0 0,8-2,-7 0,-1 0,0 0,0 0,0-1,0 1,0-1,-1 0,0 0,0 0,0-1,0 1,-1-1,3-6,59-145,-20 42,-37 97,-1 1,-1-2,5-33,-8 42,-1 1,0-1,-1 0,0 0,-1 0,0 1,0-1,-1 0,-4-15,4 21,0-1,0 1,0 0,0 0,0 1,-1-1,1 0,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,-4-1,-56-16,28 10,17 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="603">722 794,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1743.02">1277 291,'-4'1,"0"0,0-1,0 1,1 0,-1 1,0-1,1 1,-1 0,1 0,0 0,0 0,-4 3,-39 37,26-23,0 2,0 2,1 0,2 1,0 0,2 2,0 0,-18 46,32-69,0-1,0 1,-1-1,2 1,-1-1,0 1,0 0,1-1,0 1,-1 0,1 0,0 0,0-1,0 1,1 0,-1 0,1-1,1 5,0-5,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 0,1 0,3 1,58 2,100-6,-46-2,-70 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2502">1568 239,'0'596,"1"-570,1-1,8 33,1 7,-9-42</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3340">1833 530,'6'0,"-1"-2,1 1,0-1,0 0,-1 0,1 0,9-7,23-7,23-3,-29 9,0 1,53-8,-74 16,1 0,-1 1,1 0,-1 1,0 0,1 1,-1 0,0 1,0 1,0-1,16 9,3 5,-1 1,0 2,-2 1,0 1,-1 1,24 29,-1 4,73 113,-110-150,-3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4036">2627 265,'-3'1,"0"-1,0 1,0 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 1,-1 0,1 0,0-1,0 1,-4 5,-30 40,26-32,-203 283,155-196,44-83</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6023.01">2732 53,'-1'-2,"1"0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,1 1,-1-1,1 1,2-2,0 1,-1 0,1 1,0 0,-1 0,1 0,0 0,0 0,0 1,0 0,0 0,5 0,0 1,-1 0,1 0,-1 1,1 0,-1 1,0-1,1 2,-1-1,-1 1,12 8,-13-8,-1 1,1 1,-1-1,-1 1,1 0,-1 0,0 0,0 1,-1-1,0 1,0 0,4 14,-7-18,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,-1-1,0 1,1 0,-1 0,0-1,0 1,-1-1,1 1,0-1,-1 1,0-1,1 0,-1 1,0-1,0 0,0 0,0-1,-1 1,1 0,0-1,-1 1,1-1,-1 0,0 0,1 0,-1 0,-5 1,-35 4,37-5,-1-1,1 1,-1 0,1 1,-1-1,1 1,-8 4,14-6,0 0,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1-1,22 8,9 0,-7-2,0 1,-1 1,0 1,0 1,29 15,-49-21,0-1,0 0,-1 1,1 0,-1 0,1 0,-1 0,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0-1,0 1,-1-1,0 1,1-1,-1 1,-1 0,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,0 0,0 0,-3 5,3-5,0 1,-1-1,0 1,0-1,0 0,-1 0,1 0,-1-1,0 1,0-1,0 0,0 0,-1 0,1 0,-1-1,-6 2,0 0,0-1,0-1,-1 0,1 0,-1-1,-13-1,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8428">3367 847,'685'0,"-658"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">282 153,'-12'1,"-1"-1,1 1,0 0,0 2,1-1,-2 2,2-1,-1 2,1-1,1 1,-2 0,2 1,-1 1,2-1,0 1,-1 1,1-1,1 1,-1 1,2-1,0 2,0-1,0 1,1 0,1 0,0 0,1 0,-1 2,2-2,0 1,1 0,0 0,0 21,1-7,2-1,1 1,1 0,1-2,2 1,9 27,-11-41,0-1,2-1,-2 1,2-1,-1 1,1-1,2-1,-2 1,1-1,1 0,0-1,0 1,0-1,2-1,-1 0,0 0,1 0,10 3,-16-7,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1-1,1 0,-1 0,0 0,0 0,1-1,-1 0,0 0,8-2,-7 1,0-1,-1 0,0 0,0-1,0 1,0-1,-1 0,1 1,-1-1,0-1,0 1,-1-1,3-5,62-140,-22 41,-38 93,0 0,-2-1,5-32,-8 40,-1 2,0-2,-1 0,0 1,-1-1,0 1,0 0,-1-1,-4-14,4 20,0-1,0 2,0-1,0 0,0 1,-2-1,2 0,-1 1,0-1,0 1,0 0,0 1,0-1,0 0,-5-1,-57-15,29 9,17 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="603">749 762,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1743.02">1325 279,'-4'1,"0"0,-1-1,1 1,1 0,-1 1,0-1,1 1,-1 0,1 0,-1 0,1 0,-4 2,-41 37,28-23,-1 2,0 2,1 0,3 1,-1 0,2 2,1 0,-19 44,33-66,0-1,0 1,-1-1,2 1,-2-2,1 2,0 0,1-1,0 1,-1 0,1 0,0 0,0-1,0 0,1 1,-1 0,1-1,2 5,-1-5,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,1-1,0 0,0 0,-1-1,1 1,-1 0,1-1,-1 0,1 0,3 1,61 2,103-6,-48-2,-72 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2502">1627 229,'0'572,"1"-547,1-1,8 32,2 6,-10-40</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3340">1902 508,'6'0,"-1"-1,1 0,1-1,-1 0,-1 0,1 0,10-7,23-6,25-3,-31 8,0 1,55-7,-76 15,0 0,-1 1,2 0,-2 1,1 0,0 1,0 0,-1 1,0 1,1-1,16 8,3 5,-1 2,0 1,-2 1,0 1,-1 1,25 28,-1 4,75 108,-113-144,-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4036">2726 254,'-4'1,"1"-1,0 1,0 0,0 0,1 0,-1 0,0 0,1 1,-2-1,2 1,-1 0,1 0,0-1,0 0,-4 6,-32 38,28-30,-211 271,161-189,45-78</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6023.01">2834 51,'-1'-2,"1"0,1 0,-1 0,0 0,0 0,1 0,-1 1,2-1,-2 1,1-1,0 0,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,1 1,-1-1,1 1,2-1,0 0,0 0,0 1,0 0,-1 0,1 0,0 0,0 0,1 1,-1 0,0 0,5 0,0 1,0 0,0 0,-1 1,2 0,-2 1,0-1,2 1,-2 0,-1 1,13 8,-14-9,-1 2,2 1,-2-1,-1 1,1-1,-1 1,0 0,1 0,-2 0,0 1,0 0,4 13,-7-17,1 0,-1-1,0 0,0 1,0 0,0 0,0 0,0 0,-1-1,0 1,1-1,-1 1,0-1,0 1,-1-1,1 1,0-1,-1 1,0-1,1 0,-1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1-1,-1 0,0 0,1 0,-2 0,-4 1,-36 3,37-4,0-1,1 1,-1 0,0 1,0-1,1 1,-9 4,15-6,0 0,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 1,2-1,-2 0,0 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1-1,23 8,9 0,-7-2,0 0,-1 2,-1 1,1 0,30 15,-50-20,-1-1,0 0,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,-1 0,1 0,-1 0,0-1,0 1,0 0,-1 1,1-1,-1 1,0-2,1 2,-2-1,0 1,1-1,-1 0,-1 1,1-1,-2 1,1-1,0 1,0-2,0 2,-1-1,0 0,0 0,-3 4,3-4,0 1,-1-1,0 1,-1-2,1 1,-1 0,1 0,-1-1,0 1,0-1,-1-1,1 1,-1 0,1 0,-1-1,-7 2,1 0,0-1,-1-2,0 1,0 0,0-1,-14-1,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8428">3493 813,'711'0,"-683"0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23659,14 +23858,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">447 138,'-7'1,"1"0,0 0,0 1,0-1,0 1,1 1,-1-1,0 1,1 0,-8 5,-56 45,47-34,-43 31,3 4,-68 74,127-124,0 0,1-1,-1 1,1 0,0 1,0-1,0 0,0 1,1-1,0 1,0-1,0 1,0-1,1 1,0 0,0-1,0 1,0 0,1-1,0 1,0-1,0 1,0-1,1 1,4 7,4 7,1 0,2 0,0-1,20 22,0 1,-23-28,0 0,1 0,0-1,1 0,16 11,-26-21,2 1,-1-1,0 0,0-1,0 1,1-1,-1 1,1-1,-1 0,1-1,0 1,-1 0,1-1,0 0,-1 0,1 0,0 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,0 0,4-3,32-25,-2-2,-1-1,57-69,-85 91,-1 0,0-1,-1 1,0-1,-1 0,-1-1,0 1,0-1,-1 0,2-21,-2-11,-5-80,0 50,-3 1,-1 46</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="503.97">870 693,'4'5,"2"1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1279.98">1188 111,'-1'79,"-15"102,13-161,0-5,1 1,0-1,1 22,1-34,0 0,0-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 0,0 1,1-1,2 1,22 3,1 0,0-3,0 0,1-1,-1-2,30-5,27 1,-37-1,-32 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1846.97">1664 85,'0'9,"-5"30,-1 13,-9 16,-6 9,0 5,0-2,3-10,4-13,5-11,4-9,7-11,8-19,16-28,3-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3397">2325 32,'-1'-1,"1"0,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,-2 0,-33-5,31 4,-6-1,-1 1,1 1,0 0,0 0,0 1,-19 4,27-4,-1 0,1 0,0 1,0 0,1-1,-1 1,0 0,0 0,1 1,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,1 1,0-1,-1 0,2 0,-1 1,0-1,1 0,-1 6,-1 7,0 0,1 1,0-1,2 1,2 22,-2-36,0 1,-1-1,1 1,0-1,1 1,-1-1,0 0,1 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 1,0-1,-1 0,1 0,1 0,-1-1,0 1,0-1,1 0,-1 0,0 0,1 0,-1 0,1-1,4 1,145-5,-103 0,68 5,-113-1,1 1,0 0,0 0,0 0,-1 1,1 0,-1 0,1 0,-1 1,0 0,0 0,0 0,0 1,-1-1,1 1,-1 0,0 1,0-1,0 1,-1-1,0 1,0 0,0 0,0 1,-1-1,0 1,0-1,0 1,-1-1,0 1,1 10,-1-2,0 0,-1 0,0 0,-1 1,-1-2,0 1,-1 0,-1 0,0-1,-1 1,0-1,-9 14,10-20,0 1,-1-1,0 0,0-1,-1 1,1-1,-2 0,1-1,-1 1,1-1,-1 0,-1-1,-13 7,7-7,-1 0,1 0,-1-2,1 0,-1 0,0-2,-16 0,-108-4,99 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4895.97">2907 429,'1'-4,"1"0,0-1,1 1,-1 0,1 0,0 0,0 0,0 1,6-6,-3 2,-1 2,0 0,1 0,-1 1,1-1,0 1,0 0,0 1,1-1,-1 1,1 1,0-1,0 1,0 0,0 1,0-1,0 2,0-1,1 1,-1 0,0 0,0 1,0 0,1 0,-1 1,0 0,-1 0,1 0,7 5,5 1,-1 2,0 0,0 1,-1 1,-1 1,0 0,0 1,22 27,245 304,-264-324,-4-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5462.97">3648 297,'0'-4,"-5"-2,-10 9,-11 9,-11 11,-8 10,-1 5,-6 5,-3 4,3-2,2 1,4-4,2 1,3-2,0-5,7-3,13-7,11-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7086.97">3807 32,'0'0,"0"-1,1 0,-1 0,0 0,1 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,1-1,28-4,-26 4,21-3,1 1,-1 1,1 1,-1 1,1 1,40 7,-62-6,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,-1 1,1-1,0 1,-1 0,1 0,-1-1,0 1,-1 0,1 0,-1 0,0 7,2 14,-2 0,-4 41,4-62,-2 9,1 0,-2-1,1 1,-2-1,0 0,0 0,-1 0,0-1,-1 1,-1-1,-8 11,9-15,0 0,-1 0,0 0,0-1,-1 0,0-1,0 1,0-2,-1 1,0-1,1 0,-1-1,-1 0,1 0,-11 1,8-2,-1 0,1-1,-1 0,1-1,-1-1,-17-2,27 3,1-1,-1 1,1-1,-1 0,1 0,-1 1,1-2,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,0-1,0 1,0-1,1 1,-1-1,1 1,-1-1,1 0,0 1,0-1,0 1,0-1,1-5,0 6,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,1 1,0-1,-1 0,1 0,0 1,3-2,0 0,0 0,0 1,0 0,0 0,0 0,1 1,10-2,-4 2,0 0,1 1,-1 0,0 1,1 0,21 6,5 7,40 20,-57-24,-19-9,1 1,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,-1 0,0 0,0 0,0 0,3 6,1 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">465 131,'-7'1,"1"0,-1 0,1 1,0-1,0 1,1 1,-2-1,1 1,1-1,-9 6,-58 43,50-33,-46 29,3 5,-70 69,132-117,0 0,1-1,-1 1,1 0,-1 0,1 0,0 0,0 1,1-1,0 0,0 0,0 1,0-1,1 0,0 1,0-1,0 1,0-1,1 0,0 1,0-1,0 1,0-2,1 2,5 7,3 6,1 0,3 0,-1-1,22 21,-1 1,-23-27,-1 1,1-1,1 0,0-1,18 11,-28-20,2 1,-1-1,0 0,0-2,0 2,1-1,0 1,0-1,-1 0,1-1,0 1,-1 0,1-1,1 0,-2 0,1 0,0 0,0-1,-1 1,2-1,-2 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 0,3-3,33-24,-1-1,-2-1,60-67,-88 88,-2 0,0-2,-1 2,1-2,-2 1,-1-2,0 2,0-1,0-1,1-19,-2-11,-5-76,0 48,-4 0,0 45</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="503.97">906 660,'4'4,"2"2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1279.98">1237 106,'-1'75,"-16"97,14-153,0-4,1 0,-1-1,2 21,1-32,0 0,0-1,0 1,1-1,-1 0,2 0,-2 1,1-1,0 1,0-1,0 0,0 0,0 1,1-2,-1 1,1 0,-1 0,1 0,0 0,0-1,0 1,0 0,1-1,-1 0,0 1,1-2,2 2,23 3,1 0,0-3,1 0,0-1,-1-2,31-5,29 1,-39 0,-34-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1846.97">1732 81,'0'9,"-5"28,-1 12,-10 16,-6 8,0 5,0-2,4-9,3-13,6-10,4-9,7-10,8-18,17-27,3-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3397">2420 31,'-1'-1,"1"0,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,-2 0,-34-4,32 3,-7-1,0 1,0 1,1 0,-1 0,1 1,-20 4,27-5,0 1,1 0,0 1,0 0,1-1,-1 1,0 0,-1 0,2 1,-1-1,1 0,0 0,0 1,0 0,0-1,0 1,1 0,-1 0,1 0,0 0,-1 0,2 0,-2 1,1-1,1-1,-1 7,-1 6,0 0,1 2,0-2,2 1,2 21,-2-34,0 1,-1-1,1 1,0-2,2 2,-2-1,0 0,1 0,0 0,0-1,0 1,0 0,0 0,1-1,-1 1,1-1,1 1,-1-2,-1 1,1 0,1 0,-1-1,0 1,0-1,2 0,-2 0,0 0,1 0,-1 0,1-1,5 1,150-5,-107 0,71 5,-118-1,1 1,0 0,1 0,-1 0,-1 1,1 0,0 0,0-1,-1 2,0 0,0 0,1 0,-1 1,-1-1,1 0,-1 1,1 1,-1-1,0 0,-1 0,0 1,0 0,0 0,1 0,-2 0,0 1,0-2,0 2,-1-1,0 1,1 9,-1-2,0 1,-1-1,0 0,-1 1,-1-1,0 0,-1 1,-1-1,-1-1,0 2,0-2,-10 14,11-20,0 2,-1-1,0-1,0 0,-2 1,2-2,-2 1,1-1,-2 0,2 0,-1 0,-2-1,-12 6,6-6,-1 0,2 0,-2-2,2 0,-2-1,0-1,-16 0,-113-3,104 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4895.96">3026 408,'1'-3,"1"-1,0-1,1 1,-1 0,2 1,-1-1,0 0,0 1,6-5,-3 1,0 2,-1 0,1 1,-1 0,2-1,-1 1,0 0,0 2,2-2,-2 1,1 1,0-1,1 1,-1 0,0 1,1 0,-1 1,0-1,1 1,0 0,-1 0,0 1,1-1,0 1,-1 1,1 0,-2 0,1 0,8 5,4 0,0 3,0-1,0 2,-2 0,0 2,0-1,-1 1,24 26,254 290,-274-309,-4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5462.96">3797 283,'0'-4,"-5"-2,-10 9,-13 9,-10 9,-9 11,-1 4,-6 5,-3 4,3-3,2 2,4-4,2 1,3-2,1-5,6-2,14-7,12-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7086.96">3963 31,'0'0,"0"-1,1 0,-1 0,0 0,1 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,2-1,28-4,-27 5,22-4,1 1,-1 1,1 1,-1 1,1 1,42 7,-65-7,-1 1,1 0,0 0,-1 1,0-1,0 1,0 0,0 0,-1-1,1 1,-1 0,2 1,-2-1,-1 1,1-2,0 2,-1 0,1 0,-1-1,0 0,-1 1,1 0,-1 0,0 6,2 14,-2 0,-4 39,4-59,-2 8,1 0,-2 0,1 0,-3 0,1-1,0 0,-1 1,0-2,-1 2,-2-2,-7 11,8-14,1-1,-1 1,0 0,-1-1,0-1,0 0,-1 1,1-2,-1 0,-1 0,2 0,-1-1,-2 0,2-1,-12 2,8-2,0 0,0-1,0 0,0-1,0-1,-18-2,27 3,2-1,-1 1,1-1,-1 0,1 0,-1 1,1-2,-1 1,1 1,0-2,-1 1,1-1,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 1,-1-2,1 1,0 0,0-1,0 1,-1-1,2 1,-1-1,1 2,-1-2,1 0,0 1,0-1,0 1,0-1,1-4,0 5,-1-1,2 1,-1 0,-1-1,1 1,0 0,0 1,1-2,-1 1,0 0,1 0,-1 0,1 1,0-1,-1 0,1 0,0 1,4-1,-1-1,0 0,0 1,0 0,1 0,-1 0,1 1,11-1,-5 1,1 0,0 1,0 0,-1 1,2 0,21 5,6 7,41 20,-59-24,-20-8,1 1,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,-1 0,1 1,-1 0,0 0,0 0,1 0,2 5,1 9</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23835,7 +24034,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">41 1165,'-2'0,"0"0,0 0,0-1,0 1,0-1,1 0,-1 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,0-1,0 1,-1-1,1 1,0-1,0 1,1-1,-1 0,0 0,0 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,1-4,-2-8,2 0,-1-1,6-25,2 7,1-1,1 1,2 1,1 0,27-44,102-139,-27 45,-104 150,-6 10,0 1,0-1,0 2,1-1,12-11,-17 17,1 1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,-1 0,4 2,1 1,-1 1,0-1,0 1,0 0,0 0,-1 0,0 1,0 0,0-1,-1 1,6 13,-1 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="840.96">173 741,'-5'0,"-5"0,3 0,7 0,13 0,8 0,6 0,2 0,10 0,7 0,1 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="840.95">173 741,'-5'0,"-5"0,3 0,7 0,13 0,8 0,6 0,2 0,10 0,7 0,1 0,-9 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1677.14">835 0,'4'0,"11"9,2 21,4 15,-3 8,-4 0,-4-1,-4-3,-3-2,-2-5,-6-9,-2-10</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2739.66">1575 212,'0'0,"1"1,-1-1,1 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,1-1,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,-1-1,1 1,0-1,-1 1,1-1,-1 0,0 2,-19 31,20-33,-208 273,193-252,1 1,2 0,0 1,1 1,-16 48,23-57,0 0,1 1,1-1,0 1,1 0,1-1,0 1,1 0,1 0,0-1,6 20,0-17,0 0,2 0,0-1,0 0,2 0,0-1,15 14,27 38,-50-63,3 6,0 0,1-1,1 0,0 0,13 10,-3-7</inkml:trace>
 </inkml:ink>
@@ -23896,15 +24095,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 1508,'-2'-163,"5"-188,6 266,4 0,3 0,30-88,-14 84,4-18,-35 105,19-62,-18 60,-1 1,1 0,0-1,0 1,0 0,1 0,-1 0,1 0,0 1,-1-1,1 1,0 0,1-1,-1 1,4-1,18-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="758.09">28 794,'4'0,"29"0,14 0,2 0,3 0,-4 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1469.77">531 0,'4'0,"2"5,5 14,4 9,0 5,-3 5,-3 5,-3-1,-3-2,-2 1,0-2,-2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2302.75">981 185,'0'42,"0"71,-16 132,9-189,2-1,2 1,3 0,7 55,-4-89,0-1,1 0,2 0,0 0,1 0,1-1,1 0,0-1,2 0,0 0,1-1,1 0,18 18,-20-26,0-1,0 0,1-1,0 0,0-1,22 10,-11-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3078.14">1431 847,'-1'-35,"0"20,0-1,2 1,-1-1,2 1,7-30,-8 41,0 1,1-1,-1 1,1 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 1,1 0,-1-1,1 1,-1 1,1-1,0 0,-1 1,1 0,0 0,0 0,4 0,0 2,0-1,0 1,0 1,0-1,0 1,0 1,-1-1,1 1,-1 1,0-1,-1 1,1 1,-1-1,0 1,10 12,5 7,-1 1,28 48,22 69,-48-93,-5-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3618.19">1881 582,'-5'-4,"-6"2,-9 12,-7 12,-3 7,-10 12,-2 4,-4 3,7-2,5-5,4 1,7-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4355.04">2066 79,'2'22,"1"-1,2 0,0-1,1 1,15 35,-3-9,24 85,-5 3,25 187,-44-123,-18-165,-1 1,-1-1,-13 60,11-78,-1 1,-1-1,0 0,-2-1,1 0,-2 0,-19 26,-1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5091.56">2595 820,'4'0,"11"0,12 0,9 0,9 0,24 0,3 0,0 0,-9 0,-14 5,-16 6,-14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5674.17">2727 1058,'4'0,"11"0,12 0,10 0,3 0,5 0,-2 0,1 0,-3 0,2 0,-3 0,1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 1445,'-2'-156,"5"-180,7 254,3 1,4-1,32-84,-16 81,5-17,-37 100,20-60,-19 58,0 2,0-1,0-1,0 1,0 0,1 0,-1 0,1 1,1 0,-2-1,1 1,0 0,1-1,-1 1,5-1,18-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="758.09">29 761,'5'0,"29"0,16 0,2 0,2 0,-3 0,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1469.77">559 0,'4'0,"3"5,4 13,5 9,0 4,-3 6,-4 4,-3-1,-3-1,-1 0,-1-2,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2302.75">1033 177,'0'41,"0"67,-17 127,10-182,2 0,1 1,4-1,8 54,-5-86,0-1,1 0,3 0,-1 0,1 0,2-1,0 1,1-2,1 0,1 0,1 0,0-1,20 17,-22-24,1-2,0 1,0-1,1-1,0 0,22 9,-10-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3078.14">1507 812,'-1'-34,"0"20,0-2,2 2,-1-1,2 0,7-28,-7 39,-1 1,1 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 1,2-1,-2 1,1-1,0 1,0 0,0 0,0 0,2 0,-2 0,0 1,1 0,-1 0,2 0,-2 1,1-1,0 0,-1 1,2 0,-1 0,0 0,4 0,1 2,-1-1,1 0,-1 2,1-1,-1 1,0 1,0-1,0 1,0 0,-1 0,-1 1,2 1,-2-1,0 0,11 13,5 6,-1 0,30 47,23 66,-51-89,-5-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3618.19">1981 558,'-5'-4,"-7"2,-9 12,-7 11,-4 6,-10 13,-2 3,-5 3,8-2,5-5,5 1,6-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4355.04">2176 76,'2'21,"1"-1,2 0,0-1,2 1,15 34,-3-9,25 82,-5 2,26 179,-46-117,-19-158,-1 0,-1 0,-14 57,12-75,-1 2,-1-2,-1 0,-1 0,0-1,-1 0,-21 26,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5091.56">2733 786,'4'0,"12"0,12 0,10 0,10 0,24 0,4 0,0 0,-10 0,-14 5,-17 5,-15 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5674.17">2872 1014,'4'0,"12"0,12 0,11 0,3 0,6 0,-3 0,1 0,-2 0,1 0,-3 0,1 0,-6 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23931,27 +24130,27 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1482,'3'-5,"0"0,0 0,0-1,-1 1,1-1,-1 0,-1 0,1 0,-1 0,1-11,7-23,29-70,21-67,116-238,-169 403,3-6,0 1,1 0,0 0,1 1,21-23,-28 35,0 1,0 0,0 0,1 0,-1 0,1 1,-1-1,1 1,0 0,0 1,0-1,0 1,0 0,0 0,0 1,1-1,-1 1,0 0,0 1,0-1,1 1,-1 0,0 0,0 1,0-1,5 4,-6-4,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,0 0,0-1,1 7,1 12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="769.19">187 1006,'0'5,"13"1,27-1,12 0,5-2,-2-1,-6 4,-7 0,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1580.86">927 556,'-2'37,"-10"55,6-53,-1 45,7-84,1 540,1-520,0-1,1 0,1 1,1-1,1-1,0 1,14 27,-15-35,1-1,1 1,-1-1,2 0,-1-1,1 0,1 0,0 0,0-1,0-1,1 0,0 0,13 6,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2397.15">1192 1165,'2'-15,"1"-1,0 0,1 1,1 0,0 0,2 0,-1 1,2-1,0 2,0-1,2 1,10-12,-17 21,0 1,0-1,1 1,-1-1,1 1,0 0,0 1,0-1,0 1,1 0,-1 0,0 0,1 0,0 1,-1 0,1 0,0 0,6 0,-6 1,1 1,-1 0,0 0,0 1,1 0,-1-1,0 2,-1-1,1 1,0-1,-1 1,1 1,-1-1,0 0,0 1,4 5,6 6,-2 1,0 0,0 1,-2 0,16 34,27 97,-29-74,-13-46</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3038.3">1721 821,'-1'14,"0"-1,-1 0,-1 0,0 0,0 0,-1-1,-1 1,0-1,-12 20,-7 7,-43 53,26-39,-98 134,92-124,29-38</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4059.53">1774 1456,'21'-24,"-15"17,0 0,1 0,-1 1,13-9,-17 13,1 1,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 1,0 0,0-1,0 1,1 0,-1 0,0 0,0 1,0-1,3 2,-4-1,1 0,-1 1,0-1,1 0,-1 1,0 0,0 0,0-1,0 1,-1 0,1 1,0-1,-1 0,0 0,1 1,-1-1,0 1,0-1,0 1,-1-1,1 1,-1 0,1-1,-1 5,2 12,-1-1,-1 27,-1-30,-2 54,0-38,2 1,2-1,5 46,0-53</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4438.73">1959 1270,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5147.02">2171 1403,'0'5,"0"5,0 11,0 6,0 3,0 0,0 1,0-2,0 0,0-1,0-1,4-5,11-6,7-6,9-5,4-2,4-3,-3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5777.93">2065 1562,'4'-4,"7"-7,5 0,5 0,3 3,2 3,1 6,1 4,-1 0,1 0,-1-2,0 0,-1-2,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6427.64">2568 1350,'0'5,"0"14,0 14,0 5,0 6,0-1,0 1,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8080.67">2938 530,'3'1,"0"-1,1 1,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 1,0-1,1 1,-1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,1 5,4 13,-1 1,6 46,-9-51,12 146,-11 253,-6-214,3-66,0-106</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8683.64">3335 821,'9'0,"7"0,11 0,4 0,2 0,4-9,10-3,5 1,8 2,11 2,-1 3,-9 2,-10 1,-14 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9652.64">4288 1006,'0'-702,"1"691,1-1,0 1,1-1,0 1,1 0,0 0,1 0,0 0,1 1,0 0,0 0,1 1,1 0,-1 0,2 0,-1 1,16-11,-22 17,0 0,0 0,0 0,0 0,1 0,-1 0,1 1,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,-1 0,1 1,0-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0 0,0 1,0-1,2 4,2 4,0 1,0-1,-1 1,-1 0,0 0,0 1,-1-1,0 1,0 14,0 16,-4 55,0-74,0 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10200.64">4182 688,'4'0,"7"0,5 0,4 0,9 0,12 0,4 0,-1 0,-4 0,-4 0,-4 0,2 0,-1 0,0 0,-3 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10960.8">5028 133,'0'0,"0"0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,0 0,-1-1,-10 8,-9 15,0 13,2 1,2 1,1 0,2 1,-10 45,10-37,-3 7,3 0,2 2,2 0,3 0,0 69,8-102,1 1,1-1,0 1,2-1,1-1,0 1,2-1,0 0,2-1,0 0,14 19,-1-7,0-1,2-1,1-1,2-1,47 35,-29-31,-9-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11748.12">5108 609,'0'-16,"0"0,2 0,0 0,0 0,2 0,7-19,-8 26,1 0,0 1,1 0,-1 0,2 0,-1 0,1 1,0 0,1 0,0 1,0 0,11-8,-15 12,0 0,0-1,0 1,0 0,1 1,-1-1,1 1,0-1,-1 1,1 0,0 0,0 1,0-1,-1 1,1 0,0 0,0 0,0 0,0 1,-1 0,1 0,0 0,0 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,-1-1,0 2,1-1,1 4,5 8,-1 0,-1 0,0 1,-1 0,-1 0,0 1,4 27,-3 7,-4-27,1-1,1 1,10 32,-12-51,0 1,0-1,1 0,-1 0,1 0,0 0,1 0,-1-1,1 0,0 1,0-1,0-1,0 1,1 0,0-1,0 0,-1 0,2-1,5 3,16 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12411.75">5716 397,'-19'0,"1"1,0 1,0 0,0 1,0 1,0 0,0 2,1 0,0 1,1 1,-1 0,1 1,1 1,0 0,0 1,1 1,1 0,0 1,-19 24,-79 82,100-104,9-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12957.45">5690 715,'0'5,"0"5,0 11,0 10,0 10,-5 1,-1-1,0-4,1-3,7-3,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13989.21">5849 0,'0'4,"1"0,0 0,0 0,1 0,-1-1,1 1,0-1,0 1,0-1,4 5,5 10,7 18,-2 2,-1 0,-2 1,-2 0,-1 1,-2 0,-2 0,1 71,-6-52,-6 368,0-378,-2 1,-1-1,-19 54,20-84,-1 0,-1 0,-20 31,9-15,11-21,0 0,-1 0,-17 16,-4 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15157.28">292 1958,'1'-1,"-1"1,1-1,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,1 1,-1 0,0 0,0-1,1 1,-1 0,0 0,2 1,5-3,1061-138,-675 100,903-106,-401 44,-307 53,205-27,-598 52,275 1,334 26,-731-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16604.15">3600 2064,'0'126,"-3"223,-3-238,-21 118,24-209,3-20,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,11-31,16-62,61-138,-76 205,0 1,3 0,0 0,1 2,1 0,1 1,1 0,1 2,1 0,26-18,-37 32,0 1,1 0,0 0,0 1,0 1,1-1,-1 2,1 0,-1 0,1 1,0 1,-1 0,1 0,0 1,21 5,-30-5,0 0,0 0,0 0,0 1,-1-1,1 1,0 0,-1-1,0 1,1 0,-1 1,0-1,0 0,0 1,0-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,0 0,-1 0,1 0,0 3,2 13,-1-1,-1 1,-2 22,1-18,-2 60,-21 136,18-180,2 45,3-57</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1417,'3'-5,"0"1,0-1,0-1,0 1,0 0,-1-1,-1 0,1 0,-1 1,1-12,7-21,31-67,21-64,120-228,-175 385,4-5,-1 1,1 0,1-1,0 2,22-22,-28 33,-1 1,0 0,0 0,1 0,-1 1,2 0,-2-1,1 1,0 0,0 1,0-1,1 1,-1 0,0 0,0 1,1-1,0 1,-1 0,0 1,0-1,1 1,0 0,-1 0,0 1,0-1,5 4,-5-4,-2 1,0 0,1-1,-1 1,0 0,0 1,0-1,1 1,-1 0,-1 0,1 0,-1-1,0 1,0 0,0 1,0-1,-1 1,1-1,-1 0,0 1,0-1,1 7,2 11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="769.19">194 962,'0'5,"13"0,29 0,12 0,5-2,-2-1,-6 4,-8-1,-10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1580.86">961 532,'-2'35,"-10"53,5-51,0 44,7-81,1 516,1-497,0-1,1 0,1 2,2-2,0-1,0 1,15 26,-16-33,1-2,2 2,-2-2,2 1,-1-2,2 1,0 0,0-1,1 0,-1-1,1-1,1 1,12 5,5-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2397.15">1236 1114,'2'-14,"1"-2,0 1,1 1,1-1,1 1,1 0,-1 0,2 0,1 2,-1-2,2 2,11-12,-18 20,0 1,0-1,2 1,-2 0,1 0,0 0,0 1,0-1,0 1,2 0,-2 0,0 0,1 0,0 2,-1-1,2 0,-1 0,6 0,-6 1,2 1,-2 0,0 0,0 0,1 1,-1-1,1 2,-2-1,1 1,0-1,-1 1,2 1,-2-2,0 1,0 1,4 5,7 5,-3 1,1 1,-1 0,-2 0,17 33,28 93,-30-72,-13-43</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3038.3">1784 785,'-1'13,"0"0,-1-1,-1 1,0-1,0 1,-1-2,-2 1,1 0,-12 19,-8 6,-45 51,28-37,-102 127,95-117,30-38</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4059.53">1839 1392,'22'-23,"-16"17,0-1,2 0,-2 1,14-8,-18 12,1 1,0-1,-1 1,1 0,0 0,0 1,0-1,0 0,1 1,-1 0,0-1,0 1,1 0,-1 0,0 0,0 1,1-1,2 2,-4-2,1 1,-1 1,0-1,1 0,-1 1,0 0,0 0,0-1,1 1,-2 0,1 1,0-1,-1-1,0 1,1 1,-1-1,0 1,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 5,2 11,-1-1,-1 26,-1-28,-2 51,0-37,2 2,2-1,5 43,0-50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4438.72">2031 1214,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5147.02">2251 1342,'0'4,"0"6,0 10,0 6,0 2,0 1,0 1,0-2,0-1,0 0,0-1,4-5,11-6,8-5,9-5,5-3,3-2,-3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5777.92">2141 1494,'4'-4,"7"-7,6 1,5-1,3 4,2 2,1 6,1 4,-1-1,1 1,-1-2,0 0,-1-2,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6427.64">2662 1291,'0'5,"0"13,0 13,0 6,0 5,0-1,0 1,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8080.67">3046 507,'3'1,"0"-1,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,0 0,0 0,0 0,-1 0,2 0,-2 1,0-1,1 1,-1-2,0 2,-1 0,1 0,0 0,-1 0,1 0,-1 0,0-1,1 6,5 12,-2 1,6 44,-9-49,13 140,-12 242,-6-205,3-63,0-101</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8683.64">3458 785,'9'0,"7"0,12 0,5 0,1 0,4-9,11-2,5 0,8 3,12 1,-2 3,-9 2,-10 1,-14 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9652.64">4446 962,'0'-671,"1"660,1 0,0 0,1 0,0 0,1 1,0-1,1 1,1-1,0 2,0-1,0 0,2 2,0-1,-1 1,2-1,0 1,16-10,-23 16,0 0,0 0,0 1,0-1,1 0,-1 0,1 1,0-1,-1 1,2 0,-1 0,0 0,0 0,-1 0,1 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-2 0,1 1,0-1,-1 1,1 0,-1-1,0 1,1-1,-1 1,0 0,0 1,1-1,1 4,2 3,0 2,0-2,0 2,-2-1,0 1,0 0,-1 0,0 0,0 14,0 15,-4 53,0-71,0 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10200.64">4336 658,'4'0,"7"0,6 0,4 0,9 0,12 0,5 0,-2 0,-3 0,-5 0,-4 0,3 0,-2 0,0 0,-3 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10960.8">5213 127,'0'0,"0"0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1-1,-11 7,-9 15,1 13,1 0,2 2,2-1,1 1,-9 44,9-36,-2 6,2 1,3 2,1-1,4 1,0 65,8-97,1 1,1-1,0 1,3-1,0 0,0 0,2-1,1 0,1-1,1 0,13 18,0-6,0-2,2 0,1-1,2-1,49 33,-30-29,-10-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11748.12">5296 582,'0'-15,"0"0,2-1,0 1,0 0,2 0,7-19,-7 25,0 1,0 0,1 1,-1-1,2 0,0 1,0 0,0 0,1 1,1 0,-1 0,11-7,-14 11,-1 0,0-1,0 1,0 0,1 1,-1-1,1 1,1-1,-2 1,1 0,0 1,0 0,0-1,-1 1,2 0,-1 0,0 0,0 0,0 1,-1-1,1 1,1 0,-1 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,1 0,-1 1,0-1,0 0,0 1,0 0,-1-1,0 2,1-1,1 4,6 7,-2 0,-1 1,1 0,-2 0,-1 0,0 2,5 25,-4 7,-4-27,1 0,1 1,11 31,-13-49,0 1,0-2,1 1,-1 0,1 0,0-1,1 1,-1-1,2 0,-1 1,0-2,0 0,0 1,1 0,1-1,-1 0,-1 0,2-2,6 4,16 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12411.75">5926 380,'-20'0,"2"1,-1 0,0 1,1 1,-1 1,0 0,1 2,0-1,0 2,2 1,-2-1,2 2,0 1,1-1,-1 2,1 0,2 1,0 0,-21 23,-81 79,104-99,9-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12957.45">5899 684,'0'4,"0"6,0 10,0 10,0 9,-5 1,-1-1,-1-3,2-4,7-2,3-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13989.21">6064 0,'0'4,"1"0,0-1,0 1,1 0,-1-1,1 1,0-1,0 1,0-2,5 6,4 9,8 18,-3 1,0 0,-3 2,-1-1,-2 1,-2 0,-1 1,0 67,-6-50,-6 353,0-363,-3 2,0-1,-20 52,21-81,-2 0,0 0,-21 30,9-15,12-19,0-1,-2 0,-17 16,-4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15157.28">303 1872,'1'-1,"-1"1,1-1,1 0,-1 0,0 0,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,1 1,-1 0,0 0,0-1,1 1,0 0,-1 0,2 1,5-3,1100-132,-699 96,935-102,-415 42,-318 52,212-27,-620 50,286 1,345 25,-757-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16604.14">3732 1974,'0'120,"-3"214,-3-228,-22 113,25-200,3-19,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,11-30,17-59,64-131,-80 195,0 1,4 0,0 0,0 2,2 0,0 1,2 0,1 2,1 0,26-18,-37 32,-1 0,1 0,1 0,-1 1,1 2,0-2,0 2,0 0,-1 0,2 1,-1 1,0 0,0 0,1 1,21 5,-31-5,0 0,0 0,0 0,0 1,-1-2,1 2,1 0,-2-1,0 1,1 0,-1 1,0-1,0 0,0 1,0-1,-1 0,1 0,-1 1,1 0,-1 0,1 0,-1 0,0 0,-1-1,1 1,0 3,2 12,-1-1,-1 2,-2 20,1-17,-2 57,-22 131,19-173,2 43,3-54</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -24098,7 +24297,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">406 503,'-4'2,"0"0,0 1,0-1,0 1,1-1,-1 1,1 0,0 1,0-1,0 0,1 1,-1 0,-3 5,-1 2,-74 85,33-41,2 2,2 2,-59 105,98-151,0 0,1 0,1 1,0-1,0 1,1 0,0 20,3 9,5 44,-6-82,1 1,0-1,1 1,-1-1,1 0,0 0,0 0,1 0,-1 0,1 0,0-1,1 1,-1-1,1 0,4 4,0-1,0-1,0 0,1-1,0 0,0 0,0-1,17 6,0-3,0-1,1-1,-1-1,1-2,38 0,-52-2,1-1,-1 0,0-1,1 0,-1-1,0-1,-1 0,17-8,-22 9,0-1,-1-1,0 1,0-1,0 0,0 0,-1-1,1 0,-1 0,-1 0,1 0,-1-1,-1 0,1 0,-1 0,3-8,3-18,10-52,-14 54,2 0,12-35,5 2,22-94,-41 133,0-1,-2 1,0-1,-2 0,-1 0,-6-49,4 69,0 0,-1-1,1 1,-1 0,0 0,-1 0,1 1,-1-1,-1 1,1 0,0 0,-1 0,0 1,0-1,-7-3,3 1,-5-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="468.98">988 1164,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="468.97">988 1164,'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1719.65">1173 344,'8'0,"1"-2,-1 1,1-1,12-4,26-6,-38 11,0 0,0 1,0 0,0 0,0 1,0 0,0 1,0 0,-1 0,15 6,-17-5,0 1,0 0,-1 0,1 0,-1 1,0 0,0 0,-1 0,1 1,-1 0,0 0,-1 0,1 0,3 10,7 22,-2 2,-1 0,-3 0,6 53,-7-46,5 60,-5 0,-10 164,1-242,-1-1,-1 0,-2 0,-1 0,-12 30,14-44,-1-1,0 0,0 0,-1 0,-1-1,0 0,-1-1,0 0,-1 0,0-1,-1 0,-12 9,18-16,1 0,0 0,-1-1,1 0,-1 1,0-2,0 1,1 0,-1-1,-1 0,1 0,0-1,0 1,0-1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0-1,-7-3,7 2,0-1,0 0,1 0,-1 0,1 0,0-1,0 1,1-1,0 0,-1 0,1-1,1 1,-1-1,1 1,0-1,1 0,-1 1,1-1,-1-11,1 5,-1 0,2 0,0-1,1 1,0 0,0 0,2 0,-1 0,8-19,-7 23,1 1,0-1,1 1,-1 0,1 0,1 0,-1 1,1 0,1 0,-1 0,1 1,0 0,0 0,12-6,2 0,0 1,0 1,1 0,33-7,-45 14,-1 1,0 0,1 1,-1 0,1 0,-1 1,0 0,1 1,-1 0,0 0,0 1,0 0,16 9,-6 0,0 0,-1 1,-1 1,0 1,28 32,-21-21,35 28,-32-36,0-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3301.79">2443 344,'-13'-5,"0"0,0 1,0 0,-1 1,1 1,-23-2,-87 3,74 2,43-1,1 0,0 1,-1-1,1 1,0 0,0 0,-1 0,1 1,0 0,0 0,-5 3,7-3,0 1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,0 0,-1 4,-2 8,1 1,0 0,1 0,1 0,1 0,0 0,1 0,7 33,-7-47,0 0,1-1,-1 1,1-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1-1,0 1,-1-1,1 0,0 0,0 0,0 0,0-1,0 1,0-1,4 1,11 0,0-1,1 0,17-3,-7 1,-5 1,2-1,0 1,49 6,-67-4,0 1,0 0,0 0,0 1,0 0,0 0,-1 1,0 0,1 1,-2-1,1 1,0 0,7 9,4 7,0 1,-2 1,0 1,24 50,-21-31,-1 1,14 57,-29-90,-1 1,1-1,-2 1,0 0,0-1,-1 1,0 0,-1 0,-5 22,5-30,-1 1,0 0,0-1,0 1,0-1,-1 0,1 0,-1 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 0,0 0,0-1,0 1,-1-1,1 0,-1 0,1-1,-1 1,0-1,0 0,-5 0,-37 4,-1-3,-70-7,12 1,-45 4,122 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4238.66">2602 0,'14'1,"0"1,1 0,-1 1,0 0,0 1,0 0,-1 1,1 1,15 10,8 6,60 46,-69-45,-1 0,-2 2,0 0,-1 2,-2 1,20 32,-30-41,-1 0,-1 1,-1 1,-1 0,0 0,-2 0,0 1,-2 0,0 0,1 40,-15 302,7-335,-1-1,-2 0,0 0,-2 0,-1-1,-1 0,-20 36,-112 169,116-192,21-32,-1 0,0 0,0-1,-1 1,0-1,0-1,-1 1,1-1,-1-1,-1 1,1-1,-11 4,-20 5</inkml:trace>
@@ -24128,15 +24327,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1455,'0'-190,"34"-273,10 192,-41 260,0 1,0 0,0 0,2 0,-1 0,1 1,0 0,1 0,0 0,1 1,0-1,0 2,1-1,-1 1,2 0,-1 1,1-1,0 2,14-7,18-8,1 2,1 2,54-13,-59 18,-31 8,-1 1,0 1,1-1,0 1,-1 0,1 1,0 0,-1 0,10 1,-14 0,0 0,1-1,-1 1,0 1,0-1,0 0,0 0,-1 1,1-1,0 1,0 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 1,0-1,0 0,0 1,0 2,-4 104,2-85</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="677.61">54 953,'9'-4,"12"-2,11-5,5 1,1 1,2 2,0 3,-3 2,-4 1,3 0,-2 2,-1-1,-2 0,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1456.25">1430 185,'0'0,"0"0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,-14 9,-8 20,9-2,-16 49,4-8,5-23,-89 234,94-235,3 2,2 0,2 0,-4 63,11-91,-2 60,8 91,-3-147,1 0,1 0,0-1,2 1,1-1,0 0,2-1,21 39,-27-53,1-1,0 1,0-1,1 0,-1-1,1 1,0-1,1 0,-1 0,0 0,1-1,10 5,2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2643.77">2250 132,'0'0,"0"0,0-1,0 1,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0-1,0 1,-1 0,1-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 1,-21 10,-3 15,0 0,2 1,2 2,0 0,2 1,-18 38,-6 14,-56 154,90-200,2 0,1 1,2 0,2-1,1 1,6 50,-2-7,-3-73,0 1,0-1,1 0,0 1,1-1,0 0,0 0,0 0,1 0,0 0,1 0,6 10,-6-13,-1 0,1 0,1 0,-1-1,1 0,-1 1,1-1,0-1,0 1,0-1,0 0,1 0,-1 0,0-1,1 0,-1 0,9 0,7 2,-1-2,0 0,1-1,-1-1,1-1,-1-1,22-6,-36 7,-1-2,1 1,-1 0,0-1,0 0,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 0,1-1,-1 1,-1-1,1 0,-1 1,0-1,0 0,-1-1,2-7,1-17,0 0,-2-62,-2 71,0-83,-21-173,18 256,1 11,0 0,0 0,-7-21,8 29,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,0-1,1 0,-1 1,0 0,0 0,0 0,-7-3,-10-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3080.98">2620 1085,'4'5,"7"1,14-5,17-16,1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3844.22">3150 238,'84'0,"97"1,-177-1,-1 0,1 0,0 1,-1-1,1 1,-1-1,1 1,-1 0,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,4 4,-3-1,-1 1,0 0,0-1,0 1,-1 0,0 0,0 0,0-1,-1 1,-1 10,-1 13,-1 1,-1-1,-2 0,-1-1,-2 1,-19 44,-91 162,77-161,15-25,3-8,-28 68,44-85</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4356.16">3176 741,'4'0,"11"0,16 0,17 0,8 0,5 5,0 1,-1 4,-2 1,-6-2,-7-3,-12-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5628.97">4552 291,'-257'-8,"121"1,129 7,-10-1,0 1,-1 0,1 1,-35 7,48-7,0 0,0 0,0 1,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,-1 1,1 0,1 0,-1 0,0 0,1 1,-1-1,1 1,0-1,0 1,1 0,-1 0,1 0,0 0,0 0,-1 6,-1 14,1 1,1 38,2-54,-1 0,1 0,0-1,1 1,0 0,0-1,1 0,0 1,1-1,6 12,-8-18,0 0,0 0,1-1,-1 1,0 0,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,0-1,0 1,-1-1,1 1,0-1,0 0,5 0,64-11,-37 5,-28 5,0 1,0-1,1 1,-1 1,0-1,0 1,0 0,1 1,-1 0,-1 0,1 1,0-1,0 1,-1 1,0-1,9 7,-9-4,0 0,0 0,-1 0,0 1,0-1,-1 1,0 0,0 1,0-1,-1 1,0-1,-1 1,0 0,2 11,3 37,-2 0,-3 0,-8 104,5-147,-1 0,0-1,-1 1,0-1,-1 0,0 0,-1 0,0 0,-1-1,-7 12,8-16,0 0,-1-1,1 0,-1 0,-1 0,1-1,-1 0,0 0,0 0,0-1,-1 0,0-1,0 0,0 0,0 0,-9 1,-45 4,0-3,0-2,0-3,-80-10,133 8,-1 1,1-1,0 0,0-1,0 0,0-1,0 1,0-2,1 1,0-1,0-1,0 1,1-1,0-1,0 1,0-1,1 0,0-1,-6-9,1-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8074.13">4605 0,'5'1,"1"0,0-1,-1 2,1-1,-1 1,1 0,-1 0,0 0,0 1,0-1,8 7,46 42,-58-50,25 26,-1 1,-2 1,-1 1,-1 1,-2 1,-1 1,-1 0,21 64,-22-46,-2 1,-2 1,-3 0,-2 0,0 82,-7-96,-2-1,-11 67,9-86,-1 0,-1-1,-1 0,0 0,-1 0,-1-1,-15 22,3-10,-2-1,0-1,-2-1,-1-1,-1-1,-45 30,49-39</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1395,'0'-182,"35"-262,11 184,-43 250,0 0,0 1,0-1,2 0,-1 1,2 0,-1 1,1-1,0 0,1 2,1-2,-1 2,1 0,-1 0,3 0,-2 1,1 0,1 1,13-7,20-7,0 2,2 2,55-13,-61 17,-32 8,0 1,-1 1,1 0,0 0,0 0,0 1,0 0,-1 0,11 1,-15 0,0-1,1 0,-1 1,0 1,0-1,0 0,0 0,-1 1,1-1,1 1,-1 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,0-1,0 1,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 1,0-1,0 0,0 0,0 3,-4 100,2-82</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="677.61">56 914,'9'-4,"13"-2,11-4,5 0,1 2,3 1,-1 3,-3 2,-3 1,2 0,-2 2,-1-1,-2 0,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1456.25">1479 177,'0'0,"0"0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,-15 8,-8 20,10-2,-17 47,4-8,5-22,-91 225,96-226,4 2,1 0,3 1,-4 59,11-87,-2 58,8 87,-3-141,1 0,1 1,0-2,2 1,2-1,-1 0,2-1,22 38,-28-51,1-2,1 2,-1-1,1 0,-1-1,1 0,0 0,2 0,-2 0,0 0,1-1,11 4,1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2643.77">2327 127,'0'0,"0"0,0-1,0 1,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0-1,0 1,-1 0,1-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-2 0,2 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 1,-22 10,-2 13,-1 1,2 1,2 2,1 0,1 1,-18 36,-7 14,-57 147,92-192,3 1,1 0,2 1,2-2,1 2,6 47,-2-6,-3-70,0 1,0-2,1 1,0 1,1-2,0 1,0 0,0-1,2 1,-1 0,1 0,6 9,-6-12,-1 0,1-1,2 1,-2-1,1 0,-1 1,1-1,0-1,1 1,-1-2,0 1,1 0,-1 0,0-1,2 0,-2 0,9 0,8 2,-1-2,-1 0,2-1,-1-1,1-1,-2-1,24-6,-38 8,-1-3,1 1,-1 0,1-1,-1 0,-1 0,1 0,-1 0,0-1,0 0,1 0,-2 1,1-2,-1 1,-1-1,1 1,-1 0,0-1,0 0,-1 0,2-8,2-16,-1 1,-2-61,-2 69,0-79,-22-167,19 246,1 10,0 1,0-1,-8-19,9 27,-1 0,0-1,0 1,0 0,0 0,0 0,0 1,-1 0,0-1,1 0,-1 1,-1 0,1 0,0 0,-7-3,-11-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3080.98">2709 1041,'5'4,"6"2,15-5,17-15,2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3844.22">3257 228,'87'0,"101"1,-184-1,-1 0,1 0,0 1,-1-1,1 1,-1-1,1 1,0 0,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,0-1,1 1,-2 1,1-1,-1 1,4 4,-3-1,-1 0,0 1,0-1,0 0,-1 1,0 0,0 0,1-2,-2 2,-2 9,0 13,-1 1,-1-1,-2-1,-1 0,-3 1,-19 42,-94 155,80-154,15-24,3-8,-29 66,46-82</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4356.16">3284 711,'4'0,"12"0,16 0,18 0,8 0,5 4,0 2,-1 4,-2 0,-6-1,-8-3,-12-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5628.96">4707 279,'-265'-8,"124"2,134 6,-11-1,0 1,0 0,0 1,-35 6,48-6,1 0,0 0,0 1,0 0,1 0,-1 0,1 0,-2 0,2 1,0-1,-1 0,1 1,1 0,-1 0,0 0,1 1,-2-1,2 1,0-2,0 2,1 0,-1 0,1 0,0 0,0-1,-1 7,-1 13,1 1,1 36,2-51,-1 0,1-1,0 0,1 1,0-1,0 0,1 0,0 0,1 0,7 11,-9-17,0 0,0 0,1-1,-1 1,0 0,1-1,-1 1,2-2,-1 1,-1 0,1 0,0 0,0-1,0 1,-1-1,1 1,0-1,0 0,6 0,65-10,-38 4,-28 5,-1 1,0-1,1 1,0 1,-1-1,0 1,0 0,2 1,-2 0,-1 0,1 1,1-2,-1 2,-1 1,0-1,10 7,-10-5,0 1,0 0,-1 0,1 0,-1 0,-1 1,0 0,0 0,0 0,-1 1,1-2,-2 2,0 0,2 10,3 36,-2-1,-3 1,-8 99,5-140,-1-1,0 0,-1 0,0 0,-1-1,-1 1,0-1,0 1,-1-2,-8 13,9-17,0 1,-1-1,1-1,-1 1,-2 0,2-1,-1 0,0-1,-1 1,1-1,-1 0,0-1,-1 0,1-1,0 1,-10 1,-46 4,0-3,0-2,0-3,-83-10,138 8,-2 1,2-1,0 0,-1-1,1 0,0 0,-1 0,1-2,1 1,0-1,-1 0,1 0,1-1,0-1,-1 2,1-2,1 0,0-1,-7-8,2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8074.13">4762 0,'5'1,"1"0,1-1,-2 2,1-1,-1 1,1 0,0 0,-1-1,0 2,0-1,9 7,47 40,-60-48,26 25,-2 1,-1 0,-1 2,-1 1,-3 1,0 0,-2 1,23 61,-24-44,-1 1,-3 0,-3 1,-1 0,-1 79,-7-93,-2-1,-12 65,10-83,-1 1,-1-2,-1 0,-1 0,0 1,-1-2,-16 21,3-9,-1-1,-1-1,-2-1,-1-1,-1-1,-46 29,50-38</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -24217,15 +24416,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">133 1034,'-3'-177,"0"25,20-183,-14 309,2 1,0-1,2 1,0 1,2-1,1 2,25-46,-30 60,2 0,-1 0,1 0,0 1,1 0,0 0,0 1,0 0,1 1,0-1,1 2,-1-1,1 2,0-1,0 1,1 1,-1-1,1 2,0 0,0 0,12 0,-20 2,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,-1 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 5,2 15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="995.1">1 531,'13'0,"14"0,7 0,1 0,5 0,-1 0,-1 0,-4 0,-3 0,-2 0,-2 0,0 0,4 0,10 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1878.17">1139 55,'-3'29,"0"0,-2 0,-2-1,0 0,-19 48,11-36,-14 66,21-64,3 1,1-1,2 1,1 0,3 0,9 55,-10-91,1 1,1-1,-1 0,1 0,0 0,1 0,-1 0,1 0,1-1,-1 0,1 0,0 0,1-1,-1 1,1-1,0-1,1 1,-1-1,14 7,-4-5,-1 0,1-1,0-1,1 0,-1-2,1 0,-1 0,23-2,15-1,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4464.19">2038 372,'-4'1,"1"-1,0 1,-1 0,1 0,0 0,0 1,0-1,-1 1,2-1,-1 1,0 0,0 0,1 1,-1-1,1 0,-1 1,1-1,0 1,0 0,0 0,1 0,-3 3,-1 6,-1-1,1 1,1 0,-5 22,-16 138,18-111,6-55,0 0,1 0,-1 0,1 0,1 0,-1 0,1 0,0-1,1 1,-1 0,1-1,0 1,0-1,1 1,0-1,6 9,-5-10,0 0,0 0,0-1,1 1,-1-1,1 0,0-1,0 1,0-1,0 0,1 0,-1 0,1-1,-1 0,1 0,-1 0,1-1,6 0,18 0,0-2,0 0,48-12,-60 10,0-1,0-1,0-1,0 0,-1-1,31-21,-43 25,0-1,0 0,0 0,-1 0,0 0,0-1,0 0,-1 0,1 0,-2 0,1 0,-1-1,1 1,1-12,0-9,-1 1,1-40,-3 19,1 31,-1-1,-1 0,0 0,-1 0,-7-31,7 43,-1 0,0 1,0-1,0 1,-1-1,1 1,-1 0,0 0,0 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,-1 1,1 0,-1 0,1 0,-1 1,0 0,-7-2,-26-2,0 1,-1 2,1 2,-41 4,-6 0,81-4,-56 5,39 5,21-9,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 1,1 0,13 10,1-1,33 17,-3-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4982.17">3017 743,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6433.92">3784 187,'-27'0,"13"-1,0 1,0 1,0 0,0 0,-25 7,35-6,-1 0,1 0,-1 1,1-1,0 1,0 0,0 0,0 0,0 1,1-1,0 1,-1 0,1 0,1 0,-1 0,1 1,-1-1,1 1,1 0,-3 8,-11 34,3 1,2 0,-8 93,18-138,-1 1,1-1,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 1,0-1,1 0,-1 0,0 0,1 0,0-1,-1 1,1 0,0-1,1 1,-1-1,4 3,-1-2,0-1,0 0,1 0,-1 0,1-1,-1 0,1 0,-1-1,1 1,0-1,-1 0,7-2,58-3,-26 1,83 4,-125 0,1 0,-1 0,0 1,1-1,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,0 0,0-1,-1 1,1 0,0 0,-1 0,0 0,2 3,-1-1,-1 0,0 0,0 1,0-1,-1 1,1-1,-1 1,0-1,0 1,0-1,-3 9,1-1,-2 0,1 0,-2-1,1 1,-2-1,1 0,-1-1,-13 17,10-18,0-1,0 0,-1-1,0 0,-1-1,1 0,-1 0,-1-1,1-1,0 1,-1-2,0 0,-22 3,8-3,1-1,-1-2,1 0,-1-1,-41-9,58 9,1-1,0 0,-1-1,1 0,1 0,-1 0,0-1,-10-7,1-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7430.08">4076 28,'0'2,"0"0,0-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,-1 0,1 1,1 1,6 9,51 100,87 237,-133-307,-2 0,-2 1,-2 0,-1 0,-3 1,-1-1,-3 1,-5 45,3-76,0 1,-1-1,0 0,-1 0,-1 0,0 0,-1-1,0 0,0-1,-2 1,1-2,-1 1,-1-1,0 0,0-1,-1 0,-18 11,19-16,0 0,0 0,0-1,0 0,-1-1,0 0,1-1,-1 0,0-1,-21-1,25 1,-25-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9396.81">4896 558,'13'0,"14"-9,6-3,3 1,-1 2,3 2,8 3,2 2,0 1,-2 1,-5 0,-10 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9944.96">4869 769,'9'0,"12"0,11 0,5 0,5 0,0 0,6 0,0 0,5 0,-2 5,-5 1,-6 0,-1-1,-2 2,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">137 999,'-3'-171,"0"24,20-177,-13 299,1 1,0-1,2 1,0 1,3-1,0 1,26-43,-31 57,2 0,0 1,0-1,0 1,1 0,0 1,1 0,-1 0,1 1,1 0,0 1,-1-1,1 2,1-1,-1 1,1 2,0-2,0 2,0 0,1 0,11 0,-19 2,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,0 1,-1-1,1 1,-1 0,1-1,-1 0,1 1,-1 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,-1 0,0-1,0 0,0 1,0 0,0 0,-1 0,1 0,-1 0,0 0,0 4,2 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="995.1">1 513,'13'0,"15"0,7 0,1 0,6 0,-2 0,-1 0,-4 0,-3 0,-2 0,-2 0,0 0,4 0,10 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1878.16">1175 53,'-4'28,"1"0,-2 0,-2-1,0 0,-20 47,11-36,-13 65,20-63,4 2,1-2,2 2,1-1,3 1,9 53,-10-89,1 2,2-1,-2 0,1-1,0 1,1 0,-1 0,1-1,1 0,-1 0,2 0,-1 0,1-2,-1 2,1-1,0-1,2 1,-2-1,14 6,-3-4,-2 0,2-1,-1-2,2 1,-2-2,2 0,-1 0,23-2,15-1,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4464.19">2102 359,'-5'1,"2"-1,0 1,-1 0,1 0,0 0,0 1,0-1,-1 1,2-1,-1 1,-1 0,1 0,1 1,-1-1,1-1,-1 2,1-1,0 1,0 0,0 0,1 0,-3 3,-2 5,0 0,1 1,1-1,-5 22,-17 133,19-107,6-53,0 0,1-1,-1 1,1 0,1 0,-1 0,1-1,0 0,1 1,-1 0,1-1,0 0,0 0,1 1,0-1,6 8,-4-9,-1 0,0 0,0-1,1 1,-1-1,1-1,1 0,-1 1,0-1,0 0,1 0,-1 0,2-1,-2 0,1 0,-1 0,1-1,7 0,18 0,-1-2,1 0,50-11,-63 9,1-1,0-1,-1-1,1 1,-2-2,33-20,-45 24,0-1,0 0,0 0,-1 1,1-1,-1-1,0 0,-1 0,1 1,-2-1,1 0,-1-1,1 1,1-11,1-9,-2 1,1-39,-3 19,1 29,-1 0,-1-1,0 1,-1 0,-7-31,7 42,-1 1,0 0,-1-1,1 1,-1-1,1 1,-1 0,0 1,0-1,-1 1,1-1,-1 1,-1 0,1 0,0 0,0 1,0-1,-1 1,1 0,-1 0,0 0,0 1,0 0,-7-2,-27-2,-1 1,0 2,1 2,-43 4,-5 0,83-4,-58 5,40 5,22-9,0 0,0-1,0 1,0 0,-1-1,1 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 1,1 0,14 10,0-2,35 17,-4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4982.17">3111 718,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6433.92">3902 181,'-28'0,"14"-1,-1 1,1 1,0 0,-1 0,-25 6,36-5,-1 0,1 0,-2 1,2-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 1,0 0,1 0,1 0,-1 0,1 0,-1 0,1 1,1 0,-3 7,-12 34,4 0,2 1,-9 89,19-133,-1 1,1-2,0 1,0 0,0 1,1-1,-1 0,1 0,-1 0,1 1,0-2,1 1,-1 0,0 0,1 0,0-1,-1 1,1 0,0-1,2 1,-2-1,4 2,-1-1,0-1,0 0,1 0,0 0,0-1,-1 0,1 0,-1-1,1 1,1-1,-2 0,7-2,60-3,-26 1,85 4,-129 0,1 0,-1 0,0 1,1-1,-1 1,1-1,-1 1,0 0,1 0,0 0,-1 0,0 1,0-1,0 0,0 1,0 0,0-1,-1 1,1 0,0-1,-1 1,0 0,2 3,-1-1,-1 0,0 0,0 1,0-2,-1 2,1-1,-1 1,0-1,0 1,0-1,-3 8,1 0,-2-1,1 1,-2-2,1 2,-2-1,0-1,0 0,-13 16,9-17,1-2,0 1,-1-1,-1 0,0-2,1 1,-2 0,0-1,1-1,-1 1,0-2,-1-1,-22 4,9-3,0-1,-1-2,1 0,-1-1,-42-9,60 9,1 0,0-1,-2-1,2 0,1 0,-1 0,-1-1,-9-7,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7430.08">4203 27,'0'2,"0"0,0-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-2,-1 1,1 1,2 1,5 9,53 96,89 229,-136-296,-3-1,-2 2,-2-1,0 1,-4 0,-1 0,-3 0,-5 44,2-73,1 0,-1 0,0-1,-1 1,-1 0,0-1,-2 0,1-1,0 0,-2 1,0-3,0 2,-1-2,-1 1,1-1,-1 0,-19 10,20-15,-1 0,1-1,0 0,-1 0,0-1,0 0,0-1,0 0,0-1,-22-1,25 1,-25-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9396.81">5049 539,'13'0,"15"-9,6-2,3 0,-1 2,4 3,7 2,3 2,-1 1,-2 1,-4 0,-11 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9944.95">5021 743,'9'0,"13"0,11 0,5 0,5 0,1 0,5 0,1 0,4 0,-1 5,-6 0,-5 1,-2-1,-2 2,-8 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -24252,11 +24451,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">504 211,'-3'-2,"1"0,-1 1,0-1,1 0,-1 1,0 0,0-1,0 1,0 0,0 1,0-1,0 1,-1-1,1 1,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,1 1,-1 0,0-1,1 1,-1 0,-2 3,-5 3,0 0,1 1,0 0,0 1,1 0,-13 20,-4 20,2 1,2 1,2 1,3 0,-11 64,17-46,4 0,3 0,6 83,1-15,-5-109,0-14,1 1,0-1,2 1,4 25,-5-39,0 0,0 1,0-1,0 0,1 0,-1 0,1 1,0-2,0 1,0 0,0 0,0-1,1 1,-1-1,1 0,0 1,0-1,-1 0,1-1,0 1,1-1,-1 1,0-1,0 0,1 0,-1 0,5 0,0 0,0 1,0-2,0 1,0-1,1 0,-1-1,0 0,0 0,0-1,0 0,-1 0,1-1,0 0,-1 0,0-1,0 0,0 0,0-1,0 0,-1 0,0-1,0 1,-1-1,1 0,-1-1,-1 0,1 1,-1-1,0-1,-1 1,1 0,-2-1,4-12,3-15,-1-1,-2-1,-2 1,-1-1,-2 1,-1-1,-8-54,7 86,1 0,-1 1,0-1,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,0 1,-5-5,2 4,0 0,0 0,-1 1,1 0,-1 0,0 1,0-1,0 1,-13-1,-6 0,-1 2,0 1,0 1,-45 8,49-6,1 1,0 1,0 2,0 0,1 1,-21 11,10-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="443.99">1 1270,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1821.79">1033 185,'0'0,"0"-1,1 0,-1 0,0 0,1 0,0 1,-1-1,1 0,-1 0,1 1,0-1,-1 0,1 1,0-1,0 1,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,3-1,28-4,-28 4,11 0,0 0,0 1,0 1,0 0,0 1,-1 0,1 1,0 1,-1 0,24 11,-32-13,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 1,-1-1,1 1,-1 0,0 0,0 0,0 0,-1 1,0-1,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,-3 7,-9 17,11-27,0 1,1-1,-1 1,1-1,0 1,-1 0,1-1,1 1,-1 0,0 0,1 0,-1 0,1-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 0,1 4,18 34,28 44,-28-54,-2 1,-2 0,14 38,-21-39,0 0,7 64,-14-78,-1 0,0 1,-2-1,0 0,-1 0,-1 0,-6 22,5-30,0 0,0 0,-1-1,-1 1,1-1,-2 0,1-1,-1 0,0 0,0 0,-1-1,1 0,-2 0,1-1,-1 0,-11 5,-8 2,0-1,-1-1,-58 11,17-10,-128 5,129-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2932.43">2514 0,'-7'1,"1"-1,0 1,0 0,0 1,0-1,0 1,0 1,0-1,0 1,1 0,-1 0,1 0,-9 8,-4 5,1 1,-21 26,10-10,-331 397,351-418,-1 0,2 1,-1 0,2 0,0 1,0 0,1 0,1 0,1 0,0 1,0 0,2-1,0 1,0 0,2 0,-1 0,2 0,0-1,1 1,1 0,0-1,0 0,13 24,-11-24,1-1,1-1,0 1,0-1,14 14,-18-21,0-1,1 1,0-1,0 0,0 0,0-1,0 1,1-1,0-1,-1 1,1-1,0 1,0-2,10 3,-14-4,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1-1,0 0,-1 0,1 1,-1-1,0 0,1 0,-1-1,0 1,1 0,-1 0,0-1,0 1,0 0,0-1,0 1,-1-1,1 1,0-1,-1 0,1 1,-1-1,1 0,-1 1,0-1,0 0,1 1,-1-1,-1 0,1 0,0-2,-1-2,1 1,-1 0,0-1,0 1,-1 0,0 0,1-1,-2 1,1 1,-1-1,1 0,-6-6,4 7,-1 1,1 0,-1 0,1 0,-1 0,0 1,0 0,0 0,-1 0,1 0,0 1,-1 0,1 0,-8 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4279.5">2779 264,'0'-2,"1"0,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0 1,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 1,1-1,-1 0,0 1,1-1,3 1,8-3,-1 1,1 1,25 1,-13 2,0 2,0 1,0 1,0 1,-1 1,0 1,-1 1,31 18,-10-2,-1 2,-2 3,47 42,-88-72,12 10,0 1,-1 1,13 16,-24-27,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,0 1,0-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,0 0,0-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,0 1,0-1,0 1,-3 3,-2 0,-1 0,0 0,0 0,0-1,-1 0,0-1,0 1,0-1,-11 3,-87 24,86-26,-113 20,0-5,-176 3,254-20,48-3,-14 2,-1-2,-33-2,77-4,28 5,-22 7,0 2,-1 1,0 1,-1 1,37 22,-24-10,-2 1,64 55,-93-70,0 0,0 0,-1 1,0 0,-1 0,0 1,-1 0,0 0,-1 0,0 1,0-1,-1 1,-1 0,0 0,-1 0,0 0,-1 0,0 0,-1 1,0-1,-6 22,5-30,-1 1,1 0,-1-1,0 1,-1-1,1 0,-1 0,0-1,0 1,0-1,0 0,0 0,-1 0,0 0,1-1,-1 0,0 0,0 0,0 0,0-1,-1 0,-4 1,-16 2,0-1,0-1,-28-2,-159-2,177 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">529 201,'-4'-2,"2"0,-1 2,0-2,1 0,-1 1,0 0,0-1,-1 1,1 0,0 1,0-1,0 1,-1-1,0 1,1 0,0 0,0 0,0 0,0 1,-1-1,0 1,1 0,0 0,0 0,0 0,0 0,1 1,-2 0,1-1,1 0,-1 1,-2 3,-6 3,1-1,0 2,1 0,-1 0,2 1,-14 18,-4 20,2 1,2 0,2 2,3-1,-11 62,17-44,5-1,3 1,6 79,1-14,-5-105,0-13,1 2,0-2,2 1,4 24,-5-37,0 0,1 1,-1-1,0-1,1 1,-1 0,1 1,0-2,0 1,0 0,0-1,0 0,1 1,0-1,0 0,0 1,0-1,-1 0,1-1,0 1,2-1,-2 0,0 0,0 0,1 0,-1 0,6 0,-1 0,1 1,-1-2,0 1,1-1,0 0,0-1,-1 0,0 0,1-1,-1 0,-1 0,2 0,-1-1,0 0,-1-1,0 0,1 0,-1 0,0-1,0 0,-1-1,0 2,-1-2,2 0,-2 0,-1-1,1 1,0-1,-1 0,-1 0,1 0,-2 0,5-12,2-15,-1 0,-1-1,-3 0,-1 0,-2 1,-1-2,-8-50,7 81,1 0,-1 1,0 0,-2-1,2 1,-1-1,0 1,0 1,0-1,0 0,-1 0,0 0,-1 0,1 1,0 0,-5-5,1 4,1 1,0-1,-1 1,0 0,0 0,0 1,-1-1,1 1,-14 0,-6-1,-2 2,1 1,0 1,-48 7,52-5,1 1,0 1,0 1,0 1,1 1,-22 10,10-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="443.98">1 1211,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1821.79">1084 176,'0'0,"0"0,1-1,-1 0,0 0,1 0,0 1,-1-1,1 0,-1 0,1 1,0-1,-1 0,1 1,0-1,0 1,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,3-1,30-4,-30 4,12 0,0 1,-1 0,1 0,0 1,-1 1,0 0,1 1,-1 1,0 0,25 10,-34-12,-1 0,1 1,0-1,-1 1,0-1,0 1,0 0,1 1,-2-1,1 1,-1-1,0 1,0 0,1 0,-2 1,0-2,0 2,0-1,0 1,-1 0,1-1,-1 1,0 0,-1 0,1-1,-1 1,0 0,-1 0,1-1,-1 1,0 0,0 0,-3 6,-10 17,12-26,0 1,1-1,-1 0,1 0,0 1,-1 0,1-1,1 1,-1 0,0 0,1-1,-1 1,1-1,0 1,0 0,0 0,0 0,1-1,-1 1,1 0,1 4,19 32,29 42,-29-51,-2 0,-2 1,14 35,-21-36,-1 0,8 60,-15-74,-1 1,0 0,-2-1,0 0,-1 0,-1 1,-7 20,6-29,0 1,0 0,-2-2,0 2,1-1,-2-1,0 0,0-1,0 1,-1 0,0-1,0-1,-1 1,1-1,-2 0,-11 4,-8 3,-1-2,0 0,-61 10,17-10,-133 5,134-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2932.43">2637 0,'-7'1,"0"-1,1 1,0 0,0 1,-1-1,1 1,0 0,-1 0,1 1,1 0,-1 0,0 0,-8 7,-5 6,1 0,-22 25,11-10,-348 379,369-398,-2-1,3 2,-1-1,1 1,1 0,0 0,0 1,2-1,1 0,0 2,0-1,2-1,0 2,0-1,2 0,-1 1,2-1,0-1,1 2,1-1,0-1,1 1,12 22,-10-23,0 0,1-2,1 1,-1 0,15 13,-18-21,-1 0,1 1,0-1,0 0,1-1,-1 0,0 1,1-1,1-1,-2 1,1-1,1 1,-1-3,11 4,-15-4,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,2 0,-1-1,-1 1,1-1,0 0,-1 1,1 0,-1-1,0 0,1 0,-1-1,0 1,1 0,-1 0,0-1,1 1,-1 0,0-1,0 1,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 0,-1 1,0-1,0 0,1 1,-1-1,-1 0,1 0,0-1,-1-3,1 1,-1 0,0 0,0 0,-1 0,-1 0,2-1,-2 2,1 0,-1-1,1 0,-6-5,3 6,0 1,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,-2 0,2 0,0 1,-2 0,2 0,-8 0,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4279.5">2915 252,'0'-2,"1"0,-1 0,1-1,0 1,0 0,0 1,0-1,0 0,0 0,0 0,2 0,-2 0,1 0,0 1,-1-1,1 1,0-1,0 1,0 1,0-2,0 1,1 0,-1 0,0 1,1-1,-1 0,0 1,1-1,4 1,7-3,0 1,1 1,25 1,-12 2,-1 2,0 1,1 0,-1 2,-1 1,0 0,-1 2,33 17,-11-3,0 3,-3 3,49 39,-92-68,13 10,-1 0,0 2,13 14,-25-25,1 0,0 0,-1 0,1 1,0-1,0 0,-1 0,0 0,0 1,0-1,0 1,-1-1,1 1,-1 0,1-2,-1 2,0 0,0 0,0-1,-1 1,1 0,-1-1,1 0,-1 1,0-1,0 1,0-1,0 1,-4 3,-1-1,-1 1,-1 0,1-1,0 0,-2 0,1-1,0 1,-1-2,-11 4,-91 23,90-26,-118 20,-1-5,-184 3,266-19,51-3,-15 2,-1-2,-35-2,81-4,30 5,-24 7,0 2,0 0,-1 2,-1 0,39 22,-25-10,-2 1,67 52,-98-66,1-1,-1 1,0 0,-1 1,-1-1,0 2,0-1,-1 1,-1-1,0 2,1-2,-2 2,-1-1,0 1,-1-1,0 1,-1-1,0 1,-1 0,0-1,-6 22,4-29,0 0,1 1,-1-1,0 1,-1-1,1-1,-2 1,1-1,0 1,0-1,0 0,-1-1,0 1,0 0,1-1,-2 0,1 0,0 0,0 0,-1-1,0 0,-4 1,-18 1,1 0,0-1,-30-2,-166-2,185 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -24342,7 +24541,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">5 132,'1'-1,"0"0,0 0,0-1,0 1,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 1,1-1,0 1,-1 0,1 0,0 0,-1 0,4 0,0 0,49-3,1 3,-1 2,91 15,-106-11,-17-4,0 1,0 2,0 0,0 2,21 8,-39-13,-1-1,0 0,1 1,-1 0,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,0 1,-1 0,1-1,-1 1,0 0,0-1,0 1,0 0,-1-1,1 1,-1 0,0-1,0 1,0-1,-1 1,1-1,-3 4,-6 10,-1 0,-1-1,0-1,-1 0,-1 0,0-2,-1 0,-25 18,-40 38,78-67,0 0,-1 0,1 0,0 1,1-1,-1 0,0 1,1-1,-1 1,1 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 0,0 6,1-6,1 1,-1 0,1-1,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0-1,6 4,21 14,1-2,1-1,39 15,-41-19,0 1,-2 1,1 1,38 29,-64-42,0-1,0 1,0 0,0-1,0 2,0-1,-1 0,0 0,1 1,-1-1,0 1,-1 0,1-1,-1 1,0 0,1 0,-2 0,1 0,0 0,-1 0,0 0,0 0,0 0,0 0,-2 7,-2 1,-1-1,0 0,-1-1,0 1,0-1,-1 0,-13 13,-2 5,-1-2,-2-1,0-1,-2-1,0-1,-39 23,47-34,-1-1,-1 0,0-2,0 0,-1-1,0-2,0 0,0-1,0-1,-44-1,47-1,0-2,0 0,1-2,-1 0,-20-6,34 7,0 0,0 0,0-1,0 1,1-1,-1 0,1-1,0 1,0-1,0 0,0 0,1 0,0 0,0 0,0-1,0 0,0 1,1-1,0 0,0 0,1-1,-2-5,-2-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1053.84">984 238,'3'-2,"0"-1,0 1,1 0,-1 0,1 0,0 0,-1 0,1 1,0 0,0 0,0 0,7-1,55-1,-41 3,9-1,0 2,0 2,34 6,-51-6,-1 1,1 1,-1 0,0 1,-1 1,1 0,-1 1,15 11,-25-15,0 0,0 0,0 0,-1 1,0-1,1 1,-2 0,1 0,-1 1,1-1,-1 1,-1-1,1 1,-1 0,0 0,0 0,-1 1,0-1,0 0,-1 0,1 1,-1-1,0 0,-1 1,0-1,0 0,-3 9,0-3,0 0,-1-1,-1 0,0 0,0 0,-1-1,0 0,-1 0,0-1,-1 0,0 0,0-1,-11 8,3-5,13-10,0 1,1 0,-1 0,1 0,0 0,-1 1,1-1,0 1,1 0,-1 0,0 0,1 0,0 0,0 1,0-1,0 1,-2 4,4-7,1 1,-1-1,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,2 2,30 14,-21-10,25 14,-2 1,-1 1,0 2,-2 2,40 40,-63-58,-1 1,0 1,-1-1,0 2,0-1,-1 0,-1 1,0 0,0 1,-1-1,0 1,-1 0,-1 0,0 0,0 0,-1 0,-1 0,0 0,-1 1,0-1,-1 0,-5 20,4-22,-1 0,0-1,0 1,-1-1,0-1,-1 1,0-1,0 1,-1-2,0 1,-1-1,1 0,-1 0,-1-1,1-1,-1 1,0-1,0 0,-1-1,1 0,-1-1,0 0,0 0,0-1,0-1,0 1,-1-2,1 1,0-1,0-1,-1 0,1-1,0 1,-12-5,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1053.83">984 238,'3'-2,"0"-1,0 1,1 0,-1 0,1 0,0 0,-1 0,1 1,0 0,0 0,0 0,7-1,55-1,-41 3,9-1,0 2,0 2,34 6,-51-6,-1 1,1 1,-1 0,0 1,-1 1,1 0,-1 1,15 11,-25-15,0 0,0 0,0 0,-1 1,0-1,1 1,-2 0,1 0,-1 1,1-1,-1 1,-1-1,1 1,-1 0,0 0,0 0,-1 1,0-1,0 0,-1 0,1 1,-1-1,0 0,-1 1,0-1,0 0,-3 9,0-3,0 0,-1-1,-1 0,0 0,0 0,-1-1,0 0,-1 0,0-1,-1 0,0 0,0-1,-11 8,3-5,13-10,0 1,1 0,-1 0,1 0,0 0,-1 1,1-1,0 1,1 0,-1 0,0 0,1 0,0 0,0 1,0-1,0 1,-2 4,4-7,1 1,-1-1,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,2 2,30 14,-21-10,25 14,-2 1,-1 1,0 2,-2 2,40 40,-63-58,-1 1,0 1,-1-1,0 2,0-1,-1 0,-1 1,0 0,0 1,-1-1,0 1,-1 0,-1 0,0 0,0 0,-1 0,-1 0,0 0,-1 1,0-1,-1 0,-5 20,4-22,-1 0,0-1,0 1,-1-1,0-1,-1 1,0-1,0 1,-1-2,0 1,-1-1,1 0,-1 0,-1-1,1-1,-1 1,0-1,0 0,-1-1,1 0,-1-1,0 0,0 0,0-1,0-1,0 1,-1-2,1 1,0-1,0-1,-1 0,1-1,0 1,-12-5,0-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3485.91">1089 0,'-2'1,"1"0,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1 1,1-1,-1 1,1-1,0 0,-1 1,1-1,0 1,0-1,0 0,0 2,-2 9,-42 181,-37 133,70-288,2 0,1 0,2 0,2 1,1 0,4 45,2 155,-3-235,0 1,0-1,1 0,0 1,0-1,0 0,0 0,1 1,0-1,-1 0,2-1,-1 1,0 0,1 0,-1-1,1 0,0 1,1-1,-1 0,0-1,1 1,-1-1,1 1,0-1,0 0,0 0,0-1,0 1,0-1,1 0,-1 0,0 0,1-1,-1 1,0-1,1 0,-1-1,1 1,-1-1,0 1,0-1,1-1,-1 1,0-1,7-3,-3 2,0-1,0 0,0-1,-1 0,0 0,1 0,-2-1,1 0,-1-1,0 1,0-1,-1-1,0 1,0-1,6-13,-8 14,-1 0,0 0,0-1,-1 0,1 1,-2-1,1 1,-1-1,0 0,-1 0,0 1,0-1,0 1,-1-1,0 1,-1-1,0 1,-6-12,6 14,1 0,-2 1,1-1,0 1,-1 0,0 0,0 0,0 0,0 1,0-1,-1 1,-6-3,1 1,-1 1,0 0,0 1,-20-4,36 8</inkml:trace>
 </inkml:ink>
 </file>
@@ -24435,7 +24634,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 29,'308'-10,"-62"-1,1669 3,-1268 10,5188-2,-5812 2,-28 2,-41 6,-36 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 29,'323'-10,"-66"-1,1749 3,-1329 10,5434-2,-6087 2,-29 2,-43 6,-38 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -24462,10 +24661,10 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">483 190,'-18'2,"0"0,1 0,-1 2,1 0,0 1,0 1,1 0,-28 16,-11 9,-51 39,103-68,-12 9,1-1,0 2,1 0,0 0,-19 25,28-31,0 0,0 0,0 1,1-1,0 1,0 0,1 0,0 0,0 0,1 1,-1-1,2 0,-1 1,1-1,0 0,2 11,0-11,0-1,0 0,1 0,0 0,0 0,1-1,-1 1,1-1,0 0,1 0,-1 0,1-1,0 1,0-1,0 0,1-1,0 1,10 4,4 2,0-1,1-1,0-1,27 5,-1-5,0-3,-1-1,1-3,51-5,-23 1,-74 4,132-12,-122 11,0-1,0-1,0 0,0 0,-1-1,0 0,1-1,-1-1,16-10,-23 12,0 1,0 0,0-1,-1 0,1 0,-1 1,0-1,0-1,-1 1,1 0,-1 0,0-1,0 1,0 0,0-8,0-8,-1 0,-3-24,1 17,1 14,1-13,-2 1,-1-1,-1 1,-1 0,-9-30,11 49,1 1,-1-1,0 0,0 1,0-1,-1 1,0 0,0 0,0 0,-1 1,0 0,1-1,-1 2,-1-1,1 0,-1 1,1 0,-1 1,0-1,0 1,0 0,0 1,0-1,-1 1,1 0,-10 0,-4 0,1 0,-1 1,0 2,0 0,1 0,-1 2,1 1,-26 9,23-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="444">1277 693,'0'-4,"0"-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1512">1674 84,'0'-2,"1"0,1-1,-1 1,0 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,0 1,0-1,0 1,3-2,36-20,-27 17,0 1,1 1,-1 0,1 1,0 1,23-1,96 4,-70 1,-58-2,-1 0,1 1,0-1,-1 1,1 0,0 0,-1 1,0-1,1 1,-1 1,0-1,0 1,0 0,0 0,0 0,-1 0,0 1,1 0,-1 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,-1 0,0 0,1 0,1 8,5 16,-2 0,0 1,-2 0,-1 0,-2 1,-1-1,-5 55,2-67,-2 1,0-1,-1 0,-1 0,-1-1,0 1,-2-1,1-1,-2 0,0 0,-14 15,-20 22,-84 76,107-108,6-8,0 1,-1-2,-26 17,36-25,0-1,0 0,0 0,-1-1,1 0,-1 0,0 0,1-1,-1 1,0-2,0 1,0-1,-14-1,20 0,-1 1,1 0,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,0 0,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 1,1-1,-1 0,1 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,0-1,1 0,0-1,1-9,1 0,0 0,10-22,-9 23,5-13,2-1,0 2,2-1,0 1,2 1,25-30,-36 47,0 0,1 0,0 0,1 0,-1 1,1 0,-1 0,1 0,0 1,1 0,-1 0,1 1,-1 0,1 0,0 0,-1 1,1 0,0 0,0 1,0 0,0 0,0 0,0 1,0 0,-1 0,1 1,0 0,-1 0,1 1,7 4,45 27,97 72,42 27,-149-106,96 49,-127-68,1-1,0-1,0 0,0-2,1 0,22 1,-13-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2918.67">3685 84,'-67'-1,"36"-1,0 1,-56 8,83-6,-1 0,1 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,1 0,0 0,-1 0,1 1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,1 0,-1 1,1-1,0 0,0 1,0-1,0 6,-2 17,0-1,2 1,4 38,-2-44,-1 12,-1-22,1 1,0-1,1 0,1 1,0-1,5 19,-6-28,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,0 0,1 1,0-2,-1 1,1 0,-1 0,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,3-1,54-14,-48 11,11-3,0 1,0 1,1 2,-1 0,1 1,0 0,-1 2,1 1,29 5,-43-3,1 1,-1 0,0 0,0 1,0 0,0 0,-1 1,0 0,0 0,-1 1,1 0,-2 1,11 13,-9-11,-1 0,-1 1,0 0,0 0,-1 1,0 0,-1-1,-1 1,0 1,3 18,-6-23,1 1,-2-1,1 0,-1 0,0 1,-1-1,0 0,0 0,-1 0,0-1,0 1,-1 0,0-1,0 0,0 0,-1 0,0-1,-1 0,0 0,0 0,0 0,0-1,-1 0,0-1,0 1,0-1,-11 4,-5 2,-1-2,0 0,0-2,0 0,-1-2,1-1,-49 1,57-4,-22 0,1-1,-53-8,81 7,0 0,0 0,0 0,0-1,1-1,-1 1,1-1,0-1,0 0,0 0,1 0,-1-1,1 0,1 0,-9-11,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">504 182,'-19'2,"0"0,1 0,0 2,0-1,0 2,0 1,2 0,-30 15,-11 8,-54 38,108-65,-13 9,2-2,-1 3,1-1,1 1,-20 23,28-29,1 0,0 0,0 0,1 0,0 1,-1-1,2 1,0 0,0 0,1 0,-1 0,2 0,-1 0,1 0,0 0,2 10,0-10,0-2,0 1,1 0,1 0,-1-1,1 0,-1 1,1-1,0-1,2 1,-2 0,1-1,0 1,0-2,1 1,0-1,0 1,11 4,4 1,0 0,0-2,1 0,28 5,-1-6,0-2,-1-1,1-3,54-5,-25 1,-77 4,138-11,-128 10,1-1,-1-1,1 0,-1 0,-1 0,1-1,0-1,0-1,16-9,-24 11,0 1,0 0,0 0,-1-1,2 0,-2 1,0-1,0-1,-1 2,1-1,-1 0,0-1,0 1,0 0,0-7,0-8,-1 0,-3-23,1 16,1 13,1-12,-2 1,-1 0,-1 0,-2 0,-8-29,11 47,1 1,-2 0,1-1,0 1,0-1,-1 2,0-1,0 0,-1 0,0 1,0 1,1-2,-1 2,-2-1,2 0,-1 1,1 1,-2 0,1-1,0 1,0 0,-1 1,1-1,-1 1,1 0,-11 0,-4 0,1 0,-1 1,0 2,1 0,0 0,-1 2,1 1,-27 8,24-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="444">1332 664,'0'-4,"0"-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1512">1746 80,'0'-1,"1"-1,1-1,-1 1,0 0,0 0,1 0,-1 0,1 0,0 0,-1 0,2 1,-1 0,0 0,0-1,0 1,3-2,38-19,-28 16,-1 1,2 1,-2 1,2 0,0 1,23-1,101 4,-73 1,-61-2,-1 0,2 1,-1-1,-1 1,1 0,1 0,-2 1,0-1,1 0,-1 2,1-1,-1 1,0 0,0 0,0 0,0 0,-1 0,1 1,-1 0,-1 0,2 1,-2-1,1 0,-1 1,0 0,-1 0,0 0,1-1,2 9,4 15,-2-1,1 2,-3 0,-1-1,-2 2,-1-1,-5 52,2-64,-2 2,-1-2,0 0,-1 0,-1 0,-1 0,-1-1,1-1,-3 1,1-1,-15 15,-21 21,-88 72,112-103,7-7,-1 0,-1-1,-26 15,36-23,1-1,0 0,0 0,-2-1,2 0,-1-1,-1 1,2-1,-1 1,0-2,-1 1,1-1,-15-1,21 0,-1 1,1 0,-1-1,1 0,-1 1,1-1,-1 0,1 1,-2 0,2-1,0 0,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 1,1-1,-1 0,1 1,0 0,-1 0,1-1,0 0,0 1,0-1,0 0,0 1,0-1,1 0,0-1,1-8,1-1,0 1,11-22,-10 23,5-13,3-1,-1 2,3-1,-1 1,3 1,26-29,-38 45,0 0,1 1,1-1,0 0,-1 1,1 0,-1 1,2-1,-1 1,1 0,0 0,0 1,-1 0,1 0,1 0,-2 2,1-1,1 0,-1 1,0 0,0 0,1 0,-1 1,0 0,0-1,0 2,0 0,-1 0,2 1,6 4,48 25,101 70,43 25,-155-101,100 47,-132-66,1 0,0-1,0 0,0-3,0 1,24 1,-14-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2918.67">3843 80,'-70'0,"38"-2,0 1,-59 7,87-5,-1 0,0 1,1 0,0 0,0 0,0 0,0 1,-1-1,1 0,1 1,0 0,-1 0,1 1,0-1,0 1,0-1,1 1,-1 0,1 0,0 0,1 0,-1 0,1 0,0 0,0 1,0-1,0 5,-2 17,-1-1,3 1,4 36,-1-42,-2 12,-2-22,2 2,0-2,2 1,0 0,0 0,5 18,-6-27,0-1,0 0,1 0,-1 1,0-1,1 0,-1 0,0 0,2 1,-1-2,-1 1,1 0,-1 0,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,0 0,1 0,-2 0,1 0,0 0,0 0,3-1,57-14,-51 12,12-4,0 1,0 1,1 3,-1-1,1 1,0 0,-1 2,1 1,30 5,-45-4,2 2,-2 0,1 0,-1 1,0-1,1 1,-2 1,0 0,1-1,-2 2,1 0,-1 1,10 12,-8-11,-2 1,-1 0,1 1,-1-1,-1 2,0-1,-1 0,0 0,-1 2,3 17,-6-23,1 2,-2-2,1 1,-1 0,0 0,-1 0,0 0,0-1,-2 1,1-1,0 0,-1 1,0-1,0-1,-1 1,0 0,0-1,-1-1,0 1,-1 0,1 0,0-2,-2 1,1-1,0 1,0-1,-12 3,-5 3,-1-2,0-1,0-1,0 0,-1-3,1 0,-52 1,61-4,-24 0,2-1,-56-7,84 6,1 0,0 0,-1 0,1-1,0-1,0 1,1 0,-1-2,1 0,0 0,0 0,0 0,1-1,0 0,-8-10,1-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -24492,16 +24691,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3282 900,'13'0,"19"0,12 0,12 0,11 0,-3 0,-6 0,-10 5,-8 1,-6 0,-5-1,-2-2,2 8,2 2,4-1,-4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="789.72">3256 1429,'0'2,"0"0,0-1,1 1,-1-1,1 1,-1 0,1-1,0 0,0 1,0-1,0 1,0-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,1 0,44 14,-37-12,88 17,0-3,106 3,-180-18,-13 0,0 0,0 1,-1 0,1 0,-1 1,0 1,0 0,12 8,-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2881.01">107 1906,'-13'14,"11"-12,0 1,0-1,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,-1-1,-3 2,6-3,-1 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 1,1 0,0-1,-10-28,-1-54,4 0,6-145,2 140,1 38,2 0,3 0,2 0,1 1,3 0,2 1,2 0,33-62,122-274,-169 378,1-1,0 1,1 0,-1 0,1 0,0 1,0 0,1 0,-1 0,1 0,0 1,1 0,-1 0,1 1,0 0,0 0,0 1,7-3,-6 3,1 0,-1 1,0-1,1 2,-1-1,1 1,-1 0,0 1,1 0,-1 0,0 1,1 0,-1 1,0-1,14 9,-18-9,0 1,0 0,0 0,0 0,-1 1,1-1,-1 1,0 0,3 5,5 12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3563.01">1 980,'9'0,"7"0,6 0,4 0,19 0,7 0,8 0,8 0,0 0,-1 0,-9 0,-9 0,-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4296.08">901 186,'4'0,"6"0,7 5,-1 5,2 11,2 6,-2 3,-4 0,-4 5,-5 1,2-2,0-2,-1-1,-2 2,-6 5,-8 1,-5-7,-2-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5050.73">1351 292,'0'561,"-2"-533,-1 0,-1-1,-12 43,7-35,-5 46,9-30,1 1,5 56,1-91,0 1,1-1,0 0,1 0,1 0,1-1,1 0,0 0,18 29,1-4,-13-20,1-1,0 0,20 20,-29-35,1 1,0-1,0-1,1 1,-1-1,1 0,0-1,0 1,0-1,1-1,-1 1,1-1,-1-1,9 2,17-1,-5-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7959.06">1880 530,'-2'9,"0"-1,0-1,-1 1,0 0,0-1,-1 1,0-1,0 0,-1 0,-6 7,-16 29,15-15,2 0,1 1,1 0,1 0,-5 59,6 150,6-232,1 1,-1 0,1 0,0 0,0 0,1-1,0 1,0 0,1-1,-1 0,1 1,1-1,-1 0,1-1,0 1,1-1,-1 1,1-1,0-1,0 1,1-1,-1 0,1 0,0 0,0-1,0 0,0 0,14 4,-9-4,1 0,-1-1,1 0,0-1,0 0,-1-1,1 0,0-1,0 0,-1-1,1 0,-1-1,1-1,-1 1,21-12,-28 13,0-1,0-1,0 1,-1 0,1-1,-1 0,0 0,0 0,0 0,-1 0,0 0,1-1,-1 1,-1-1,1 0,-1 0,0 1,0-1,1-9,0-11,-1 0,-4-43,1 34,1 9,-1 0,-1-1,-1 1,-2 0,-15-44,17 57,-2 0,0 1,0 0,-1 0,0 0,-1 1,0 0,0 1,-1-1,-1 2,1-1,-1 1,-18-10,-10-2,22 12,14 7,5 3,11 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8392.06">2250 1244,'4'5,"7"-3,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9719.52">2885 583,'-15'-1,"1"0,0-1,-24-7,27 5,0 1,0 1,0 0,0 1,0 0,-1 0,-13 2,22 0,0 0,0 0,1 0,-1 1,0-1,0 1,1 0,-1-1,1 1,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,1 0,-1 0,1 0,0 0,0 0,1 0,-1 0,0 5,-2 11,1 0,0 0,2 21,0-30,0-5,0 0,0 0,0 0,1 0,0 0,0 0,0 0,0 0,1-1,0 1,0 0,0-1,3 5,-2-6,0-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1-1,1 0,-1 1,1-1,-1-1,1 1,0 0,0-1,-1 0,7 0,53-1,-47-1,-1 1,0 1,1 0,-1 1,1 1,-1 0,0 1,24 8,-36-9,0 0,1 1,-1-1,0 0,-1 1,1 0,0-1,-1 1,1 0,-1 0,0 1,0-1,0 0,-1 1,1-1,-1 1,0 0,0-1,0 1,0 0,-1 0,1 3,0 14,-1-1,0 0,-4 22,1-6,2-30,1 0,-1 1,0-1,0 0,-1 1,0-1,0 0,0 0,-1-1,0 1,0 0,0-1,-1 0,0 1,-5 4,3-4,-1-1,0 1,-1-1,1 0,-1-1,0 0,0 0,-1-1,1 1,-12 1,2 0,0-1,0-1,-1-1,-35 0,49-2,0 0,-1-1,1 1,0-1,0 0,0 0,0-1,0 1,0-1,1 0,-1 0,0-1,1 0,0 1,-1-2,1 1,0 0,1-1,-1 1,1-1,-6-9,0-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10573.49">2885 1,'9'0,"1"0,0 0,-1 1,1 0,-1 1,1 0,-1 1,0-1,1 2,-2-1,1 2,0-1,-1 1,0 0,0 1,0-1,0 2,-1-1,0 1,-1 0,0 0,9 14,0 5,-1 1,-1 0,-2 0,-1 1,0 1,7 49,15 185,-25-177,5 59,-13 249,-3-341,-4 0,-1 0,-3-1,-35 96,37-126,-2-1,0-1,-2 0,0 0,-1-2,-34 34,34-37</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3425 871,'14'0,"19"0,13 0,12 0,12 0,-3 0,-6 0,-11 5,-8 1,-7 0,-5-1,-2-2,3 7,1 3,5-2,-5-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="789.72">3398 1383,'0'2,"0"0,0-1,1 1,-1-1,1 1,-1 0,1-1,0 0,0 1,0-1,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1-1,1 0,1 1,46 14,-38-12,91 16,0-2,111 2,-188-17,-13 0,-1 0,1 1,-2 0,1 0,0 0,-1 2,1 0,12 8,-1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2881.01">112 1845,'-14'14,"12"-12,0 1,0-1,0 0,0-1,0 1,-1 0,1-1,-1 1,1 0,-1-1,-3 2,6-3,-1 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-2 0,2-1,-1 1,1 0,0 0,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 1,1 0,0-1,-10-27,-2-52,5-1,6-139,2 135,1 36,2 1,4-1,1 1,1 0,4 1,2 1,1-1,36-59,126-266,-176 366,1-1,1 1,0 1,-1-1,1 0,0 1,1 0,0 1,-1-1,1 0,1 1,0 0,-1 0,1 1,1 0,-1 1,0 0,8-3,-7 3,2 0,-2 1,0-1,2 2,-2-1,2 1,-2 0,0 1,2 0,-2 0,0 1,2 0,-2 1,0-1,15 8,-18-8,-1 1,0 0,0 0,0 0,-1 1,2-1,-2 0,0 1,3 5,6 11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3563.01">1 949,'9'0,"8"0,6 0,4 0,20 0,7 0,9 0,8 0,0 0,-1 0,-10 0,-8 0,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4296.08">940 180,'4'0,"7"0,7 5,-2 5,3 10,2 6,-2 3,-5 0,-3 5,-6 1,2-2,1-2,-2-1,-2 2,-6 5,-8 0,-6-6,-2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5050.72">1410 283,'0'543,"-2"-516,-1 0,-2-1,-11 42,6-34,-4 44,9-28,0 0,6 55,2-89,-1 1,1 0,0-1,1 1,1-1,2 0,0-1,0 1,19 27,1-3,-13-20,1 0,-1-1,22 20,-31-34,1 0,0 0,1-1,0 1,-1-1,2 0,-1-1,0 0,0 0,2-1,-2 1,1-1,0-1,8 2,19-1,-6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7959.06">1962 513,'-2'9,"0"-1,0-2,-1 2,-1 0,1-1,-1 0,0 0,0 0,-1 0,-7 6,-16 29,15-15,3 0,1 1,0 0,2 0,-6 58,7 144,6-224,1 1,-1-1,1 1,0 0,0 0,1-2,0 2,1 0,0-1,-1 0,1 0,1 0,-1 0,1-1,1 1,0-2,-1 2,1-1,0-1,1 1,0-1,-1 0,1-1,1 1,-1-1,0 0,0 0,15 4,-9-4,0 0,0-1,0 0,1-2,-1 1,0-1,0 0,1-1,-1 1,0-2,0 0,0-1,0-1,0 1,21-12,-29 13,1 0,-1-2,0 1,-1 0,1-1,-1 0,1 0,-1 0,0 1,-1-1,0 0,1-1,-1 1,-1-1,1 0,-1 1,0 0,0-1,2-9,-1-10,-1 0,-4-42,0 33,2 9,-1 0,-1-1,-1 0,-2 1,-16-43,18 56,-3-1,1 1,0 1,-1-1,-1 1,0 0,0 0,-1 1,0 0,-2 1,2-1,-1 2,-20-11,-9-1,22 11,15 7,5 3,12 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8392.06">2348 1204,'4'5,"8"-3,-1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9719.52">3011 564,'-16'-1,"2"1,-1-2,-25-7,29 5,-1 1,1 1,-1 0,1 1,-1 0,0 0,-14 2,23 0,0 0,-1 0,2 0,-1 1,0-1,0 1,1 0,-1-1,1 1,-2 0,2 1,0-1,0 0,0 0,0 0,0 1,1-1,-1 1,1 0,-1 0,1 0,0 0,0 0,1 0,-1-1,-1 6,-1 11,1-1,0 0,2 21,0-29,0-5,0-1,0 1,0 0,1 0,0 0,0 0,0 0,0-1,1 0,1 1,-1 0,0-1,3 4,-2-5,0-1,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1-1,1 0,0 1,0-1,-1-1,1 1,0 0,0-1,0 0,6 0,56-1,-50-1,0 1,0 1,0 0,0 1,1 1,-2 0,1 0,25 9,-38-9,0 0,1 1,-1-1,1 0,-2 1,1 0,0-1,-1 0,1 1,-1 0,0 1,0-1,0 0,-1 1,2-1,-2 1,0-1,0 0,0 1,0 0,-1 0,1 3,0 13,-1-1,0 1,-4 20,1-5,2-29,1 0,-2 1,1-1,0-1,-1 2,0-1,0 0,0 0,-1-2,0 2,0 0,0-1,-2 0,1 0,-5 5,3-4,-2-1,1 1,-1-2,0 1,0-1,0 0,-1 0,0-1,0 1,-11 1,1-1,0 0,0-1,-1-1,-36 0,51-2,0 0,-2-1,2 1,0-1,0 0,-1 0,1-1,0 1,0-1,1 0,-2 0,1 0,1-1,0 1,-1-2,0 1,1 0,1-1,-1 1,1-1,-7-8,1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10573.49">3011 1,'9'0,"2"0,-1 0,-1 1,2 0,-2 1,2 0,-2 1,1-1,0 2,-2-2,2 3,-1-1,-1 1,1 0,-1 1,0-2,1 3,-2-1,0 1,0 0,-1-1,10 15,-1 4,0 1,-2 0,-1 0,-2 1,1 1,7 48,15 179,-26-172,6 57,-14 242,-3-331,-5 0,0 1,-4-2,-36 93,39-121,-3-2,1-1,-3 1,1-1,-2-2,-35 34,35-37</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -24809,18 +25008,18 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">927 0,'-43'0,"0"2,0 2,-49 10,80-11,0-1,0 2,0 0,1 0,-1 1,1 0,0 1,0 1,1 0,0 0,0 1,0 0,1 0,1 1,-12 15,17-20,1-1,-1 0,1 1,0-1,1 1,-1 0,1 0,-1-1,1 1,0 0,0 0,1 0,-1 0,1 0,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,1 0,-1-1,0 1,1 0,2 4,0-4,0 1,0-1,1 1,-1-1,1 0,0-1,0 1,0-1,1 0,-1-1,1 1,0-1,0 0,-1 0,1-1,10 2,44 1,-81 0,0 1,1 1,0 1,0 1,1 1,-35 21,35-20,2-1,1 1,0 0,-18 17,29-23,1 0,0 0,0 0,0 1,0 0,1-1,-1 1,1 1,0-1,1 0,0 1,0-1,0 1,-1 7,2-11,1 0,0 1,1-1,-1 1,0-1,1 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,0-1,-1 1,1 0,0-1,0 0,4 3,5 2,0 0,0-1,19 6,-12-4,244 87,-239-86</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="510.74">953 529,'4'-4,"7"-6,5-2,9-3,5 1,2 3,5 4,4 2,0 2,-2 3,1 0,-2 0,2 1,-6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1086.84">1086 450,'4'0,"2"5,4 14,5 14,0 14,-3 9,-3-2,1-4,-1-3,-2-4,-2-5,-2-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2102.42">1 1058,'334'-2,"350"5,-336 25,-120 3,-111-12,-50-6,-42-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6321.14">186 1455,'1'1,"0"-1,0 0,0 0,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,1 2,10 27,-10-25,40 118,-15-40,41 87,-67-167,26 43,-26-45,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0-1,0 1,0-1,0 1,0-1,1-1,6-7,-1 0,-1-1,0 0,0 0,-1-1,0 0,-1 0,4-13,5-10,47-113,125-219,-134 292,-36 52</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7206.27">900 1720,'0'5,"0"5,0 6,0 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8033.48">900 1799,'1'18,"1"-1,0 0,2 0,8 25,-1 0,56 255,-56-251,-11-46,0 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,5-17,1-27,-3-16,3 1,2 0,3 0,21-59,-26 98</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10388.5">2726 873,'4'0,"2"9,-5 12,-11 12,-18 17,-9 11,-15 7,-9 1,-2-6,0-9,11-10,15-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10904.61">2223 952,'9'5,"12"19,20 24,17 26,17 23,8 8,9 10,6 6,-4-7,-13-10,-17-23,-19-20,-12-21,1-30,-4-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11421.3">3731 741,'-5'5,"-5"19,-2 14,-2 15,-5 12,-2 12,-3 7,3 3,5 0,5-11,5-13,3-8,2-10,1-3,6-9,1-5,4-8,0-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12763.26">4181 1058,'-47'-9,"42"7,0 0,0 1,-1-1,1 1,0 1,0-1,0 1,-1 0,-8 0,9 1,1 1,0-1,0 1,0-1,0 1,0 0,1 1,-1-1,1 1,-1-1,1 1,0 0,0 0,0 0,0 1,1-1,-1 1,1 0,0-1,0 1,0 0,1 0,-1 0,1 1,0-1,-1 9,-1 11,0 0,2 0,3 41,-1-36,-1 3,0-10,0-1,2 0,0 1,1-1,9 31,-11-47,1 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,1 0,0 0,0 0,0-1,0 1,0-1,1 0,-1 0,1-1,0 1,0-1,0 0,0-1,0 1,1-1,-1 0,0 0,1-1,5 1,1-1,0 0,-1 0,1-1,0-1,0 0,-1-1,1 0,20-9,-26 10,0-1,0 0,-1 0,0-1,1 0,-1 1,0-2,-1 1,1-1,-1 1,0-1,0 0,-1-1,1 1,-1-1,0 1,-1-1,4-8,3-30,-1 0,-3 0,-1-1,-2 1,-5-54,3 92,-1 1,1-1,-1 0,0 0,-1 1,1-1,-1 1,0-1,-1 1,1 0,-1 0,0 0,-1 0,1 0,-1 1,0 0,-8-8,6 7,-1 1,0 0,0 0,-1 1,1 0,-1 0,0 1,1 0,-1 0,0 1,0 0,-12 0,-88 2,85 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14314.44">4737 1111,'-12'0,"0"0,-1 1,1 0,1 1,-22 5,28-5,1 0,-1 0,0 1,1 0,0 0,-1 0,1 0,0 1,1-1,-1 1,1 0,-1 0,1 1,0-1,-3 8,-10 19,1 0,2 1,-13 45,21-59,1 0,1 0,0 0,2 1,0-1,1 0,1 0,4 23,-4-36,0-1,0 0,1-1,-1 1,1 0,0 0,0-1,1 1,-1-1,1 0,0 1,-1-1,1 0,1-1,-1 1,0-1,1 1,-1-1,1 0,0 0,0-1,-1 1,1-1,0 1,1-1,6 0,11 2,1-1,-1 0,42-5,-35 2,-21 1,-1-1,0 0,1 0,-1 0,0-1,0 0,0 0,0-1,0 0,-1 0,1 0,-1-1,0 0,0 0,0-1,-1 0,1 0,-1 0,0 0,-1-1,1 0,-1 0,0 0,5-11,3-5,-1-1,0 0,-2 0,-1-1,0 0,-2 0,-1-1,-1 1,-1-1,0-32,-3 53,-1 1,1-1,-1 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,1 1,-1 0,1-1,-8 0,-5-1,0 1,-1 0,1 1,0 1,-28 3,42-3,-1 1,0-1,0 0,0 1,1 0,-1-1,0 1,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,-1 0,1-1,0 1,0 0,0 1,0-1,1 0,-1 1,-2 4,1 1,1 1,0-1,0 1,0 0,1 0,0 10,1-14,-4 73</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">959 0,'-45'0,"1"2,-1 2,-50 9,83-10,-1-1,1 2,0-1,0 1,0 1,0 0,1 1,0 0,0 1,1 0,0 0,-1 1,2 0,1 0,-13 15,18-19,1-1,-1 0,1 0,0 0,1 1,-2 0,2 0,-1-1,1 0,0 1,0 0,1 0,-1 0,1-1,0 2,0-1,1 0,-1 0,1 0,-1-1,1 1,1 0,-1-1,0 1,2-1,1 5,0-4,0 1,0-1,1 0,-1 0,2 0,-1-1,0 1,0-2,1 1,-1-1,2 1,-1-1,0 0,-1 0,1-1,11 2,45 0,-84 1,1 1,0 1,0 0,1 2,0 1,-36 19,36-18,3-2,0 2,1 0,-19 15,29-21,2 0,0 0,0 0,0 0,0 1,1-1,-2 1,2 0,0 0,1 0,0 1,0-2,0 2,-1 7,2-11,1-1,0 2,1-1,-1 1,0-1,1 0,-1 0,1 1,0-1,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,0-1,-1 1,2 0,-1-2,0 1,4 3,5 2,1 0,-1-2,20 7,-12-4,252 82,-248-81</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="510.74">986 505,'4'-4,"7"-5,6-3,9-2,5 0,2 4,5 3,4 2,1 3,-3 2,2 0,-3 0,2 1,-6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1086.83">1123 430,'4'0,"3"4,3 14,5 14,1 13,-4 8,-2-1,0-5,-1-2,-1-4,-3-4,-2-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2102.42">1 1010,'345'-2,"363"5,-348 23,-124 4,-115-12,-52-5,-43-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6321.14">192 1389,'1'1,"0"-1,0 0,0 0,1 1,0-1,-1 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,1 2,11 26,-11-25,41 114,-15-39,42 83,-69-159,27 41,-27-43,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1-1,2 1,-1 0,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0-1,0 1,0-1,1 1,-1-1,1 0,6-8,-1 0,-1 0,1-1,-1 1,-1-2,0 1,-1-1,5-12,4-9,49-108,129-210,-138 280,-37 49</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7206.27">931 1642,'0'4,"0"6,0 5,0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8033.48">931 1717,'1'17,"1"-1,0 1,2-1,9 24,-2 0,58 244,-57-241,-12-43,0 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,5-16,1-26,-2-15,2 0,2 1,3 0,23-57,-28 94</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10388.5">2820 833,'4'0,"2"9,-5 11,-11 11,-19 17,-10 10,-14 7,-10 1,-3-6,1-8,11-10,16-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10904.61">2299 909,'10'4,"11"19,22 23,17 25,17 21,9 9,9 8,7 7,-5-7,-13-10,-18-22,-20-19,-11-19,0-30,-4-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11421.3">3859 707,'-5'5,"-5"18,-3 13,-1 15,-6 11,-2 11,-2 7,2 4,5-1,6-11,5-12,3-7,2-10,1-3,6-9,1-4,4-8,1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12763.26">4325 1010,'-49'-9,"44"7,0 0,-1 1,0 0,1 0,0 1,0-1,0 1,-2 0,-7 0,9 1,1 0,-1 0,1 1,0-1,0 1,0 0,1 1,-1-1,1 1,-2-1,2 1,0-1,0 1,0 0,0 1,1-1,-1 1,1-1,0 0,0 1,-1 0,2 0,-1 0,1 0,0 0,-1 9,-1 9,0 1,2 0,3 39,-1-34,-1 3,0-10,0-1,2 0,0 1,1-1,10 29,-12-44,1 0,1 0,-1-1,1 1,0-1,0 1,0-1,1-1,0 1,0 0,0 0,0-1,0 1,0-2,2 1,-2 0,1-1,0 1,0-1,0 0,1-1,-1 1,1-1,-1-1,0 1,1-1,6 1,0-1,1 0,-2 0,1-1,1 0,-1-1,0-1,0 0,21-9,-27 11,1-2,-1 0,-1 0,0-1,1 0,-1 1,1-1,-2 0,1-1,-1 1,0-1,0 1,-1-2,2 1,-2-1,0 2,-1-2,4-7,3-29,0 0,-4 0,-1-1,-2 1,-5-52,3 88,-1 2,1-2,-1 0,0 0,-1 2,1-2,-1 1,0-1,-1 2,0-1,0 0,0 0,-1 1,1-1,-1 1,0 0,-9-7,7 6,-1 1,0 0,-1 1,0 0,1 0,-1 0,-1 1,2 0,-1 0,0 1,-1 0,-11 0,-92 2,88 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14314.44">4900 1060,'-13'0,"1"0,-2 1,2 0,1 1,-23 5,28-5,2 0,-1 0,0 0,1 1,0 0,-2 0,2 0,0 1,1-1,-1 0,1 1,-1 0,1 1,-1-1,-2 7,-10 19,0-1,3 2,-14 42,22-55,1-1,0 0,1 0,2 1,0-1,1 1,1-1,4 22,-3-34,-1-2,0 1,1-1,-1 1,1 0,0 0,0-2,1 2,-1-1,1 0,0 1,-1-1,1 0,2-2,-2 2,0-1,1 1,-1-1,1 0,0 0,0-1,0 1,0-1,0 1,1-2,6 1,12 2,1-1,-1 0,43-5,-36 2,-22 1,-1-1,1 0,0 0,-1 0,0 0,1-1,-1 0,0-1,0 0,0 0,0 0,-1-1,0 1,0-1,1-1,-2 0,1 1,-1-1,0 0,-1-1,2 1,-2-1,0 0,5-10,4-5,-2-1,0 0,-1 0,-2-1,0 0,-2 0,0-1,-2 2,-1-2,0-31,-3 51,-1 2,1-2,-1 0,0 0,0 0,0 1,0 0,-1 0,1-1,-1 1,0-1,-1 1,1 1,0-1,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 1,-2-1,2 0,-1 0,1 1,-1 0,1-1,-9 0,-4-1,-1 1,0 0,0 1,1 1,-30 3,44-3,-1 1,0-1,0 0,0 1,1 0,-2-1,1 1,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,-1 0,1-1,0 0,-1 1,1 1,0-1,1 0,-1 1,-2 4,1 0,1 2,0-2,0 2,0 0,1-1,0 10,1-13,-4 70</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -24932,7 +25131,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="509.38">720 530,'4'0,"6"0,7 0,3 0,4 0,2 0,1 0,1 0,0 0,-1 0,-4 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1304.05">1090 292,'1'1,"1"-1,-1 0,1 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 1,0-1,0 0,-1 1,2 1,14 40,-14-38,32 141,-26-102,2-1,18 51,-28-92,1 0,0 0,0 1,-1-1,1 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1-1,0 1,-1-1,1 1,0-1,0 0,0 1,0-1,4 1,-4-2,0 0,0 0,0-1,0 1,0-1,-1 1,1-1,0 0,0 0,-1 1,1-1,0-1,-1 1,1 0,-1 0,1 0,-1-1,0 1,3-4,5-7,-1-1,-1 1,1-1,-2-1,7-20,49-167,-35 106,71-167,-78 226,-6 18</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2178.5">1566 424,'-2'57,"0"-38,1 1,1-1,1 0,0 1,7 28,-7-46,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1-1,-1 1,0 0,1-1,-1 1,1-1,-1 1,3 1,-2-3,-1 0,0 1,0-1,1 0,-1 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,1 1,-1 0,0-1,0 1,0 0,2-2,3-1,-1-1,0 1,0-1,-1-1,1 1,-1 0,0-1,0 0,3-6,12-23,-1 0,-2-1,-1-1,-2 0,15-70,-25 92</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5165.93">455 557,'-28'0,"12"0,-1 0,0 0,-29 7,40-6,-1 1,1 1,0 0,0-1,0 2,0-1,0 1,0 0,1 0,0 0,0 1,-7 8,8-9,0 0,1 1,0 0,0 0,0 0,0 0,0 0,1 0,0 1,1-1,-3 12,4-15,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,0 0,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1-1,2 1,7 1,-1 2,1-1,-1 1,1 1,-2 0,1 1,12 7,-14-7,1-1,-1 0,1-1,1 0,-1-1,1 0,-1 0,1-1,0-1,0 0,11 0,-5 0,0 1,0 0,21 6,-16 1,-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5165.92">455 557,'-28'0,"12"0,-1 0,0 0,-29 7,40-6,-1 1,1 1,0 0,0-1,0 2,0-1,0 1,0 0,1 0,0 0,0 1,-7 8,8-9,0 0,1 1,0 0,0 0,0 0,0 0,0 0,1 0,0 1,1-1,-3 12,4-15,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,0 0,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1-1,2 1,7 1,-1 2,1-1,-1 1,1 1,-2 0,1 1,12 7,-14-7,1-1,-1 0,1-1,1 0,-1-1,1 0,-1 0,1-1,0-1,0 0,11 0,-5 0,0 1,0 0,21 6,-16 1,-5 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -24959,11 +25158,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 556,'9'0,"12"9,11 8,5 1,5-3,5-4,2-4,-1-3,-1-2,-3-1,-5-1,-5-1,-3 0,-3 5,-1 1,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="790.33">848 424,'5'-1,"0"-1,0-1,0 1,0-1,0 0,-1 0,1 0,-1-1,0 0,0 0,7-7,4-4,335-298,-348 311,7-6,0 1,1 0,-1 0,16-7,-23 13,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 1,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 1,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 1,1 2,2 5,0 1,-1 0,0 0,0 0,-1 0,-1 1,1 18,-5 81,1-73,0-10,0 2,2 1,3 32,-2-52,1 1,0-1,1 1,1-1,-1 0,1 0,1-1,0 1,8 11,29 60,-29-61</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1182.33">1800 741</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1808.11">2303 133,'4'18,"2"42,0 20,-1 5,-2-7,-1-8,-1-12,0-6,-1-8,0-2,4-8,1-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3112.09">2965 80,'-27'0,"16"-1,1 1,-1 0,0 0,0 1,1 1,-13 3,21-4,-1 0,1 0,-1 0,1 1,0-1,-1 1,1-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,0 0,-1 1,1-1,0 1,0-1,0 1,1 0,-1-1,1 1,-1 0,1-1,0 1,0 0,0 3,0-1,0 1,1 0,-1 0,1 0,0 0,0 0,1-1,0 1,0 0,0-1,0 0,1 1,0-1,0 0,1 0,6 7,0-3,1-1,0 0,0 0,1-1,0-1,15 6,-19-9,0 1,0-1,-1 1,1 1,-1-1,0 1,0 1,-1-1,1 1,-1 0,-1 1,1-1,-1 1,0 0,-1 0,1 1,-1-1,-1 1,0 0,0 0,0 0,-1 1,0-1,-1 0,0 1,0 10,0-13,-1 0,0 0,0 0,0-1,-1 1,0 0,0 0,-1 0,-3 10,3-13,1-1,0 0,-1 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,0-1,0 0,-1 1,1-1,0 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,0 0,1 0,-1 0,-2 0,-7-2,0 1,1-1,0-1,-21-8,-5-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 542,'10'0,"12"8,11 9,7 1,4-4,5-3,3-4,-1-3,-2-2,-2-1,-6-1,-5-1,-3 0,-4 5,0 0,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="790.33">895 413,'5'-1,"1"-1,-1-1,0 1,1-1,-1 0,-1 1,1-1,0-1,-1 0,0 0,8-7,3-3,355-291,-368 303,8-6,-1 1,2 0,-2 0,17-6,-23 12,-2 0,1 0,-1 0,1 0,0 1,-1-1,1 1,0-1,0 1,-1 0,2 0,-1 0,0 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 1,1 0,-2-1,1 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 1,0-1,0 0,1 3,2 5,0 1,-1 0,1-1,-1 1,-1 0,-1 1,1 17,-5 79,1-71,0-10,0 3,2 0,3 31,-2-50,1 1,0-2,1 2,1-1,0 0,0-1,1 0,0 1,9 10,30 59,-30-59</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1182.33">1900 722</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1808.11">2431 130,'4'17,"3"42,-1 19,-1 4,-2-6,0-7,-2-13,0-5,-1-8,0-3,4-6,1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3112.09">3130 78,'-29'0,"18"-1,0 1,0 0,-1 0,0 1,2 1,-14 3,21-4,0 0,1 0,-1 0,1 1,0-1,-1 1,1-1,-1 0,1 1,0 0,0 0,1 0,-1 0,0 1,1-1,0 0,-1 1,1-1,-1 1,1-1,0 1,1 0,-1-1,1 0,-1 1,1-1,0 1,0 0,0 3,0-1,0 1,1 0,-1-1,1 1,0 0,0 0,2-1,-1 1,0 0,0-2,0 1,1 1,0-1,1 0,0 0,6 6,1-2,0-1,1 0,0 0,0-2,1 0,16 6,-21-9,0 1,1-1,-2 1,2 0,-2 0,0 1,1 1,-2-1,2 1,-2 0,-1 0,2 0,-2 1,0 0,-1 0,2 1,-2-2,-1 2,0 0,0 0,0 0,0 0,-1 0,-1 0,0 1,0 9,0-12,-1 0,0 0,0 0,0-2,-1 2,0 0,0 0,-1 0,-4 9,4-12,1-1,0 0,-1 0,0 0,1 0,-1 0,0 0,0-1,-1 1,1 0,0-1,0 0,-1 1,1-1,0 0,-1 0,0 0,0-1,1 1,-1-1,1 1,-1-1,0 0,0 0,0 0,-2 0,-8-2,1 1,0-1,0-1,-21-8,-6-4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25021,13 +25220,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">301 374,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1064.02">301 294,'-3'-1,"1"0,0-1,0 1,-1 0,1 0,0 1,-1-1,1 0,-1 1,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 1,1-1,-1 1,1-1,-4 2,-52 20,52-19,-9 3,0 2,0 0,1 0,0 2,0 0,1 0,-13 14,20-18,1 0,0 1,0 0,0 1,1-1,0 1,0-1,1 1,0 0,0 1,1-1,0 0,1 1,0-1,-1 16,2-5,0 1,1-1,1 0,1 0,6 26,-6-39,-1 1,1-1,0 0,0 0,1-1,0 1,0-1,0 1,0-1,1 0,0-1,0 1,1-1,-1 0,1 0,0-1,0 0,11 5,-3-2,0-1,1-1,-1 0,1-1,0 0,-1-2,1 1,0-2,0 0,0 0,0-2,16-3,-28 4,0-1,0 1,-1-1,1 0,0 0,-1 0,0-1,1 1,-1-1,0 1,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,0 0,1-6,1-11,1 0,-1-26,0 16,12-48,2-18,-16 87,-1 1,1-1,-2 1,1-1,-1 1,-1-1,1 1,-6-15,5 19,0 1,0-1,0 1,-1-1,1 1,-1-1,-6-4,-6-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1586.1">750 771,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2960.42">1253 189,'-4'1,"1"-1,0 0,-1 1,1 0,0-1,0 1,0 1,-1-1,1 0,0 1,1-1,-1 1,0 0,0 0,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 1,0 3,-3 13,2 1,0-1,2 41,0-38,0-10,0 1,1-1,0 0,1 0,0 0,8 23,-9-33,1 1,-1-1,1 0,0-1,0 1,0 0,1 0,-1-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0-1,1 1,-1-1,0 0,0 1,1-2,-1 1,0 0,1-1,-1 1,1-1,-1 0,0 0,1 0,-1-1,1 1,3-2,-4 2,1-1,-1 1,1-1,-1 0,0-1,0 1,1 0,-1-1,0 0,0 0,0 0,-1 0,1 0,0 0,-1-1,4-4,-2 2,-1 0,0-1,0 1,-1-1,1 0,-1 0,0 0,1-11,0-9,-1-1,-1 0,-4-41,1 37,0 11,1-33,1 51,0-1,0 0,1 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,3-4,-3 6,-1 0,0-1,0 1,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 1,8 14,-1 25,-8-40,14 255,-3-25,-9-202,-2-20,0-1,1 1,0-1,0 1,0-1,1 0,0 1,1-1,0 0,6 13,3-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3818.76">1597 347,'2'-3,"1"-1,-1 0,1 1,0 0,0 0,0 0,1 0,-1 0,8-4,8-8,16-19,1 1,2 2,1 2,2 1,68-35,-106 61,0 0,1 0,-1 1,1-1,-1 1,1 0,-1 0,1 0,0 1,0-1,-1 1,1 0,0 0,0 0,-1 0,1 1,0 0,0-1,-1 1,1 1,-1-1,5 2,-5 0,1 0,-1 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 0,0 1,-1-1,1 1,-1-1,0 1,0 0,0 5,6 68,-4 1,-10 129,0-62,6-94</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4923">2311 347,'2'-10,"1"0,0 0,1 0,0 0,1 1,0-1,1 1,-1 0,10-9,-11 12,12-14,1 0,1 1,0 1,2 1,0 0,1 2,0 0,1 1,1 2,0 0,1 1,0 2,1 0,0 2,0 0,46-5,-67 12,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 1,-1-1,1 0,0 1,-1 0,1 0,-1 0,1 1,4 4,-4-2,0 0,-1 0,0 0,0 0,0 1,-1-1,0 1,0 0,0 0,-1 0,1 0,-1 8,5 41,-3 0,-1 0,-4 0,-2 0,-2-1,-2 1,-29 96,32-138,-1 1,0-1,0 0,-2-1,1 1,-2-2,0 1,0-1,-1 0,-14 12,3-5,-1-1,-1-1,-1-1,-35 16,54-28,1-1,-1 0,0 0,1 0,-1-1,0 0,0 0,0 0,0-1,0 1,-9-2,12 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,1 1,-1-1,1 0,0 1,0-1,-1 0,1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0-4,-1-2,1-1,-1 1,2-1,-1 1,1 0,0-1,1 1,0 0,0 0,1 0,0 0,0 0,1 1,0-1,0 1,1 0,0 0,0 1,0-1,1 1,0 1,1-1,-1 1,1 0,0 0,0 1,0 0,1 0,-1 0,1 1,13-3,-11 4,1 1,-1 0,0 0,0 1,1 0,-1 1,0 0,0 1,0 0,12 5,2 2,-1 2,41 26,-61-35,7 3,1 0,0 0,0-1,0-1,1 0,-1 0,1-1,-1-1,1 0,12-1,24 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6648.91">3661 83,'-28'0,"7"-1,-1 1,1 1,-1 1,-26 6,43-6,0-1,0 1,0 0,0 0,0 0,0 1,0 0,1-1,-1 2,1-1,0 1,0-1,0 1,1 0,-1 0,1 1,0-1,0 1,0 0,1-1,0 1,-2 6,-3 14,2 0,1 0,1 0,1 1,1 0,1-1,1 1,9 45,-10-68,1 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 0,4 1,4 0,0-1,0 0,1-1,-1 0,0-1,12-2,-13 2,1 0,0 0,-1 0,1 2,-1-1,15 4,-23-3,1 1,0-1,0 1,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,1 0,-2 0,1 0,0 0,-1 0,1 0,-1 1,0-1,0 0,-1 7,1-3,0 1,0 0,-1-1,-1 1,1 0,-1-1,0 0,-1 1,0-1,-5 10,5-13,-1-1,0 1,1-1,-1 0,0 0,-1 0,1-1,0 0,-1 1,0-2,1 1,-1 0,0-1,0 0,0 0,-9 0,-12 1,1-2,-28-2,22 0,-4 1,3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">315 365,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1064.02">315 287,'-3'-1,"1"0,0-1,0 1,-2 0,2 0,0 1,-1-1,1 0,-1 1,1 0,-1-1,-1 1,2 0,-1 0,1 0,-1 1,1-1,-1 1,1-1,-5 2,-53 20,53-19,-8 3,-1 1,0 1,2 0,-1 2,0 0,2-1,-14 15,20-18,2-1,0 2,0 0,-1 1,2-1,0 1,0-2,1 2,0 0,-1 1,2-1,0-1,1 2,0-1,-1 16,2-6,0 2,1-2,1 1,1-1,7 26,-7-38,-1 1,1-1,0 0,0 0,2-2,-1 2,0-1,0 1,0-1,2 0,-1-1,0 1,1-2,-1 1,2 0,-1-1,0 0,12 5,-3-2,-1-1,2-1,-1 0,0-2,1 1,-1-2,1 1,-1-2,1 0,0 0,-1-2,18-3,-30 4,0 0,0 0,-1-1,1 0,1 0,-2 0,0-1,1 1,-1-1,0 1,0-1,0 1,-1-1,1 0,-1 0,2 0,-2 0,0 1,0-1,1-6,1-11,1 1,-1-26,0 16,13-48,2-16,-17 84,-1 1,1-1,-2 1,1 0,-1 0,-1-1,1 1,-7-14,6 18,0 1,0-1,0 1,-1-1,1 1,-1-1,-7-4,-5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1586.1">785 753,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2960.42">1311 185,'-4'1,"1"-1,0 0,-1 1,1 0,-1-1,1 1,0 0,-1 0,1 0,0 1,1-1,-2 1,1 0,0 0,1 0,-1 0,1 1,0-1,0 1,0-1,-1 1,1 0,0 0,1 0,-1 0,1-1,0 1,0 0,0 0,0 1,0 3,-3 13,2 0,-1 0,3 39,0-36,0-11,0 2,2-1,-1-1,1 1,0 0,8 22,-9-32,1 1,-1-1,1 0,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 1,1-1,1 0,-2 0,1 0,0-1,1 1,-1-1,0 0,0 1,2-2,-2 1,0 0,1-1,-1 1,1-1,0 0,-1 0,1 0,-1-1,1 1,4-2,-5 2,1-1,-1 1,1-1,-1 0,1-1,-1 1,1 0,-1-1,0 0,0 0,0 0,0 0,0 0,0 0,-1-1,4-3,-2 1,-1 0,1-1,-1 1,-1-1,1 0,-1 0,0 1,1-12,0-8,0-2,-2 1,-5-41,2 37,0 11,1-33,1 50,0-1,0 0,1 0,-1 1,1-1,0 0,0 0,0 1,1 0,-1 0,0-1,1 1,-1 0,3-4,-3 6,-1 0,0-1,0 1,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 0,2 1,7 14,-1 24,-8-39,15 249,-4-25,-8-196,-3-21,0 0,1 1,0-1,0 1,0-1,1-1,0 2,1-1,0 0,7 12,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3818.76">1671 339,'2'-3,"2"-1,-2 0,1 1,0 0,0 0,0 0,1 1,0-1,7-4,9-8,17-18,0 1,3 1,1 3,2 1,71-35,-111 60,0 0,1 0,-1 1,2-1,-2 1,1 0,-1 0,1 1,0 0,1-1,-2 1,1 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 1,1 1,0-1,4 2,-5 0,1 0,-1 1,1-1,-1 1,0 0,0 0,-1 0,1 0,-1-1,0 1,0 1,-1-1,2 1,-2-1,0 1,0 0,0 4,6 68,-4 0,-10 126,0-60,6-93</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4923">2419 339,'2'-10,"1"0,0 1,1-1,0 0,2 1,-1 0,1 0,-1 0,11-9,-12 13,13-15,1 0,1 2,-1 0,3 2,0-1,1 2,0 1,1 0,1 2,0 1,2 0,-1 2,1 0,0 3,0-1,48-5,-69 12,-1-1,0 1,0 0,0 0,1 0,-1 0,0 1,0-1,0 1,1 0,-1 1,-1-1,1 0,0 1,-1 0,2 0,-2 0,1 1,4 3,-4-1,1 0,-2 0,0 0,0 0,0 1,-1-1,0 0,0 1,1 0,-2 0,1 0,-1 8,5 39,-3 1,-1 0,-4-1,-2 1,-2-1,-3 1,-29 93,32-134,0 0,0 0,0 0,-3-1,2 0,-3-1,1 1,0-2,-2 1,-14 12,3-6,-1 0,-1-2,-1 0,-37 15,57-27,1-1,-2 0,1 0,1 0,-1-1,0 0,-1 0,1 0,0-1,0 1,-10-2,13 1,0-1,0 1,0-1,-1 0,1 0,0 0,0 0,0-1,1 1,-1 0,0-1,1 1,-1-1,1 0,0 1,0 0,-2-1,2 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0-4,-1-2,1 0,-1 0,2-1,-1 1,1 0,0 0,1 0,0 0,0 0,2 0,-1 1,0-1,1 1,0-1,0 1,2 0,-1 1,0 0,0-1,2 1,-1 1,1-1,0 1,0 0,0 1,1 0,-1 0,1 0,0 0,0 1,14-3,-12 4,2 1,-2 0,1 0,-1 1,2 0,-2 1,1 0,-1 1,1 0,12 5,2 2,-1 2,43 25,-64-34,7 3,2-1,-1 1,1-1,0-1,0 0,0 0,0-1,0-1,0 0,13-1,26 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6648.91">3832 81,'-30'0,"8"-1,-1 1,1 1,-1 1,-27 6,45-6,0-1,-1 1,1 0,0 0,0 0,-1 1,1-1,1 0,-1 2,1-1,-1 1,1-1,0 1,1 0,-1 0,0 1,1-1,0 0,0 1,1-1,0 1,-2 6,-4 13,3 1,1-1,1 1,1 0,1 0,1 0,1 0,9 45,-10-68,1 1,0 1,0-1,0 0,0 0,0 0,2 0,-2 0,1 0,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,2 0,-1 0,-1 0,1 0,0-1,0 1,0-1,0 0,5 1,3 0,1-1,-1 0,2-1,-2 0,1-1,12-2,-14 2,2 0,-1 0,0 0,0 2,0-1,15 4,-24-3,1 1,0-1,1 1,-2 0,1 0,-1 1,0-1,0 0,0 1,0-2,0 2,0 0,0 0,0 0,-1 0,0 0,1 0,-2 0,1 0,0 0,-1 0,1 0,-1 1,0-2,0 1,-1 7,1-3,0 1,0 0,-1-2,-1 2,1 0,-1-1,0 0,-2 1,1-2,-5 11,5-13,-1-1,-1 1,2-1,-1 0,0 0,-1 0,0-2,1 1,-1 1,0-2,1 1,-2 0,1-1,0 0,0 0,-10 0,-12 1,1-2,-30-2,24 0,-5 1,4 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25054,64 +25253,64 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11035 5900,'-5'5,"-1"1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="579.02">11035 6456</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2956.52">8971 5794,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3729.52">8971 6403,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6102.57">6722 5768,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6564.65">6695 6138</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7101.65">6722 6403,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-109338.14">1 5345,'1'-5,"1"0,0 0,1-1,-1 1,1 1,0-1,0 0,1 1,0 0,-1-1,1 1,0 1,9-7,5-7,23-31,52-82,3-3,84-86,99-127,-219 272,3 2,3 2,3 4,3 3,123-85,516-279,-536 340,302-106,-379 162,174-34,103 14,-115 32,494 29,-652 2,0 3,-2 5,0 5,-1 3,153 68,176 107,-380-179,30 16,262 116,-163-85,104 36,439 103,-520-155,-127-35,2-3,0-3,1-3,0-4,89-3,-146-5,580-40,-516 29,-1-3,-1-4,0-4,-2-3,89-42,265-120,-236 105,-193 81,395-178,-303 131,-3-5,96-72,212-185,-129 95,243-179,-368 293,4 8,210-99,-320 175,609-243,-486 218,216-30,-343 69,0 0,1 3,-1 1,1 2,-1 1,0 2,0 2,67 20,-57-10,0 2,-1 2,-1 2,-1 2,80 61,470 344,-289-215,-223-159,3-2,2-5,3-4,1-3,108 33,-115-46,-16-5,1-3,117 21,-165-39,31 4,60 0,-96-7,-1 0,1-2,-1 0,0 0,0-2,0 1,0-2,22-10,52-30,183-85,-195 95,-3-5,-1-2,-2-3,-2-4,112-102,-117 96,-31 28,0-1,-2-2,-1-1,-1-2,-2 0,28-45,48-127,-62 118,70-110,59-84,-162 269,-4 7,-1 1,1-1,-1 0,0 0,0-1,0 1,-1-1,0 1,0-1,-1 0,1 0,-1 0,1-10,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-108512.14">18840 476,'4'0,"2"9,-1 12,0 16,-2 20,-1 13,-1 14,0 9,-1-1,-5-8,-1-13,-4-10,-1-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-107544.14">18760 370,'0'-4,"9"-2,7 1,6 0,4 2,10 1,9-4,5 0,-1-9,0-1,-4 2,-10 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-106772.14">18893 609,'-5'0,"8"0,12 0,13 0,1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-105861.14">19739 53,'-27'15,"2"0,0 1,1 2,-35 31,-76 92,108-112,5-5,1 0,1 2,2 0,0 1,2 1,1 0,1 2,1-1,2 1,1 1,1 0,2 1,1-1,-3 62,6-26,3 1,11 93,-7-138,0-1,2 0,0 0,1 0,2-1,0 0,1-1,1 0,1 0,28 34,-28-40,0 0,1-2,1 1,0-2,1 0,16 9,-22-14,1-1,0-1,0 0,1-1,-1 1,1-2,0 0,-1 0,1-1,0 0,14-1,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-105042.1">19607 741,'-1'-24,"2"-1,4-24,-3 40,0-1,1 1,0-1,1 1,0 0,0 1,11-17,-4 8,-2 2,0 0,1 1,1 1,0-1,1 2,1 0,0 0,14-10,-25 21,0 0,1 0,-1 0,0 1,0-1,1 1,-1-1,0 1,1 0,-1-1,1 1,-1 1,0-1,1 0,-1 0,1 1,3 1,-1 0,1 1,0-1,-1 1,0 0,0 1,9 7,3 6,0 0,24 34,-36-44,171 271,-137-206,4-2,3-1,77 87,-115-147,1 0,0-1,0 0,1-1,0 0,0 0,0-1,19 8,-3-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-104244.14">20480 450,'-7'1,"0"0,0 0,0 1,1-1,-1 1,0 1,1-1,0 1,0 0,0 1,-10 6,-60 56,49-41,-83 79,-103 130,127-136,54-66,-3 0,0-3,-53 35,76-56,-29 21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-103298.14">20692 0,'8'21,"-1"0,-1 0,-1 1,-1 0,2 22,5 27,64 200,2 7,-71-255,-2 0,-1 1,-1-1,-1 1,0-1,-2 1,-1-1,-1 1,-1-1,-1 0,-1 0,-1 0,-1-1,-11 22,-13 14,-2-2,-72 91,69-101</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-36190.57">6748 3784,'-2'5,"0"0,0-1,0 1,0-1,-1 1,0-1,0 0,0 0,0 0,0-1,-1 1,-4 2,-5 8,-2 3,0 1,2 1,0 0,1 1,0 1,2-1,1 2,0-1,2 1,-5 24,11-44,1 0,0 1,0-1,0 0,0 0,0 0,0 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1-1,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,3 1,12 0,0 0,0 0,0-2,18-2,-8 1,-20 2,1-1,-1 0,0 0,1 0,-1-1,0 0,0-1,0 0,0 0,-1 0,1 0,9-9,-13 10,0-1,-1 1,0-1,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,0-1,1 1,-2 0,1-1,0 1,-1-1,1 1,-1-1,0 0,0 1,0-1,-1 1,1-1,-1 1,0-1,0 1,0 0,-2-4,0 0,0 1,0 1,-1-1,1 0,-1 1,-1 0,1 0,-1 0,0 0,0 1,-11-8,15 11,-1 0,1 0,-1 0,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 1,-2 0,2 0,0 1,0-1,0 1,1-1,-1 1,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,1 0,-1 4,-1 5,0 0,1 0,1 0,0 1,2 19,-2-28,1 0,-1-1,0 1,1 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,1 1,-1-1,1 0,0 0,0 1,0-1,0 0,0-1,0 1,1 0,-1-1,0 1,1-1,-1 0,1 1,0-1,2 0,-4-1,0 0,0 1,0-1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,0-1,9-27,-11-32,-1 51,0 0,0 0,-1 1,0-1,0 1,-9-16,10 23,1-1,0 1,-1-1,0 1,1 0,-1-1,0 1,0 0,-1 0,1 0,0 1,-1-1,1 0,0 1,-1 0,0-1,1 1,-1 0,0 0,0 1,0-1,1 1,-1-1,0 1,0 0,0 0,-3 0,3 1,1 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,1 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 5,-3 14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-34282.85">8918 3916,'-2'1,"1"-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 1,-5 40,4-36,0 3,0 0,1 1,0-1,1 0,0 1,0-1,4 15,-3-20,-1-1,1 0,-1 0,1 0,0 0,0 0,1-1,-1 1,0-1,1 1,0-1,-1 0,1 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,1-1,-1 1,0 0,5 0,3 1,1-1,-1 0,1-1,0 0,-1-1,1 0,13-3,-22 3,0 1,0-1,0 0,-1 0,1 0,0 0,-1-1,1 1,-1-1,1 0,-1 1,0-1,0 0,0 0,0-1,0 1,0 0,0-1,-1 1,1-1,-1 1,0-1,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,-1-5,0 1,-1 0,0 0,0 0,-1 0,0 1,0-1,0 1,-1 0,0 0,0 0,-1 1,1-1,-1 1,-1 0,1 0,-1 1,1-1,-1 1,0 1,-1-1,1 1,-1 0,1 0,-1 1,-8-2,10 3,0-1,0 1,0 0,0 0,0 0,0 1,-1 0,1 0,0 0,0 1,0 0,0 0,-1 0,1 0,1 1,-1 0,0 0,0 0,1 1,-1-1,1 1,0 0,-1 1,1-1,1 1,-1-1,1 1,-1 0,1 1,0-1,1 0,-1 1,1 0,-4 8,4-6,0-1,1 1,0 0,0-1,0 1,1 0,0 7,3 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-32404.27">10955 2831,'-2'1,"1"-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,0 2,-12 27,11-26,-1 6,-1 0,2 0,-1 1,1-1,1 1,0 0,0-1,1 1,0 0,3 15,-2-23,-1 0,1 1,0-1,1 0,-1 0,0 0,1 0,-1-1,1 1,0 0,0-1,0 1,0-1,1 1,-1-1,1 0,-1 0,1 0,0-1,0 1,0 0,0-1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0-1,0 0,1 0,-1 0,0 0,0-1,1 0,4-1,-4 1,1-1,0 1,-1-1,1 0,-1-1,0 1,1-1,-1 0,-1 0,1 0,0-1,-1 1,1-1,-1 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,-1-1,1 1,0-1,-1 0,0 0,0-6,1 2,-1 0,0 0,0 0,-1 0,0 1,-1-1,0 0,0 0,-1 0,0 1,-1-1,0 1,0 0,-5-9,6 14,0 0,0 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0 0,0-1,0 1,0 0,-5-1,-53-1,37 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30702.27">6325 2408,'-1'-52,"3"0,13-72,-11 104,0 0,2 1,0 0,2 1,0-1,1 1,0 1,2-1,16-20,-23 32,1 0,0 0,0 1,0 0,1 0,0 0,0 0,0 1,0 0,1 0,0 1,0 0,0 0,0 1,0-1,0 2,0-1,1 1,-1 0,1 0,-1 1,1 0,-1 1,1-1,-1 1,1 1,7 2,-12-3,0 1,0 0,0-1,0 1,0 1,-1-1,1 0,-1 0,1 1,-1 0,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 0,0 0,-1 1,1-1,-1 7,2 13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30028.27">6272 2170,'13'0,"18"0,9 0,10 0,7 0,-3 0,-1 0,-6 0,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-29318.27">7039 1826,'-33'59,"21"-37,0 0,-12 31,8-7,-12 55,26-89,-1 0,1 0,1 1,1-1,-1 1,2-1,0 0,0 1,1-1,4 13,-3-18,1 0,-1 0,1-1,0 0,1 0,0 0,-1 0,9 6,6 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-28671.27">7039 1984,'4'0,"7"0,5 0,5 0,12 5,5 1,-4 4,-3 6,-3 3,-5 4,-3 2,-5 6,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-27673.27">7357 1932,'0'5,"-5"5,-1 6,0 5,-3 3,0 2,-4-3,2-2,1 1,4 1,1 1,-1 1,-5 1,-6 0,2 0,2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-27050.75">7489 2143,'4'0,"2"5,0 6,-1 5,-2 5,-1 3,-1 2,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-26157.75">7516 1693,'0'0,"0"-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,2 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,2 3,4 7,-1 0,0 0,-1 1,-1 0,0 0,6 18,17 82,-22-72,-2 0,-1 0,-2 1,-8 68,3-85,0 1,-14 38,1-3,12-37</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-24047.75">8839 1932,'-2'48,"-10"54,-2 41,15-63,1-49,-2 1,-1-1,-1 1,-8 34,10-66,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 1,-1 0,0-1,1 1,-1-1,0 1,-4-18,3-37,9-25,4 1,31-111,-26 123,-16 62,4-14,1 0,1 0,9-21,-14 36,1 0,-1 0,0 0,1 0,0 1,-1-1,1 0,0 1,0 0,1-1,-1 1,0 0,1 0,-1 0,1 1,0-1,0 0,-1 1,1 0,0 0,0 0,0 0,1 0,-1 0,0 1,0 0,4-1,-5 2,-1-1,1 1,-1-1,1 1,-1-1,0 1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,-1-1,1 0,0 1,0-1,-1 1,1-1,-1 1,1 1,6 42,-6-41,0 25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-23399.75">8786 2302,'4'0,"6"0,7 0,8 0,5 0,1 0,1 0,-1 0,-1 0,-2 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-22741.75">9235 1932,'-2'1,"0"-1,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,0-1,0 1,0 0,-1-1,2 1,-1 0,0 0,0-1,0 4,-15 53,14-46,-8 39,2 0,3 0,2 1,6 86,1-109,2-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-21893.75">9315 2196,'0'-4,"4"-6,6-7,7 1,3 3,4 7,3 10,-5 14,-4 7,-3 4,-2 2,0-4,-2-3,-2-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-21230.23">9632 1905,'-5'9,"-1"12,-13 21,-8 11,1 3,4-1,2-5,5-5,-1-8,3-4,4-3,3-3,3-2,2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-20505.32">9659 2249,'0'5,"0"5,0 6,0 5,0 3,0 2,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-19931.82">9765 2090,'0'9,"0"8,0 5,0 3,0 3,0 0,0 5,4-4,2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-19371.3">9791 2196,'4'0,"6"0,7 0,3 0,4 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-18783.25">9950 2170,'0'5,"0"5,0 6,0 5,0 3,0 2,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-17957.18">9950 1667,'5'0,"0"1,1-1,-1 1,0 0,1 0,-1 0,0 1,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1 1,6 4,-4-1,0 1,0-1,-1 1,0 0,0 0,-1 0,0 1,5 16,-2 3,-1 0,-2 0,0 0,-2 1,-1 35,-2 25,2-30,-11 96,4-129,-1-1,-1 0,-1-1,-14 26,-15 43,32-71</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-16444.2">11061 1561,'-1'1,"0"-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 2,-5 30,4-29,-10 211,-5 31,15-245,0-10,-1-31,0-55,6 30,3 0,3 1,31-104,-19 80,-19 77,0 1,0 0,1 0,0 0,9-14,-12 22,1-1,-1 1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 1,-1-1,1 1,0 0,-1 0,6 1,-6-1,-1 1,1-1,0 1,-1 0,1 0,-1 0,1-1,-1 1,0 1,1-1,-1 0,0 0,0 0,1 1,-1-1,0 1,-1-1,1 0,0 1,0 0,-1-1,2 3,5 37,-5-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-15745.65">10982 1852,'13'0,"9"0,10 0,4 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-15023.66">11670 1270,'-1'4,"0"0,0 0,0-1,0 1,-1-1,1 1,-1-1,0 0,0 1,-4 3,-6 13,-26 64,-36 113,62-155,2-1,2 1,2 1,1 0,2 48,4-30,-1-35</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-14184.13">11722 1640,'1'-2,"0"-1,0 0,1 1,-1-1,1 1,0-1,0 1,0 0,0 0,0 0,0 0,1 0,4-2,-1-2,38-35,-28 24,2 0,29-21,-43 35,1 0,0 0,-1 1,1-1,0 1,1 0,-1 0,0 1,0 0,1-1,-1 2,1-1,-1 1,1 0,-1 0,7 1,-8 0,1 1,-1 0,0 0,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0 0,0 0,-1 0,4 6,3 7,0 0,10 30,-4 17,-12-38</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-13533.07">12066 1297,'4'0,"2"9,0 12,-1 16,-6 6,-8-4,-6 0,-5-7,-4-3,-3 1,4 1,2-1,3-1,6-1,4-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-12732.99">12278 1614,'0'5,"0"5,0 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-12326.96">12278 1349,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-11660.46">12490 1402,'0'5,"0"10,0 7,0 5,0 2,0 0,0 0,0 0,0-1,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-10821.03">12384 1535,'4'-4,"6"-2,7 0,3 1,4 2,7 1,2 1,1 0,2 1,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-9152.84">12675 1349,'5'0,"1"0,0 0,0 1,0-1,-1 1,1 0,0 1,-1 0,1-1,6 5,-9-4,0 0,-1 0,1 1,0 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 1,-1-1,0 0,1 1,-1-1,-1 1,2 6,-1-3,0-1,-1 1,1 0,-2 0,1 0,-1 0,0 0,0 0,-1-1,0 1,0 0,0-1,-1 0,0 1,0-1,-1 0,0 0,0-1,0 1,-1-1,0 0,1 0,-2-1,1 1,-1-1,1 0,-1-1,0 0,-1 1,-11 3,18-7,-1 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 0,0 0,1 0,0 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,1-2,-1 1,0-1,1 0,-1 0,1 0,0 1,-1-1,1 0,1 1,-1-1,0 1,1-1,-1 1,1-1,0 1,-1 0,1 0,3-3,-2 4,0-1,1 1,-1 0,0 0,0 0,0 0,1 1,-1-1,1 1,-1 0,0 0,1 0,-1 1,0-1,1 1,-1-1,0 1,4 2,15 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8070.84">12781 1085,'6'0,"1"0,0 0,0 0,0 1,0 0,0 1,-1-1,1 1,6 3,-10-3,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 1,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1 4,3 25,-1 1,-2 0,-1 0,-1 0,-2 0,-2-1,-1 1,-16 45,20-71,0-1,-1 0,0-1,0 1,-6 6,-5 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3289.84">11087 3466,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2675.84">11035 3889,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1737.84">11008 4392,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1226.32">11008 4657,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-813.32">11008 5054,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-459">11035 5398</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1622.52">8997 4498,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2058.52">9050 4895,'0'5,"0"10,0 7,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2504.52">8944 5371,'0'5,"0"1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4587.55">6775 4445,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5103.55">6828 4974,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5703.52">6775 5477,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11482 5668,'-5'5,"-1"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="579.02">11482 6202</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2956.52">9334 5566,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3729.52">9334 6151,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6102.57">6994 5541,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6564.65">6966 5897</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7101.65">6994 6151,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-109338.14">1 5135,'1'-5,"1"0,0 0,1 0,-1 0,2 1,-1-1,0 0,1 1,0 1,-1-2,1 1,1 1,8-7,6-6,23-30,55-79,3-3,87-82,104-122,-229 261,4 1,2 3,4 4,3 2,128-81,537-268,-558 326,314-101,-394 155,181-32,107 13,-119 30,513 29,-677 1,-1 4,-2 4,0 5,-1 3,159 65,183 103,-395-172,31 16,273 111,-170-82,109 35,456 98,-541-148,-132-34,2-2,0-4,1-2,0-5,93-2,-152-5,603-38,-537 27,0-2,-2-4,0-4,-2-3,93-41,276-114,-246 100,-201 78,411-171,-315 126,-3-5,99-69,222-178,-135 92,253-173,-384 282,6 8,217-95,-332 167,633-232,-505 208,224-28,-356 66,-1 1,2 2,-2 1,2 2,-2 0,1 3,-1 2,71 19,-61-10,1 3,-1 1,-1 2,-1 2,83 58,489 332,-301-208,-231-152,2-2,3-5,2-4,2-3,112 32,-120-44,-16-5,1-2,121 19,-171-37,32 3,63 1,-100-7,-2 0,2-2,-2 0,1 0,0-1,-1 0,1-2,22-10,55-28,190-82,-203 92,-3-6,-1-1,-2-3,-2-4,116-98,-121 92,-33 27,0-1,-1-2,-2-1,-1-1,-2-1,29-43,50-122,-64 113,73-105,61-81,-169 259,-4 6,-1 1,1-1,-1 1,1-1,-1-1,0 1,-1-1,0 2,0-2,-1 0,1 0,-1 1,1-11,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-108512.14">19603 457,'4'0,"3"9,-2 11,0 16,-2 18,-1 14,-1 12,0 10,-1-2,-5-7,-1-13,-5-9,0-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-107544.14">19520 355,'0'-3,"9"-3,8 1,6 0,4 2,10 1,10-3,5-1,-1-9,0 0,-4 2,-11 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-106772.14">19658 585,'-5'0,"8"0,13 0,13 0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-105861.14">20539 51,'-28'14,"1"1,1 0,2 2,-38 30,-78 89,112-108,5-5,1 0,1 2,2 0,1 1,1 1,1 0,2 1,0 0,3 1,0 1,2 0,2 0,0 0,-2 60,6-26,3 1,11 90,-6-133,-1-1,2 0,0 0,2 0,1 0,0-1,2-1,0 0,2 0,28 33,-28-38,-1-1,2-1,0 0,1-1,0-1,18 10,-24-15,1 0,1-1,-1 0,2-1,-2 1,2-2,-1-1,-1 1,2-1,-1 0,15-1,-2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-105042.1">20401 712,'-1'-23,"2"-1,4-23,-2 38,-1-1,1 2,0-2,1 2,0-1,0 1,12-16,-5 8,-1 1,-1 1,2 1,0 0,0 0,2 1,0 1,1-1,14-9,-26 20,0 0,1 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,1 1,-1 1,0-1,1 0,0 0,0 1,3 1,-1 0,1 1,1-1,-2 1,0 0,0 0,10 8,2 5,1 1,25 32,-38-43,178 261,-142-197,3-3,4-1,80 84,-119-141,0-1,0 0,1 0,0-2,1 1,-1 0,0-1,21 7,-4-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-104244.14">21310 432,'-8'1,"1"0,0 0,-1 1,2-1,-1 1,0 1,0-1,1 1,0 0,0 0,-11 7,-62 53,51-39,-87 76,-106 125,131-131,57-63,-3 0,-1-3,-54 33,78-53,-30 20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-103298.14">21530 0,'9'20,"-2"0,-1 1,-1 0,-1 0,3 21,4 26,67 193,2 6,-73-245,-3 0,-1 1,-1-1,-1 1,0-1,-2 1,-1-1,-1 1,-1-1,-2 1,0-1,-1 0,-1-1,-12 21,-14 14,-1-2,-75 87,71-97</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-36190.57">7021 3635,'-2'5,"0"0,0-1,0 0,0 0,-1 1,0-1,0 0,-1 0,1-1,0 0,-1 1,-4 2,-6 7,-1 4,-1 0,2 1,1 0,0 2,1 0,2-1,0 2,1-1,2 2,-6 22,12-42,1 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0-1,0 1,0 0,1 0,-1 0,0-1,2 1,-2 0,1-1,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,0 0,0-1,0 0,0 1,1-1,-1 1,0-1,0 0,3 1,13 0,-1 0,1 0,0-2,18-2,-8 1,-20 2,0 0,-1-1,0 0,2 0,-2-1,0 0,1-1,-1 0,0 0,-1 0,2 0,8-8,-13 9,1-1,-2 1,0-1,1 0,-1 0,0 1,0-1,-1 0,1 0,-1 0,0-1,1 1,-2 0,1 0,1 0,-2-1,1 1,-1-1,0 0,0 1,0 0,-1 0,1-1,-2 1,1-1,0 1,0 0,-2-3,0-1,0 1,0 1,-1 0,1-1,-2 1,0 0,1 0,-1 1,0-1,-1 1,-10-8,15 12,-1-1,1 0,-1 0,-1 1,2-1,-1 1,0-1,1 1,-1-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 1,-3 0,3 0,0 1,0-1,0 0,1 0,-1 1,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,1 0,-1 0,1 0,-1 4,-1 5,0-1,1 1,1-1,0 2,2 18,-2-28,1 1,-1-1,0 1,1 0,0 0,0-1,0 1,0 0,0-1,1 0,-1 0,1 1,-1-1,1 0,0 0,0 1,0-1,0 0,0-1,0 1,1-1,-1 0,1 1,0-1,-1 0,1 1,0-1,2 0,-4-1,0 0,0 1,0-1,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,0 0,10-27,-13-31,0 49,0 1,0-1,-1 2,0-2,0 1,-10-15,11 22,1 0,0 0,-1-1,0 1,1 0,-1-1,0 1,0 0,-1 0,1 0,0 1,-2-1,2 1,0 0,-1 0,0-1,1 1,-1 0,0 0,0 1,-1-1,2 1,-1-1,0 1,0 0,0 0,-3 0,2 1,2 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-2,1 2,-1-1,1 1,-1 0,1-1,0 1,-2 0,2 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 5,-3 13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-34282.86">9279 3762,'-2'1,"1"-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 0,1 0,0 0,-2 0,2 0,0 1,0-1,0 1,-5 38,4-34,0 3,0-1,1 2,0-1,1-1,0 2,0-2,4 16,-2-21,-2 0,1 0,-1 0,1 0,0 0,0 0,1-1,-1 0,0 0,1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,1-1,0-1,-1 1,0 0,5-1,4 2,0-1,0 0,0-1,1 0,-2-1,2 0,13-2,-23 2,0 1,0-1,0 0,-1 0,1 0,0 0,-1-1,2 1,-2-1,1 0,-1 1,0-1,0 0,0 0,0-1,0 2,0-1,0-1,-1 1,2-1,-2 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 0,1 0,-1 0,0 0,0 0,-1-4,0 0,-1 0,0 0,0 1,-2-1,1 1,0-1,0 2,-1-1,0 0,0 0,-2 2,2-2,-1 1,-1 0,1 0,-2 2,2-2,-1 1,0 1,-2-1,2 1,-1 0,1 1,-2 0,-7-2,10 3,-1-1,1 1,0 0,0 0,0 0,-1 1,0 0,1 0,0 0,-1 1,1 0,0 0,-1 0,1 0,0 1,0 0,0 0,0 0,1 0,-2 0,2 1,0 0,-1 1,1-1,1 1,-2-1,2 0,-1 1,1 1,0-1,1 0,-1 1,1-1,-5 9,5-6,0-2,1 2,0 0,0-1,0 0,1 1,0 6,3 11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-32404.27">11399 2720,'-2'1,"1"-1,0 1,0-1,0 1,-1-1,0 0,1 1,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,0 2,-13 26,12-25,-1 5,-1 1,2-1,-1 2,1-1,1 0,0 1,0-2,1 2,0-1,3 15,-2-22,-1 0,1 1,0-1,1 0,-1 0,0 0,1-1,-1 0,1 1,0 0,0-1,1 1,-1-1,1 1,-1-1,1 0,-1-1,1 1,0-1,0 1,0 0,1-1,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,0-1,1 0,5-1,-5 1,1-1,0 1,-1-1,2 0,-2 0,0 0,1-1,-1 0,-1 0,2 0,-1-1,-1 1,1-1,-1 1,0-1,-1 0,2 0,-2 0,1-1,-1 2,-1-2,1 1,0-1,-1 0,0 1,0-7,1 2,-1 1,0-1,0 0,-1 1,0 0,-1-1,0 1,0-1,-1 1,0 0,-1-1,0 1,0 1,-6-10,7 15,0-1,0 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,-1 0,1 0,0 2,0-1,0-1,0 1,0 0,-6-1,-54-1,38 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30702.27">6581 2313,'-1'-50,"3"0,14-69,-12 100,0 0,2 1,1-1,1 2,0-1,2 0,-1 2,2-1,18-20,-25 32,1-1,0 0,0 1,1 0,0 1,0-1,0 0,1 1,-1 0,1 1,0 0,1 0,-1 0,0 1,0-1,1 2,-1-1,1 1,0 0,0 0,-1 1,2 0,-2 1,1-1,-1 1,2 1,6 2,-11-3,-1 1,0 0,0-1,0 1,0 1,-1-2,1 1,-1 0,2 1,-2 0,0-1,0 1,0 0,0 0,-1 0,1-1,-1 1,0 1,0-1,0 0,0 0,-1 1,1-1,-1 6,2 13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30028.27">6526 2085,'14'0,"18"0,9 0,11 0,8 0,-4 0,-1 0,-6 0,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-29318.27">7324 1754,'-34'57,"21"-36,1 0,-13 30,8-7,-12 53,27-85,-1-1,1 1,1 0,1 0,-1 0,2 0,0-1,0 2,1-2,4 13,-3-17,1 0,0 0,0-2,0 1,1 0,0 0,-1-1,10 7,6 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-28671.27">7324 1906,'4'0,"8"0,4 0,6 0,13 5,4 1,-4 3,-2 6,-4 4,-5 3,-3 2,-6 6,-3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-27673.27">7655 1856,'0'5,"-5"4,-1 7,-1 4,-2 3,0 2,-5-3,3-2,0 1,5 1,1 2,-1 0,-6 1,-6 0,3-1,1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-27050.75">7792 2059,'5'0,"1"5,0 5,-1 5,-2 6,-1 2,-1 2,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-26157.75">7820 1626,'0'0,"0"-1,0 0,0 1,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,2-1,-2 1,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,2 0,0 0,0 1,0-1,1 1,-1-1,0 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,2 2,5 8,-2 0,0-1,-1 2,0-1,-1 1,6 17,18 78,-22-68,-3-1,-1 0,-2 2,-8 65,3-82,-1 1,-13 36,0-2,13-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-24047.75">9197 1856,'-2'46,"-11"52,-1 39,15-60,1-47,-2 1,-1-1,-1 0,-9 34,11-64,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0-1,-1 0,1 1,0 0,0 0,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 1,-1 0,0-1,1 1,-1-1,0 1,-4-17,3-36,9-24,5 1,31-106,-26 117,-17 60,4-13,1 0,2-1,8-19,-14 34,1 0,-1 0,0 0,1 1,1 0,-2-1,1 0,0 1,0 0,1-1,-1 1,0 0,1 0,-1 0,1 1,1 0,-1-1,-1 1,1 0,0 0,0 0,0 0,1 0,0 0,-1 1,0 0,4-1,-5 2,-1-1,1 1,-1-1,1 1,-1-1,0 1,2 0,-2 0,1 0,-1 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 1,-1-1,1 0,0 1,0-1,-1 1,1-1,-1 1,1 1,7 40,-7-39,0 24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-23399.75">9142 2211,'4'0,"6"0,8 0,8 0,5 0,2 0,0 0,-1 0,-1 0,-1 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-22741.75">9609 1856,'-2'1,"0"-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 0,-1 1,1-2,-1 1,1 1,0-1,0 1,0 0,-1-1,2 1,-1 0,0 0,0-1,0 4,-16 50,15-43,-9 37,3 0,3 0,2 1,6 82,1-104,2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-21893.75">9692 2110,'0'-4,"4"-6,7-6,7 0,2 4,5 6,3 10,-5 13,-4 7,-3 4,-3 2,1-4,-3-3,-1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-21230.23">10022 1830,'-5'9,"-1"11,-14 20,-8 11,1 3,4-1,2-5,5-5,0-7,2-5,5-2,3-3,3-2,2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-20505.32">10050 2161,'0'4,"0"6,0 5,0 5,0 4,0 1,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-19931.82">10161 2008,'0'8,"0"9,0 4,0 3,0 3,0 0,0 4,4-3,2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-19371.3">10188 2110,'4'0,"6"0,8 0,3 0,4 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-18783.25">10353 2085,'0'4,"0"6,0 5,0 6,0 2,0 2,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-17957.18">10353 1601,'5'0,"0"1,2-1,-2 1,0 0,1 0,0 0,-1 1,0 0,0 0,0 0,1 1,-1-1,-1 1,1-1,-1 2,7 4,-5-1,0 0,0 0,0 1,-1 0,0-1,-1 1,0 1,6 15,-3 2,-1 1,-2 0,1 0,-3 1,-1 33,-2 25,2-29,-12 92,5-124,-1-1,-2 0,0-1,-15 25,-15 41,32-68</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-16444.2">11509 1500,'-1'1,"0"-1,0 1,0-1,0 0,0 0,1 1,-1-1,0 1,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1 0,-2 0,2 0,0 0,-1 0,1 0,0 0,0 0,0 2,-5 28,4-27,-10 203,-6 29,16-235,0-10,-1-29,0-53,6 28,3 1,4 0,31-99,-19 76,-20 75,1 0,-1 1,1-1,0 0,9-13,-11 21,0 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,1 1,0-1,0 2,-1-1,1 0,-1 0,1 0,-1 1,1-1,0 1,-1-1,2 1,-1 0,-1 0,6 1,-6-1,-1 1,1-1,0 1,-1 0,2 0,-2 0,1-1,-1 0,0 2,1-1,-1 0,0 0,0 0,1 1,-1-1,0 1,-1-1,1 0,0 1,0 0,-1-1,2 3,6 35,-6-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-15745.65">11427 1779,'13'0,"10"0,11 0,3 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-15023.66">12143 1220,'-1'4,"0"0,0 0,0-2,0 2,-2-1,2 1,-1-1,0 0,0 1,-4 2,-7 14,-26 60,-38 110,64-150,3-1,2 2,1 0,2 0,2 47,4-30,-1-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-14184.13">12197 1575,'1'-1,"0"-2,0 0,1 1,-1-1,1 1,0-1,0 1,0 0,0 0,1 1,-1-1,1 0,4-2,-1-2,40-33,-29 22,1 1,31-20,-44 33,0 0,0 0,-1 1,1-1,0 1,2 0,-2 0,0 1,0 0,2-1,-2 2,1-1,-1 1,1 0,0 0,6 1,-8 0,2 1,-2 0,0 0,0 1,0-1,0 1,0 0,1 0,-2 0,1-1,-1 1,0 1,0 0,0 0,0 0,3 5,3 8,0-1,11 29,-4 17,-13-37</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-13533.07">12555 1246,'4'0,"2"9,0 11,0 15,-7 7,-9-5,-5 1,-6-8,-4-2,-3 1,4 1,2-1,3-2,7 0,3-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-12732.99">12775 1551,'0'4,"0"6,0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-12326.96">12775 1296,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-11660.46">12996 1347,'0'5,"0"9,0 7,0 5,0 2,0 0,0 0,0 0,0-2,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-10821.03">12886 1475,'4'-4,"6"-2,8 0,3 1,4 3,7 0,2 1,2 0,1 1,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-9152.84">13188 1296,'6'0,"0"0,0 0,0 1,1-1,-2 1,1 0,0 1,0 0,0-1,6 4,-9-3,0 0,0 0,0 1,0 0,-1-1,0 1,0 0,0-1,0 1,0 0,0 1,-1-1,0 0,2 1,-2-1,-1 0,2 7,-1-3,0-1,-1 0,1 1,-2 0,1-1,-1 1,0 0,0 0,-1-2,-1 2,1 0,0-1,-1-1,0 2,0-1,-1 0,0-1,-1 0,1 1,-1-1,0 0,1-1,-3 0,2 1,-1-1,1 0,-1-1,-1-1,0 2,-12 3,19-7,-1 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,-1-1,1 1,1 0,-1-1,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 0,0 0,1 0,0 1,-1-1,1 0,-1 0,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,1-2,-1 1,0-1,1 0,-1 0,1 0,0 2,-1-2,1 0,1 1,-1-1,0 1,1-1,-1 1,1-1,1 1,-2 0,1 1,3-4,-2 4,0-1,1 1,-1 0,1 0,-1 0,0 0,1 1,-1-1,1 1,-1 0,0 0,2 0,-2 1,0-1,1 1,-1-1,0 1,5 2,14 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8070.84">13299 1042,'6'0,"1"0,1 0,-1 0,0 1,0 0,1 1,-2-1,1 1,7 3,-11-3,-1 0,1 0,-1 0,1-1,-1 2,0-1,0 1,1-1,-1 1,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,-1 0,1 0,-1 0,1 1,-1 3,3 25,-1 1,-2-1,-1 1,-1 0,-2-1,-2 0,-2 1,-15 43,19-69,1 0,-1 0,0-2,0 2,-7 6,-4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3289.84">11536 3330,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2675.84">11482 3736,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1737.84">11454 4219,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1226.32">11454 4474,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-813.32">11454 4855,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-459">11482 5186</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1622.52">9361 4321,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2058.52">9417 4702,'0'5,"0"10,0 6,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2504.52">9306 5160,'0'5,"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4587.55">7049 4270,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5103.55">7105 4778,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5703.52">7049 5262,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25138,20 +25337,20 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7964 292,'0'-4,"0"-6,4-11,11-6,8-3,3-5,3-1,0 5,0 13,-4 27,-8 48,-6 32,-4 6,-5 0,-2-11,0-12,-2-13,1-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4175.88">6086 292,'0'5,"0"15,0 8,0 8,0 4,0 3,0-2,0 3,0-3,4 1,2-2,0 1,3-7,0-4,3-7,0-4,2-4,-2-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1447.73">7277 54,'-68'-2,"43"0,1 1,0 1,0 1,-1 1,-25 6,46-7,-1 1,1 0,-1 0,1 0,0 0,0 1,0 0,0 0,0 0,1 0,-1 0,1 1,0-1,0 1,0 0,0 0,1 0,0 1,0-1,0 0,0 1,1-1,-1 1,0 7,-1 10,1 0,1 1,1-1,2 25,0-13,-2-29,1 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,1 0,1 0,-1-1,1 1,-1-1,1 0,4 5,0-3,0 0,1 0,0-1,0 0,0 0,0-1,14 5,-10-3,0-1,0-1,1 0,-1-1,1-1,0 1,24 0,-33-4,0 1,-1 0,1-1,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 0,1 1,-1-1,0 0,0-1,0 1,0-1,0 1,-1-1,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,-1-1,1 1,-1-1,0 0,1-5,9-72,-10 64,1 0,1 0,0 0,9-25,-9 32,0 1,0-1,-1 0,-1 0,1 0,-2 0,1 0,-1 0,-2-14,1 19,0-1,0 0,-1 1,1-1,-1 1,0-1,-1 1,1 0,-1 0,0 0,0 0,-1 1,0-1,1 1,-1 0,-1 0,-6-5,11 9,-1-1,1 1,-1-1,0 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,1 0,-1 0,0 1,0-1,1 0,-1 1,-1 0,1 0,0 1,-1-1,1 1,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 4,-5 62,6-62,0 89,4-1,4 1,22 96,-20-154,1 0,21 45,-15-43,-8-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="733.68">6668 821,'4'0,"7"0,5 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3553.05">8811 28,'0'-1,"0"0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,0-1,3 1,39-5,-38 5,-1 0,-1-1,1 1,0 1,-1-1,1 0,-1 1,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,5 4,-4-1,0-1,0 1,-1 0,0 0,0 0,0 1,-1-1,1 1,-1-1,1 7,2 13,-1 1,-1 0,-1 0,-2 26,0-41,0 27,1-2,-8 65,6-90,-1 0,-1 0,0-1,0 1,-1-1,-1 1,0-1,0-1,-1 1,-9 11,-10 10,-2-2,-49 41,64-59,-1-2,0 1,0-2,-1 0,0 0,-1-2,0 1,0-2,-22 6,34-11,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,0 1,1-1,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 0,-1 0,-1-2,1 1,1-1,-1 0,1 0,0 1,0-1,0-1,1 1,-1 0,1 0,0-1,0 1,1 0,-1-7,0 6,1 1,0-1,0 1,0-1,1 1,-1-1,1 1,0-1,1 1,-1 0,1-1,-1 1,1 0,1 0,-1 0,0 0,1 1,0-1,0 1,0-1,0 1,1 0,-1 0,1 1,0-1,0 1,0 0,0 0,6-3,-3 4,0 0,0 0,0 0,1 1,-1 0,0 1,0-1,1 1,-1 1,0-1,0 1,0 1,-1-1,1 1,0 0,-1 1,12 7,1 5,0 1,-1 0,31 39,23 23,-65-72,0 0,1-1,0 0,1 0,-1-1,1-1,18 8,10-2,-2-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4809.63">9896 54,'-26'-1,"0"-1,-29-8,31 6,0 0,0 2,-24 0,39 2,0 0,1 1,-1 1,0-1,1 1,0 1,-1 0,1 0,0 0,0 1,1 0,-1 1,1 0,-10 8,12-8,1 0,0 0,0 0,0 1,0 0,1 0,0 0,0 0,0 0,1 0,0 1,0-1,1 1,0 0,0 0,1-1,-1 1,1 0,1 7,0-11,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,1-1,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,-1-1,1 0,0 0,5 1,10 3,0-2,0 0,28 1,-11-1,-24-1,1 0,0 1,-1 0,0 1,0 1,0-1,0 2,-1-1,0 1,0 1,14 11,-18-11,1-1,-1 1,0-1,0 2,-1-1,0 1,0 0,0 0,-1 0,-1 0,1 1,-2-1,1 1,-1 0,2 13,-1 55,-10 118,7-188,-1 1,0 0,0 0,-1-1,1 1,-2-1,1 1,-1-1,-1 0,1 0,-8 10,8-13,-1 0,0 0,0 0,-1-1,1 1,-1-1,0 0,1-1,-1 1,-1-1,1 0,0 0,0-1,-1 1,1-1,-11 1,-12 1,1-2,0 0,0-2,0 0,0-2,-43-11,48 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6246.71">1 1721,'10129'0,"-10069"1,7 0,105-13,-142 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20519.66">10981 1483,'4'0,"6"0,29 0,39 0,42 0,18 0,5 0,-5 0,-12 0,-28 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21336.02">10716 1959,'13'9,"64"3,31 0,16-3,0-2,-12-3,-20-2,-13-1,-15-1,-9-1,-10 1,-4-1,1 1,-2 0,-5-1,-2 6,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24815.16">11378 1324,'-5'14,"-6"13,-23 20,-24 25,-20 17,-15 8,-14 10,-12 13,15-8,25-20,21-25,8-33,11-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25369.16">10478 1165,'10'2,"0"-1,0 1,0 1,0 0,0 0,-1 1,1 0,-1 0,15 10,20 10,7 0,0 2,-2 2,-1 3,-1 1,66 61,-40-15,-3 3,-3 3,58 99,-18-28,-62-97,58 56,-94-104,17 18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25881.37">12224 1245,'0'5,"0"14,0 14,0 18,0 24,0 13,0 8,0 7,0-1,-5-4,-1-15,-4-12,-5-13,0-13,3-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27017.56">12489 1245,'-3'214,"6"219,-2-426,-1-1,1 0,0 0,1 0,-1 0,1 0,1 0,-1-1,1 1,0 0,0-1,0 0,1 0,0 0,0 0,0-1,0 1,1-1,0 0,0-1,0 1,0-1,1 0,-1 0,1 0,0-1,-1 0,1 0,7 1,17 3,0-2,0-1,0-1,51-3,-57 0,-7 1,-1 0,1-2,-1 0,1 0,-1-2,30-10,-39 11,0-1,0 0,0-1,-1 1,1-1,-1-1,0 1,-1-1,1 0,-1 0,-1 0,1-1,-1 0,0 0,0 0,3-12,-1 3,0 0,-2-1,0 0,-1 0,-1 0,0 0,-1 0,-1-1,-1 1,0 0,-7-32,5 37,0 0,-1 0,0 0,-1 0,-1 1,0 0,0 0,-1 0,0 1,-1 0,0 0,-1 1,0 0,0 1,-1 0,-21-14,-9-1,16 8,0 1,-1 1,-1 1,-28-8,27 12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28245.6">13309 1112,'-1'1,"0"-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 2,-5 30,4-29,-4 66,2 0,13 126,-7-164,3-1,0-1,11 31,-15-53,0-1,1 0,0 0,1 0,-1 0,1-1,1 1,-1-1,1 0,0 0,1-1,-1 1,1-1,0-1,0 1,1-1,11 7,10-1,0 0,0-2,0 0,49 4,-73-11,1-1,-1 0,0 0,1-1,-1 1,0-1,0 0,1 0,-1-1,0 1,0-1,0 0,-1 0,1 0,0-1,6-5,-5 4,-1-1,0-1,0 1,0-1,-1 1,1-1,-1 0,-1 0,1-1,1-6,2-14,-1-1,-1 1,-2-1,0-34,-2 49,-6-261,5 268,0 1,0-1,0 0,-1 0,1 1,-1-1,-1 1,1-1,-1 1,0 0,0 0,0 0,-1 0,0 1,0-1,0 1,0 0,-1 0,0 1,1-1,-1 1,-1 0,1 1,0-1,-1 1,1 0,-1 0,-8-1,-15-2,0 1,0 1,0 2,-47 3,32 0,-14-1,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8308 281,'0'-4,"0"-5,4-12,12-5,8-3,3-4,3-2,0 5,0 13,-3 26,-10 45,-5 32,-5 6,-5-1,-2-10,0-12,-2-12,1-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4175.88">6349 281,'0'5,"0"14,0 8,0 8,0 3,0 4,0-3,0 3,0-2,4 0,2-1,0 0,4-6,-1-4,4-7,-1-4,3-3,-3-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1447.73">7591 52,'-71'-2,"45"0,1 1,0 1,0 1,-1 1,-26 6,48-7,-2 1,2 0,-1-1,1 1,0 0,-1 1,1 0,0 0,0 0,1 0,-1 0,0 0,1 0,0 1,0 0,0 0,1 0,0 1,0-2,0 1,0 1,0-1,0 1,0 6,-1 10,1 1,1 0,1-1,2 24,0-12,-2-28,1 0,-1-1,1 1,0 0,0 0,0 0,2-1,-2 1,1 0,1 0,-1-1,1 0,-1 0,1 0,5 5,-1-3,0-1,1 1,1-1,-1 0,1 0,-1-2,15 6,-11-3,1-1,-1-1,2-1,-2 0,2-1,0 1,24 0,-34-4,1 1,-2 0,1-1,0 0,0 0,-1 0,1 0,0 0,0-1,-1 0,1 1,-1 0,0-1,0-1,1 1,-1-1,0 1,-1-1,1 0,-1 0,0 0,0 1,0-1,0-1,1 1,-2-1,1 1,-1-1,0 0,1-4,9-70,-10 62,1-1,2 1,-1-1,9-23,-9 30,1 2,-1-2,-1 0,-1 1,1-1,-2 1,1-1,-1 0,-2-13,1 18,0 0,0-1,-1 1,1-1,-2 2,1-2,-1 1,1 0,-1 0,0 0,0 1,-1 0,-1-1,2 1,-1 0,-1 0,-7-4,12 8,-1-1,1 1,-1-1,0 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,1 0,-1 0,0 1,0-1,1 0,-2 1,0 0,1 0,0 1,-1-1,1 1,0 0,0-1,0 1,0-1,1 1,-1 0,0 0,0 4,-5 59,6-59,0 86,4-2,4 1,23 93,-20-148,0-1,23 44,-17-41,-7-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="733.68">6956 790,'4'0,"7"0,6 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3553.05">9191 27,'0'-1,"0"0,1 0,-1 0,1 0,0-1,-1 1,1 0,1 0,-1 0,-1 0,1 0,0 1,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,0-1,4 1,39-5,-38 5,-2 0,-1-1,1 1,0 1,-1-1,2 0,-2 1,1 0,-1 0,1 0,-1 0,1 1,0-1,-1 1,0-1,0 1,0 0,5 4,-3-1,-1-1,0 1,-1-1,0 1,0 0,0 1,0-1,0 0,-1 0,1 7,2 12,-1 1,-1 0,0 0,-3 25,0-40,0 27,1-2,-9 62,7-87,-1 1,-1 0,0-2,0 2,-1-2,-2 2,1-1,0-2,-1 2,-10 10,-10 10,-2-2,-52 39,68-56,-2-2,1 0,-1-1,0 0,-1-1,-1-1,1 1,-1-2,-22 5,34-10,1 1,1-1,-1 0,0 0,0 0,0 0,0 0,-1-1,2 1,-1-1,0 0,0 1,1-1,-1-1,1 1,-1 0,0-1,0 2,1-2,0 0,-1 0,-1-2,1 1,1-1,-2 0,2 0,0 2,0-2,0-1,1 1,-1 0,1 0,0 0,0 0,1 0,-1-7,0 6,1 2,0-2,0 1,0-1,1 1,-1-1,1 2,0-2,1 1,-1 0,1-1,-1 1,1 1,1-1,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,1 0,0 0,0 1,0-1,0 1,0 0,0 0,7-2,-4 3,0 0,1 0,-1 0,1 1,0 0,-1 1,0-1,2 1,-2 1,0-2,1 2,-1 1,-1-1,1 1,1 0,-2 1,13 6,1 6,-1 0,0 1,32 36,24 23,-67-69,-1 0,1-1,1-1,0 1,-1-1,2-1,18 7,11-1,-3-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4809.63">10323 52,'-27'-1,"0"-1,-30-8,31 7,1-1,0 2,-25 0,41 2,0 0,0 1,0 1,-1-1,2 1,0 1,-2-1,2 1,0 0,-1 1,2 0,-1 1,0 0,-9 7,11-7,2 0,0-1,0 1,0 1,0 0,0 0,1-1,0 1,0 0,1 0,0 0,0 0,1 1,0 0,0-1,1 0,-1 1,1 0,1 6,0-10,-1 0,1 0,0 0,0 0,0-1,0 0,0 1,1 0,-1 0,1-1,0 1,0-1,0 0,1 1,-1-1,0-1,1 1,-1-1,1 1,-1 0,1-1,0 1,-1-1,2 0,-1 0,5 1,11 3,0-2,-1-1,30 2,-11-1,-26-1,2 0,-1 1,0 0,-1 1,1 1,-1-2,1 3,-2-1,1 1,-1 0,15 12,-19-11,2-2,-2 2,0-1,0 1,0 0,-1 1,0 0,0-1,0 1,-2 0,1 0,-2 0,1 1,-1-1,2 14,-1 52,-10 113,7-180,-1 1,0-1,0 1,-1-1,1 1,-2-2,1 2,-1-1,-2-1,2 1,-8 10,8-14,-2 1,1 0,0 0,-1-1,1 1,-2-1,1-1,1 0,-1 1,-1-1,0 0,1 0,0-1,-1 1,0-1,-10 1,-13 1,0-2,1 0,0-2,0 0,0-2,-45-11,50 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6246.71">1 1656,'10566'0,"-10503"1,7 0,109-12,-148 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20519.66">11455 1427,'4'0,"7"0,29 0,42 0,43 0,19 0,5 0,-5 0,-13 0,-28 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21336.02">11179 1885,'13'9,"67"2,33 1,16-3,1-3,-13-2,-21-2,-14-1,-15-1,-10-1,-10 1,-4-1,1 1,-3 0,-4-1,-3 6,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24815.16">11869 1274,'-5'14,"-7"12,-23 19,-26 24,-20 17,-16 7,-15 10,-12 12,16-7,25-19,23-25,8-31,11-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25369.16">10930 1121,'11'2,"-1"-1,1 1,-1 1,0 0,1 0,-2 0,2 1,-2 0,16 10,21 9,7 0,0 2,-1 2,-2 3,-1 0,69 60,-42-15,-3 3,-3 3,60 95,-18-27,-65-93,60 53,-98-99,18 17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25881.37">12752 1198,'0'5,"0"13,0 14,0 17,0 23,0 13,0 7,0 7,0 0,-6-5,0-14,-4-12,-6-12,0-13,4-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27017.56">13028 1198,'-3'206,"6"211,-2-411,-1 0,1 0,0 0,1 0,-1-1,1 1,2 0,-2-1,1 0,0 1,0-1,0 0,1 0,1-1,-1 1,0-1,0 1,1-1,0 0,1-2,-1 2,0-1,1 0,0 0,0 0,0-1,-1 0,2 0,6 1,18 2,1-1,-1-1,0-1,54-3,-60 0,-7 1,-2 0,2-2,-1 0,0 0,0-2,31-9,-41 10,1-1,-1 0,0 0,0 0,0-1,-1-1,0 1,0 0,0-1,-1 0,-1 0,1-1,0 1,-1-1,0 0,3-11,0 3,-1-1,-2 0,0-1,-1 1,-1 0,0-1,0 1,-2-1,-2 0,1 1,-7-31,5 35,0 1,-1-1,-1 1,0-1,-1 2,0-1,-1 0,0 1,0 0,-1 1,-1-1,0 1,-1 1,1 0,-1 0,-23-13,-8-1,15 7,1 2,-1 0,-1 2,-29-8,28 11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28245.6">13883 1070,'-1'1,"0"-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 0,1 1,0 0,0 2,-6 29,5-28,-4 63,2 1,14 120,-8-157,3-1,0-1,12 29,-16-50,0-1,1 0,0-1,2 1,-2 0,1-1,1 0,-1 0,1 0,1 0,0-2,-1 2,1-1,1-1,-1 1,1-1,12 6,10 0,0-1,1-1,-1 0,51 3,-76-10,2-1,-2 0,0 0,1-1,-1 1,0-1,1 0,0 0,-1 0,0 0,0-1,1 0,-2 0,1 0,0-1,6-5,-4 4,-2 0,0-2,0 1,0-1,-1 1,2 0,-2-1,-1 0,1-1,1-5,2-14,0-1,-2 1,-2-1,0-33,-2 48,-6-252,5 258,0 2,0-2,0 0,-2 0,2 1,-1 0,-1 0,1-1,-1 1,0 0,0 1,0-1,-2 0,1 1,0-1,0 2,0-1,-2 0,1 1,1-1,-1 1,-1 0,0 1,1 0,-1 0,1 0,-2 0,-7-1,-16-2,-1 1,1 1,0 2,-49 3,33 0,-15-1,6 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25207,7 +25406,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 292,'0'1,"0"0,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0-1,0 1,27-6,-3-4,-1 0,0-2,31-20,-39 22,-1 0,2 1,-1 1,1 0,0 1,1 1,0 1,0 0,21-2,-36 7,-1 0,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,-1 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 1,-1-1,1 0,0 1,-1 3,3 10,-1 0,-1 0,-2 33,0-30,0 65,2 2,-4 0,-4 0,-27 134,32-213,1 0,-1-1,-1 1,1-1,-1 0,-1 1,1-2,-1 1,0 0,0-1,0 1,-1-1,0 0,0-1,0 1,-7 4,4-5,0-1,1 0,-1 0,0 0,0-1,-1 0,1-1,0 0,-1 0,1-1,-1 0,-14-2,21 2,-1 0,1 0,-1 0,0-1,1 0,-1 1,1-1,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 1,0-1,-2-2,3 3,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 0,0 1,0-1,-1 0,1 1,0-1,0 0,1 1,-1-1,0 0,0 1,1-1,0-1,1-2,0 0,1 0,-1 0,1 1,0-1,1 1,-1-1,1 1,0 1,0-1,0 0,0 1,1 0,-1 0,6-3,-2 3,1-1,0 1,0 1,0 0,0 0,0 1,0 0,1 0,-1 1,0 0,13 2,-15-1,0 1,0-1,0 1,0 0,-1 1,1 0,-1 0,1 0,-1 1,0-1,0 2,-1-1,1 1,-1-1,5 8,-7-8,-1-3,-1 1,0 0,0-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,2 1,5-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1240.19">1244 27,'-11'10,"0"-1,-1 0,-23 13,-16 11,-111 110,135-116,1 1,2 2,-34 52,51-69,1 1,0-1,1 1,0 1,1-1,1 1,0-1,1 1,0 15,1 21,8 65,-3-70,-3-23,0-1,2 0,1 1,0-1,2-1,1 1,13 29,-20-49,1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,0-1,0 1,1-1,-1 1,4-1,-4 0,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,0-3,19-58,-9 33,9-42,-18 62,0 0,-1 1,-1-1,0 0,0 1,0-1,-1 0,-5-17,5 24,0 0,0-1,0 1,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 1,0 0,1 0,-6-3,2 2,0 1,1 0,-1 0,0 0,0 1,0 0,0 0,-10 0,-9 2,0 1,1 1,-39 10,44-9,-8 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1240.18">1244 27,'-11'10,"0"-1,-1 0,-23 13,-16 11,-111 110,135-116,1 1,2 2,-34 52,51-69,1 1,0-1,1 1,0 1,1-1,1 1,0-1,1 1,0 15,1 21,8 65,-3-70,-3-23,0-1,2 0,1 1,0-1,2-1,1 1,13 29,-20-49,1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,0-1,0 1,1-1,-1 1,4-1,-4 0,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,0-3,19-58,-9 33,9-42,-18 62,0 0,-1 1,-1-1,0 0,0 1,0-1,-1 0,-5-17,5 24,0 0,0-1,0 1,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 1,0 0,1 0,-6-3,2 2,0 1,1 0,-1 0,0 0,0 1,0 0,0 0,-10 0,-9 2,0 1,1 1,-39 10,44-9,-8 2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1810.95">1085 847</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3161.3">1800 1,'-31'0,"14"-1,1 1,-1 1,0 0,-26 6,38-6,1 1,-1 0,0 0,1 0,0 0,0 0,-1 1,1 0,1 0,-1 0,0 0,1 1,0 0,0-1,0 1,0 0,0 0,1 1,0-1,-3 6,2-2,0 0,0 0,1 0,0 1,1-1,0 0,0 1,1-1,0 1,1 11,0-17,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,1-1,0 1,0 0,-1-1,1 0,0 1,0-1,0 0,1-1,-1 1,0 0,5-1,12 3,0 0,-1 1,1 1,-1 1,0 0,22 12,-30-12,-1 0,0 1,0 0,-1 1,0 0,0 0,-1 1,0 0,-1 0,0 1,11 18,-11-13,0-1,0 1,-1 1,-1-1,-1 1,0 0,-1 0,-1 0,0 1,-1 29,-2-40,1 1,-1-1,-1 1,1-1,-1 1,0-1,0 0,-1 1,0-1,0-1,0 1,-1 0,0-1,0 0,0 0,-1 0,0 0,0-1,0 1,0-1,-1-1,1 1,-1-1,0 0,0 0,-1-1,1 1,0-1,-7 1,0-1,1 0,0-1,0-1,0 1,-1-2,1 0,0 0,0-1,-13-4,-2-3</inkml:trace>
 </inkml:ink>
@@ -25265,16 +25464,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1402,'51'-197,"-8"26,61-115,-92 261,1 2,1-1,2 2,0 0,1 1,1 0,30-25,2 3,105-67,-154 109,14-9,1 1,24-11,-37 19,0-1,0 1,0 0,0 0,0 0,0 1,0-1,1 1,-1-1,0 1,0 0,0 0,1 0,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,3 3,5 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="673.01">1 1032,'9'0,"12"0,11 0,14 0,13 0,0 0,4 0,-4 0,-3 0,-7 0,-3 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1495.79">821 0,'2'1,"0"-1,0 0,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,0 0,-1-1,1 1,-1 0,2 2,22 41,-23-41,22 46,-2 2,-2 1,-2 0,17 92,-34-141,0 1,-1-1,0 0,0 1,0-1,0 1,-1-1,1 0,-1 1,0-1,-1 0,1 0,-1 1,0-1,0 0,0-1,0 1,-6 6,0-2,-1 0,0-1,0 0,-1-1,-18 9,16-8,-15 8,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2545.77">1589 185,'-1'3,"0"0,0 0,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,0-1,0 0,-3 3,-5 6,-22 37,2 1,1 1,3 2,-24 70,17-26,-32 160,54-183,2 1,4 0,3 0,8 78,-6-144,0-1,1 1,0-1,1 1,0-1,0 1,0-1,1 0,0 0,0 0,1-1,0 1,0-1,0 0,1 0,0 0,0 0,1-1,-1 0,10 6,7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3402.54">1641 1005,'-3'-3,"1"0,-1 0,1 0,0-1,1 1,-1-1,0 1,1-1,0 0,0 1,0-1,0-4,-3-52,4 40,-1-8,2 0,0-1,2 2,1-1,1 0,2 1,0 0,15-33,-21 58,0 0,0 0,1-1,-1 1,1 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,1 1,-1 0,1 0,2 2,8 3,-1 0,1 1,-2 1,1 0,10 10,30 28,-2 2,74 91,63 126,-173-245,1 0,24 25,-19-25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4145.62">2382 529,'-6'1,"0"0,1 0,-1 0,1 1,0 0,-1 0,1 0,0 0,0 1,1 0,-1 0,0 0,-4 5,-57 58,48-47,-8 11,1 0,2 2,1 0,-27 54,-51 151,96-225,-1 0,-1 0,-9 15,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5865.96">2594 1164,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6635.17">2594 1164,'-1'0,"1"0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,15 11,-12-3,0 0,0 1,-1-1,0 0,-1 1,0 0,0-1,0 15,1 79,-3-72,-3 31,1-45,1 0,0 0,2 0,-1 0,2 0,0 0,1-1,9 29,-2-32,-10-12,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,0-1,1 1,-1-1,8-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7023.2">2700 953</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7884.61">2859 238,'12'15,"-1"0,0 1,-1 0,-1 1,13 30,4 8,-18-40,108 223,-97-193,-3 0,-1 1,13 75,-13-27,6 24,-5 0,0 161,-18-121,2-136</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1350,'54'-190,"-9"26,64-112,-96 252,1 2,1-1,1 2,1-1,1 2,1 0,32-24,1 2,111-64,-161 105,13-8,2 0,25-10,-39 18,1-1,-1 1,0 0,0 0,0 0,0 1,1-1,0 1,-1-1,0 1,0 0,0 0,2 0,-2 1,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,3 3,6 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="673.01">1 994,'9'0,"14"0,10 0,16 0,13 0,0 0,4 0,-4 0,-3 0,-7 0,-4 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1495.79">864 0,'3'1,"-1"-1,0 0,0 1,1 0,-1-1,0 1,0 0,0 0,1 0,-1 0,0 1,0-1,-1 0,1 0,0 1,-1-1,1 1,-1 0,2 2,24 39,-25-39,23 44,-2 2,-2 1,-2 1,18 87,-36-135,0 1,-1-1,0-1,0 2,0-1,0 1,-1-1,1 0,-1 0,0 0,-1 0,1 0,-1 1,0-1,0 0,0-2,-1 2,-5 6,0-2,-2-1,1 0,-1 0,0-1,-20 8,18-7,-17 7,5-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2545.77">1673 178,'-1'3,"0"0,0 0,0 0,-1 0,1-2,-1 2,1 0,-2-1,1 1,0-1,0 0,-3 3,-6 5,-22 37,1 0,2 1,2 2,-25 67,19-24,-35 153,58-175,1 0,5 0,3 0,8 76,-6-140,0 0,1 1,0-1,1 0,1 0,-1 1,0-2,1 1,0 0,0 0,1-2,1 2,-1-1,0 0,1-1,1 1,-1 0,1-1,-1 0,11 5,7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3402.54">1728 968,'-3'-3,"1"0,-2 0,2 0,0-1,1 1,-1-1,0 2,1-2,0 0,0 1,0-1,0-4,-4-49,5 37,-1-7,2 0,1 0,1 1,1-1,1 0,3 1,-1 0,16-32,-22 56,0 0,0 0,1-1,-1 1,1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1 0,0 0,-1 0,0 0,1 1,-1-1,1 1,-1-1,2 1,-2 0,1 0,-1 0,1 0,-1 1,1-1,0 1,-1-1,1 1,-1 0,1 0,2 2,9 3,-1-1,0 2,-1 1,1 0,10 9,31 27,-1 2,78 88,66 121,-183-235,2-1,25 24,-20-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4145.62">2508 509,'-6'1,"-1"0,2 0,-1 0,1 1,-1 0,0 0,1 0,-1 0,1 1,1 0,-1-1,-1 1,-3 5,-61 56,52-46,-10 11,2 0,2 1,0 1,-27 52,-54 145,100-216,0-1,-1 1,-10 14,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5865.96">2731 1121,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6635.17">2731 1121,'-1'0,"1"0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,2 0,-2-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,16 11,-13-4,0 1,0 1,-1-2,1 1,-2 1,0-1,0 0,0 14,1 76,-3-69,-3 30,1-44,1 1,0-1,2 1,-1-1,2 1,0-1,1-1,10 29,-3-32,-10-11,1 0,-1 0,2 0,-2 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,0-1,1 1,-1 0,8-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7023.2">2843 918</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7884.61">3010 229,'13'15,"-1"-1,-1 1,0 1,-2 0,14 29,5 8,-20-38,114 214,-102-186,-3 1,-1 0,13 72,-13-25,6 23,-5-1,0 156,-19-117,2-131</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25355,15 +25554,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">107 1164,'0'43,"0"-40,0-9,0-69,0 49,7-286,-2 245,3 1,28-111,-28 154,1 1,1 0,0 0,2 1,0 1,2 0,0 0,1 2,29-29,-23 28,0 0,1 1,1 1,1 1,0 2,1 0,49-19,-63 29,1 0,0 1,0 0,0 1,0 0,0 1,22 1,-30 0,0 0,-1 1,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 1,-1-1,1 1,-1-1,0 1,1 5,1 5,-1 0,0 0,-2 0,1 0,-2 0,0 0,-1 0,0 0,-1-1,0 1,-10 22,1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="527.36">1 793,'13'0,"10"0,27 0,19 0,6 0,-4 0,-6 0,-9 0,-10 0,-8 0,-6 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1262.18">1536 0,'-2'1,"0"-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-2 3,2-3,-34 31,2 1,1 2,2 1,1 1,-37 64,24-24,2 1,-31 92,50-113,3 0,-13 80,26-106,1 0,2 0,1 0,1 1,2-1,7 40,-6-57,1 1,0-1,1 0,1-1,0 1,13 19,-16-27,1-1,0 0,0 0,0 0,1 0,-1 0,1-1,0 0,1 0,-1-1,1 1,0-1,0 0,0-1,0 1,11 2,19-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1965.07">1668 529,'-1'-3,"1"0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 1,1-1,0 0,-1 1,1 0,0 0,1-1,-1 1,0 0,1 1,-1-1,1 0,-1 1,1-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 1,0 0,0-1,1 1,-1 0,0 0,0 1,0-1,4 1,-2 1,1-1,-1 1,0 0,1 1,-1-1,0 1,0 0,0 0,-1 1,1-1,-1 1,0 0,0 0,0 1,0-1,-1 1,0-1,0 1,4 8,5 13,0 1,13 45,-17-45,99 237,-92-231,-8-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2555.32">2144 211,'-1'13,"0"1,-1-2,0 1,-1 0,0 0,-1-1,0 1,-1-1,-9 16,-7 6,-41 54,50-72,-185 229,-14 19,151-182,-62 112,119-187,0-3,0 0,0 1,1-1,0 1,0-1,0 1,1 0,-1 0,1 0,0 0,0 0,1 0,0 9,8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3660.05">2197 1032,'7'-1,"0"0,1-1,-1 0,0 0,0-1,0 0,0 0,0 0,-1-1,7-5,42-19,-52 27,0-1,-1 2,1-1,0 0,0 0,0 1,0 0,0-1,0 1,-1 0,1 1,0-1,0 0,0 1,0 0,0-1,-1 1,1 0,0 0,-1 1,1-1,0 1,-1-1,0 1,1 0,3 3,-3 1,0-1,0 0,0 1,0 0,-1-1,0 1,0 0,-1 0,1 0,-1 1,-1-1,1 7,0 32,-2 1,-3-1,-10 54,8-55,2-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4261.05">2462 608,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5162.78">2832 0,'75'125,"-2"-4,-48-71,-2 1,-3 0,-1 2,-3 1,-2 0,-3 1,-2 0,-2 0,-1 70,-7-41,-6 375,6-439,-1 1,0-1,-10 36,10-48,-1-1,0 0,0 0,0 0,-1-1,0 1,0-1,-1 0,0 0,0 0,-1-1,1 0,-9 6,-15 10,1-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5732.97">3441 767,'9'0,"21"0,18-4,7-2,-3 1,0 0,-1 2,-4 1,-10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">111 1119,'0'41,"0"-38,0-9,0-66,0 47,8-275,-3 236,3 0,30-106,-30 148,1 1,2 0,-1 0,3 1,-1 0,3 1,-1 0,2 2,30-29,-25 28,1 0,1 1,1 0,1 2,0 1,1 1,51-19,-65 28,0 1,0 0,1 0,-1 1,1 0,-1 1,24 1,-32 0,0 0,-1 1,1 0,1 0,-2 0,1 0,-1 1,1-1,-1 1,0 0,2-1,-2 1,0 0,0 1,0-1,-1 1,1 0,-1 0,1 0,0 0,-1-1,0 1,0 1,-1-1,1 1,-1-1,0 1,1 4,1 6,-1-1,0 1,-2-1,1 1,-2-1,0 0,-1 1,0-1,-1 0,0 0,-11 22,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="527.35">1 762,'14'0,"9"0,29 0,20 0,6 0,-4 0,-6 0,-10 0,-10 0,-8 0,-7 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1262.17">1598 0,'-2'1,"0"-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,0 0,-2 0,2 0,0 0,0 0,-2 2,2-2,-35 30,1 1,2 1,2 2,1 1,-39 61,25-23,3 1,-33 88,52-108,3 0,-13 76,27-101,1 0,2 0,1-1,1 2,2-1,7 38,-6-54,1 0,0 0,2-1,0-1,0 2,14 18,-17-27,1 0,0 0,0 0,1 0,0-1,-1 1,1-1,0 0,2 0,-2-1,1 0,0 0,1 0,-1-1,0 1,12 2,19-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1965.07">1736 508,'-1'-2,"1"-1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,1 0,-1 1,1-1,0 0,-1 1,1 1,0-1,1-1,0 1,-1 0,1 1,-1-1,1 0,-1 1,1-1,0 1,0 0,1 0,-2 0,1 0,0 0,0 1,0 0,0 0,1 0,-1 0,1 0,-1 0,0 0,4 1,-2 1,2-1,-2 1,0 0,1 1,-1-1,1 1,-1 0,0 0,-1 0,1 0,0 1,-1 0,0 0,0 1,0-1,-1 0,0 0,1 1,3 7,5 13,1 1,13 44,-18-44,104 227,-97-221,-8-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2555.32">2231 203,'-1'12,"0"2,-1-3,0 2,-1-1,-1 1,0-2,0 2,-1-2,-10 16,-7 6,-42 51,51-68,-192 219,-14 19,156-175,-63 107,122-179,1-3,0 0,0 0,1 0,0 1,0-1,0 1,1 0,-1-1,1 1,0 0,-1 0,2 0,0 8,9 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3660.05">2286 992,'7'-1,"1"0,0-1,-1 0,1 0,-1-1,0 0,0 0,1 1,-2-2,7-5,45-18,-55 26,0-1,-1 2,1-1,0 0,0 0,0 1,1 0,-1-1,0 1,-1 0,1 1,0-1,0 0,0 1,1 0,-1-1,-1 1,1 0,0 0,-1 1,1-1,0 1,-1-1,0 1,2 0,2 3,-3 0,0 0,0 0,0 1,0 0,0-2,-1 2,0 0,-1 0,1-1,-1 2,-1-1,1 6,0 32,-2 0,-3-1,-11 52,9-52,2-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4261.05">2562 584,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5162.78">2947 0,'78'120,"-2"-4,-50-68,-2 1,-3 0,-2 2,-2 1,-2 0,-4 1,-2 0,-1 0,-2 67,-7-39,-6 360,6-422,-2 1,1-1,-10 35,10-46,-1-1,0-1,-1 1,1 0,-1-1,0 0,0 0,-1 0,-1 0,1-1,-1 0,1 0,-10 6,-15 9,1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5732.96">3581 737,'9'0,"22"0,19-4,7-1,-3 0,0 0,0 2,-6 1,-9 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25390,17 +25589,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 1024,'-1'14,"0"0,-1-1,0 0,-1 1,0-1,-1 0,-12 24,16-36,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1-1,-5-15,2-27,2-229,5 229,3 0,1 0,2 1,20-58,-20 76,22-63,3 2,52-92,-62 132,-14 27,0-1,1 1,0 0,2 1,20-22,-31 38,-1 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 1,0 0,1-1,-1 1,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,1 1,3 6,0-1,0 0,-1 1,7 18,-3 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="664.61">1 760,'4'0,"11"0,7 0,9 0,13 0,7 0,5 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1374.55">1192 45,'-1'6,"1"-1,-1 0,0 0,-1 1,1-1,-1 0,0 0,0-1,0 1,-1 0,0-1,0 1,-6 7,-6 4,-1-1,-18 16,0-2,14-10,1 0,1 1,0 1,2 0,1 2,0-1,2 2,0 0,2 1,1 0,-10 33,-4 38,3 0,5 2,-5 137,21-210,-1 0,0 1,2 0,1 0,1 0,1-1,11 37,-4-37</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2407.22">1112 1157,'4'0,"7"-4,5-2,0-5,2 1,3-4,-3-3,0 1,2 3,6 5,4 6,0 5,-4 7,-11 0,-22 0,-10-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3228.88">1086 442,'-1'-3,"1"-1,0 1,1 0,-1-1,0 1,1-1,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,-1 0,1 0,4-4,-3 4,0 1,0 0,1 0,-1 0,1 0,-1 1,1 0,-1-1,1 1,0 1,0-1,-1 0,1 1,0 0,6 0,11 0,1 0,-1 2,0 0,0 2,0 0,-1 1,1 1,38 18,-49-19,-1 1,1 0,-1 0,0 1,0 1,-1-1,0 1,0 1,-1-1,0 1,-1 1,1-1,-2 1,0 0,0 0,0 1,-2-1,5 18,10 72,-15-71,2-1,0-1,2 1,1-1,1 0,14 26,-8-30,0-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3956.85">1774 389,'-7'2,"0"-1,0 1,0 1,1-1,-1 1,1 0,0 1,0-1,0 1,1 0,-7 6,-5 2,-26 17,2 1,2 3,1 1,1 1,2 2,1 2,3 1,-50 81,-24 80,98-189,-1 1,-19 22,21-29,1 0,-1 1,1-1,1 1,-1 0,1 0,0 1,1-1,0 1,0 0,0-1,-1 14,5-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5101.28">1827 813,'4'-4,"6"-2,7 0,3-3,4 0,2 1,-3 7,-6 12,-6 9,-4 15,-4 5,-2 5,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5483.27">1985 548,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6294.39">2118 892,'4'0,"6"0,7 0,3 0,9 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7510.72">2620 707,'0'5,"0"10,0 16,0 12,-5 7,-1 5,1 6,0 2,-3-1,-4-6,3-13,5-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8571.73">2964 98,'3'-2,"0"0,1 0,-1 0,1 0,0 1,-1-1,1 1,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 1,0-1,0 1,4 1,7 1,-1 1,0 0,24 12,-21-7,0 1,-1 0,0 1,-1 1,-1 0,1 1,-2 1,0 0,-1 1,0 0,-1 1,-1 1,0-1,-2 1,0 1,9 28,-4-4,-3 0,-1 0,-2 1,-2 1,-2-1,-2 56,-4 17,-11 189,8-247,-2 0,-3 0,-22 66,28-108,-1 1,-1-1,-1 0,0 0,-1-1,-1 0,-19 24,22-33,0-1,0 0,0 0,-1-1,1 0,-1 0,0-1,-15 5,-73 13,76-18,-67 12,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">57 986,'-1'13,"0"1,-2-2,1 1,-1 0,0 0,-1 0,-13 22,17-34,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1-1,-6-14,3-27,2-220,5 221,3-1,2 1,1 1,22-57,-22 74,24-61,2 3,56-90,-66 128,-15 26,1-2,0 2,1 0,2 0,20-20,-32 36,-1 0,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 1,0 0,1-1,-1 1,0 0,1-1,0 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 2,1 1,3 6,1-1,-1-1,-1 2,8 17,-4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="664.61">1 732,'4'0,"12"0,7 0,10 0,13 0,7 0,6 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1374.55">1252 43,'-1'6,"1"-1,-1 0,-1 0,0 0,1 0,-1 0,0 0,0-1,0 0,-1 1,0-1,-1 1,-5 7,-7 3,-1-1,-18 16,-1-2,15-10,1 1,1 0,0 1,2 0,2 3,-1-2,2 2,1 0,1 1,2 0,-11 32,-5 36,4 1,6 1,-6 132,22-201,-2-1,1 1,2 0,2 0,0 0,1-1,12 35,-5-34</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2407.21">1168 1114,'4'0,"7"-4,6-2,0-4,2 0,3-3,-3-4,0 2,2 2,6 6,5 5,-1 5,-4 6,-11 1,-23 0,-11-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3228.88">1140 426,'-1'-3,"1"-1,0 1,1 0,-1-1,0 1,1 0,0 0,0-1,0 1,1 0,0 0,-1 0,1 0,-1 0,1 1,4-5,-3 4,1 1,-1 0,1 0,-1 0,1 0,-1 1,2 0,-2-1,1 1,0 1,0 0,0-1,0 1,0 0,6 0,12 0,2 0,-2 1,0 1,0 2,0 0,-1 1,1 1,40 17,-52-18,0 0,0 1,0 0,-1 1,1 0,-2 0,0 1,1 1,-2-2,0 2,0 1,0-2,-2 2,1-1,-1 1,0 1,-2-2,6 18,10 70,-16-70,2 0,0-1,3 1,0-1,1 0,16 25,-10-28,1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3956.85">1863 375,'-8'2,"1"-2,0 2,-1 1,2-1,-1 1,0 0,1 1,0-1,-1 1,2-1,-7 7,-6 2,-27 16,2 0,2 4,1 1,1 1,2 1,1 3,4 0,-53 79,-25 76,102-181,0 0,-21 22,23-28,1 0,-1 0,0 0,2 1,-1 0,1-1,-1 2,2-1,0 1,0-1,0 0,-1 13,5-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5101.28">1918 783,'5'-4,"5"-2,8 0,3-2,4-1,2 1,-2 7,-8 12,-5 8,-5 15,-4 4,-1 6,-4-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5483.27">2084 528,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6294.39">2224 859,'4'0,"7"0,6 0,4 0,10 0,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7510.72">2751 681,'0'5,"0"9,0 16,0 11,-5 7,-1 5,0 6,1 2,-3-2,-5-5,4-12,4-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8571.73">3112 94,'3'-2,"1"1,0-1,-1 0,1 0,0 1,-1-1,2 1,-1 0,0 0,0 0,0 1,1-1,-1 1,0 0,0 0,0 1,1-1,-1 1,4 1,8 1,-1 1,-1 0,26 11,-22-6,0 0,-1 1,0 0,-2 2,0 0,1 0,-3 2,1-1,-1 1,-1 1,0 0,-2 2,1-2,-3 1,1 2,9 26,-5-3,-2-1,-2 0,-2 2,-1 0,-3 0,-2 53,-4 17,-12 181,9-237,-3 0,-2 0,-24 63,30-103,-1 0,-2-1,0 1,-1-1,0 0,-1-1,-21 24,24-33,-1 0,1 0,0 0,-2-1,2 0,-1-1,-1 0,-15 5,-77 12,80-17,-70 12,2-3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25427,8 +25626,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 104,'264'0,"7150"0,-7278-1,1-6,246-47,-348 49,44-2,-48 5,43-7,-74 9,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-13-3,-33-3,-77 2,-19 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1243.79">3970 422,'0'1,"1"-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0-1,0 1,1-1,-1 1,0 1,1 0,16 39,-1 1,-3 1,-1 0,-2 1,5 60,-6 4,-5 119,-6-172,-12 84,10-117,-1 1,-1-1,-1 0,-1 0,-1-1,-16 29,25-49,-1 0,1 1,-1-1,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,-1-1,1 1,0 0,-2-1,2 0,0 0,0-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 1,0-1,0 0,-1-2,-1-5,1 0,0-1,0 1,1-1,0 1,1-11,4-4,1 1,1 0,1 0,1 0,1 1,1 1,20-31,107-126,-91 122,89-79,-113 114,1 1,1 2,1 0,0 1,1 2,45-18,-67 30,0 1,0-1,1 1,-1 0,0 0,1 0,-1 1,1 0,-1 0,1 0,-1 1,0-1,1 2,-1-1,0 0,1 1,7 4,-8-3,1 1,-1 0,0 0,0 1,-1-1,1 1,-1 0,0 1,0-1,-1 1,1-1,3 11,2 8,-2 1,0-1,-2 1,0 0,-2 1,0 33,-3-10,-2 0,-3 0,-1-1,-3 0,-2 0,-2-1,-32 79,33-98,2 0,2 1,0 0,-4 37,11-61,1-1,-1 0,-1 1,1-1,0 1,-1-1,0 0,0 0,-4 6,-10 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 100,'274'0,"7420"0,-7553-1,1-6,256-45,-362 48,46-3,-50 5,45-7,-77 9,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-14-2,-33-4,-81 2,-19 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1243.79">4120 406,'0'1,"1"-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0-1,0 1,1-1,-1 1,0 1,1 0,17 37,-1 2,-4 0,0 0,-3 2,5 57,-5 4,-6 114,-6-165,-13 81,11-113,-1 2,-1-2,-1 0,-2 0,0-1,-17 28,26-47,-1 0,1 1,-1-1,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,-2 0,2 0,0-1,0 1,0 0,-1-1,1 1,0 0,-2-1,2 0,0 0,0-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 1,0-1,0 0,-1-2,-2-4,2-1,0-1,0 2,1-2,0 1,1-10,5-4,0 1,1-1,1 1,2 0,0 1,1 1,22-31,110-120,-94 117,92-76,-117 110,1 1,1 1,0 1,1 0,1 3,47-18,-70 29,1 1,-1-1,1 1,-1 0,0 0,2 0,-2 1,1 0,-1 0,1 0,0 1,-1-1,1 2,-1-1,0 0,2 1,6 4,-8-3,2 1,-2 0,0-1,0 2,-1-1,1 1,0 0,-1 1,0-2,-1 2,1-1,3 10,3 8,-3 1,0 0,-2 0,1 0,-3 1,0 32,-3-10,-2 0,-3 0,-2-1,-2 1,-2-1,-3-1,-33 76,35-94,2 0,1 1,1 0,-4 36,11-60,1 0,-1 0,-2 1,2-1,0 1,-1-2,0 1,0 0,-4 6,-11 9</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25735,7 +25934,7 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25746,16 +25945,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6228ABB-2CB4-4169-9324-731AF68D0868}">
   <dimension ref="C1:AC30"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="N95" sqref="N95"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="13:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="13:29" x14ac:dyDescent="0.3">
       <c r="N1">
         <v>4</v>
       </c>
@@ -25769,7 +25968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="13:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="13:29" x14ac:dyDescent="0.3">
       <c r="M2" t="s">
         <v>0</v>
       </c>
@@ -25792,7 +25991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="13:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="13:29" x14ac:dyDescent="0.3">
       <c r="M3">
         <v>0.375</v>
       </c>
@@ -25821,7 +26020,7 @@
         <v>1.0260498046875</v>
       </c>
     </row>
-    <row r="4" spans="13:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="13:29" x14ac:dyDescent="0.3">
       <c r="W4">
         <v>1</v>
       </c>
@@ -25844,7 +26043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="13:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="13:29" x14ac:dyDescent="0.3">
       <c r="W5">
         <v>123</v>
       </c>
@@ -25867,7 +26066,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>3</v>
       </c>
@@ -25878,7 +26077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -25895,7 +26094,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>0.5</v>
       </c>
@@ -25934,17 +26133,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B912D4-74EC-43C9-ADFA-7967736E8109}">
   <dimension ref="C1:AC30"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54:N56"/>
+    <sheetView topLeftCell="F22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="13:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="13:29" x14ac:dyDescent="0.3">
       <c r="N1">
         <v>4</v>
       </c>
@@ -25958,7 +26157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="13:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="13:29" x14ac:dyDescent="0.3">
       <c r="M2" t="s">
         <v>0</v>
       </c>
@@ -25981,7 +26180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="13:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="13:29" x14ac:dyDescent="0.3">
       <c r="M3">
         <v>1</v>
       </c>
@@ -26010,7 +26209,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="13:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="13:29" x14ac:dyDescent="0.3">
       <c r="W4">
         <v>1</v>
       </c>
@@ -26033,7 +26232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="13:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="13:29" x14ac:dyDescent="0.3">
       <c r="W5">
         <v>123</v>
       </c>
@@ -26056,7 +26255,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>3</v>
       </c>
@@ -26067,7 +26266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -26084,7 +26283,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>0.5</v>
       </c>
@@ -26123,9 +26322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB718899-6A88-4347-9C54-F597D3C37DD3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26136,9 +26335,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4165C741-9FCE-4257-A4F8-615621955364}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="S64" workbookViewId="0">
+      <selection activeCell="X71" sqref="X71"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
